--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="817">
   <si>
     <t>Surname</t>
   </si>
@@ -547,6 +547,12 @@
     <t>H200548W</t>
   </si>
   <si>
+    <t>CHONODYAMARI</t>
+  </si>
+  <si>
+    <t>H190655M</t>
+  </si>
+  <si>
     <t>CHUMA</t>
   </si>
   <si>
@@ -862,6 +868,12 @@
     <t>H200571Z</t>
   </si>
   <si>
+    <t>KAMUSASA</t>
+  </si>
+  <si>
+    <t>H190442A</t>
+  </si>
+  <si>
     <t>KANDIMA</t>
   </si>
   <si>
@@ -1891,6 +1903,12 @@
     <t>H200599H</t>
   </si>
   <si>
+    <t>MUTIKANI</t>
+  </si>
+  <si>
+    <t>H180708R</t>
+  </si>
+  <si>
     <t>MUTODZA</t>
   </si>
   <si>
@@ -2327,6 +2345,12 @@
   </si>
   <si>
     <t>H200650T</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>H190814Z</t>
   </si>
   <si>
     <t>TIGERE</t>
@@ -3644,7 +3668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H406"/>
+  <dimension ref="A1:H410"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3970,7 +3994,9 @@
       <c r="C19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -4084,7 +4110,9 @@
       <c r="C26" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -4100,7 +4128,9 @@
       <c r="C27" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -4182,7 +4212,9 @@
       <c r="C32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -4858,7 +4890,9 @@
       <c r="C74" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -5016,10 +5050,10 @@
         <v>179</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D84" s="7">
-        <v>0.692307692307692</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -5034,9 +5068,11 @@
         <v>181</v>
       </c>
       <c r="C85" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D85" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -5050,7 +5086,7 @@
         <v>183</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
@@ -5066,7 +5102,7 @@
         <v>185</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="8"/>
@@ -5082,7 +5118,7 @@
         <v>187</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="8"/>
@@ -5098,7 +5134,7 @@
         <v>189</v>
       </c>
       <c r="C89" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="8"/>
@@ -5114,7 +5150,7 @@
         <v>191</v>
       </c>
       <c r="C90" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="8"/>
@@ -5132,9 +5168,7 @@
       <c r="C91" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D91" s="7">
-        <v>0.41025641025641</v>
-      </c>
+      <c r="D91" s="7"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -5148,9 +5182,11 @@
         <v>195</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D92" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -5164,7 +5200,7 @@
         <v>197</v>
       </c>
       <c r="C93" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
@@ -5180,7 +5216,7 @@
         <v>199</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="8"/>
@@ -5196,9 +5232,11 @@
         <v>201</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -5212,9 +5250,11 @@
         <v>203</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D96" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -5244,7 +5284,7 @@
         <v>207</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="8"/>
@@ -5260,7 +5300,7 @@
         <v>209</v>
       </c>
       <c r="C99" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="8"/>
@@ -5276,7 +5316,7 @@
         <v>211</v>
       </c>
       <c r="C100" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="8"/>
@@ -5292,11 +5332,9 @@
         <v>213</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D101" s="7">
-        <v>0.512820512820513</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D101" s="7"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -5310,9 +5348,11 @@
         <v>215</v>
       </c>
       <c r="C102" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D102" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -5326,7 +5366,7 @@
         <v>217</v>
       </c>
       <c r="C103" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="8"/>
@@ -5352,17 +5392,15 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="6">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B105" t="s" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D105" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D105" s="7"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -5370,15 +5408,17 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s" s="6">
         <v>222</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D106" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -5392,7 +5432,7 @@
         <v>224</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="8"/>
@@ -5408,7 +5448,7 @@
         <v>226</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="8"/>
@@ -5424,7 +5464,7 @@
         <v>228</v>
       </c>
       <c r="C109" t="s" s="6">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="8"/>
@@ -5440,7 +5480,7 @@
         <v>230</v>
       </c>
       <c r="C110" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="8"/>
@@ -5472,7 +5512,7 @@
         <v>234</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="8"/>
@@ -5488,7 +5528,7 @@
         <v>236</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="8"/>
@@ -5504,7 +5544,7 @@
         <v>238</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="8"/>
@@ -5520,7 +5560,7 @@
         <v>240</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="8"/>
@@ -5536,7 +5576,7 @@
         <v>242</v>
       </c>
       <c r="C116" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="8"/>
@@ -5552,7 +5592,7 @@
         <v>244</v>
       </c>
       <c r="C117" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="8"/>
@@ -5584,7 +5624,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="8"/>
@@ -5600,7 +5640,7 @@
         <v>250</v>
       </c>
       <c r="C120" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="8"/>
@@ -5616,7 +5656,7 @@
         <v>252</v>
       </c>
       <c r="C121" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="8"/>
@@ -5632,7 +5672,7 @@
         <v>254</v>
       </c>
       <c r="C122" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="8"/>
@@ -5664,7 +5704,7 @@
         <v>258</v>
       </c>
       <c r="C124" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="8"/>
@@ -5680,7 +5720,7 @@
         <v>260</v>
       </c>
       <c r="C125" t="s" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="8"/>
@@ -5696,7 +5736,7 @@
         <v>262</v>
       </c>
       <c r="C126" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="8"/>
@@ -5712,7 +5752,7 @@
         <v>264</v>
       </c>
       <c r="C127" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="8"/>
@@ -5728,7 +5768,7 @@
         <v>266</v>
       </c>
       <c r="C128" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="8"/>
@@ -5744,7 +5784,7 @@
         <v>268</v>
       </c>
       <c r="C129" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="8"/>
@@ -5760,7 +5800,7 @@
         <v>270</v>
       </c>
       <c r="C130" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8"/>
@@ -5776,7 +5816,7 @@
         <v>272</v>
       </c>
       <c r="C131" t="s" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="8"/>
@@ -5792,11 +5832,9 @@
         <v>274</v>
       </c>
       <c r="C132" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D132" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D132" s="7"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
@@ -5810,9 +5848,11 @@
         <v>276</v>
       </c>
       <c r="C133" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D133" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -5826,7 +5866,7 @@
         <v>278</v>
       </c>
       <c r="C134" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="8"/>
@@ -5858,7 +5898,7 @@
         <v>282</v>
       </c>
       <c r="C136" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="8"/>
@@ -5874,7 +5914,7 @@
         <v>284</v>
       </c>
       <c r="C137" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="8"/>
@@ -5890,9 +5930,11 @@
         <v>286</v>
       </c>
       <c r="C138" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D138" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
@@ -5906,7 +5948,7 @@
         <v>288</v>
       </c>
       <c r="C139" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="8"/>
@@ -5922,7 +5964,7 @@
         <v>290</v>
       </c>
       <c r="C140" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="8"/>
@@ -5938,7 +5980,7 @@
         <v>292</v>
       </c>
       <c r="C141" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="8"/>
@@ -5954,11 +5996,9 @@
         <v>294</v>
       </c>
       <c r="C142" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D142" s="7">
-        <v>0.846153846153846</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D142" s="7"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
@@ -5972,7 +6012,7 @@
         <v>296</v>
       </c>
       <c r="C143" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="8"/>
@@ -5988,9 +6028,11 @@
         <v>298</v>
       </c>
       <c r="C144" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D144" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
@@ -6036,11 +6078,9 @@
         <v>304</v>
       </c>
       <c r="C147" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D147" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D147" s="7"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
@@ -6054,7 +6094,7 @@
         <v>306</v>
       </c>
       <c r="C148" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="8"/>
@@ -6070,9 +6110,11 @@
         <v>308</v>
       </c>
       <c r="C149" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D149" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D149" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
@@ -6086,11 +6128,9 @@
         <v>310</v>
       </c>
       <c r="C150" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D150" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D150" s="7"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
@@ -6104,7 +6144,7 @@
         <v>312</v>
       </c>
       <c r="C151" t="s" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="8"/>
@@ -6114,15 +6154,17 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="6">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B152" t="s" s="6">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C152" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D152" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D152" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
@@ -6130,13 +6172,13 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="6">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="8"/>
@@ -6146,13 +6188,13 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="6">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s" s="6">
         <v>317</v>
       </c>
       <c r="C154" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="8"/>
@@ -6168,9 +6210,11 @@
         <v>319</v>
       </c>
       <c r="C155" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D155" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
@@ -6184,7 +6228,7 @@
         <v>321</v>
       </c>
       <c r="C156" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="8"/>
@@ -6200,7 +6244,7 @@
         <v>323</v>
       </c>
       <c r="C157" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="8"/>
@@ -6216,7 +6260,7 @@
         <v>325</v>
       </c>
       <c r="C158" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="8"/>
@@ -6248,7 +6292,7 @@
         <v>329</v>
       </c>
       <c r="C160" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="8"/>
@@ -6264,7 +6308,7 @@
         <v>331</v>
       </c>
       <c r="C161" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="8"/>
@@ -6280,7 +6324,7 @@
         <v>333</v>
       </c>
       <c r="C162" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="8"/>
@@ -6296,9 +6340,11 @@
         <v>335</v>
       </c>
       <c r="C163" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D163" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
@@ -6312,7 +6358,7 @@
         <v>337</v>
       </c>
       <c r="C164" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="8"/>
@@ -6328,7 +6374,7 @@
         <v>339</v>
       </c>
       <c r="C165" t="s" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="8"/>
@@ -6344,9 +6390,11 @@
         <v>341</v>
       </c>
       <c r="C166" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D166" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D166" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
@@ -6360,7 +6408,7 @@
         <v>343</v>
       </c>
       <c r="C167" t="s" s="6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="8"/>
@@ -6376,7 +6424,7 @@
         <v>345</v>
       </c>
       <c r="C168" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="8"/>
@@ -6392,7 +6440,7 @@
         <v>347</v>
       </c>
       <c r="C169" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="8"/>
@@ -6408,7 +6456,7 @@
         <v>349</v>
       </c>
       <c r="C170" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="8"/>
@@ -6424,7 +6472,7 @@
         <v>351</v>
       </c>
       <c r="C171" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
@@ -6440,7 +6488,7 @@
         <v>353</v>
       </c>
       <c r="C172" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="8"/>
@@ -6456,7 +6504,7 @@
         <v>355</v>
       </c>
       <c r="C173" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="8"/>
@@ -6472,7 +6520,7 @@
         <v>357</v>
       </c>
       <c r="C174" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
@@ -6488,7 +6536,7 @@
         <v>359</v>
       </c>
       <c r="C175" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="8"/>
@@ -6504,7 +6552,7 @@
         <v>361</v>
       </c>
       <c r="C176" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="8"/>
@@ -6520,7 +6568,7 @@
         <v>363</v>
       </c>
       <c r="C177" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="8"/>
@@ -6536,9 +6584,11 @@
         <v>365</v>
       </c>
       <c r="C178" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D178" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D178" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
@@ -6552,7 +6602,7 @@
         <v>367</v>
       </c>
       <c r="C179" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="8"/>
@@ -6568,7 +6618,7 @@
         <v>369</v>
       </c>
       <c r="C180" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="8"/>
@@ -6584,7 +6634,7 @@
         <v>371</v>
       </c>
       <c r="C181" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="8"/>
@@ -6616,11 +6666,9 @@
         <v>375</v>
       </c>
       <c r="C183" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D183" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D183" s="7"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
@@ -6634,7 +6682,7 @@
         <v>377</v>
       </c>
       <c r="C184" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="8"/>
@@ -6650,10 +6698,10 @@
         <v>379</v>
       </c>
       <c r="C185" t="s" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D185" s="7">
-        <v>0.307692307692308</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
@@ -6668,7 +6716,7 @@
         <v>381</v>
       </c>
       <c r="C186" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="8"/>
@@ -6684,9 +6732,11 @@
         <v>383</v>
       </c>
       <c r="C187" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D187" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D187" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
@@ -6700,7 +6750,7 @@
         <v>385</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="8"/>
@@ -6716,7 +6766,7 @@
         <v>387</v>
       </c>
       <c r="C189" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="8"/>
@@ -6732,7 +6782,7 @@
         <v>389</v>
       </c>
       <c r="C190" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="8"/>
@@ -6748,7 +6798,7 @@
         <v>391</v>
       </c>
       <c r="C191" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="8"/>
@@ -6796,7 +6846,7 @@
         <v>397</v>
       </c>
       <c r="C194" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="8"/>
@@ -6812,7 +6862,7 @@
         <v>399</v>
       </c>
       <c r="C195" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="8"/>
@@ -6828,7 +6878,7 @@
         <v>401</v>
       </c>
       <c r="C196" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="8"/>
@@ -6844,7 +6894,7 @@
         <v>403</v>
       </c>
       <c r="C197" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="8"/>
@@ -6860,7 +6910,7 @@
         <v>405</v>
       </c>
       <c r="C198" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="8"/>
@@ -6876,7 +6926,7 @@
         <v>407</v>
       </c>
       <c r="C199" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="8"/>
@@ -6892,7 +6942,7 @@
         <v>409</v>
       </c>
       <c r="C200" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="8"/>
@@ -6908,7 +6958,7 @@
         <v>411</v>
       </c>
       <c r="C201" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="8"/>
@@ -6940,7 +6990,7 @@
         <v>415</v>
       </c>
       <c r="C203" t="s" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="8"/>
@@ -6956,9 +7006,11 @@
         <v>417</v>
       </c>
       <c r="C204" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D204" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D204" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
@@ -6972,7 +7024,7 @@
         <v>419</v>
       </c>
       <c r="C205" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="8"/>
@@ -6988,7 +7040,7 @@
         <v>421</v>
       </c>
       <c r="C206" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="8"/>
@@ -7004,7 +7056,7 @@
         <v>423</v>
       </c>
       <c r="C207" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="8"/>
@@ -7020,7 +7072,7 @@
         <v>425</v>
       </c>
       <c r="C208" t="s" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="8"/>
@@ -7036,7 +7088,7 @@
         <v>427</v>
       </c>
       <c r="C209" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="8"/>
@@ -7052,11 +7104,9 @@
         <v>429</v>
       </c>
       <c r="C210" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D210" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D210" s="7"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
@@ -7086,9 +7136,11 @@
         <v>433</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D212" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D212" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
@@ -7102,7 +7154,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="8"/>
@@ -7118,10 +7170,10 @@
         <v>437</v>
       </c>
       <c r="C214" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D214" s="7">
-        <v>0.794871794871795</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
@@ -7136,11 +7188,9 @@
         <v>439</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D215" s="7">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D215" s="7"/>
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
@@ -7154,10 +7204,10 @@
         <v>441</v>
       </c>
       <c r="C216" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D216" s="7">
-        <v>0.564102564102564</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
@@ -7166,16 +7216,16 @@
     </row>
     <row r="217" ht="20.05" customHeight="1">
       <c r="A217" t="s" s="6">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B217" t="s" s="6">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C217" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D217" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
@@ -7184,15 +7234,17 @@
     </row>
     <row r="218" ht="20.05" customHeight="1">
       <c r="A218" t="s" s="6">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B218" t="s" s="6">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C218" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D218" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D218" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
@@ -7200,15 +7252,17 @@
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="6">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B219" t="s" s="6">
         <v>446</v>
       </c>
       <c r="C219" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D219" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D219" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
@@ -7222,7 +7276,7 @@
         <v>448</v>
       </c>
       <c r="C220" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="8"/>
@@ -7238,7 +7292,7 @@
         <v>450</v>
       </c>
       <c r="C221" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="8"/>
@@ -7254,7 +7308,7 @@
         <v>452</v>
       </c>
       <c r="C222" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="8"/>
@@ -7270,10 +7324,10 @@
         <v>454</v>
       </c>
       <c r="C223" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D223" s="7">
-        <v>0.307692307692308</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
@@ -7304,9 +7358,11 @@
         <v>458</v>
       </c>
       <c r="C225" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D225" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D225" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
@@ -7320,7 +7376,7 @@
         <v>460</v>
       </c>
       <c r="C226" t="s" s="6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="8"/>
@@ -7336,7 +7392,7 @@
         <v>462</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D227" s="7"/>
       <c r="E227" s="8"/>
@@ -7352,7 +7408,7 @@
         <v>464</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="8"/>
@@ -7384,9 +7440,11 @@
         <v>468</v>
       </c>
       <c r="C230" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D230" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D230" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
@@ -7400,7 +7458,7 @@
         <v>470</v>
       </c>
       <c r="C231" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D231" s="7"/>
       <c r="E231" s="8"/>
@@ -7416,7 +7474,7 @@
         <v>472</v>
       </c>
       <c r="C232" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="8"/>
@@ -7432,7 +7490,7 @@
         <v>474</v>
       </c>
       <c r="C233" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D233" s="7"/>
       <c r="E233" s="8"/>
@@ -7448,7 +7506,7 @@
         <v>476</v>
       </c>
       <c r="C234" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D234" s="7"/>
       <c r="E234" s="8"/>
@@ -7464,7 +7522,7 @@
         <v>478</v>
       </c>
       <c r="C235" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D235" s="7"/>
       <c r="E235" s="8"/>
@@ -7480,7 +7538,7 @@
         <v>480</v>
       </c>
       <c r="C236" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="8"/>
@@ -7496,7 +7554,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="8"/>
@@ -7512,7 +7570,7 @@
         <v>484</v>
       </c>
       <c r="C238" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="8"/>
@@ -7528,7 +7586,7 @@
         <v>486</v>
       </c>
       <c r="C239" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="8"/>
@@ -7538,13 +7596,13 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="6">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B240" t="s" s="6">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C240" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="8"/>
@@ -7554,13 +7612,13 @@
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="6">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B241" t="s" s="6">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C241" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="8"/>
@@ -7570,13 +7628,13 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B242" t="s" s="6">
         <v>491</v>
       </c>
       <c r="C242" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D242" s="7"/>
       <c r="E242" s="8"/>
@@ -7592,7 +7650,7 @@
         <v>493</v>
       </c>
       <c r="C243" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="8"/>
@@ -7608,7 +7666,7 @@
         <v>495</v>
       </c>
       <c r="C244" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D244" s="7"/>
       <c r="E244" s="8"/>
@@ -7624,11 +7682,9 @@
         <v>497</v>
       </c>
       <c r="C245" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D245" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D245" s="7"/>
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
@@ -7642,7 +7698,7 @@
         <v>499</v>
       </c>
       <c r="C246" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="8"/>
@@ -7658,9 +7714,11 @@
         <v>501</v>
       </c>
       <c r="C247" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D247" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D247" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
@@ -7674,7 +7732,7 @@
         <v>503</v>
       </c>
       <c r="C248" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D248" s="7"/>
       <c r="E248" s="8"/>
@@ -7690,7 +7748,7 @@
         <v>505</v>
       </c>
       <c r="C249" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="8"/>
@@ -7706,7 +7764,7 @@
         <v>507</v>
       </c>
       <c r="C250" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="8"/>
@@ -7716,13 +7774,13 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="6">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B251" t="s" s="6">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C251" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D251" s="7"/>
       <c r="E251" s="8"/>
@@ -7732,13 +7790,13 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B252" t="s" s="6">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C252" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D252" s="7"/>
       <c r="E252" s="8"/>
@@ -7748,13 +7806,13 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B253" t="s" s="6">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C253" t="s" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="8"/>
@@ -7764,17 +7822,15 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="6">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B254" t="s" s="6">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C254" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D254" s="7">
-        <v>0.641025641025641</v>
-      </c>
+      <c r="D254" s="7"/>
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
@@ -7782,7 +7838,7 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B255" t="s" s="6">
         <v>515</v>
@@ -7790,9 +7846,7 @@
       <c r="C255" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D255" s="7">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="D255" s="7"/>
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -7806,9 +7860,11 @@
         <v>517</v>
       </c>
       <c r="C256" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D256" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D256" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
@@ -7822,10 +7878,10 @@
         <v>519</v>
       </c>
       <c r="C257" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D257" s="7">
-        <v>0.487179487179487</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -7840,7 +7896,7 @@
         <v>521</v>
       </c>
       <c r="C258" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D258" s="7"/>
       <c r="E258" s="8"/>
@@ -7858,7 +7914,9 @@
       <c r="C259" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D259" s="7"/>
+      <c r="D259" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
@@ -7866,13 +7924,13 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="6">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B260" t="s" s="6">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C260" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D260" s="7"/>
       <c r="E260" s="8"/>
@@ -7882,15 +7940,17 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="6">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B261" t="s" s="6">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C261" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D261" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D261" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
@@ -7898,15 +7958,17 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="6">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B262" t="s" s="6">
         <v>528</v>
       </c>
       <c r="C262" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D262" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D262" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
@@ -7920,7 +7982,7 @@
         <v>530</v>
       </c>
       <c r="C263" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D263" s="7"/>
       <c r="E263" s="8"/>
@@ -7936,7 +7998,7 @@
         <v>532</v>
       </c>
       <c r="C264" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D264" s="7"/>
       <c r="E264" s="8"/>
@@ -7952,9 +8014,11 @@
         <v>534</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D265" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D265" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
@@ -7968,7 +8032,7 @@
         <v>536</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D266" s="7"/>
       <c r="E266" s="8"/>
@@ -7984,7 +8048,7 @@
         <v>538</v>
       </c>
       <c r="C267" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D267" s="7"/>
       <c r="E267" s="8"/>
@@ -8000,7 +8064,7 @@
         <v>540</v>
       </c>
       <c r="C268" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D268" s="7"/>
       <c r="E268" s="8"/>
@@ -8016,9 +8080,11 @@
         <v>542</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D269" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D269" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
@@ -8032,7 +8098,7 @@
         <v>544</v>
       </c>
       <c r="C270" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D270" s="7"/>
       <c r="E270" s="8"/>
@@ -8048,11 +8114,9 @@
         <v>546</v>
       </c>
       <c r="C271" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D271" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D271" s="7"/>
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
       <c r="G271" s="8"/>
@@ -8066,7 +8130,7 @@
         <v>548</v>
       </c>
       <c r="C272" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D272" s="7"/>
       <c r="E272" s="8"/>
@@ -8082,9 +8146,11 @@
         <v>550</v>
       </c>
       <c r="C273" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D273" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D273" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
@@ -8098,7 +8164,7 @@
         <v>552</v>
       </c>
       <c r="C274" t="s" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D274" s="7"/>
       <c r="E274" s="8"/>
@@ -8114,7 +8180,7 @@
         <v>554</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="8"/>
@@ -8130,7 +8196,7 @@
         <v>556</v>
       </c>
       <c r="C276" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D276" s="7"/>
       <c r="E276" s="8"/>
@@ -8146,7 +8212,7 @@
         <v>558</v>
       </c>
       <c r="C277" t="s" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D277" s="7"/>
       <c r="E277" s="8"/>
@@ -8162,7 +8228,7 @@
         <v>560</v>
       </c>
       <c r="C278" t="s" s="6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D278" s="7"/>
       <c r="E278" s="8"/>
@@ -8178,7 +8244,7 @@
         <v>562</v>
       </c>
       <c r="C279" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D279" s="7"/>
       <c r="E279" s="8"/>
@@ -8194,9 +8260,11 @@
         <v>564</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D280" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D280" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
       <c r="G280" s="8"/>
@@ -8210,9 +8278,11 @@
         <v>566</v>
       </c>
       <c r="C281" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D281" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D281" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
@@ -8226,7 +8296,7 @@
         <v>568</v>
       </c>
       <c r="C282" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D282" s="7"/>
       <c r="E282" s="8"/>
@@ -8242,7 +8312,7 @@
         <v>570</v>
       </c>
       <c r="C283" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D283" s="7"/>
       <c r="E283" s="8"/>
@@ -8274,7 +8344,7 @@
         <v>574</v>
       </c>
       <c r="C285" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D285" s="7"/>
       <c r="E285" s="8"/>
@@ -8290,7 +8360,7 @@
         <v>576</v>
       </c>
       <c r="C286" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D286" s="7"/>
       <c r="E286" s="8"/>
@@ -8306,7 +8376,7 @@
         <v>578</v>
       </c>
       <c r="C287" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D287" s="7"/>
       <c r="E287" s="8"/>
@@ -8322,7 +8392,7 @@
         <v>580</v>
       </c>
       <c r="C288" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D288" s="7"/>
       <c r="E288" s="8"/>
@@ -8354,7 +8424,7 @@
         <v>584</v>
       </c>
       <c r="C290" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="8"/>
@@ -8370,11 +8440,9 @@
         <v>586</v>
       </c>
       <c r="C291" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D291" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D291" s="7"/>
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
       <c r="G291" s="8"/>
@@ -8388,7 +8456,7 @@
         <v>588</v>
       </c>
       <c r="C292" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D292" s="7"/>
       <c r="E292" s="8"/>
@@ -8404,9 +8472,11 @@
         <v>590</v>
       </c>
       <c r="C293" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D293" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D293" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
       <c r="G293" s="8"/>
@@ -8420,7 +8490,7 @@
         <v>592</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D294" s="7"/>
       <c r="E294" s="8"/>
@@ -8436,7 +8506,7 @@
         <v>594</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D295" s="7"/>
       <c r="E295" s="8"/>
@@ -8454,7 +8524,9 @@
       <c r="C296" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D296" s="7"/>
+      <c r="D296" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
@@ -8468,7 +8540,7 @@
         <v>598</v>
       </c>
       <c r="C297" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D297" s="7"/>
       <c r="E297" s="8"/>
@@ -8484,9 +8556,11 @@
         <v>600</v>
       </c>
       <c r="C298" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D298" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D298" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
@@ -8500,7 +8574,7 @@
         <v>602</v>
       </c>
       <c r="C299" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D299" s="7"/>
       <c r="E299" s="8"/>
@@ -8516,7 +8590,7 @@
         <v>604</v>
       </c>
       <c r="C300" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="8"/>
@@ -8532,7 +8606,7 @@
         <v>606</v>
       </c>
       <c r="C301" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="8"/>
@@ -8548,7 +8622,7 @@
         <v>608</v>
       </c>
       <c r="C302" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="8"/>
@@ -8564,11 +8638,9 @@
         <v>610</v>
       </c>
       <c r="C303" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D303" s="7">
-        <v>0.820512820512821</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D303" s="7"/>
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
       <c r="G303" s="8"/>
@@ -8600,7 +8672,9 @@
       <c r="C305" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D305" s="7"/>
+      <c r="D305" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
@@ -8614,7 +8688,7 @@
         <v>616</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D306" s="7"/>
       <c r="E306" s="8"/>
@@ -8630,7 +8704,7 @@
         <v>618</v>
       </c>
       <c r="C307" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D307" s="7"/>
       <c r="E307" s="8"/>
@@ -8646,7 +8720,7 @@
         <v>620</v>
       </c>
       <c r="C308" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D308" s="7"/>
       <c r="E308" s="8"/>
@@ -8656,13 +8730,13 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="6">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B309" t="s" s="6">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C309" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D309" s="7"/>
       <c r="E309" s="8"/>
@@ -8672,13 +8746,13 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="6">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B310" t="s" s="6">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C310" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D310" s="7"/>
       <c r="E310" s="8"/>
@@ -8688,7 +8762,7 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="6">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B311" t="s" s="6">
         <v>625</v>
@@ -8713,7 +8787,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="7">
-        <v>0.846153846153846</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
@@ -8728,7 +8802,7 @@
         <v>629</v>
       </c>
       <c r="C313" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D313" s="7"/>
       <c r="E313" s="8"/>
@@ -8744,9 +8818,11 @@
         <v>631</v>
       </c>
       <c r="C314" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D314" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D314" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
@@ -8760,9 +8836,11 @@
         <v>633</v>
       </c>
       <c r="C315" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D315" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D315" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
       <c r="G315" s="8"/>
@@ -8792,7 +8870,7 @@
         <v>637</v>
       </c>
       <c r="C317" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D317" s="7"/>
       <c r="E317" s="8"/>
@@ -8808,7 +8886,7 @@
         <v>639</v>
       </c>
       <c r="C318" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D318" s="7"/>
       <c r="E318" s="8"/>
@@ -8824,7 +8902,7 @@
         <v>641</v>
       </c>
       <c r="C319" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D319" s="7"/>
       <c r="E319" s="8"/>
@@ -8840,7 +8918,7 @@
         <v>643</v>
       </c>
       <c r="C320" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D320" s="7"/>
       <c r="E320" s="8"/>
@@ -8856,7 +8934,7 @@
         <v>645</v>
       </c>
       <c r="C321" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D321" s="7"/>
       <c r="E321" s="8"/>
@@ -8872,7 +8950,7 @@
         <v>647</v>
       </c>
       <c r="C322" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
@@ -8888,7 +8966,7 @@
         <v>649</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="8"/>
@@ -8904,7 +8982,7 @@
         <v>651</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D324" s="7"/>
       <c r="E324" s="8"/>
@@ -8920,11 +8998,9 @@
         <v>653</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D325" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D325" s="7"/>
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
       <c r="G325" s="8"/>
@@ -8938,7 +9014,7 @@
         <v>655</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D326" s="7"/>
       <c r="E326" s="8"/>
@@ -8954,7 +9030,7 @@
         <v>657</v>
       </c>
       <c r="C327" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="8"/>
@@ -8970,9 +9046,11 @@
         <v>659</v>
       </c>
       <c r="C328" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D328" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D328" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
       <c r="G328" s="8"/>
@@ -8986,7 +9064,7 @@
         <v>661</v>
       </c>
       <c r="C329" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D329" s="7"/>
       <c r="E329" s="8"/>
@@ -9002,7 +9080,7 @@
         <v>663</v>
       </c>
       <c r="C330" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D330" s="7"/>
       <c r="E330" s="8"/>
@@ -9018,7 +9096,7 @@
         <v>665</v>
       </c>
       <c r="C331" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D331" s="7"/>
       <c r="E331" s="8"/>
@@ -9034,9 +9112,11 @@
         <v>667</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D332" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D332" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
       <c r="G332" s="8"/>
@@ -9050,7 +9130,7 @@
         <v>669</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D333" s="7"/>
       <c r="E333" s="8"/>
@@ -9082,7 +9162,7 @@
         <v>673</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D335" s="7"/>
       <c r="E335" s="8"/>
@@ -9098,7 +9178,7 @@
         <v>675</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D336" s="7"/>
       <c r="E336" s="8"/>
@@ -9114,11 +9194,9 @@
         <v>677</v>
       </c>
       <c r="C337" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D337" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D337" s="7"/>
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
       <c r="G337" s="8"/>
@@ -9132,7 +9210,7 @@
         <v>679</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D338" s="7"/>
       <c r="E338" s="8"/>
@@ -9148,7 +9226,7 @@
         <v>681</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D339" s="7"/>
       <c r="E339" s="8"/>
@@ -9164,9 +9242,11 @@
         <v>683</v>
       </c>
       <c r="C340" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D340" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D340" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
       <c r="G340" s="8"/>
@@ -9180,9 +9260,11 @@
         <v>685</v>
       </c>
       <c r="C341" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D341" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D341" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
       <c r="G341" s="8"/>
@@ -9190,13 +9272,13 @@
     </row>
     <row r="342" ht="20.05" customHeight="1">
       <c r="A342" t="s" s="6">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B342" t="s" s="6">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C342" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D342" s="7"/>
       <c r="E342" s="8"/>
@@ -9206,17 +9288,15 @@
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B343" t="s" s="6">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D343" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D343" s="7"/>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
@@ -9224,10 +9304,10 @@
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B344" t="s" s="6">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C344" t="s" s="6">
         <v>49</v>
@@ -9240,13 +9320,13 @@
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B345" t="s" s="6">
         <v>692</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D345" s="7"/>
       <c r="E345" s="8"/>
@@ -9262,9 +9342,11 @@
         <v>694</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D346" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D346" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
       <c r="G346" s="8"/>
@@ -9278,7 +9360,7 @@
         <v>696</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D347" s="7"/>
       <c r="E347" s="8"/>
@@ -9294,7 +9376,7 @@
         <v>698</v>
       </c>
       <c r="C348" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D348" s="7"/>
       <c r="E348" s="8"/>
@@ -9310,7 +9392,7 @@
         <v>700</v>
       </c>
       <c r="C349" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D349" s="7"/>
       <c r="E349" s="8"/>
@@ -9326,7 +9408,7 @@
         <v>702</v>
       </c>
       <c r="C350" t="s" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D350" s="7"/>
       <c r="E350" s="8"/>
@@ -9336,13 +9418,13 @@
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="6">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B351" t="s" s="6">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C351" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="8"/>
@@ -9352,13 +9434,13 @@
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="6">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B352" t="s" s="6">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C352" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D352" s="7"/>
       <c r="E352" s="8"/>
@@ -9368,13 +9450,13 @@
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="6">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B353" t="s" s="6">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D353" s="7"/>
       <c r="E353" s="8"/>
@@ -9387,10 +9469,10 @@
         <v>707</v>
       </c>
       <c r="B354" t="s" s="6">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="8"/>
@@ -9400,13 +9482,13 @@
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B355" t="s" s="6">
         <v>710</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D355" s="7"/>
       <c r="E355" s="8"/>
@@ -9422,7 +9504,7 @@
         <v>712</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D356" s="7"/>
       <c r="E356" s="8"/>
@@ -9438,7 +9520,7 @@
         <v>714</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D357" s="7"/>
       <c r="E357" s="8"/>
@@ -9454,7 +9536,7 @@
         <v>716</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D358" s="7"/>
       <c r="E358" s="8"/>
@@ -9470,7 +9552,7 @@
         <v>718</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D359" s="7"/>
       <c r="E359" s="8"/>
@@ -9486,7 +9568,7 @@
         <v>720</v>
       </c>
       <c r="C360" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D360" s="7"/>
       <c r="E360" s="8"/>
@@ -9502,7 +9584,7 @@
         <v>722</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
@@ -9518,7 +9600,7 @@
         <v>724</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D362" s="7"/>
       <c r="E362" s="8"/>
@@ -9534,10 +9616,10 @@
         <v>726</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D363" s="7">
-        <v>0.615384615384615</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
@@ -9552,7 +9634,7 @@
         <v>728</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D364" s="7"/>
       <c r="E364" s="8"/>
@@ -9568,7 +9650,7 @@
         <v>730</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D365" s="7"/>
       <c r="E365" s="8"/>
@@ -9584,9 +9666,11 @@
         <v>732</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D366" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D366" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
@@ -9632,7 +9716,7 @@
         <v>738</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D369" s="7"/>
       <c r="E369" s="8"/>
@@ -9648,7 +9732,7 @@
         <v>740</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D370" s="7"/>
       <c r="E370" s="8"/>
@@ -9664,11 +9748,9 @@
         <v>742</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D371" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D371" s="7"/>
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
       <c r="G371" s="8"/>
@@ -9682,7 +9764,7 @@
         <v>744</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D372" s="7"/>
       <c r="E372" s="8"/>
@@ -9698,7 +9780,7 @@
         <v>746</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D373" s="7"/>
       <c r="E373" s="8"/>
@@ -9714,9 +9796,11 @@
         <v>748</v>
       </c>
       <c r="C374" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D374" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D374" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
@@ -9730,7 +9814,7 @@
         <v>750</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D375" s="7"/>
       <c r="E375" s="8"/>
@@ -9740,13 +9824,13 @@
     </row>
     <row r="376" ht="20.05" customHeight="1">
       <c r="A376" t="s" s="6">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B376" t="s" s="6">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D376" s="7"/>
       <c r="E376" s="8"/>
@@ -9756,13 +9840,13 @@
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B377" t="s" s="6">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D377" s="7"/>
       <c r="E377" s="8"/>
@@ -9772,13 +9856,13 @@
     </row>
     <row r="378" ht="20.05" customHeight="1">
       <c r="A378" t="s" s="6">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B378" t="s" s="6">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D378" s="7"/>
       <c r="E378" s="8"/>
@@ -9788,13 +9872,13 @@
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B379" t="s" s="6">
         <v>757</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D379" s="7"/>
       <c r="E379" s="8"/>
@@ -9810,7 +9894,7 @@
         <v>759</v>
       </c>
       <c r="C380" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D380" s="7"/>
       <c r="E380" s="8"/>
@@ -9826,7 +9910,7 @@
         <v>761</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D381" s="7"/>
       <c r="E381" s="8"/>
@@ -9842,7 +9926,7 @@
         <v>763</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D382" s="7"/>
       <c r="E382" s="8"/>
@@ -9858,7 +9942,7 @@
         <v>765</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
@@ -9874,7 +9958,7 @@
         <v>767</v>
       </c>
       <c r="C384" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D384" s="7"/>
       <c r="E384" s="8"/>
@@ -9890,7 +9974,7 @@
         <v>769</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="8"/>
@@ -9906,7 +9990,7 @@
         <v>771</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D386" s="7"/>
       <c r="E386" s="8"/>
@@ -9938,7 +10022,7 @@
         <v>775</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
@@ -9970,10 +10054,10 @@
         <v>779</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D390" s="7">
-        <v>0.794871794871795</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
@@ -9988,11 +10072,9 @@
         <v>781</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D391" s="7">
-        <v>0.333333333333333</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D391" s="7"/>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -10006,7 +10088,7 @@
         <v>783</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D392" s="7"/>
       <c r="E392" s="8"/>
@@ -10022,7 +10104,7 @@
         <v>785</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D393" s="7"/>
       <c r="E393" s="8"/>
@@ -10038,9 +10120,11 @@
         <v>787</v>
       </c>
       <c r="C394" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D394" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D394" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -10054,9 +10138,11 @@
         <v>789</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D395" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D395" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -10064,13 +10150,13 @@
     </row>
     <row r="396" ht="20.05" customHeight="1">
       <c r="A396" t="s" s="6">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B396" t="s" s="6">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D396" s="7"/>
       <c r="E396" s="8"/>
@@ -10080,13 +10166,13 @@
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B397" t="s" s="6">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
@@ -10096,15 +10182,17 @@
     </row>
     <row r="398" ht="20.05" customHeight="1">
       <c r="A398" t="s" s="6">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B398" t="s" s="6">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C398" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D398" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D398" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -10112,13 +10200,13 @@
     </row>
     <row r="399" ht="20.05" customHeight="1">
       <c r="A399" t="s" s="6">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B399" t="s" s="6">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D399" s="7"/>
       <c r="E399" s="8"/>
@@ -10128,7 +10216,7 @@
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B400" t="s" s="6">
         <v>798</v>
@@ -10166,7 +10254,7 @@
         <v>802</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D402" s="7"/>
       <c r="E402" s="8"/>
@@ -10176,13 +10264,13 @@
     </row>
     <row r="403" ht="20.05" customHeight="1">
       <c r="A403" t="s" s="6">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B403" t="s" s="6">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D403" s="7"/>
       <c r="E403" s="8"/>
@@ -10192,13 +10280,13 @@
     </row>
     <row r="404" ht="20.05" customHeight="1">
       <c r="A404" t="s" s="6">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B404" t="s" s="6">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D404" s="7"/>
       <c r="E404" s="8"/>
@@ -10208,13 +10296,13 @@
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B405" t="s" s="6">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D405" s="7"/>
       <c r="E405" s="8"/>
@@ -10224,10 +10312,10 @@
     </row>
     <row r="406" ht="20.05" customHeight="1">
       <c r="A406" t="s" s="6">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B406" t="s" s="6">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C406" t="s" s="6">
         <v>49</v>
@@ -10237,6 +10325,70 @@
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
       <c r="H406" s="8"/>
+    </row>
+    <row r="407" ht="20.05" customHeight="1">
+      <c r="A407" t="s" s="6">
+        <v>809</v>
+      </c>
+      <c r="B407" t="s" s="6">
+        <v>811</v>
+      </c>
+      <c r="C407" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D407" s="7"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="8"/>
+      <c r="G407" s="8"/>
+      <c r="H407" s="8"/>
+    </row>
+    <row r="408" ht="20.05" customHeight="1">
+      <c r="A408" t="s" s="6">
+        <v>812</v>
+      </c>
+      <c r="B408" t="s" s="6">
+        <v>813</v>
+      </c>
+      <c r="C408" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D408" s="7"/>
+      <c r="E408" s="8"/>
+      <c r="F408" s="8"/>
+      <c r="G408" s="8"/>
+      <c r="H408" s="8"/>
+    </row>
+    <row r="409" ht="20.05" customHeight="1">
+      <c r="A409" t="s" s="6">
+        <v>814</v>
+      </c>
+      <c r="B409" t="s" s="6">
+        <v>815</v>
+      </c>
+      <c r="C409" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D409" s="7"/>
+      <c r="E409" s="8"/>
+      <c r="F409" s="8"/>
+      <c r="G409" s="8"/>
+      <c r="H409" s="8"/>
+    </row>
+    <row r="410" ht="20.05" customHeight="1">
+      <c r="A410" t="s" s="6">
+        <v>814</v>
+      </c>
+      <c r="B410" t="s" s="6">
+        <v>816</v>
+      </c>
+      <c r="C410" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D410" s="7"/>
+      <c r="E410" s="8"/>
+      <c r="F410" s="8"/>
+      <c r="G410" s="8"/>
+      <c r="H410" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
   <si>
     <t>Surname</t>
   </si>
@@ -1406,6 +1406,12 @@
   </si>
   <si>
     <t>H200079F</t>
+  </si>
+  <si>
+    <t>MAWUNGWA</t>
+  </si>
+  <si>
+    <t>H190118M</t>
   </si>
   <si>
     <t>MAYAKAYAKA</t>
@@ -3668,7 +3674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H410"/>
+  <dimension ref="A1:H411"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -4550,7 +4556,9 @@
       <c r="C53" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -5334,7 +5342,9 @@
       <c r="C101" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -5368,7 +5378,9 @@
       <c r="C103" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -5834,7 +5846,9 @@
       <c r="C132" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
@@ -6014,7 +6028,9 @@
       <c r="C143" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
@@ -6864,7 +6880,9 @@
       <c r="C195" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D195" s="7"/>
+      <c r="D195" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -6960,7 +6978,9 @@
       <c r="C201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D201" s="7"/>
+      <c r="D201" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
@@ -7074,7 +7094,9 @@
       <c r="C208" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D208" s="7"/>
+      <c r="D208" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
@@ -7410,7 +7432,9 @@
       <c r="C228" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D228" s="7"/>
+      <c r="D228" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
@@ -7424,9 +7448,11 @@
         <v>466</v>
       </c>
       <c r="C229" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D229" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D229" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
@@ -7440,11 +7466,9 @@
         <v>468</v>
       </c>
       <c r="C230" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D230" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D230" s="7"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
@@ -7458,9 +7482,11 @@
         <v>470</v>
       </c>
       <c r="C231" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D231" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D231" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
@@ -7474,7 +7500,7 @@
         <v>472</v>
       </c>
       <c r="C232" t="s" s="6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="8"/>
@@ -7490,7 +7516,7 @@
         <v>474</v>
       </c>
       <c r="C233" t="s" s="6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D233" s="7"/>
       <c r="E233" s="8"/>
@@ -7506,7 +7532,7 @@
         <v>476</v>
       </c>
       <c r="C234" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D234" s="7"/>
       <c r="E234" s="8"/>
@@ -7522,7 +7548,7 @@
         <v>478</v>
       </c>
       <c r="C235" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D235" s="7"/>
       <c r="E235" s="8"/>
@@ -7538,7 +7564,7 @@
         <v>480</v>
       </c>
       <c r="C236" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="8"/>
@@ -7570,7 +7596,7 @@
         <v>484</v>
       </c>
       <c r="C238" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="8"/>
@@ -7586,7 +7612,7 @@
         <v>486</v>
       </c>
       <c r="C239" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="8"/>
@@ -7602,9 +7628,11 @@
         <v>488</v>
       </c>
       <c r="C240" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D240" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D240" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
@@ -7618,7 +7646,7 @@
         <v>490</v>
       </c>
       <c r="C241" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="8"/>
@@ -7628,13 +7656,13 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B242" t="s" s="6">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C242" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D242" s="7"/>
       <c r="E242" s="8"/>
@@ -7644,13 +7672,13 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B243" t="s" s="6">
         <v>493</v>
       </c>
       <c r="C243" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="8"/>
@@ -7666,9 +7694,11 @@
         <v>495</v>
       </c>
       <c r="C244" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D244" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D244" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
@@ -7698,7 +7728,7 @@
         <v>499</v>
       </c>
       <c r="C246" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="8"/>
@@ -7714,11 +7744,9 @@
         <v>501</v>
       </c>
       <c r="C247" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D247" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D247" s="7"/>
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
@@ -7732,9 +7760,11 @@
         <v>503</v>
       </c>
       <c r="C248" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D248" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D248" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
@@ -7748,7 +7778,7 @@
         <v>505</v>
       </c>
       <c r="C249" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="8"/>
@@ -7764,7 +7794,7 @@
         <v>507</v>
       </c>
       <c r="C250" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="8"/>
@@ -7780,7 +7810,7 @@
         <v>509</v>
       </c>
       <c r="C251" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D251" s="7"/>
       <c r="E251" s="8"/>
@@ -7796,7 +7826,7 @@
         <v>511</v>
       </c>
       <c r="C252" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D252" s="7"/>
       <c r="E252" s="8"/>
@@ -7806,13 +7836,13 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B253" t="s" s="6">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C253" t="s" s="6">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="8"/>
@@ -7822,13 +7852,13 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="6">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B254" t="s" s="6">
         <v>514</v>
       </c>
       <c r="C254" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D254" s="7"/>
       <c r="E254" s="8"/>
@@ -7838,15 +7868,17 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B255" t="s" s="6">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C255" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D255" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D255" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -7854,17 +7886,15 @@
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B256" t="s" s="6">
         <v>517</v>
       </c>
       <c r="C256" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D256" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D256" s="7"/>
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
@@ -7878,10 +7908,10 @@
         <v>519</v>
       </c>
       <c r="C257" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D257" s="7">
-        <v>0.564102564102564</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -7896,9 +7926,11 @@
         <v>521</v>
       </c>
       <c r="C258" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D258" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D258" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
@@ -7912,11 +7944,9 @@
         <v>523</v>
       </c>
       <c r="C259" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D259" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D259" s="7"/>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
@@ -7932,7 +7962,9 @@
       <c r="C260" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D260" s="7"/>
+      <c r="D260" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
       <c r="G260" s="8"/>
@@ -7949,7 +7981,7 @@
         <v>13</v>
       </c>
       <c r="D261" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
@@ -7958,16 +7990,16 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="6">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B262" t="s" s="6">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C262" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D262" s="7">
-        <v>0.307692307692308</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
@@ -7976,15 +8008,17 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="6">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B263" t="s" s="6">
         <v>530</v>
       </c>
       <c r="C263" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D263" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D263" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
       <c r="G263" s="8"/>
@@ -7998,7 +8032,7 @@
         <v>532</v>
       </c>
       <c r="C264" t="s" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D264" s="7"/>
       <c r="E264" s="8"/>
@@ -8014,11 +8048,9 @@
         <v>534</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D265" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D265" s="7"/>
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
@@ -8032,9 +8064,11 @@
         <v>536</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D266" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D266" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
       <c r="G266" s="8"/>
@@ -8048,7 +8082,7 @@
         <v>538</v>
       </c>
       <c r="C267" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D267" s="7"/>
       <c r="E267" s="8"/>
@@ -8080,11 +8114,9 @@
         <v>542</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D269" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D269" s="7"/>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
@@ -8098,9 +8130,11 @@
         <v>544</v>
       </c>
       <c r="C270" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D270" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D270" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
@@ -8130,7 +8164,7 @@
         <v>548</v>
       </c>
       <c r="C272" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D272" s="7"/>
       <c r="E272" s="8"/>
@@ -8146,11 +8180,9 @@
         <v>550</v>
       </c>
       <c r="C273" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D273" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D273" s="7"/>
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
@@ -8164,9 +8196,11 @@
         <v>552</v>
       </c>
       <c r="C274" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D274" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D274" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
@@ -8180,7 +8214,7 @@
         <v>554</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="8"/>
@@ -8196,7 +8230,7 @@
         <v>556</v>
       </c>
       <c r="C276" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D276" s="7"/>
       <c r="E276" s="8"/>
@@ -8212,7 +8246,7 @@
         <v>558</v>
       </c>
       <c r="C277" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D277" s="7"/>
       <c r="E277" s="8"/>
@@ -8228,7 +8262,7 @@
         <v>560</v>
       </c>
       <c r="C278" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D278" s="7"/>
       <c r="E278" s="8"/>
@@ -8244,7 +8278,7 @@
         <v>562</v>
       </c>
       <c r="C279" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D279" s="7"/>
       <c r="E279" s="8"/>
@@ -8260,11 +8294,9 @@
         <v>564</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D280" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D280" s="7"/>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
       <c r="G280" s="8"/>
@@ -8278,10 +8310,10 @@
         <v>566</v>
       </c>
       <c r="C281" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D281" s="7">
-        <v>0.846153846153846</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
@@ -8296,9 +8328,11 @@
         <v>568</v>
       </c>
       <c r="C282" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D282" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D282" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
       <c r="G282" s="8"/>
@@ -8312,7 +8346,7 @@
         <v>570</v>
       </c>
       <c r="C283" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D283" s="7"/>
       <c r="E283" s="8"/>
@@ -8328,7 +8362,7 @@
         <v>572</v>
       </c>
       <c r="C284" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D284" s="7"/>
       <c r="E284" s="8"/>
@@ -8344,7 +8378,7 @@
         <v>574</v>
       </c>
       <c r="C285" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D285" s="7"/>
       <c r="E285" s="8"/>
@@ -8360,7 +8394,7 @@
         <v>576</v>
       </c>
       <c r="C286" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D286" s="7"/>
       <c r="E286" s="8"/>
@@ -8376,7 +8410,7 @@
         <v>578</v>
       </c>
       <c r="C287" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D287" s="7"/>
       <c r="E287" s="8"/>
@@ -8408,7 +8442,7 @@
         <v>582</v>
       </c>
       <c r="C289" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D289" s="7"/>
       <c r="E289" s="8"/>
@@ -8424,7 +8458,7 @@
         <v>584</v>
       </c>
       <c r="C290" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="8"/>
@@ -8440,7 +8474,7 @@
         <v>586</v>
       </c>
       <c r="C291" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D291" s="7"/>
       <c r="E291" s="8"/>
@@ -8456,7 +8490,7 @@
         <v>588</v>
       </c>
       <c r="C292" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D292" s="7"/>
       <c r="E292" s="8"/>
@@ -8472,11 +8506,9 @@
         <v>590</v>
       </c>
       <c r="C293" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D293" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D293" s="7"/>
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
       <c r="G293" s="8"/>
@@ -8490,9 +8522,11 @@
         <v>592</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D294" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D294" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
@@ -8506,7 +8540,7 @@
         <v>594</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D295" s="7"/>
       <c r="E295" s="8"/>
@@ -8522,11 +8556,9 @@
         <v>596</v>
       </c>
       <c r="C296" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D296" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D296" s="7"/>
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
@@ -8540,9 +8572,11 @@
         <v>598</v>
       </c>
       <c r="C297" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D297" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D297" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
       <c r="G297" s="8"/>
@@ -8556,11 +8590,9 @@
         <v>600</v>
       </c>
       <c r="C298" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D298" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D298" s="7"/>
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
@@ -8574,9 +8606,11 @@
         <v>602</v>
       </c>
       <c r="C299" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D299" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D299" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
       <c r="G299" s="8"/>
@@ -8590,7 +8624,7 @@
         <v>604</v>
       </c>
       <c r="C300" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="8"/>
@@ -8606,7 +8640,7 @@
         <v>606</v>
       </c>
       <c r="C301" t="s" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="8"/>
@@ -8622,7 +8656,7 @@
         <v>608</v>
       </c>
       <c r="C302" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="8"/>
@@ -8638,7 +8672,7 @@
         <v>610</v>
       </c>
       <c r="C303" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D303" s="7"/>
       <c r="E303" s="8"/>
@@ -8654,7 +8688,7 @@
         <v>612</v>
       </c>
       <c r="C304" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D304" s="7"/>
       <c r="E304" s="8"/>
@@ -8670,11 +8704,9 @@
         <v>614</v>
       </c>
       <c r="C305" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D305" s="7">
-        <v>0.820512820512821</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D305" s="7"/>
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
@@ -8688,9 +8720,11 @@
         <v>616</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D306" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D306" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
@@ -8704,9 +8738,11 @@
         <v>618</v>
       </c>
       <c r="C307" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D307" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D307" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
       <c r="G307" s="8"/>
@@ -8736,9 +8772,11 @@
         <v>622</v>
       </c>
       <c r="C309" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D309" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D309" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8"/>
@@ -8762,13 +8800,13 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="6">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B311" t="s" s="6">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C311" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D311" s="7"/>
       <c r="E311" s="8"/>
@@ -8778,17 +8816,15 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B312" t="s" s="6">
         <v>627</v>
       </c>
       <c r="C312" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D312" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D312" s="7"/>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
       <c r="G312" s="8"/>
@@ -8802,9 +8838,11 @@
         <v>629</v>
       </c>
       <c r="C313" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D313" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D313" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
       <c r="G313" s="8"/>
@@ -8818,11 +8856,9 @@
         <v>631</v>
       </c>
       <c r="C314" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D314" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D314" s="7"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
@@ -8836,10 +8872,10 @@
         <v>633</v>
       </c>
       <c r="C315" t="s" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D315" s="7">
-        <v>0.846153846153846</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
@@ -8854,9 +8890,11 @@
         <v>635</v>
       </c>
       <c r="C316" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D316" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D316" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
       <c r="G316" s="8"/>
@@ -8886,7 +8924,7 @@
         <v>639</v>
       </c>
       <c r="C318" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D318" s="7"/>
       <c r="E318" s="8"/>
@@ -8902,7 +8940,7 @@
         <v>641</v>
       </c>
       <c r="C319" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D319" s="7"/>
       <c r="E319" s="8"/>
@@ -8918,7 +8956,7 @@
         <v>643</v>
       </c>
       <c r="C320" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D320" s="7"/>
       <c r="E320" s="8"/>
@@ -8950,7 +8988,7 @@
         <v>647</v>
       </c>
       <c r="C322" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
@@ -8966,7 +9004,7 @@
         <v>649</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="8"/>
@@ -8982,7 +9020,7 @@
         <v>651</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D324" s="7"/>
       <c r="E324" s="8"/>
@@ -8998,7 +9036,7 @@
         <v>653</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D325" s="7"/>
       <c r="E325" s="8"/>
@@ -9014,7 +9052,7 @@
         <v>655</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D326" s="7"/>
       <c r="E326" s="8"/>
@@ -9046,11 +9084,9 @@
         <v>659</v>
       </c>
       <c r="C328" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D328" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D328" s="7"/>
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
       <c r="G328" s="8"/>
@@ -9064,9 +9100,11 @@
         <v>661</v>
       </c>
       <c r="C329" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D329" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D329" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
@@ -9080,7 +9118,7 @@
         <v>663</v>
       </c>
       <c r="C330" t="s" s="6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D330" s="7"/>
       <c r="E330" s="8"/>
@@ -9096,7 +9134,7 @@
         <v>665</v>
       </c>
       <c r="C331" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D331" s="7"/>
       <c r="E331" s="8"/>
@@ -9112,11 +9150,9 @@
         <v>667</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D332" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D332" s="7"/>
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
       <c r="G332" s="8"/>
@@ -9130,9 +9166,11 @@
         <v>669</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D333" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D333" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
       <c r="G333" s="8"/>
@@ -9162,7 +9200,7 @@
         <v>673</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D335" s="7"/>
       <c r="E335" s="8"/>
@@ -9178,7 +9216,7 @@
         <v>675</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D336" s="7"/>
       <c r="E336" s="8"/>
@@ -9194,7 +9232,7 @@
         <v>677</v>
       </c>
       <c r="C337" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D337" s="7"/>
       <c r="E337" s="8"/>
@@ -9210,7 +9248,7 @@
         <v>679</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D338" s="7"/>
       <c r="E338" s="8"/>
@@ -9226,7 +9264,7 @@
         <v>681</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D339" s="7"/>
       <c r="E339" s="8"/>
@@ -9242,11 +9280,9 @@
         <v>683</v>
       </c>
       <c r="C340" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D340" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D340" s="7"/>
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
       <c r="G340" s="8"/>
@@ -9260,10 +9296,10 @@
         <v>685</v>
       </c>
       <c r="C341" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D341" s="7">
-        <v>0.58974358974359</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
@@ -9278,9 +9314,11 @@
         <v>687</v>
       </c>
       <c r="C342" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D342" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D342" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
       <c r="G342" s="8"/>
@@ -9294,7 +9332,7 @@
         <v>689</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D343" s="7"/>
       <c r="E343" s="8"/>
@@ -9310,7 +9348,7 @@
         <v>691</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D344" s="7"/>
       <c r="E344" s="8"/>
@@ -9320,13 +9358,13 @@
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B345" t="s" s="6">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D345" s="7"/>
       <c r="E345" s="8"/>
@@ -9336,17 +9374,15 @@
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" t="s" s="6">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B346" t="s" s="6">
         <v>694</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D346" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D346" s="7"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
       <c r="G346" s="8"/>
@@ -9360,9 +9396,11 @@
         <v>696</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D347" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D347" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
       <c r="G347" s="8"/>
@@ -9376,7 +9414,7 @@
         <v>698</v>
       </c>
       <c r="C348" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D348" s="7"/>
       <c r="E348" s="8"/>
@@ -9392,7 +9430,7 @@
         <v>700</v>
       </c>
       <c r="C349" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D349" s="7"/>
       <c r="E349" s="8"/>
@@ -9408,7 +9446,7 @@
         <v>702</v>
       </c>
       <c r="C350" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D350" s="7"/>
       <c r="E350" s="8"/>
@@ -9424,7 +9462,7 @@
         <v>704</v>
       </c>
       <c r="C351" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="8"/>
@@ -9456,7 +9494,7 @@
         <v>708</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D353" s="7"/>
       <c r="E353" s="8"/>
@@ -9466,13 +9504,13 @@
     </row>
     <row r="354" ht="20.05" customHeight="1">
       <c r="A354" t="s" s="6">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B354" t="s" s="6">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="8"/>
@@ -9482,13 +9520,13 @@
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B355" t="s" s="6">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D355" s="7"/>
       <c r="E355" s="8"/>
@@ -9498,7 +9536,7 @@
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B356" t="s" s="6">
         <v>712</v>
@@ -9536,7 +9574,7 @@
         <v>716</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D358" s="7"/>
       <c r="E358" s="8"/>
@@ -9552,7 +9590,7 @@
         <v>718</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D359" s="7"/>
       <c r="E359" s="8"/>
@@ -9568,7 +9606,7 @@
         <v>720</v>
       </c>
       <c r="C360" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D360" s="7"/>
       <c r="E360" s="8"/>
@@ -9584,7 +9622,7 @@
         <v>722</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
@@ -9600,7 +9638,7 @@
         <v>724</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D362" s="7"/>
       <c r="E362" s="8"/>
@@ -9616,11 +9654,9 @@
         <v>726</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D363" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D363" s="7"/>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
       <c r="G363" s="8"/>
@@ -9636,7 +9672,9 @@
       <c r="C364" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D364" s="7"/>
+      <c r="D364" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
@@ -9650,7 +9688,7 @@
         <v>730</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D365" s="7"/>
       <c r="E365" s="8"/>
@@ -9666,11 +9704,9 @@
         <v>732</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D366" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D366" s="7"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
@@ -9684,9 +9720,11 @@
         <v>734</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D367" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D367" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
@@ -9700,7 +9738,7 @@
         <v>736</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D368" s="7"/>
       <c r="E368" s="8"/>
@@ -9716,7 +9754,7 @@
         <v>738</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D369" s="7"/>
       <c r="E369" s="8"/>
@@ -9732,7 +9770,7 @@
         <v>740</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D370" s="7"/>
       <c r="E370" s="8"/>
@@ -9748,7 +9786,7 @@
         <v>742</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D371" s="7"/>
       <c r="E371" s="8"/>
@@ -9764,7 +9802,7 @@
         <v>744</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D372" s="7"/>
       <c r="E372" s="8"/>
@@ -9780,9 +9818,11 @@
         <v>746</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D373" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D373" s="7">
+        <v>0.230769230769231</v>
+      </c>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
       <c r="G373" s="8"/>
@@ -9796,11 +9836,9 @@
         <v>748</v>
       </c>
       <c r="C374" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D374" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D374" s="7"/>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
@@ -9814,9 +9852,11 @@
         <v>750</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D375" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D375" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
       <c r="G375" s="8"/>
@@ -9830,7 +9870,7 @@
         <v>752</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D376" s="7"/>
       <c r="E376" s="8"/>
@@ -9846,7 +9886,7 @@
         <v>754</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D377" s="7"/>
       <c r="E377" s="8"/>
@@ -9862,7 +9902,7 @@
         <v>756</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D378" s="7"/>
       <c r="E378" s="8"/>
@@ -9872,13 +9912,13 @@
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B379" t="s" s="6">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D379" s="7"/>
       <c r="E379" s="8"/>
@@ -9888,7 +9928,7 @@
     </row>
     <row r="380" ht="20.05" customHeight="1">
       <c r="A380" t="s" s="6">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B380" t="s" s="6">
         <v>759</v>
@@ -9910,7 +9950,7 @@
         <v>761</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D381" s="7"/>
       <c r="E381" s="8"/>
@@ -9926,7 +9966,7 @@
         <v>763</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D382" s="7"/>
       <c r="E382" s="8"/>
@@ -9942,7 +9982,7 @@
         <v>765</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
@@ -9958,7 +9998,7 @@
         <v>767</v>
       </c>
       <c r="C384" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D384" s="7"/>
       <c r="E384" s="8"/>
@@ -9974,7 +10014,7 @@
         <v>769</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="8"/>
@@ -9990,7 +10030,7 @@
         <v>771</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D386" s="7"/>
       <c r="E386" s="8"/>
@@ -10006,7 +10046,7 @@
         <v>773</v>
       </c>
       <c r="C387" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="8"/>
@@ -10022,7 +10062,7 @@
         <v>775</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
@@ -10038,7 +10078,7 @@
         <v>777</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D389" s="7"/>
       <c r="E389" s="8"/>
@@ -10054,11 +10094,9 @@
         <v>779</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D390" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D390" s="7"/>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
@@ -10072,9 +10110,11 @@
         <v>781</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D391" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D391" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -10088,7 +10128,7 @@
         <v>783</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D392" s="7"/>
       <c r="E392" s="8"/>
@@ -10104,7 +10144,7 @@
         <v>785</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D393" s="7"/>
       <c r="E393" s="8"/>
@@ -10122,9 +10162,7 @@
       <c r="C394" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D394" s="7">
-        <v>0.794871794871795</v>
-      </c>
+      <c r="D394" s="7"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -10138,10 +10176,10 @@
         <v>789</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D395" s="7">
-        <v>0.333333333333333</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
@@ -10156,9 +10194,11 @@
         <v>791</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D396" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D396" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
@@ -10172,7 +10212,7 @@
         <v>793</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
@@ -10188,11 +10228,9 @@
         <v>795</v>
       </c>
       <c r="C398" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D398" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D398" s="7"/>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -10206,9 +10244,11 @@
         <v>797</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D399" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D399" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
@@ -10216,13 +10256,13 @@
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B400" t="s" s="6">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D400" s="7"/>
       <c r="E400" s="8"/>
@@ -10232,13 +10272,13 @@
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B401" t="s" s="6">
         <v>800</v>
       </c>
       <c r="C401" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="8"/>
@@ -10270,7 +10310,7 @@
         <v>804</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D403" s="7"/>
       <c r="E403" s="8"/>
@@ -10286,7 +10326,7 @@
         <v>806</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D404" s="7"/>
       <c r="E404" s="8"/>
@@ -10302,7 +10342,7 @@
         <v>808</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D405" s="7"/>
       <c r="E405" s="8"/>
@@ -10318,7 +10358,7 @@
         <v>810</v>
       </c>
       <c r="C406" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D406" s="7"/>
       <c r="E406" s="8"/>
@@ -10328,13 +10368,13 @@
     </row>
     <row r="407" ht="20.05" customHeight="1">
       <c r="A407" t="s" s="6">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B407" t="s" s="6">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D407" s="7"/>
       <c r="E407" s="8"/>
@@ -10344,13 +10384,13 @@
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B408" t="s" s="6">
         <v>813</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D408" s="7"/>
       <c r="E408" s="8"/>
@@ -10376,10 +10416,10 @@
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="6">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B410" t="s" s="6">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C410" t="s" s="6">
         <v>49</v>
@@ -10389,6 +10429,22 @@
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
       <c r="H410" s="8"/>
+    </row>
+    <row r="411" ht="20.05" customHeight="1">
+      <c r="A411" t="s" s="6">
+        <v>816</v>
+      </c>
+      <c r="B411" t="s" s="6">
+        <v>818</v>
+      </c>
+      <c r="C411" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D411" s="7"/>
+      <c r="E411" s="8"/>
+      <c r="F411" s="8"/>
+      <c r="G411" s="8"/>
+      <c r="H411" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
   <si>
     <t>Surname</t>
   </si>
@@ -337,6 +337,12 @@
     <t>H200540P</t>
   </si>
   <si>
+    <t>CHINODYAMARI</t>
+  </si>
+  <si>
+    <t>H190655M</t>
+  </si>
+  <si>
     <t>CHINYUKU</t>
   </si>
   <si>
@@ -547,12 +553,6 @@
     <t>H200548W</t>
   </si>
   <si>
-    <t>CHONODYAMARI</t>
-  </si>
-  <si>
-    <t>H190655M</t>
-  </si>
-  <si>
     <t>CHUMA</t>
   </si>
   <si>
@@ -1039,6 +1039,12 @@
     <t>H200850G</t>
   </si>
   <si>
+    <t>MACHIRORI</t>
+  </si>
+  <si>
+    <t>H190717B</t>
+  </si>
+  <si>
     <t>MACHOKO</t>
   </si>
   <si>
@@ -1267,6 +1273,12 @@
     <t>H200528E</t>
   </si>
   <si>
+    <t>MARADZA</t>
+  </si>
+  <si>
+    <t>H190740E</t>
+  </si>
+  <si>
     <t>MARANDURE</t>
   </si>
   <si>
@@ -2216,6 +2228,12 @@
   </si>
   <si>
     <t>H200131G</t>
+  </si>
+  <si>
+    <t>SANHI</t>
+  </si>
+  <si>
+    <t>H190634E</t>
   </si>
   <si>
     <t>SANYANGOWE</t>
@@ -3674,7 +3692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H411"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -4474,9 +4492,11 @@
         <v>109</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -4490,7 +4510,7 @@
         <v>111</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
@@ -4506,7 +4526,7 @@
         <v>113</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
@@ -4522,7 +4542,7 @@
         <v>115</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
@@ -4554,11 +4574,9 @@
         <v>119</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4572,9 +4590,11 @@
         <v>121</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4588,7 +4608,7 @@
         <v>123</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
@@ -4620,11 +4640,9 @@
         <v>127</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4638,9 +4656,11 @@
         <v>129</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4654,7 +4674,7 @@
         <v>131</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
@@ -4686,7 +4706,7 @@
         <v>135</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8"/>
@@ -4702,7 +4722,7 @@
         <v>137</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="8"/>
@@ -4718,7 +4738,7 @@
         <v>139</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8"/>
@@ -4734,11 +4754,9 @@
         <v>141</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D64" s="7"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -4752,9 +4770,11 @@
         <v>143</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D65" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -4768,7 +4788,7 @@
         <v>145</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8"/>
@@ -4784,7 +4804,7 @@
         <v>147</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8"/>
@@ -4800,7 +4820,7 @@
         <v>149</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="8"/>
@@ -4810,13 +4830,13 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8"/>
@@ -4826,13 +4846,13 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s" s="6">
         <v>152</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="8"/>
@@ -4848,7 +4868,7 @@
         <v>154</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="8"/>
@@ -4864,7 +4884,7 @@
         <v>156</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="8"/>
@@ -4880,7 +4900,7 @@
         <v>158</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
@@ -4896,11 +4916,9 @@
         <v>160</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D74" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -4916,7 +4934,9 @@
       <c r="C75" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -4930,7 +4950,7 @@
         <v>164</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
@@ -4972,13 +4992,13 @@
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="6">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="8"/>
@@ -4988,13 +5008,13 @@
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s" s="6">
         <v>171</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="8"/>
@@ -5010,7 +5030,7 @@
         <v>173</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
@@ -5026,7 +5046,7 @@
         <v>175</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
@@ -5042,7 +5062,7 @@
         <v>177</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
@@ -5058,10 +5078,10 @@
         <v>179</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D84" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -5096,7 +5116,9 @@
       <c r="C86" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -5310,7 +5332,9 @@
       <c r="C99" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -5326,7 +5350,9 @@
       <c r="C100" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -5558,7 +5584,9 @@
       <c r="C114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -5930,7 +5958,9 @@
       <c r="C137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D137" s="7"/>
+      <c r="D137" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
@@ -6426,7 +6456,9 @@
       <c r="C167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D167" s="7"/>
+      <c r="D167" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
@@ -6456,7 +6488,7 @@
         <v>347</v>
       </c>
       <c r="C169" t="s" s="6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="8"/>
@@ -6472,7 +6504,7 @@
         <v>349</v>
       </c>
       <c r="C170" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="8"/>
@@ -6488,7 +6520,7 @@
         <v>351</v>
       </c>
       <c r="C171" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
@@ -6504,7 +6536,7 @@
         <v>353</v>
       </c>
       <c r="C172" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="8"/>
@@ -6520,7 +6552,7 @@
         <v>355</v>
       </c>
       <c r="C173" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="8"/>
@@ -6536,7 +6568,7 @@
         <v>357</v>
       </c>
       <c r="C174" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
@@ -6552,7 +6584,7 @@
         <v>359</v>
       </c>
       <c r="C175" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="8"/>
@@ -6568,7 +6600,7 @@
         <v>361</v>
       </c>
       <c r="C176" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="8"/>
@@ -6584,7 +6616,7 @@
         <v>363</v>
       </c>
       <c r="C177" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="8"/>
@@ -6600,11 +6632,9 @@
         <v>365</v>
       </c>
       <c r="C178" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D178" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D178" s="7"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
@@ -6618,9 +6648,11 @@
         <v>367</v>
       </c>
       <c r="C179" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D179" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D179" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -6634,7 +6666,7 @@
         <v>369</v>
       </c>
       <c r="C180" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="8"/>
@@ -6650,7 +6682,7 @@
         <v>371</v>
       </c>
       <c r="C181" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="8"/>
@@ -6666,7 +6698,7 @@
         <v>373</v>
       </c>
       <c r="C182" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="8"/>
@@ -6682,7 +6714,7 @@
         <v>375</v>
       </c>
       <c r="C183" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="8"/>
@@ -6698,7 +6730,7 @@
         <v>377</v>
       </c>
       <c r="C184" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="8"/>
@@ -6714,11 +6746,9 @@
         <v>379</v>
       </c>
       <c r="C185" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D185" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D185" s="7"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
@@ -6732,9 +6762,11 @@
         <v>381</v>
       </c>
       <c r="C186" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D186" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D186" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
@@ -6748,11 +6780,9 @@
         <v>383</v>
       </c>
       <c r="C187" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D187" s="7">
-        <v>0.307692307692308</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D187" s="7"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
@@ -6766,9 +6796,11 @@
         <v>385</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D188" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D188" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
@@ -6782,7 +6814,7 @@
         <v>387</v>
       </c>
       <c r="C189" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="8"/>
@@ -6814,7 +6846,7 @@
         <v>391</v>
       </c>
       <c r="C191" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="8"/>
@@ -6830,7 +6862,7 @@
         <v>393</v>
       </c>
       <c r="C192" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="8"/>
@@ -6846,7 +6878,7 @@
         <v>395</v>
       </c>
       <c r="C193" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="8"/>
@@ -6862,7 +6894,7 @@
         <v>397</v>
       </c>
       <c r="C194" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="8"/>
@@ -6878,10 +6910,10 @@
         <v>399</v>
       </c>
       <c r="C195" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D195" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
@@ -6896,9 +6928,11 @@
         <v>401</v>
       </c>
       <c r="C196" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D196" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D196" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -6912,7 +6946,7 @@
         <v>403</v>
       </c>
       <c r="C197" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="8"/>
@@ -6944,7 +6978,7 @@
         <v>407</v>
       </c>
       <c r="C199" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="8"/>
@@ -6960,7 +6994,7 @@
         <v>409</v>
       </c>
       <c r="C200" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="8"/>
@@ -6976,11 +7010,9 @@
         <v>411</v>
       </c>
       <c r="C201" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D201" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D201" s="7"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
@@ -6994,9 +7026,11 @@
         <v>413</v>
       </c>
       <c r="C202" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D202" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D202" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
@@ -7010,7 +7044,7 @@
         <v>415</v>
       </c>
       <c r="C203" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="8"/>
@@ -7026,11 +7060,9 @@
         <v>417</v>
       </c>
       <c r="C204" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D204" s="7">
-        <v>0.333333333333333</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D204" s="7"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
@@ -7044,9 +7076,11 @@
         <v>419</v>
       </c>
       <c r="C205" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D205" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D205" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
@@ -7059,10 +7093,10 @@
       <c r="B206" t="s" s="6">
         <v>421</v>
       </c>
-      <c r="C206" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D206" s="7"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
@@ -7076,7 +7110,7 @@
         <v>423</v>
       </c>
       <c r="C207" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="8"/>
@@ -7092,11 +7126,9 @@
         <v>425</v>
       </c>
       <c r="C208" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D208" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D208" s="7"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
@@ -7110,7 +7142,7 @@
         <v>427</v>
       </c>
       <c r="C209" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="8"/>
@@ -7126,9 +7158,11 @@
         <v>429</v>
       </c>
       <c r="C210" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D210" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
@@ -7142,7 +7176,7 @@
         <v>431</v>
       </c>
       <c r="C211" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="8"/>
@@ -7158,11 +7192,9 @@
         <v>433</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D212" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D212" s="7"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
@@ -7192,7 +7224,7 @@
         <v>437</v>
       </c>
       <c r="C214" t="s" s="6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D214" s="7">
         <v>0.615384615384615</v>
@@ -7210,7 +7242,7 @@
         <v>439</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="8"/>
@@ -7226,10 +7258,10 @@
         <v>441</v>
       </c>
       <c r="C216" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D216" s="7">
-        <v>0.794871794871795</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
@@ -7244,11 +7276,9 @@
         <v>443</v>
       </c>
       <c r="C217" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D217" s="7">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D217" s="7"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
@@ -7262,10 +7292,10 @@
         <v>445</v>
       </c>
       <c r="C218" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D218" s="7">
-        <v>0.564102564102564</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
@@ -7274,16 +7304,16 @@
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="6">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B219" t="s" s="6">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C219" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D219" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
@@ -7292,15 +7322,17 @@
     </row>
     <row r="220" ht="20.05" customHeight="1">
       <c r="A220" t="s" s="6">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B220" t="s" s="6">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C220" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D220" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D220" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
@@ -7308,15 +7340,17 @@
     </row>
     <row r="221" ht="20.05" customHeight="1">
       <c r="A221" t="s" s="6">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B221" t="s" s="6">
         <v>450</v>
       </c>
       <c r="C221" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D221" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D221" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
@@ -7330,7 +7364,7 @@
         <v>452</v>
       </c>
       <c r="C222" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="8"/>
@@ -7346,11 +7380,9 @@
         <v>454</v>
       </c>
       <c r="C223" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D223" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D223" s="7"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
@@ -7364,7 +7396,7 @@
         <v>456</v>
       </c>
       <c r="C224" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="8"/>
@@ -7380,10 +7412,10 @@
         <v>458</v>
       </c>
       <c r="C225" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D225" s="7">
-        <v>0.307692307692308</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
@@ -7414,9 +7446,11 @@
         <v>462</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D227" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D227" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
@@ -7430,11 +7464,9 @@
         <v>464</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D228" s="7">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D228" s="7"/>
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
@@ -7448,11 +7480,9 @@
         <v>466</v>
       </c>
       <c r="C229" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D229" s="7">
-        <v>0.307692307692308</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D229" s="7"/>
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
@@ -7466,9 +7496,11 @@
         <v>468</v>
       </c>
       <c r="C230" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D230" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D230" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
@@ -7482,10 +7514,10 @@
         <v>470</v>
       </c>
       <c r="C231" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D231" s="7">
-        <v>0.538461538461538</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
@@ -7516,9 +7548,11 @@
         <v>474</v>
       </c>
       <c r="C233" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D233" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D233" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
@@ -7532,7 +7566,7 @@
         <v>476</v>
       </c>
       <c r="C234" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D234" s="7"/>
       <c r="E234" s="8"/>
@@ -7548,7 +7582,7 @@
         <v>478</v>
       </c>
       <c r="C235" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D235" s="7"/>
       <c r="E235" s="8"/>
@@ -7564,7 +7598,7 @@
         <v>480</v>
       </c>
       <c r="C236" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="8"/>
@@ -7580,7 +7614,7 @@
         <v>482</v>
       </c>
       <c r="C237" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="8"/>
@@ -7596,7 +7630,7 @@
         <v>484</v>
       </c>
       <c r="C238" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="8"/>
@@ -7612,7 +7646,7 @@
         <v>486</v>
       </c>
       <c r="C239" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="8"/>
@@ -7628,10 +7662,10 @@
         <v>488</v>
       </c>
       <c r="C240" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D240" s="7">
-        <v>0.41025641025641</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
@@ -7646,7 +7680,7 @@
         <v>490</v>
       </c>
       <c r="C241" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="8"/>
@@ -7662,9 +7696,11 @@
         <v>492</v>
       </c>
       <c r="C242" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D242" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D242" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
@@ -7672,13 +7708,13 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B243" t="s" s="6">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C243" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="8"/>
@@ -7688,17 +7724,15 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B244" t="s" s="6">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C244" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D244" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D244" s="7"/>
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
@@ -7706,15 +7740,17 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="6">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s" s="6">
         <v>497</v>
       </c>
       <c r="C245" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D245" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D245" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
@@ -7728,9 +7764,11 @@
         <v>499</v>
       </c>
       <c r="C246" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D246" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D246" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
@@ -7744,7 +7782,7 @@
         <v>501</v>
       </c>
       <c r="C247" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D247" s="7"/>
       <c r="E247" s="8"/>
@@ -7760,11 +7798,9 @@
         <v>503</v>
       </c>
       <c r="C248" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D248" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D248" s="7"/>
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
@@ -7778,9 +7814,11 @@
         <v>505</v>
       </c>
       <c r="C249" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D249" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D249" s="7">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
       <c r="G249" s="8"/>
@@ -7794,9 +7832,11 @@
         <v>507</v>
       </c>
       <c r="C250" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D250" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D250" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
       <c r="G250" s="8"/>
@@ -7810,7 +7850,7 @@
         <v>509</v>
       </c>
       <c r="C251" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D251" s="7"/>
       <c r="E251" s="8"/>
@@ -7826,7 +7866,7 @@
         <v>511</v>
       </c>
       <c r="C252" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D252" s="7"/>
       <c r="E252" s="8"/>
@@ -7842,7 +7882,7 @@
         <v>513</v>
       </c>
       <c r="C253" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="8"/>
@@ -7852,13 +7892,13 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="6">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B254" t="s" s="6">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C254" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D254" s="7"/>
       <c r="E254" s="8"/>
@@ -7868,17 +7908,15 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B255" t="s" s="6">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C255" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D255" s="7">
-        <v>0.512820512820513</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D255" s="7"/>
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -7886,13 +7924,13 @@
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B256" t="s" s="6">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C256" t="s" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D256" s="7"/>
       <c r="E256" s="8"/>
@@ -7902,16 +7940,16 @@
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" t="s" s="6">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B257" t="s" s="6">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C257" t="s" s="6">
         <v>13</v>
       </c>
       <c r="D257" s="7">
-        <v>0.641025641025641</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -7920,7 +7958,7 @@
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="6">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B258" t="s" s="6">
         <v>521</v>
@@ -7928,9 +7966,7 @@
       <c r="C258" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D258" s="7">
-        <v>0.564102564102564</v>
-      </c>
+      <c r="D258" s="7"/>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
@@ -7944,9 +7980,11 @@
         <v>523</v>
       </c>
       <c r="C259" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D259" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D259" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
@@ -7960,10 +7998,10 @@
         <v>525</v>
       </c>
       <c r="C260" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D260" s="7">
-        <v>0.487179487179487</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
@@ -7978,11 +8016,9 @@
         <v>527</v>
       </c>
       <c r="C261" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D261" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D261" s="7"/>
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
@@ -7999,7 +8035,7 @@
         <v>13</v>
       </c>
       <c r="D262" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
@@ -8008,16 +8044,16 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="6">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B263" t="s" s="6">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C263" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D263" s="7">
-        <v>0.307692307692308</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
@@ -8026,15 +8062,17 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="6">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B264" t="s" s="6">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C264" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D264" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D264" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
       <c r="G264" s="8"/>
@@ -8042,15 +8080,17 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="6">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B265" t="s" s="6">
         <v>534</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D265" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D265" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
@@ -8064,11 +8104,9 @@
         <v>536</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D266" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D266" s="7"/>
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
       <c r="G266" s="8"/>
@@ -8082,9 +8120,11 @@
         <v>538</v>
       </c>
       <c r="C267" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D267" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D267" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
@@ -8098,9 +8138,11 @@
         <v>540</v>
       </c>
       <c r="C268" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D268" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D268" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
@@ -8114,7 +8156,7 @@
         <v>542</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D269" s="7"/>
       <c r="E269" s="8"/>
@@ -8130,10 +8172,10 @@
         <v>544</v>
       </c>
       <c r="C270" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D270" s="7">
-        <v>0.666666666666667</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
@@ -8148,7 +8190,7 @@
         <v>546</v>
       </c>
       <c r="C271" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="8"/>
@@ -8164,9 +8206,11 @@
         <v>548</v>
       </c>
       <c r="C272" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D272" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D272" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
       <c r="G272" s="8"/>
@@ -8180,7 +8224,7 @@
         <v>550</v>
       </c>
       <c r="C273" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D273" s="7"/>
       <c r="E273" s="8"/>
@@ -8196,11 +8240,9 @@
         <v>552</v>
       </c>
       <c r="C274" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D274" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D274" s="7"/>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
@@ -8214,7 +8256,7 @@
         <v>554</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="8"/>
@@ -8230,9 +8272,11 @@
         <v>556</v>
       </c>
       <c r="C276" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D276" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D276" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
@@ -8246,7 +8290,7 @@
         <v>558</v>
       </c>
       <c r="C277" t="s" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D277" s="7"/>
       <c r="E277" s="8"/>
@@ -8262,7 +8306,7 @@
         <v>560</v>
       </c>
       <c r="C278" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D278" s="7"/>
       <c r="E278" s="8"/>
@@ -8278,7 +8322,7 @@
         <v>562</v>
       </c>
       <c r="C279" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D279" s="7"/>
       <c r="E279" s="8"/>
@@ -8294,7 +8338,7 @@
         <v>564</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D280" s="7"/>
       <c r="E280" s="8"/>
@@ -8310,11 +8354,9 @@
         <v>566</v>
       </c>
       <c r="C281" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D281" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D281" s="7"/>
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
@@ -8328,11 +8370,9 @@
         <v>568</v>
       </c>
       <c r="C282" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D282" s="7">
-        <v>0.846153846153846</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D282" s="7"/>
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
       <c r="G282" s="8"/>
@@ -8346,9 +8386,11 @@
         <v>570</v>
       </c>
       <c r="C283" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D283" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D283" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
       <c r="G283" s="8"/>
@@ -8362,9 +8404,11 @@
         <v>572</v>
       </c>
       <c r="C284" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D284" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D284" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
@@ -8378,7 +8422,7 @@
         <v>574</v>
       </c>
       <c r="C285" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D285" s="7"/>
       <c r="E285" s="8"/>
@@ -8394,9 +8438,11 @@
         <v>576</v>
       </c>
       <c r="C286" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D286" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D286" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
       <c r="G286" s="8"/>
@@ -8426,7 +8472,7 @@
         <v>580</v>
       </c>
       <c r="C288" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D288" s="7"/>
       <c r="E288" s="8"/>
@@ -8442,7 +8488,7 @@
         <v>582</v>
       </c>
       <c r="C289" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D289" s="7"/>
       <c r="E289" s="8"/>
@@ -8458,9 +8504,11 @@
         <v>584</v>
       </c>
       <c r="C290" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D290" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D290" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
       <c r="G290" s="8"/>
@@ -8474,7 +8522,7 @@
         <v>586</v>
       </c>
       <c r="C291" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D291" s="7"/>
       <c r="E291" s="8"/>
@@ -8506,7 +8554,7 @@
         <v>590</v>
       </c>
       <c r="C293" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D293" s="7"/>
       <c r="E293" s="8"/>
@@ -8522,11 +8570,9 @@
         <v>592</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D294" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D294" s="7"/>
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
@@ -8540,7 +8586,7 @@
         <v>594</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D295" s="7"/>
       <c r="E295" s="8"/>
@@ -8556,9 +8602,11 @@
         <v>596</v>
       </c>
       <c r="C296" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D296" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D296" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
@@ -8572,11 +8620,9 @@
         <v>598</v>
       </c>
       <c r="C297" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D297" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D297" s="7"/>
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
       <c r="G297" s="8"/>
@@ -8590,7 +8636,7 @@
         <v>600</v>
       </c>
       <c r="C298" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D298" s="7"/>
       <c r="E298" s="8"/>
@@ -8609,7 +8655,7 @@
         <v>10</v>
       </c>
       <c r="D299" s="7">
-        <v>0.615384615384615</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
@@ -8624,7 +8670,7 @@
         <v>604</v>
       </c>
       <c r="C300" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="8"/>
@@ -8640,9 +8686,11 @@
         <v>606</v>
       </c>
       <c r="C301" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D301" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D301" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
       <c r="G301" s="8"/>
@@ -8656,7 +8704,7 @@
         <v>608</v>
       </c>
       <c r="C302" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="8"/>
@@ -8672,7 +8720,7 @@
         <v>610</v>
       </c>
       <c r="C303" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D303" s="7"/>
       <c r="E303" s="8"/>
@@ -8688,7 +8736,7 @@
         <v>612</v>
       </c>
       <c r="C304" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D304" s="7"/>
       <c r="E304" s="8"/>
@@ -8704,7 +8752,7 @@
         <v>614</v>
       </c>
       <c r="C305" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D305" s="7"/>
       <c r="E305" s="8"/>
@@ -8720,11 +8768,9 @@
         <v>616</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D306" s="7">
-        <v>0.820512820512821</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D306" s="7"/>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
@@ -8740,9 +8786,7 @@
       <c r="C307" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D307" s="7">
-        <v>0.615384615384615</v>
-      </c>
+      <c r="D307" s="7"/>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
       <c r="G307" s="8"/>
@@ -8758,7 +8802,9 @@
       <c r="C308" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D308" s="7"/>
+      <c r="D308" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
       <c r="G308" s="8"/>
@@ -8772,10 +8818,10 @@
         <v>622</v>
       </c>
       <c r="C309" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D309" s="7">
-        <v>0.487179487179487</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
@@ -8790,7 +8836,7 @@
         <v>624</v>
       </c>
       <c r="C310" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D310" s="7"/>
       <c r="E310" s="8"/>
@@ -8806,9 +8852,11 @@
         <v>626</v>
       </c>
       <c r="C311" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D311" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D311" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
       <c r="G311" s="8"/>
@@ -8816,13 +8864,13 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B312" t="s" s="6">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C312" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D312" s="7"/>
       <c r="E312" s="8"/>
@@ -8832,17 +8880,15 @@
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B313" t="s" s="6">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C313" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D313" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D313" s="7"/>
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
       <c r="G313" s="8"/>
@@ -8850,7 +8896,7 @@
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" t="s" s="6">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B314" t="s" s="6">
         <v>631</v>
@@ -8872,10 +8918,10 @@
         <v>633</v>
       </c>
       <c r="C315" t="s" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D315" s="7">
-        <v>0.41025641025641</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
@@ -8890,10 +8936,10 @@
         <v>635</v>
       </c>
       <c r="C316" t="s" s="6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D316" s="7">
-        <v>0.846153846153846</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
@@ -8908,9 +8954,11 @@
         <v>637</v>
       </c>
       <c r="C317" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D317" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D317" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
       <c r="G317" s="8"/>
@@ -8924,9 +8972,11 @@
         <v>639</v>
       </c>
       <c r="C318" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D318" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D318" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
       <c r="G318" s="8"/>
@@ -8940,7 +8990,7 @@
         <v>641</v>
       </c>
       <c r="C319" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D319" s="7"/>
       <c r="E319" s="8"/>
@@ -8972,7 +9022,7 @@
         <v>645</v>
       </c>
       <c r="C321" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D321" s="7"/>
       <c r="E321" s="8"/>
@@ -8988,7 +9038,7 @@
         <v>647</v>
       </c>
       <c r="C322" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
@@ -9004,7 +9054,7 @@
         <v>649</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="8"/>
@@ -9020,7 +9070,7 @@
         <v>651</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D324" s="7"/>
       <c r="E324" s="8"/>
@@ -9036,7 +9086,7 @@
         <v>653</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D325" s="7"/>
       <c r="E325" s="8"/>
@@ -9052,7 +9102,7 @@
         <v>655</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D326" s="7"/>
       <c r="E326" s="8"/>
@@ -9068,7 +9118,7 @@
         <v>657</v>
       </c>
       <c r="C327" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="8"/>
@@ -9084,7 +9134,7 @@
         <v>659</v>
       </c>
       <c r="C328" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D328" s="7"/>
       <c r="E328" s="8"/>
@@ -9100,11 +9150,9 @@
         <v>661</v>
       </c>
       <c r="C329" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D329" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D329" s="7"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
@@ -9118,7 +9166,7 @@
         <v>663</v>
       </c>
       <c r="C330" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D330" s="7"/>
       <c r="E330" s="8"/>
@@ -9134,9 +9182,11 @@
         <v>665</v>
       </c>
       <c r="C331" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D331" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D331" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
       <c r="G331" s="8"/>
@@ -9150,7 +9200,7 @@
         <v>667</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="8"/>
@@ -9166,10 +9216,10 @@
         <v>669</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D333" s="7">
-        <v>0.615384615384615</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
@@ -9184,7 +9234,7 @@
         <v>671</v>
       </c>
       <c r="C334" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D334" s="7"/>
       <c r="E334" s="8"/>
@@ -9200,9 +9250,11 @@
         <v>673</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D335" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D335" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
       <c r="G335" s="8"/>
@@ -9216,7 +9268,7 @@
         <v>675</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D336" s="7"/>
       <c r="E336" s="8"/>
@@ -9232,7 +9284,7 @@
         <v>677</v>
       </c>
       <c r="C337" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D337" s="7"/>
       <c r="E337" s="8"/>
@@ -9248,7 +9300,7 @@
         <v>679</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D338" s="7"/>
       <c r="E338" s="8"/>
@@ -9264,7 +9316,7 @@
         <v>681</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D339" s="7"/>
       <c r="E339" s="8"/>
@@ -9296,11 +9348,9 @@
         <v>685</v>
       </c>
       <c r="C341" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D341" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D341" s="7"/>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
       <c r="G341" s="8"/>
@@ -9314,11 +9364,9 @@
         <v>687</v>
       </c>
       <c r="C342" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D342" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D342" s="7"/>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
       <c r="G342" s="8"/>
@@ -9332,9 +9380,11 @@
         <v>689</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D343" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D343" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
@@ -9348,9 +9398,11 @@
         <v>691</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D344" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D344" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
@@ -9364,7 +9416,7 @@
         <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D345" s="7"/>
       <c r="E345" s="8"/>
@@ -9374,13 +9426,13 @@
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" t="s" s="6">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B346" t="s" s="6">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D346" s="7"/>
       <c r="E346" s="8"/>
@@ -9390,17 +9442,15 @@
     </row>
     <row r="347" ht="20.05" customHeight="1">
       <c r="A347" t="s" s="6">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B347" t="s" s="6">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D347" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D347" s="7"/>
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
       <c r="G347" s="8"/>
@@ -9408,13 +9458,13 @@
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" t="s" s="6">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B348" t="s" s="6">
         <v>698</v>
       </c>
       <c r="C348" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D348" s="7"/>
       <c r="E348" s="8"/>
@@ -9430,9 +9480,11 @@
         <v>700</v>
       </c>
       <c r="C349" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D349" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D349" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
@@ -9446,7 +9498,7 @@
         <v>702</v>
       </c>
       <c r="C350" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D350" s="7"/>
       <c r="E350" s="8"/>
@@ -9462,7 +9514,7 @@
         <v>704</v>
       </c>
       <c r="C351" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="8"/>
@@ -9478,7 +9530,7 @@
         <v>706</v>
       </c>
       <c r="C352" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D352" s="7"/>
       <c r="E352" s="8"/>
@@ -9494,7 +9546,7 @@
         <v>708</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D353" s="7"/>
       <c r="E353" s="8"/>
@@ -9510,7 +9562,7 @@
         <v>710</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="8"/>
@@ -9520,13 +9572,13 @@
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B355" t="s" s="6">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D355" s="7"/>
       <c r="E355" s="8"/>
@@ -9536,13 +9588,13 @@
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B356" t="s" s="6">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D356" s="7"/>
       <c r="E356" s="8"/>
@@ -9555,10 +9607,10 @@
         <v>713</v>
       </c>
       <c r="B357" t="s" s="6">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D357" s="7"/>
       <c r="E357" s="8"/>
@@ -9568,7 +9620,7 @@
     </row>
     <row r="358" ht="20.05" customHeight="1">
       <c r="A358" t="s" s="6">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B358" t="s" s="6">
         <v>716</v>
@@ -9590,7 +9642,7 @@
         <v>718</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D359" s="7"/>
       <c r="E359" s="8"/>
@@ -9606,7 +9658,7 @@
         <v>720</v>
       </c>
       <c r="C360" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D360" s="7"/>
       <c r="E360" s="8"/>
@@ -9622,7 +9674,7 @@
         <v>722</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
@@ -9638,7 +9690,7 @@
         <v>724</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D362" s="7"/>
       <c r="E362" s="8"/>
@@ -9670,10 +9722,10 @@
         <v>728</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D364" s="7">
-        <v>0.641025641025641</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
@@ -9688,7 +9740,7 @@
         <v>730</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D365" s="7"/>
       <c r="E365" s="8"/>
@@ -9704,9 +9756,11 @@
         <v>732</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D366" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D366" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
@@ -9720,11 +9774,9 @@
         <v>734</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D367" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D367" s="7"/>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
@@ -9738,7 +9790,7 @@
         <v>736</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D368" s="7"/>
       <c r="E368" s="8"/>
@@ -9754,9 +9806,11 @@
         <v>738</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D369" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D369" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
@@ -9772,7 +9826,9 @@
       <c r="C370" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D370" s="7"/>
+      <c r="D370" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
       <c r="G370" s="8"/>
@@ -9818,11 +9874,9 @@
         <v>746</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D373" s="7">
-        <v>0.230769230769231</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D373" s="7"/>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
       <c r="G373" s="8"/>
@@ -9836,7 +9890,7 @@
         <v>748</v>
       </c>
       <c r="C374" t="s" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D374" s="7"/>
       <c r="E374" s="8"/>
@@ -9852,11 +9906,9 @@
         <v>750</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D375" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D375" s="7"/>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
       <c r="G375" s="8"/>
@@ -9870,9 +9922,11 @@
         <v>752</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D376" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D376" s="7">
+        <v>0.230769230769231</v>
+      </c>
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
       <c r="G376" s="8"/>
@@ -9886,9 +9940,11 @@
         <v>754</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D377" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D377" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
       <c r="G377" s="8"/>
@@ -9902,9 +9958,11 @@
         <v>756</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D378" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D378" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
       <c r="G378" s="8"/>
@@ -9918,7 +9976,7 @@
         <v>758</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D379" s="7"/>
       <c r="E379" s="8"/>
@@ -9928,13 +9986,13 @@
     </row>
     <row r="380" ht="20.05" customHeight="1">
       <c r="A380" t="s" s="6">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B380" t="s" s="6">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C380" t="s" s="6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D380" s="7"/>
       <c r="E380" s="8"/>
@@ -9944,15 +10002,17 @@
     </row>
     <row r="381" ht="20.05" customHeight="1">
       <c r="A381" t="s" s="6">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B381" t="s" s="6">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D381" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D381" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
@@ -9960,13 +10020,13 @@
     </row>
     <row r="382" ht="20.05" customHeight="1">
       <c r="A382" t="s" s="6">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B382" t="s" s="6">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D382" s="7"/>
       <c r="E382" s="8"/>
@@ -9976,13 +10036,13 @@
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="6">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B383" t="s" s="6">
         <v>765</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
@@ -9998,7 +10058,7 @@
         <v>767</v>
       </c>
       <c r="C384" t="s" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D384" s="7"/>
       <c r="E384" s="8"/>
@@ -10014,7 +10074,7 @@
         <v>769</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="8"/>
@@ -10030,7 +10090,7 @@
         <v>771</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D386" s="7"/>
       <c r="E386" s="8"/>
@@ -10046,7 +10106,7 @@
         <v>773</v>
       </c>
       <c r="C387" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="8"/>
@@ -10062,7 +10122,7 @@
         <v>775</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
@@ -10078,9 +10138,11 @@
         <v>777</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D389" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D389" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
@@ -10094,7 +10156,7 @@
         <v>779</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D390" s="7"/>
       <c r="E390" s="8"/>
@@ -10110,11 +10172,9 @@
         <v>781</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D391" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D391" s="7"/>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -10128,7 +10188,7 @@
         <v>783</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D392" s="7"/>
       <c r="E392" s="8"/>
@@ -10144,7 +10204,7 @@
         <v>785</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D393" s="7"/>
       <c r="E393" s="8"/>
@@ -10160,9 +10220,11 @@
         <v>787</v>
       </c>
       <c r="C394" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D394" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D394" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -10176,11 +10238,9 @@
         <v>789</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D395" s="7">
-        <v>0.794871794871795</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D395" s="7"/>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -10194,11 +10254,9 @@
         <v>791</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D396" s="7">
-        <v>0.333333333333333</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D396" s="7"/>
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
@@ -10212,7 +10270,7 @@
         <v>793</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
@@ -10228,9 +10286,11 @@
         <v>795</v>
       </c>
       <c r="C398" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D398" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D398" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -10244,10 +10304,10 @@
         <v>797</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D399" s="7">
-        <v>0.615384615384615</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
@@ -10262,7 +10322,7 @@
         <v>799</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D400" s="7"/>
       <c r="E400" s="8"/>
@@ -10272,13 +10332,13 @@
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B401" t="s" s="6">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C401" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="8"/>
@@ -10288,15 +10348,17 @@
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B402" t="s" s="6">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D402" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D402" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
@@ -10304,10 +10366,10 @@
     </row>
     <row r="403" ht="20.05" customHeight="1">
       <c r="A403" t="s" s="6">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B403" t="s" s="6">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C403" t="s" s="6">
         <v>13</v>
@@ -10320,13 +10382,13 @@
     </row>
     <row r="404" ht="20.05" customHeight="1">
       <c r="A404" t="s" s="6">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B404" t="s" s="6">
         <v>806</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D404" s="7"/>
       <c r="E404" s="8"/>
@@ -10342,7 +10404,7 @@
         <v>808</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D405" s="7"/>
       <c r="E405" s="8"/>
@@ -10360,7 +10422,9 @@
       <c r="C406" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D406" s="7"/>
+      <c r="D406" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -10374,7 +10438,7 @@
         <v>812</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D407" s="7"/>
       <c r="E407" s="8"/>
@@ -10384,13 +10448,13 @@
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B408" t="s" s="6">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D408" s="7"/>
       <c r="E408" s="8"/>
@@ -10400,13 +10464,13 @@
     </row>
     <row r="409" ht="20.05" customHeight="1">
       <c r="A409" t="s" s="6">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B409" t="s" s="6">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D409" s="7"/>
       <c r="E409" s="8"/>
@@ -10416,10 +10480,10 @@
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="6">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B410" t="s" s="6">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C410" t="s" s="6">
         <v>49</v>
@@ -10432,19 +10496,67 @@
     </row>
     <row r="411" ht="20.05" customHeight="1">
       <c r="A411" t="s" s="6">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B411" t="s" s="6">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C411" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D411" s="7"/>
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
       <c r="H411" s="8"/>
+    </row>
+    <row r="412" ht="20.05" customHeight="1">
+      <c r="A412" t="s" s="6">
+        <v>820</v>
+      </c>
+      <c r="B412" t="s" s="6">
+        <v>821</v>
+      </c>
+      <c r="C412" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D412" s="7"/>
+      <c r="E412" s="8"/>
+      <c r="F412" s="8"/>
+      <c r="G412" s="8"/>
+      <c r="H412" s="8"/>
+    </row>
+    <row r="413" ht="20.05" customHeight="1">
+      <c r="A413" t="s" s="6">
+        <v>822</v>
+      </c>
+      <c r="B413" t="s" s="6">
+        <v>823</v>
+      </c>
+      <c r="C413" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D413" s="7"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="8"/>
+      <c r="G413" s="8"/>
+      <c r="H413" s="8"/>
+    </row>
+    <row r="414" ht="20.05" customHeight="1">
+      <c r="A414" t="s" s="6">
+        <v>822</v>
+      </c>
+      <c r="B414" t="s" s="6">
+        <v>824</v>
+      </c>
+      <c r="C414" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D414" s="7"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="8"/>
+      <c r="G414" s="8"/>
+      <c r="H414" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
   <si>
     <t>Surname</t>
   </si>
@@ -2015,6 +2015,12 @@
   </si>
   <si>
     <t>H200525J</t>
+  </si>
+  <si>
+    <t>NGWIRA</t>
+  </si>
+  <si>
+    <t>H190271A</t>
   </si>
   <si>
     <t>NHAMARARE</t>
@@ -3692,7 +3698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H415"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -4302,7 +4308,9 @@
       <c r="C36" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -5520,7 +5528,9 @@
       <c r="C110" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -6242,7 +6252,9 @@
       <c r="C154" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
@@ -7868,7 +7880,9 @@
       <c r="C252" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D252" s="7"/>
+      <c r="D252" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
@@ -7966,7 +7980,9 @@
       <c r="C258" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D258" s="7"/>
+      <c r="D258" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
@@ -9072,7 +9088,9 @@
       <c r="C324" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D324" s="7"/>
+      <c r="D324" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
       <c r="G324" s="8"/>
@@ -9216,10 +9234,10 @@
         <v>669</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D333" s="7">
-        <v>0.538461538461538</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
@@ -9234,9 +9252,11 @@
         <v>671</v>
       </c>
       <c r="C334" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D334" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D334" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
       <c r="G334" s="8"/>
@@ -9250,11 +9270,9 @@
         <v>673</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D335" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D335" s="7"/>
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
       <c r="G335" s="8"/>
@@ -9268,9 +9286,11 @@
         <v>675</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D336" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D336" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
       <c r="G336" s="8"/>
@@ -9300,7 +9320,7 @@
         <v>679</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D338" s="7"/>
       <c r="E338" s="8"/>
@@ -9316,7 +9336,7 @@
         <v>681</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D339" s="7"/>
       <c r="E339" s="8"/>
@@ -9332,7 +9352,7 @@
         <v>683</v>
       </c>
       <c r="C340" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D340" s="7"/>
       <c r="E340" s="8"/>
@@ -9348,7 +9368,7 @@
         <v>685</v>
       </c>
       <c r="C341" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D341" s="7"/>
       <c r="E341" s="8"/>
@@ -9364,7 +9384,7 @@
         <v>687</v>
       </c>
       <c r="C342" t="s" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D342" s="7"/>
       <c r="E342" s="8"/>
@@ -9380,11 +9400,9 @@
         <v>689</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D343" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D343" s="7"/>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
@@ -9398,10 +9416,10 @@
         <v>691</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D344" s="7">
-        <v>0.58974358974359</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
@@ -9416,9 +9434,11 @@
         <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D345" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D345" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
       <c r="G345" s="8"/>
@@ -9432,7 +9452,7 @@
         <v>695</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D346" s="7"/>
       <c r="E346" s="8"/>
@@ -9448,7 +9468,7 @@
         <v>697</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D347" s="7"/>
       <c r="E347" s="8"/>
@@ -9458,13 +9478,13 @@
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" t="s" s="6">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B348" t="s" s="6">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C348" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D348" s="7"/>
       <c r="E348" s="8"/>
@@ -9474,17 +9494,15 @@
     </row>
     <row r="349" ht="20.05" customHeight="1">
       <c r="A349" t="s" s="6">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B349" t="s" s="6">
         <v>700</v>
       </c>
       <c r="C349" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D349" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D349" s="7"/>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
@@ -9498,9 +9516,11 @@
         <v>702</v>
       </c>
       <c r="C350" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D350" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D350" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
       <c r="G350" s="8"/>
@@ -9514,7 +9534,7 @@
         <v>704</v>
       </c>
       <c r="C351" t="s" s="6">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="8"/>
@@ -9530,7 +9550,7 @@
         <v>706</v>
       </c>
       <c r="C352" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D352" s="7"/>
       <c r="E352" s="8"/>
@@ -9546,7 +9566,7 @@
         <v>708</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D353" s="7"/>
       <c r="E353" s="8"/>
@@ -9562,7 +9582,7 @@
         <v>710</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="8"/>
@@ -9594,7 +9614,7 @@
         <v>714</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D356" s="7"/>
       <c r="E356" s="8"/>
@@ -9604,13 +9624,13 @@
     </row>
     <row r="357" ht="20.05" customHeight="1">
       <c r="A357" t="s" s="6">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B357" t="s" s="6">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D357" s="7"/>
       <c r="E357" s="8"/>
@@ -9620,13 +9640,13 @@
     </row>
     <row r="358" ht="20.05" customHeight="1">
       <c r="A358" t="s" s="6">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B358" t="s" s="6">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D358" s="7"/>
       <c r="E358" s="8"/>
@@ -9636,7 +9656,7 @@
     </row>
     <row r="359" ht="20.05" customHeight="1">
       <c r="A359" t="s" s="6">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B359" t="s" s="6">
         <v>718</v>
@@ -9674,7 +9694,7 @@
         <v>722</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
@@ -9690,7 +9710,7 @@
         <v>724</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D362" s="7"/>
       <c r="E362" s="8"/>
@@ -9706,7 +9726,7 @@
         <v>726</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D363" s="7"/>
       <c r="E363" s="8"/>
@@ -9722,11 +9742,9 @@
         <v>728</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D364" s="7">
-        <v>0.358974358974359</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D364" s="7"/>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
@@ -9740,9 +9758,11 @@
         <v>730</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D365" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D365" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
       <c r="G365" s="8"/>
@@ -9756,11 +9776,9 @@
         <v>732</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D366" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D366" s="7"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
@@ -9776,7 +9794,9 @@
       <c r="C367" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D367" s="7"/>
+      <c r="D367" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
@@ -9790,7 +9810,7 @@
         <v>736</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D368" s="7"/>
       <c r="E368" s="8"/>
@@ -9806,11 +9826,9 @@
         <v>738</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="D369" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D369" s="7"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
@@ -9824,10 +9842,10 @@
         <v>740</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D370" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
@@ -9842,9 +9860,11 @@
         <v>742</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D371" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D371" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
       <c r="G371" s="8"/>
@@ -9858,7 +9878,7 @@
         <v>744</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D372" s="7"/>
       <c r="E372" s="8"/>
@@ -9874,7 +9894,7 @@
         <v>746</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D373" s="7"/>
       <c r="E373" s="8"/>
@@ -9890,7 +9910,7 @@
         <v>748</v>
       </c>
       <c r="C374" t="s" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D374" s="7"/>
       <c r="E374" s="8"/>
@@ -9906,7 +9926,7 @@
         <v>750</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D375" s="7"/>
       <c r="E375" s="8"/>
@@ -9922,11 +9942,9 @@
         <v>752</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D376" s="7">
-        <v>0.230769230769231</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D376" s="7"/>
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
       <c r="G376" s="8"/>
@@ -9940,10 +9958,10 @@
         <v>754</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D377" s="7">
-        <v>0.333333333333333</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
@@ -9958,10 +9976,10 @@
         <v>756</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D378" s="7">
-        <v>0.717948717948718</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
@@ -9976,9 +9994,11 @@
         <v>758</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D379" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D379" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="G379" s="8"/>
@@ -9992,7 +10012,7 @@
         <v>760</v>
       </c>
       <c r="C380" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D380" s="7"/>
       <c r="E380" s="8"/>
@@ -10008,11 +10028,9 @@
         <v>762</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D381" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D381" s="7"/>
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
@@ -10026,9 +10044,11 @@
         <v>764</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D382" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D382" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
       <c r="G382" s="8"/>
@@ -10036,13 +10056,13 @@
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="6">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B383" t="s" s="6">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
@@ -10052,7 +10072,7 @@
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="6">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B384" t="s" s="6">
         <v>767</v>
@@ -10074,7 +10094,7 @@
         <v>769</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="8"/>
@@ -10090,7 +10110,7 @@
         <v>771</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D386" s="7"/>
       <c r="E386" s="8"/>
@@ -10106,7 +10126,7 @@
         <v>773</v>
       </c>
       <c r="C387" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="8"/>
@@ -10122,7 +10142,7 @@
         <v>775</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
@@ -10138,11 +10158,9 @@
         <v>777</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D389" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D389" s="7"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
@@ -10156,9 +10174,11 @@
         <v>779</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="D390" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D390" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
@@ -10172,7 +10192,7 @@
         <v>781</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D391" s="7"/>
       <c r="E391" s="8"/>
@@ -10188,7 +10208,7 @@
         <v>783</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D392" s="7"/>
       <c r="E392" s="8"/>
@@ -10204,7 +10224,7 @@
         <v>785</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D393" s="7"/>
       <c r="E393" s="8"/>
@@ -10220,11 +10240,9 @@
         <v>787</v>
       </c>
       <c r="C394" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D394" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D394" s="7"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -10238,9 +10256,11 @@
         <v>789</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D395" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D395" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -10254,7 +10274,7 @@
         <v>791</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D396" s="7"/>
       <c r="E396" s="8"/>
@@ -10270,7 +10290,7 @@
         <v>793</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
@@ -10288,9 +10308,7 @@
       <c r="C398" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D398" s="7">
-        <v>0.794871794871795</v>
-      </c>
+      <c r="D398" s="7"/>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -10304,10 +10322,10 @@
         <v>797</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D399" s="7">
-        <v>0.333333333333333</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
@@ -10322,9 +10340,11 @@
         <v>799</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D400" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D400" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
@@ -10338,7 +10358,7 @@
         <v>801</v>
       </c>
       <c r="C401" t="s" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="8"/>
@@ -10354,11 +10374,9 @@
         <v>803</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="D402" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D402" s="7"/>
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
@@ -10372,9 +10390,11 @@
         <v>805</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D403" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D403" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
@@ -10382,13 +10402,13 @@
     </row>
     <row r="404" ht="20.05" customHeight="1">
       <c r="A404" t="s" s="6">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B404" t="s" s="6">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D404" s="7"/>
       <c r="E404" s="8"/>
@@ -10398,13 +10418,13 @@
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B405" t="s" s="6">
         <v>808</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D405" s="7"/>
       <c r="E405" s="8"/>
@@ -10422,9 +10442,7 @@
       <c r="C406" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D406" s="7">
-        <v>0.692307692307692</v>
-      </c>
+      <c r="D406" s="7"/>
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -10438,9 +10456,11 @@
         <v>812</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D407" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D407" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
@@ -10454,7 +10474,7 @@
         <v>814</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D408" s="7"/>
       <c r="E408" s="8"/>
@@ -10470,7 +10490,7 @@
         <v>816</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D409" s="7"/>
       <c r="E409" s="8"/>
@@ -10486,7 +10506,7 @@
         <v>818</v>
       </c>
       <c r="C410" t="s" s="6">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D410" s="7"/>
       <c r="E410" s="8"/>
@@ -10496,13 +10516,13 @@
     </row>
     <row r="411" ht="20.05" customHeight="1">
       <c r="A411" t="s" s="6">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B411" t="s" s="6">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C411" t="s" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D411" s="7"/>
       <c r="E411" s="8"/>
@@ -10512,13 +10532,13 @@
     </row>
     <row r="412" ht="20.05" customHeight="1">
       <c r="A412" t="s" s="6">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B412" t="s" s="6">
         <v>821</v>
       </c>
       <c r="C412" t="s" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D412" s="7"/>
       <c r="E412" s="8"/>
@@ -10544,10 +10564,10 @@
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="6">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B414" t="s" s="6">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C414" t="s" s="6">
         <v>49</v>
@@ -10557,6 +10577,22 @@
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
       <c r="H414" s="8"/>
+    </row>
+    <row r="415" ht="20.05" customHeight="1">
+      <c r="A415" t="s" s="6">
+        <v>824</v>
+      </c>
+      <c r="B415" t="s" s="6">
+        <v>826</v>
+      </c>
+      <c r="C415" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D415" s="7"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="8"/>
+      <c r="G415" s="8"/>
+      <c r="H415" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -5142,7 +5142,9 @@
       <c r="C87" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -5820,7 +5822,9 @@
       <c r="C128" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
@@ -5852,7 +5856,9 @@
       <c r="C130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
@@ -6534,7 +6540,9 @@
       <c r="C171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
@@ -6696,7 +6704,9 @@
       <c r="C181" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D181" s="7"/>
+      <c r="D181" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
@@ -6828,7 +6838,9 @@
       <c r="C189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
@@ -8770,7 +8782,9 @@
       <c r="C305" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D305" s="7"/>
+      <c r="D305" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
@@ -9680,7 +9694,9 @@
       <c r="C360" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D360" s="7"/>
+      <c r="D360" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
       <c r="G360" s="8"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
   <si>
     <t>Surname</t>
   </si>
@@ -2432,6 +2432,12 @@
   </si>
   <si>
     <t>H170292W</t>
+  </si>
+  <si>
+    <t>RUKWISHURO</t>
+  </si>
+  <si>
+    <t>H190374E</t>
   </si>
   <si>
     <t>RUNESU</t>
@@ -3932,7 +3938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -11420,13 +11426,11 @@
         <v>808</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D403" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D403" s="7"/>
       <c r="E403" s="7">
-        <v>0.649122807017544</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
@@ -11442,9 +11446,11 @@
       <c r="C404" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D404" s="7"/>
+      <c r="D404" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E404" s="7">
-        <v>0</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
@@ -11458,11 +11464,11 @@
         <v>812</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D405" s="7"/>
       <c r="E405" s="7">
-        <v>0.642857142857143</v>
+        <v>0</v>
       </c>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
@@ -11476,13 +11482,11 @@
         <v>814</v>
       </c>
       <c r="C406" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D406" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D406" s="7"/>
       <c r="E406" s="7">
-        <v>0.807017543859649</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -11496,13 +11500,13 @@
         <v>816</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D407" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E407" s="7">
-        <v>0.789473684210526</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
@@ -11516,11 +11520,13 @@
         <v>818</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D408" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D408" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E408" s="7">
-        <v>0.614035087719298</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
@@ -11534,11 +11540,11 @@
         <v>820</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D409" s="7"/>
       <c r="E409" s="7">
-        <v>0.754385964912281</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
@@ -11552,11 +11558,11 @@
         <v>822</v>
       </c>
       <c r="C410" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D410" s="7"/>
       <c r="E410" s="7">
-        <v>0.736842105263158</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
@@ -11570,11 +11576,11 @@
         <v>824</v>
       </c>
       <c r="C411" t="s" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D411" s="7"/>
       <c r="E411" s="7">
-        <v>0.789473684210526</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
@@ -11588,11 +11594,11 @@
         <v>826</v>
       </c>
       <c r="C412" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D412" s="7"/>
       <c r="E412" s="7">
-        <v>0.754385964912281</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
@@ -11606,13 +11612,11 @@
         <v>828</v>
       </c>
       <c r="C413" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D413" s="7">
-        <v>0.230769230769231</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D413" s="7"/>
       <c r="E413" s="7">
-        <v>0</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
@@ -11626,13 +11630,13 @@
         <v>830</v>
       </c>
       <c r="C414" t="s" s="6">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D414" s="7">
-        <v>0.333333333333333</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E414" s="7">
-        <v>0.842105263157895</v>
+        <v>0</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
@@ -11646,13 +11650,13 @@
         <v>832</v>
       </c>
       <c r="C415" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D415" s="7">
-        <v>0.717948717948718</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E415" s="7">
-        <v>0.701754385964912</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
@@ -11666,11 +11670,13 @@
         <v>834</v>
       </c>
       <c r="C416" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D416" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D416" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E416" s="7">
-        <v>0</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
@@ -11684,11 +11690,11 @@
         <v>836</v>
       </c>
       <c r="C417" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D417" s="7"/>
       <c r="E417" s="7">
-        <v>0.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
@@ -11702,11 +11708,9 @@
         <v>838</v>
       </c>
       <c r="C418" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D418" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D418" s="7"/>
       <c r="E418" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -11722,11 +11726,13 @@
         <v>840</v>
       </c>
       <c r="C419" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D419" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D419" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E419" s="7">
-        <v>0.428571428571429</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
@@ -11734,17 +11740,17 @@
     </row>
     <row r="420" ht="20.05" customHeight="1">
       <c r="A420" t="s" s="6">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B420" t="s" s="6">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D420" s="7"/>
       <c r="E420" s="7">
-        <v>0</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
@@ -11752,7 +11758,7 @@
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="6">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B421" t="s" s="6">
         <v>843</v>
@@ -11762,7 +11768,7 @@
       </c>
       <c r="D421" s="7"/>
       <c r="E421" s="7">
-        <v>0.553571428571429</v>
+        <v>0</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
@@ -11776,11 +11782,11 @@
         <v>845</v>
       </c>
       <c r="C422" t="s" s="6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D422" s="7"/>
       <c r="E422" s="7">
-        <v>0</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
@@ -11794,11 +11800,11 @@
         <v>847</v>
       </c>
       <c r="C423" t="s" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D423" s="7"/>
       <c r="E423" s="7">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
@@ -11812,11 +11818,11 @@
         <v>849</v>
       </c>
       <c r="C424" t="s" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D424" s="7"/>
       <c r="E424" s="7">
-        <v>0.789473684210526</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
@@ -11830,11 +11836,11 @@
         <v>851</v>
       </c>
       <c r="C425" t="s" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D425" s="7"/>
       <c r="E425" s="7">
-        <v>0.701754385964912</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
@@ -11848,13 +11854,11 @@
         <v>853</v>
       </c>
       <c r="C426" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D426" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D426" s="7"/>
       <c r="E426" s="7">
-        <v>0.649122807017544</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
@@ -11868,11 +11872,13 @@
         <v>855</v>
       </c>
       <c r="C427" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D427" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D427" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E427" s="7">
-        <v>0.428571428571429</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
@@ -11886,11 +11892,11 @@
         <v>857</v>
       </c>
       <c r="C428" t="s" s="6">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D428" s="7"/>
       <c r="E428" s="7">
-        <v>0.596491228070175</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
@@ -11904,11 +11910,11 @@
         <v>859</v>
       </c>
       <c r="C429" t="s" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D429" s="7"/>
       <c r="E429" s="7">
-        <v>0.649122807017544</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
@@ -11922,7 +11928,7 @@
         <v>861</v>
       </c>
       <c r="C430" t="s" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D430" s="7"/>
       <c r="E430" s="7">
@@ -11940,13 +11946,11 @@
         <v>863</v>
       </c>
       <c r="C431" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D431" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D431" s="7"/>
       <c r="E431" s="7">
-        <v>0</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
@@ -11960,11 +11964,13 @@
         <v>865</v>
       </c>
       <c r="C432" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D432" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D432" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E432" s="7">
-        <v>0.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="F432" s="8"/>
       <c r="G432" s="8"/>
@@ -11978,11 +11984,11 @@
         <v>867</v>
       </c>
       <c r="C433" t="s" s="6">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D433" s="7"/>
       <c r="E433" s="7">
-        <v>0.678571428571429</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F433" s="8"/>
       <c r="G433" s="8"/>
@@ -11996,11 +12002,11 @@
         <v>869</v>
       </c>
       <c r="C434" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D434" s="7"/>
       <c r="E434" s="7">
-        <v>0.859649122807018</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
@@ -12016,11 +12022,9 @@
       <c r="C435" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D435" s="7">
-        <v>0.794871794871795</v>
-      </c>
+      <c r="D435" s="7"/>
       <c r="E435" s="7">
-        <v>0.719298245614035</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
@@ -12034,13 +12038,13 @@
         <v>873</v>
       </c>
       <c r="C436" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D436" s="7">
-        <v>0.333333333333333</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E436" s="7">
-        <v>0.789473684210526</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
@@ -12054,11 +12058,13 @@
         <v>875</v>
       </c>
       <c r="C437" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D437" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D437" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E437" s="7">
-        <v>0</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F437" s="8"/>
       <c r="G437" s="8"/>
@@ -12072,11 +12078,11 @@
         <v>877</v>
       </c>
       <c r="C438" t="s" s="6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D438" s="7"/>
       <c r="E438" s="7">
-        <v>0.803571428571429</v>
+        <v>0</v>
       </c>
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
@@ -12090,13 +12096,11 @@
         <v>879</v>
       </c>
       <c r="C439" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D439" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D439" s="7"/>
       <c r="E439" s="7">
-        <v>0.666666666666667</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
@@ -12110,11 +12114,13 @@
         <v>881</v>
       </c>
       <c r="C440" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D440" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D440" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E440" s="7">
-        <v>0.8947368421052631</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
@@ -12122,17 +12128,17 @@
     </row>
     <row r="441" ht="20.05" customHeight="1">
       <c r="A441" t="s" s="6">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B441" t="s" s="6">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C441" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D441" s="7"/>
       <c r="E441" s="7">
-        <v>0</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
@@ -12140,17 +12146,17 @@
     </row>
     <row r="442" ht="20.05" customHeight="1">
       <c r="A442" t="s" s="6">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B442" t="s" s="6">
         <v>884</v>
       </c>
       <c r="C442" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D442" s="7"/>
       <c r="E442" s="7">
-        <v>0.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="F442" s="8"/>
       <c r="G442" s="8"/>
@@ -12164,11 +12170,11 @@
         <v>886</v>
       </c>
       <c r="C443" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D443" s="7"/>
       <c r="E443" s="7">
-        <v>0</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
@@ -12184,11 +12190,9 @@
       <c r="C444" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D444" s="7">
-        <v>0.692307692307692</v>
-      </c>
+      <c r="D444" s="7"/>
       <c r="E444" s="7">
-        <v>0.719298245614035</v>
+        <v>0</v>
       </c>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
@@ -12202,11 +12206,13 @@
         <v>890</v>
       </c>
       <c r="C445" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D445" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D445" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E445" s="7">
-        <v>0.607142857142857</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F445" s="8"/>
       <c r="G445" s="8"/>
@@ -12220,11 +12226,11 @@
         <v>892</v>
       </c>
       <c r="C446" t="s" s="6">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D446" s="7"/>
       <c r="E446" s="7">
-        <v>0.789473684210526</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F446" s="8"/>
       <c r="G446" s="8"/>
@@ -12238,7 +12244,7 @@
         <v>894</v>
       </c>
       <c r="C447" t="s" s="6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D447" s="7"/>
       <c r="E447" s="7">
@@ -12256,11 +12262,11 @@
         <v>896</v>
       </c>
       <c r="C448" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D448" s="7"/>
       <c r="E448" s="7">
-        <v>0.754385964912281</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F448" s="8"/>
       <c r="G448" s="8"/>
@@ -12274,11 +12280,11 @@
         <v>898</v>
       </c>
       <c r="C449" t="s" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D449" s="7"/>
       <c r="E449" s="7">
-        <v>0.43859649122807</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F449" s="8"/>
       <c r="G449" s="8"/>
@@ -12286,17 +12292,17 @@
     </row>
     <row r="450" ht="20.05" customHeight="1">
       <c r="A450" t="s" s="6">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B450" t="s" s="6">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C450" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D450" s="7"/>
       <c r="E450" s="7">
-        <v>0.446428571428571</v>
+        <v>0.43859649122807</v>
       </c>
       <c r="F450" s="8"/>
       <c r="G450" s="8"/>
@@ -12304,7 +12310,7 @@
     </row>
     <row r="451" ht="20.05" customHeight="1">
       <c r="A451" t="s" s="6">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B451" t="s" s="6">
         <v>901</v>
@@ -12314,7 +12320,7 @@
       </c>
       <c r="D451" s="7"/>
       <c r="E451" s="7">
-        <v>0</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="F451" s="8"/>
       <c r="G451" s="8"/>
@@ -12332,7 +12338,7 @@
       </c>
       <c r="D452" s="7"/>
       <c r="E452" s="7">
-        <v>0.607142857142857</v>
+        <v>0</v>
       </c>
       <c r="F452" s="8"/>
       <c r="G452" s="8"/>
@@ -12340,21 +12346,39 @@
     </row>
     <row r="453" ht="20.05" customHeight="1">
       <c r="A453" t="s" s="6">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B453" t="s" s="6">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C453" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D453" s="7"/>
       <c r="E453" s="7">
-        <v>0.803571428571429</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F453" s="8"/>
       <c r="G453" s="8"/>
       <c r="H453" s="8"/>
+    </row>
+    <row r="454" ht="20.05" customHeight="1">
+      <c r="A454" t="s" s="6">
+        <v>904</v>
+      </c>
+      <c r="B454" t="s" s="6">
+        <v>906</v>
+      </c>
+      <c r="C454" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D454" s="7"/>
+      <c r="E454" s="7">
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F454" s="8"/>
+      <c r="G454" s="8"/>
+      <c r="H454" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -7282,7 +7282,7 @@
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
-        <v>0</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -4096,7 +4096,9 @@
       <c r="C8" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E8" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -5492,7 +5494,9 @@
       <c r="C84" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E84" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -5582,7 +5586,9 @@
       <c r="C89" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E89" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -7372,7 +7378,9 @@
       <c r="C185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D185" s="7"/>
+      <c r="D185" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E185" s="7">
         <v>0.614035087719298</v>
       </c>
@@ -8202,7 +8210,9 @@
       <c r="C230" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D230" s="7"/>
+      <c r="D230" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E230" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -8450,7 +8460,9 @@
       <c r="C243" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D243" s="7"/>
+      <c r="D243" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E243" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -10266,7 +10278,9 @@
       <c r="C340" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D340" s="7"/>
+      <c r="D340" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E340" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -10582,7 +10596,9 @@
       <c r="C357" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D357" s="7"/>
+      <c r="D357" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E357" s="7">
         <v>0.8245614035087721</v>
       </c>
@@ -11614,7 +11630,9 @@
       <c r="C413" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D413" s="7"/>
+      <c r="D413" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E413" s="7">
         <v>0.754385964912281</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -4764,7 +4764,9 @@
       <c r="C44" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E44" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -5514,7 +5516,9 @@
       <c r="C85" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E85" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -5794,7 +5798,9 @@
       <c r="C100" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E100" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -6174,7 +6180,9 @@
       <c r="C120" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E120" s="7">
         <v>0.543859649122807</v>
       </c>
@@ -6338,7 +6346,9 @@
       <c r="C129" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="7">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E129" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -6446,7 +6456,9 @@
       <c r="C135" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E135" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -6634,7 +6646,9 @@
       <c r="C145" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E145" s="7">
         <v>0.543859649122807</v>
       </c>
@@ -7636,7 +7650,9 @@
       <c r="C199" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D199" s="7"/>
+      <c r="D199" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E199" s="7">
         <v>0.631578947368421</v>
       </c>
@@ -8250,7 +8266,9 @@
       <c r="C232" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D232" s="7"/>
+      <c r="D232" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E232" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -8386,7 +8404,9 @@
       <c r="C239" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D239" s="7"/>
+      <c r="D239" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E239" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -10524,7 +10544,9 @@
       <c r="C353" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D353" s="7"/>
+      <c r="D353" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E353" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -11006,7 +11028,9 @@
       <c r="C379" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D379" s="7"/>
+      <c r="D379" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E379" s="7">
         <v>0.631578947368421</v>
       </c>
@@ -11242,7 +11266,9 @@
       <c r="C392" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D392" s="7"/>
+      <c r="D392" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E392" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -11370,7 +11396,9 @@
       <c r="C399" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D399" s="7"/>
+      <c r="D399" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E399" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -12318,7 +12346,9 @@
       <c r="C450" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D450" s="7"/>
+      <c r="D450" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E450" s="7">
         <v>0.43859649122807</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
   <si>
     <t>Surname</t>
   </si>
@@ -577,12 +577,12 @@
     <t>CHIWARE</t>
   </si>
   <si>
+    <t>H200518E</t>
+  </si>
+  <si>
     <t>H200526G</t>
   </si>
   <si>
-    <t>H200518E</t>
-  </si>
-  <si>
     <t>CHIWAYA</t>
   </si>
   <si>
@@ -1252,6 +1252,9 @@
     <t>MAKUYANA</t>
   </si>
   <si>
+    <t>H190636W</t>
+  </si>
+  <si>
     <t>H200212F</t>
   </si>
   <si>
@@ -1315,6 +1318,12 @@
     <t>H200093R</t>
   </si>
   <si>
+    <t>MANHAMBARA</t>
+  </si>
+  <si>
+    <t>H170313A</t>
+  </si>
+  <si>
     <t>MANHANDANYA</t>
   </si>
   <si>
@@ -1423,6 +1432,12 @@
     <t>H200966C</t>
   </si>
   <si>
+    <t>MAROWANIDZE</t>
+  </si>
+  <si>
+    <t>H190210A</t>
+  </si>
+  <si>
     <t>MAROZHE</t>
   </si>
   <si>
@@ -1621,12 +1636,12 @@
     <t>MOYO</t>
   </si>
   <si>
+    <t>H190116F</t>
+  </si>
+  <si>
     <t>H200632C</t>
   </si>
   <si>
-    <t>H190116F</t>
-  </si>
-  <si>
     <t>MPAKAME</t>
   </si>
   <si>
@@ -1684,21 +1699,21 @@
     <t>MUCHENA</t>
   </si>
   <si>
+    <t>H200986C</t>
+  </si>
+  <si>
     <t>H200059B</t>
   </si>
   <si>
-    <t>H200986C</t>
-  </si>
-  <si>
     <t>MUCHENJE</t>
   </si>
   <si>
+    <t>H200271Y</t>
+  </si>
+  <si>
     <t>H200423X</t>
   </si>
   <si>
-    <t>H200271Y</t>
-  </si>
-  <si>
     <t>MUCHINERIPI</t>
   </si>
   <si>
@@ -1894,6 +1909,9 @@
     <t>H200460A</t>
   </si>
   <si>
+    <t>H190091Z</t>
+  </si>
+  <si>
     <t>MUPONDA</t>
   </si>
   <si>
@@ -2137,12 +2155,6 @@
     <t>H200603E</t>
   </si>
   <si>
-    <t>MUYORO</t>
-  </si>
-  <si>
-    <t>H190091Z</t>
-  </si>
-  <si>
     <t>MUZAWAZI</t>
   </si>
   <si>
@@ -2314,12 +2326,12 @@
     <t>NYAMUKAPA</t>
   </si>
   <si>
+    <t>H200780N</t>
+  </si>
+  <si>
     <t>H200138P</t>
   </si>
   <si>
-    <t>H200780N</t>
-  </si>
-  <si>
     <t>NYAMUWOMBA</t>
   </si>
   <si>
@@ -2365,15 +2377,15 @@
     <t>NYONI</t>
   </si>
   <si>
+    <t>H200655J</t>
+  </si>
+  <si>
     <t>H200329M</t>
   </si>
   <si>
     <t>H200464R</t>
   </si>
   <si>
-    <t>H200655J</t>
-  </si>
-  <si>
     <t>NZIRA</t>
   </si>
   <si>
@@ -2732,6 +2744,9 @@
   </si>
   <si>
     <t>H200606H</t>
+  </si>
+  <si>
+    <t>H180721J</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +3953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:H458"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3990,7 +4005,9 @@
       <c r="E2" s="4">
         <v>0.789473684210526</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
@@ -4008,7 +4025,9 @@
       <c r="E3" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7">
+        <v>0.732142857142857</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
@@ -4026,7 +4045,9 @@
       <c r="E4" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7">
+        <v>0.366666666666667</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
@@ -4044,7 +4065,9 @@
       <c r="E5" s="7">
         <v>0.684210526315789</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7">
+        <v>0.316666666666667</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
@@ -4062,7 +4085,9 @@
       <c r="E6" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
@@ -4082,7 +4107,9 @@
       <c r="E7" s="7">
         <v>0.526315789473684</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
@@ -4102,7 +4129,9 @@
       <c r="E8" s="7">
         <v>0.719298245614035</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
@@ -4120,7 +4149,9 @@
       <c r="E9" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7">
+        <v>0.6</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
@@ -4138,7 +4169,9 @@
       <c r="E10" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
@@ -4156,7 +4189,9 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
@@ -4174,7 +4209,9 @@
       <c r="E12" s="7">
         <v>0.684210526315789</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
@@ -4192,7 +4229,9 @@
       <c r="E13" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7">
+        <v>0.466666666666667</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
@@ -4210,7 +4249,9 @@
       <c r="E14" s="7">
         <v>0.859649122807018</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
@@ -4230,7 +4271,9 @@
       <c r="E15" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
@@ -4248,7 +4291,9 @@
       <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
@@ -4268,7 +4313,9 @@
       <c r="E17" s="7">
         <v>0.473684210526316</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
@@ -4286,7 +4333,9 @@
       <c r="E18" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
@@ -4304,7 +4353,9 @@
       <c r="E19" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
@@ -4322,7 +4373,9 @@
       <c r="E20" s="7">
         <v>0.56140350877193</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
@@ -4340,7 +4393,9 @@
       <c r="E21" s="7">
         <v>0.696428571428571</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7">
+        <v>0.589285714285714</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
@@ -4358,7 +4413,9 @@
       <c r="E22" s="7">
         <v>0.696428571428571</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
@@ -4376,7 +4433,9 @@
       <c r="E23" s="7">
         <v>0.596491228070175</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7">
+        <v>0.316666666666667</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
@@ -4396,7 +4455,9 @@
       <c r="E24" s="7">
         <v>0.596491228070175</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
@@ -4414,7 +4475,9 @@
       <c r="E25" s="7">
         <v>0.607142857142857</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7">
+        <v>0.642857142857143</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
@@ -4432,7 +4495,9 @@
       <c r="E26" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
@@ -4450,7 +4515,9 @@
       <c r="E27" s="7">
         <v>0.464285714285714</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
@@ -4468,7 +4535,9 @@
       <c r="E28" s="7">
         <v>0</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
@@ -4486,7 +4555,9 @@
       <c r="E29" s="7">
         <v>0</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
@@ -4506,7 +4577,9 @@
       <c r="E30" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
@@ -4526,7 +4599,9 @@
       <c r="E31" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
@@ -4546,7 +4621,9 @@
       <c r="E32" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
@@ -4564,7 +4641,9 @@
       <c r="E33" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
@@ -4582,7 +4661,9 @@
       <c r="E34" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
@@ -4602,7 +4683,9 @@
       <c r="E35" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7">
+        <v>0.5166666666666671</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
@@ -4620,7 +4703,9 @@
       <c r="E36" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
@@ -4638,7 +4723,9 @@
       <c r="E37" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7">
+        <v>0.660714285714286</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
@@ -4658,7 +4745,9 @@
       <c r="E38" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
@@ -4676,7 +4765,9 @@
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
@@ -4694,7 +4785,9 @@
       <c r="E40" s="7">
         <v>0.596491228070175</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
@@ -4712,7 +4805,9 @@
       <c r="E41" s="7">
         <v>0.56140350877193</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7">
+        <v>0.416666666666667</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
@@ -4732,7 +4827,9 @@
       <c r="E42" s="7">
         <v>0.684210526315789</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
@@ -4750,7 +4847,9 @@
       <c r="E43" s="7">
         <v>0.660714285714286</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="7">
+        <v>0.910714285714286</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
@@ -4770,7 +4869,9 @@
       <c r="E44" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
@@ -4788,7 +4889,9 @@
       <c r="E45" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="7">
+        <v>0.633333333333333</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
@@ -4806,7 +4909,9 @@
       <c r="E46" s="7">
         <v>0.684210526315789</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
@@ -4824,7 +4929,9 @@
       <c r="E47" s="7">
         <v>0.660714285714286</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="7">
+        <v>0.517857142857143</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
@@ -4842,7 +4949,9 @@
       <c r="E48" s="7">
         <v>0.821428571428571</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
@@ -4860,7 +4969,9 @@
       <c r="E49" s="7">
         <v>0.859649122807018</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
@@ -4878,7 +4989,9 @@
       <c r="E50" s="7">
         <v>0.75</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="7">
+        <v>0.678571428571429</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
@@ -4896,7 +5009,9 @@
       <c r="E51" s="7">
         <v>0.464285714285714</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="7">
+        <v>0.339285714285714</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
@@ -4914,7 +5029,9 @@
       <c r="E52" s="7">
         <v>0</v>
       </c>
-      <c r="F52" s="8"/>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
@@ -4932,7 +5049,9 @@
       <c r="E53" s="7">
         <v>0.736842105263158</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
@@ -4950,7 +5069,9 @@
       <c r="E54" s="7">
         <v>0.75</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
@@ -4970,7 +5091,9 @@
       <c r="E55" s="7">
         <v>0.736842105263158</v>
       </c>
-      <c r="F55" s="8"/>
+      <c r="F55" s="7">
+        <v>0.483333333333333</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
@@ -4988,7 +5111,9 @@
       <c r="E56" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F56" s="8"/>
+      <c r="F56" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
@@ -5006,7 +5131,9 @@
       <c r="E57" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
@@ -5024,7 +5151,9 @@
       <c r="E58" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
@@ -5042,7 +5171,9 @@
       <c r="E59" s="7">
         <v>0.5</v>
       </c>
-      <c r="F59" s="8"/>
+      <c r="F59" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
@@ -5060,7 +5191,9 @@
       <c r="E60" s="7">
         <v>0</v>
       </c>
-      <c r="F60" s="8"/>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
@@ -5080,7 +5213,9 @@
       <c r="E61" s="7">
         <v>0.771929824561404</v>
       </c>
-      <c r="F61" s="8"/>
+      <c r="F61" s="7">
+        <v>0.316666666666667</v>
+      </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
@@ -5098,7 +5233,9 @@
       <c r="E62" s="7">
         <v>0</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
@@ -5116,7 +5253,9 @@
       <c r="E63" s="7">
         <v>0.631578947368421</v>
       </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
@@ -5134,7 +5273,9 @@
       <c r="E64" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
@@ -5154,7 +5295,9 @@
       <c r="E65" s="7">
         <v>0</v>
       </c>
-      <c r="F65" s="8"/>
+      <c r="F65" s="7">
+        <v>0.266666666666667</v>
+      </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
@@ -5172,7 +5315,9 @@
       <c r="E66" s="7">
         <v>0.803571428571429</v>
       </c>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7">
+        <v>0.339285714285714</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
@@ -5190,7 +5335,9 @@
       <c r="E67" s="7">
         <v>0.696428571428571</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
@@ -5208,7 +5355,9 @@
       <c r="E68" s="7">
         <v>0.660714285714286</v>
       </c>
-      <c r="F68" s="8"/>
+      <c r="F68" s="7">
+        <v>0.642857142857143</v>
+      </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
@@ -5226,7 +5375,9 @@
       <c r="E69" s="7">
         <v>0.857142857142857</v>
       </c>
-      <c r="F69" s="8"/>
+      <c r="F69" s="7">
+        <v>0.696428571428571</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
@@ -5244,7 +5395,9 @@
       <c r="E70" s="7">
         <v>0.596491228070175</v>
       </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
@@ -5262,7 +5415,9 @@
       <c r="E71" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
@@ -5282,7 +5437,9 @@
       <c r="E72" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F72" s="8"/>
+      <c r="F72" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
@@ -5300,7 +5457,9 @@
       <c r="E73" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
@@ -5318,7 +5477,9 @@
       <c r="E74" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F74" s="8"/>
+      <c r="F74" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
@@ -5336,7 +5497,9 @@
       <c r="E75" s="7">
         <v>0.589285714285714</v>
       </c>
-      <c r="F75" s="8"/>
+      <c r="F75" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
@@ -5354,7 +5517,9 @@
       <c r="E76" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F76" s="8"/>
+      <c r="F76" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
@@ -5372,7 +5537,9 @@
       <c r="E77" s="7">
         <v>0.736842105263158</v>
       </c>
-      <c r="F77" s="8"/>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
@@ -5390,7 +5557,9 @@
       <c r="E78" s="7">
         <v>0.456140350877193</v>
       </c>
-      <c r="F78" s="8"/>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
@@ -5408,7 +5577,9 @@
       <c r="E79" s="7">
         <v>0.767857142857143</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="7">
+        <v>0.375</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
     </row>
@@ -5426,7 +5597,9 @@
       <c r="E80" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F80" s="8"/>
+      <c r="F80" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
@@ -5444,7 +5617,9 @@
       <c r="E81" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="F81" s="8"/>
+      <c r="F81" s="7">
+        <v>0.910714285714286</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
@@ -5462,7 +5637,9 @@
       <c r="E82" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F82" s="8"/>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
@@ -5482,7 +5659,9 @@
       <c r="E83" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F83" s="8"/>
+      <c r="F83" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
@@ -5502,7 +5681,9 @@
       <c r="E84" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F84" s="8"/>
+      <c r="F84" s="7">
+        <v>0.466666666666667</v>
+      </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
@@ -5522,7 +5703,9 @@
       <c r="E85" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F85" s="8"/>
+      <c r="F85" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
@@ -5540,7 +5723,9 @@
       <c r="E86" s="7">
         <v>0.859649122807018</v>
       </c>
-      <c r="F86" s="8"/>
+      <c r="F86" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
@@ -5552,13 +5737,15 @@
         <v>188</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="F87" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
@@ -5570,13 +5757,15 @@
         <v>189</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F88" s="8"/>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
@@ -5596,7 +5785,9 @@
       <c r="E89" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F89" s="8"/>
+      <c r="F89" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
     </row>
@@ -5614,7 +5805,9 @@
       <c r="E90" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="F90" s="8"/>
+      <c r="F90" s="7">
+        <v>0.285714285714286</v>
+      </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
     </row>
@@ -5632,7 +5825,9 @@
       <c r="E91" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F91" s="8"/>
+      <c r="F91" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
@@ -5652,7 +5847,9 @@
       <c r="E92" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F92" s="8"/>
+      <c r="F92" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
@@ -5670,7 +5867,9 @@
       <c r="E93" s="7">
         <v>0.456140350877193</v>
       </c>
-      <c r="F93" s="8"/>
+      <c r="F93" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
@@ -5690,7 +5889,9 @@
       <c r="E94" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F94" s="8"/>
+      <c r="F94" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
     </row>
@@ -5710,7 +5911,9 @@
       <c r="E95" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F95" s="8"/>
+      <c r="F95" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
     </row>
@@ -5730,7 +5933,9 @@
       <c r="E96" s="7">
         <v>0.8947368421052631</v>
       </c>
-      <c r="F96" s="8"/>
+      <c r="F96" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
     </row>
@@ -5748,7 +5953,9 @@
       <c r="E97" s="7">
         <v>0.678571428571429</v>
       </c>
-      <c r="F97" s="8"/>
+      <c r="F97" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
@@ -5766,7 +5973,9 @@
       <c r="E98" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="F98" s="8"/>
+      <c r="F98" s="7">
+        <v>0.428571428571429</v>
+      </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
     </row>
@@ -5784,7 +5993,9 @@
       <c r="E99" s="7">
         <v>0</v>
       </c>
-      <c r="F99" s="8"/>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
@@ -5804,7 +6015,9 @@
       <c r="E100" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F100" s="8"/>
+      <c r="F100" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
     </row>
@@ -5824,7 +6037,9 @@
       <c r="E101" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F101" s="8"/>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
     </row>
@@ -5842,7 +6057,9 @@
       <c r="E102" s="7">
         <v>0.719298245614035</v>
       </c>
-      <c r="F102" s="8"/>
+      <c r="F102" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
     </row>
@@ -5860,7 +6077,9 @@
       <c r="E103" s="7">
         <v>0</v>
       </c>
-      <c r="F103" s="8"/>
+      <c r="F103" s="7">
+        <v>0</v>
+      </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
     </row>
@@ -5880,7 +6099,9 @@
       <c r="E104" s="7">
         <v>0.684210526315789</v>
       </c>
-      <c r="F104" s="8"/>
+      <c r="F104" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
     </row>
@@ -5900,7 +6121,9 @@
       <c r="E105" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F105" s="8"/>
+      <c r="F105" s="7">
+        <v>0.633333333333333</v>
+      </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
@@ -5918,7 +6141,9 @@
       <c r="E106" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="F106" s="8"/>
+      <c r="F106" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
     </row>
@@ -5936,7 +6161,9 @@
       <c r="E107" s="7">
         <v>0.607142857142857</v>
       </c>
-      <c r="F107" s="8"/>
+      <c r="F107" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
     </row>
@@ -5956,7 +6183,9 @@
       <c r="E108" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F108" s="8"/>
+      <c r="F108" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
     </row>
@@ -5976,7 +6205,9 @@
       <c r="E109" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F109" s="8"/>
+      <c r="F109" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
     </row>
@@ -5996,7 +6227,9 @@
       <c r="E110" s="7">
         <v>0.771929824561404</v>
       </c>
-      <c r="F110" s="8"/>
+      <c r="F110" s="7">
+        <v>0.283333333333333</v>
+      </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
     </row>
@@ -6016,7 +6249,9 @@
       <c r="E111" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F111" s="8"/>
+      <c r="F111" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
@@ -6036,7 +6271,9 @@
       <c r="E112" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F112" s="8"/>
+      <c r="F112" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
     </row>
@@ -6054,7 +6291,9 @@
       <c r="E113" s="7">
         <v>0.678571428571429</v>
       </c>
-      <c r="F113" s="8"/>
+      <c r="F113" s="7">
+        <v>0.410714285714286</v>
+      </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
     </row>
@@ -6072,7 +6311,9 @@
       <c r="E114" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F114" s="8"/>
+      <c r="F114" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
@@ -6092,7 +6333,9 @@
       <c r="E115" s="7">
         <v>0.719298245614035</v>
       </c>
-      <c r="F115" s="8"/>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
     </row>
@@ -6110,7 +6353,9 @@
       <c r="E116" s="7">
         <v>0.821428571428571</v>
       </c>
-      <c r="F116" s="8"/>
+      <c r="F116" s="7">
+        <v>0.589285714285714</v>
+      </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
     </row>
@@ -6128,7 +6373,9 @@
       <c r="E117" s="7">
         <v>0</v>
       </c>
-      <c r="F117" s="8"/>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
@@ -6146,7 +6393,9 @@
       <c r="E118" s="7">
         <v>0.543859649122807</v>
       </c>
-      <c r="F118" s="8"/>
+      <c r="F118" s="7">
+        <v>0.732142857142857</v>
+      </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
     </row>
@@ -6166,7 +6415,9 @@
       <c r="E119" s="7">
         <v>0.771929824561404</v>
       </c>
-      <c r="F119" s="8"/>
+      <c r="F119" s="7">
+        <v>0.6</v>
+      </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
     </row>
@@ -6186,7 +6437,9 @@
       <c r="E120" s="7">
         <v>0.543859649122807</v>
       </c>
-      <c r="F120" s="8"/>
+      <c r="F120" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
     </row>
@@ -6204,7 +6457,9 @@
       <c r="E121" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F121" s="8"/>
+      <c r="F121" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
@@ -6222,7 +6477,9 @@
       <c r="E122" s="7">
         <v>0.803571428571429</v>
       </c>
-      <c r="F122" s="8"/>
+      <c r="F122" s="7">
+        <v>0.714285714285714</v>
+      </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
     </row>
@@ -6242,7 +6499,9 @@
       <c r="E123" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F123" s="8"/>
+      <c r="F123" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
     </row>
@@ -6260,7 +6519,9 @@
       <c r="E124" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F124" s="8"/>
+      <c r="F124" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
     </row>
@@ -6278,7 +6539,9 @@
       <c r="E125" s="7">
         <v>0.75</v>
       </c>
-      <c r="F125" s="8"/>
+      <c r="F125" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
@@ -6296,7 +6559,9 @@
       <c r="E126" s="7">
         <v>0.719298245614035</v>
       </c>
-      <c r="F126" s="8"/>
+      <c r="F126" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
     </row>
@@ -6314,7 +6579,9 @@
       <c r="E127" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="F127" s="8"/>
+      <c r="F127" s="7">
+        <v>0.428571428571429</v>
+      </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
@@ -6332,7 +6599,9 @@
       <c r="E128" s="7">
         <v>0.553571428571429</v>
       </c>
-      <c r="F128" s="8"/>
+      <c r="F128" s="7">
+        <v>0.642857142857143</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
     </row>
@@ -6352,7 +6621,9 @@
       <c r="E129" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F129" s="8"/>
+      <c r="F129" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
     </row>
@@ -6370,7 +6641,9 @@
       <c r="E130" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F130" s="8"/>
+      <c r="F130" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
     </row>
@@ -6388,7 +6661,9 @@
       <c r="E131" s="7">
         <v>0</v>
       </c>
-      <c r="F131" s="8"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
     </row>
@@ -6406,7 +6681,9 @@
       <c r="E132" s="7">
         <v>0.553571428571429</v>
       </c>
-      <c r="F132" s="8"/>
+      <c r="F132" s="7">
+        <v>0.517857142857143</v>
+      </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
     </row>
@@ -6424,7 +6701,9 @@
       <c r="E133" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="F133" s="8"/>
+      <c r="F133" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
@@ -6442,7 +6721,9 @@
       <c r="E134" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F134" s="8"/>
+      <c r="F134" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
@@ -6462,7 +6743,9 @@
       <c r="E135" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F135" s="8"/>
+      <c r="F135" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
@@ -6480,7 +6763,9 @@
       <c r="E136" s="7">
         <v>0</v>
       </c>
-      <c r="F136" s="8"/>
+      <c r="F136" s="7">
+        <v>0.6</v>
+      </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
@@ -6500,7 +6785,9 @@
       <c r="E137" s="7">
         <v>0.736842105263158</v>
       </c>
-      <c r="F137" s="8"/>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
@@ -6518,7 +6805,9 @@
       <c r="E138" s="7">
         <v>0.589285714285714</v>
       </c>
-      <c r="F138" s="8"/>
+      <c r="F138" s="7">
+        <v>0.696428571428571</v>
+      </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
@@ -6538,7 +6827,9 @@
       <c r="E139" s="7">
         <v>0.859649122807018</v>
       </c>
-      <c r="F139" s="8"/>
+      <c r="F139" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
@@ -6556,7 +6847,9 @@
       <c r="E140" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="F140" s="8"/>
+      <c r="F140" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
@@ -6576,7 +6869,9 @@
       <c r="E141" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F141" s="8"/>
+      <c r="F141" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
@@ -6596,7 +6891,9 @@
       <c r="E142" s="7">
         <v>0</v>
       </c>
-      <c r="F142" s="8"/>
+      <c r="F142" s="7">
+        <v>0.35</v>
+      </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
@@ -6614,7 +6911,9 @@
       <c r="E143" s="7">
         <v>0.526315789473684</v>
       </c>
-      <c r="F143" s="8"/>
+      <c r="F143" s="7">
+        <v>0</v>
+      </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
@@ -6632,7 +6931,9 @@
       <c r="E144" s="7">
         <v>0.543859649122807</v>
       </c>
-      <c r="F144" s="8"/>
+      <c r="F144" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
@@ -6652,7 +6953,9 @@
       <c r="E145" s="7">
         <v>0.543859649122807</v>
       </c>
-      <c r="F145" s="8"/>
+      <c r="F145" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
@@ -6670,7 +6973,9 @@
       <c r="E146" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F146" s="8"/>
+      <c r="F146" s="7">
+        <v>0.316666666666667</v>
+      </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
@@ -6688,7 +6993,9 @@
       <c r="E147" s="7">
         <v>0.614035087719298</v>
       </c>
-      <c r="F147" s="8"/>
+      <c r="F147" s="7">
+        <v>0.633333333333333</v>
+      </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
     </row>
@@ -6708,7 +7015,9 @@
       <c r="E148" s="7">
         <v>0.614035087719298</v>
       </c>
-      <c r="F148" s="8"/>
+      <c r="F148" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
@@ -6728,7 +7037,9 @@
       <c r="E149" s="7">
         <v>0.56140350877193</v>
       </c>
-      <c r="F149" s="8"/>
+      <c r="F149" s="7">
+        <v>0.116666666666667</v>
+      </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
     </row>
@@ -6746,7 +7057,9 @@
       <c r="E150" s="7">
         <v>0.719298245614035</v>
       </c>
-      <c r="F150" s="8"/>
+      <c r="F150" s="7">
+        <v>0.416666666666667</v>
+      </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
     </row>
@@ -6764,7 +7077,9 @@
       <c r="E151" s="7">
         <v>0</v>
       </c>
-      <c r="F151" s="8"/>
+      <c r="F151" s="7">
+        <v>0</v>
+      </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
     </row>
@@ -6782,7 +7097,9 @@
       <c r="E152" s="7">
         <v>0</v>
       </c>
-      <c r="F152" s="8"/>
+      <c r="F152" s="7">
+        <v>0</v>
+      </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
     </row>
@@ -6800,7 +7117,9 @@
       <c r="E153" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F153" s="8"/>
+      <c r="F153" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
     </row>
@@ -6820,7 +7139,9 @@
       <c r="E154" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F154" s="8"/>
+      <c r="F154" s="7">
+        <v>0.783333333333333</v>
+      </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
     </row>
@@ -6840,7 +7161,9 @@
       <c r="E155" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F155" s="8"/>
+      <c r="F155" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
     </row>
@@ -6858,7 +7181,9 @@
       <c r="E156" s="7">
         <v>0.589285714285714</v>
       </c>
-      <c r="F156" s="8"/>
+      <c r="F156" s="7">
+        <v>0.446428571428571</v>
+      </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
     </row>
@@ -6876,7 +7201,9 @@
       <c r="E157" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F157" s="8"/>
+      <c r="F157" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
     </row>
@@ -6894,7 +7221,9 @@
       <c r="E158" s="7">
         <v>0</v>
       </c>
-      <c r="F158" s="8"/>
+      <c r="F158" s="7">
+        <v>0</v>
+      </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
     </row>
@@ -6912,7 +7241,9 @@
       <c r="E159" s="7">
         <v>0.696428571428571</v>
       </c>
-      <c r="F159" s="8"/>
+      <c r="F159" s="7">
+        <v>0.660714285714286</v>
+      </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
     </row>
@@ -6932,7 +7263,9 @@
       <c r="E160" s="7">
         <v>0.631578947368421</v>
       </c>
-      <c r="F160" s="8"/>
+      <c r="F160" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
     </row>
@@ -6950,7 +7283,9 @@
       <c r="E161" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F161" s="8"/>
+      <c r="F161" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
     </row>
@@ -6968,7 +7303,9 @@
       <c r="E162" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F162" s="8"/>
+      <c r="F162" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
     </row>
@@ -6988,7 +7325,9 @@
       <c r="E163" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F163" s="8"/>
+      <c r="F163" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
     </row>
@@ -7006,7 +7345,9 @@
       <c r="E164" s="7">
         <v>0.491228070175439</v>
       </c>
-      <c r="F164" s="8"/>
+      <c r="F164" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
     </row>
@@ -7026,7 +7367,9 @@
       <c r="E165" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F165" s="8"/>
+      <c r="F165" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
     </row>
@@ -7046,7 +7389,9 @@
       <c r="E166" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="F166" s="8"/>
+      <c r="F166" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
     </row>
@@ -7064,7 +7409,9 @@
       <c r="E167" s="7">
         <v>0</v>
       </c>
-      <c r="F167" s="8"/>
+      <c r="F167" s="7">
+        <v>0</v>
+      </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
     </row>
@@ -7082,7 +7429,9 @@
       <c r="E168" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F168" s="8"/>
+      <c r="F168" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
     </row>
@@ -7100,7 +7449,9 @@
       <c r="E169" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="F169" s="8"/>
+      <c r="F169" s="7">
+        <v>0.660714285714286</v>
+      </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
     </row>
@@ -7118,7 +7469,9 @@
       <c r="E170" s="7">
         <v>0.678571428571429</v>
       </c>
-      <c r="F170" s="8"/>
+      <c r="F170" s="7">
+        <v>0.678571428571429</v>
+      </c>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
     </row>
@@ -7136,7 +7489,9 @@
       <c r="E171" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F171" s="8"/>
+      <c r="F171" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
     </row>
@@ -7154,7 +7509,9 @@
       <c r="E172" s="7">
         <v>0.660714285714286</v>
       </c>
-      <c r="F172" s="8"/>
+      <c r="F172" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
@@ -7172,7 +7529,9 @@
       <c r="E173" s="7">
         <v>0.660714285714286</v>
       </c>
-      <c r="F173" s="8"/>
+      <c r="F173" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
@@ -7192,7 +7551,9 @@
       <c r="E174" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F174" s="8"/>
+      <c r="F174" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
@@ -7210,7 +7571,9 @@
       <c r="E175" s="7">
         <v>0.596491228070175</v>
       </c>
-      <c r="F175" s="8"/>
+      <c r="F175" s="7">
+        <v>0.383333333333333</v>
+      </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
@@ -7228,7 +7591,9 @@
       <c r="E176" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F176" s="8"/>
+      <c r="F176" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
     </row>
@@ -7248,7 +7613,9 @@
       <c r="E177" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F177" s="8"/>
+      <c r="F177" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
     </row>
@@ -7268,7 +7635,9 @@
       <c r="E178" s="7">
         <v>0.456140350877193</v>
       </c>
-      <c r="F178" s="8"/>
+      <c r="F178" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
     </row>
@@ -7286,7 +7655,9 @@
       <c r="E179" s="7">
         <v>0</v>
       </c>
-      <c r="F179" s="8"/>
+      <c r="F179" s="7">
+        <v>0</v>
+      </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
     </row>
@@ -7304,7 +7675,9 @@
       <c r="E180" s="7">
         <v>0.456140350877193</v>
       </c>
-      <c r="F180" s="8"/>
+      <c r="F180" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
     </row>
@@ -7322,7 +7695,9 @@
       <c r="E181" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F181" s="8"/>
+      <c r="F181" s="7">
+        <v>0.535714285714286</v>
+      </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
     </row>
@@ -7340,7 +7715,9 @@
       <c r="E182" s="7">
         <v>0.771929824561404</v>
       </c>
-      <c r="F182" s="8"/>
+      <c r="F182" s="7">
+        <v>0.4</v>
+      </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
     </row>
@@ -7360,7 +7737,9 @@
       <c r="E183" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F183" s="8"/>
+      <c r="F183" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
     </row>
@@ -7378,7 +7757,9 @@
       <c r="E184" s="7">
         <v>0.842105263157895</v>
       </c>
-      <c r="F184" s="8"/>
+      <c r="F184" s="7">
+        <v>0.4</v>
+      </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
     </row>
@@ -7398,7 +7779,9 @@
       <c r="E185" s="7">
         <v>0.614035087719298</v>
       </c>
-      <c r="F185" s="8"/>
+      <c r="F185" s="7">
+        <v>0.716666666666667</v>
+      </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
     </row>
@@ -7416,7 +7799,9 @@
       <c r="E186" s="7">
         <v>0.543859649122807</v>
       </c>
-      <c r="F186" s="8"/>
+      <c r="F186" s="7">
+        <v>0</v>
+      </c>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
     </row>
@@ -7434,7 +7819,9 @@
       <c r="E187" s="7">
         <v>0.701754385964912</v>
       </c>
-      <c r="F187" s="8"/>
+      <c r="F187" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
     </row>
@@ -7452,7 +7839,9 @@
       <c r="E188" s="7">
         <v>0.315789473684211</v>
       </c>
-      <c r="F188" s="8"/>
+      <c r="F188" s="7">
+        <v>0</v>
+      </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
     </row>
@@ -7470,7 +7859,9 @@
       <c r="E189" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F189" s="8"/>
+      <c r="F189" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
     </row>
@@ -7488,7 +7879,9 @@
       <c r="E190" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F190" s="8"/>
+      <c r="F190" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
     </row>
@@ -7506,7 +7899,9 @@
       <c r="E191" s="7">
         <v>0.660714285714286</v>
       </c>
-      <c r="F191" s="8"/>
+      <c r="F191" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
     </row>
@@ -7526,7 +7921,9 @@
       <c r="E192" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F192" s="8"/>
+      <c r="F192" s="7">
+        <v>0.366666666666667</v>
+      </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
     </row>
@@ -7544,7 +7941,9 @@
       <c r="E193" s="7">
         <v>0</v>
       </c>
-      <c r="F193" s="8"/>
+      <c r="F193" s="7">
+        <v>0</v>
+      </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
     </row>
@@ -7564,7 +7963,9 @@
       <c r="E194" s="7">
         <v>0.56140350877193</v>
       </c>
-      <c r="F194" s="8"/>
+      <c r="F194" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
     </row>
@@ -7582,7 +7983,9 @@
       <c r="E195" s="7">
         <v>0.771929824561404</v>
       </c>
-      <c r="F195" s="8"/>
+      <c r="F195" s="7">
+        <v>0.283333333333333</v>
+      </c>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
     </row>
@@ -7600,7 +8003,9 @@
       <c r="E196" s="7">
         <v>0.607142857142857</v>
       </c>
-      <c r="F196" s="8"/>
+      <c r="F196" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
     </row>
@@ -7618,7 +8023,9 @@
       <c r="E197" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F197" s="8"/>
+      <c r="F197" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
     </row>
@@ -7636,7 +8043,9 @@
       <c r="E198" s="7">
         <v>0.571428571428571</v>
       </c>
-      <c r="F198" s="8"/>
+      <c r="F198" s="7">
+        <v>0.660714285714286</v>
+      </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
     </row>
@@ -7656,7 +8065,9 @@
       <c r="E199" s="7">
         <v>0.631578947368421</v>
       </c>
-      <c r="F199" s="8"/>
+      <c r="F199" s="7">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
     </row>
@@ -7674,7 +8085,9 @@
       <c r="E200" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="F200" s="8"/>
+      <c r="F200" s="7">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
     </row>
@@ -7686,118 +8099,130 @@
         <v>413</v>
       </c>
       <c r="C201" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F201" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
       <c r="A202" t="s" s="6">
+        <v>412</v>
+      </c>
+      <c r="B202" t="s" s="6">
         <v>414</v>
       </c>
-      <c r="B202" t="s" s="6">
-        <v>415</v>
-      </c>
       <c r="C202" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D202" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D202" s="7"/>
       <c r="E202" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F202" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F202" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
       <c r="A203" t="s" s="6">
+        <v>415</v>
+      </c>
+      <c r="B203" t="s" s="6">
         <v>416</v>
       </c>
-      <c r="B203" t="s" s="6">
-        <v>417</v>
-      </c>
       <c r="C203" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D203" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D203" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E203" s="7">
-        <v>0</v>
-      </c>
-      <c r="F203" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F203" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="6">
+        <v>417</v>
+      </c>
+      <c r="B204" t="s" s="6">
         <v>418</v>
       </c>
-      <c r="B204" t="s" s="6">
-        <v>419</v>
-      </c>
       <c r="C204" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D204" s="7">
-        <v>0.307692307692308</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D204" s="7"/>
       <c r="E204" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F204" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0</v>
+      </c>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
       <c r="A205" t="s" s="6">
+        <v>419</v>
+      </c>
+      <c r="B205" t="s" s="6">
         <v>420</v>
       </c>
-      <c r="B205" t="s" s="6">
-        <v>421</v>
-      </c>
       <c r="C205" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D205" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E205" s="7">
-        <v>0.684210526315789</v>
-      </c>
-      <c r="F205" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0</v>
+      </c>
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
       <c r="A206" t="s" s="6">
+        <v>421</v>
+      </c>
+      <c r="B206" t="s" s="6">
         <v>422</v>
       </c>
-      <c r="B206" t="s" s="6">
-        <v>423</v>
-      </c>
       <c r="C206" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D206" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D206" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E206" s="7">
-        <v>0</v>
-      </c>
-      <c r="F206" s="8"/>
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F206" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
       <c r="A207" t="s" s="6">
+        <v>423</v>
+      </c>
+      <c r="B207" t="s" s="6">
         <v>424</v>
-      </c>
-      <c r="B207" t="s" s="6">
-        <v>425</v>
       </c>
       <c r="C207" t="s" s="6">
         <v>32</v>
@@ -7806,591 +8231,651 @@
       <c r="E207" s="7">
         <v>0</v>
       </c>
-      <c r="F207" s="8"/>
+      <c r="F207" s="7">
+        <v>0</v>
+      </c>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
       <c r="A208" t="s" s="6">
+        <v>425</v>
+      </c>
+      <c r="B208" t="s" s="6">
         <v>426</v>
       </c>
-      <c r="B208" t="s" s="6">
-        <v>427</v>
-      </c>
       <c r="C208" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F208" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0.583333333333333</v>
+      </c>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
       <c r="A209" t="s" s="6">
+        <v>427</v>
+      </c>
+      <c r="B209" t="s" s="6">
         <v>428</v>
       </c>
-      <c r="B209" t="s" s="6">
-        <v>429</v>
-      </c>
       <c r="C209" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D209" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="D209" s="7"/>
       <c r="E209" s="7">
-        <v>0.56140350877193</v>
-      </c>
-      <c r="F209" s="8"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F209" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="6">
+        <v>429</v>
+      </c>
+      <c r="B210" t="s" s="6">
         <v>430</v>
       </c>
-      <c r="B210" t="s" s="6">
-        <v>431</v>
-      </c>
       <c r="C210" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D210" s="8"/>
       <c r="E210" s="7">
         <v>0.56140350877193</v>
       </c>
-      <c r="F210" s="8"/>
+      <c r="F210" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
       <c r="A211" t="s" s="6">
+        <v>431</v>
+      </c>
+      <c r="B211" t="s" s="6">
         <v>432</v>
       </c>
-      <c r="B211" t="s" s="6">
-        <v>433</v>
-      </c>
       <c r="C211" t="s" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F211" s="8"/>
+        <v>0.56140350877193</v>
+      </c>
+      <c r="F211" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" t="s" s="6">
+        <v>433</v>
+      </c>
+      <c r="B212" t="s" s="6">
         <v>434</v>
       </c>
-      <c r="B212" t="s" s="6">
-        <v>435</v>
-      </c>
       <c r="C212" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D212" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D212" s="7"/>
       <c r="E212" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F212" s="8"/>
+      <c r="F212" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" t="s" s="6">
+        <v>435</v>
+      </c>
+      <c r="B213" t="s" s="6">
         <v>436</v>
       </c>
-      <c r="B213" t="s" s="6">
-        <v>437</v>
-      </c>
       <c r="C213" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D213" s="7">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D213" s="7"/>
       <c r="E213" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F213" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
       <c r="A214" t="s" s="6">
+        <v>437</v>
+      </c>
+      <c r="B214" t="s" s="6">
         <v>438</v>
       </c>
-      <c r="B214" t="s" s="6">
-        <v>439</v>
-      </c>
       <c r="C214" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D214" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D214" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E214" s="7">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F214" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0</v>
+      </c>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="6">
+        <v>439</v>
+      </c>
+      <c r="B215" t="s" s="6">
         <v>440</v>
       </c>
-      <c r="B215" t="s" s="6">
-        <v>441</v>
-      </c>
       <c r="C215" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D215" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D215" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E215" s="7">
-        <v>0</v>
-      </c>
-      <c r="F215" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F215" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
       <c r="A216" t="s" s="6">
+        <v>441</v>
+      </c>
+      <c r="B216" t="s" s="6">
         <v>442</v>
       </c>
-      <c r="B216" t="s" s="6">
-        <v>443</v>
-      </c>
       <c r="C216" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="7">
-        <v>0.578947368421053</v>
-      </c>
-      <c r="F216" s="8"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
       <c r="A217" t="s" s="6">
+        <v>443</v>
+      </c>
+      <c r="B217" t="s" s="6">
         <v>444</v>
       </c>
-      <c r="B217" t="s" s="6">
-        <v>445</v>
-      </c>
       <c r="C217" t="s" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F217" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F217" s="7">
+        <v>0</v>
+      </c>
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
       <c r="A218" t="s" s="6">
+        <v>445</v>
+      </c>
+      <c r="B218" t="s" s="6">
         <v>446</v>
       </c>
-      <c r="B218" t="s" s="6">
-        <v>447</v>
-      </c>
       <c r="C218" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D218" s="7"/>
       <c r="E218" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F218" s="8"/>
+        <v>0.578947368421053</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="6">
+        <v>447</v>
+      </c>
+      <c r="B219" t="s" s="6">
         <v>448</v>
       </c>
-      <c r="B219" t="s" s="6">
-        <v>449</v>
-      </c>
       <c r="C219" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D219" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D219" s="7"/>
       <c r="E219" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F219" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
       <c r="A220" t="s" s="6">
+        <v>449</v>
+      </c>
+      <c r="B220" t="s" s="6">
         <v>450</v>
       </c>
-      <c r="B220" t="s" s="6">
-        <v>451</v>
-      </c>
       <c r="C220" t="s" s="6">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7">
-        <v>0</v>
-      </c>
-      <c r="F220" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
       <c r="A221" t="s" s="6">
+        <v>451</v>
+      </c>
+      <c r="B221" t="s" s="6">
         <v>452</v>
       </c>
-      <c r="B221" t="s" s="6">
-        <v>453</v>
-      </c>
       <c r="C221" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D221" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D221" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E221" s="7">
-        <v>0</v>
-      </c>
-      <c r="F221" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F221" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
       <c r="A222" t="s" s="6">
+        <v>453</v>
+      </c>
+      <c r="B222" t="s" s="6">
         <v>454</v>
-      </c>
-      <c r="B222" t="s" s="6">
-        <v>455</v>
       </c>
       <c r="C222" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D222" s="7">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="D222" s="7"/>
       <c r="E222" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F222" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0</v>
+      </c>
       <c r="G222" s="8"/>
       <c r="H222" s="8"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
       <c r="A223" t="s" s="6">
+        <v>455</v>
+      </c>
+      <c r="B223" t="s" s="6">
         <v>456</v>
       </c>
-      <c r="B223" t="s" s="6">
-        <v>457</v>
-      </c>
-      <c r="C223" s="8"/>
-      <c r="D223" s="7">
-        <v>0.435897435897436</v>
-      </c>
+      <c r="C223" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="D223" s="7"/>
       <c r="E223" s="7">
-        <v>0.684210526315789</v>
-      </c>
-      <c r="F223" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0</v>
+      </c>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
       <c r="A224" t="s" s="6">
+        <v>457</v>
+      </c>
+      <c r="B224" t="s" s="6">
         <v>458</v>
       </c>
-      <c r="B224" t="s" s="6">
-        <v>459</v>
-      </c>
       <c r="C224" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D224" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D224" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E224" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F224" s="8"/>
+      <c r="F224" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="6">
+        <v>459</v>
+      </c>
+      <c r="B225" t="s" s="6">
         <v>460</v>
       </c>
-      <c r="B225" t="s" s="6">
-        <v>461</v>
-      </c>
       <c r="C225" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D225" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D225" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E225" s="7">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F225" s="8"/>
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F225" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" t="s" s="6">
+        <v>461</v>
+      </c>
+      <c r="B226" t="s" s="6">
         <v>462</v>
       </c>
-      <c r="B226" t="s" s="6">
-        <v>463</v>
-      </c>
       <c r="C226" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F226" s="8"/>
+      <c r="F226" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="6">
+        <v>463</v>
+      </c>
+      <c r="B227" t="s" s="6">
         <v>464</v>
       </c>
-      <c r="B227" t="s" s="6">
-        <v>465</v>
-      </c>
       <c r="C227" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D227" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D227" s="7"/>
       <c r="E227" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F227" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F227" s="7">
+        <v>0.696428571428571</v>
+      </c>
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" t="s" s="6">
+        <v>465</v>
+      </c>
+      <c r="B228" t="s" s="6">
         <v>466</v>
       </c>
-      <c r="B228" t="s" s="6">
-        <v>467</v>
-      </c>
       <c r="C228" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="7">
-        <v>0</v>
-      </c>
-      <c r="F228" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F228" s="7">
+        <v>0.5166666666666671</v>
+      </c>
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" t="s" s="6">
+        <v>467</v>
+      </c>
+      <c r="B229" t="s" s="6">
         <v>468</v>
       </c>
-      <c r="B229" t="s" s="6">
-        <v>469</v>
-      </c>
       <c r="C229" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D229" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D229" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E229" s="7">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F229" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F229" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="6">
+        <v>469</v>
+      </c>
+      <c r="B230" t="s" s="6">
         <v>470</v>
       </c>
-      <c r="B230" t="s" s="6">
-        <v>471</v>
-      </c>
       <c r="C230" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D230" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D230" s="7"/>
       <c r="E230" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F230" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>0</v>
+      </c>
       <c r="G230" s="8"/>
       <c r="H230" s="8"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="6">
+        <v>471</v>
+      </c>
+      <c r="B231" t="s" s="6">
         <v>472</v>
       </c>
-      <c r="B231" t="s" s="6">
-        <v>473</v>
-      </c>
       <c r="C231" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D231" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D231" s="7"/>
       <c r="E231" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F231" s="8"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F231" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G231" s="8"/>
       <c r="H231" s="8"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="6">
+        <v>473</v>
+      </c>
+      <c r="B232" t="s" s="6">
         <v>474</v>
       </c>
-      <c r="B232" t="s" s="6">
-        <v>475</v>
-      </c>
       <c r="C232" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D232" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D232" s="7"/>
       <c r="E232" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F232" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F232" s="7">
+        <v>0.266666666666667</v>
+      </c>
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
       <c r="A233" t="s" s="6">
+        <v>475</v>
+      </c>
+      <c r="B233" t="s" s="6">
         <v>476</v>
       </c>
-      <c r="B233" t="s" s="6">
-        <v>477</v>
-      </c>
       <c r="C233" t="s" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D233" s="7">
-        <v>0.615384615384615</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E233" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F233" s="8"/>
+      <c r="F233" s="7">
+        <v>0.866666666666667</v>
+      </c>
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" t="s" s="6">
+        <v>477</v>
+      </c>
+      <c r="B234" t="s" s="6">
         <v>478</v>
       </c>
-      <c r="B234" t="s" s="6">
-        <v>479</v>
-      </c>
       <c r="C234" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D234" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D234" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E234" s="7">
-        <v>0.553571428571429</v>
-      </c>
-      <c r="F234" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F234" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" t="s" s="6">
+        <v>479</v>
+      </c>
+      <c r="B235" t="s" s="6">
         <v>480</v>
-      </c>
-      <c r="B235" t="s" s="6">
-        <v>481</v>
       </c>
       <c r="C235" t="s" s="6">
         <v>45</v>
       </c>
       <c r="D235" s="7">
-        <v>0.794871794871795</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E235" s="7">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F235" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F235" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="6">
+        <v>481</v>
+      </c>
+      <c r="B236" t="s" s="6">
         <v>482</v>
       </c>
-      <c r="B236" t="s" s="6">
-        <v>483</v>
-      </c>
       <c r="C236" t="s" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D236" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E236" s="7">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F236" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F236" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="6">
+        <v>483</v>
+      </c>
+      <c r="B237" t="s" s="6">
         <v>484</v>
       </c>
-      <c r="B237" t="s" s="6">
-        <v>485</v>
-      </c>
       <c r="C237" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D237" s="7">
-        <v>0.564102564102564</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D237" s="7"/>
       <c r="E237" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F237" s="8"/>
+        <v>0.553571428571429</v>
+      </c>
+      <c r="F237" s="7">
+        <v>0</v>
+      </c>
       <c r="G237" s="8"/>
       <c r="H237" s="8"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="6">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B238" t="s" s="6">
         <v>486</v>
       </c>
       <c r="C238" t="s" s="6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D238" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="E238" s="7">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="F238" s="8"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F238" s="7">
+        <v>0.35</v>
+      </c>
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
     </row>
@@ -8402,15 +8887,17 @@
         <v>488</v>
       </c>
       <c r="C239" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D239" s="7">
-        <v>0.820512820512821</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E239" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F239" s="8"/>
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F239" s="7">
+        <v>0.483333333333333</v>
+      </c>
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
     </row>
@@ -8422,463 +8909,517 @@
         <v>490</v>
       </c>
       <c r="C240" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D240" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D240" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E240" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F240" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F240" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="6">
+        <v>489</v>
+      </c>
+      <c r="B241" t="s" s="6">
         <v>491</v>
       </c>
-      <c r="B241" t="s" s="6">
-        <v>492</v>
-      </c>
       <c r="C241" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D241" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D241" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E241" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F241" s="8"/>
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F241" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
+        <v>492</v>
+      </c>
+      <c r="B242" t="s" s="6">
         <v>493</v>
       </c>
-      <c r="B242" t="s" s="6">
-        <v>494</v>
-      </c>
       <c r="C242" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D242" s="7">
-        <v>0.717948717948718</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E242" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F242" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F242" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G242" s="8"/>
       <c r="H242" s="8"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
+        <v>494</v>
+      </c>
+      <c r="B243" t="s" s="6">
         <v>495</v>
       </c>
-      <c r="B243" t="s" s="6">
-        <v>496</v>
-      </c>
       <c r="C243" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D243" s="7">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D243" s="7"/>
       <c r="E243" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F243" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F243" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G243" s="8"/>
       <c r="H243" s="8"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
+        <v>496</v>
+      </c>
+      <c r="B244" t="s" s="6">
         <v>497</v>
       </c>
-      <c r="B244" t="s" s="6">
-        <v>498</v>
-      </c>
       <c r="C244" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D244" s="7">
-        <v>0.307692307692308</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D244" s="7"/>
       <c r="E244" s="7">
-        <v>0</v>
-      </c>
-      <c r="F244" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F244" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G244" s="8"/>
       <c r="H244" s="8"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="6">
+        <v>498</v>
+      </c>
+      <c r="B245" t="s" s="6">
         <v>499</v>
       </c>
-      <c r="B245" t="s" s="6">
-        <v>500</v>
-      </c>
       <c r="C245" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="D245" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D245" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E245" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F245" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F245" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="6">
+        <v>500</v>
+      </c>
+      <c r="B246" t="s" s="6">
         <v>501</v>
-      </c>
-      <c r="B246" t="s" s="6">
-        <v>502</v>
       </c>
       <c r="C246" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D246" s="7"/>
+      <c r="D246" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E246" s="7">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F246" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F246" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
+        <v>502</v>
+      </c>
+      <c r="B247" t="s" s="6">
         <v>503</v>
       </c>
-      <c r="B247" t="s" s="6">
-        <v>504</v>
-      </c>
       <c r="C247" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D247" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D247" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E247" s="7">
         <v>0</v>
       </c>
-      <c r="F247" s="8"/>
+      <c r="F247" s="7">
+        <v>0.35</v>
+      </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="6">
+        <v>504</v>
+      </c>
+      <c r="B248" t="s" s="6">
         <v>505</v>
       </c>
-      <c r="B248" t="s" s="6">
-        <v>506</v>
-      </c>
       <c r="C248" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D248" s="7">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D248" s="8"/>
       <c r="E248" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F248" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F248" s="7">
+        <v>0</v>
+      </c>
       <c r="G248" s="8"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="6">
+        <v>506</v>
+      </c>
+      <c r="B249" t="s" s="6">
         <v>507</v>
       </c>
-      <c r="B249" t="s" s="6">
-        <v>508</v>
-      </c>
       <c r="C249" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D249" s="7">
-        <v>0.307692307692308</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D249" s="7"/>
       <c r="E249" s="7">
-        <v>0</v>
-      </c>
-      <c r="F249" s="8"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F249" s="7">
+        <v>0.383333333333333</v>
+      </c>
       <c r="G249" s="8"/>
       <c r="H249" s="8"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="6">
+        <v>508</v>
+      </c>
+      <c r="B250" t="s" s="6">
         <v>509</v>
       </c>
-      <c r="B250" t="s" s="6">
-        <v>510</v>
-      </c>
       <c r="C250" t="s" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="7">
         <v>0</v>
       </c>
-      <c r="F250" s="8"/>
+      <c r="F250" s="7">
+        <v>0</v>
+      </c>
       <c r="G250" s="8"/>
       <c r="H250" s="8"/>
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="6">
+        <v>510</v>
+      </c>
+      <c r="B251" t="s" s="6">
         <v>511</v>
       </c>
-      <c r="B251" t="s" s="6">
-        <v>512</v>
-      </c>
       <c r="C251" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D251" s="7">
-        <v>0.538461538461538</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E251" s="7">
         <v>0.807017543859649</v>
       </c>
-      <c r="F251" s="8"/>
+      <c r="F251" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
+        <v>512</v>
+      </c>
+      <c r="B252" t="s" s="6">
         <v>513</v>
       </c>
-      <c r="B252" t="s" s="6">
-        <v>514</v>
-      </c>
       <c r="C252" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D252" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D252" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E252" s="7">
-        <v>0.245614035087719</v>
-      </c>
-      <c r="F252" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G252" s="8"/>
       <c r="H252" s="8"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
+        <v>514</v>
+      </c>
+      <c r="B253" t="s" s="6">
         <v>515</v>
-      </c>
-      <c r="B253" t="s" s="6">
-        <v>516</v>
       </c>
       <c r="C253" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F253" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="7">
+        <v>0</v>
+      </c>
       <c r="G253" s="8"/>
       <c r="H253" s="8"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="6">
+        <v>516</v>
+      </c>
+      <c r="B254" t="s" s="6">
         <v>517</v>
       </c>
-      <c r="B254" t="s" s="6">
-        <v>518</v>
-      </c>
       <c r="C254" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D254" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D254" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E254" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F254" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F254" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
+        <v>518</v>
+      </c>
+      <c r="B255" t="s" s="6">
         <v>519</v>
       </c>
-      <c r="B255" t="s" s="6">
-        <v>520</v>
-      </c>
       <c r="C255" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D255" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D255" s="8"/>
       <c r="E255" s="7">
-        <v>0</v>
-      </c>
-      <c r="F255" s="8"/>
+        <v>0.245614035087719</v>
+      </c>
+      <c r="F255" s="7">
+        <v>0</v>
+      </c>
       <c r="G255" s="8"/>
       <c r="H255" s="8"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
+        <v>520</v>
+      </c>
+      <c r="B256" t="s" s="6">
         <v>521</v>
-      </c>
-      <c r="B256" t="s" s="6">
-        <v>522</v>
       </c>
       <c r="C256" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D256" s="7"/>
       <c r="E256" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F256" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F256" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" t="s" s="6">
+        <v>522</v>
+      </c>
+      <c r="B257" t="s" s="6">
         <v>523</v>
       </c>
-      <c r="B257" t="s" s="6">
-        <v>524</v>
-      </c>
       <c r="C257" t="s" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D257" s="7"/>
       <c r="E257" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F257" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F257" s="7">
+        <v>0</v>
+      </c>
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="6">
+        <v>524</v>
+      </c>
+      <c r="B258" t="s" s="6">
         <v>525</v>
       </c>
-      <c r="B258" t="s" s="6">
-        <v>526</v>
-      </c>
       <c r="C258" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D258" s="7"/>
       <c r="E258" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F258" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="7">
+        <v>0</v>
+      </c>
       <c r="G258" s="8"/>
       <c r="H258" s="8"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="6">
+        <v>526</v>
+      </c>
+      <c r="B259" t="s" s="6">
         <v>527</v>
       </c>
-      <c r="B259" t="s" s="6">
-        <v>528</v>
-      </c>
       <c r="C259" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D259" s="7">
-        <v>0.897435897435897</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D259" s="7"/>
       <c r="E259" s="7">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F259" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F259" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G259" s="8"/>
       <c r="H259" s="8"/>
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="6">
+        <v>528</v>
+      </c>
+      <c r="B260" t="s" s="6">
         <v>529</v>
       </c>
-      <c r="B260" t="s" s="6">
-        <v>530</v>
-      </c>
       <c r="C260" t="s" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D260" s="7"/>
       <c r="E260" s="7">
-        <v>0</v>
-      </c>
-      <c r="F260" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F260" s="7">
+        <v>0.433333333333333</v>
+      </c>
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="6">
+        <v>530</v>
+      </c>
+      <c r="B261" t="s" s="6">
         <v>531</v>
       </c>
-      <c r="B261" t="s" s="6">
-        <v>532</v>
-      </c>
       <c r="C261" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D261" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D261" s="7"/>
       <c r="E261" s="7">
-        <v>0.578947368421053</v>
-      </c>
-      <c r="F261" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F261" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G261" s="8"/>
       <c r="H261" s="8"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="6">
+        <v>532</v>
+      </c>
+      <c r="B262" t="s" s="6">
         <v>533</v>
       </c>
-      <c r="B262" t="s" s="6">
-        <v>534</v>
-      </c>
       <c r="C262" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D262" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D262" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E262" s="7">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="F262" s="8"/>
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F262" s="7">
+        <v>0.45</v>
+      </c>
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="6">
+        <v>534</v>
+      </c>
+      <c r="B263" t="s" s="6">
         <v>535</v>
       </c>
-      <c r="B263" t="s" s="6">
-        <v>536</v>
-      </c>
       <c r="C263" t="s" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D263" s="7"/>
       <c r="E263" s="7">
-        <v>0.553571428571429</v>
-      </c>
-      <c r="F263" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="7">
+        <v>0</v>
+      </c>
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="6">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B264" t="s" s="6">
         <v>537</v>
       </c>
       <c r="C264" t="s" s="6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D264" s="7">
-        <v>0.666666666666667</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E264" s="7">
-        <v>0.684210526315789</v>
-      </c>
-      <c r="F264" s="8"/>
+        <v>0.578947368421053</v>
+      </c>
+      <c r="F264" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G264" s="8"/>
       <c r="H264" s="8"/>
     </row>
@@ -8890,15 +9431,15 @@
         <v>539</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D265" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D265" s="7"/>
       <c r="E265" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F265" s="8"/>
+        <v>0.543859649122807</v>
+      </c>
+      <c r="F265" s="7">
+        <v>0.483333333333333</v>
+      </c>
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
     </row>
@@ -8910,181 +9451,205 @@
         <v>541</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D266" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D266" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E266" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="F266" s="8"/>
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F266" s="7">
+        <v>0.233333333333333</v>
+      </c>
       <c r="G266" s="8"/>
       <c r="H266" s="8"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="6">
+        <v>540</v>
+      </c>
+      <c r="B267" t="s" s="6">
         <v>542</v>
-      </c>
-      <c r="B267" t="s" s="6">
-        <v>543</v>
       </c>
       <c r="C267" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D267" s="7"/>
       <c r="E267" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F267" s="8"/>
+        <v>0.553571428571429</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0.660714285714286</v>
+      </c>
       <c r="G267" s="8"/>
       <c r="H267" s="8"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="6">
+        <v>543</v>
+      </c>
+      <c r="B268" t="s" s="6">
         <v>544</v>
       </c>
-      <c r="B268" t="s" s="6">
-        <v>545</v>
-      </c>
       <c r="C268" t="s" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D268" s="7">
-        <v>0.205128205128205</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E268" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F268" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F268" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G268" s="8"/>
       <c r="H268" s="8"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="6">
+        <v>545</v>
+      </c>
+      <c r="B269" t="s" s="6">
         <v>546</v>
       </c>
-      <c r="B269" t="s" s="6">
-        <v>547</v>
-      </c>
       <c r="C269" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D269" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D269" s="7"/>
       <c r="E269" s="7">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="F269" s="8"/>
+        <v>0.625</v>
+      </c>
+      <c r="F269" s="7">
+        <v>0.410714285714286</v>
+      </c>
       <c r="G269" s="8"/>
       <c r="H269" s="8"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="6">
+        <v>547</v>
+      </c>
+      <c r="B270" t="s" s="6">
         <v>548</v>
       </c>
-      <c r="B270" t="s" s="6">
-        <v>549</v>
-      </c>
       <c r="C270" t="s" s="6">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D270" s="7"/>
       <c r="E270" s="7">
-        <v>0</v>
-      </c>
-      <c r="F270" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F270" s="7">
+        <v>0</v>
+      </c>
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="6">
+        <v>549</v>
+      </c>
+      <c r="B271" t="s" s="6">
         <v>550</v>
-      </c>
-      <c r="B271" t="s" s="6">
-        <v>551</v>
       </c>
       <c r="C271" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D271" s="7">
-        <v>0.487179487179487</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="E271" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F271" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F271" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="6">
+        <v>551</v>
+      </c>
+      <c r="B272" t="s" s="6">
         <v>552</v>
       </c>
-      <c r="B272" t="s" s="6">
-        <v>553</v>
-      </c>
       <c r="C272" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D272" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D272" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E272" s="7">
-        <v>0</v>
-      </c>
-      <c r="F272" s="8"/>
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F272" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="6">
+        <v>553</v>
+      </c>
+      <c r="B273" t="s" s="6">
         <v>554</v>
       </c>
-      <c r="B273" t="s" s="6">
-        <v>555</v>
-      </c>
       <c r="C273" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D273" s="7"/>
       <c r="E273" s="7">
         <v>0</v>
       </c>
-      <c r="F273" s="8"/>
+      <c r="F273" s="7">
+        <v>0</v>
+      </c>
       <c r="G273" s="8"/>
       <c r="H273" s="8"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="6">
+        <v>555</v>
+      </c>
+      <c r="B274" t="s" s="6">
         <v>556</v>
       </c>
-      <c r="B274" t="s" s="6">
-        <v>557</v>
-      </c>
       <c r="C274" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D274" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D274" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E274" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F274" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F274" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G274" s="8"/>
       <c r="H274" s="8"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="6">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B275" t="s" s="6">
         <v>558</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F275" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F275" s="7">
+        <v>0</v>
+      </c>
       <c r="G275" s="8"/>
       <c r="H275" s="8"/>
     </row>
@@ -9096,55 +9661,55 @@
         <v>560</v>
       </c>
       <c r="C276" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D276" s="7">
-        <v>0.358974358974359</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D276" s="7"/>
       <c r="E276" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F276" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F276" s="7">
+        <v>0</v>
+      </c>
       <c r="G276" s="8"/>
       <c r="H276" s="8"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" t="s" s="6">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B277" t="s" s="6">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C277" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D277" s="7">
-        <v>0.512820512820513</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D277" s="7"/>
       <c r="E277" s="7">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="F277" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F277" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="6">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B278" t="s" s="6">
         <v>563</v>
       </c>
       <c r="C278" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D278" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D278" s="7"/>
       <c r="E278" s="7">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="F278" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F278" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
     </row>
@@ -9156,99 +9721,109 @@
         <v>565</v>
       </c>
       <c r="C279" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D279" s="7">
-        <v>0.564102564102564</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E279" s="7">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="F279" s="8"/>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="6">
+        <v>564</v>
+      </c>
+      <c r="B280" t="s" s="6">
         <v>566</v>
       </c>
-      <c r="B280" t="s" s="6">
-        <v>567</v>
-      </c>
       <c r="C280" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D280" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D280" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E280" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F280" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F280" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="6">
+        <v>567</v>
+      </c>
+      <c r="B281" t="s" s="6">
         <v>568</v>
-      </c>
-      <c r="B281" t="s" s="6">
-        <v>569</v>
       </c>
       <c r="C281" t="s" s="6">
         <v>16</v>
       </c>
       <c r="D281" s="7">
-        <v>0.487179487179487</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E281" s="7">
-        <v>0.403508771929825</v>
-      </c>
-      <c r="F281" s="8"/>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F281" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="6">
+        <v>569</v>
+      </c>
+      <c r="B282" t="s" s="6">
         <v>570</v>
       </c>
-      <c r="B282" t="s" s="6">
-        <v>571</v>
-      </c>
       <c r="C282" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D282" s="7">
-        <v>0.717948717948718</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E282" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F282" s="8"/>
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F282" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="6">
+        <v>571</v>
+      </c>
+      <c r="B283" t="s" s="6">
         <v>572</v>
       </c>
-      <c r="B283" t="s" s="6">
-        <v>573</v>
-      </c>
       <c r="C283" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D283" s="7">
-        <v>0.307692307692308</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D283" s="7"/>
       <c r="E283" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F283" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F283" s="7">
+        <v>0.517857142857143</v>
+      </c>
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="6">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B284" t="s" s="6">
         <v>574</v>
@@ -9257,12 +9832,14 @@
         <v>16</v>
       </c>
       <c r="D284" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E284" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F284" s="8"/>
+        <v>0.403508771929825</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
     </row>
@@ -9274,13 +9851,17 @@
         <v>576</v>
       </c>
       <c r="C285" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D285" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D285" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E285" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F285" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F285" s="7">
+        <v>0.466666666666667</v>
+      </c>
       <c r="G285" s="8"/>
       <c r="H285" s="8"/>
     </row>
@@ -9292,999 +9873,1109 @@
         <v>578</v>
       </c>
       <c r="C286" t="s" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D286" s="7">
-        <v>0.538461538461538</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E286" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F286" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G286" s="8"/>
       <c r="H286" s="8"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
+        <v>577</v>
+      </c>
+      <c r="B287" t="s" s="6">
         <v>579</v>
-      </c>
-      <c r="B287" t="s" s="6">
-        <v>580</v>
       </c>
       <c r="C287" t="s" s="6">
         <v>16</v>
       </c>
       <c r="D287" s="7">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E287" s="7">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F287" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F287" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G287" s="8"/>
       <c r="H287" s="8"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="6">
+        <v>580</v>
+      </c>
+      <c r="B288" t="s" s="6">
         <v>581</v>
       </c>
-      <c r="B288" t="s" s="6">
-        <v>582</v>
-      </c>
       <c r="C288" t="s" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D288" s="7"/>
       <c r="E288" s="7">
-        <v>0</v>
-      </c>
-      <c r="F288" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F288" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G288" s="8"/>
       <c r="H288" s="8"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="6">
+        <v>582</v>
+      </c>
+      <c r="B289" t="s" s="6">
         <v>583</v>
-      </c>
-      <c r="B289" t="s" s="6">
-        <v>584</v>
       </c>
       <c r="C289" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D289" s="7">
-        <v>0.205128205128205</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E289" s="7">
-        <v>0</v>
-      </c>
-      <c r="F289" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F289" s="7">
+        <v>0.4</v>
+      </c>
       <c r="G289" s="8"/>
       <c r="H289" s="8"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="6">
+        <v>584</v>
+      </c>
+      <c r="B290" t="s" s="6">
         <v>585</v>
       </c>
-      <c r="B290" t="s" s="6">
-        <v>586</v>
-      </c>
       <c r="C290" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D290" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D290" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E290" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F290" s="8"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F290" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G290" s="8"/>
       <c r="H290" s="8"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" t="s" s="6">
+        <v>586</v>
+      </c>
+      <c r="B291" t="s" s="6">
         <v>587</v>
       </c>
-      <c r="B291" t="s" s="6">
-        <v>588</v>
-      </c>
       <c r="C291" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D291" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D291" s="7"/>
       <c r="E291" s="7">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F291" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F291" s="7">
+        <v>0</v>
+      </c>
       <c r="G291" s="8"/>
       <c r="H291" s="8"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" t="s" s="6">
+        <v>588</v>
+      </c>
+      <c r="B292" t="s" s="6">
         <v>589</v>
       </c>
-      <c r="B292" t="s" s="6">
-        <v>590</v>
-      </c>
       <c r="C292" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D292" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D292" s="7">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E292" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F292" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F292" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G292" s="8"/>
       <c r="H292" s="8"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="6">
+        <v>590</v>
+      </c>
+      <c r="B293" t="s" s="6">
         <v>591</v>
       </c>
-      <c r="B293" t="s" s="6">
-        <v>592</v>
-      </c>
       <c r="C293" t="s" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D293" s="7"/>
       <c r="E293" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F293" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F293" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G293" s="8"/>
       <c r="H293" s="8"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="6">
+        <v>592</v>
+      </c>
+      <c r="B294" t="s" s="6">
         <v>593</v>
       </c>
-      <c r="B294" t="s" s="6">
-        <v>594</v>
-      </c>
       <c r="C294" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D294" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D294" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E294" s="7">
-        <v>0.839285714285714</v>
-      </c>
-      <c r="F294" s="8"/>
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F294" s="7">
+        <v>0.633333333333333</v>
+      </c>
       <c r="G294" s="8"/>
       <c r="H294" s="8"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" t="s" s="6">
+        <v>594</v>
+      </c>
+      <c r="B295" t="s" s="6">
         <v>595</v>
       </c>
-      <c r="B295" t="s" s="6">
-        <v>596</v>
-      </c>
       <c r="C295" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D295" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D295" s="7"/>
       <c r="E295" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F295" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F295" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="6">
+        <v>596</v>
+      </c>
+      <c r="B296" t="s" s="6">
         <v>597</v>
       </c>
-      <c r="B296" t="s" s="6">
-        <v>598</v>
-      </c>
       <c r="C296" t="s" s="6">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D296" s="7"/>
       <c r="E296" s="7">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F296" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F296" s="7">
+        <v>0.678571428571429</v>
+      </c>
       <c r="G296" s="8"/>
       <c r="H296" s="8"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="6">
+        <v>598</v>
+      </c>
+      <c r="B297" t="s" s="6">
         <v>599</v>
       </c>
-      <c r="B297" t="s" s="6">
-        <v>600</v>
-      </c>
       <c r="C297" t="s" s="6">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D297" s="7"/>
       <c r="E297" s="7">
-        <v>0.385964912280702</v>
-      </c>
-      <c r="F297" s="8"/>
+        <v>0.839285714285714</v>
+      </c>
+      <c r="F297" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G297" s="8"/>
       <c r="H297" s="8"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="6">
+        <v>600</v>
+      </c>
+      <c r="B298" t="s" s="6">
         <v>601</v>
       </c>
-      <c r="B298" t="s" s="6">
-        <v>602</v>
-      </c>
       <c r="C298" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D298" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D298" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E298" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F298" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F298" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G298" s="8"/>
       <c r="H298" s="8"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" t="s" s="6">
+        <v>602</v>
+      </c>
+      <c r="B299" t="s" s="6">
         <v>603</v>
       </c>
-      <c r="B299" t="s" s="6">
-        <v>604</v>
-      </c>
       <c r="C299" t="s" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D299" s="7"/>
       <c r="E299" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F299" s="8"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F299" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G299" s="8"/>
       <c r="H299" s="8"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="6">
+        <v>604</v>
+      </c>
+      <c r="B300" t="s" s="6">
         <v>605</v>
       </c>
-      <c r="B300" t="s" s="6">
-        <v>606</v>
-      </c>
       <c r="C300" t="s" s="6">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="7">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F300" s="8"/>
+        <v>0.385964912280702</v>
+      </c>
+      <c r="F300" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="6">
+        <v>606</v>
+      </c>
+      <c r="B301" t="s" s="6">
         <v>607</v>
       </c>
-      <c r="B301" t="s" s="6">
-        <v>608</v>
-      </c>
       <c r="C301" t="s" s="6">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F301" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F301" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="6">
+        <v>608</v>
+      </c>
+      <c r="B302" t="s" s="6">
         <v>609</v>
       </c>
-      <c r="B302" t="s" s="6">
-        <v>610</v>
-      </c>
       <c r="C302" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="7">
-        <v>0</v>
-      </c>
-      <c r="F302" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F302" s="7">
+        <v>0.5166666666666671</v>
+      </c>
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
+        <v>610</v>
+      </c>
+      <c r="B303" t="s" s="6">
         <v>611</v>
       </c>
-      <c r="B303" t="s" s="6">
-        <v>612</v>
-      </c>
       <c r="C303" t="s" s="6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D303" s="7"/>
       <c r="E303" s="7">
-        <v>0</v>
-      </c>
-      <c r="F303" s="8"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F303" s="7">
+        <v>0.910714285714286</v>
+      </c>
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" t="s" s="6">
+        <v>612</v>
+      </c>
+      <c r="B304" t="s" s="6">
         <v>613</v>
       </c>
-      <c r="B304" t="s" s="6">
-        <v>614</v>
-      </c>
       <c r="C304" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D304" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D304" s="7"/>
       <c r="E304" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F304" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F304" s="7">
+        <v>0</v>
+      </c>
       <c r="G304" s="8"/>
       <c r="H304" s="8"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" t="s" s="6">
+        <v>614</v>
+      </c>
+      <c r="B305" t="s" s="6">
         <v>615</v>
       </c>
-      <c r="B305" t="s" s="6">
-        <v>616</v>
-      </c>
       <c r="C305" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D305" s="7">
-        <v>0.846153846153846</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D305" s="7"/>
       <c r="E305" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F305" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F305" s="7">
+        <v>0</v>
+      </c>
       <c r="G305" s="8"/>
       <c r="H305" s="8"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
+        <v>616</v>
+      </c>
+      <c r="B306" t="s" s="6">
         <v>617</v>
       </c>
-      <c r="B306" t="s" s="6">
-        <v>618</v>
-      </c>
       <c r="C306" t="s" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D306" s="7"/>
       <c r="E306" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F306" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="7">
+        <v>0</v>
+      </c>
       <c r="G306" s="8"/>
       <c r="H306" s="8"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="6">
+        <v>618</v>
+      </c>
+      <c r="B307" t="s" s="6">
         <v>619</v>
       </c>
-      <c r="B307" t="s" s="6">
-        <v>620</v>
-      </c>
       <c r="C307" t="s" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D307" s="7">
-        <v>0.820512820512821</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E307" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F307" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F307" s="7">
+        <v>0</v>
+      </c>
       <c r="G307" s="8"/>
       <c r="H307" s="8"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="6">
+        <v>620</v>
+      </c>
+      <c r="B308" t="s" s="6">
         <v>621</v>
-      </c>
-      <c r="B308" t="s" s="6">
-        <v>622</v>
       </c>
       <c r="C308" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D308" s="7"/>
+      <c r="D308" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E308" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F308" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F308" s="7">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G308" s="8"/>
       <c r="H308" s="8"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="6">
+        <v>622</v>
+      </c>
+      <c r="B309" t="s" s="6">
         <v>623</v>
       </c>
-      <c r="B309" t="s" s="6">
-        <v>624</v>
-      </c>
       <c r="C309" t="s" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D309" s="7"/>
       <c r="E309" s="7">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="F309" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="F309" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G309" s="8"/>
       <c r="H309" s="8"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="6">
+        <v>624</v>
+      </c>
+      <c r="B310" t="s" s="6">
         <v>625</v>
       </c>
-      <c r="B310" t="s" s="6">
-        <v>626</v>
-      </c>
       <c r="C310" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D310" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D310" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E310" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F310" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F310" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G310" s="8"/>
       <c r="H310" s="8"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="6">
+        <v>626</v>
+      </c>
+      <c r="B311" t="s" s="6">
         <v>627</v>
-      </c>
-      <c r="B311" t="s" s="6">
-        <v>628</v>
       </c>
       <c r="C311" t="s" s="6">
         <v>16</v>
       </c>
       <c r="D311" s="7"/>
       <c r="E311" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F311" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F311" s="7">
+        <v>0.266666666666667</v>
+      </c>
       <c r="G311" s="8"/>
       <c r="H311" s="8"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
+        <v>628</v>
+      </c>
+      <c r="B312" t="s" s="6">
         <v>629</v>
       </c>
-      <c r="B312" t="s" s="6">
-        <v>630</v>
-      </c>
       <c r="C312" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D312" s="7"/>
       <c r="E312" s="7">
-        <v>0.210526315789474</v>
-      </c>
-      <c r="F312" s="8"/>
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F312" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G312" s="8"/>
       <c r="H312" s="8"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
+        <v>630</v>
+      </c>
+      <c r="B313" t="s" s="6">
         <v>631</v>
       </c>
-      <c r="B313" t="s" s="6">
-        <v>632</v>
-      </c>
       <c r="C313" t="s" s="6">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D313" s="7"/>
       <c r="E313" s="7">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F313" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F313" s="7">
+        <v>0.483333333333333</v>
+      </c>
       <c r="G313" s="8"/>
       <c r="H313" s="8"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" t="s" s="6">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B314" t="s" s="6">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C314" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D314" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D314" s="7"/>
       <c r="E314" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F314" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F314" s="7">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B315" t="s" s="6">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C315" t="s" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D315" s="7"/>
       <c r="E315" s="7">
-        <v>0.8947368421052631</v>
-      </c>
-      <c r="F315" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F315" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G315" s="8"/>
       <c r="H315" s="8"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" t="s" s="6">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B316" t="s" s="6">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C316" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D316" s="7"/>
       <c r="E316" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F316" s="8"/>
+        <v>0.210526315789474</v>
+      </c>
+      <c r="F316" s="7">
+        <v>0</v>
+      </c>
       <c r="G316" s="8"/>
       <c r="H316" s="8"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" t="s" s="6">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B317" t="s" s="6">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C317" t="s" s="6">
         <v>13</v>
       </c>
       <c r="D317" s="7"/>
       <c r="E317" s="7">
-        <v>0</v>
-      </c>
-      <c r="F317" s="8"/>
+        <v>0.214285714285714</v>
+      </c>
+      <c r="F317" s="7">
+        <v>0</v>
+      </c>
       <c r="G317" s="8"/>
       <c r="H317" s="8"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" t="s" s="6">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B318" t="s" s="6">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C318" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D318" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D318" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E318" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F318" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F318" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
       <c r="A319" t="s" s="6">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B319" t="s" s="6">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C319" t="s" s="6">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D319" s="7"/>
       <c r="E319" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F319" s="8"/>
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="F319" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G319" s="8"/>
       <c r="H319" s="8"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
       <c r="A320" t="s" s="6">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B320" t="s" s="6">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C320" t="s" s="6">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D320" s="7"/>
       <c r="E320" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F320" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F320" s="7">
+        <v>0.732142857142857</v>
+      </c>
       <c r="G320" s="8"/>
       <c r="H320" s="8"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="6">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B321" t="s" s="6">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C321" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D321" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D321" s="7"/>
       <c r="E321" s="7">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="F321" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F321" s="7">
+        <v>0</v>
+      </c>
       <c r="G321" s="8"/>
       <c r="H321" s="8"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="6">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B322" t="s" s="6">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C322" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F322" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F322" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G322" s="8"/>
       <c r="H322" s="8"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
       <c r="A323" t="s" s="6">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B323" t="s" s="6">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F323" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F323" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
       <c r="A324" t="s" s="6">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B324" t="s" s="6">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D324" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D324" s="7"/>
       <c r="E324" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F324" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F324" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G324" s="8"/>
       <c r="H324" s="8"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
       <c r="A325" t="s" s="6">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B325" t="s" s="6">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D325" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D325" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E325" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F325" s="8"/>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F325" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G325" s="8"/>
       <c r="H325" s="8"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
       <c r="A326" t="s" s="6">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B326" t="s" s="6">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D326" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D326" s="7"/>
       <c r="E326" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F326" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F326" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G326" s="8"/>
       <c r="H326" s="8"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
       <c r="A327" t="s" s="6">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B327" t="s" s="6">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C327" t="s" s="6">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F327" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F327" s="7">
+        <v>0</v>
+      </c>
       <c r="G327" s="8"/>
       <c r="H327" s="8"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
       <c r="A328" t="s" s="6">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B328" t="s" s="6">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C328" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D328" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D328" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E328" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F328" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F328" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G328" s="8"/>
       <c r="H328" s="8"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="6">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B329" t="s" s="6">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C329" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D329" s="7"/>
       <c r="E329" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F329" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F329" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G329" s="8"/>
       <c r="H329" s="8"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="6">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B330" t="s" s="6">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C330" t="s" s="6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D330" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E330" s="7">
         <v>0.789473684210526</v>
       </c>
-      <c r="F330" s="8"/>
+      <c r="F330" s="7">
+        <v>0.6</v>
+      </c>
       <c r="G330" s="8"/>
       <c r="H330" s="8"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="6">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B331" t="s" s="6">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C331" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D331" s="7"/>
       <c r="E331" s="7">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F331" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F331" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
     </row>
     <row r="332" ht="20.05" customHeight="1">
       <c r="A332" t="s" s="6">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B332" t="s" s="6">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F332" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F332" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G332" s="8"/>
       <c r="H332" s="8"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B333" t="s" s="6">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D333" s="7">
-        <v>0.820512820512821</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D333" s="7"/>
       <c r="E333" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F333" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F333" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G333" s="8"/>
       <c r="H333" s="8"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
       <c r="A334" t="s" s="6">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B334" t="s" s="6">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C334" t="s" s="6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D334" s="7">
-        <v>0.615384615384615</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E334" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F334" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F334" s="7">
+        <v>0</v>
+      </c>
       <c r="G334" s="8"/>
       <c r="H334" s="8"/>
     </row>
     <row r="335" ht="20.05" customHeight="1">
       <c r="A335" t="s" s="6">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B335" t="s" s="6">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D335" s="7"/>
       <c r="E335" s="7">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F335" s="8"/>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F335" s="7">
+        <v>0.732142857142857</v>
+      </c>
       <c r="G335" s="8"/>
       <c r="H335" s="8"/>
     </row>
     <row r="336" ht="20.05" customHeight="1">
       <c r="A336" t="s" s="6">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B336" t="s" s="6">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D336" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D336" s="7"/>
       <c r="E336" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F336" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F336" s="7">
+        <v>0.6</v>
+      </c>
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" t="s" s="6">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B337" t="s" s="6">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C337" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D337" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D337" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E337" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F337" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F337" s="7">
+        <v>0</v>
+      </c>
       <c r="G337" s="8"/>
       <c r="H337" s="8"/>
     </row>
     <row r="338" ht="20.05" customHeight="1">
       <c r="A338" t="s" s="6">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B338" t="s" s="6">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D338" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D338" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E338" s="7">
-        <v>0.8245614035087721</v>
-      </c>
-      <c r="F338" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F338" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G338" s="8"/>
       <c r="H338" s="8"/>
     </row>
     <row r="339" ht="20.05" customHeight="1">
       <c r="A339" t="s" s="6">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B339" t="s" s="6">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D339" s="7"/>
       <c r="E339" s="7">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="F339" s="8"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F339" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G339" s="8"/>
       <c r="H339" s="8"/>
     </row>
@@ -10293,784 +10984,868 @@
         <v>683</v>
       </c>
       <c r="B340" t="s" s="6">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C340" t="s" s="6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D340" s="7">
-        <v>0.692307692307692</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E340" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F340" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F340" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G340" s="8"/>
       <c r="H340" s="8"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" t="s" s="6">
+        <v>685</v>
+      </c>
+      <c r="B341" t="s" s="6">
         <v>686</v>
       </c>
-      <c r="B341" t="s" s="6">
-        <v>687</v>
-      </c>
       <c r="C341" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D341" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D341" s="7"/>
       <c r="E341" s="7">
-        <v>0.56140350877193</v>
-      </c>
-      <c r="F341" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F341" s="7">
+        <v>0.716666666666667</v>
+      </c>
       <c r="G341" s="8"/>
       <c r="H341" s="8"/>
     </row>
     <row r="342" ht="20.05" customHeight="1">
       <c r="A342" t="s" s="6">
+        <v>687</v>
+      </c>
+      <c r="B342" t="s" s="6">
         <v>688</v>
       </c>
-      <c r="B342" t="s" s="6">
-        <v>689</v>
-      </c>
       <c r="C342" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D342" s="7">
-        <v>0.564102564102564</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D342" s="7"/>
       <c r="E342" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F342" s="8"/>
+        <v>0.8245614035087721</v>
+      </c>
+      <c r="F342" s="7">
+        <v>0</v>
+      </c>
       <c r="G342" s="8"/>
       <c r="H342" s="8"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
+        <v>689</v>
+      </c>
+      <c r="B343" t="s" s="6">
         <v>690</v>
       </c>
-      <c r="B343" t="s" s="6">
-        <v>691</v>
-      </c>
       <c r="C343" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D343" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D343" s="7"/>
       <c r="E343" s="7">
-        <v>0</v>
-      </c>
-      <c r="F343" s="8"/>
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F343" s="7">
+        <v>0.45</v>
+      </c>
       <c r="G343" s="8"/>
       <c r="H343" s="8"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B344" t="s" s="6">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D344" s="7">
-        <v>0.846153846153846</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E344" s="7">
-        <v>0.771929824561404</v>
-      </c>
-      <c r="F344" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F344" s="7">
+        <v>0.683333333333333</v>
+      </c>
       <c r="G344" s="8"/>
       <c r="H344" s="8"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B345" t="s" s="6">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D345" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D345" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E345" s="7">
-        <v>0.410714285714286</v>
-      </c>
-      <c r="F345" s="8"/>
+        <v>0.56140350877193</v>
+      </c>
+      <c r="F345" s="7">
+        <v>0.5166666666666671</v>
+      </c>
       <c r="G345" s="8"/>
       <c r="H345" s="8"/>
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" t="s" s="6">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B346" t="s" s="6">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D346" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D346" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E346" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="F346" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F346" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G346" s="8"/>
       <c r="H346" s="8"/>
     </row>
     <row r="347" ht="20.05" customHeight="1">
       <c r="A347" t="s" s="6">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B347" t="s" s="6">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D347" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D347" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E347" s="7">
         <v>0</v>
       </c>
-      <c r="F347" s="8"/>
+      <c r="F347" s="7">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G347" s="8"/>
       <c r="H347" s="8"/>
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" t="s" s="6">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B348" t="s" s="6">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C348" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D348" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D348" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E348" s="7">
-        <v>0.8947368421052631</v>
-      </c>
-      <c r="F348" s="8"/>
+        <v>0.771929824561404</v>
+      </c>
+      <c r="F348" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G348" s="8"/>
       <c r="H348" s="8"/>
     </row>
     <row r="349" ht="20.05" customHeight="1">
       <c r="A349" t="s" s="6">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B349" t="s" s="6">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C349" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D349" s="7"/>
       <c r="E349" s="7">
-        <v>0.589285714285714</v>
-      </c>
-      <c r="F349" s="8"/>
+        <v>0.410714285714286</v>
+      </c>
+      <c r="F349" s="7">
+        <v>0</v>
+      </c>
       <c r="G349" s="8"/>
       <c r="H349" s="8"/>
     </row>
     <row r="350" ht="20.05" customHeight="1">
       <c r="A350" t="s" s="6">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B350" t="s" s="6">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C350" t="s" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D350" s="7"/>
       <c r="E350" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F350" s="8"/>
+        <v>0.625</v>
+      </c>
+      <c r="F350" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G350" s="8"/>
       <c r="H350" s="8"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="6">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B351" t="s" s="6">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C351" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D351" s="7">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D351" s="7"/>
       <c r="E351" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F351" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F351" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G351" s="8"/>
       <c r="H351" s="8"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="6">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B352" t="s" s="6">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C352" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D352" s="7"/>
       <c r="E352" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F352" s="8"/>
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="F352" s="7">
+        <v>0.45</v>
+      </c>
       <c r="G352" s="8"/>
       <c r="H352" s="8"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="6">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B353" t="s" s="6">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D353" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D353" s="7"/>
       <c r="E353" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F353" s="8"/>
+        <v>0.589285714285714</v>
+      </c>
+      <c r="F353" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G353" s="8"/>
       <c r="H353" s="8"/>
     </row>
     <row r="354" ht="20.05" customHeight="1">
       <c r="A354" t="s" s="6">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B354" t="s" s="6">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="7">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F354" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F354" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G354" s="8"/>
       <c r="H354" s="8"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B355" t="s" s="6">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D355" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D355" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E355" s="7">
-        <v>0</v>
-      </c>
-      <c r="F355" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F355" s="7">
+        <v>0</v>
+      </c>
       <c r="G355" s="8"/>
       <c r="H355" s="8"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B356" t="s" s="6">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D356" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D356" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E356" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F356" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F356" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G356" s="8"/>
       <c r="H356" s="8"/>
     </row>
     <row r="357" ht="20.05" customHeight="1">
       <c r="A357" t="s" s="6">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B357" t="s" s="6">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D357" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D357" s="7"/>
       <c r="E357" s="7">
-        <v>0.8245614035087721</v>
-      </c>
-      <c r="F357" s="8"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F357" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G357" s="8"/>
       <c r="H357" s="8"/>
     </row>
     <row r="358" ht="20.05" customHeight="1">
       <c r="A358" t="s" s="6">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B358" t="s" s="6">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D358" s="7"/>
       <c r="E358" s="7">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="F358" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F358" s="7">
+        <v>0</v>
+      </c>
       <c r="G358" s="8"/>
       <c r="H358" s="8"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
       <c r="A359" t="s" s="6">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B359" t="s" s="6">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D359" s="7"/>
       <c r="E359" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F359" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F359" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G359" s="8"/>
       <c r="H359" s="8"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
       <c r="A360" t="s" s="6">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B360" t="s" s="6">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C360" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D360" s="7"/>
+      <c r="D360" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E360" s="7">
-        <v>0.526315789473684</v>
-      </c>
-      <c r="F360" s="8"/>
+        <v>0.8245614035087721</v>
+      </c>
+      <c r="F360" s="7">
+        <v>0.233333333333333</v>
+      </c>
       <c r="G360" s="8"/>
       <c r="H360" s="8"/>
     </row>
     <row r="361" ht="20.05" customHeight="1">
       <c r="A361" t="s" s="6">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B361" t="s" s="6">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C361" t="s" s="6">
         <v>32</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F361" s="8"/>
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F361" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G361" s="8"/>
       <c r="H361" s="8"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
       <c r="A362" t="s" s="6">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B362" t="s" s="6">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C362" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D362" s="7"/>
       <c r="E362" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F362" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F362" s="7">
+        <v>0.589285714285714</v>
+      </c>
       <c r="G362" s="8"/>
       <c r="H362" s="8"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="6">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B363" t="s" s="6">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D363" s="7"/>
       <c r="E363" s="7">
-        <v>0.446428571428571</v>
-      </c>
-      <c r="F363" s="8"/>
+        <v>0.526315789473684</v>
+      </c>
+      <c r="F363" s="7">
+        <v>0</v>
+      </c>
       <c r="G363" s="8"/>
       <c r="H363" s="8"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
       <c r="A364" t="s" s="6">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B364" t="s" s="6">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D364" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D364" s="7"/>
       <c r="E364" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F364" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F364" s="7">
+        <v>0</v>
+      </c>
       <c r="G364" s="8"/>
       <c r="H364" s="8"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="6">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B365" t="s" s="6">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D365" s="7"/>
       <c r="E365" s="7">
-        <v>0</v>
-      </c>
-      <c r="F365" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F365" s="7">
+        <v>0.678571428571429</v>
+      </c>
       <c r="G365" s="8"/>
       <c r="H365" s="8"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
       <c r="A366" t="s" s="6">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B366" t="s" s="6">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D366" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D366" s="7"/>
       <c r="E366" s="7">
-        <v>0.684210526315789</v>
-      </c>
-      <c r="F366" s="8"/>
+        <v>0.446428571428571</v>
+      </c>
+      <c r="F366" s="7">
+        <v>0</v>
+      </c>
       <c r="G366" s="8"/>
       <c r="H366" s="8"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
       <c r="A367" t="s" s="6">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B367" t="s" s="6">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D367" s="7">
-        <v>0.538461538461538</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E367" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F367" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F367" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G367" s="8"/>
       <c r="H367" s="8"/>
     </row>
     <row r="368" ht="20.05" customHeight="1">
       <c r="A368" t="s" s="6">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B368" t="s" s="6">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D368" s="7"/>
       <c r="E368" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F368" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F368" s="7">
+        <v>0</v>
+      </c>
       <c r="G368" s="8"/>
       <c r="H368" s="8"/>
     </row>
     <row r="369" ht="20.05" customHeight="1">
       <c r="A369" t="s" s="6">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B369" t="s" s="6">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D369" s="7">
         <v>0.615384615384615</v>
       </c>
       <c r="E369" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F369" s="8"/>
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F369" s="7">
+        <v>0.35</v>
+      </c>
       <c r="G369" s="8"/>
       <c r="H369" s="8"/>
     </row>
     <row r="370" ht="20.05" customHeight="1">
       <c r="A370" t="s" s="6">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B370" t="s" s="6">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D370" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D370" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E370" s="7">
-        <v>0</v>
-      </c>
-      <c r="F370" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F370" s="7">
+        <v>0.116666666666667</v>
+      </c>
       <c r="G370" s="8"/>
       <c r="H370" s="8"/>
     </row>
     <row r="371" ht="20.05" customHeight="1">
       <c r="A371" t="s" s="6">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B371" t="s" s="6">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D371" s="7"/>
       <c r="E371" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F371" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F371" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G371" s="8"/>
       <c r="H371" s="8"/>
     </row>
     <row r="372" ht="20.05" customHeight="1">
       <c r="A372" t="s" s="6">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B372" t="s" s="6">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D372" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D372" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E372" s="7">
-        <v>0</v>
-      </c>
-      <c r="F372" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F372" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G372" s="8"/>
       <c r="H372" s="8"/>
     </row>
     <row r="373" ht="20.05" customHeight="1">
       <c r="A373" t="s" s="6">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B373" t="s" s="6">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D373" s="7"/>
       <c r="E373" s="7">
         <v>0</v>
       </c>
-      <c r="F373" s="8"/>
+      <c r="F373" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G373" s="8"/>
       <c r="H373" s="8"/>
     </row>
     <row r="374" ht="20.05" customHeight="1">
       <c r="A374" t="s" s="6">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B374" t="s" s="6">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C374" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D374" s="7"/>
       <c r="E374" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F374" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F374" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G374" s="8"/>
       <c r="H374" s="8"/>
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="6">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B375" t="s" s="6">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D375" s="7"/>
       <c r="E375" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F375" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F375" s="7">
+        <v>0</v>
+      </c>
       <c r="G375" s="8"/>
       <c r="H375" s="8"/>
     </row>
     <row r="376" ht="20.05" customHeight="1">
       <c r="A376" t="s" s="6">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B376" t="s" s="6">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D376" s="7"/>
       <c r="E376" s="7">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F376" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F376" s="7">
+        <v>0</v>
+      </c>
       <c r="G376" s="8"/>
       <c r="H376" s="8"/>
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B377" t="s" s="6">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D377" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D377" s="7"/>
       <c r="E377" s="7">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F377" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F377" s="7">
+        <v>0.714285714285714</v>
+      </c>
       <c r="G377" s="8"/>
       <c r="H377" s="8"/>
     </row>
     <row r="378" ht="20.05" customHeight="1">
       <c r="A378" t="s" s="6">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B378" t="s" s="6">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D378" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D378" s="7"/>
       <c r="E378" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F378" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F378" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G378" s="8"/>
       <c r="H378" s="8"/>
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B379" t="s" s="6">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D379" s="7">
-        <v>0.897435897435897</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D379" s="7"/>
       <c r="E379" s="7">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="F379" s="8"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F379" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G379" s="8"/>
       <c r="H379" s="8"/>
     </row>
     <row r="380" ht="20.05" customHeight="1">
       <c r="A380" t="s" s="6">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B380" t="s" s="6">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C380" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D380" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D380" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E380" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F380" s="8"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F380" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G380" s="8"/>
       <c r="H380" s="8"/>
     </row>
     <row r="381" ht="20.05" customHeight="1">
       <c r="A381" t="s" s="6">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B381" t="s" s="6">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D381" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D381" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E381" s="7">
-        <v>0.732142857142857</v>
-      </c>
-      <c r="F381" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F381" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G381" s="8"/>
       <c r="H381" s="8"/>
     </row>
@@ -11079,162 +11854,182 @@
         <v>766</v>
       </c>
       <c r="B382" t="s" s="6">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D382" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D382" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E382" s="7">
-        <v>0</v>
-      </c>
-      <c r="F382" s="8"/>
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F382" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G382" s="8"/>
       <c r="H382" s="8"/>
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="6">
+        <v>768</v>
+      </c>
+      <c r="B383" t="s" s="6">
         <v>769</v>
       </c>
-      <c r="B383" t="s" s="6">
-        <v>770</v>
-      </c>
       <c r="C383" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D383" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D383" s="7"/>
       <c r="E383" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F383" s="8"/>
+      <c r="F383" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G383" s="8"/>
       <c r="H383" s="8"/>
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="6">
+        <v>770</v>
+      </c>
+      <c r="B384" t="s" s="6">
         <v>771</v>
-      </c>
-      <c r="B384" t="s" s="6">
-        <v>772</v>
       </c>
       <c r="C384" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D384" s="7"/>
       <c r="E384" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F384" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F384" s="7">
+        <v>0.196428571428571</v>
+      </c>
       <c r="G384" s="8"/>
       <c r="H384" s="8"/>
     </row>
     <row r="385" ht="20.05" customHeight="1">
       <c r="A385" t="s" s="6">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B385" t="s" s="6">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F385" s="8"/>
+        <v>0.732142857142857</v>
+      </c>
+      <c r="F385" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B386" t="s" s="6">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D386" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D386" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E386" s="7">
-        <v>0.8947368421052631</v>
-      </c>
-      <c r="F386" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F386" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G386" s="8"/>
       <c r="H386" s="8"/>
     </row>
     <row r="387" ht="20.05" customHeight="1">
       <c r="A387" t="s" s="6">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B387" t="s" s="6">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C387" t="s" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F387" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F387" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G387" s="8"/>
       <c r="H387" s="8"/>
     </row>
     <row r="388" ht="20.05" customHeight="1">
       <c r="A388" t="s" s="6">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B388" t="s" s="6">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F388" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F388" s="7">
+        <v>0.633333333333333</v>
+      </c>
       <c r="G388" s="8"/>
       <c r="H388" s="8"/>
     </row>
     <row r="389" ht="20.05" customHeight="1">
       <c r="A389" t="s" s="6">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B389" t="s" s="6">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D389" s="7"/>
       <c r="E389" s="7">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F389" s="8"/>
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="F389" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G389" s="8"/>
       <c r="H389" s="8"/>
     </row>
     <row r="390" ht="20.05" customHeight="1">
       <c r="A390" t="s" s="6">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B390" t="s" s="6">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D390" s="7"/>
       <c r="E390" s="7">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="F390" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F390" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G390" s="8"/>
       <c r="H390" s="8"/>
     </row>
@@ -11243,36 +12038,38 @@
         <v>783</v>
       </c>
       <c r="B391" t="s" s="6">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D391" s="7"/>
       <c r="E391" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F391" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F391" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G391" s="8"/>
       <c r="H391" s="8"/>
     </row>
     <row r="392" ht="20.05" customHeight="1">
       <c r="A392" t="s" s="6">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B392" t="s" s="6">
         <v>786</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D392" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D392" s="7"/>
       <c r="E392" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F392" s="8"/>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F392" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G392" s="8"/>
       <c r="H392" s="8"/>
     </row>
@@ -11284,246 +12081,272 @@
         <v>788</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D393" s="7">
-        <v>0.666666666666667</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E393" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F393" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F393" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G393" s="8"/>
       <c r="H393" s="8"/>
     </row>
     <row r="394" ht="20.05" customHeight="1">
       <c r="A394" t="s" s="6">
+        <v>787</v>
+      </c>
+      <c r="B394" t="s" s="6">
         <v>789</v>
       </c>
-      <c r="B394" t="s" s="6">
-        <v>790</v>
-      </c>
       <c r="C394" t="s" s="6">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D394" s="7"/>
       <c r="E394" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F394" s="8"/>
+        <v>0.696428571428571</v>
+      </c>
+      <c r="F394" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G394" s="8"/>
       <c r="H394" s="8"/>
     </row>
     <row r="395" ht="20.05" customHeight="1">
       <c r="A395" t="s" s="6">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B395" t="s" s="6">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C395" t="s" s="6">
         <v>45</v>
       </c>
       <c r="D395" s="7"/>
       <c r="E395" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F395" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F395" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G395" s="8"/>
       <c r="H395" s="8"/>
     </row>
     <row r="396" ht="20.05" customHeight="1">
       <c r="A396" t="s" s="6">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B396" t="s" s="6">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D396" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D396" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E396" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F396" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F396" s="7">
+        <v>0.316666666666667</v>
+      </c>
       <c r="G396" s="8"/>
       <c r="H396" s="8"/>
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B397" t="s" s="6">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F397" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F397" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G397" s="8"/>
       <c r="H397" s="8"/>
     </row>
     <row r="398" ht="20.05" customHeight="1">
       <c r="A398" t="s" s="6">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B398" t="s" s="6">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C398" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D398" s="7"/>
       <c r="E398" s="7">
-        <v>0.553571428571429</v>
-      </c>
-      <c r="F398" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F398" s="7">
+        <v>0.583333333333333</v>
+      </c>
       <c r="G398" s="8"/>
       <c r="H398" s="8"/>
     </row>
     <row r="399" ht="20.05" customHeight="1">
       <c r="A399" t="s" s="6">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B399" t="s" s="6">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D399" s="7">
-        <v>0.512820512820513</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D399" s="7"/>
       <c r="E399" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F399" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F399" s="7">
+        <v>0.483333333333333</v>
+      </c>
       <c r="G399" s="8"/>
       <c r="H399" s="8"/>
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B400" t="s" s="6">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D400" s="7">
-        <v>0.358974358974359</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D400" s="7"/>
       <c r="E400" s="7">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="F400" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F400" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G400" s="8"/>
       <c r="H400" s="8"/>
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B401" t="s" s="6">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C401" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F401" s="8"/>
+        <v>0.553571428571429</v>
+      </c>
+      <c r="F401" s="7">
+        <v>0.678571428571429</v>
+      </c>
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B402" t="s" s="6">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="D402" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D402" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E402" s="7">
-        <v>0.368421052631579</v>
-      </c>
-      <c r="F402" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F402" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="G402" s="8"/>
       <c r="H402" s="8"/>
     </row>
     <row r="403" ht="20.05" customHeight="1">
       <c r="A403" t="s" s="6">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B403" t="s" s="6">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D403" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D403" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E403" s="7">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F403" s="8"/>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F403" s="7">
+        <v>0.783333333333333</v>
+      </c>
       <c r="G403" s="8"/>
       <c r="H403" s="8"/>
     </row>
     <row r="404" ht="20.05" customHeight="1">
       <c r="A404" t="s" s="6">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B404" t="s" s="6">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D404" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D404" s="7"/>
       <c r="E404" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F404" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F404" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G404" s="8"/>
       <c r="H404" s="8"/>
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B405" t="s" s="6">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D405" s="7"/>
       <c r="E405" s="7">
-        <v>0</v>
-      </c>
-      <c r="F405" s="8"/>
+        <v>0.368421052631579</v>
+      </c>
+      <c r="F405" s="7">
+        <v>0</v>
+      </c>
       <c r="G405" s="8"/>
       <c r="H405" s="8"/>
     </row>
     <row r="406" ht="20.05" customHeight="1">
       <c r="A406" t="s" s="6">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B406" t="s" s="6">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C406" t="s" s="6">
         <v>13</v>
@@ -11532,273 +12355,303 @@
       <c r="E406" s="7">
         <v>0.642857142857143</v>
       </c>
-      <c r="F406" s="8"/>
+      <c r="F406" s="7">
+        <v>0</v>
+      </c>
       <c r="G406" s="8"/>
       <c r="H406" s="8"/>
     </row>
     <row r="407" ht="20.05" customHeight="1">
       <c r="A407" t="s" s="6">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B407" t="s" s="6">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D407" s="7">
-        <v>0.615384615384615</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E407" s="7">
-        <v>0.807017543859649</v>
-      </c>
-      <c r="F407" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F407" s="7">
+        <v>0</v>
+      </c>
       <c r="G407" s="8"/>
       <c r="H407" s="8"/>
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B408" t="s" s="6">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D408" s="7">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D408" s="7"/>
       <c r="E408" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F408" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F408" s="7">
+        <v>0</v>
+      </c>
       <c r="G408" s="8"/>
       <c r="H408" s="8"/>
     </row>
     <row r="409" ht="20.05" customHeight="1">
       <c r="A409" t="s" s="6">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B409" t="s" s="6">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D409" s="7"/>
       <c r="E409" s="7">
-        <v>0.614035087719298</v>
-      </c>
-      <c r="F409" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F409" s="7">
+        <v>0.428571428571429</v>
+      </c>
       <c r="G409" s="8"/>
       <c r="H409" s="8"/>
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="6">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B410" t="s" s="6">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C410" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D410" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D410" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E410" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F410" s="8"/>
+        <v>0.807017543859649</v>
+      </c>
+      <c r="F410" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G410" s="8"/>
       <c r="H410" s="8"/>
     </row>
     <row r="411" ht="20.05" customHeight="1">
       <c r="A411" t="s" s="6">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B411" t="s" s="6">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C411" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D411" s="7"/>
+      <c r="D411" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E411" s="7">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="F411" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F411" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G411" s="8"/>
       <c r="H411" s="8"/>
     </row>
     <row r="412" ht="20.05" customHeight="1">
       <c r="A412" t="s" s="6">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B412" t="s" s="6">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C412" t="s" s="6">
         <v>10</v>
       </c>
       <c r="D412" s="7"/>
       <c r="E412" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F412" s="8"/>
+        <v>0.614035087719298</v>
+      </c>
+      <c r="F412" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G412" s="8"/>
       <c r="H412" s="8"/>
     </row>
     <row r="413" ht="20.05" customHeight="1">
       <c r="A413" t="s" s="6">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B413" t="s" s="6">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C413" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D413" s="7">
-        <v>0.820512820512821</v>
-      </c>
+      <c r="D413" s="7"/>
       <c r="E413" s="7">
         <v>0.754385964912281</v>
       </c>
-      <c r="F413" s="8"/>
+      <c r="F413" s="7">
+        <v>0.716666666666667</v>
+      </c>
       <c r="G413" s="8"/>
       <c r="H413" s="8"/>
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="6">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B414" t="s" s="6">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C414" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D414" s="7">
-        <v>0.230769230769231</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D414" s="7"/>
       <c r="E414" s="7">
-        <v>0</v>
-      </c>
-      <c r="F414" s="8"/>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F414" s="7">
+        <v>0.55</v>
+      </c>
       <c r="G414" s="8"/>
       <c r="H414" s="8"/>
     </row>
     <row r="415" ht="20.05" customHeight="1">
       <c r="A415" t="s" s="6">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B415" t="s" s="6">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C415" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D415" s="7">
-        <v>0.333333333333333</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D415" s="7"/>
       <c r="E415" s="7">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F415" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F415" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G415" s="8"/>
       <c r="H415" s="8"/>
     </row>
     <row r="416" ht="20.05" customHeight="1">
       <c r="A416" t="s" s="6">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B416" t="s" s="6">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C416" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D416" s="7">
-        <v>0.717948717948718</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E416" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F416" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F416" s="7">
+        <v>0.85</v>
+      </c>
       <c r="G416" s="8"/>
       <c r="H416" s="8"/>
     </row>
     <row r="417" ht="20.05" customHeight="1">
       <c r="A417" t="s" s="6">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B417" t="s" s="6">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C417" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D417" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D417" s="7">
+        <v>0.230769230769231</v>
+      </c>
       <c r="E417" s="7">
         <v>0</v>
       </c>
-      <c r="F417" s="8"/>
+      <c r="F417" s="7">
+        <v>0</v>
+      </c>
       <c r="G417" s="8"/>
       <c r="H417" s="8"/>
     </row>
     <row r="418" ht="20.05" customHeight="1">
       <c r="A418" t="s" s="6">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B418" t="s" s="6">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C418" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D418" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D418" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E418" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F418" s="8"/>
+        <v>0.842105263157895</v>
+      </c>
+      <c r="F418" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G418" s="8"/>
       <c r="H418" s="8"/>
     </row>
     <row r="419" ht="20.05" customHeight="1">
       <c r="A419" t="s" s="6">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B419" t="s" s="6">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C419" t="s" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D419" s="7">
-        <v>0.435897435897436</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E419" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F419" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F419" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G419" s="8"/>
       <c r="H419" s="8"/>
     </row>
     <row r="420" ht="20.05" customHeight="1">
       <c r="A420" t="s" s="6">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B420" t="s" s="6">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D420" s="7"/>
       <c r="E420" s="7">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F420" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F420" s="7">
+        <v>0</v>
+      </c>
       <c r="G420" s="8"/>
       <c r="H420" s="8"/>
     </row>
@@ -11807,386 +12660,428 @@
         <v>841</v>
       </c>
       <c r="B421" t="s" s="6">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C421" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D421" s="7"/>
       <c r="E421" s="7">
-        <v>0</v>
-      </c>
-      <c r="F421" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F421" s="7">
+        <v>0.466666666666667</v>
+      </c>
       <c r="G421" s="8"/>
       <c r="H421" s="8"/>
     </row>
     <row r="422" ht="20.05" customHeight="1">
       <c r="A422" t="s" s="6">
+        <v>843</v>
+      </c>
+      <c r="B422" t="s" s="6">
         <v>844</v>
       </c>
-      <c r="B422" t="s" s="6">
-        <v>845</v>
-      </c>
       <c r="C422" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D422" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D422" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E422" s="7">
-        <v>0.553571428571429</v>
-      </c>
-      <c r="F422" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F422" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G422" s="8"/>
       <c r="H422" s="8"/>
     </row>
     <row r="423" ht="20.05" customHeight="1">
       <c r="A423" t="s" s="6">
+        <v>845</v>
+      </c>
+      <c r="B423" t="s" s="6">
         <v>846</v>
       </c>
-      <c r="B423" t="s" s="6">
-        <v>847</v>
-      </c>
       <c r="C423" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D423" s="7"/>
       <c r="E423" s="7">
-        <v>0</v>
-      </c>
-      <c r="F423" s="8"/>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="F423" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G423" s="8"/>
       <c r="H423" s="8"/>
     </row>
     <row r="424" ht="20.05" customHeight="1">
       <c r="A424" t="s" s="6">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B424" t="s" s="6">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C424" t="s" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D424" s="7"/>
       <c r="E424" s="7">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F424" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F424" s="7">
+        <v>0</v>
+      </c>
       <c r="G424" s="8"/>
       <c r="H424" s="8"/>
     </row>
     <row r="425" ht="20.05" customHeight="1">
       <c r="A425" t="s" s="6">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B425" t="s" s="6">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C425" t="s" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D425" s="7"/>
       <c r="E425" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F425" s="8"/>
+        <v>0.553571428571429</v>
+      </c>
+      <c r="F425" s="7">
+        <v>0.910714285714286</v>
+      </c>
       <c r="G425" s="8"/>
       <c r="H425" s="8"/>
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="6">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B426" t="s" s="6">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C426" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D426" s="7"/>
       <c r="E426" s="7">
-        <v>0.701754385964912</v>
-      </c>
-      <c r="F426" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F426" s="7">
+        <v>0.183333333333333</v>
+      </c>
       <c r="G426" s="8"/>
       <c r="H426" s="8"/>
     </row>
     <row r="427" ht="20.05" customHeight="1">
       <c r="A427" t="s" s="6">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B427" t="s" s="6">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C427" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D427" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D427" s="7"/>
       <c r="E427" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F427" s="8"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F427" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G427" s="8"/>
       <c r="H427" s="8"/>
     </row>
     <row r="428" ht="20.05" customHeight="1">
       <c r="A428" t="s" s="6">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B428" t="s" s="6">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C428" t="s" s="6">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D428" s="7"/>
       <c r="E428" s="7">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F428" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F428" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G428" s="8"/>
       <c r="H428" s="8"/>
     </row>
     <row r="429" ht="20.05" customHeight="1">
       <c r="A429" t="s" s="6">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B429" t="s" s="6">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C429" t="s" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D429" s="7"/>
       <c r="E429" s="7">
-        <v>0.596491228070175</v>
-      </c>
-      <c r="F429" s="8"/>
+        <v>0.701754385964912</v>
+      </c>
+      <c r="F429" s="7">
+        <v>0.8</v>
+      </c>
       <c r="G429" s="8"/>
       <c r="H429" s="8"/>
     </row>
     <row r="430" ht="20.05" customHeight="1">
       <c r="A430" t="s" s="6">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B430" t="s" s="6">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C430" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D430" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D430" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E430" s="7">
         <v>0.649122807017544</v>
       </c>
-      <c r="F430" s="8"/>
+      <c r="F430" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G430" s="8"/>
       <c r="H430" s="8"/>
     </row>
     <row r="431" ht="20.05" customHeight="1">
       <c r="A431" t="s" s="6">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B431" t="s" s="6">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C431" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D431" s="7"/>
       <c r="E431" s="7">
-        <v>0.649122807017544</v>
-      </c>
-      <c r="F431" s="8"/>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="F431" s="7">
+        <v>0.821428571428571</v>
+      </c>
       <c r="G431" s="8"/>
       <c r="H431" s="8"/>
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="6">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B432" t="s" s="6">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C432" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D432" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D432" s="7"/>
       <c r="E432" s="7">
-        <v>0</v>
-      </c>
-      <c r="F432" s="8"/>
+        <v>0.596491228070175</v>
+      </c>
+      <c r="F432" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G432" s="8"/>
       <c r="H432" s="8"/>
     </row>
     <row r="433" ht="20.05" customHeight="1">
       <c r="A433" t="s" s="6">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B433" t="s" s="6">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C433" t="s" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D433" s="7"/>
       <c r="E433" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F433" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F433" s="7">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G433" s="8"/>
       <c r="H433" s="8"/>
     </row>
     <row r="434" ht="20.05" customHeight="1">
       <c r="A434" t="s" s="6">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B434" t="s" s="6">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C434" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D434" s="7"/>
       <c r="E434" s="7">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F434" s="8"/>
+        <v>0.649122807017544</v>
+      </c>
+      <c r="F434" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G434" s="8"/>
       <c r="H434" s="8"/>
     </row>
     <row r="435" ht="20.05" customHeight="1">
       <c r="A435" t="s" s="6">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B435" t="s" s="6">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C435" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D435" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D435" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E435" s="7">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="F435" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F435" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G435" s="8"/>
       <c r="H435" s="8"/>
     </row>
     <row r="436" ht="20.05" customHeight="1">
       <c r="A436" t="s" s="6">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B436" t="s" s="6">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C436" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D436" s="7">
-        <v>0.794871794871795</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D436" s="7"/>
       <c r="E436" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F436" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F436" s="7">
+        <v>0.533333333333333</v>
+      </c>
       <c r="G436" s="8"/>
       <c r="H436" s="8"/>
     </row>
     <row r="437" ht="20.05" customHeight="1">
       <c r="A437" t="s" s="6">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B437" t="s" s="6">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C437" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D437" s="7">
-        <v>0.333333333333333</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D437" s="7"/>
       <c r="E437" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F437" s="8"/>
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F437" s="7">
+        <v>0.767857142857143</v>
+      </c>
       <c r="G437" s="8"/>
       <c r="H437" s="8"/>
     </row>
     <row r="438" ht="20.05" customHeight="1">
       <c r="A438" t="s" s="6">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B438" t="s" s="6">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C438" t="s" s="6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D438" s="7"/>
       <c r="E438" s="7">
-        <v>0</v>
-      </c>
-      <c r="F438" s="8"/>
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F438" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G438" s="8"/>
       <c r="H438" s="8"/>
     </row>
     <row r="439" ht="20.05" customHeight="1">
       <c r="A439" t="s" s="6">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B439" t="s" s="6">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C439" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D439" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D439" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E439" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F439" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F439" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G439" s="8"/>
       <c r="H439" s="8"/>
     </row>
     <row r="440" ht="20.05" customHeight="1">
       <c r="A440" t="s" s="6">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B440" t="s" s="6">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C440" t="s" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D440" s="7">
-        <v>0.615384615384615</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E440" s="7">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F440" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F440" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G440" s="8"/>
       <c r="H440" s="8"/>
     </row>
     <row r="441" ht="20.05" customHeight="1">
       <c r="A441" t="s" s="6">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B441" t="s" s="6">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C441" t="s" s="6">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D441" s="7"/>
       <c r="E441" s="7">
-        <v>0.8947368421052631</v>
-      </c>
-      <c r="F441" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F441" s="7">
+        <v>0</v>
+      </c>
       <c r="G441" s="8"/>
       <c r="H441" s="8"/>
     </row>
@@ -12195,164 +13090,182 @@
         <v>882</v>
       </c>
       <c r="B442" t="s" s="6">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C442" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D442" s="7"/>
       <c r="E442" s="7">
-        <v>0</v>
-      </c>
-      <c r="F442" s="8"/>
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F442" s="7">
+        <v>0.696428571428571</v>
+      </c>
       <c r="G442" s="8"/>
       <c r="H442" s="8"/>
     </row>
     <row r="443" ht="20.05" customHeight="1">
       <c r="A443" t="s" s="6">
+        <v>884</v>
+      </c>
+      <c r="B443" t="s" s="6">
         <v>885</v>
       </c>
-      <c r="B443" t="s" s="6">
-        <v>886</v>
-      </c>
       <c r="C443" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D443" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D443" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E443" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F443" s="8"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F443" s="7">
+        <v>0</v>
+      </c>
       <c r="G443" s="8"/>
       <c r="H443" s="8"/>
     </row>
     <row r="444" ht="20.05" customHeight="1">
       <c r="A444" t="s" s="6">
+        <v>886</v>
+      </c>
+      <c r="B444" t="s" s="6">
         <v>887</v>
       </c>
-      <c r="B444" t="s" s="6">
-        <v>888</v>
-      </c>
       <c r="C444" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D444" s="7"/>
       <c r="E444" s="7">
-        <v>0</v>
-      </c>
-      <c r="F444" s="8"/>
+        <v>0.8947368421052631</v>
+      </c>
+      <c r="F444" s="7">
+        <v>0.616666666666667</v>
+      </c>
       <c r="G444" s="8"/>
       <c r="H444" s="8"/>
     </row>
     <row r="445" ht="20.05" customHeight="1">
       <c r="A445" t="s" s="6">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B445" t="s" s="6">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C445" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D445" s="7">
-        <v>0.692307692307692</v>
-      </c>
+      <c r="D445" s="7"/>
       <c r="E445" s="7">
-        <v>0.719298245614035</v>
-      </c>
-      <c r="F445" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F445" s="7">
+        <v>0</v>
+      </c>
       <c r="G445" s="8"/>
       <c r="H445" s="8"/>
     </row>
     <row r="446" ht="20.05" customHeight="1">
       <c r="A446" t="s" s="6">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B446" t="s" s="6">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C446" t="s" s="6">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D446" s="7"/>
       <c r="E446" s="7">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F446" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F446" s="7">
+        <v>0.65</v>
+      </c>
       <c r="G446" s="8"/>
       <c r="H446" s="8"/>
     </row>
     <row r="447" ht="20.05" customHeight="1">
       <c r="A447" t="s" s="6">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B447" t="s" s="6">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C447" t="s" s="6">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D447" s="7"/>
       <c r="E447" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F447" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F447" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G447" s="8"/>
       <c r="H447" s="8"/>
     </row>
     <row r="448" ht="20.05" customHeight="1">
       <c r="A448" t="s" s="6">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B448" t="s" s="6">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C448" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D448" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D448" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E448" s="7">
-        <v>0.789473684210526</v>
-      </c>
-      <c r="F448" s="8"/>
+        <v>0.719298245614035</v>
+      </c>
+      <c r="F448" s="7">
+        <v>0.916666666666667</v>
+      </c>
       <c r="G448" s="8"/>
       <c r="H448" s="8"/>
     </row>
     <row r="449" ht="20.05" customHeight="1">
       <c r="A449" t="s" s="6">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B449" t="s" s="6">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C449" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D449" s="7"/>
       <c r="E449" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F449" s="8"/>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F449" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="G449" s="8"/>
       <c r="H449" s="8"/>
     </row>
     <row r="450" ht="20.05" customHeight="1">
       <c r="A450" t="s" s="6">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B450" t="s" s="6">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C450" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D450" s="7">
-        <v>0.897435897435897</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D450" s="7"/>
       <c r="E450" s="7">
-        <v>0.43859649122807</v>
-      </c>
-      <c r="F450" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F450" s="7">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G450" s="8"/>
       <c r="H450" s="8"/>
     </row>
@@ -12361,72 +13274,160 @@
         <v>899</v>
       </c>
       <c r="B451" t="s" s="6">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C451" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D451" s="7"/>
       <c r="E451" s="7">
-        <v>0.446428571428571</v>
-      </c>
-      <c r="F451" s="8"/>
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F451" s="7">
+        <v>0.7</v>
+      </c>
       <c r="G451" s="8"/>
       <c r="H451" s="8"/>
     </row>
     <row r="452" ht="20.05" customHeight="1">
       <c r="A452" t="s" s="6">
+        <v>901</v>
+      </c>
+      <c r="B452" t="s" s="6">
         <v>902</v>
       </c>
-      <c r="B452" t="s" s="6">
-        <v>903</v>
-      </c>
       <c r="C452" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D452" s="7"/>
       <c r="E452" s="7">
-        <v>0</v>
-      </c>
-      <c r="F452" s="8"/>
+        <v>0.754385964912281</v>
+      </c>
+      <c r="F452" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G452" s="8"/>
       <c r="H452" s="8"/>
     </row>
     <row r="453" ht="20.05" customHeight="1">
       <c r="A453" t="s" s="6">
+        <v>903</v>
+      </c>
+      <c r="B453" t="s" s="6">
         <v>904</v>
       </c>
-      <c r="B453" t="s" s="6">
-        <v>905</v>
-      </c>
       <c r="C453" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D453" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D453" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E453" s="7">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F453" s="8"/>
+        <v>0.43859649122807</v>
+      </c>
+      <c r="F453" s="7">
+        <v>0.45</v>
+      </c>
       <c r="G453" s="8"/>
       <c r="H453" s="8"/>
     </row>
     <row r="454" ht="20.05" customHeight="1">
       <c r="A454" t="s" s="6">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B454" t="s" s="6">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C454" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D454" s="7"/>
       <c r="E454" s="7">
-        <v>0.803571428571429</v>
-      </c>
-      <c r="F454" s="8"/>
+        <v>0.446428571428571</v>
+      </c>
+      <c r="F454" s="7">
+        <v>0.535714285714286</v>
+      </c>
       <c r="G454" s="8"/>
       <c r="H454" s="8"/>
+    </row>
+    <row r="455" ht="20.05" customHeight="1">
+      <c r="A455" t="s" s="6">
+        <v>906</v>
+      </c>
+      <c r="B455" t="s" s="6">
+        <v>907</v>
+      </c>
+      <c r="C455" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D455" s="7"/>
+      <c r="E455" s="7">
+        <v>0</v>
+      </c>
+      <c r="F455" s="7">
+        <v>0</v>
+      </c>
+      <c r="G455" s="8"/>
+      <c r="H455" s="8"/>
+    </row>
+    <row r="456" ht="20.05" customHeight="1">
+      <c r="A456" t="s" s="6">
+        <v>908</v>
+      </c>
+      <c r="B456" t="s" s="6">
+        <v>909</v>
+      </c>
+      <c r="C456" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D456" s="7"/>
+      <c r="E456" s="7">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F456" s="7">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="G456" s="8"/>
+      <c r="H456" s="8"/>
+    </row>
+    <row r="457" ht="20.05" customHeight="1">
+      <c r="A457" t="s" s="6">
+        <v>908</v>
+      </c>
+      <c r="B457" t="s" s="6">
+        <v>910</v>
+      </c>
+      <c r="C457" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D457" s="7"/>
+      <c r="E457" s="7">
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F457" s="7">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="G457" s="8"/>
+      <c r="H457" s="8"/>
+    </row>
+    <row r="458" ht="20.05" customHeight="1">
+      <c r="A458" s="8"/>
+      <c r="B458" t="s" s="6">
+        <v>911</v>
+      </c>
+      <c r="C458" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D458" s="7"/>
+      <c r="E458" s="7">
+        <v>0</v>
+      </c>
+      <c r="F458" s="7">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="G458" s="8"/>
+      <c r="H458" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -514,12 +514,12 @@
     <t>CHISANGO</t>
   </si>
   <si>
+    <t>H200311P</t>
+  </si>
+  <si>
     <t>H200552E</t>
   </si>
   <si>
-    <t>H200311P</t>
-  </si>
-  <si>
     <t>CHISVO</t>
   </si>
   <si>
@@ -736,12 +736,12 @@
     <t>GARIKAI</t>
   </si>
   <si>
+    <t>H200619N</t>
+  </si>
+  <si>
     <t>H200628T</t>
   </si>
   <si>
-    <t>H200619N</t>
-  </si>
-  <si>
     <t>GARIRAI</t>
   </si>
   <si>
@@ -2551,12 +2551,12 @@
     <t>SITHOLE</t>
   </si>
   <si>
+    <t>H200432H</t>
+  </si>
+  <si>
     <t>H200404E</t>
   </si>
   <si>
-    <t>H200432H</t>
-  </si>
-  <si>
     <t>SITOTOMBE</t>
   </si>
   <si>
@@ -2674,10 +2674,10 @@
     <t>ZENDA</t>
   </si>
   <si>
+    <t>H190185X</t>
+  </si>
+  <si>
     <t>H200309F</t>
-  </si>
-  <si>
-    <t>H190185X</t>
   </si>
   <si>
     <t>ZHANDA</t>
@@ -4006,7 +4006,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F2" s="4">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -4026,7 +4026,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F3" s="7">
-        <v>0.732142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4046,7 +4046,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F4" s="7">
-        <v>0.366666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4066,7 +4066,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F5" s="7">
-        <v>0.316666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4086,7 +4086,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F6" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4130,7 +4130,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F8" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4150,7 +4150,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F9" s="7">
-        <v>0.6</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4170,7 +4170,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F10" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4210,7 +4210,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F12" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4230,7 +4230,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F13" s="7">
-        <v>0.466666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4250,7 +4250,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F14" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4314,7 +4314,7 @@
         <v>0.473684210526316</v>
       </c>
       <c r="F17" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4374,7 +4374,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F20" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -4394,7 +4394,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F21" s="7">
-        <v>0.589285714285714</v>
+        <v>0.678571428571428</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4414,7 +4414,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F22" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -4434,7 +4434,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F23" s="7">
-        <v>0.316666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4456,7 +4456,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F24" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -4476,7 +4476,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F25" s="7">
-        <v>0.642857142857143</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4496,7 +4496,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F26" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -4578,7 +4578,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F30" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -4600,7 +4600,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F31" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4642,7 +4642,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F33" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4662,7 +4662,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F34" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -4684,7 +4684,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F35" s="7">
-        <v>0.5166666666666671</v>
+        <v>0.6</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -4704,7 +4704,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F36" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -4724,7 +4724,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="F37" s="7">
-        <v>0.660714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4746,7 +4746,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F38" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -4786,7 +4786,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F40" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4806,7 +4806,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F41" s="7">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4828,7 +4828,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F42" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -4848,7 +4848,7 @@
         <v>0.660714285714286</v>
       </c>
       <c r="F43" s="7">
-        <v>0.910714285714286</v>
+        <v>1</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4870,7 +4870,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F44" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4890,7 +4890,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F45" s="7">
-        <v>0.633333333333333</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -4910,7 +4910,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F46" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4930,7 +4930,7 @@
         <v>0.660714285714286</v>
       </c>
       <c r="F47" s="7">
-        <v>0.517857142857143</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -4950,7 +4950,7 @@
         <v>0.821428571428571</v>
       </c>
       <c r="F48" s="7">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -4970,7 +4970,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F49" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -4990,7 +4990,7 @@
         <v>0.75</v>
       </c>
       <c r="F50" s="7">
-        <v>0.678571428571429</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -5010,7 +5010,7 @@
         <v>0.464285714285714</v>
       </c>
       <c r="F51" s="7">
-        <v>0.339285714285714</v>
+        <v>0.428571428571428</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -5050,7 +5050,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F53" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -5092,7 +5092,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F55" s="7">
-        <v>0.483333333333333</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -5112,7 +5112,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F56" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -5132,7 +5132,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="F57" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -5152,7 +5152,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F58" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -5172,7 +5172,7 @@
         <v>0.5</v>
       </c>
       <c r="F59" s="7">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -5214,7 +5214,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F61" s="7">
-        <v>0.316666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -5254,7 +5254,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F63" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -5274,7 +5274,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F64" s="7">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>0.266666666666667</v>
+        <v>0.35</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -5316,7 +5316,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F66" s="7">
-        <v>0.339285714285714</v>
+        <v>0.428571428571428</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -5336,7 +5336,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F67" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -5356,7 +5356,7 @@
         <v>0.660714285714286</v>
       </c>
       <c r="F68" s="7">
-        <v>0.642857142857143</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -5376,7 +5376,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="F69" s="7">
-        <v>0.696428571428571</v>
+        <v>0.785714285714285</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -5396,7 +5396,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F70" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -5416,7 +5416,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F71" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -5438,7 +5438,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F72" s="7">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -5458,7 +5458,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F73" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -5478,7 +5478,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F74" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -5498,7 +5498,7 @@
         <v>0.589285714285714</v>
       </c>
       <c r="F75" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -5511,14 +5511,14 @@
         <v>167</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7">
-        <v>0.649122807017544</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F76" s="7">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -5531,14 +5531,14 @@
         <v>168</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7">
-        <v>0.736842105263158</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F77" s="7">
-        <v>0</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -5578,7 +5578,7 @@
         <v>0.767857142857143</v>
       </c>
       <c r="F79" s="7">
-        <v>0.375</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -5598,7 +5598,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F80" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -5618,7 +5618,7 @@
         <v>0.732142857142857</v>
       </c>
       <c r="F81" s="7">
-        <v>0.910714285714286</v>
+        <v>1</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -5660,7 +5660,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F83" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -5682,7 +5682,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F84" s="7">
-        <v>0.466666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -5704,7 +5704,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F85" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -5724,7 +5724,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F86" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -5744,7 +5744,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F87" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -5764,7 +5764,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F88" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -5786,7 +5786,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F89" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -5806,7 +5806,7 @@
         <v>0.732142857142857</v>
       </c>
       <c r="F90" s="7">
-        <v>0.285714285714286</v>
+        <v>0.375</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -5826,7 +5826,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F91" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -5848,7 +5848,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F92" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -5868,7 +5868,7 @@
         <v>0.456140350877193</v>
       </c>
       <c r="F93" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -5890,7 +5890,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F94" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -5912,7 +5912,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F95" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -5934,7 +5934,7 @@
         <v>0.8947368421052631</v>
       </c>
       <c r="F96" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -5954,7 +5954,7 @@
         <v>0.678571428571429</v>
       </c>
       <c r="F97" s="7">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -5974,7 +5974,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="F98" s="7">
-        <v>0.428571428571429</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -6016,7 +6016,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F100" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -6058,7 +6058,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F102" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -6100,7 +6100,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F104" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -6122,7 +6122,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F105" s="7">
-        <v>0.633333333333333</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -6142,7 +6142,7 @@
         <v>0.732142857142857</v>
       </c>
       <c r="F106" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -6162,7 +6162,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F107" s="7">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -6184,7 +6184,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F108" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -6206,7 +6206,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F109" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -6228,7 +6228,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F110" s="7">
-        <v>0.283333333333333</v>
+        <v>0.366666666666666</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -6250,7 +6250,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F111" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -6272,7 +6272,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F112" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -6292,7 +6292,7 @@
         <v>0.678571428571429</v>
       </c>
       <c r="F113" s="7">
-        <v>0.410714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -6305,14 +6305,16 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D114" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E114" s="7">
-        <v>0.642857142857143</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F114" s="7">
-        <v>0.821428571428571</v>
+        <v>0</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -6325,16 +6327,14 @@
         <v>242</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D115" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D115" s="7"/>
       <c r="E115" s="7">
-        <v>0.719298245614035</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F115" s="7">
-        <v>0</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -6354,7 +6354,7 @@
         <v>0.821428571428571</v>
       </c>
       <c r="F116" s="7">
-        <v>0.589285714285714</v>
+        <v>0.678571428571428</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -6394,7 +6394,7 @@
         <v>0.543859649122807</v>
       </c>
       <c r="F118" s="7">
-        <v>0.732142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -6416,7 +6416,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F119" s="7">
-        <v>0.6</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -6438,7 +6438,7 @@
         <v>0.543859649122807</v>
       </c>
       <c r="F120" s="7">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -6458,7 +6458,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F121" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -6478,7 +6478,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F122" s="7">
-        <v>0.714285714285714</v>
+        <v>0.803571428571428</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -6500,7 +6500,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F123" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -6520,7 +6520,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F124" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -6540,7 +6540,7 @@
         <v>0.75</v>
       </c>
       <c r="F125" s="7">
-        <v>0.5</v>
+        <v>0.589285714285714</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -6560,7 +6560,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F126" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -6580,7 +6580,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="F127" s="7">
-        <v>0.428571428571429</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -6600,7 +6600,7 @@
         <v>0.553571428571429</v>
       </c>
       <c r="F128" s="7">
-        <v>0.642857142857143</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -6622,7 +6622,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F129" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -6642,7 +6642,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F130" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -6682,7 +6682,7 @@
         <v>0.553571428571429</v>
       </c>
       <c r="F132" s="7">
-        <v>0.517857142857143</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -6702,7 +6702,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="F133" s="7">
-        <v>0.625</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -6722,7 +6722,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F134" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -6744,7 +6744,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F135" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="F136" s="7">
-        <v>0.6</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -6806,7 +6806,7 @@
         <v>0.589285714285714</v>
       </c>
       <c r="F138" s="7">
-        <v>0.696428571428571</v>
+        <v>0.785714285714285</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -6828,7 +6828,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F139" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -6848,7 +6848,7 @@
         <v>0.732142857142857</v>
       </c>
       <c r="F140" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -6870,7 +6870,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F141" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="F142" s="7">
-        <v>0.35</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -6932,7 +6932,7 @@
         <v>0.543859649122807</v>
       </c>
       <c r="F144" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -6954,7 +6954,7 @@
         <v>0.543859649122807</v>
       </c>
       <c r="F145" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -6974,7 +6974,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F146" s="7">
-        <v>0.316666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -6994,7 +6994,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F147" s="7">
-        <v>0.633333333333333</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7016,7 +7016,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F148" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -7038,7 +7038,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F149" s="7">
-        <v>0.116666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -7058,7 +7058,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F150" s="7">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -7118,7 +7118,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F153" s="7">
-        <v>0.333333333333333</v>
+        <v>0.416666666666666</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -7140,7 +7140,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F154" s="7">
-        <v>0.783333333333333</v>
+        <v>0.866666666666666</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -7162,7 +7162,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F155" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -7182,7 +7182,7 @@
         <v>0.589285714285714</v>
       </c>
       <c r="F156" s="7">
-        <v>0.446428571428571</v>
+        <v>0.535714285714285</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
@@ -7202,7 +7202,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F157" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -7242,7 +7242,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F159" s="7">
-        <v>0.660714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -7264,7 +7264,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F160" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -7284,7 +7284,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F161" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -7304,7 +7304,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F162" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -7326,7 +7326,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F163" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -7346,7 +7346,7 @@
         <v>0.491228070175439</v>
       </c>
       <c r="F164" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -7368,7 +7368,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F165" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -7390,7 +7390,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F166" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
@@ -7430,7 +7430,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F168" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
@@ -7450,7 +7450,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="F169" s="7">
-        <v>0.660714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -7470,7 +7470,7 @@
         <v>0.678571428571429</v>
       </c>
       <c r="F170" s="7">
-        <v>0.678571428571429</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
@@ -7490,7 +7490,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F171" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -7510,7 +7510,7 @@
         <v>0.660714285714286</v>
       </c>
       <c r="F172" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -7530,7 +7530,7 @@
         <v>0.660714285714286</v>
       </c>
       <c r="F173" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -7552,7 +7552,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F174" s="7">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -7572,7 +7572,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F175" s="7">
-        <v>0.383333333333333</v>
+        <v>0.466666666666666</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
@@ -7592,7 +7592,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F176" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
@@ -7614,7 +7614,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F177" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
@@ -7636,7 +7636,7 @@
         <v>0.456140350877193</v>
       </c>
       <c r="F178" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -7676,7 +7676,7 @@
         <v>0.456140350877193</v>
       </c>
       <c r="F180" s="7">
-        <v>0.333333333333333</v>
+        <v>0.416666666666666</v>
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
@@ -7696,7 +7696,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F181" s="7">
-        <v>0.535714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
@@ -7716,7 +7716,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F182" s="7">
-        <v>0.4</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
@@ -7738,7 +7738,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F183" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
@@ -7758,7 +7758,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F184" s="7">
-        <v>0.4</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
@@ -7780,7 +7780,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F185" s="7">
-        <v>0.716666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -7820,7 +7820,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F187" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
@@ -7860,7 +7860,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F189" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -7880,7 +7880,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F190" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
@@ -7900,7 +7900,7 @@
         <v>0.660714285714286</v>
       </c>
       <c r="F191" s="7">
-        <v>0.5</v>
+        <v>0.589285714285714</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
@@ -7922,7 +7922,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F192" s="7">
-        <v>0.366666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
@@ -7964,7 +7964,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F194" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
@@ -7984,7 +7984,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F195" s="7">
-        <v>0.283333333333333</v>
+        <v>0.366666666666666</v>
       </c>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
@@ -8004,7 +8004,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F196" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
@@ -8024,7 +8024,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F197" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
@@ -8044,7 +8044,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="F198" s="7">
-        <v>0.660714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
@@ -8066,7 +8066,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F199" s="7">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
@@ -8086,7 +8086,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F200" s="7">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="F201" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
@@ -8126,7 +8126,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F202" s="7">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
@@ -8148,7 +8148,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F203" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
@@ -8212,7 +8212,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F206" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="7">
-        <v>0.583333333333333</v>
+        <v>0.666666666666666</v>
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
@@ -8272,7 +8272,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="F209" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
@@ -8292,7 +8292,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F210" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
@@ -8312,7 +8312,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F211" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
@@ -8332,7 +8332,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F212" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
@@ -8396,7 +8396,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F215" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
@@ -8416,7 +8416,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F216" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
@@ -8456,7 +8456,7 @@
         <v>0.578947368421053</v>
       </c>
       <c r="F218" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
@@ -8476,7 +8476,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F219" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
@@ -8496,7 +8496,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F220" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
@@ -8518,7 +8518,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F221" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
@@ -8580,7 +8580,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F224" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
@@ -8602,7 +8602,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F225" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
@@ -8622,7 +8622,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F226" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
@@ -8642,7 +8642,7 @@
         <v>0.785714285714286</v>
       </c>
       <c r="F227" s="7">
-        <v>0.696428571428571</v>
+        <v>0.785714285714285</v>
       </c>
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
@@ -8662,7 +8662,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F228" s="7">
-        <v>0.5166666666666671</v>
+        <v>0.6</v>
       </c>
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
@@ -8684,7 +8684,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F229" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
@@ -8724,7 +8724,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F231" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G231" s="8"/>
       <c r="H231" s="8"/>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="F232" s="7">
-        <v>0.266666666666667</v>
+        <v>0.35</v>
       </c>
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
@@ -8766,7 +8766,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F233" s="7">
-        <v>0.866666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
@@ -8788,7 +8788,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F234" s="7">
-        <v>0.333333333333333</v>
+        <v>0.416666666666666</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
@@ -8810,7 +8810,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F235" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
@@ -8832,7 +8832,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F236" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
@@ -8874,7 +8874,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F238" s="7">
-        <v>0.35</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
@@ -8896,7 +8896,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F239" s="7">
-        <v>0.483333333333333</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
@@ -8918,7 +8918,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F240" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
@@ -8940,7 +8940,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F241" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
@@ -8962,7 +8962,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F242" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G242" s="8"/>
       <c r="H242" s="8"/>
@@ -8982,7 +8982,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F243" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G243" s="8"/>
       <c r="H243" s="8"/>
@@ -9002,7 +9002,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F244" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G244" s="8"/>
       <c r="H244" s="8"/>
@@ -9024,7 +9024,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F245" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -9046,7 +9046,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F246" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="F247" s="7">
-        <v>0.35</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -9108,7 +9108,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F249" s="7">
-        <v>0.383333333333333</v>
+        <v>0.466666666666666</v>
       </c>
       <c r="G249" s="8"/>
       <c r="H249" s="8"/>
@@ -9150,7 +9150,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F251" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="F252" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G252" s="8"/>
       <c r="H252" s="8"/>
@@ -9214,7 +9214,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F254" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
@@ -9254,7 +9254,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F256" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
@@ -9314,7 +9314,7 @@
         <v>0.75</v>
       </c>
       <c r="F259" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G259" s="8"/>
       <c r="H259" s="8"/>
@@ -9334,7 +9334,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F260" s="7">
-        <v>0.433333333333333</v>
+        <v>0.5166666666666661</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
@@ -9354,7 +9354,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F261" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="8"/>
@@ -9376,7 +9376,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F262" s="7">
-        <v>0.45</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
@@ -9418,7 +9418,7 @@
         <v>0.578947368421053</v>
       </c>
       <c r="F264" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G264" s="8"/>
       <c r="H264" s="8"/>
@@ -9438,7 +9438,7 @@
         <v>0.543859649122807</v>
       </c>
       <c r="F265" s="7">
-        <v>0.483333333333333</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
@@ -9460,7 +9460,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F266" s="7">
-        <v>0.233333333333333</v>
+        <v>0.316666666666666</v>
       </c>
       <c r="G266" s="8"/>
       <c r="H266" s="8"/>
@@ -9480,7 +9480,7 @@
         <v>0.553571428571429</v>
       </c>
       <c r="F267" s="7">
-        <v>0.660714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="G267" s="8"/>
       <c r="H267" s="8"/>
@@ -9502,7 +9502,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F268" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G268" s="8"/>
       <c r="H268" s="8"/>
@@ -9522,7 +9522,7 @@
         <v>0.625</v>
       </c>
       <c r="F269" s="7">
-        <v>0.410714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="G269" s="8"/>
       <c r="H269" s="8"/>
@@ -9564,7 +9564,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F271" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
@@ -9586,7 +9586,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F272" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
@@ -9628,7 +9628,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F274" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G274" s="8"/>
       <c r="H274" s="8"/>
@@ -9688,7 +9688,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F277" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
@@ -9708,7 +9708,7 @@
         <v>0.75</v>
       </c>
       <c r="F278" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
@@ -9730,7 +9730,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F279" s="7">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
@@ -9752,7 +9752,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F280" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
@@ -9774,7 +9774,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F281" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
@@ -9796,7 +9796,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F282" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
@@ -9816,7 +9816,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F283" s="7">
-        <v>0.517857142857143</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
@@ -9838,7 +9838,7 @@
         <v>0.403508771929825</v>
       </c>
       <c r="F284" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
@@ -9860,7 +9860,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F285" s="7">
-        <v>0.466666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="8"/>
@@ -9882,7 +9882,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F286" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G286" s="8"/>
       <c r="H286" s="8"/>
@@ -9904,7 +9904,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F287" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G287" s="8"/>
       <c r="H287" s="8"/>
@@ -9924,7 +9924,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F288" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G288" s="8"/>
       <c r="H288" s="8"/>
@@ -9946,7 +9946,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F289" s="7">
-        <v>0.4</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="G289" s="8"/>
       <c r="H289" s="8"/>
@@ -9968,7 +9968,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F290" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G290" s="8"/>
       <c r="H290" s="8"/>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="F292" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G292" s="8"/>
       <c r="H292" s="8"/>
@@ -10030,7 +10030,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F293" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G293" s="8"/>
       <c r="H293" s="8"/>
@@ -10052,7 +10052,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F294" s="7">
-        <v>0.633333333333333</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G294" s="8"/>
       <c r="H294" s="8"/>
@@ -10072,7 +10072,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F295" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
@@ -10092,7 +10092,7 @@
         <v>0.75</v>
       </c>
       <c r="F296" s="7">
-        <v>0.678571428571429</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="G296" s="8"/>
       <c r="H296" s="8"/>
@@ -10112,7 +10112,7 @@
         <v>0.839285714285714</v>
       </c>
       <c r="F297" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G297" s="8"/>
       <c r="H297" s="8"/>
@@ -10134,7 +10134,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F298" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G298" s="8"/>
       <c r="H298" s="8"/>
@@ -10154,7 +10154,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F299" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G299" s="8"/>
       <c r="H299" s="8"/>
@@ -10174,7 +10174,7 @@
         <v>0.385964912280702</v>
       </c>
       <c r="F300" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
@@ -10194,7 +10194,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F301" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
@@ -10214,7 +10214,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F302" s="7">
-        <v>0.5166666666666671</v>
+        <v>0.6</v>
       </c>
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
@@ -10234,7 +10234,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="F303" s="7">
-        <v>0.910714285714286</v>
+        <v>1</v>
       </c>
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
@@ -10338,7 +10338,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F308" s="7">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="G308" s="8"/>
       <c r="H308" s="8"/>
@@ -10358,7 +10358,7 @@
         <v>0.5</v>
       </c>
       <c r="F309" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G309" s="8"/>
       <c r="H309" s="8"/>
@@ -10380,7 +10380,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F310" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G310" s="8"/>
       <c r="H310" s="8"/>
@@ -10400,7 +10400,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F311" s="7">
-        <v>0.266666666666667</v>
+        <v>0.35</v>
       </c>
       <c r="G311" s="8"/>
       <c r="H311" s="8"/>
@@ -10420,7 +10420,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F312" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G312" s="8"/>
       <c r="H312" s="8"/>
@@ -10440,7 +10440,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F313" s="7">
-        <v>0.483333333333333</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G313" s="8"/>
       <c r="H313" s="8"/>
@@ -10460,7 +10460,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F314" s="7">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
@@ -10480,7 +10480,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F315" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G315" s="8"/>
       <c r="H315" s="8"/>
@@ -10542,7 +10542,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F318" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
@@ -10562,7 +10562,7 @@
         <v>0.8947368421052631</v>
       </c>
       <c r="F319" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G319" s="8"/>
       <c r="H319" s="8"/>
@@ -10582,7 +10582,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F320" s="7">
-        <v>0.732142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="G320" s="8"/>
       <c r="H320" s="8"/>
@@ -10622,7 +10622,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F322" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G322" s="8"/>
       <c r="H322" s="8"/>
@@ -10642,7 +10642,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F323" s="7">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
@@ -10662,7 +10662,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F324" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G324" s="8"/>
       <c r="H324" s="8"/>
@@ -10684,7 +10684,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F325" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G325" s="8"/>
       <c r="H325" s="8"/>
@@ -10704,7 +10704,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F326" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G326" s="8"/>
       <c r="H326" s="8"/>
@@ -10746,7 +10746,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F328" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G328" s="8"/>
       <c r="H328" s="8"/>
@@ -10766,7 +10766,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F329" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G329" s="8"/>
       <c r="H329" s="8"/>
@@ -10788,7 +10788,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F330" s="7">
-        <v>0.6</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="G330" s="8"/>
       <c r="H330" s="8"/>
@@ -10808,7 +10808,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F331" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
@@ -10828,7 +10828,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F332" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G332" s="8"/>
       <c r="H332" s="8"/>
@@ -10848,7 +10848,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F333" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G333" s="8"/>
       <c r="H333" s="8"/>
@@ -10890,7 +10890,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F335" s="7">
-        <v>0.732142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="G335" s="8"/>
       <c r="H335" s="8"/>
@@ -10910,7 +10910,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F336" s="7">
-        <v>0.6</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
@@ -10954,7 +10954,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F338" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G338" s="8"/>
       <c r="H338" s="8"/>
@@ -10974,7 +10974,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F339" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G339" s="8"/>
       <c r="H339" s="8"/>
@@ -10996,7 +10996,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F340" s="7">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G340" s="8"/>
       <c r="H340" s="8"/>
@@ -11016,7 +11016,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F341" s="7">
-        <v>0.716666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="G341" s="8"/>
       <c r="H341" s="8"/>
@@ -11056,7 +11056,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F343" s="7">
-        <v>0.45</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G343" s="8"/>
       <c r="H343" s="8"/>
@@ -11078,7 +11078,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F344" s="7">
-        <v>0.683333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G344" s="8"/>
       <c r="H344" s="8"/>
@@ -11100,7 +11100,7 @@
         <v>0.56140350877193</v>
       </c>
       <c r="F345" s="7">
-        <v>0.5166666666666671</v>
+        <v>0.6</v>
       </c>
       <c r="G345" s="8"/>
       <c r="H345" s="8"/>
@@ -11122,7 +11122,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F346" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G346" s="8"/>
       <c r="H346" s="8"/>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="F347" s="7">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="G347" s="8"/>
       <c r="H347" s="8"/>
@@ -11166,7 +11166,7 @@
         <v>0.771929824561404</v>
       </c>
       <c r="F348" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G348" s="8"/>
       <c r="H348" s="8"/>
@@ -11206,7 +11206,7 @@
         <v>0.625</v>
       </c>
       <c r="F350" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G350" s="8"/>
       <c r="H350" s="8"/>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="F351" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G351" s="8"/>
       <c r="H351" s="8"/>
@@ -11246,7 +11246,7 @@
         <v>0.8947368421052631</v>
       </c>
       <c r="F352" s="7">
-        <v>0.45</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G352" s="8"/>
       <c r="H352" s="8"/>
@@ -11266,7 +11266,7 @@
         <v>0.589285714285714</v>
       </c>
       <c r="F353" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G353" s="8"/>
       <c r="H353" s="8"/>
@@ -11286,7 +11286,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F354" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G354" s="8"/>
       <c r="H354" s="8"/>
@@ -11330,7 +11330,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F356" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G356" s="8"/>
       <c r="H356" s="8"/>
@@ -11350,7 +11350,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="F357" s="7">
-        <v>0.625</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G357" s="8"/>
       <c r="H357" s="8"/>
@@ -11390,7 +11390,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F359" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G359" s="8"/>
       <c r="H359" s="8"/>
@@ -11412,7 +11412,7 @@
         <v>0.8245614035087721</v>
       </c>
       <c r="F360" s="7">
-        <v>0.233333333333333</v>
+        <v>0.316666666666666</v>
       </c>
       <c r="G360" s="8"/>
       <c r="H360" s="8"/>
@@ -11432,7 +11432,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F361" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G361" s="8"/>
       <c r="H361" s="8"/>
@@ -11452,7 +11452,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F362" s="7">
-        <v>0.589285714285714</v>
+        <v>0.678571428571428</v>
       </c>
       <c r="G362" s="8"/>
       <c r="H362" s="8"/>
@@ -11512,7 +11512,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F365" s="7">
-        <v>0.678571428571429</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="G365" s="8"/>
       <c r="H365" s="8"/>
@@ -11554,7 +11554,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F367" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G367" s="8"/>
       <c r="H367" s="8"/>
@@ -11596,7 +11596,7 @@
         <v>0.684210526315789</v>
       </c>
       <c r="F369" s="7">
-        <v>0.35</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="G369" s="8"/>
       <c r="H369" s="8"/>
@@ -11618,7 +11618,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F370" s="7">
-        <v>0.116666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="G370" s="8"/>
       <c r="H370" s="8"/>
@@ -11638,7 +11638,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F371" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G371" s="8"/>
       <c r="H371" s="8"/>
@@ -11660,7 +11660,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F372" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G372" s="8"/>
       <c r="H372" s="8"/>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="F373" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G373" s="8"/>
       <c r="H373" s="8"/>
@@ -11700,7 +11700,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F374" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G374" s="8"/>
       <c r="H374" s="8"/>
@@ -11760,7 +11760,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F377" s="7">
-        <v>0.714285714285714</v>
+        <v>0.803571428571428</v>
       </c>
       <c r="G377" s="8"/>
       <c r="H377" s="8"/>
@@ -11780,7 +11780,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F378" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G378" s="8"/>
       <c r="H378" s="8"/>
@@ -11800,7 +11800,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="F379" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G379" s="8"/>
       <c r="H379" s="8"/>
@@ -11822,7 +11822,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F380" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G380" s="8"/>
       <c r="H380" s="8"/>
@@ -11844,7 +11844,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F381" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G381" s="8"/>
       <c r="H381" s="8"/>
@@ -11866,7 +11866,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F382" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G382" s="8"/>
       <c r="H382" s="8"/>
@@ -11886,7 +11886,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F383" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G383" s="8"/>
       <c r="H383" s="8"/>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="F384" s="7">
-        <v>0.196428571428571</v>
+        <v>0.285714285714285</v>
       </c>
       <c r="G384" s="8"/>
       <c r="H384" s="8"/>
@@ -11926,7 +11926,7 @@
         <v>0.732142857142857</v>
       </c>
       <c r="F385" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
@@ -11948,7 +11948,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F386" s="7">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G386" s="8"/>
       <c r="H386" s="8"/>
@@ -11968,7 +11968,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F387" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G387" s="8"/>
       <c r="H387" s="8"/>
@@ -11988,7 +11988,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F388" s="7">
-        <v>0.633333333333333</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G388" s="8"/>
       <c r="H388" s="8"/>
@@ -12008,7 +12008,7 @@
         <v>0.8947368421052631</v>
       </c>
       <c r="F389" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G389" s="8"/>
       <c r="H389" s="8"/>
@@ -12028,7 +12028,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F390" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G390" s="8"/>
       <c r="H390" s="8"/>
@@ -12048,7 +12048,7 @@
         <v>0.75</v>
       </c>
       <c r="F391" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G391" s="8"/>
       <c r="H391" s="8"/>
@@ -12068,7 +12068,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F392" s="7">
-        <v>0.625</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G392" s="8"/>
       <c r="H392" s="8"/>
@@ -12090,7 +12090,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F393" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G393" s="8"/>
       <c r="H393" s="8"/>
@@ -12110,7 +12110,7 @@
         <v>0.696428571428571</v>
       </c>
       <c r="F394" s="7">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G394" s="8"/>
       <c r="H394" s="8"/>
@@ -12130,7 +12130,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F395" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G395" s="8"/>
       <c r="H395" s="8"/>
@@ -12152,7 +12152,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F396" s="7">
-        <v>0.316666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G396" s="8"/>
       <c r="H396" s="8"/>
@@ -12172,7 +12172,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F397" s="7">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G397" s="8"/>
       <c r="H397" s="8"/>
@@ -12192,7 +12192,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F398" s="7">
-        <v>0.583333333333333</v>
+        <v>0.666666666666666</v>
       </c>
       <c r="G398" s="8"/>
       <c r="H398" s="8"/>
@@ -12212,7 +12212,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F399" s="7">
-        <v>0.483333333333333</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G399" s="8"/>
       <c r="H399" s="8"/>
@@ -12232,7 +12232,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F400" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G400" s="8"/>
       <c r="H400" s="8"/>
@@ -12252,7 +12252,7 @@
         <v>0.553571428571429</v>
       </c>
       <c r="F401" s="7">
-        <v>0.678571428571429</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
@@ -12274,7 +12274,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F402" s="7">
-        <v>0.333333333333333</v>
+        <v>0.416666666666666</v>
       </c>
       <c r="G402" s="8"/>
       <c r="H402" s="8"/>
@@ -12296,7 +12296,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F403" s="7">
-        <v>0.783333333333333</v>
+        <v>0.866666666666666</v>
       </c>
       <c r="G403" s="8"/>
       <c r="H403" s="8"/>
@@ -12316,7 +12316,7 @@
         <v>0.75</v>
       </c>
       <c r="F404" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G404" s="8"/>
       <c r="H404" s="8"/>
@@ -12418,7 +12418,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="F409" s="7">
-        <v>0.428571428571429</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="G409" s="8"/>
       <c r="H409" s="8"/>
@@ -12440,7 +12440,7 @@
         <v>0.807017543859649</v>
       </c>
       <c r="F410" s="7">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G410" s="8"/>
       <c r="H410" s="8"/>
@@ -12462,7 +12462,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F411" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G411" s="8"/>
       <c r="H411" s="8"/>
@@ -12482,7 +12482,7 @@
         <v>0.614035087719298</v>
       </c>
       <c r="F412" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G412" s="8"/>
       <c r="H412" s="8"/>
@@ -12502,7 +12502,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F413" s="7">
-        <v>0.716666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="G413" s="8"/>
       <c r="H413" s="8"/>
@@ -12522,7 +12522,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F414" s="7">
-        <v>0.55</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="G414" s="8"/>
       <c r="H414" s="8"/>
@@ -12542,7 +12542,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F415" s="7">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G415" s="8"/>
       <c r="H415" s="8"/>
@@ -12564,7 +12564,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F416" s="7">
-        <v>0.85</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G416" s="8"/>
       <c r="H416" s="8"/>
@@ -12608,7 +12608,7 @@
         <v>0.842105263157895</v>
       </c>
       <c r="F418" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G418" s="8"/>
       <c r="H418" s="8"/>
@@ -12630,7 +12630,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F419" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G419" s="8"/>
       <c r="H419" s="8"/>
@@ -12670,7 +12670,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F421" s="7">
-        <v>0.466666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="G421" s="8"/>
       <c r="H421" s="8"/>
@@ -12692,7 +12692,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F422" s="7">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G422" s="8"/>
       <c r="H422" s="8"/>
@@ -12705,14 +12705,14 @@
         <v>846</v>
       </c>
       <c r="C423" t="s" s="6">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D423" s="7"/>
       <c r="E423" s="7">
-        <v>0.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="F423" s="7">
-        <v>0.767857142857143</v>
+        <v>0</v>
       </c>
       <c r="G423" s="8"/>
       <c r="H423" s="8"/>
@@ -12725,14 +12725,14 @@
         <v>847</v>
       </c>
       <c r="C424" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D424" s="7"/>
       <c r="E424" s="7">
-        <v>0</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F424" s="7">
-        <v>0</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G424" s="8"/>
       <c r="H424" s="8"/>
@@ -12752,7 +12752,7 @@
         <v>0.553571428571429</v>
       </c>
       <c r="F425" s="7">
-        <v>0.910714285714286</v>
+        <v>1</v>
       </c>
       <c r="G425" s="8"/>
       <c r="H425" s="8"/>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="F426" s="7">
-        <v>0.183333333333333</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G426" s="8"/>
       <c r="H426" s="8"/>
@@ -12792,7 +12792,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F427" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G427" s="8"/>
       <c r="H427" s="8"/>
@@ -12812,7 +12812,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F428" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G428" s="8"/>
       <c r="H428" s="8"/>
@@ -12832,7 +12832,7 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F429" s="7">
-        <v>0.8</v>
+        <v>0.883333333333333</v>
       </c>
       <c r="G429" s="8"/>
       <c r="H429" s="8"/>
@@ -12854,7 +12854,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F430" s="7">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="G430" s="8"/>
       <c r="H430" s="8"/>
@@ -12874,7 +12874,7 @@
         <v>0.428571428571429</v>
       </c>
       <c r="F431" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G431" s="8"/>
       <c r="H431" s="8"/>
@@ -12894,7 +12894,7 @@
         <v>0.596491228070175</v>
       </c>
       <c r="F432" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G432" s="8"/>
       <c r="H432" s="8"/>
@@ -12914,7 +12914,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F433" s="7">
-        <v>0.7666666666666671</v>
+        <v>0.85</v>
       </c>
       <c r="G433" s="8"/>
       <c r="H433" s="8"/>
@@ -12934,7 +12934,7 @@
         <v>0.649122807017544</v>
       </c>
       <c r="F434" s="7">
-        <v>0.616666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G434" s="8"/>
       <c r="H434" s="8"/>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="F435" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G435" s="8"/>
       <c r="H435" s="8"/>
@@ -12976,7 +12976,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F436" s="7">
-        <v>0.533333333333333</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G436" s="8"/>
       <c r="H436" s="8"/>
@@ -12996,7 +12996,7 @@
         <v>0.678571428571429</v>
       </c>
       <c r="F437" s="7">
-        <v>0.767857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G437" s="8"/>
       <c r="H437" s="8"/>
@@ -13016,7 +13016,7 @@
         <v>0.859649122807018</v>
       </c>
       <c r="F438" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G438" s="8"/>
       <c r="H438" s="8"/>
@@ -13038,7 +13038,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F439" s="7">
-        <v>0.833333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G439" s="8"/>
       <c r="H439" s="8"/>
@@ -13060,7 +13060,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F440" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G440" s="8"/>
       <c r="H440" s="8"/>
@@ -13100,7 +13100,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F442" s="7">
-        <v>0.696428571428571</v>
+        <v>0.785714285714285</v>
       </c>
       <c r="G442" s="8"/>
       <c r="H442" s="8"/>
@@ -13135,14 +13135,14 @@
         <v>887</v>
       </c>
       <c r="C444" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D444" s="7"/>
       <c r="E444" s="7">
-        <v>0.8947368421052631</v>
+        <v>0</v>
       </c>
       <c r="F444" s="7">
-        <v>0.616666666666667</v>
+        <v>0</v>
       </c>
       <c r="G444" s="8"/>
       <c r="H444" s="8"/>
@@ -13155,14 +13155,14 @@
         <v>888</v>
       </c>
       <c r="C445" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D445" s="7"/>
       <c r="E445" s="7">
-        <v>0</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F445" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G445" s="8"/>
       <c r="H445" s="8"/>
@@ -13182,7 +13182,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F446" s="7">
-        <v>0.65</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G446" s="8"/>
       <c r="H446" s="8"/>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="F447" s="7">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G447" s="8"/>
       <c r="H447" s="8"/>
@@ -13224,7 +13224,7 @@
         <v>0.719298245614035</v>
       </c>
       <c r="F448" s="7">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="G448" s="8"/>
       <c r="H448" s="8"/>
@@ -13244,7 +13244,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F449" s="7">
-        <v>0.571428571428571</v>
+        <v>0.660714285714285</v>
       </c>
       <c r="G449" s="8"/>
       <c r="H449" s="8"/>
@@ -13264,7 +13264,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F450" s="7">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="G450" s="8"/>
       <c r="H450" s="8"/>
@@ -13284,7 +13284,7 @@
         <v>0.789473684210526</v>
       </c>
       <c r="F451" s="7">
-        <v>0.7</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G451" s="8"/>
       <c r="H451" s="8"/>
@@ -13304,7 +13304,7 @@
         <v>0.754385964912281</v>
       </c>
       <c r="F452" s="7">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="G452" s="8"/>
       <c r="H452" s="8"/>
@@ -13326,7 +13326,7 @@
         <v>0.43859649122807</v>
       </c>
       <c r="F453" s="7">
-        <v>0.45</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G453" s="8"/>
       <c r="H453" s="8"/>
@@ -13346,7 +13346,7 @@
         <v>0.446428571428571</v>
       </c>
       <c r="F454" s="7">
-        <v>0.535714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="G454" s="8"/>
       <c r="H454" s="8"/>
@@ -13386,7 +13386,7 @@
         <v>0.607142857142857</v>
       </c>
       <c r="F456" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G456" s="8"/>
       <c r="H456" s="8"/>
@@ -13406,7 +13406,7 @@
         <v>0.803571428571429</v>
       </c>
       <c r="F457" s="7">
-        <v>0.821428571428571</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G457" s="8"/>
       <c r="H457" s="8"/>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="F458" s="7">
-        <v>0.633333333333333</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G458" s="8"/>
       <c r="H458" s="8"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -1228,7 +1228,7 @@
     <t>MAKUSHA</t>
   </si>
   <si>
-    <t>H131357Y</t>
+    <t>H1313570Y</t>
   </si>
   <si>
     <t>MAKUVARA</t>
@@ -2756,7 +2756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2768,13 +2768,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2787,8 +2792,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2841,38 +2852,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2895,6 +2924,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2911,10 +2942,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -3091,11 +3122,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3104,7 +3138,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3119,19 +3153,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3379,12 +3413,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3675,7 +3709,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3955,9 +3989,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H458"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -4081,7 +4113,9 @@
       <c r="C6" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E6" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -4165,7 +4199,9 @@
       <c r="C10" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E10" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -4491,7 +4527,9 @@
       <c r="C26" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E26" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -5045,7 +5083,9 @@
       <c r="C53" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E53" s="7">
         <v>0.736842105263158</v>
       </c>
@@ -5473,7 +5513,9 @@
       <c r="C74" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E74" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -7279,7 +7321,9 @@
       <c r="C161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E161" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -7843,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
+      <c r="H188" s="9"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="6">
@@ -8617,7 +8661,9 @@
       <c r="C226" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D226" s="7"/>
+      <c r="D226" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E226" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -10905,7 +10951,9 @@
       <c r="C336" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D336" s="7"/>
+      <c r="D336" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E336" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -11051,7 +11099,9 @@
       <c r="C343" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D343" s="7"/>
+      <c r="D343" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E343" s="7">
         <v>0.631578947368421</v>
       </c>
@@ -11241,7 +11291,9 @@
       <c r="C352" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D352" s="7"/>
+      <c r="D352" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E352" s="7">
         <v>0.8947368421052631</v>
       </c>
@@ -11427,7 +11479,9 @@
       <c r="C361" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D361" s="7"/>
+      <c r="D361" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E361" s="7">
         <v>0.859649122807018</v>
       </c>
@@ -12023,7 +12077,9 @@
       <c r="C390" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D390" s="7"/>
+      <c r="D390" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E390" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -12187,7 +12243,9 @@
       <c r="C398" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D398" s="7"/>
+      <c r="D398" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E398" s="7">
         <v>0.614035087719298</v>
       </c>
@@ -12787,7 +12845,9 @@
       <c r="C427" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D427" s="7"/>
+      <c r="D427" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E427" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -13197,7 +13257,9 @@
       <c r="C447" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D447" s="7"/>
+      <c r="D447" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E447" s="7">
         <v>0</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="916">
   <si>
     <t>Surname</t>
   </si>
@@ -577,12 +577,12 @@
     <t>CHIWARE</t>
   </si>
   <si>
+    <t>H200526G</t>
+  </si>
+  <si>
     <t>H200518E</t>
   </si>
   <si>
-    <t>H200526G</t>
-  </si>
-  <si>
     <t>CHIWAYA</t>
   </si>
   <si>
@@ -736,12 +736,12 @@
     <t>GARIKAI</t>
   </si>
   <si>
+    <t>H200628T</t>
+  </si>
+  <si>
     <t>H200619N</t>
   </si>
   <si>
-    <t>H200628T</t>
-  </si>
-  <si>
     <t>GARIRAI</t>
   </si>
   <si>
@@ -1603,6 +1603,12 @@
     <t>H200961G</t>
   </si>
   <si>
+    <t>Mhaka</t>
+  </si>
+  <si>
+    <t>H170064T</t>
+  </si>
+  <si>
     <t>MHANGA</t>
   </si>
   <si>
@@ -1636,12 +1642,12 @@
     <t>MOYO</t>
   </si>
   <si>
+    <t>H200632C</t>
+  </si>
+  <si>
     <t>H190116F</t>
   </si>
   <si>
-    <t>H200632C</t>
-  </si>
-  <si>
     <t>MPAKAME</t>
   </si>
   <si>
@@ -1699,12 +1705,12 @@
     <t>MUCHENA</t>
   </si>
   <si>
+    <t>H200059B</t>
+  </si>
+  <si>
     <t>H200986C</t>
   </si>
   <si>
-    <t>H200059B</t>
-  </si>
-  <si>
     <t>MUCHENJE</t>
   </si>
   <si>
@@ -1747,12 +1753,12 @@
     <t>MUDIWA</t>
   </si>
   <si>
+    <t>H200836V</t>
+  </si>
+  <si>
     <t>H200623M</t>
   </si>
   <si>
-    <t>H200836V</t>
-  </si>
-  <si>
     <t>MUDUMANI</t>
   </si>
   <si>
@@ -2269,6 +2275,12 @@
     <t>H200640Y</t>
   </si>
   <si>
+    <t>Nleya</t>
+  </si>
+  <si>
+    <t>H180467Q</t>
+  </si>
+  <si>
     <t>NTHWANA</t>
   </si>
   <si>
@@ -2326,12 +2338,12 @@
     <t>NYAMUKAPA</t>
   </si>
   <si>
+    <t>H200138P</t>
+  </si>
+  <si>
     <t>H200780N</t>
   </si>
   <si>
-    <t>H200138P</t>
-  </si>
-  <si>
     <t>NYAMUWOMBA</t>
   </si>
   <si>
@@ -2377,12 +2389,12 @@
     <t>NYONI</t>
   </si>
   <si>
+    <t>H200329M</t>
+  </si>
+  <si>
     <t>H200655J</t>
   </si>
   <si>
-    <t>H200329M</t>
-  </si>
-  <si>
     <t>H200464R</t>
   </si>
   <si>
@@ -2551,12 +2563,12 @@
     <t>SITHOLE</t>
   </si>
   <si>
+    <t>H200404E</t>
+  </si>
+  <si>
     <t>H200432H</t>
   </si>
   <si>
-    <t>H200404E</t>
-  </si>
-  <si>
     <t>SITOTOMBE</t>
   </si>
   <si>
@@ -2674,10 +2686,10 @@
     <t>ZENDA</t>
   </si>
   <si>
+    <t>H200309F</t>
+  </si>
+  <si>
     <t>H190185X</t>
-  </si>
-  <si>
-    <t>H200309F</t>
   </si>
   <si>
     <t>ZHANDA</t>
@@ -3987,7 +3999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H458"/>
+  <dimension ref="A1:H460"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4040,7 +4052,9 @@
       <c r="F2" s="4">
         <v>0.266666666666666</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
@@ -4060,7 +4074,9 @@
       <c r="F3" s="7">
         <v>0.821428571428571</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -4080,7 +4096,9 @@
       <c r="F4" s="7">
         <v>0.45</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -4100,7 +4118,9 @@
       <c r="F5" s="7">
         <v>0.4</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -4122,7 +4142,9 @@
       <c r="F6" s="7">
         <v>0.933333333333333</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -4144,7 +4166,9 @@
       <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -4166,7 +4190,9 @@
       <c r="F8" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H8" s="8"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -4186,7 +4212,9 @@
       <c r="F9" s="7">
         <v>0.683333333333333</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7">
+        <v>0.784615384615385</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -4208,7 +4236,9 @@
       <c r="F10" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -4228,7 +4258,9 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -4248,7 +4280,9 @@
       <c r="F12" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7">
+        <v>0.8</v>
+      </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -4268,7 +4302,9 @@
       <c r="F13" s="7">
         <v>0.55</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -4288,7 +4324,9 @@
       <c r="F14" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -4310,7 +4348,9 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -4330,7 +4370,9 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -4352,7 +4394,9 @@
       <c r="F17" s="7">
         <v>0.85</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -4372,7 +4416,9 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -4392,7 +4438,9 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -4412,7 +4460,9 @@
       <c r="F20" s="7">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -4432,7 +4482,9 @@
       <c r="F21" s="7">
         <v>0.678571428571428</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -4452,7 +4504,9 @@
       <c r="F22" s="7">
         <v>0.660714285714285</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -4472,7 +4526,9 @@
       <c r="F23" s="7">
         <v>0.4</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -4494,7 +4550,9 @@
       <c r="F24" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -4514,7 +4572,9 @@
       <c r="F25" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -4536,7 +4596,9 @@
       <c r="F26" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -4556,7 +4618,9 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -4576,7 +4640,9 @@
       <c r="F28" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -4596,7 +4662,9 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -4618,7 +4686,9 @@
       <c r="F30" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -4640,7 +4710,9 @@
       <c r="F31" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -4662,7 +4734,9 @@
       <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -4682,7 +4756,9 @@
       <c r="F33" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -4702,7 +4778,9 @@
       <c r="F34" s="7">
         <v>0.266666666666666</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="7">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -4724,7 +4802,9 @@
       <c r="F35" s="7">
         <v>0.6</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -4744,7 +4824,9 @@
       <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -4764,7 +4846,9 @@
       <c r="F37" s="7">
         <v>0.75</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="7">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -4786,7 +4870,9 @@
       <c r="F38" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -4806,7 +4892,9 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -4826,7 +4914,9 @@
       <c r="F40" s="7">
         <v>0.633333333333333</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -4846,7 +4936,9 @@
       <c r="F41" s="7">
         <v>0.5</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -4868,7 +4960,9 @@
       <c r="F42" s="7">
         <v>0.633333333333333</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H42" s="8"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -4888,7 +4982,9 @@
       <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -4910,7 +5006,9 @@
       <c r="F44" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -4930,7 +5028,9 @@
       <c r="F45" s="7">
         <v>0.716666666666666</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="7">
+        <v>0.4</v>
+      </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -4950,7 +5050,9 @@
       <c r="F46" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -4970,7 +5072,9 @@
       <c r="F47" s="7">
         <v>0.607142857142857</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H47" s="8"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -4990,7 +5094,9 @@
       <c r="F48" s="7">
         <v>0.857142857142857</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -5010,7 +5116,9 @@
       <c r="F49" s="7">
         <v>0.75</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -5030,7 +5138,9 @@
       <c r="F50" s="7">
         <v>0.767857142857143</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -5050,7 +5160,9 @@
       <c r="F51" s="7">
         <v>0.428571428571428</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -5070,7 +5182,9 @@
       <c r="F52" s="7">
         <v>0</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -5092,7 +5206,9 @@
       <c r="F53" s="7">
         <v>0.266666666666666</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -5112,7 +5228,9 @@
       <c r="F54" s="7">
         <v>0</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -5134,7 +5252,9 @@
       <c r="F55" s="7">
         <v>0.566666666666666</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
@@ -5154,7 +5274,9 @@
       <c r="F56" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G56" s="8"/>
+      <c r="G56" s="7">
+        <v>0.8</v>
+      </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -5174,7 +5296,9 @@
       <c r="F57" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G57" s="8"/>
+      <c r="G57" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -5194,7 +5318,9 @@
       <c r="F58" s="7">
         <v>0.85</v>
       </c>
-      <c r="G58" s="8"/>
+      <c r="G58" s="7">
+        <v>0.7384615384615379</v>
+      </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
@@ -5214,7 +5340,9 @@
       <c r="F59" s="7">
         <v>0.857142857142857</v>
       </c>
-      <c r="G59" s="8"/>
+      <c r="G59" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H59" s="8"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -5234,7 +5362,9 @@
       <c r="F60" s="7">
         <v>0</v>
       </c>
-      <c r="G60" s="8"/>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
@@ -5256,7 +5386,9 @@
       <c r="F61" s="7">
         <v>0.4</v>
       </c>
-      <c r="G61" s="8"/>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
       <c r="H61" s="8"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -5276,7 +5408,9 @@
       <c r="F62" s="7">
         <v>0</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
       <c r="H62" s="8"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -5296,7 +5430,9 @@
       <c r="F63" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
       <c r="H63" s="8"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -5316,7 +5452,9 @@
       <c r="F64" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
       <c r="H64" s="8"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -5338,7 +5476,9 @@
       <c r="F65" s="7">
         <v>0.35</v>
       </c>
-      <c r="G65" s="8"/>
+      <c r="G65" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H65" s="8"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -5358,7 +5498,9 @@
       <c r="F66" s="7">
         <v>0.428571428571428</v>
       </c>
-      <c r="G66" s="8"/>
+      <c r="G66" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H66" s="8"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -5378,7 +5520,9 @@
       <c r="F67" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G67" s="8"/>
+      <c r="G67" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H67" s="8"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -5398,7 +5542,9 @@
       <c r="F68" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="G68" s="8"/>
+      <c r="G68" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H68" s="8"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -5418,7 +5564,9 @@
       <c r="F69" s="7">
         <v>0.785714285714285</v>
       </c>
-      <c r="G69" s="8"/>
+      <c r="G69" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H69" s="8"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -5438,7 +5586,9 @@
       <c r="F70" s="7">
         <v>0.85</v>
       </c>
-      <c r="G70" s="8"/>
+      <c r="G70" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H70" s="8"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -5458,7 +5608,9 @@
       <c r="F71" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G71" s="8"/>
+      <c r="G71" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H71" s="8"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -5480,7 +5632,9 @@
       <c r="F72" s="7">
         <v>0.333333333333333</v>
       </c>
-      <c r="G72" s="8"/>
+      <c r="G72" s="7">
+        <v>0.369230769230769</v>
+      </c>
       <c r="H72" s="8"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -5500,7 +5654,9 @@
       <c r="F73" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G73" s="8"/>
+      <c r="G73" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H73" s="8"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -5522,7 +5678,9 @@
       <c r="F74" s="7">
         <v>0.85</v>
       </c>
-      <c r="G74" s="8"/>
+      <c r="G74" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H74" s="8"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -5542,7 +5700,9 @@
       <c r="F75" s="7">
         <v>0.660714285714285</v>
       </c>
-      <c r="G75" s="8"/>
+      <c r="G75" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H75" s="8"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -5562,7 +5722,9 @@
       <c r="F76" s="7">
         <v>0</v>
       </c>
-      <c r="G76" s="8"/>
+      <c r="G76" s="7">
+        <v>0.369230769230769</v>
+      </c>
       <c r="H76" s="8"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -5582,7 +5744,9 @@
       <c r="F77" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G77" s="8"/>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
       <c r="H77" s="8"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -5602,7 +5766,9 @@
       <c r="F78" s="7">
         <v>0</v>
       </c>
-      <c r="G78" s="8"/>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
       <c r="H78" s="8"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -5622,7 +5788,9 @@
       <c r="F79" s="7">
         <v>0.464285714285714</v>
       </c>
-      <c r="G79" s="8"/>
+      <c r="G79" s="7">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H79" s="8"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -5642,7 +5810,9 @@
       <c r="F80" s="7">
         <v>1</v>
       </c>
-      <c r="G80" s="8"/>
+      <c r="G80" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H80" s="8"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -5662,7 +5832,9 @@
       <c r="F81" s="7">
         <v>1</v>
       </c>
-      <c r="G81" s="8"/>
+      <c r="G81" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H81" s="8"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -5682,7 +5854,9 @@
       <c r="F82" s="7">
         <v>0</v>
       </c>
-      <c r="G82" s="8"/>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
       <c r="H82" s="8"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -5704,7 +5878,9 @@
       <c r="F83" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G83" s="8"/>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
       <c r="H83" s="8"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -5726,7 +5902,9 @@
       <c r="F84" s="7">
         <v>0.55</v>
       </c>
-      <c r="G84" s="8"/>
+      <c r="G84" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H84" s="8"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -5748,7 +5926,9 @@
       <c r="F85" s="7">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G85" s="8"/>
+      <c r="G85" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H85" s="8"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -5768,7 +5948,9 @@
       <c r="F86" s="7">
         <v>0.85</v>
       </c>
-      <c r="G86" s="8"/>
+      <c r="G86" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -5779,16 +5961,18 @@
         <v>188</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
-        <v>0.754385964912281</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F87" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G87" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H87" s="8"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -5799,16 +5983,18 @@
         <v>189</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7">
-        <v>0.736842105263158</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F88" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G88" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H88" s="8"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -5830,7 +6016,9 @@
       <c r="F89" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G89" s="8"/>
+      <c r="G89" s="7">
+        <v>0.676923076923077</v>
+      </c>
       <c r="H89" s="8"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -5850,7 +6038,9 @@
       <c r="F90" s="7">
         <v>0.375</v>
       </c>
-      <c r="G90" s="8"/>
+      <c r="G90" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H90" s="8"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -5870,7 +6060,9 @@
       <c r="F91" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G91" s="8"/>
+      <c r="G91" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H91" s="8"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -5892,7 +6084,9 @@
       <c r="F92" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G92" s="8"/>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
       <c r="H92" s="8"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -5912,7 +6106,9 @@
       <c r="F93" s="7">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G93" s="8"/>
+      <c r="G93" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H93" s="8"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -5934,7 +6130,9 @@
       <c r="F94" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G94" s="8"/>
+      <c r="G94" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H94" s="8"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -5956,7 +6154,9 @@
       <c r="F95" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G95" s="8"/>
+      <c r="G95" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H95" s="8"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -5978,7 +6178,9 @@
       <c r="F96" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G96" s="8"/>
+      <c r="G96" s="7">
+        <v>0.630769230769231</v>
+      </c>
       <c r="H96" s="8"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -5998,7 +6200,9 @@
       <c r="F97" s="7">
         <v>0.857142857142857</v>
       </c>
-      <c r="G97" s="8"/>
+      <c r="G97" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H97" s="8"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -6018,7 +6222,9 @@
       <c r="F98" s="7">
         <v>0.517857142857143</v>
       </c>
-      <c r="G98" s="8"/>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
       <c r="H98" s="8"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -6038,7 +6244,9 @@
       <c r="F99" s="7">
         <v>0</v>
       </c>
-      <c r="G99" s="8"/>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
       <c r="H99" s="8"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -6060,7 +6268,9 @@
       <c r="F100" s="7">
         <v>0.85</v>
       </c>
-      <c r="G100" s="8"/>
+      <c r="G100" s="7">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H100" s="8"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -6082,7 +6292,9 @@
       <c r="F101" s="7">
         <v>0</v>
       </c>
-      <c r="G101" s="8"/>
+      <c r="G101" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H101" s="8"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -6102,7 +6314,9 @@
       <c r="F102" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G102" s="8"/>
+      <c r="G102" s="7">
+        <v>0.415384615384615</v>
+      </c>
       <c r="H102" s="8"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -6122,7 +6336,9 @@
       <c r="F103" s="7">
         <v>0</v>
       </c>
-      <c r="G103" s="8"/>
+      <c r="G103" s="7">
+        <v>0</v>
+      </c>
       <c r="H103" s="8"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -6144,7 +6360,9 @@
       <c r="F104" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G104" s="8"/>
+      <c r="G104" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="H104" s="8"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -6166,7 +6384,9 @@
       <c r="F105" s="7">
         <v>0.716666666666666</v>
       </c>
-      <c r="G105" s="8"/>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
       <c r="H105" s="8"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -6186,7 +6406,9 @@
       <c r="F106" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G106" s="8"/>
+      <c r="G106" s="7">
+        <v>0.7538461538461541</v>
+      </c>
       <c r="H106" s="8"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -6206,7 +6428,9 @@
       <c r="F107" s="7">
         <v>0.857142857142857</v>
       </c>
-      <c r="G107" s="8"/>
+      <c r="G107" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H107" s="8"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -6228,7 +6452,9 @@
       <c r="F108" s="7">
         <v>0.85</v>
       </c>
-      <c r="G108" s="8"/>
+      <c r="G108" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H108" s="8"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -6250,7 +6476,9 @@
       <c r="F109" s="7">
         <v>1</v>
       </c>
-      <c r="G109" s="8"/>
+      <c r="G109" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H109" s="8"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -6272,7 +6500,9 @@
       <c r="F110" s="7">
         <v>0.366666666666666</v>
       </c>
-      <c r="G110" s="8"/>
+      <c r="G110" s="7">
+        <v>0.138461538461538</v>
+      </c>
       <c r="H110" s="8"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -6294,7 +6524,9 @@
       <c r="F111" s="7">
         <v>0.85</v>
       </c>
-      <c r="G111" s="8"/>
+      <c r="G111" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H111" s="8"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -6316,7 +6548,9 @@
       <c r="F112" s="7">
         <v>1</v>
       </c>
-      <c r="G112" s="8"/>
+      <c r="G112" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H112" s="8"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -6336,7 +6570,9 @@
       <c r="F113" s="7">
         <v>0.5</v>
       </c>
-      <c r="G113" s="8"/>
+      <c r="G113" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H113" s="8"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -6347,18 +6583,18 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D114" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D114" s="7"/>
       <c r="E114" s="7">
-        <v>0.719298245614035</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F114" s="7">
-        <v>0</v>
-      </c>
-      <c r="G114" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H114" s="8"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -6369,16 +6605,20 @@
         <v>242</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D115" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E115" s="7">
-        <v>0.642857142857143</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F115" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G115" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0</v>
+      </c>
       <c r="H115" s="8"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -6398,7 +6638,9 @@
       <c r="F116" s="7">
         <v>0.678571428571428</v>
       </c>
-      <c r="G116" s="8"/>
+      <c r="G116" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H116" s="8"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -6418,7 +6660,9 @@
       <c r="F117" s="7">
         <v>0</v>
       </c>
-      <c r="G117" s="8"/>
+      <c r="G117" s="7">
+        <v>0</v>
+      </c>
       <c r="H117" s="8"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -6438,7 +6682,9 @@
       <c r="F118" s="7">
         <v>0.821428571428571</v>
       </c>
-      <c r="G118" s="8"/>
+      <c r="G118" s="7">
+        <v>0.7384615384615379</v>
+      </c>
       <c r="H118" s="8"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -6460,7 +6706,9 @@
       <c r="F119" s="7">
         <v>0.683333333333333</v>
       </c>
-      <c r="G119" s="8"/>
+      <c r="G119" s="7">
+        <v>0.7538461538461541</v>
+      </c>
       <c r="H119" s="8"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -6482,7 +6730,9 @@
       <c r="F120" s="7">
         <v>0.333333333333333</v>
       </c>
-      <c r="G120" s="8"/>
+      <c r="G120" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H120" s="8"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -6502,7 +6752,9 @@
       <c r="F121" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G121" s="8"/>
+      <c r="G121" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H121" s="8"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -6522,7 +6774,9 @@
       <c r="F122" s="7">
         <v>0.803571428571428</v>
       </c>
-      <c r="G122" s="8"/>
+      <c r="G122" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H122" s="8"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -6544,7 +6798,9 @@
       <c r="F123" s="7">
         <v>0.85</v>
       </c>
-      <c r="G123" s="8"/>
+      <c r="G123" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H123" s="8"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -6564,7 +6820,9 @@
       <c r="F124" s="7">
         <v>0.85</v>
       </c>
-      <c r="G124" s="8"/>
+      <c r="G124" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H124" s="8"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -6584,7 +6842,9 @@
       <c r="F125" s="7">
         <v>0.589285714285714</v>
       </c>
-      <c r="G125" s="8"/>
+      <c r="G125" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H125" s="8"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -6604,7 +6864,9 @@
       <c r="F126" s="7">
         <v>0.85</v>
       </c>
-      <c r="G126" s="8"/>
+      <c r="G126" s="7">
+        <v>0.7384615384615379</v>
+      </c>
       <c r="H126" s="8"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -6624,7 +6886,9 @@
       <c r="F127" s="7">
         <v>0.517857142857143</v>
       </c>
-      <c r="G127" s="8"/>
+      <c r="G127" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H127" s="8"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -6644,7 +6908,9 @@
       <c r="F128" s="7">
         <v>0.732142857142857</v>
       </c>
-      <c r="G128" s="8"/>
+      <c r="G128" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H128" s="8"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -6666,7 +6932,9 @@
       <c r="F129" s="7">
         <v>0.85</v>
       </c>
-      <c r="G129" s="8"/>
+      <c r="G129" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H129" s="8"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -6686,7 +6954,9 @@
       <c r="F130" s="7">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G130" s="8"/>
+      <c r="G130" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H130" s="8"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -6706,7 +6976,9 @@
       <c r="F131" s="7">
         <v>0</v>
       </c>
-      <c r="G131" s="8"/>
+      <c r="G131" s="7">
+        <v>0</v>
+      </c>
       <c r="H131" s="8"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -6726,7 +6998,9 @@
       <c r="F132" s="7">
         <v>0.607142857142857</v>
       </c>
-      <c r="G132" s="8"/>
+      <c r="G132" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H132" s="8"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -6746,7 +7020,9 @@
       <c r="F133" s="7">
         <v>0.714285714285714</v>
       </c>
-      <c r="G133" s="8"/>
+      <c r="G133" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H133" s="8"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -6766,7 +7042,9 @@
       <c r="F134" s="7">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G134" s="8"/>
+      <c r="G134" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H134" s="8"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -6788,7 +7066,9 @@
       <c r="F135" s="7">
         <v>0.85</v>
       </c>
-      <c r="G135" s="8"/>
+      <c r="G135" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H135" s="8"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -6808,7 +7088,9 @@
       <c r="F136" s="7">
         <v>0.683333333333333</v>
       </c>
-      <c r="G136" s="8"/>
+      <c r="G136" s="7">
+        <v>0</v>
+      </c>
       <c r="H136" s="8"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -6830,7 +7112,9 @@
       <c r="F137" s="7">
         <v>0</v>
       </c>
-      <c r="G137" s="8"/>
+      <c r="G137" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H137" s="8"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -6850,7 +7134,9 @@
       <c r="F138" s="7">
         <v>0.785714285714285</v>
       </c>
-      <c r="G138" s="8"/>
+      <c r="G138" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H138" s="8"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -6872,7 +7158,9 @@
       <c r="F139" s="7">
         <v>0.7</v>
       </c>
-      <c r="G139" s="8"/>
+      <c r="G139" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H139" s="8"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -6892,7 +7180,9 @@
       <c r="F140" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G140" s="8"/>
+      <c r="G140" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H140" s="8"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -6914,7 +7204,9 @@
       <c r="F141" s="7">
         <v>0.85</v>
       </c>
-      <c r="G141" s="8"/>
+      <c r="G141" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H141" s="8"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -6936,7 +7228,9 @@
       <c r="F142" s="7">
         <v>0.433333333333333</v>
       </c>
-      <c r="G142" s="8"/>
+      <c r="G142" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H142" s="8"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -6956,7 +7250,9 @@
       <c r="F143" s="7">
         <v>0</v>
       </c>
-      <c r="G143" s="8"/>
+      <c r="G143" s="7">
+        <v>0</v>
+      </c>
       <c r="H143" s="8"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -6976,7 +7272,9 @@
       <c r="F144" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G144" s="8"/>
+      <c r="G144" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H144" s="8"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -6998,7 +7296,9 @@
       <c r="F145" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G145" s="8"/>
+      <c r="G145" s="7">
+        <v>0.8</v>
+      </c>
       <c r="H145" s="8"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -7018,7 +7318,9 @@
       <c r="F146" s="7">
         <v>0.4</v>
       </c>
-      <c r="G146" s="8"/>
+      <c r="G146" s="7">
+        <v>0</v>
+      </c>
       <c r="H146" s="8"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -7038,7 +7340,9 @@
       <c r="F147" s="7">
         <v>0.716666666666666</v>
       </c>
-      <c r="G147" s="8"/>
+      <c r="G147" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H147" s="8"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -7060,7 +7364,9 @@
       <c r="F148" s="7">
         <v>0.85</v>
       </c>
-      <c r="G148" s="8"/>
+      <c r="G148" s="7">
+        <v>0</v>
+      </c>
       <c r="H148" s="8"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -7082,7 +7388,9 @@
       <c r="F149" s="7">
         <v>0.2</v>
       </c>
-      <c r="G149" s="8"/>
+      <c r="G149" s="7">
+        <v>0</v>
+      </c>
       <c r="H149" s="8"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -7102,7 +7410,9 @@
       <c r="F150" s="7">
         <v>0.5</v>
       </c>
-      <c r="G150" s="8"/>
+      <c r="G150" s="7">
+        <v>0</v>
+      </c>
       <c r="H150" s="8"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -7122,7 +7432,9 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="8"/>
+      <c r="G151" s="7">
+        <v>0</v>
+      </c>
       <c r="H151" s="8"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -7142,7 +7454,9 @@
       <c r="F152" s="7">
         <v>0</v>
       </c>
-      <c r="G152" s="8"/>
+      <c r="G152" s="7">
+        <v>0</v>
+      </c>
       <c r="H152" s="8"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -7162,7 +7476,9 @@
       <c r="F153" s="7">
         <v>0.416666666666666</v>
       </c>
-      <c r="G153" s="8"/>
+      <c r="G153" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H153" s="8"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -7184,7 +7500,9 @@
       <c r="F154" s="7">
         <v>0.866666666666666</v>
       </c>
-      <c r="G154" s="8"/>
+      <c r="G154" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H154" s="8"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -7206,7 +7524,9 @@
       <c r="F155" s="7">
         <v>0.75</v>
       </c>
-      <c r="G155" s="8"/>
+      <c r="G155" s="7">
+        <v>0.7538461538461541</v>
+      </c>
       <c r="H155" s="8"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -7226,7 +7546,9 @@
       <c r="F156" s="7">
         <v>0.535714285714285</v>
       </c>
-      <c r="G156" s="8"/>
+      <c r="G156" s="7">
+        <v>0.446153846153846</v>
+      </c>
       <c r="H156" s="8"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -7246,7 +7568,9 @@
       <c r="F157" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G157" s="8"/>
+      <c r="G157" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H157" s="8"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -7266,7 +7590,9 @@
       <c r="F158" s="7">
         <v>0</v>
       </c>
-      <c r="G158" s="8"/>
+      <c r="G158" s="7">
+        <v>0</v>
+      </c>
       <c r="H158" s="8"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -7286,7 +7612,9 @@
       <c r="F159" s="7">
         <v>0.75</v>
       </c>
-      <c r="G159" s="8"/>
+      <c r="G159" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H159" s="8"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -7308,7 +7636,9 @@
       <c r="F160" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G160" s="8"/>
+      <c r="G160" s="7">
+        <v>0</v>
+      </c>
       <c r="H160" s="8"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -7330,7 +7660,9 @@
       <c r="F161" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G161" s="8"/>
+      <c r="G161" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H161" s="8"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -7350,7 +7682,9 @@
       <c r="F162" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G162" s="8"/>
+      <c r="G162" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H162" s="8"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -7372,7 +7706,9 @@
       <c r="F163" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G163" s="8"/>
+      <c r="G163" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="H163" s="8"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -7392,7 +7728,9 @@
       <c r="F164" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G164" s="8"/>
+      <c r="G164" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H164" s="8"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -7414,7 +7752,9 @@
       <c r="F165" s="7">
         <v>1</v>
       </c>
-      <c r="G165" s="8"/>
+      <c r="G165" s="7">
+        <v>0.630769230769231</v>
+      </c>
       <c r="H165" s="8"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -7436,7 +7776,9 @@
       <c r="F166" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G166" s="8"/>
+      <c r="G166" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H166" s="8"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -7456,7 +7798,9 @@
       <c r="F167" s="7">
         <v>0</v>
       </c>
-      <c r="G167" s="8"/>
+      <c r="G167" s="7">
+        <v>0</v>
+      </c>
       <c r="H167" s="8"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -7476,7 +7820,9 @@
       <c r="F168" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G168" s="8"/>
+      <c r="G168" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H168" s="8"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -7496,7 +7842,9 @@
       <c r="F169" s="7">
         <v>0.75</v>
       </c>
-      <c r="G169" s="8"/>
+      <c r="G169" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H169" s="8"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -7516,7 +7864,9 @@
       <c r="F170" s="7">
         <v>0.767857142857143</v>
       </c>
-      <c r="G170" s="8"/>
+      <c r="G170" s="7">
+        <v>0.415384615384615</v>
+      </c>
       <c r="H170" s="8"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -7536,7 +7886,9 @@
       <c r="F171" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G171" s="8"/>
+      <c r="G171" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H171" s="8"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -7556,7 +7908,9 @@
       <c r="F172" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G172" s="8"/>
+      <c r="G172" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H172" s="8"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -7576,7 +7930,9 @@
       <c r="F173" s="7">
         <v>0.660714285714285</v>
       </c>
-      <c r="G173" s="8"/>
+      <c r="G173" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H173" s="8"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -7598,7 +7954,9 @@
       <c r="F174" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="G174" s="8"/>
+      <c r="G174" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H174" s="8"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -7618,7 +7976,9 @@
       <c r="F175" s="7">
         <v>0.466666666666666</v>
       </c>
-      <c r="G175" s="8"/>
+      <c r="G175" s="7">
+        <v>0.184615384615385</v>
+      </c>
       <c r="H175" s="8"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -7638,7 +7998,9 @@
       <c r="F176" s="7">
         <v>0.933333333333333</v>
       </c>
-      <c r="G176" s="8"/>
+      <c r="G176" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H176" s="8"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -7660,7 +8022,9 @@
       <c r="F177" s="7">
         <v>0.75</v>
       </c>
-      <c r="G177" s="8"/>
+      <c r="G177" s="7">
+        <v>0</v>
+      </c>
       <c r="H177" s="8"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -7682,7 +8046,9 @@
       <c r="F178" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G178" s="8"/>
+      <c r="G178" s="7">
+        <v>0</v>
+      </c>
       <c r="H178" s="8"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -7702,7 +8068,9 @@
       <c r="F179" s="7">
         <v>0</v>
       </c>
-      <c r="G179" s="8"/>
+      <c r="G179" s="7">
+        <v>0</v>
+      </c>
       <c r="H179" s="8"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -7722,7 +8090,9 @@
       <c r="F180" s="7">
         <v>0.416666666666666</v>
       </c>
-      <c r="G180" s="8"/>
+      <c r="G180" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H180" s="8"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -7742,7 +8112,9 @@
       <c r="F181" s="7">
         <v>0.625</v>
       </c>
-      <c r="G181" s="8"/>
+      <c r="G181" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H181" s="8"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -7762,7 +8134,9 @@
       <c r="F182" s="7">
         <v>0.483333333333333</v>
       </c>
-      <c r="G182" s="8"/>
+      <c r="G182" s="7">
+        <v>0</v>
+      </c>
       <c r="H182" s="8"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -7784,7 +8158,9 @@
       <c r="F183" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G183" s="8"/>
+      <c r="G183" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H183" s="8"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -7804,7 +8180,9 @@
       <c r="F184" s="7">
         <v>0.483333333333333</v>
       </c>
-      <c r="G184" s="8"/>
+      <c r="G184" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H184" s="8"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -7826,7 +8204,9 @@
       <c r="F185" s="7">
         <v>0.8</v>
       </c>
-      <c r="G185" s="8"/>
+      <c r="G185" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H185" s="8"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -7846,7 +8226,9 @@
       <c r="F186" s="7">
         <v>0</v>
       </c>
-      <c r="G186" s="8"/>
+      <c r="G186" s="7">
+        <v>0</v>
+      </c>
       <c r="H186" s="8"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -7866,7 +8248,9 @@
       <c r="F187" s="7">
         <v>0.7666666666666661</v>
       </c>
-      <c r="G187" s="8"/>
+      <c r="G187" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H187" s="8"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -7886,7 +8270,9 @@
       <c r="F188" s="7">
         <v>0</v>
       </c>
-      <c r="G188" s="8"/>
+      <c r="G188" s="7">
+        <v>0</v>
+      </c>
       <c r="H188" s="9"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -7906,7 +8292,9 @@
       <c r="F189" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G189" s="8"/>
+      <c r="G189" s="7">
+        <v>0.353846153846154</v>
+      </c>
       <c r="H189" s="8"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -7926,7 +8314,9 @@
       <c r="F190" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G190" s="8"/>
+      <c r="G190" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H190" s="8"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -7946,7 +8336,9 @@
       <c r="F191" s="7">
         <v>0.589285714285714</v>
       </c>
-      <c r="G191" s="8"/>
+      <c r="G191" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H191" s="8"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -7968,7 +8360,9 @@
       <c r="F192" s="7">
         <v>0.45</v>
       </c>
-      <c r="G192" s="8"/>
+      <c r="G192" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H192" s="8"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -7988,7 +8382,9 @@
       <c r="F193" s="7">
         <v>0</v>
       </c>
-      <c r="G193" s="8"/>
+      <c r="G193" s="7">
+        <v>0</v>
+      </c>
       <c r="H193" s="8"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -8010,7 +8406,9 @@
       <c r="F194" s="7">
         <v>0.633333333333333</v>
       </c>
-      <c r="G194" s="8"/>
+      <c r="G194" s="7">
+        <v>0</v>
+      </c>
       <c r="H194" s="8"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -8030,7 +8428,9 @@
       <c r="F195" s="7">
         <v>0.366666666666666</v>
       </c>
-      <c r="G195" s="8"/>
+      <c r="G195" s="7">
+        <v>0.676923076923077</v>
+      </c>
       <c r="H195" s="8"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -8050,7 +8450,9 @@
       <c r="F196" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G196" s="8"/>
+      <c r="G196" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H196" s="8"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -8070,7 +8472,9 @@
       <c r="F197" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G197" s="8"/>
+      <c r="G197" s="7">
+        <v>0</v>
+      </c>
       <c r="H197" s="8"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -8090,7 +8494,9 @@
       <c r="F198" s="7">
         <v>0.75</v>
       </c>
-      <c r="G198" s="8"/>
+      <c r="G198" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H198" s="8"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -8112,7 +8518,9 @@
       <c r="F199" s="7">
         <v>0.65</v>
       </c>
-      <c r="G199" s="8"/>
+      <c r="G199" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H199" s="8"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -8132,7 +8540,9 @@
       <c r="F200" s="7">
         <v>0.65</v>
       </c>
-      <c r="G200" s="8"/>
+      <c r="G200" s="7">
+        <v>0</v>
+      </c>
       <c r="H200" s="8"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -8152,7 +8562,9 @@
       <c r="F201" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G201" s="8"/>
+      <c r="G201" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H201" s="8"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -8172,7 +8584,9 @@
       <c r="F202" s="7">
         <v>0.857142857142857</v>
       </c>
-      <c r="G202" s="8"/>
+      <c r="G202" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H202" s="8"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -8194,7 +8608,9 @@
       <c r="F203" s="7">
         <v>0.616666666666666</v>
       </c>
-      <c r="G203" s="8"/>
+      <c r="G203" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H203" s="8"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -8214,7 +8630,9 @@
       <c r="F204" s="7">
         <v>0</v>
       </c>
-      <c r="G204" s="8"/>
+      <c r="G204" s="7">
+        <v>0</v>
+      </c>
       <c r="H204" s="8"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -8236,7 +8654,9 @@
       <c r="F205" s="7">
         <v>0</v>
       </c>
-      <c r="G205" s="8"/>
+      <c r="G205" s="7">
+        <v>0</v>
+      </c>
       <c r="H205" s="8"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -8258,7 +8678,9 @@
       <c r="F206" s="7">
         <v>0.85</v>
       </c>
-      <c r="G206" s="8"/>
+      <c r="G206" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H206" s="8"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -8278,7 +8700,9 @@
       <c r="F207" s="7">
         <v>0</v>
       </c>
-      <c r="G207" s="8"/>
+      <c r="G207" s="7">
+        <v>0.630769230769231</v>
+      </c>
       <c r="H207" s="8"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -8298,7 +8722,9 @@
       <c r="F208" s="7">
         <v>0.666666666666666</v>
       </c>
-      <c r="G208" s="8"/>
+      <c r="G208" s="7">
+        <v>0.446153846153846</v>
+      </c>
       <c r="H208" s="8"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -8318,7 +8744,9 @@
       <c r="F209" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G209" s="8"/>
+      <c r="G209" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H209" s="8"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -8338,7 +8766,9 @@
       <c r="F210" s="7">
         <v>0.633333333333333</v>
       </c>
-      <c r="G210" s="8"/>
+      <c r="G210" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H210" s="8"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -8358,7 +8788,9 @@
       <c r="F211" s="7">
         <v>0.7</v>
       </c>
-      <c r="G211" s="8"/>
+      <c r="G211" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H211" s="8"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -8378,7 +8810,9 @@
       <c r="F212" s="7">
         <v>1</v>
       </c>
-      <c r="G212" s="8"/>
+      <c r="G212" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H212" s="8"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -8398,7 +8832,9 @@
       <c r="F213" s="7">
         <v>0.7</v>
       </c>
-      <c r="G213" s="8"/>
+      <c r="G213" s="7">
+        <v>0</v>
+      </c>
       <c r="H213" s="8"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -8420,7 +8856,9 @@
       <c r="F214" s="7">
         <v>0</v>
       </c>
-      <c r="G214" s="8"/>
+      <c r="G214" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H214" s="8"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -8442,7 +8880,9 @@
       <c r="F215" s="7">
         <v>0.933333333333333</v>
       </c>
-      <c r="G215" s="8"/>
+      <c r="G215" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H215" s="8"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -8462,7 +8902,9 @@
       <c r="F216" s="7">
         <v>0.85</v>
       </c>
-      <c r="G216" s="8"/>
+      <c r="G216" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H216" s="8"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -8482,7 +8924,9 @@
       <c r="F217" s="7">
         <v>0</v>
       </c>
-      <c r="G217" s="8"/>
+      <c r="G217" s="7">
+        <v>0</v>
+      </c>
       <c r="H217" s="8"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -8502,7 +8946,9 @@
       <c r="F218" s="7">
         <v>1</v>
       </c>
-      <c r="G218" s="8"/>
+      <c r="G218" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H218" s="8"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -8522,7 +8968,9 @@
       <c r="F219" s="7">
         <v>0.85</v>
       </c>
-      <c r="G219" s="8"/>
+      <c r="G219" s="7">
+        <v>0.784615384615385</v>
+      </c>
       <c r="H219" s="8"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -8542,7 +8990,9 @@
       <c r="F220" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G220" s="8"/>
+      <c r="G220" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H220" s="8"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -8564,7 +9014,9 @@
       <c r="F221" s="7">
         <v>0.85</v>
       </c>
-      <c r="G221" s="8"/>
+      <c r="G221" s="7">
+        <v>0.784615384615385</v>
+      </c>
       <c r="H221" s="8"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -8584,7 +9036,9 @@
       <c r="F222" s="7">
         <v>0</v>
       </c>
-      <c r="G222" s="8"/>
+      <c r="G222" s="7">
+        <v>0</v>
+      </c>
       <c r="H222" s="8"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -8604,7 +9058,9 @@
       <c r="F223" s="7">
         <v>0</v>
       </c>
-      <c r="G223" s="8"/>
+      <c r="G223" s="7">
+        <v>0</v>
+      </c>
       <c r="H223" s="8"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -8626,7 +9082,9 @@
       <c r="F224" s="7">
         <v>0.85</v>
       </c>
-      <c r="G224" s="8"/>
+      <c r="G224" s="7">
+        <v>0.676923076923077</v>
+      </c>
       <c r="H224" s="8"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -8648,7 +9106,9 @@
       <c r="F225" s="7">
         <v>0.266666666666666</v>
       </c>
-      <c r="G225" s="8"/>
+      <c r="G225" s="7">
+        <v>0</v>
+      </c>
       <c r="H225" s="8"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -8670,7 +9130,9 @@
       <c r="F226" s="7">
         <v>0.85</v>
       </c>
-      <c r="G226" s="8"/>
+      <c r="G226" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H226" s="8"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -8690,7 +9152,9 @@
       <c r="F227" s="7">
         <v>0.785714285714285</v>
       </c>
-      <c r="G227" s="8"/>
+      <c r="G227" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H227" s="8"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -8710,7 +9174,9 @@
       <c r="F228" s="7">
         <v>0.6</v>
       </c>
-      <c r="G228" s="8"/>
+      <c r="G228" s="7">
+        <v>0</v>
+      </c>
       <c r="H228" s="8"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -8732,7 +9198,9 @@
       <c r="F229" s="7">
         <v>0.85</v>
       </c>
-      <c r="G229" s="8"/>
+      <c r="G229" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H229" s="8"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -8752,7 +9220,9 @@
       <c r="F230" s="7">
         <v>0</v>
       </c>
-      <c r="G230" s="8"/>
+      <c r="G230" s="7">
+        <v>0</v>
+      </c>
       <c r="H230" s="8"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -8772,7 +9242,9 @@
       <c r="F231" s="7">
         <v>1</v>
       </c>
-      <c r="G231" s="8"/>
+      <c r="G231" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H231" s="8"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -8792,7 +9264,9 @@
       <c r="F232" s="7">
         <v>0.35</v>
       </c>
-      <c r="G232" s="8"/>
+      <c r="G232" s="7">
+        <v>0</v>
+      </c>
       <c r="H232" s="8"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -8814,7 +9288,9 @@
       <c r="F233" s="7">
         <v>0.95</v>
       </c>
-      <c r="G233" s="8"/>
+      <c r="G233" s="7">
+        <v>0</v>
+      </c>
       <c r="H233" s="8"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -8836,7 +9312,9 @@
       <c r="F234" s="7">
         <v>0.416666666666666</v>
       </c>
-      <c r="G234" s="8"/>
+      <c r="G234" s="7">
+        <v>0.430769230769231</v>
+      </c>
       <c r="H234" s="8"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -8858,7 +9336,9 @@
       <c r="F235" s="7">
         <v>0.633333333333333</v>
       </c>
-      <c r="G235" s="8"/>
+      <c r="G235" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H235" s="8"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -8880,7 +9360,9 @@
       <c r="F236" s="7">
         <v>0.75</v>
       </c>
-      <c r="G236" s="8"/>
+      <c r="G236" s="7">
+        <v>0.353846153846154</v>
+      </c>
       <c r="H236" s="8"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -8900,7 +9382,9 @@
       <c r="F237" s="7">
         <v>0</v>
       </c>
-      <c r="G237" s="8"/>
+      <c r="G237" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H237" s="8"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -8922,7 +9406,9 @@
       <c r="F238" s="7">
         <v>0.433333333333333</v>
       </c>
-      <c r="G238" s="8"/>
+      <c r="G238" s="7">
+        <v>0</v>
+      </c>
       <c r="H238" s="8"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -8944,7 +9430,9 @@
       <c r="F239" s="7">
         <v>0.566666666666666</v>
       </c>
-      <c r="G239" s="8"/>
+      <c r="G239" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H239" s="8"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -8966,7 +9454,9 @@
       <c r="F240" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G240" s="8"/>
+      <c r="G240" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H240" s="8"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -8988,7 +9478,9 @@
       <c r="F241" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G241" s="8"/>
+      <c r="G241" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H241" s="8"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -9010,7 +9502,9 @@
       <c r="F242" s="7">
         <v>0.783333333333333</v>
       </c>
-      <c r="G242" s="8"/>
+      <c r="G242" s="7">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H242" s="8"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -9030,7 +9524,9 @@
       <c r="F243" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G243" s="8"/>
+      <c r="G243" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H243" s="8"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -9050,7 +9546,9 @@
       <c r="F244" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G244" s="8"/>
+      <c r="G244" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H244" s="8"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -9072,7 +9570,9 @@
       <c r="F245" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G245" s="8"/>
+      <c r="G245" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H245" s="8"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -9094,7 +9594,9 @@
       <c r="F246" s="7">
         <v>0.916666666666666</v>
       </c>
-      <c r="G246" s="8"/>
+      <c r="G246" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H246" s="8"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -9116,7 +9618,9 @@
       <c r="F247" s="7">
         <v>0.433333333333333</v>
       </c>
-      <c r="G247" s="8"/>
+      <c r="G247" s="7">
+        <v>0.323076923076923</v>
+      </c>
       <c r="H247" s="8"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -9136,7 +9640,9 @@
       <c r="F248" s="7">
         <v>0</v>
       </c>
-      <c r="G248" s="8"/>
+      <c r="G248" s="7">
+        <v>0</v>
+      </c>
       <c r="H248" s="8"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -9156,7 +9662,9 @@
       <c r="F249" s="7">
         <v>0.466666666666666</v>
       </c>
-      <c r="G249" s="8"/>
+      <c r="G249" s="7">
+        <v>0</v>
+      </c>
       <c r="H249" s="8"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
@@ -9176,7 +9684,9 @@
       <c r="F250" s="7">
         <v>0</v>
       </c>
-      <c r="G250" s="8"/>
+      <c r="G250" s="7">
+        <v>0</v>
+      </c>
       <c r="H250" s="8"/>
     </row>
     <row r="251" ht="20.05" customHeight="1">
@@ -9198,7 +9708,9 @@
       <c r="F251" s="7">
         <v>0.933333333333333</v>
       </c>
-      <c r="G251" s="8"/>
+      <c r="G251" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H251" s="8"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
@@ -9220,7 +9732,9 @@
       <c r="F252" s="7">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G252" s="8"/>
+      <c r="G252" s="7">
+        <v>0.630769230769231</v>
+      </c>
       <c r="H252" s="8"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
@@ -9240,7 +9754,9 @@
       <c r="F253" s="7">
         <v>0</v>
       </c>
-      <c r="G253" s="8"/>
+      <c r="G253" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H253" s="8"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
@@ -9262,7 +9778,9 @@
       <c r="F254" s="7">
         <v>1</v>
       </c>
-      <c r="G254" s="8"/>
+      <c r="G254" s="7">
+        <v>0</v>
+      </c>
       <c r="H254" s="8"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
@@ -9282,7 +9800,9 @@
       <c r="F255" s="7">
         <v>0</v>
       </c>
-      <c r="G255" s="8"/>
+      <c r="G255" s="7">
+        <v>0</v>
+      </c>
       <c r="H255" s="8"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
@@ -9302,7 +9822,9 @@
       <c r="F256" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G256" s="8"/>
+      <c r="G256" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H256" s="8"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
@@ -9322,7 +9844,9 @@
       <c r="F257" s="7">
         <v>0</v>
       </c>
-      <c r="G257" s="8"/>
+      <c r="G257" s="7">
+        <v>0</v>
+      </c>
       <c r="H257" s="8"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
@@ -9342,7 +9866,9 @@
       <c r="F258" s="7">
         <v>0</v>
       </c>
-      <c r="G258" s="8"/>
+      <c r="G258" s="7">
+        <v>0</v>
+      </c>
       <c r="H258" s="8"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
@@ -9362,7 +9888,9 @@
       <c r="F259" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G259" s="8"/>
+      <c r="G259" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H259" s="8"/>
     </row>
     <row r="260" ht="20.05" customHeight="1">
@@ -9382,7 +9910,9 @@
       <c r="F260" s="7">
         <v>0.5166666666666661</v>
       </c>
-      <c r="G260" s="8"/>
+      <c r="G260" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H260" s="8"/>
     </row>
     <row r="261" ht="20.05" customHeight="1">
@@ -9393,16 +9923,18 @@
         <v>531</v>
       </c>
       <c r="C261" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D261" s="7"/>
       <c r="E261" s="7">
-        <v>0.789473684210526</v>
+        <v>0</v>
       </c>
       <c r="F261" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G261" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G261" s="7">
+        <v>0.369230769230769</v>
+      </c>
       <c r="H261" s="8"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -9415,16 +9947,16 @@
       <c r="C262" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D262" s="7">
-        <v>0.897435897435897</v>
-      </c>
+      <c r="D262" s="7"/>
       <c r="E262" s="7">
-        <v>0.771929824561404</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F262" s="7">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="G262" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G262" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H262" s="8"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -9435,16 +9967,20 @@
         <v>535</v>
       </c>
       <c r="C263" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D263" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D263" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E263" s="7">
-        <v>0</v>
+        <v>0.771929824561404</v>
       </c>
       <c r="F263" s="7">
-        <v>0</v>
-      </c>
-      <c r="G263" s="8"/>
+        <v>0.533333333333333</v>
+      </c>
+      <c r="G263" s="7">
+        <v>0</v>
+      </c>
       <c r="H263" s="8"/>
     </row>
     <row r="264" ht="20.05" customHeight="1">
@@ -9455,18 +9991,18 @@
         <v>537</v>
       </c>
       <c r="C264" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D264" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D264" s="7"/>
       <c r="E264" s="7">
-        <v>0.578947368421053</v>
+        <v>0</v>
       </c>
       <c r="F264" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G264" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G264" s="7">
+        <v>0</v>
+      </c>
       <c r="H264" s="8"/>
     </row>
     <row r="265" ht="20.05" customHeight="1">
@@ -9477,16 +10013,20 @@
         <v>539</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D265" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D265" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E265" s="7">
-        <v>0.543859649122807</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="F265" s="7">
-        <v>0.566666666666666</v>
-      </c>
-      <c r="G265" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G265" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H265" s="8"/>
     </row>
     <row r="266" ht="20.05" customHeight="1">
@@ -9497,26 +10037,26 @@
         <v>541</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D266" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D266" s="7"/>
       <c r="E266" s="7">
-        <v>0.684210526315789</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="F266" s="7">
-        <v>0.316666666666666</v>
-      </c>
-      <c r="G266" s="8"/>
+        <v>0.566666666666666</v>
+      </c>
+      <c r="G266" s="7">
+        <v>0.292307692307692</v>
+      </c>
       <c r="H266" s="8"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="6">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B267" t="s" s="6">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C267" t="s" s="6">
         <v>59</v>
@@ -9528,29 +10068,33 @@
       <c r="F267" s="7">
         <v>0.75</v>
       </c>
-      <c r="G267" s="8"/>
+      <c r="G267" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H267" s="8"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="6">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B268" t="s" s="6">
         <v>544</v>
       </c>
       <c r="C268" t="s" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D268" s="7">
-        <v>0.641025641025641</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E268" s="7">
-        <v>0.719298245614035</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="F268" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G268" s="8"/>
+        <v>0.316666666666666</v>
+      </c>
+      <c r="G268" s="7">
+        <v>0</v>
+      </c>
       <c r="H268" s="8"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -9561,16 +10105,20 @@
         <v>546</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D269" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D269" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E269" s="7">
-        <v>0.625</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F269" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G269" s="8"/>
+        <v>0.616666666666666</v>
+      </c>
+      <c r="G269" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H269" s="8"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -9585,12 +10133,14 @@
       </c>
       <c r="D270" s="7"/>
       <c r="E270" s="7">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="F270" s="7">
-        <v>0</v>
-      </c>
-      <c r="G270" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="G270" s="7">
+        <v>0.430769230769231</v>
+      </c>
       <c r="H270" s="8"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
@@ -9601,18 +10151,18 @@
         <v>550</v>
       </c>
       <c r="C271" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D271" s="7">
-        <v>0.205128205128205</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D271" s="7"/>
       <c r="E271" s="7">
-        <v>0.701754385964912</v>
+        <v>0.75</v>
       </c>
       <c r="F271" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G271" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G271" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H271" s="8"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
@@ -9623,18 +10173,20 @@
         <v>552</v>
       </c>
       <c r="C272" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D272" s="7">
-        <v>0.615384615384615</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="E272" s="7">
-        <v>0.631578947368421</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F272" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G272" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G272" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H272" s="8"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
@@ -9645,16 +10197,20 @@
         <v>554</v>
       </c>
       <c r="C273" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D273" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D273" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E273" s="7">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F273" s="7">
-        <v>0</v>
-      </c>
-      <c r="G273" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G273" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H273" s="8"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
@@ -9665,18 +10221,18 @@
         <v>556</v>
       </c>
       <c r="C274" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D274" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D274" s="7"/>
       <c r="E274" s="7">
-        <v>0.614035087719298</v>
+        <v>0</v>
       </c>
       <c r="F274" s="7">
-        <v>0.933333333333333</v>
-      </c>
-      <c r="G274" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G274" s="7">
+        <v>0</v>
+      </c>
       <c r="H274" s="8"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
@@ -9687,16 +10243,20 @@
         <v>558</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D275" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D275" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E275" s="7">
-        <v>0</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F275" s="7">
-        <v>0</v>
-      </c>
-      <c r="G275" s="8"/>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="G275" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H275" s="8"/>
     </row>
     <row r="276" ht="20.05" customHeight="1">
@@ -9707,7 +10267,7 @@
         <v>560</v>
       </c>
       <c r="C276" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D276" s="7"/>
       <c r="E276" s="7">
@@ -9716,7 +10276,9 @@
       <c r="F276" s="7">
         <v>0</v>
       </c>
-      <c r="G276" s="8"/>
+      <c r="G276" s="7">
+        <v>0</v>
+      </c>
       <c r="H276" s="8"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
@@ -9727,24 +10289,26 @@
         <v>562</v>
       </c>
       <c r="C277" t="s" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D277" s="7"/>
       <c r="E277" s="7">
-        <v>0.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="F277" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G277" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G277" s="7">
+        <v>0</v>
+      </c>
       <c r="H277" s="8"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="6">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B278" t="s" s="6">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C278" t="s" s="6">
         <v>13</v>
@@ -9756,73 +10320,79 @@
       <c r="F278" s="7">
         <v>0.839285714285714</v>
       </c>
-      <c r="G278" s="8"/>
+      <c r="G278" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H278" s="8"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="6">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B279" t="s" s="6">
         <v>565</v>
       </c>
       <c r="C279" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D279" s="7">
-        <v>0.512820512820513</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D279" s="7"/>
       <c r="E279" s="7">
-        <v>0.736842105263158</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F279" s="7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G279" s="8"/>
+        <v>0.616666666666666</v>
+      </c>
+      <c r="G279" s="7">
+        <v>0.8</v>
+      </c>
       <c r="H279" s="8"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="6">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B280" t="s" s="6">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D280" s="7">
-        <v>0.358974358974359</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E280" s="7">
-        <v>0.719298245614035</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F280" s="7">
-        <v>0.7333333333333329</v>
-      </c>
-      <c r="G280" s="8"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G280" s="7">
+        <v>0.415384615384615</v>
+      </c>
       <c r="H280" s="8"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="6">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B281" t="s" s="6">
         <v>568</v>
       </c>
       <c r="C281" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D281" s="7">
-        <v>0.641025641025641</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E281" s="7">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F281" s="7">
-        <v>1</v>
-      </c>
-      <c r="G281" s="8"/>
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="G281" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H281" s="8"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
@@ -9833,18 +10403,20 @@
         <v>570</v>
       </c>
       <c r="C282" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D282" s="7">
-        <v>0.564102564102564</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E282" s="7">
-        <v>0.631578947368421</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F282" s="7">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="G282" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G282" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H282" s="8"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
@@ -9855,16 +10427,20 @@
         <v>572</v>
       </c>
       <c r="C283" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D283" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D283" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E283" s="7">
-        <v>0.803571428571429</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F283" s="7">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="G283" s="8"/>
+        <v>0.633333333333333</v>
+      </c>
+      <c r="G283" s="7">
+        <v>0</v>
+      </c>
       <c r="H283" s="8"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
@@ -9875,18 +10451,18 @@
         <v>574</v>
       </c>
       <c r="C284" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D284" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D284" s="7"/>
       <c r="E284" s="7">
-        <v>0.403508771929825</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F284" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G284" s="8"/>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="G284" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H284" s="8"/>
     </row>
     <row r="285" ht="20.05" customHeight="1">
@@ -9900,15 +10476,17 @@
         <v>16</v>
       </c>
       <c r="D285" s="7">
-        <v>0.717948717948718</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E285" s="7">
-        <v>0.701754385964912</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="F285" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="G285" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G285" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H285" s="8"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
@@ -9919,26 +10497,28 @@
         <v>578</v>
       </c>
       <c r="C286" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D286" s="7">
-        <v>0.307692307692308</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E286" s="7">
-        <v>0.649122807017544</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F286" s="7">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="G286" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="G286" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H286" s="8"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B287" t="s" s="6">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C287" t="s" s="6">
         <v>16</v>
@@ -9952,27 +10532,33 @@
       <c r="F287" s="7">
         <v>0.85</v>
       </c>
-      <c r="G287" s="8"/>
+      <c r="G287" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H287" s="8"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="6">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B288" t="s" s="6">
         <v>581</v>
       </c>
       <c r="C288" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D288" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D288" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="E288" s="7">
-        <v>0.754385964912281</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F288" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G288" s="8"/>
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G288" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H288" s="8"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
@@ -9983,18 +10569,18 @@
         <v>583</v>
       </c>
       <c r="C289" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D289" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D289" s="7"/>
       <c r="E289" s="7">
-        <v>0.807017543859649</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F289" s="7">
-        <v>0.483333333333333</v>
-      </c>
-      <c r="G289" s="8"/>
+        <v>0.616666666666666</v>
+      </c>
+      <c r="G289" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H289" s="8"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
@@ -10005,18 +10591,20 @@
         <v>585</v>
       </c>
       <c r="C290" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D290" s="7">
-        <v>0.717948717948718</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E290" s="7">
-        <v>0.596491228070175</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F290" s="7">
-        <v>0.7666666666666661</v>
-      </c>
-      <c r="G290" s="8"/>
+        <v>0.483333333333333</v>
+      </c>
+      <c r="G290" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H290" s="8"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
@@ -10027,16 +10615,20 @@
         <v>587</v>
       </c>
       <c r="C291" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D291" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D291" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E291" s="7">
-        <v>0</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="F291" s="7">
-        <v>0</v>
-      </c>
-      <c r="G291" s="8"/>
+        <v>0.7666666666666661</v>
+      </c>
+      <c r="G291" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H291" s="8"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
@@ -10047,18 +10639,18 @@
         <v>589</v>
       </c>
       <c r="C292" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D292" s="7">
-        <v>0.205128205128205</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D292" s="7"/>
       <c r="E292" s="7">
         <v>0</v>
       </c>
       <c r="F292" s="7">
-        <v>0.7666666666666661</v>
-      </c>
-      <c r="G292" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G292" s="7">
+        <v>0</v>
+      </c>
       <c r="H292" s="8"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
@@ -10071,14 +10663,18 @@
       <c r="C293" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D293" s="7"/>
+      <c r="D293" s="7">
+        <v>0.205128205128205</v>
+      </c>
       <c r="E293" s="7">
-        <v>0.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="F293" s="7">
-        <v>0.933333333333333</v>
-      </c>
-      <c r="G293" s="8"/>
+        <v>0.7666666666666661</v>
+      </c>
+      <c r="G293" s="7">
+        <v>0</v>
+      </c>
       <c r="H293" s="8"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -10089,18 +10685,18 @@
         <v>593</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D294" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D294" s="7"/>
       <c r="E294" s="7">
-        <v>0.771929824561404</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F294" s="7">
-        <v>0.716666666666666</v>
-      </c>
-      <c r="G294" s="8"/>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="G294" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H294" s="8"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -10111,16 +10707,20 @@
         <v>595</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D295" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D295" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E295" s="7">
-        <v>0.696428571428571</v>
+        <v>0.771929824561404</v>
       </c>
       <c r="F295" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G295" s="8"/>
+        <v>0.716666666666666</v>
+      </c>
+      <c r="G295" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H295" s="8"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
@@ -10135,12 +10735,14 @@
       </c>
       <c r="D296" s="7"/>
       <c r="E296" s="7">
-        <v>0.75</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F296" s="7">
-        <v>0.767857142857143</v>
-      </c>
-      <c r="G296" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G296" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H296" s="8"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
@@ -10151,16 +10753,18 @@
         <v>599</v>
       </c>
       <c r="C297" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D297" s="7"/>
       <c r="E297" s="7">
-        <v>0.839285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="F297" s="7">
-        <v>0.660714285714285</v>
-      </c>
-      <c r="G297" s="8"/>
+        <v>0.767857142857143</v>
+      </c>
+      <c r="G297" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H297" s="8"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
@@ -10171,18 +10775,18 @@
         <v>601</v>
       </c>
       <c r="C298" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D298" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D298" s="7"/>
       <c r="E298" s="7">
-        <v>0.807017543859649</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="F298" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G298" s="8"/>
+        <v>0.660714285714285</v>
+      </c>
+      <c r="G298" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H298" s="8"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
@@ -10193,16 +10797,20 @@
         <v>603</v>
       </c>
       <c r="C299" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D299" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D299" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E299" s="7">
-        <v>0.666666666666667</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F299" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G299" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G299" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H299" s="8"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
@@ -10213,16 +10821,18 @@
         <v>605</v>
       </c>
       <c r="C300" t="s" s="6">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="7">
-        <v>0.385964912280702</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F300" s="7">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="G300" s="8"/>
+        <v>0.616666666666666</v>
+      </c>
+      <c r="G300" s="7">
+        <v>0</v>
+      </c>
       <c r="H300" s="8"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
@@ -10233,16 +10843,18 @@
         <v>607</v>
       </c>
       <c r="C301" t="s" s="6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7">
-        <v>0.803571428571429</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="F301" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G301" s="8"/>
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G301" s="7">
+        <v>0</v>
+      </c>
       <c r="H301" s="8"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
@@ -10253,16 +10865,18 @@
         <v>609</v>
       </c>
       <c r="C302" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="7">
-        <v>0.649122807017544</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F302" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G302" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G302" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H302" s="8"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
@@ -10273,16 +10887,18 @@
         <v>611</v>
       </c>
       <c r="C303" t="s" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D303" s="7"/>
       <c r="E303" s="7">
-        <v>0.571428571428571</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F303" s="7">
-        <v>1</v>
-      </c>
-      <c r="G303" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G303" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H303" s="8"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
@@ -10293,16 +10909,18 @@
         <v>613</v>
       </c>
       <c r="C304" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D304" s="7"/>
       <c r="E304" s="7">
-        <v>0.614035087719298</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F304" s="7">
-        <v>0</v>
-      </c>
-      <c r="G304" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G304" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H304" s="8"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
@@ -10313,16 +10931,18 @@
         <v>615</v>
       </c>
       <c r="C305" t="s" s="6">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D305" s="7"/>
       <c r="E305" s="7">
-        <v>0</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F305" s="7">
         <v>0</v>
       </c>
-      <c r="G305" s="8"/>
+      <c r="G305" s="7">
+        <v>0</v>
+      </c>
       <c r="H305" s="8"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
@@ -10333,7 +10953,7 @@
         <v>617</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D306" s="7"/>
       <c r="E306" s="7">
@@ -10342,7 +10962,9 @@
       <c r="F306" s="7">
         <v>0</v>
       </c>
-      <c r="G306" s="8"/>
+      <c r="G306" s="7">
+        <v>0</v>
+      </c>
       <c r="H306" s="8"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
@@ -10353,18 +10975,18 @@
         <v>619</v>
       </c>
       <c r="C307" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D307" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D307" s="7"/>
       <c r="E307" s="7">
-        <v>0.842105263157895</v>
+        <v>0</v>
       </c>
       <c r="F307" s="7">
         <v>0</v>
       </c>
-      <c r="G307" s="8"/>
+      <c r="G307" s="7">
+        <v>0</v>
+      </c>
       <c r="H307" s="8"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
@@ -10375,18 +10997,20 @@
         <v>621</v>
       </c>
       <c r="C308" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D308" s="7">
-        <v>0.846153846153846</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E308" s="7">
         <v>0.842105263157895</v>
       </c>
       <c r="F308" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="G308" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G308" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H308" s="8"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
@@ -10397,16 +11021,20 @@
         <v>623</v>
       </c>
       <c r="C309" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D309" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D309" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E309" s="7">
-        <v>0.5</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F309" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G309" s="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="G309" s="7">
+        <v>0.338461538461538</v>
+      </c>
       <c r="H309" s="8"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
@@ -10417,18 +11045,18 @@
         <v>625</v>
       </c>
       <c r="C310" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D310" s="7">
-        <v>0.820512820512821</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D310" s="7"/>
       <c r="E310" s="7">
-        <v>0.807017543859649</v>
+        <v>0.5</v>
       </c>
       <c r="F310" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G310" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G310" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H310" s="8"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
@@ -10439,16 +11067,20 @@
         <v>627</v>
       </c>
       <c r="C311" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D311" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D311" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E311" s="7">
         <v>0.807017543859649</v>
       </c>
       <c r="F311" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="G311" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G311" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H311" s="8"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
@@ -10463,12 +11095,14 @@
       </c>
       <c r="D312" s="7"/>
       <c r="E312" s="7">
-        <v>0.859649122807018</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F312" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G312" s="8"/>
+        <v>0.35</v>
+      </c>
+      <c r="G312" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H312" s="8"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
@@ -10479,56 +11113,62 @@
         <v>631</v>
       </c>
       <c r="C313" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D313" s="7"/>
       <c r="E313" s="7">
-        <v>0.842105263157895</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="F313" s="7">
-        <v>0.566666666666666</v>
-      </c>
-      <c r="G313" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G313" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H313" s="8"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" t="s" s="6">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B314" t="s" s="6">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C314" t="s" s="6">
         <v>45</v>
       </c>
       <c r="D314" s="7"/>
       <c r="E314" s="7">
-        <v>0.701754385964912</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F314" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="G314" s="8"/>
+        <v>0.566666666666666</v>
+      </c>
+      <c r="G314" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H314" s="8"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B315" t="s" s="6">
         <v>634</v>
       </c>
       <c r="C315" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D315" s="7"/>
       <c r="E315" s="7">
-        <v>0.842105263157895</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F315" s="7">
-        <v>0.933333333333333</v>
-      </c>
-      <c r="G315" s="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="G315" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H315" s="8"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
@@ -10539,16 +11179,18 @@
         <v>636</v>
       </c>
       <c r="C316" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D316" s="7"/>
       <c r="E316" s="7">
-        <v>0.210526315789474</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F316" s="7">
-        <v>0</v>
-      </c>
-      <c r="G316" s="8"/>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="G316" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H316" s="8"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
@@ -10559,16 +11201,18 @@
         <v>638</v>
       </c>
       <c r="C317" t="s" s="6">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D317" s="7"/>
       <c r="E317" s="7">
-        <v>0.214285714285714</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="F317" s="7">
         <v>0</v>
       </c>
-      <c r="G317" s="8"/>
+      <c r="G317" s="7">
+        <v>0</v>
+      </c>
       <c r="H317" s="8"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
@@ -10579,18 +11223,18 @@
         <v>640</v>
       </c>
       <c r="C318" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D318" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D318" s="7"/>
       <c r="E318" s="7">
-        <v>0.649122807017544</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="F318" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G318" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G318" s="7">
+        <v>0</v>
+      </c>
       <c r="H318" s="8"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
@@ -10603,14 +11247,18 @@
       <c r="C319" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D319" s="7"/>
+      <c r="D319" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E319" s="7">
-        <v>0.8947368421052631</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F319" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G319" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G319" s="7">
+        <v>0.446153846153846</v>
+      </c>
       <c r="H319" s="8"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
@@ -10621,16 +11269,18 @@
         <v>644</v>
       </c>
       <c r="C320" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D320" s="7"/>
       <c r="E320" s="7">
-        <v>0.642857142857143</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F320" s="7">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="G320" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G320" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H320" s="8"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
@@ -10641,16 +11291,18 @@
         <v>646</v>
       </c>
       <c r="C321" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D321" s="7"/>
       <c r="E321" s="7">
-        <v>0</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F321" s="7">
-        <v>0</v>
-      </c>
-      <c r="G321" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="G321" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H321" s="8"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
@@ -10661,16 +11313,18 @@
         <v>648</v>
       </c>
       <c r="C322" t="s" s="6">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="7">
-        <v>0.642857142857143</v>
+        <v>0</v>
       </c>
       <c r="F322" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G322" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G322" s="7">
+        <v>0</v>
+      </c>
       <c r="H322" s="8"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
@@ -10681,16 +11335,18 @@
         <v>650</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="7">
-        <v>0.614035087719298</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F323" s="7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G323" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G323" s="7">
+        <v>0</v>
+      </c>
       <c r="H323" s="8"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
@@ -10701,16 +11357,18 @@
         <v>652</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D324" s="7"/>
       <c r="E324" s="7">
-        <v>0.719298245614035</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F324" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G324" s="8"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G324" s="7">
+        <v>0</v>
+      </c>
       <c r="H324" s="8"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
@@ -10721,18 +11379,18 @@
         <v>654</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D325" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D325" s="7"/>
       <c r="E325" s="7">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F325" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G325" s="8"/>
+        <v>0.616666666666666</v>
+      </c>
+      <c r="G325" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H325" s="8"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
@@ -10743,16 +11401,20 @@
         <v>656</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D326" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D326" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E326" s="7">
-        <v>0.803571428571429</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F326" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G326" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G326" s="7">
+        <v>0.446153846153846</v>
+      </c>
       <c r="H326" s="8"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
@@ -10763,16 +11425,18 @@
         <v>658</v>
       </c>
       <c r="C327" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="7">
-        <v>0.642857142857143</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F327" s="7">
-        <v>0</v>
-      </c>
-      <c r="G327" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G327" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H327" s="8"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
@@ -10783,18 +11447,18 @@
         <v>660</v>
       </c>
       <c r="C328" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D328" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D328" s="7"/>
       <c r="E328" s="7">
-        <v>0.754385964912281</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F328" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G328" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G328" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H328" s="8"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
@@ -10805,16 +11469,20 @@
         <v>662</v>
       </c>
       <c r="C329" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D329" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D329" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E329" s="7">
-        <v>0.789473684210526</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F329" s="7">
         <v>0.75</v>
       </c>
-      <c r="G329" s="8"/>
+      <c r="G329" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H329" s="8"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
@@ -10825,18 +11493,18 @@
         <v>664</v>
       </c>
       <c r="C330" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D330" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D330" s="7"/>
       <c r="E330" s="7">
         <v>0.789473684210526</v>
       </c>
       <c r="F330" s="7">
-        <v>0.683333333333333</v>
-      </c>
-      <c r="G330" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G330" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H330" s="8"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
@@ -10847,16 +11515,20 @@
         <v>666</v>
       </c>
       <c r="C331" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D331" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D331" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E331" s="7">
-        <v>0.696428571428571</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F331" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G331" s="8"/>
+        <v>0.683333333333333</v>
+      </c>
+      <c r="G331" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H331" s="8"/>
     </row>
     <row r="332" ht="20.05" customHeight="1">
@@ -10867,16 +11539,18 @@
         <v>668</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="7">
         <v>0.696428571428571</v>
       </c>
       <c r="F332" s="7">
-        <v>0.660714285714285</v>
-      </c>
-      <c r="G332" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G332" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H332" s="8"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
@@ -10887,16 +11561,18 @@
         <v>670</v>
       </c>
       <c r="C333" t="s" s="6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D333" s="7"/>
       <c r="E333" s="7">
-        <v>0.754385964912281</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F333" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G333" s="8"/>
+        <v>0.660714285714285</v>
+      </c>
+      <c r="G333" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H333" s="8"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
@@ -10907,18 +11583,18 @@
         <v>672</v>
       </c>
       <c r="C334" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D334" s="7">
-        <v>0.7692307692307691</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D334" s="7"/>
       <c r="E334" s="7">
-        <v>0.789473684210526</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F334" s="7">
-        <v>0</v>
-      </c>
-      <c r="G334" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G334" s="7">
+        <v>0.276923076923077</v>
+      </c>
       <c r="H334" s="8"/>
     </row>
     <row r="335" ht="20.05" customHeight="1">
@@ -10929,16 +11605,20 @@
         <v>674</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D335" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D335" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E335" s="7">
-        <v>0.607142857142857</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F335" s="7">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="G335" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G335" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H335" s="8"/>
     </row>
     <row r="336" ht="20.05" customHeight="1">
@@ -10949,18 +11629,18 @@
         <v>676</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D336" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D336" s="7"/>
       <c r="E336" s="7">
-        <v>0.754385964912281</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F336" s="7">
-        <v>0.683333333333333</v>
-      </c>
-      <c r="G336" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="G336" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H336" s="8"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
@@ -10971,18 +11651,20 @@
         <v>678</v>
       </c>
       <c r="C337" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D337" s="7">
-        <v>0.820512820512821</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E337" s="7">
-        <v>0.807017543859649</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F337" s="7">
-        <v>0</v>
-      </c>
-      <c r="G337" s="8"/>
+        <v>0.683333333333333</v>
+      </c>
+      <c r="G337" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H337" s="8"/>
     </row>
     <row r="338" ht="20.05" customHeight="1">
@@ -10993,18 +11675,20 @@
         <v>680</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D338" s="7">
-        <v>0.615384615384615</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E338" s="7">
-        <v>0.719298245614035</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F338" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G338" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G338" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H338" s="8"/>
     </row>
     <row r="339" ht="20.05" customHeight="1">
@@ -11015,16 +11699,20 @@
         <v>682</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D339" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D339" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E339" s="7">
-        <v>0.596491228070175</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F339" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G339" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G339" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H339" s="8"/>
     </row>
     <row r="340" ht="20.05" customHeight="1">
@@ -11037,16 +11725,16 @@
       <c r="C340" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D340" s="7">
-        <v>0.487179487179487</v>
-      </c>
+      <c r="D340" s="7"/>
       <c r="E340" s="7">
-        <v>0.789473684210526</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="F340" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G340" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G340" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H340" s="8"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
@@ -11057,16 +11745,20 @@
         <v>686</v>
       </c>
       <c r="C341" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D341" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D341" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E341" s="7">
-        <v>0.719298245614035</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F341" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G341" s="8"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G341" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H341" s="8"/>
     </row>
     <row r="342" ht="20.05" customHeight="1">
@@ -11077,16 +11769,18 @@
         <v>688</v>
       </c>
       <c r="C342" t="s" s="6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D342" s="7"/>
       <c r="E342" s="7">
-        <v>0.8245614035087721</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F342" s="7">
-        <v>0</v>
-      </c>
-      <c r="G342" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="G342" s="7">
+        <v>0.307692307692308</v>
+      </c>
       <c r="H342" s="8"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
@@ -11097,62 +11791,66 @@
         <v>690</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D343" s="7">
-        <v>0.871794871794872</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D343" s="7"/>
       <c r="E343" s="7">
-        <v>0.631578947368421</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="F343" s="7">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="G343" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G343" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H343" s="8"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B344" t="s" s="6">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D344" s="7">
-        <v>0.692307692307692</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E344" s="7">
-        <v>0.842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F344" s="7">
-        <v>0.7666666666666661</v>
-      </c>
-      <c r="G344" s="8"/>
+        <v>0.533333333333333</v>
+      </c>
+      <c r="G344" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H344" s="8"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B345" t="s" s="6">
         <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D345" s="7">
-        <v>0.58974358974359</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E345" s="7">
-        <v>0.56140350877193</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F345" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G345" s="8"/>
+        <v>0.7666666666666661</v>
+      </c>
+      <c r="G345" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H345" s="8"/>
     </row>
     <row r="346" ht="20.05" customHeight="1">
@@ -11163,18 +11861,20 @@
         <v>695</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D346" s="7">
-        <v>0.564102564102564</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="E346" s="7">
-        <v>0.719298245614035</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="F346" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G346" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G346" s="7">
+        <v>0</v>
+      </c>
       <c r="H346" s="8"/>
     </row>
     <row r="347" ht="20.05" customHeight="1">
@@ -11185,18 +11885,20 @@
         <v>697</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D347" s="7">
-        <v>0.41025641025641</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E347" s="7">
-        <v>0</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F347" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="G347" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G347" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H347" s="8"/>
     </row>
     <row r="348" ht="20.05" customHeight="1">
@@ -11207,18 +11909,20 @@
         <v>699</v>
       </c>
       <c r="C348" t="s" s="6">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D348" s="7">
-        <v>0.846153846153846</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="E348" s="7">
-        <v>0.771929824561404</v>
+        <v>0</v>
       </c>
       <c r="F348" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G348" s="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="G348" s="7">
+        <v>0</v>
+      </c>
       <c r="H348" s="8"/>
     </row>
     <row r="349" ht="20.05" customHeight="1">
@@ -11229,16 +11933,20 @@
         <v>701</v>
       </c>
       <c r="C349" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D349" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D349" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E349" s="7">
-        <v>0.410714285714286</v>
+        <v>0.771929824561404</v>
       </c>
       <c r="F349" s="7">
-        <v>0</v>
-      </c>
-      <c r="G349" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G349" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H349" s="8"/>
     </row>
     <row r="350" ht="20.05" customHeight="1">
@@ -11253,12 +11961,14 @@
       </c>
       <c r="D350" s="7"/>
       <c r="E350" s="7">
-        <v>0.625</v>
+        <v>0.410714285714286</v>
       </c>
       <c r="F350" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G350" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G350" s="7">
+        <v>0</v>
+      </c>
       <c r="H350" s="8"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
@@ -11273,12 +11983,14 @@
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="7">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F351" s="7">
         <v>0.910714285714285</v>
       </c>
-      <c r="G351" s="8"/>
+      <c r="G351" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H351" s="8"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
@@ -11289,18 +12001,18 @@
         <v>707</v>
       </c>
       <c r="C352" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D352" s="7">
-        <v>0.871794871794872</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D352" s="7"/>
       <c r="E352" s="7">
-        <v>0.8947368421052631</v>
+        <v>0</v>
       </c>
       <c r="F352" s="7">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="G352" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G352" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H352" s="8"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
@@ -11311,16 +12023,20 @@
         <v>709</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D353" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D353" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E353" s="7">
-        <v>0.589285714285714</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F353" s="7">
-        <v>0.839285714285714</v>
-      </c>
-      <c r="G353" s="8"/>
+        <v>0.533333333333333</v>
+      </c>
+      <c r="G353" s="7">
+        <v>0</v>
+      </c>
       <c r="H353" s="8"/>
     </row>
     <row r="354" ht="20.05" customHeight="1">
@@ -11331,16 +12047,18 @@
         <v>711</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="7">
-        <v>0.842105263157895</v>
+        <v>0.589285714285714</v>
       </c>
       <c r="F354" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G354" s="8"/>
+        <v>0.839285714285714</v>
+      </c>
+      <c r="G354" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H354" s="8"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
@@ -11353,16 +12071,16 @@
       <c r="C355" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D355" s="7">
-        <v>0.7692307692307691</v>
-      </c>
+      <c r="D355" s="7"/>
       <c r="E355" s="7">
-        <v>0.754385964912281</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F355" s="7">
-        <v>0</v>
-      </c>
-      <c r="G355" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G355" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H355" s="8"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
@@ -11373,18 +12091,20 @@
         <v>715</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D356" s="7">
-        <v>0.538461538461538</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E356" s="7">
         <v>0.754385964912281</v>
       </c>
       <c r="F356" s="7">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="G356" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G356" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="H356" s="8"/>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -11395,16 +12115,20 @@
         <v>717</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D357" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D357" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E357" s="7">
-        <v>0.571428571428571</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F357" s="7">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="G357" s="8"/>
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G357" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H357" s="8"/>
     </row>
     <row r="358" ht="20.05" customHeight="1">
@@ -11415,16 +12139,18 @@
         <v>719</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D358" s="7"/>
       <c r="E358" s="7">
-        <v>0</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F358" s="7">
-        <v>0</v>
-      </c>
-      <c r="G358" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G358" s="7">
+        <v>0.630769230769231</v>
+      </c>
       <c r="H358" s="8"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
@@ -11435,16 +12161,18 @@
         <v>721</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D359" s="7"/>
       <c r="E359" s="7">
-        <v>0.701754385964912</v>
+        <v>0</v>
       </c>
       <c r="F359" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G359" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G359" s="7">
+        <v>0</v>
+      </c>
       <c r="H359" s="8"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
@@ -11455,18 +12183,18 @@
         <v>723</v>
       </c>
       <c r="C360" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D360" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D360" s="7"/>
       <c r="E360" s="7">
-        <v>0.8245614035087721</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F360" s="7">
-        <v>0.316666666666666</v>
-      </c>
-      <c r="G360" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G360" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H360" s="8"/>
     </row>
     <row r="361" ht="20.05" customHeight="1">
@@ -11480,15 +12208,17 @@
         <v>32</v>
       </c>
       <c r="D361" s="7">
-        <v>0.487179487179487</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E361" s="7">
-        <v>0.859649122807018</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="F361" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G361" s="8"/>
+        <v>0.316666666666666</v>
+      </c>
+      <c r="G361" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H361" s="8"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
@@ -11499,16 +12229,20 @@
         <v>727</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D362" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D362" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E362" s="7">
-        <v>0.642857142857143</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="F362" s="7">
-        <v>0.678571428571428</v>
-      </c>
-      <c r="G362" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G362" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H362" s="8"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
@@ -11519,16 +12253,18 @@
         <v>729</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D363" s="7"/>
       <c r="E363" s="7">
-        <v>0.526315789473684</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F363" s="7">
-        <v>0</v>
-      </c>
-      <c r="G363" s="8"/>
+        <v>0.678571428571428</v>
+      </c>
+      <c r="G363" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H363" s="8"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
@@ -11543,12 +12279,14 @@
       </c>
       <c r="D364" s="7"/>
       <c r="E364" s="7">
-        <v>0.807017543859649</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="F364" s="7">
         <v>0</v>
       </c>
-      <c r="G364" s="8"/>
+      <c r="G364" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H364" s="8"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
@@ -11559,16 +12297,18 @@
         <v>733</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D365" s="7"/>
       <c r="E365" s="7">
-        <v>0.696428571428571</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F365" s="7">
-        <v>0.767857142857143</v>
-      </c>
-      <c r="G365" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G365" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H365" s="8"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
@@ -11583,12 +12323,14 @@
       </c>
       <c r="D366" s="7"/>
       <c r="E366" s="7">
-        <v>0.446428571428571</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F366" s="7">
-        <v>0</v>
-      </c>
-      <c r="G366" s="8"/>
+        <v>0.767857142857143</v>
+      </c>
+      <c r="G366" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H366" s="8"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
@@ -11599,18 +12341,18 @@
         <v>737</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D367" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D367" s="7"/>
       <c r="E367" s="7">
-        <v>0.701754385964912</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="F367" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G367" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G367" s="7">
+        <v>0</v>
+      </c>
       <c r="H367" s="8"/>
     </row>
     <row r="368" ht="20.05" customHeight="1">
@@ -11621,16 +12363,20 @@
         <v>739</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D368" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D368" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E368" s="7">
-        <v>0</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F368" s="7">
-        <v>0</v>
-      </c>
-      <c r="G368" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G368" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H368" s="8"/>
     </row>
     <row r="369" ht="20.05" customHeight="1">
@@ -11641,18 +12387,18 @@
         <v>741</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D369" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D369" s="7"/>
       <c r="E369" s="7">
-        <v>0.684210526315789</v>
+        <v>0</v>
       </c>
       <c r="F369" s="7">
-        <v>0.433333333333333</v>
-      </c>
-      <c r="G369" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G369" s="7">
+        <v>0</v>
+      </c>
       <c r="H369" s="8"/>
     </row>
     <row r="370" ht="20.05" customHeight="1">
@@ -11663,18 +12409,20 @@
         <v>743</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D370" s="7">
-        <v>0.538461538461538</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E370" s="7">
-        <v>0.614035087719298</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="F370" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G370" s="8"/>
+        <v>0.433333333333333</v>
+      </c>
+      <c r="G370" s="7">
+        <v>0</v>
+      </c>
       <c r="H370" s="8"/>
     </row>
     <row r="371" ht="20.05" customHeight="1">
@@ -11685,16 +12433,20 @@
         <v>745</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D371" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D371" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E371" s="7">
-        <v>0.701754385964912</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F371" s="7">
-        <v>0.7333333333333329</v>
-      </c>
-      <c r="G371" s="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="G371" s="7">
+        <v>0</v>
+      </c>
       <c r="H371" s="8"/>
     </row>
     <row r="372" ht="20.05" customHeight="1">
@@ -11705,18 +12457,18 @@
         <v>747</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D372" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D372" s="7"/>
       <c r="E372" s="7">
         <v>0.701754385964912</v>
       </c>
       <c r="F372" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G372" s="8"/>
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="G372" s="7">
+        <v>0.676923076923077</v>
+      </c>
       <c r="H372" s="8"/>
     </row>
     <row r="373" ht="20.05" customHeight="1">
@@ -11727,16 +12479,20 @@
         <v>749</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D373" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D373" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E373" s="7">
-        <v>0</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F373" s="7">
-        <v>0.660714285714285</v>
-      </c>
-      <c r="G373" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G373" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H373" s="8"/>
     </row>
     <row r="374" ht="20.05" customHeight="1">
@@ -11751,12 +12507,14 @@
       </c>
       <c r="D374" s="7"/>
       <c r="E374" s="7">
-        <v>0.803571428571429</v>
+        <v>0</v>
       </c>
       <c r="F374" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G374" s="8"/>
+        <v>0.660714285714285</v>
+      </c>
+      <c r="G374" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H374" s="8"/>
     </row>
     <row r="375" ht="20.05" customHeight="1">
@@ -11767,16 +12525,18 @@
         <v>753</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D375" s="7"/>
       <c r="E375" s="7">
-        <v>0</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F375" s="7">
-        <v>0</v>
-      </c>
-      <c r="G375" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G375" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H375" s="8"/>
     </row>
     <row r="376" ht="20.05" customHeight="1">
@@ -11787,7 +12547,7 @@
         <v>755</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D376" s="7"/>
       <c r="E376" s="7">
@@ -11796,7 +12556,9 @@
       <c r="F376" s="7">
         <v>0</v>
       </c>
-      <c r="G376" s="8"/>
+      <c r="G376" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H376" s="8"/>
     </row>
     <row r="377" ht="20.05" customHeight="1">
@@ -11807,16 +12569,18 @@
         <v>757</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D377" s="7"/>
       <c r="E377" s="7">
-        <v>0.696428571428571</v>
+        <v>0</v>
       </c>
       <c r="F377" s="7">
-        <v>0.803571428571428</v>
-      </c>
-      <c r="G377" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G377" s="7">
+        <v>0</v>
+      </c>
       <c r="H377" s="8"/>
     </row>
     <row r="378" ht="20.05" customHeight="1">
@@ -11827,16 +12591,18 @@
         <v>759</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D378" s="7"/>
       <c r="E378" s="7">
-        <v>0.803571428571429</v>
+        <v>0</v>
       </c>
       <c r="F378" s="7">
-        <v>0.660714285714285</v>
-      </c>
-      <c r="G378" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G378" s="7">
+        <v>0</v>
+      </c>
       <c r="H378" s="8"/>
     </row>
     <row r="379" ht="20.05" customHeight="1">
@@ -11851,12 +12617,14 @@
       </c>
       <c r="D379" s="7"/>
       <c r="E379" s="7">
-        <v>0.571428571428571</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F379" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G379" s="8"/>
+        <v>0.803571428571428</v>
+      </c>
+      <c r="G379" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H379" s="8"/>
     </row>
     <row r="380" ht="20.05" customHeight="1">
@@ -11867,18 +12635,18 @@
         <v>763</v>
       </c>
       <c r="C380" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D380" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D380" s="7"/>
       <c r="E380" s="7">
-        <v>0.666666666666667</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F380" s="7">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="G380" s="8"/>
+        <v>0.660714285714285</v>
+      </c>
+      <c r="G380" s="7">
+        <v>0.7384615384615379</v>
+      </c>
       <c r="H380" s="8"/>
     </row>
     <row r="381" ht="20.05" customHeight="1">
@@ -11889,18 +12657,18 @@
         <v>765</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D381" s="7">
-        <v>0.58974358974359</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D381" s="7"/>
       <c r="E381" s="7">
-        <v>0.649122807017544</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F381" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G381" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G381" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H381" s="8"/>
     </row>
     <row r="382" ht="20.05" customHeight="1">
@@ -11911,18 +12679,20 @@
         <v>767</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D382" s="7">
-        <v>0.897435897435897</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E382" s="7">
-        <v>0.631578947368421</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F382" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G382" s="8"/>
+        <v>0.633333333333333</v>
+      </c>
+      <c r="G382" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H382" s="8"/>
     </row>
     <row r="383" ht="20.05" customHeight="1">
@@ -11933,16 +12703,20 @@
         <v>769</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D383" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D383" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E383" s="7">
         <v>0.649122807017544</v>
       </c>
       <c r="F383" s="7">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="G383" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G383" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H383" s="8"/>
     </row>
     <row r="384" ht="20.05" customHeight="1">
@@ -11953,63 +12727,69 @@
         <v>771</v>
       </c>
       <c r="C384" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D384" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D384" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E384" s="7">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F384" s="7">
-        <v>0.285714285714285</v>
-      </c>
-      <c r="G384" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G384" s="7">
+        <v>0.353846153846154</v>
+      </c>
       <c r="H384" s="8"/>
     </row>
     <row r="385" ht="20.05" customHeight="1">
       <c r="A385" t="s" s="6">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B385" t="s" s="6">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="7">
-        <v>0.732142857142857</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F385" s="7">
-        <v>0.839285714285714</v>
-      </c>
-      <c r="G385" s="8"/>
+        <v>0.633333333333333</v>
+      </c>
+      <c r="G385" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H385" s="8"/>
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B386" t="s" s="6">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D386" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D386" s="7"/>
       <c r="E386" s="7">
-        <v>0.649122807017544</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="F386" s="7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G386" s="8"/>
+        <v>0.839285714285714</v>
+      </c>
+      <c r="G386" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H386" s="8"/>
     </row>
     <row r="387" ht="20.05" customHeight="1">
       <c r="A387" t="s" s="6">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B387" t="s" s="6">
         <v>776</v>
@@ -12019,12 +12799,14 @@
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="7">
-        <v>0.696428571428571</v>
+        <v>0</v>
       </c>
       <c r="F387" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G387" s="8"/>
+        <v>0.285714285714285</v>
+      </c>
+      <c r="G387" s="7">
+        <v>0</v>
+      </c>
       <c r="H387" s="8"/>
     </row>
     <row r="388" ht="20.05" customHeight="1">
@@ -12035,16 +12817,20 @@
         <v>778</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D388" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D388" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E388" s="7">
-        <v>0.789473684210526</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F388" s="7">
-        <v>0.716666666666666</v>
-      </c>
-      <c r="G388" s="8"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G388" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H388" s="8"/>
     </row>
     <row r="389" ht="20.05" customHeight="1">
@@ -12055,16 +12841,18 @@
         <v>780</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D389" s="7"/>
       <c r="E389" s="7">
-        <v>0.8947368421052631</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F389" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G389" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G389" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H389" s="8"/>
     </row>
     <row r="390" ht="20.05" customHeight="1">
@@ -12075,18 +12863,18 @@
         <v>782</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D390" s="7">
-        <v>0.564102564102564</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D390" s="7"/>
       <c r="E390" s="7">
-        <v>0.807017543859649</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F390" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G390" s="8"/>
+        <v>0.716666666666666</v>
+      </c>
+      <c r="G390" s="7">
+        <v>0.338461538461538</v>
+      </c>
       <c r="H390" s="8"/>
     </row>
     <row r="391" ht="20.05" customHeight="1">
@@ -12097,16 +12885,18 @@
         <v>784</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D391" s="7"/>
       <c r="E391" s="7">
-        <v>0.75</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F391" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G391" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G391" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H391" s="8"/>
     </row>
     <row r="392" ht="20.05" customHeight="1">
@@ -12117,16 +12907,20 @@
         <v>786</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D392" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D392" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E392" s="7">
-        <v>0.607142857142857</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F392" s="7">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="G392" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G392" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H392" s="8"/>
     </row>
     <row r="393" ht="20.05" customHeight="1">
@@ -12137,58 +12931,62 @@
         <v>788</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D393" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D393" s="7"/>
       <c r="E393" s="7">
-        <v>0.807017543859649</v>
+        <v>0.75</v>
       </c>
       <c r="F393" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G393" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G393" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H393" s="8"/>
     </row>
     <row r="394" ht="20.05" customHeight="1">
       <c r="A394" t="s" s="6">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B394" t="s" s="6">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C394" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D394" s="7"/>
       <c r="E394" s="7">
-        <v>0.696428571428571</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F394" s="7">
-        <v>0.839285714285714</v>
-      </c>
-      <c r="G394" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G394" s="7">
+        <v>0.507692307692308</v>
+      </c>
       <c r="H394" s="8"/>
     </row>
     <row r="395" ht="20.05" customHeight="1">
       <c r="A395" t="s" s="6">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B395" t="s" s="6">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D395" s="7"/>
       <c r="E395" s="7">
-        <v>0.701754385964912</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F395" s="7">
-        <v>1</v>
-      </c>
-      <c r="G395" s="8"/>
+        <v>0.839285714285714</v>
+      </c>
+      <c r="G395" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H395" s="8"/>
     </row>
     <row r="396" ht="20.05" customHeight="1">
@@ -12196,26 +12994,28 @@
         <v>791</v>
       </c>
       <c r="B396" t="s" s="6">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D396" s="7">
-        <v>0.666666666666667</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E396" s="7">
-        <v>0.754385964912281</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F396" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="G396" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G396" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H396" s="8"/>
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B397" t="s" s="6">
         <v>794</v>
@@ -12228,9 +13028,11 @@
         <v>0.701754385964912</v>
       </c>
       <c r="F397" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G397" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G397" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H397" s="8"/>
     </row>
     <row r="398" ht="20.05" customHeight="1">
@@ -12244,15 +13046,17 @@
         <v>45</v>
       </c>
       <c r="D398" s="7">
-        <v>0.358974358974359</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E398" s="7">
-        <v>0.614035087719298</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F398" s="7">
-        <v>0.666666666666666</v>
-      </c>
-      <c r="G398" s="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="G398" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H398" s="8"/>
     </row>
     <row r="399" ht="20.05" customHeight="1">
@@ -12263,16 +13067,18 @@
         <v>798</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D399" s="7"/>
       <c r="E399" s="7">
         <v>0.701754385964912</v>
       </c>
       <c r="F399" s="7">
-        <v>0.566666666666666</v>
-      </c>
-      <c r="G399" s="8"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G399" s="7">
+        <v>0</v>
+      </c>
       <c r="H399" s="8"/>
     </row>
     <row r="400" ht="20.05" customHeight="1">
@@ -12283,16 +13089,20 @@
         <v>800</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D400" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D400" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E400" s="7">
-        <v>0.719298245614035</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F400" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G400" s="8"/>
+        <v>0.666666666666666</v>
+      </c>
+      <c r="G400" s="7">
+        <v>0.476923076923077</v>
+      </c>
       <c r="H400" s="8"/>
     </row>
     <row r="401" ht="20.05" customHeight="1">
@@ -12303,16 +13113,18 @@
         <v>802</v>
       </c>
       <c r="C401" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="7">
-        <v>0.553571428571429</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F401" s="7">
-        <v>0.767857142857143</v>
-      </c>
-      <c r="G401" s="8"/>
+        <v>0.566666666666666</v>
+      </c>
+      <c r="G401" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H401" s="8"/>
     </row>
     <row r="402" ht="20.05" customHeight="1">
@@ -12323,18 +13135,18 @@
         <v>804</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D402" s="7">
-        <v>0.512820512820513</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D402" s="7"/>
       <c r="E402" s="7">
         <v>0.719298245614035</v>
       </c>
       <c r="F402" s="7">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="G402" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G402" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H402" s="8"/>
     </row>
     <row r="403" ht="20.05" customHeight="1">
@@ -12345,18 +13157,18 @@
         <v>806</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D403" s="7">
-        <v>0.358974358974359</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D403" s="7"/>
       <c r="E403" s="7">
-        <v>0.736842105263158</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="F403" s="7">
-        <v>0.866666666666666</v>
-      </c>
-      <c r="G403" s="8"/>
+        <v>0.767857142857143</v>
+      </c>
+      <c r="G403" s="7">
+        <v>0.446153846153846</v>
+      </c>
       <c r="H403" s="8"/>
     </row>
     <row r="404" ht="20.05" customHeight="1">
@@ -12367,16 +13179,20 @@
         <v>808</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D404" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D404" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E404" s="7">
-        <v>0.75</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F404" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G404" s="8"/>
+        <v>0.416666666666666</v>
+      </c>
+      <c r="G404" s="7">
+        <v>0</v>
+      </c>
       <c r="H404" s="8"/>
     </row>
     <row r="405" ht="20.05" customHeight="1">
@@ -12387,16 +13203,20 @@
         <v>810</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="D405" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D405" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E405" s="7">
-        <v>0.368421052631579</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F405" s="7">
-        <v>0</v>
-      </c>
-      <c r="G405" s="8"/>
+        <v>0.866666666666666</v>
+      </c>
+      <c r="G405" s="7">
+        <v>0</v>
+      </c>
       <c r="H405" s="8"/>
     </row>
     <row r="406" ht="20.05" customHeight="1">
@@ -12407,16 +13227,18 @@
         <v>812</v>
       </c>
       <c r="C406" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D406" s="7"/>
       <c r="E406" s="7">
-        <v>0.642857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="F406" s="7">
-        <v>0</v>
-      </c>
-      <c r="G406" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G406" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H406" s="8"/>
     </row>
     <row r="407" ht="20.05" customHeight="1">
@@ -12427,18 +13249,18 @@
         <v>814</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D407" s="7">
-        <v>0.641025641025641</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D407" s="7"/>
       <c r="E407" s="7">
-        <v>0.649122807017544</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="F407" s="7">
         <v>0</v>
       </c>
-      <c r="G407" s="8"/>
+      <c r="G407" s="7">
+        <v>0</v>
+      </c>
       <c r="H407" s="8"/>
     </row>
     <row r="408" ht="20.05" customHeight="1">
@@ -12449,16 +13271,18 @@
         <v>816</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D408" s="7"/>
       <c r="E408" s="7">
-        <v>0</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F408" s="7">
         <v>0</v>
       </c>
-      <c r="G408" s="8"/>
+      <c r="G408" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H408" s="8"/>
     </row>
     <row r="409" ht="20.05" customHeight="1">
@@ -12469,16 +13293,20 @@
         <v>818</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D409" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D409" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E409" s="7">
-        <v>0.642857142857143</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F409" s="7">
-        <v>0.517857142857143</v>
-      </c>
-      <c r="G409" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G409" s="7">
+        <v>0.584615384615385</v>
+      </c>
       <c r="H409" s="8"/>
     </row>
     <row r="410" ht="20.05" customHeight="1">
@@ -12489,18 +13317,18 @@
         <v>820</v>
       </c>
       <c r="C410" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D410" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D410" s="7"/>
       <c r="E410" s="7">
-        <v>0.807017543859649</v>
+        <v>0</v>
       </c>
       <c r="F410" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G410" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G410" s="7">
+        <v>0</v>
+      </c>
       <c r="H410" s="8"/>
     </row>
     <row r="411" ht="20.05" customHeight="1">
@@ -12511,18 +13339,18 @@
         <v>822</v>
       </c>
       <c r="C411" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D411" s="7">
-        <v>0.7435897435897439</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D411" s="7"/>
       <c r="E411" s="7">
-        <v>0.789473684210526</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F411" s="7">
-        <v>0.7333333333333329</v>
-      </c>
-      <c r="G411" s="8"/>
+        <v>0.517857142857143</v>
+      </c>
+      <c r="G411" s="7">
+        <v>0.523076923076923</v>
+      </c>
       <c r="H411" s="8"/>
     </row>
     <row r="412" ht="20.05" customHeight="1">
@@ -12533,16 +13361,20 @@
         <v>824</v>
       </c>
       <c r="C412" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D412" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D412" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E412" s="7">
-        <v>0.614035087719298</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F412" s="7">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="G412" s="8"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G412" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="H412" s="8"/>
     </row>
     <row r="413" ht="20.05" customHeight="1">
@@ -12553,16 +13385,20 @@
         <v>826</v>
       </c>
       <c r="C413" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D413" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D413" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E413" s="7">
-        <v>0.754385964912281</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F413" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G413" s="8"/>
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="G413" s="7">
+        <v>0</v>
+      </c>
       <c r="H413" s="8"/>
     </row>
     <row r="414" ht="20.05" customHeight="1">
@@ -12573,16 +13409,18 @@
         <v>828</v>
       </c>
       <c r="C414" t="s" s="6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D414" s="7"/>
       <c r="E414" s="7">
-        <v>0.736842105263158</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="F414" s="7">
         <v>0.633333333333333</v>
       </c>
-      <c r="G414" s="8"/>
+      <c r="G414" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H414" s="8"/>
     </row>
     <row r="415" ht="20.05" customHeight="1">
@@ -12593,16 +13431,18 @@
         <v>830</v>
       </c>
       <c r="C415" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D415" s="7"/>
       <c r="E415" s="7">
-        <v>0.789473684210526</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F415" s="7">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G415" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="G415" s="7">
+        <v>0.446153846153846</v>
+      </c>
       <c r="H415" s="8"/>
     </row>
     <row r="416" ht="20.05" customHeight="1">
@@ -12613,18 +13453,18 @@
         <v>832</v>
       </c>
       <c r="C416" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D416" s="7">
-        <v>0.820512820512821</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D416" s="7"/>
       <c r="E416" s="7">
-        <v>0.754385964912281</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F416" s="7">
-        <v>0.933333333333333</v>
-      </c>
-      <c r="G416" s="8"/>
+        <v>0.633333333333333</v>
+      </c>
+      <c r="G416" s="7">
+        <v>0</v>
+      </c>
       <c r="H416" s="8"/>
     </row>
     <row r="417" ht="20.05" customHeight="1">
@@ -12637,16 +13477,16 @@
       <c r="C417" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D417" s="7">
-        <v>0.230769230769231</v>
-      </c>
+      <c r="D417" s="7"/>
       <c r="E417" s="7">
-        <v>0</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F417" s="7">
-        <v>0</v>
-      </c>
-      <c r="G417" s="8"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G417" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H417" s="8"/>
     </row>
     <row r="418" ht="20.05" customHeight="1">
@@ -12657,18 +13497,20 @@
         <v>836</v>
       </c>
       <c r="C418" t="s" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D418" s="7">
-        <v>0.333333333333333</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E418" s="7">
-        <v>0.842105263157895</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F418" s="7">
-        <v>0.7333333333333329</v>
-      </c>
-      <c r="G418" s="8"/>
+        <v>0.933333333333333</v>
+      </c>
+      <c r="G418" s="7">
+        <v>0.7538461538461541</v>
+      </c>
       <c r="H418" s="8"/>
     </row>
     <row r="419" ht="20.05" customHeight="1">
@@ -12679,18 +13521,20 @@
         <v>838</v>
       </c>
       <c r="C419" t="s" s="6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D419" s="7">
-        <v>0.717948717948718</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="E419" s="7">
-        <v>0.701754385964912</v>
+        <v>0</v>
       </c>
       <c r="F419" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G419" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G419" s="7">
+        <v>0</v>
+      </c>
       <c r="H419" s="8"/>
     </row>
     <row r="420" ht="20.05" customHeight="1">
@@ -12701,16 +13545,20 @@
         <v>840</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D420" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D420" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E420" s="7">
-        <v>0</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F420" s="7">
-        <v>0</v>
-      </c>
-      <c r="G420" s="8"/>
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="G420" s="7">
+        <v>0</v>
+      </c>
       <c r="H420" s="8"/>
     </row>
     <row r="421" ht="20.05" customHeight="1">
@@ -12721,16 +13569,20 @@
         <v>842</v>
       </c>
       <c r="C421" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D421" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D421" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E421" s="7">
-        <v>0.754385964912281</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F421" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="G421" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G421" s="7">
+        <v>0</v>
+      </c>
       <c r="H421" s="8"/>
     </row>
     <row r="422" ht="20.05" customHeight="1">
@@ -12741,18 +13593,18 @@
         <v>844</v>
       </c>
       <c r="C422" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D422" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D422" s="7"/>
       <c r="E422" s="7">
-        <v>0.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="F422" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G422" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G422" s="7">
+        <v>0</v>
+      </c>
       <c r="H422" s="8"/>
     </row>
     <row r="423" ht="20.05" customHeight="1">
@@ -12763,76 +13615,86 @@
         <v>846</v>
       </c>
       <c r="C423" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D423" s="7"/>
       <c r="E423" s="7">
-        <v>0</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F423" s="7">
-        <v>0</v>
-      </c>
-      <c r="G423" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="G423" s="7">
+        <v>0.430769230769231</v>
+      </c>
       <c r="H423" s="8"/>
     </row>
     <row r="424" ht="20.05" customHeight="1">
       <c r="A424" t="s" s="6">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B424" t="s" s="6">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C424" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D424" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D424" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E424" s="7">
-        <v>0.428571428571429</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F424" s="7">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="G424" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G424" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H424" s="8"/>
     </row>
     <row r="425" ht="20.05" customHeight="1">
       <c r="A425" t="s" s="6">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B425" t="s" s="6">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C425" t="s" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D425" s="7"/>
       <c r="E425" s="7">
-        <v>0.553571428571429</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F425" s="7">
-        <v>1</v>
-      </c>
-      <c r="G425" s="8"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="G425" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H425" s="8"/>
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="6">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B426" t="s" s="6">
         <v>851</v>
       </c>
       <c r="C426" t="s" s="6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D426" s="7"/>
       <c r="E426" s="7">
         <v>0</v>
       </c>
       <c r="F426" s="7">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="G426" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G426" s="7">
+        <v>0</v>
+      </c>
       <c r="H426" s="8"/>
     </row>
     <row r="427" ht="20.05" customHeight="1">
@@ -12843,18 +13705,18 @@
         <v>853</v>
       </c>
       <c r="C427" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D427" s="7">
-        <v>0.487179487179487</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D427" s="7"/>
       <c r="E427" s="7">
-        <v>0.666666666666667</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="F427" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G427" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G427" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H427" s="8"/>
     </row>
     <row r="428" ht="20.05" customHeight="1">
@@ -12865,16 +13727,18 @@
         <v>855</v>
       </c>
       <c r="C428" t="s" s="6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D428" s="7"/>
       <c r="E428" s="7">
-        <v>0.789473684210526</v>
+        <v>0</v>
       </c>
       <c r="F428" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G428" s="8"/>
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G428" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H428" s="8"/>
     </row>
     <row r="429" ht="20.05" customHeight="1">
@@ -12885,16 +13749,20 @@
         <v>857</v>
       </c>
       <c r="C429" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D429" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D429" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E429" s="7">
-        <v>0.701754385964912</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F429" s="7">
-        <v>0.883333333333333</v>
-      </c>
-      <c r="G429" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G429" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H429" s="8"/>
     </row>
     <row r="430" ht="20.05" customHeight="1">
@@ -12905,18 +13773,18 @@
         <v>859</v>
       </c>
       <c r="C430" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D430" s="7">
-        <v>0.41025641025641</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D430" s="7"/>
       <c r="E430" s="7">
-        <v>0.649122807017544</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F430" s="7">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G430" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G430" s="7">
+        <v>0.676923076923077</v>
+      </c>
       <c r="H430" s="8"/>
     </row>
     <row r="431" ht="20.05" customHeight="1">
@@ -12927,16 +13795,18 @@
         <v>861</v>
       </c>
       <c r="C431" t="s" s="6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D431" s="7"/>
       <c r="E431" s="7">
-        <v>0.428571428571429</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F431" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G431" s="8"/>
+        <v>0.883333333333333</v>
+      </c>
+      <c r="G431" s="7">
+        <v>0.492307692307692</v>
+      </c>
       <c r="H431" s="8"/>
     </row>
     <row r="432" ht="20.05" customHeight="1">
@@ -12947,16 +13817,20 @@
         <v>863</v>
       </c>
       <c r="C432" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D432" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D432" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E432" s="7">
-        <v>0.596491228070175</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F432" s="7">
-        <v>1</v>
-      </c>
-      <c r="G432" s="8"/>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G432" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H432" s="8"/>
     </row>
     <row r="433" ht="20.05" customHeight="1">
@@ -12967,16 +13841,18 @@
         <v>865</v>
       </c>
       <c r="C433" t="s" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D433" s="7"/>
       <c r="E433" s="7">
-        <v>0.649122807017544</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F433" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G433" s="8"/>
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G433" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H433" s="8"/>
     </row>
     <row r="434" ht="20.05" customHeight="1">
@@ -12987,16 +13863,18 @@
         <v>867</v>
       </c>
       <c r="C434" t="s" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D434" s="7"/>
       <c r="E434" s="7">
-        <v>0.649122807017544</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="F434" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G434" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G434" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="H434" s="8"/>
     </row>
     <row r="435" ht="20.05" customHeight="1">
@@ -13007,18 +13885,18 @@
         <v>869</v>
       </c>
       <c r="C435" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D435" s="7">
-        <v>0.538461538461538</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D435" s="7"/>
       <c r="E435" s="7">
-        <v>0</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F435" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G435" s="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="G435" s="7">
+        <v>0.723076923076923</v>
+      </c>
       <c r="H435" s="8"/>
     </row>
     <row r="436" ht="20.05" customHeight="1">
@@ -13029,16 +13907,18 @@
         <v>871</v>
       </c>
       <c r="C436" t="s" s="6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D436" s="7"/>
       <c r="E436" s="7">
-        <v>0.754385964912281</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F436" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G436" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G436" s="7">
+        <v>0.569230769230769</v>
+      </c>
       <c r="H436" s="8"/>
     </row>
     <row r="437" ht="20.05" customHeight="1">
@@ -13049,16 +13929,20 @@
         <v>873</v>
       </c>
       <c r="C437" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D437" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D437" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E437" s="7">
-        <v>0.678571428571429</v>
+        <v>0</v>
       </c>
       <c r="F437" s="7">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="G437" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G437" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H437" s="8"/>
     </row>
     <row r="438" ht="20.05" customHeight="1">
@@ -13069,16 +13953,18 @@
         <v>875</v>
       </c>
       <c r="C438" t="s" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D438" s="7"/>
       <c r="E438" s="7">
-        <v>0.859649122807018</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F438" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G438" s="8"/>
+        <v>0.616666666666666</v>
+      </c>
+      <c r="G438" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="H438" s="8"/>
     </row>
     <row r="439" ht="20.05" customHeight="1">
@@ -13089,18 +13975,18 @@
         <v>877</v>
       </c>
       <c r="C439" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D439" s="7">
-        <v>0.794871794871795</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D439" s="7"/>
       <c r="E439" s="7">
-        <v>0.719298245614035</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F439" s="7">
-        <v>0.916666666666666</v>
-      </c>
-      <c r="G439" s="8"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="G439" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H439" s="8"/>
     </row>
     <row r="440" ht="20.05" customHeight="1">
@@ -13111,18 +13997,18 @@
         <v>879</v>
       </c>
       <c r="C440" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D440" s="7">
-        <v>0.333333333333333</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D440" s="7"/>
       <c r="E440" s="7">
-        <v>0.789473684210526</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="F440" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G440" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G440" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H440" s="8"/>
     </row>
     <row r="441" ht="20.05" customHeight="1">
@@ -13133,16 +14019,20 @@
         <v>881</v>
       </c>
       <c r="C441" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D441" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D441" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E441" s="7">
-        <v>0</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F441" s="7">
-        <v>0</v>
-      </c>
-      <c r="G441" s="8"/>
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G441" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H441" s="8"/>
     </row>
     <row r="442" ht="20.05" customHeight="1">
@@ -13153,16 +14043,20 @@
         <v>883</v>
       </c>
       <c r="C442" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D442" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D442" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E442" s="7">
-        <v>0.803571428571429</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F442" s="7">
-        <v>0.785714285714285</v>
-      </c>
-      <c r="G442" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G442" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H442" s="8"/>
     </row>
     <row r="443" ht="20.05" customHeight="1">
@@ -13173,18 +14067,18 @@
         <v>885</v>
       </c>
       <c r="C443" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D443" s="7">
-        <v>0.615384615384615</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D443" s="7"/>
       <c r="E443" s="7">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F443" s="7">
         <v>0</v>
       </c>
-      <c r="G443" s="8"/>
+      <c r="G443" s="7">
+        <v>0</v>
+      </c>
       <c r="H443" s="8"/>
     </row>
     <row r="444" ht="20.05" customHeight="1">
@@ -13195,61 +14089,69 @@
         <v>887</v>
       </c>
       <c r="C444" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D444" s="7"/>
       <c r="E444" s="7">
-        <v>0</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F444" s="7">
-        <v>0</v>
-      </c>
-      <c r="G444" s="8"/>
+        <v>0.785714285714285</v>
+      </c>
+      <c r="G444" s="7">
+        <v>0.646153846153846</v>
+      </c>
       <c r="H444" s="8"/>
     </row>
     <row r="445" ht="20.05" customHeight="1">
       <c r="A445" t="s" s="6">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B445" t="s" s="6">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C445" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="D445" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D445" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E445" s="7">
-        <v>0.8947368421052631</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F445" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G445" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G445" s="7">
+        <v>0.661538461538462</v>
+      </c>
       <c r="H445" s="8"/>
     </row>
     <row r="446" ht="20.05" customHeight="1">
       <c r="A446" t="s" s="6">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B446" t="s" s="6">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C446" t="s" s="6">
         <v>45</v>
       </c>
       <c r="D446" s="7"/>
       <c r="E446" s="7">
-        <v>0.754385964912281</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F446" s="7">
-        <v>0.7333333333333329</v>
-      </c>
-      <c r="G446" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="G446" s="7">
+        <v>0.6</v>
+      </c>
       <c r="H446" s="8"/>
     </row>
     <row r="447" ht="20.05" customHeight="1">
       <c r="A447" t="s" s="6">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B447" t="s" s="6">
         <v>892</v>
@@ -13257,16 +14159,16 @@
       <c r="C447" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D447" s="7">
-        <v>0.717948717948718</v>
-      </c>
+      <c r="D447" s="7"/>
       <c r="E447" s="7">
         <v>0</v>
       </c>
       <c r="F447" s="7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G447" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G447" s="7">
+        <v>0</v>
+      </c>
       <c r="H447" s="8"/>
     </row>
     <row r="448" ht="20.05" customHeight="1">
@@ -13277,18 +14179,18 @@
         <v>894</v>
       </c>
       <c r="C448" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D448" s="7">
-        <v>0.692307692307692</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D448" s="7"/>
       <c r="E448" s="7">
-        <v>0.719298245614035</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F448" s="7">
-        <v>1</v>
-      </c>
-      <c r="G448" s="8"/>
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="G448" s="7">
+        <v>0</v>
+      </c>
       <c r="H448" s="8"/>
     </row>
     <row r="449" ht="20.05" customHeight="1">
@@ -13299,16 +14201,20 @@
         <v>896</v>
       </c>
       <c r="C449" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D449" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D449" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E449" s="7">
-        <v>0.607142857142857</v>
+        <v>0</v>
       </c>
       <c r="F449" s="7">
-        <v>0.660714285714285</v>
-      </c>
-      <c r="G449" s="8"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G449" s="7">
+        <v>0</v>
+      </c>
       <c r="H449" s="8"/>
     </row>
     <row r="450" ht="20.05" customHeight="1">
@@ -13319,16 +14225,20 @@
         <v>898</v>
       </c>
       <c r="C450" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="D450" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D450" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E450" s="7">
-        <v>0.789473684210526</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F450" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="G450" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G450" s="7">
+        <v>0</v>
+      </c>
       <c r="H450" s="8"/>
     </row>
     <row r="451" ht="20.05" customHeight="1">
@@ -13339,16 +14249,18 @@
         <v>900</v>
       </c>
       <c r="C451" t="s" s="6">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D451" s="7"/>
       <c r="E451" s="7">
-        <v>0.789473684210526</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F451" s="7">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="G451" s="8"/>
+        <v>0.660714285714285</v>
+      </c>
+      <c r="G451" s="7">
+        <v>0.553846153846154</v>
+      </c>
       <c r="H451" s="8"/>
     </row>
     <row r="452" ht="20.05" customHeight="1">
@@ -13359,16 +14271,18 @@
         <v>902</v>
       </c>
       <c r="C452" t="s" s="6">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D452" s="7"/>
       <c r="E452" s="7">
-        <v>0.754385964912281</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F452" s="7">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G452" s="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="G452" s="7">
+        <v>0</v>
+      </c>
       <c r="H452" s="8"/>
     </row>
     <row r="453" ht="20.05" customHeight="1">
@@ -13379,63 +14293,69 @@
         <v>904</v>
       </c>
       <c r="C453" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D453" s="7">
-        <v>0.897435897435897</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D453" s="7"/>
       <c r="E453" s="7">
-        <v>0.43859649122807</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="F453" s="7">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="G453" s="8"/>
+        <v>0.783333333333333</v>
+      </c>
+      <c r="G453" s="7">
+        <v>0.707692307692308</v>
+      </c>
       <c r="H453" s="8"/>
     </row>
     <row r="454" ht="20.05" customHeight="1">
       <c r="A454" t="s" s="6">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B454" t="s" s="6">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C454" t="s" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D454" s="7"/>
       <c r="E454" s="7">
-        <v>0.446428571428571</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F454" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="G454" s="8"/>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G454" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="H454" s="8"/>
     </row>
     <row r="455" ht="20.05" customHeight="1">
       <c r="A455" t="s" s="6">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B455" t="s" s="6">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C455" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D455" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D455" s="7">
+        <v>0.897435897435897</v>
+      </c>
       <c r="E455" s="7">
-        <v>0</v>
+        <v>0.43859649122807</v>
       </c>
       <c r="F455" s="7">
-        <v>0</v>
-      </c>
-      <c r="G455" s="8"/>
+        <v>0.533333333333333</v>
+      </c>
+      <c r="G455" s="7">
+        <v>0.430769230769231</v>
+      </c>
       <c r="H455" s="8"/>
     </row>
     <row r="456" ht="20.05" customHeight="1">
       <c r="A456" t="s" s="6">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B456" t="s" s="6">
         <v>909</v>
@@ -13445,51 +14365,101 @@
       </c>
       <c r="D456" s="7"/>
       <c r="E456" s="7">
-        <v>0.607142857142857</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="F456" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G456" s="8"/>
+        <v>0.625</v>
+      </c>
+      <c r="G456" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="H456" s="8"/>
     </row>
     <row r="457" ht="20.05" customHeight="1">
       <c r="A457" t="s" s="6">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B457" t="s" s="6">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C457" t="s" s="6">
         <v>59</v>
       </c>
       <c r="D457" s="7"/>
       <c r="E457" s="7">
-        <v>0.803571428571429</v>
+        <v>0</v>
       </c>
       <c r="F457" s="7">
-        <v>0.910714285714285</v>
-      </c>
-      <c r="G457" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="G457" s="7">
+        <v>0</v>
+      </c>
       <c r="H457" s="8"/>
     </row>
     <row r="458" ht="20.05" customHeight="1">
-      <c r="A458" s="8"/>
+      <c r="A458" t="s" s="6">
+        <v>912</v>
+      </c>
       <c r="B458" t="s" s="6">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C458" t="s" s="6">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D458" s="7"/>
       <c r="E458" s="7">
-        <v>0</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F458" s="7">
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G458" s="7">
+        <v>0.584615384615385</v>
+      </c>
+      <c r="H458" s="8"/>
+    </row>
+    <row r="459" ht="20.05" customHeight="1">
+      <c r="A459" t="s" s="6">
+        <v>912</v>
+      </c>
+      <c r="B459" t="s" s="6">
+        <v>914</v>
+      </c>
+      <c r="C459" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D459" s="7"/>
+      <c r="E459" s="7">
+        <v>0.803571428571429</v>
+      </c>
+      <c r="F459" s="7">
+        <v>0.910714285714285</v>
+      </c>
+      <c r="G459" s="7">
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H459" s="8"/>
+    </row>
+    <row r="460" ht="20.05" customHeight="1">
+      <c r="A460" s="8"/>
+      <c r="B460" t="s" s="6">
+        <v>915</v>
+      </c>
+      <c r="C460" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="D460" s="7"/>
+      <c r="E460" s="7">
+        <v>0</v>
+      </c>
+      <c r="F460" s="7">
         <v>0.716666666666666</v>
       </c>
-      <c r="G458" s="8"/>
-      <c r="H458" s="8"/>
+      <c r="G460" s="7">
+        <v>0</v>
+      </c>
+      <c r="H460" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -7110,7 +7110,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="F137" s="7">
-        <v>0</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="G137" s="7">
         <v>0.661538461538462</v>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="F136" s="7">
-        <v>0.683333333333333</v>
+        <v>0</v>
       </c>
       <c r="G136" s="7">
         <v>0</v>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -4089,7 +4089,9 @@
       <c r="C4" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E4" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -4111,7 +4113,9 @@
       <c r="C5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E5" s="7">
         <v>0.684210526315789</v>
       </c>
@@ -5423,7 +5427,9 @@
       <c r="C63" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E63" s="7">
         <v>0.631578947368421</v>
       </c>
@@ -5601,7 +5607,9 @@
       <c r="C71" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E71" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -6099,7 +6107,9 @@
       <c r="C93" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E93" s="7">
         <v>0.456140350877193</v>
       </c>
@@ -6745,7 +6755,9 @@
       <c r="C121" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D121" s="7"/>
+      <c r="D121" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E121" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -7035,7 +7047,9 @@
       <c r="C134" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="D134" s="7"/>
+      <c r="D134" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E134" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -7333,7 +7347,9 @@
       <c r="C147" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E147" s="7">
         <v>0.614035087719298</v>
       </c>
@@ -7403,7 +7419,9 @@
       <c r="C150" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D150" s="7"/>
+      <c r="D150" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E150" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -7469,7 +7487,9 @@
       <c r="C153" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E153" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -9903,7 +9923,9 @@
       <c r="C260" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="D260" s="7"/>
+      <c r="D260" s="7">
+        <v>0.820512820512821</v>
+      </c>
       <c r="E260" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -11093,7 +11115,9 @@
       <c r="C312" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D312" s="7"/>
+      <c r="D312" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E312" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -13455,7 +13479,9 @@
       <c r="C416" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D416" s="7"/>
+      <c r="D416" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E416" s="7">
         <v>0.736842105263158</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -736,12 +736,12 @@
     <t>GARIKAI</t>
   </si>
   <si>
+    <t>H200619N</t>
+  </si>
+  <si>
     <t>H200628T</t>
   </si>
   <si>
-    <t>H200619N</t>
-  </si>
-  <si>
     <t>GARIRAI</t>
   </si>
   <si>
@@ -1033,12 +1033,12 @@
     <t>KUIPA</t>
   </si>
   <si>
+    <t>H200592Y</t>
+  </si>
+  <si>
     <t>H200049M</t>
   </si>
   <si>
-    <t>H200592Y</t>
-  </si>
-  <si>
     <t>KUNZWI</t>
   </si>
   <si>
@@ -1642,12 +1642,12 @@
     <t>MOYO</t>
   </si>
   <si>
+    <t>H190116F</t>
+  </si>
+  <si>
     <t>H200632C</t>
   </si>
   <si>
-    <t>H190116F</t>
-  </si>
-  <si>
     <t>MPAKAME</t>
   </si>
   <si>
@@ -1714,12 +1714,12 @@
     <t>MUCHENJE</t>
   </si>
   <si>
+    <t>H200423X</t>
+  </si>
+  <si>
     <t>H200271Y</t>
   </si>
   <si>
-    <t>H200423X</t>
-  </si>
-  <si>
     <t>MUCHINERIPI</t>
   </si>
   <si>
@@ -1753,12 +1753,12 @@
     <t>MUDIWA</t>
   </si>
   <si>
+    <t>H200623M</t>
+  </si>
+  <si>
     <t>H200836V</t>
   </si>
   <si>
-    <t>H200623M</t>
-  </si>
-  <si>
     <t>MUDUMANI</t>
   </si>
   <si>
@@ -2089,12 +2089,12 @@
     <t>MUTEMA</t>
   </si>
   <si>
+    <t>H200601M</t>
+  </si>
+  <si>
     <t>H200056W</t>
   </si>
   <si>
-    <t>H200601M</t>
-  </si>
-  <si>
     <t>MUTENGA</t>
   </si>
   <si>
@@ -2389,10 +2389,10 @@
     <t>NYONI</t>
   </si>
   <si>
+    <t>H200655J</t>
+  </si>
+  <si>
     <t>H200329M</t>
-  </si>
-  <si>
-    <t>H200655J</t>
   </si>
   <si>
     <t>H200464R</t>
@@ -2811,7 +2811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2869,6 +2869,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
@@ -2885,7 +2900,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2901,7 +2916,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2910,10 +2925,22 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4045,7 +4072,9 @@
       <c r="C2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E2" s="4">
         <v>0.789473684210526</v>
       </c>
@@ -4055,7 +4084,10 @@
       <c r="G2" s="4">
         <v>0.476923076923077</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <f>(D2+LARGE(E2:G2,1)+LARGE(E2:G2,2))/3</f>
+        <v>0.584525416104363</v>
+      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -4101,7 +4133,10 @@
       <c r="G4" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="9">
+        <f>(D4+LARGE(E4:G4,1)+LARGE(E4:G4,2))/3</f>
+        <v>0.611965811965812</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -4125,7 +4160,10 @@
       <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9">
+        <f>(D5+LARGE(E5:G5,1)+LARGE(E5:G5,2))/3</f>
+        <v>0.566531713900135</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="6">
@@ -4149,7 +4187,10 @@
       <c r="G6" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="5">
+        <f>(D6+LARGE(E6:G6,1)+LARGE(E6:G6,2))/3</f>
+        <v>0.7591542959964011</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="6">
@@ -4173,7 +4214,10 @@
       <c r="G7" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="10">
+        <f>(D7+LARGE(E7:G7,1)+LARGE(E7:G7,2))/3</f>
+        <v>0.448942869995501</v>
+      </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="6">
@@ -4197,7 +4241,10 @@
       <c r="G8" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5">
+        <f>(D8+LARGE(E8:G8,1)+LARGE(E8:G8,2))/3</f>
+        <v>0.708996851102114</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="6">
@@ -4243,7 +4290,10 @@
       <c r="G10" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="5">
+        <f>(D10+LARGE(E10:G10,1)+LARGE(E10:G10,2))/3</f>
+        <v>0.729397210976158</v>
+      </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="6">
@@ -4265,7 +4315,7 @@
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="6">
@@ -4287,7 +4337,7 @@
       <c r="G12" s="7">
         <v>0.8</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="6">
@@ -4309,7 +4359,7 @@
       <c r="G13" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="6">
@@ -4355,7 +4405,10 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="5">
+        <f>(D15+LARGE(E15:G15,1)+LARGE(E15:G15,2))/3</f>
+        <v>0.396761133603239</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="6">
@@ -4401,7 +4454,10 @@
       <c r="G17" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="5">
+        <f>(D17+LARGE(E17:G17,1)+LARGE(E17:G17,2))/3</f>
+        <v>0.541452991452991</v>
+      </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="6">
@@ -4413,7 +4469,7 @@
       <c r="C18" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -4423,7 +4479,7 @@
       <c r="G18" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
@@ -4445,7 +4501,7 @@
       <c r="G19" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="6">
@@ -4457,7 +4513,7 @@
       <c r="C20" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="7">
         <v>0.56140350877193</v>
       </c>
@@ -4467,7 +4523,7 @@
       <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -4489,7 +4545,7 @@
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="6">
@@ -4511,7 +4567,7 @@
       <c r="G22" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="6">
@@ -4523,7 +4579,7 @@
       <c r="C23" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="7">
         <v>0.596491228070175</v>
       </c>
@@ -4557,7 +4613,10 @@
       <c r="G24" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="5">
+        <f>(D24+LARGE(E24:G24,1)+LARGE(E24:G24,2))/3</f>
+        <v>0.656522717049033</v>
+      </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="6">
@@ -4603,7 +4662,10 @@
       <c r="G26" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="5">
+        <f>(D26+LARGE(E26:G26,1)+LARGE(E26:G26,2))/3</f>
+        <v>0.851214574898785</v>
+      </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="6">
@@ -4637,7 +4699,9 @@
       <c r="C28" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E28" s="7">
         <v>0</v>
       </c>
@@ -4647,7 +4711,10 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="5">
+        <f>(D28+LARGE(E28:G28,1)+LARGE(E28:G28,2))/3</f>
+        <v>0.502136752136752</v>
+      </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="6">
@@ -4693,7 +4760,10 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9">
+        <f>(D30+LARGE(E30:G30,1)+LARGE(E30:G30,2))/3</f>
+        <v>0.686504723346828</v>
+      </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="6">
@@ -4717,7 +4787,10 @@
       <c r="G31" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="9">
+        <f>(D31+LARGE(E31:G31,1)+LARGE(E31:G31,2))/3</f>
+        <v>0.64017094017094</v>
+      </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="6">
@@ -4741,7 +4814,10 @@
       <c r="G32" s="7">
         <v>0.6</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="9">
+        <f>(D32+LARGE(E32:G32,1)+LARGE(E32:G32,2))/3</f>
+        <v>0.788394062078273</v>
+      </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -4753,7 +4829,9 @@
       <c r="C33" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E33" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -4763,7 +4841,10 @@
       <c r="G33" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="5">
+        <f>(D33+LARGE(E33:G33,1)+LARGE(E33:G33,2))/3</f>
+        <v>0.768983355825461</v>
+      </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -4775,7 +4856,7 @@
       <c r="C34" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -4809,7 +4890,10 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="5">
+        <f>(D35+LARGE(E35:G35,1)+LARGE(E35:G35,2))/3</f>
+        <v>0.716869095816464</v>
+      </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="6">
@@ -4831,7 +4915,7 @@
       <c r="G36" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="6">
@@ -4877,7 +4961,10 @@
       <c r="G38" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="5">
+        <f>(D38+LARGE(E38:G38,1)+LARGE(E38:G38,2))/3</f>
+        <v>0.706162843004948</v>
+      </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -4899,7 +4986,7 @@
       <c r="G39" s="7">
         <v>0</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -4921,7 +5008,7 @@
       <c r="G40" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="6">
@@ -4967,7 +5054,10 @@
       <c r="G42" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="5">
+        <f>(D42+LARGE(E42:G42,1)+LARGE(E42:G42,2))/3</f>
+        <v>0.57165991902834</v>
+      </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="6">
@@ -5013,7 +5103,10 @@
       <c r="G44" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="5">
+        <f>(D44+LARGE(E44:G44,1)+LARGE(E44:G44,2))/3</f>
+        <v>0.739316239316239</v>
+      </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -5035,7 +5128,7 @@
       <c r="G45" s="7">
         <v>0.4</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="6">
@@ -5057,7 +5150,7 @@
       <c r="G46" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -5079,7 +5172,7 @@
       <c r="G47" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -5101,7 +5194,7 @@
       <c r="G48" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="6">
@@ -5123,7 +5216,7 @@
       <c r="G49" s="7">
         <v>0.6</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="6">
@@ -5145,7 +5238,7 @@
       <c r="G50" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -5167,7 +5260,7 @@
       <c r="G51" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="6">
@@ -5213,7 +5306,10 @@
       <c r="G53" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="5">
+        <f>(D53+LARGE(E53:G53,1)+LARGE(E53:G53,2))/3</f>
+        <v>0.700314889788574</v>
+      </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="6">
@@ -5259,7 +5355,10 @@
       <c r="G55" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="5">
+        <f>(D55+LARGE(E55:G55,1)+LARGE(E55:G55,2))/3</f>
+        <v>0.698605488079172</v>
+      </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="6">
@@ -5281,7 +5380,7 @@
       <c r="G56" s="7">
         <v>0.8</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="6">
@@ -5303,7 +5402,7 @@
       <c r="G57" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="6">
@@ -5325,7 +5424,7 @@
       <c r="G58" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="6">
@@ -5347,7 +5446,7 @@
       <c r="G59" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="6">
@@ -5393,7 +5492,10 @@
       <c r="G61" s="7">
         <v>0</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="5">
+        <f>(D61+LARGE(E61:G61,1)+LARGE(E61:G61,2))/3</f>
+        <v>0.604318488529015</v>
+      </c>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="6">
@@ -5439,7 +5541,10 @@
       <c r="G63" s="7">
         <v>0</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="9">
+        <f>(D63+LARGE(E63:G63,1)+LARGE(E63:G63,2))/3</f>
+        <v>0.693859649122807</v>
+      </c>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -5451,7 +5556,9 @@
       <c r="C64" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E64" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -5461,7 +5568,10 @@
       <c r="G64" s="7">
         <v>0</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="9">
+        <f>(D64+LARGE(E64:G64,1)+LARGE(E64:G64,2))/3</f>
+        <v>0.751911830859199</v>
+      </c>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="6">
@@ -5485,7 +5595,10 @@
       <c r="G65" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="5">
+        <f>(D65+LARGE(E65:G65,1)+LARGE(E65:G65,2))/3</f>
+        <v>0.523504273504274</v>
+      </c>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="6">
@@ -5507,7 +5620,7 @@
       <c r="G66" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="6">
@@ -5529,7 +5642,7 @@
       <c r="G67" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -5551,7 +5664,7 @@
       <c r="G68" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="6">
@@ -5573,7 +5686,7 @@
       <c r="G69" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -5619,7 +5732,10 @@
       <c r="G71" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="9">
+        <f>(D71+LARGE(E71:G71,1)+LARGE(E71:G71,2))/3</f>
+        <v>0.762145748987854</v>
+      </c>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="6">
@@ -5643,7 +5759,10 @@
       <c r="G72" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H72" s="8"/>
+      <c r="H72" s="5">
+        <f>(D72+LARGE(E72:G72,1)+LARGE(E72:G72,2))/3</f>
+        <v>0.5882141250562301</v>
+      </c>
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="6">
@@ -5689,7 +5808,10 @@
       <c r="G74" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H74" s="8"/>
+      <c r="H74" s="5">
+        <f>(D74+LARGE(E74:G74,1)+LARGE(E74:G74,2))/3</f>
+        <v>0.803351327035538</v>
+      </c>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="6">
@@ -5711,7 +5833,7 @@
       <c r="G75" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="6">
@@ -5733,7 +5855,7 @@
       <c r="G76" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="6">
@@ -5755,7 +5877,7 @@
       <c r="G77" s="7">
         <v>0</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="6">
@@ -5777,7 +5899,7 @@
       <c r="G78" s="7">
         <v>0</v>
       </c>
-      <c r="H78" s="8"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="6">
@@ -5799,7 +5921,7 @@
       <c r="G79" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
@@ -5821,7 +5943,7 @@
       <c r="G80" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="6">
@@ -5843,7 +5965,7 @@
       <c r="G81" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="6">
@@ -5855,7 +5977,7 @@
       <c r="C82" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D82" s="8"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -5889,7 +6011,10 @@
       <c r="G83" s="7">
         <v>0</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="9">
+        <f>(D83+LARGE(E83:G83,1)+LARGE(E83:G83,2))/3</f>
+        <v>0.726248313090418</v>
+      </c>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="6">
@@ -5913,7 +6038,10 @@
       <c r="G84" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="9">
+        <f>(D84+LARGE(E84:G84,1)+LARGE(E84:G84,2))/3</f>
+        <v>0.622379667116509</v>
+      </c>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="6">
@@ -5937,7 +6065,10 @@
       <c r="G85" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="5">
+        <f>(D85+LARGE(E85:G85,1)+LARGE(E85:G85,2))/3</f>
+        <v>0.781556455240666</v>
+      </c>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="6">
@@ -5959,7 +6090,7 @@
       <c r="G86" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="6">
@@ -5981,7 +6112,7 @@
       <c r="G87" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H87" s="8"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="6">
@@ -6027,7 +6158,10 @@
       <c r="G89" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="5">
+        <f>(D89+LARGE(E89:G89,1)+LARGE(E89:G89,2))/3</f>
+        <v>0.777980206927575</v>
+      </c>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="6">
@@ -6049,7 +6183,7 @@
       <c r="G90" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="6">
@@ -6095,7 +6229,10 @@
       <c r="G92" s="7">
         <v>0</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="5">
+        <f>(D92+LARGE(E92:G92,1)+LARGE(E92:G92,2))/3</f>
+        <v>0.77834008097166</v>
+      </c>
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="6">
@@ -6119,7 +6256,10 @@
       <c r="G93" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="10">
+        <f>(D93+LARGE(E93:G93,1)+LARGE(E93:G93,2))/3</f>
+        <v>0.594871794871795</v>
+      </c>
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="6">
@@ -6143,7 +6283,10 @@
       <c r="G94" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="9">
+        <f>(D94+LARGE(E94:G94,1)+LARGE(E94:G94,2))/3</f>
+        <v>0.7702429149797571</v>
+      </c>
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="6">
@@ -6167,7 +6310,10 @@
       <c r="G95" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="9">
+        <f>(D95+LARGE(E95:G95,1)+LARGE(E95:G95,2))/3</f>
+        <v>0.758479532163743</v>
+      </c>
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="6">
@@ -6191,7 +6337,10 @@
       <c r="G96" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H96" s="8"/>
+      <c r="H96" s="5">
+        <f>(D96+LARGE(E96:G96,1)+LARGE(E96:G96,2))/3</f>
+        <v>0.826023391812865</v>
+      </c>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="6">
@@ -6213,7 +6362,7 @@
       <c r="G97" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H97" s="8"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="6">
@@ -6235,7 +6384,7 @@
       <c r="G98" s="7">
         <v>0</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="6">
@@ -6281,7 +6430,10 @@
       <c r="G100" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H100" s="8"/>
+      <c r="H100" s="5">
+        <f>(D100+LARGE(E100:G100,1)+LARGE(E100:G100,2))/3</f>
+        <v>0.828542510121457</v>
+      </c>
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="6">
@@ -6305,7 +6457,10 @@
       <c r="G101" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H101" s="8"/>
+      <c r="H101" s="12">
+        <f>(D101+LARGE(E101:G101,1)+LARGE(E101:G101,2))/3</f>
+        <v>0.5830859199280251</v>
+      </c>
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="6">
@@ -6327,7 +6482,7 @@
       <c r="G102" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H102" s="8"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="6">
@@ -6373,7 +6528,10 @@
       <c r="G104" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="H104" s="8"/>
+      <c r="H104" s="9">
+        <f>(D104+LARGE(E104:G104,1)+LARGE(E104:G104,2))/3</f>
+        <v>0.791025641025641</v>
+      </c>
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="6">
@@ -6397,7 +6555,10 @@
       <c r="G105" s="7">
         <v>0</v>
       </c>
-      <c r="H105" s="8"/>
+      <c r="H105" s="5">
+        <f>(D105+LARGE(E105:G105,1)+LARGE(E105:G105,2))/3</f>
+        <v>0.712573099415205</v>
+      </c>
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="6">
@@ -6419,7 +6580,7 @@
       <c r="G106" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H106" s="8"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="6">
@@ -6465,7 +6626,10 @@
       <c r="G108" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H108" s="8"/>
+      <c r="H108" s="9">
+        <f>(D108+LARGE(E108:G108,1)+LARGE(E108:G108,2))/3</f>
+        <v>0.713832658569501</v>
+      </c>
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="6">
@@ -6489,7 +6653,10 @@
       <c r="G109" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H109" s="8"/>
+      <c r="H109" s="9">
+        <f>(D109+LARGE(E109:G109,1)+LARGE(E109:G109,2))/3</f>
+        <v>0.8493027440395861</v>
+      </c>
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" t="s" s="6">
@@ -6513,7 +6680,10 @@
       <c r="G110" s="7">
         <v>0.138461538461538</v>
       </c>
-      <c r="H110" s="8"/>
+      <c r="H110" s="9">
+        <f>(D110+LARGE(E110:G110,1)+LARGE(E110:G110,2))/3</f>
+        <v>0.644489428699955</v>
+      </c>
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="6">
@@ -6537,7 +6707,10 @@
       <c r="G111" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H111" s="8"/>
+      <c r="H111" s="9">
+        <f>(D111+LARGE(E111:G111,1)+LARGE(E111:G111,2))/3</f>
+        <v>0.705735492577598</v>
+      </c>
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="6">
@@ -6561,7 +6734,10 @@
       <c r="G112" s="7">
         <v>0.6</v>
       </c>
-      <c r="H112" s="8"/>
+      <c r="H112" s="5">
+        <f>(D112+LARGE(E112:G112,1)+LARGE(E112:G112,2))/3</f>
+        <v>0.887089518668466</v>
+      </c>
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="6">
@@ -6593,19 +6769,24 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D114" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E114" s="7">
-        <v>0.642857142857143</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F114" s="7">
-        <v>0.910714285714285</v>
+        <v>0</v>
       </c>
       <c r="G114" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H114" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="5">
+        <f>(D114+LARGE(E114:G114,1)+LARGE(E114:G114,2))/3</f>
+        <v>0.38506522717049</v>
+      </c>
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="6">
@@ -6615,21 +6796,19 @@
         <v>242</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D115" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D115" s="7"/>
       <c r="E115" s="7">
-        <v>0.719298245614035</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F115" s="7">
-        <v>0</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G115" s="7">
-        <v>0</v>
-      </c>
-      <c r="H115" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="6">
@@ -6651,7 +6830,7 @@
       <c r="G116" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H116" s="8"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="6">
@@ -6673,7 +6852,7 @@
       <c r="G117" s="7">
         <v>0</v>
       </c>
-      <c r="H117" s="8"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="6">
@@ -6719,7 +6898,10 @@
       <c r="G119" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H119" s="8"/>
+      <c r="H119" s="9">
+        <f>(D119+LARGE(E119:G119,1)+LARGE(E119:G119,2))/3</f>
+        <v>0.662438146648673</v>
+      </c>
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="6">
@@ -6743,7 +6925,10 @@
       <c r="G120" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H120" s="8"/>
+      <c r="H120" s="9">
+        <f>(D120+LARGE(E120:G120,1)+LARGE(E120:G120,2))/3</f>
+        <v>0.593252361673414</v>
+      </c>
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" t="s" s="6">
@@ -6767,7 +6952,10 @@
       <c r="G121" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H121" s="8"/>
+      <c r="H121" s="5">
+        <f>(D121+LARGE(E121:G121,1)+LARGE(E121:G121,2))/3</f>
+        <v>0.799482681061628</v>
+      </c>
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="6">
@@ -6813,7 +7001,10 @@
       <c r="G123" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H123" s="8"/>
+      <c r="H123" s="5">
+        <f>(D123+LARGE(E123:G123,1)+LARGE(E123:G123,2))/3</f>
+        <v>0.7601664417453891</v>
+      </c>
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="6">
@@ -6835,7 +7026,7 @@
       <c r="G124" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H124" s="8"/>
+      <c r="H124" s="11"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="6">
@@ -6869,7 +7060,9 @@
       <c r="C126" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D126" s="7"/>
+      <c r="D126" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E126" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -6879,7 +7072,10 @@
       <c r="G126" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H126" s="8"/>
+      <c r="H126" s="5">
+        <f>(D126+LARGE(E126:G126,1)+LARGE(E126:G126,2))/3</f>
+        <v>0.691880341880342</v>
+      </c>
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="6">
@@ -6901,7 +7097,7 @@
       <c r="G127" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H127" s="8"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="6">
@@ -6947,7 +7143,10 @@
       <c r="G129" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H129" s="8"/>
+      <c r="H129" s="5">
+        <f>(D129+LARGE(E129:G129,1)+LARGE(E129:G129,2))/3</f>
+        <v>0.854183535762483</v>
+      </c>
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="6">
@@ -6969,7 +7168,7 @@
       <c r="G130" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H130" s="8"/>
+      <c r="H130" s="11"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="6">
@@ -6991,7 +7190,7 @@
       <c r="G131" s="7">
         <v>0</v>
       </c>
-      <c r="H131" s="8"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="6">
@@ -7013,7 +7212,7 @@
       <c r="G132" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H132" s="8"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="6">
@@ -7059,7 +7258,10 @@
       <c r="G134" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H134" s="8"/>
+      <c r="H134" s="9">
+        <f>(D134+LARGE(E134:G134,1)+LARGE(E134:G134,2))/3</f>
+        <v>0.7437696806117861</v>
+      </c>
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="6">
@@ -7083,7 +7285,10 @@
       <c r="G135" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H135" s="8"/>
+      <c r="H135" s="5">
+        <f>(D135+LARGE(E135:G135,1)+LARGE(E135:G135,2))/3</f>
+        <v>0.743072424651372</v>
+      </c>
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="6">
@@ -7129,7 +7334,10 @@
       <c r="G137" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H137" s="8"/>
+      <c r="H137" s="5">
+        <f>(D137+LARGE(E137:G137,1)+LARGE(E137:G137,2))/3</f>
+        <v>0.644331983805668</v>
+      </c>
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="6">
@@ -7175,7 +7383,10 @@
       <c r="G139" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H139" s="8"/>
+      <c r="H139" s="5">
+        <f>(D139+LARGE(E139:G139,1)+LARGE(E139:G139,2))/3</f>
+        <v>0.778857399910032</v>
+      </c>
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="6">
@@ -7221,7 +7432,10 @@
       <c r="G141" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H141" s="8"/>
+      <c r="H141" s="5">
+        <f>(D141+LARGE(E141:G141,1)+LARGE(E141:G141,2))/3</f>
+        <v>0.696288798920378</v>
+      </c>
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="6">
@@ -7245,7 +7459,10 @@
       <c r="G142" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H142" s="8"/>
+      <c r="H142" s="12">
+        <f>(D142+LARGE(E142:G142,1)+LARGE(E142:G142,2))/3</f>
+        <v>0.474358974358974</v>
+      </c>
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="6">
@@ -7257,7 +7474,7 @@
       <c r="C143" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D143" s="8"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="7">
         <v>0.526315789473684</v>
       </c>
@@ -7267,7 +7484,7 @@
       <c r="G143" s="7">
         <v>0</v>
       </c>
-      <c r="H143" s="8"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="6">
@@ -7313,7 +7530,10 @@
       <c r="G145" s="7">
         <v>0.8</v>
       </c>
-      <c r="H145" s="8"/>
+      <c r="H145" s="5">
+        <f>(D145+LARGE(E145:G145,1)+LARGE(E145:G145,2))/3</f>
+        <v>0.862820512820513</v>
+      </c>
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="6">
@@ -7325,7 +7545,7 @@
       <c r="C146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D146" s="8"/>
+      <c r="D146" s="11"/>
       <c r="E146" s="7">
         <v>0.649122807017544</v>
       </c>
@@ -7359,7 +7579,10 @@
       <c r="G147" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H147" s="8"/>
+      <c r="H147" s="5">
+        <f>(D147+LARGE(E147:G147,1)+LARGE(E147:G147,2))/3</f>
+        <v>0.647435897435897</v>
+      </c>
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="6">
@@ -7383,7 +7606,10 @@
       <c r="G148" s="7">
         <v>0</v>
       </c>
-      <c r="H148" s="8"/>
+      <c r="H148" s="10">
+        <f>(D148+LARGE(E148:G148,1)+LARGE(E148:G148,2))/3</f>
+        <v>0.6247638326585691</v>
+      </c>
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="6">
@@ -7407,7 +7633,10 @@
       <c r="G149" s="7">
         <v>0</v>
       </c>
-      <c r="H149" s="8"/>
+      <c r="H149" s="9">
+        <f>(D149+LARGE(E149:G149,1)+LARGE(E149:G149,2))/3</f>
+        <v>0.399100314889789</v>
+      </c>
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="6">
@@ -7431,7 +7660,10 @@
       <c r="G150" s="7">
         <v>0</v>
       </c>
-      <c r="H150" s="8"/>
+      <c r="H150" s="5">
+        <f>(D150+LARGE(E150:G150,1)+LARGE(E150:G150,2))/3</f>
+        <v>0.603013945119208</v>
+      </c>
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="6">
@@ -7453,7 +7685,7 @@
       <c r="G151" s="7">
         <v>0</v>
       </c>
-      <c r="H151" s="8"/>
+      <c r="H151" s="11"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="6">
@@ -7499,7 +7731,10 @@
       <c r="G153" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H153" s="8"/>
+      <c r="H153" s="9">
+        <f>(D153+LARGE(E153:G153,1)+LARGE(E153:G153,2))/3</f>
+        <v>0.603778677462888</v>
+      </c>
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="6">
@@ -7523,7 +7758,10 @@
       <c r="G154" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H154" s="8"/>
+      <c r="H154" s="9">
+        <f>(D154+LARGE(E154:G154,1)+LARGE(E154:G154,2))/3</f>
+        <v>0.787764282501124</v>
+      </c>
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="6">
@@ -7547,7 +7785,10 @@
       <c r="G155" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H155" s="8"/>
+      <c r="H155" s="5">
+        <f>(D155+LARGE(E155:G155,1)+LARGE(E155:G155,2))/3</f>
+        <v>0.784795321637427</v>
+      </c>
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="6">
@@ -7569,7 +7810,7 @@
       <c r="G156" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H156" s="8"/>
+      <c r="H156" s="11"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="6">
@@ -7591,7 +7832,7 @@
       <c r="G157" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H157" s="8"/>
+      <c r="H157" s="11"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="6">
@@ -7613,7 +7854,7 @@
       <c r="G158" s="7">
         <v>0</v>
       </c>
-      <c r="H158" s="8"/>
+      <c r="H158" s="11"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="6">
@@ -7659,7 +7900,10 @@
       <c r="G160" s="7">
         <v>0</v>
       </c>
-      <c r="H160" s="8"/>
+      <c r="H160" s="5">
+        <f>(D160+LARGE(E160:G160,1)+LARGE(E160:G160,2))/3</f>
+        <v>0.634030589293747</v>
+      </c>
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="6">
@@ -7683,7 +7927,10 @@
       <c r="G161" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H161" s="8"/>
+      <c r="H161" s="12">
+        <f>(D161+LARGE(E161:G161,1)+LARGE(E161:G161,2))/3</f>
+        <v>0.666419253261359</v>
+      </c>
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="6">
@@ -7729,7 +7976,10 @@
       <c r="G163" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="H163" s="8"/>
+      <c r="H163" s="9">
+        <f>(D163+LARGE(E163:G163,1)+LARGE(E163:G163,2))/3</f>
+        <v>0.75314889788574</v>
+      </c>
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="6">
@@ -7741,17 +7991,22 @@
       <c r="C164" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D164" s="7"/>
+      <c r="D164" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E164" s="7">
-        <v>0.491228070175439</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F164" s="7">
-        <v>0.916666666666666</v>
+        <v>1</v>
       </c>
       <c r="G164" s="7">
-        <v>0.584615384615385</v>
-      </c>
-      <c r="H164" s="8"/>
+        <v>0.630769230769231</v>
+      </c>
+      <c r="H164" s="5">
+        <f>(D164+LARGE(E164:G164,1)+LARGE(E164:G164,2))/3</f>
+        <v>0.764732343679712</v>
+      </c>
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="6">
@@ -7763,17 +8018,15 @@
       <c r="C165" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D165" s="7">
-        <v>0.487179487179487</v>
-      </c>
+      <c r="D165" s="7"/>
       <c r="E165" s="7">
-        <v>0.807017543859649</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="F165" s="7">
-        <v>1</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G165" s="7">
-        <v>0.630769230769231</v>
+        <v>0.584615384615385</v>
       </c>
       <c r="H165" s="8"/>
     </row>
@@ -7799,7 +8052,10 @@
       <c r="G166" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H166" s="8"/>
+      <c r="H166" s="5">
+        <f>(D166+LARGE(E166:G166,1)+LARGE(E166:G166,2))/3</f>
+        <v>0.648717948717949</v>
+      </c>
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="6">
@@ -7821,7 +8077,7 @@
       <c r="G167" s="7">
         <v>0</v>
       </c>
-      <c r="H167" s="8"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="6">
@@ -7843,7 +8099,7 @@
       <c r="G168" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H168" s="8"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="6">
@@ -7865,7 +8121,7 @@
       <c r="G169" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H169" s="8"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="6">
@@ -7887,7 +8143,7 @@
       <c r="G170" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H170" s="8"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="6">
@@ -7909,7 +8165,7 @@
       <c r="G171" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H171" s="8"/>
+      <c r="H171" s="11"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="6">
@@ -7931,7 +8187,7 @@
       <c r="G172" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H172" s="8"/>
+      <c r="H172" s="11"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="6">
@@ -7977,7 +8233,10 @@
       <c r="G174" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H174" s="8"/>
+      <c r="H174" s="9">
+        <f>(D174+LARGE(E174:G174,1)+LARGE(E174:G174,2))/3</f>
+        <v>0.727350427350427</v>
+      </c>
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="6">
@@ -7989,7 +8248,9 @@
       <c r="C175" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D175" s="7"/>
+      <c r="D175" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E175" s="7">
         <v>0.596491228070175</v>
       </c>
@@ -7999,7 +8260,10 @@
       <c r="G175" s="7">
         <v>0.184615384615385</v>
       </c>
-      <c r="H175" s="8"/>
+      <c r="H175" s="5">
+        <f>(D175+LARGE(E175:G175,1)+LARGE(E175:G175,2))/3</f>
+        <v>0.602249212775528</v>
+      </c>
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="6">
@@ -8045,7 +8309,10 @@
       <c r="G177" s="7">
         <v>0</v>
       </c>
-      <c r="H177" s="8"/>
+      <c r="H177" s="5">
+        <f>(D177+LARGE(E177:G177,1)+LARGE(E177:G177,2))/3</f>
+        <v>0.718735942420153</v>
+      </c>
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="6">
@@ -8069,7 +8336,10 @@
       <c r="G178" s="7">
         <v>0</v>
       </c>
-      <c r="H178" s="8"/>
+      <c r="H178" s="12">
+        <f>(D178+LARGE(E178:G178,1)+LARGE(E178:G178,2))/3</f>
+        <v>0.51144849302744</v>
+      </c>
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="6">
@@ -8091,7 +8361,7 @@
       <c r="G179" s="7">
         <v>0</v>
       </c>
-      <c r="H179" s="8"/>
+      <c r="H179" s="11"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="6">
@@ -8113,7 +8383,7 @@
       <c r="G180" s="7">
         <v>0.6</v>
       </c>
-      <c r="H180" s="8"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="6">
@@ -8135,7 +8405,7 @@
       <c r="G181" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H181" s="8"/>
+      <c r="H181" s="11"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="6">
@@ -8147,7 +8417,7 @@
       <c r="C182" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D182" s="8"/>
+      <c r="D182" s="11"/>
       <c r="E182" s="7">
         <v>0.771929824561404</v>
       </c>
@@ -8181,7 +8451,10 @@
       <c r="G183" s="7">
         <v>0.6</v>
       </c>
-      <c r="H183" s="8"/>
+      <c r="H183" s="5">
+        <f>(D183+LARGE(E183:G183,1)+LARGE(E183:G183,2))/3</f>
+        <v>0.733895636527215</v>
+      </c>
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="6">
@@ -8227,7 +8500,10 @@
       <c r="G185" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H185" s="8"/>
+      <c r="H185" s="5">
+        <f>(D185+LARGE(E185:G185,1)+LARGE(E185:G185,2))/3</f>
+        <v>0.62519118308592</v>
+      </c>
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="6">
@@ -8249,7 +8525,7 @@
       <c r="G186" s="7">
         <v>0</v>
       </c>
-      <c r="H186" s="8"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="6">
@@ -8271,7 +8547,7 @@
       <c r="G187" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H187" s="8"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="6">
@@ -8283,7 +8559,7 @@
       <c r="C188" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="D188" s="8"/>
+      <c r="D188" s="11"/>
       <c r="E188" s="7">
         <v>0.315789473684211</v>
       </c>
@@ -8293,7 +8569,7 @@
       <c r="G188" s="7">
         <v>0</v>
       </c>
-      <c r="H188" s="9"/>
+      <c r="H188" s="13"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="6">
@@ -8315,7 +8591,7 @@
       <c r="G189" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H189" s="8"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" t="s" s="6">
@@ -8337,7 +8613,7 @@
       <c r="G190" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H190" s="8"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="6">
@@ -8383,7 +8659,10 @@
       <c r="G192" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H192" s="8"/>
+      <c r="H192" s="5">
+        <f>(D192+LARGE(E192:G192,1)+LARGE(E192:G192,2))/3</f>
+        <v>0.642914979757085</v>
+      </c>
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="6">
@@ -8429,7 +8708,10 @@
       <c r="G194" s="7">
         <v>0</v>
       </c>
-      <c r="H194" s="8"/>
+      <c r="H194" s="5">
+        <f>(D194+LARGE(E194:G194,1)+LARGE(E194:G194,2))/3</f>
+        <v>0.663202878992353</v>
+      </c>
     </row>
     <row r="195" ht="20.05" customHeight="1">
       <c r="A195" t="s" s="6">
@@ -8441,7 +8723,7 @@
       <c r="C195" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D195" s="8"/>
+      <c r="D195" s="11"/>
       <c r="E195" s="7">
         <v>0.771929824561404</v>
       </c>
@@ -8451,7 +8733,7 @@
       <c r="G195" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H195" s="8"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
       <c r="A196" t="s" s="6">
@@ -8473,7 +8755,7 @@
       <c r="G196" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H196" s="8"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" t="s" s="6">
@@ -8485,7 +8767,7 @@
       <c r="C197" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D197" s="8"/>
+      <c r="D197" s="11"/>
       <c r="E197" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -8495,7 +8777,7 @@
       <c r="G197" s="7">
         <v>0</v>
       </c>
-      <c r="H197" s="8"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
       <c r="A198" t="s" s="6">
@@ -8541,7 +8823,10 @@
       <c r="G199" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H199" s="8"/>
+      <c r="H199" s="5">
+        <f>(D199+LARGE(E199:G199,1)+LARGE(E199:G199,2))/3</f>
+        <v>0.5895861448493031</v>
+      </c>
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" t="s" s="6">
@@ -8553,7 +8838,7 @@
       <c r="C200" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D200" s="8"/>
+      <c r="D200" s="11"/>
       <c r="E200" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -8563,7 +8848,7 @@
       <c r="G200" s="7">
         <v>0</v>
       </c>
-      <c r="H200" s="8"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
       <c r="A201" t="s" s="6">
@@ -8585,7 +8870,7 @@
       <c r="G201" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H201" s="8"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
       <c r="A202" t="s" s="6">
@@ -8631,7 +8916,10 @@
       <c r="G203" s="7">
         <v>0.6</v>
       </c>
-      <c r="H203" s="8"/>
+      <c r="H203" s="5">
+        <f>(D203+LARGE(E203:G203,1)+LARGE(E203:G203,2))/3</f>
+        <v>0.593769680611786</v>
+      </c>
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="6">
@@ -8677,7 +8965,10 @@
       <c r="G205" s="7">
         <v>0</v>
       </c>
-      <c r="H205" s="8"/>
+      <c r="H205" s="9">
+        <f>(D205+LARGE(E205:G205,1)+LARGE(E205:G205,2))/3</f>
+        <v>0.365721997300945</v>
+      </c>
     </row>
     <row r="206" ht="20.05" customHeight="1">
       <c r="A206" t="s" s="6">
@@ -8701,7 +8992,10 @@
       <c r="G206" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H206" s="8"/>
+      <c r="H206" s="5">
+        <f>(D206+LARGE(E206:G206,1)+LARGE(E206:G206,2))/3</f>
+        <v>0.759266756635178</v>
+      </c>
     </row>
     <row r="207" ht="20.05" customHeight="1">
       <c r="A207" t="s" s="6">
@@ -8723,7 +9017,7 @@
       <c r="G207" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H207" s="8"/>
+      <c r="H207" s="11"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
       <c r="A208" t="s" s="6">
@@ -8745,7 +9039,7 @@
       <c r="G208" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H208" s="8"/>
+      <c r="H208" s="11"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
       <c r="A209" t="s" s="6">
@@ -8767,7 +9061,7 @@
       <c r="G209" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H209" s="8"/>
+      <c r="H209" s="11"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="6">
@@ -8779,7 +9073,7 @@
       <c r="C210" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D210" s="8"/>
+      <c r="D210" s="11"/>
       <c r="E210" s="7">
         <v>0.56140350877193</v>
       </c>
@@ -8789,7 +9083,7 @@
       <c r="G210" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H210" s="8"/>
+      <c r="H210" s="11"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
       <c r="A211" t="s" s="6">
@@ -8811,7 +9105,7 @@
       <c r="G211" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H211" s="8"/>
+      <c r="H211" s="11"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" t="s" s="6">
@@ -8833,7 +9127,7 @@
       <c r="G212" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H212" s="8"/>
+      <c r="H212" s="11"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" t="s" s="6">
@@ -8879,7 +9173,10 @@
       <c r="G214" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H214" s="8"/>
+      <c r="H214" s="9">
+        <f>(D214+LARGE(E214:G214,1)+LARGE(E214:G214,2))/3</f>
+        <v>0.606747638326585</v>
+      </c>
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="6">
@@ -8903,7 +9200,10 @@
       <c r="G215" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H215" s="8"/>
+      <c r="H215" s="5">
+        <f>(D215+LARGE(E215:G215,1)+LARGE(E215:G215,2))/3</f>
+        <v>0.836527215474584</v>
+      </c>
     </row>
     <row r="216" ht="20.05" customHeight="1">
       <c r="A216" t="s" s="6">
@@ -8925,7 +9225,7 @@
       <c r="G216" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H216" s="8"/>
+      <c r="H216" s="11"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
       <c r="A217" t="s" s="6">
@@ -8947,7 +9247,7 @@
       <c r="G217" s="7">
         <v>0</v>
       </c>
-      <c r="H217" s="8"/>
+      <c r="H217" s="11"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
       <c r="A218" t="s" s="6">
@@ -8969,7 +9269,7 @@
       <c r="G218" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H218" s="8"/>
+      <c r="H218" s="11"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="6">
@@ -8991,7 +9291,7 @@
       <c r="G219" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H219" s="8"/>
+      <c r="H219" s="11"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
       <c r="A220" t="s" s="6">
@@ -9037,7 +9337,10 @@
       <c r="G221" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H221" s="8"/>
+      <c r="H221" s="5">
+        <f>(D221+LARGE(E221:G221,1)+LARGE(E221:G221,2))/3</f>
+        <v>0.784188034188034</v>
+      </c>
     </row>
     <row r="222" ht="20.05" customHeight="1">
       <c r="A222" t="s" s="6">
@@ -9059,7 +9362,7 @@
       <c r="G222" s="7">
         <v>0</v>
       </c>
-      <c r="H222" s="8"/>
+      <c r="H222" s="11"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
       <c r="A223" t="s" s="6">
@@ -9105,7 +9408,10 @@
       <c r="G224" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H224" s="8"/>
+      <c r="H224" s="9">
+        <f>(D224+LARGE(E224:G224,1)+LARGE(E224:G224,2))/3</f>
+        <v>0.645906432748538</v>
+      </c>
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="6">
@@ -9129,7 +9435,10 @@
       <c r="G225" s="7">
         <v>0</v>
       </c>
-      <c r="H225" s="8"/>
+      <c r="H225" s="9">
+        <f>(D225+LARGE(E225:G225,1)+LARGE(E225:G225,2))/3</f>
+        <v>0.46225820962663</v>
+      </c>
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" t="s" s="6">
@@ -9153,7 +9462,10 @@
       <c r="G226" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H226" s="8"/>
+      <c r="H226" s="5">
+        <f>(D226+LARGE(E226:G226,1)+LARGE(E226:G226,2))/3</f>
+        <v>0.757017543859649</v>
+      </c>
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="6">
@@ -9175,7 +9487,7 @@
       <c r="G227" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H227" s="8"/>
+      <c r="H227" s="11"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" t="s" s="6">
@@ -9221,7 +9533,10 @@
       <c r="G229" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H229" s="8"/>
+      <c r="H229" s="5">
+        <f>(D229+LARGE(E229:G229,1)+LARGE(E229:G229,2))/3</f>
+        <v>0.757017543859649</v>
+      </c>
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="6">
@@ -9243,7 +9558,7 @@
       <c r="G230" s="7">
         <v>0</v>
       </c>
-      <c r="H230" s="8"/>
+      <c r="H230" s="11"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="6">
@@ -9265,7 +9580,7 @@
       <c r="G231" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H231" s="8"/>
+      <c r="H231" s="11"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="6">
@@ -9311,7 +9626,10 @@
       <c r="G233" s="7">
         <v>0</v>
       </c>
-      <c r="H233" s="8"/>
+      <c r="H233" s="9">
+        <f>(D233+LARGE(E233:G233,1)+LARGE(E233:G233,2))/3</f>
+        <v>0.764709851551957</v>
+      </c>
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" t="s" s="6">
@@ -9335,7 +9653,10 @@
       <c r="G234" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H234" s="8"/>
+      <c r="H234" s="9">
+        <f>(D234+LARGE(E234:G234,1)+LARGE(E234:G234,2))/3</f>
+        <v>0.565092217723797</v>
+      </c>
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" t="s" s="6">
@@ -9359,7 +9680,10 @@
       <c r="G235" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H235" s="8"/>
+      <c r="H235" s="9">
+        <f>(D235+LARGE(E235:G235,1)+LARGE(E235:G235,2))/3</f>
+        <v>0.693792172739541</v>
+      </c>
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="6">
@@ -9383,7 +9707,10 @@
       <c r="G236" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H236" s="8"/>
+      <c r="H236" s="5">
+        <f>(D236+LARGE(E236:G236,1)+LARGE(E236:G236,2))/3</f>
+        <v>0.706590193432299</v>
+      </c>
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="6">
@@ -9429,7 +9756,10 @@
       <c r="G238" s="7">
         <v>0</v>
       </c>
-      <c r="H238" s="8"/>
+      <c r="H238" s="9">
+        <f>(D238+LARGE(E238:G238,1)+LARGE(E238:G238,2))/3</f>
+        <v>0.608232118758434</v>
+      </c>
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="6">
@@ -9453,7 +9783,10 @@
       <c r="G239" s="7">
         <v>0.6</v>
       </c>
-      <c r="H239" s="8"/>
+      <c r="H239" s="9">
+        <f>(D239+LARGE(E239:G239,1)+LARGE(E239:G239,2))/3</f>
+        <v>0.705173189383716</v>
+      </c>
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="6">
@@ -9477,7 +9810,10 @@
       <c r="G240" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H240" s="8"/>
+      <c r="H240" s="9">
+        <f>(D240+LARGE(E240:G240,1)+LARGE(E240:G240,2))/3</f>
+        <v>0.700607287449393</v>
+      </c>
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="6">
@@ -9501,7 +9837,10 @@
       <c r="G241" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H241" s="8"/>
+      <c r="H241" s="9">
+        <f>(D241+LARGE(E241:G241,1)+LARGE(E241:G241,2))/3</f>
+        <v>0.848515519568151</v>
+      </c>
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
@@ -9525,7 +9864,10 @@
       <c r="G242" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H242" s="8"/>
+      <c r="H242" s="5">
+        <f>(D242+LARGE(E242:G242,1)+LARGE(E242:G242,2))/3</f>
+        <v>0.786077372919478</v>
+      </c>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
@@ -9547,7 +9889,7 @@
       <c r="G243" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H243" s="8"/>
+      <c r="H243" s="11"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
@@ -9593,7 +9935,10 @@
       <c r="G245" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H245" s="8"/>
+      <c r="H245" s="9">
+        <f>(D245+LARGE(E245:G245,1)+LARGE(E245:G245,2))/3</f>
+        <v>0.778789923526765</v>
+      </c>
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="6">
@@ -9617,7 +9962,10 @@
       <c r="G246" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H246" s="8"/>
+      <c r="H246" s="5">
+        <f>(D246+LARGE(E246:G246,1)+LARGE(E246:G246,2))/3</f>
+        <v>0.825123706702654</v>
+      </c>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
@@ -9641,7 +9989,10 @@
       <c r="G247" s="7">
         <v>0.323076923076923</v>
       </c>
-      <c r="H247" s="8"/>
+      <c r="H247" s="12">
+        <f>(D247+LARGE(E247:G247,1)+LARGE(E247:G247,2))/3</f>
+        <v>0.354700854700855</v>
+      </c>
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="6">
@@ -9653,7 +10004,7 @@
       <c r="C248" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="D248" s="8"/>
+      <c r="D248" s="11"/>
       <c r="E248" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -9663,7 +10014,7 @@
       <c r="G248" s="7">
         <v>0</v>
       </c>
-      <c r="H248" s="8"/>
+      <c r="H248" s="11"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="6">
@@ -9685,7 +10036,7 @@
       <c r="G249" s="7">
         <v>0</v>
       </c>
-      <c r="H249" s="8"/>
+      <c r="H249" s="11"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="6">
@@ -9731,7 +10082,10 @@
       <c r="G251" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H251" s="8"/>
+      <c r="H251" s="5">
+        <f>(D251+LARGE(E251:G251,1)+LARGE(E251:G251,2))/3</f>
+        <v>0.827980206927575</v>
+      </c>
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
@@ -9755,7 +10109,10 @@
       <c r="G252" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H252" s="8"/>
+      <c r="H252" s="12">
+        <f>(D252+LARGE(E252:G252,1)+LARGE(E252:G252,2))/3</f>
+        <v>0.557264957264957</v>
+      </c>
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
@@ -9801,7 +10158,10 @@
       <c r="G254" s="7">
         <v>0</v>
       </c>
-      <c r="H254" s="8"/>
+      <c r="H254" s="5">
+        <f>(D254+LARGE(E254:G254,1)+LARGE(E254:G254,2))/3</f>
+        <v>0.781826360773729</v>
+      </c>
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
@@ -9813,7 +10173,7 @@
       <c r="C255" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D255" s="8"/>
+      <c r="D255" s="11"/>
       <c r="E255" s="7">
         <v>0.245614035087719</v>
       </c>
@@ -9823,7 +10183,7 @@
       <c r="G255" s="7">
         <v>0</v>
       </c>
-      <c r="H255" s="8"/>
+      <c r="H255" s="11"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
@@ -9845,7 +10205,7 @@
       <c r="G256" s="7">
         <v>0.6</v>
       </c>
-      <c r="H256" s="8"/>
+      <c r="H256" s="11"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" t="s" s="6">
@@ -9867,7 +10227,7 @@
       <c r="G257" s="7">
         <v>0</v>
       </c>
-      <c r="H257" s="8"/>
+      <c r="H257" s="11"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="6">
@@ -9889,7 +10249,7 @@
       <c r="G258" s="7">
         <v>0</v>
       </c>
-      <c r="H258" s="8"/>
+      <c r="H258" s="11"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="6">
@@ -9935,7 +10295,10 @@
       <c r="G260" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H260" s="8"/>
+      <c r="H260" s="5">
+        <f>(D260+LARGE(E260:G260,1)+LARGE(E260:G260,2))/3</f>
+        <v>0.716149347728295</v>
+      </c>
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="6">
@@ -9957,7 +10320,7 @@
       <c r="G261" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H261" s="8"/>
+      <c r="H261" s="11"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="6">
@@ -10003,7 +10366,10 @@
       <c r="G263" s="7">
         <v>0</v>
       </c>
-      <c r="H263" s="8"/>
+      <c r="H263" s="5">
+        <f>(D263+LARGE(E263:G263,1)+LARGE(E263:G263,2))/3</f>
+        <v>0.734233018443545</v>
+      </c>
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="6">
@@ -10049,7 +10415,10 @@
       <c r="G265" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H265" s="8"/>
+      <c r="H265" s="5">
+        <f>(D265+LARGE(E265:G265,1)+LARGE(E265:G265,2))/3</f>
+        <v>0.590845704003599</v>
+      </c>
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="6">
@@ -10081,19 +10450,24 @@
         <v>543</v>
       </c>
       <c r="C267" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D267" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D267" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E267" s="7">
-        <v>0.553571428571429</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="F267" s="7">
-        <v>0.75</v>
+        <v>0.316666666666666</v>
       </c>
       <c r="G267" s="7">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="H267" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H267" s="5">
+        <f>(D267+LARGE(E267:G267,1)+LARGE(E267:G267,2))/3</f>
+        <v>0.555847953216374</v>
+      </c>
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="6">
@@ -10103,19 +10477,17 @@
         <v>544</v>
       </c>
       <c r="C268" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D268" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D268" s="7"/>
       <c r="E268" s="7">
-        <v>0.684210526315789</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="F268" s="7">
-        <v>0.316666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G268" s="7">
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H268" s="8"/>
     </row>
@@ -10141,7 +10513,10 @@
       <c r="G269" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H269" s="8"/>
+      <c r="H269" s="5">
+        <f>(D269+LARGE(E269:G269,1)+LARGE(E269:G269,2))/3</f>
+        <v>0.6944669365722</v>
+      </c>
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="6">
@@ -10163,7 +10538,7 @@
       <c r="G270" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H270" s="8"/>
+      <c r="H270" s="11"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="6">
@@ -10209,7 +10584,10 @@
       <c r="G272" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H272" s="8"/>
+      <c r="H272" s="9">
+        <f>(D272+LARGE(E272:G272,1)+LARGE(E272:G272,2))/3</f>
+        <v>0.607849752586594</v>
+      </c>
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="6">
@@ -10233,7 +10611,10 @@
       <c r="G273" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H273" s="8"/>
+      <c r="H273" s="5">
+        <f>(D273+LARGE(E273:G273,1)+LARGE(E273:G273,2))/3</f>
+        <v>0.67676563202879</v>
+      </c>
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="6">
@@ -10279,7 +10660,10 @@
       <c r="G275" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H275" s="8"/>
+      <c r="H275" s="5">
+        <f>(D275+LARGE(E275:G275,1)+LARGE(E275:G275,2))/3</f>
+        <v>0.714529914529914</v>
+      </c>
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="6">
@@ -10301,7 +10685,7 @@
       <c r="G276" s="7">
         <v>0</v>
       </c>
-      <c r="H276" s="8"/>
+      <c r="H276" s="11"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" t="s" s="6">
@@ -10323,7 +10707,7 @@
       <c r="G277" s="7">
         <v>0</v>
       </c>
-      <c r="H277" s="8"/>
+      <c r="H277" s="11"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="6">
@@ -10345,7 +10729,7 @@
       <c r="G278" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H278" s="8"/>
+      <c r="H278" s="11"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="6">
@@ -10377,21 +10761,24 @@
         <v>567</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D280" s="7">
-        <v>0.512820512820513</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E280" s="7">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F280" s="7">
-        <v>0.333333333333333</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G280" s="7">
-        <v>0.415384615384615</v>
-      </c>
-      <c r="H280" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="H280" s="9">
+        <f>(D280+LARGE(E280:G280,1)+LARGE(E280:G280,2))/3</f>
+        <v>0.603868645973909</v>
+      </c>
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="6">
@@ -10401,21 +10788,24 @@
         <v>568</v>
       </c>
       <c r="C281" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D281" s="7">
-        <v>0.358974358974359</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E281" s="7">
-        <v>0.719298245614035</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F281" s="7">
-        <v>0.7333333333333329</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G281" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H281" s="8"/>
+        <v>0.415384615384615</v>
+      </c>
+      <c r="H281" s="9">
+        <f>(D281+LARGE(E281:G281,1)+LARGE(E281:G281,2))/3</f>
+        <v>0.555015744489429</v>
+      </c>
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="6">
@@ -10439,7 +10829,10 @@
       <c r="G282" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H282" s="8"/>
+      <c r="H282" s="9">
+        <f>(D282+LARGE(E282:G282,1)+LARGE(E282:G282,2))/3</f>
+        <v>0.792622582096266</v>
+      </c>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="6">
@@ -10463,7 +10856,10 @@
       <c r="G283" s="7">
         <v>0</v>
       </c>
-      <c r="H283" s="8"/>
+      <c r="H283" s="5">
+        <f>(D283+LARGE(E283:G283,1)+LARGE(E283:G283,2))/3</f>
+        <v>0.609671614934773</v>
+      </c>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="6">
@@ -10509,7 +10905,10 @@
       <c r="G285" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H285" s="8"/>
+      <c r="H285" s="9">
+        <f>(D285+LARGE(E285:G285,1)+LARGE(E285:G285,2))/3</f>
+        <v>0.54957264957265</v>
+      </c>
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="6">
@@ -10533,7 +10932,10 @@
       <c r="G286" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H286" s="8"/>
+      <c r="H286" s="5">
+        <f>(D286+LARGE(E286:G286,1)+LARGE(E286:G286,2))/3</f>
+        <v>0.709131803868646</v>
+      </c>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
@@ -10543,21 +10945,24 @@
         <v>580</v>
       </c>
       <c r="C287" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D287" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E287" s="7">
-        <v>0.807017543859649</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F287" s="7">
-        <v>0.85</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G287" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H287" s="8"/>
+        <v>0.707692307692308</v>
+      </c>
+      <c r="H287" s="10">
+        <f>(D287+LARGE(E287:G287,1)+LARGE(E287:G287,2))/3</f>
+        <v>0.554835807467387</v>
+      </c>
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="6">
@@ -10567,21 +10972,24 @@
         <v>581</v>
       </c>
       <c r="C288" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D288" s="7">
-        <v>0.307692307692308</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E288" s="7">
-        <v>0.649122807017544</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F288" s="7">
-        <v>0.266666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="G288" s="7">
-        <v>0.707692307692308</v>
-      </c>
-      <c r="H288" s="8"/>
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H288" s="5">
+        <f>(D288+LARGE(E288:G288,1)+LARGE(E288:G288,2))/3</f>
+        <v>0.800202429149798</v>
+      </c>
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="6">
@@ -10627,7 +11035,10 @@
       <c r="G290" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H290" s="8"/>
+      <c r="H290" s="9">
+        <f>(D290+LARGE(E290:G290,1)+LARGE(E290:G290,2))/3</f>
+        <v>0.6228520017993699</v>
+      </c>
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" t="s" s="6">
@@ -10651,7 +11062,10 @@
       <c r="G291" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H291" s="8"/>
+      <c r="H291" s="5">
+        <f>(D291+LARGE(E291:G291,1)+LARGE(E291:G291,2))/3</f>
+        <v>0.71025641025641</v>
+      </c>
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" t="s" s="6">
@@ -10697,7 +11111,10 @@
       <c r="G293" s="7">
         <v>0</v>
       </c>
-      <c r="H293" s="8"/>
+      <c r="H293" s="5">
+        <f>(D293+LARGE(E293:G293,1)+LARGE(E293:G293,2))/3</f>
+        <v>0.323931623931624</v>
+      </c>
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="6">
@@ -10743,7 +11160,10 @@
       <c r="G295" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H295" s="8"/>
+      <c r="H295" s="5">
+        <f>(D295+LARGE(E295:G295,1)+LARGE(E295:G295,2))/3</f>
+        <v>0.718421052631579</v>
+      </c>
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="6">
@@ -10765,7 +11185,7 @@
       <c r="G296" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H296" s="8"/>
+      <c r="H296" s="11"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="6">
@@ -10787,7 +11207,7 @@
       <c r="G297" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H297" s="8"/>
+      <c r="H297" s="11"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="6">
@@ -10833,7 +11253,10 @@
       <c r="G299" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H299" s="8"/>
+      <c r="H299" s="5">
+        <f>(D299+LARGE(E299:G299,1)+LARGE(E299:G299,2))/3</f>
+        <v>0.788236617183985</v>
+      </c>
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="6">
@@ -10855,7 +11278,7 @@
       <c r="G300" s="7">
         <v>0</v>
       </c>
-      <c r="H300" s="8"/>
+      <c r="H300" s="11"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="6">
@@ -10877,7 +11300,7 @@
       <c r="G301" s="7">
         <v>0</v>
       </c>
-      <c r="H301" s="8"/>
+      <c r="H301" s="11"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="6">
@@ -10899,7 +11322,7 @@
       <c r="G302" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H302" s="8"/>
+      <c r="H302" s="11"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
@@ -10921,7 +11344,7 @@
       <c r="G303" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H303" s="8"/>
+      <c r="H303" s="11"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" t="s" s="6">
@@ -10943,7 +11366,7 @@
       <c r="G304" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H304" s="8"/>
+      <c r="H304" s="11"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" t="s" s="6">
@@ -10965,7 +11388,7 @@
       <c r="G305" s="7">
         <v>0</v>
       </c>
-      <c r="H305" s="8"/>
+      <c r="H305" s="11"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
@@ -10987,7 +11410,7 @@
       <c r="G306" s="7">
         <v>0</v>
       </c>
-      <c r="H306" s="8"/>
+      <c r="H306" s="11"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="6">
@@ -11033,7 +11456,10 @@
       <c r="G308" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H308" s="8"/>
+      <c r="H308" s="9">
+        <f>(D308+LARGE(E308:G308,1)+LARGE(E308:G308,2))/3</f>
+        <v>0.658479532163743</v>
+      </c>
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="6">
@@ -11057,7 +11483,10 @@
       <c r="G309" s="7">
         <v>0.338461538461538</v>
       </c>
-      <c r="H309" s="8"/>
+      <c r="H309" s="5">
+        <f>(D309+LARGE(E309:G309,1)+LARGE(E309:G309,2))/3</f>
+        <v>0.779419703103914</v>
+      </c>
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="6">
@@ -11103,7 +11532,10 @@
       <c r="G311" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H311" s="8"/>
+      <c r="H311" s="9">
+        <f>(D311+LARGE(E311:G311,1)+LARGE(E311:G311,2))/3</f>
+        <v>0.848065677013045</v>
+      </c>
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
@@ -11127,7 +11559,10 @@
       <c r="G312" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H312" s="8"/>
+      <c r="H312" s="5">
+        <f>(D312+LARGE(E312:G312,1)+LARGE(E312:G312,2))/3</f>
+        <v>0.669005847953216</v>
+      </c>
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
@@ -11149,7 +11584,7 @@
       <c r="G313" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H313" s="8"/>
+      <c r="H313" s="11"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" t="s" s="6">
@@ -11171,7 +11606,7 @@
       <c r="G314" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H314" s="8"/>
+      <c r="H314" s="11"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
@@ -11193,7 +11628,7 @@
       <c r="G315" s="7">
         <v>0.6</v>
       </c>
-      <c r="H315" s="8"/>
+      <c r="H315" s="11"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" t="s" s="6">
@@ -11215,7 +11650,7 @@
       <c r="G316" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H316" s="8"/>
+      <c r="H316" s="11"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" t="s" s="6">
@@ -11237,7 +11672,7 @@
       <c r="G317" s="7">
         <v>0</v>
       </c>
-      <c r="H317" s="8"/>
+      <c r="H317" s="11"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" t="s" s="6">
@@ -11283,7 +11718,10 @@
       <c r="G319" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H319" s="8"/>
+      <c r="H319" s="5">
+        <f>(D319+LARGE(E319:G319,1)+LARGE(E319:G319,2))/3</f>
+        <v>0.689023841655421</v>
+      </c>
     </row>
     <row r="320" ht="20.05" customHeight="1">
       <c r="A320" t="s" s="6">
@@ -11305,7 +11743,7 @@
       <c r="G320" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H320" s="8"/>
+      <c r="H320" s="11"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="6">
@@ -11327,7 +11765,7 @@
       <c r="G321" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H321" s="8"/>
+      <c r="H321" s="11"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="6">
@@ -11349,7 +11787,7 @@
       <c r="G322" s="7">
         <v>0</v>
       </c>
-      <c r="H322" s="8"/>
+      <c r="H322" s="11"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
       <c r="A323" t="s" s="6">
@@ -11371,7 +11809,7 @@
       <c r="G323" s="7">
         <v>0</v>
       </c>
-      <c r="H323" s="8"/>
+      <c r="H323" s="11"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
       <c r="A324" t="s" s="6">
@@ -11393,7 +11831,7 @@
       <c r="G324" s="7">
         <v>0</v>
       </c>
-      <c r="H324" s="8"/>
+      <c r="H324" s="11"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
       <c r="A325" t="s" s="6">
@@ -11439,7 +11877,10 @@
       <c r="G326" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H326" s="8"/>
+      <c r="H326" s="5">
+        <f>(D326+LARGE(E326:G326,1)+LARGE(E326:G326,2))/3</f>
+        <v>0.734930274403959</v>
+      </c>
     </row>
     <row r="327" ht="20.05" customHeight="1">
       <c r="A327" t="s" s="6">
@@ -11461,7 +11902,7 @@
       <c r="G327" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H327" s="8"/>
+      <c r="H327" s="11"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
       <c r="A328" t="s" s="6">
@@ -11507,7 +11948,10 @@
       <c r="G329" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H329" s="8"/>
+      <c r="H329" s="9">
+        <f>(D329+LARGE(E329:G329,1)+LARGE(E329:G329,2))/3</f>
+        <v>0.6467611336032389</v>
+      </c>
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="6">
@@ -11519,7 +11963,9 @@
       <c r="C330" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D330" s="7"/>
+      <c r="D330" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E330" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -11529,7 +11975,10 @@
       <c r="G330" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H330" s="8"/>
+      <c r="H330" s="9">
+        <f>(D330+LARGE(E330:G330,1)+LARGE(E330:G330,2))/3</f>
+        <v>0.76102114260009</v>
+      </c>
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="6">
@@ -11553,7 +12002,10 @@
       <c r="G331" s="7">
         <v>0.6</v>
       </c>
-      <c r="H331" s="8"/>
+      <c r="H331" s="5">
+        <f>(D331+LARGE(E331:G331,1)+LARGE(E331:G331,2))/3</f>
+        <v>0.696063877642825</v>
+      </c>
     </row>
     <row r="332" ht="20.05" customHeight="1">
       <c r="A332" t="s" s="6">
@@ -11575,7 +12027,7 @@
       <c r="G332" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H332" s="8"/>
+      <c r="H332" s="11"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
@@ -11597,7 +12049,7 @@
       <c r="G333" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H333" s="8"/>
+      <c r="H333" s="11"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
       <c r="A334" t="s" s="6">
@@ -11643,7 +12095,10 @@
       <c r="G335" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H335" s="8"/>
+      <c r="H335" s="5">
+        <f>(D335+LARGE(E335:G335,1)+LARGE(E335:G335,2))/3</f>
+        <v>0.755465587044534</v>
+      </c>
     </row>
     <row r="336" ht="20.05" customHeight="1">
       <c r="A336" t="s" s="6">
@@ -11689,7 +12144,10 @@
       <c r="G337" s="7">
         <v>0.6</v>
       </c>
-      <c r="H337" s="8"/>
+      <c r="H337" s="9">
+        <f>(D337+LARGE(E337:G337,1)+LARGE(E337:G337,2))/3</f>
+        <v>0.692914979757085</v>
+      </c>
     </row>
     <row r="338" ht="20.05" customHeight="1">
       <c r="A338" t="s" s="6">
@@ -11713,7 +12171,10 @@
       <c r="G338" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H338" s="8"/>
+      <c r="H338" s="9">
+        <f>(D338+LARGE(E338:G338,1)+LARGE(E338:G338,2))/3</f>
+        <v>0.7784075573549259</v>
+      </c>
     </row>
     <row r="339" ht="20.05" customHeight="1">
       <c r="A339" t="s" s="6">
@@ -11737,7 +12198,10 @@
       <c r="G339" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H339" s="8"/>
+      <c r="H339" s="5">
+        <f>(D339+LARGE(E339:G339,1)+LARGE(E339:G339,2))/3</f>
+        <v>0.706005398110661</v>
+      </c>
     </row>
     <row r="340" ht="20.05" customHeight="1">
       <c r="A340" t="s" s="6">
@@ -11783,7 +12247,10 @@
       <c r="G341" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H341" s="8"/>
+      <c r="H341" s="5">
+        <f>(D341+LARGE(E341:G341,1)+LARGE(E341:G341,2))/3</f>
+        <v>0.703328834907782</v>
+      </c>
     </row>
     <row r="342" ht="20.05" customHeight="1">
       <c r="A342" t="s" s="6">
@@ -11805,7 +12272,7 @@
       <c r="G342" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H342" s="8"/>
+      <c r="H342" s="11"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
@@ -11837,21 +12304,24 @@
         <v>692</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D344" s="7">
-        <v>0.871794871794872</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E344" s="7">
-        <v>0.631578947368421</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F344" s="7">
-        <v>0.533333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G344" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H344" s="8"/>
+        <v>0.723076923076923</v>
+      </c>
+      <c r="H344" s="9">
+        <f>(D344+LARGE(E344:G344,1)+LARGE(E344:G344,2))/3</f>
+        <v>0.767026540710751</v>
+      </c>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
@@ -11861,21 +12331,24 @@
         <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D345" s="7">
-        <v>0.692307692307692</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E345" s="7">
-        <v>0.842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F345" s="7">
-        <v>0.7666666666666661</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G345" s="7">
-        <v>0.723076923076923</v>
-      </c>
-      <c r="H345" s="8"/>
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H345" s="9">
+        <f>(D345+LARGE(E345:G345,1)+LARGE(E345:G345,2))/3</f>
+        <v>0.71650922177238</v>
+      </c>
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" t="s" s="6">
@@ -11899,7 +12372,10 @@
       <c r="G346" s="7">
         <v>0</v>
       </c>
-      <c r="H346" s="8"/>
+      <c r="H346" s="9">
+        <f>(D346+LARGE(E346:G346,1)+LARGE(E346:G346,2))/3</f>
+        <v>0.583715699505173</v>
+      </c>
     </row>
     <row r="347" ht="20.05" customHeight="1">
       <c r="A347" t="s" s="6">
@@ -11923,7 +12399,10 @@
       <c r="G347" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H347" s="8"/>
+      <c r="H347" s="5">
+        <f>(D347+LARGE(E347:G347,1)+LARGE(E347:G347,2))/3</f>
+        <v>0.711133603238866</v>
+      </c>
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" t="s" s="6">
@@ -11947,7 +12426,10 @@
       <c r="G348" s="7">
         <v>0</v>
       </c>
-      <c r="H348" s="8"/>
+      <c r="H348" s="10">
+        <f>(D348+LARGE(E348:G348,1)+LARGE(E348:G348,2))/3</f>
+        <v>0.353418803418803</v>
+      </c>
     </row>
     <row r="349" ht="20.05" customHeight="1">
       <c r="A349" t="s" s="6">
@@ -11971,7 +12453,10 @@
       <c r="G349" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H349" s="8"/>
+      <c r="H349" s="5">
+        <f>(D349+LARGE(E349:G349,1)+LARGE(E349:G349,2))/3</f>
+        <v>0.844916779127305</v>
+      </c>
     </row>
     <row r="350" ht="20.05" customHeight="1">
       <c r="A350" t="s" s="6">
@@ -11993,7 +12478,7 @@
       <c r="G350" s="7">
         <v>0</v>
       </c>
-      <c r="H350" s="8"/>
+      <c r="H350" s="11"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="6">
@@ -12015,7 +12500,7 @@
       <c r="G351" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H351" s="8"/>
+      <c r="H351" s="11"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="6">
@@ -12061,7 +12546,10 @@
       <c r="G353" s="7">
         <v>0</v>
       </c>
-      <c r="H353" s="8"/>
+      <c r="H353" s="5">
+        <f>(D353+LARGE(E353:G353,1)+LARGE(E353:G353,2))/3</f>
+        <v>0.766621682411156</v>
+      </c>
     </row>
     <row r="354" ht="20.05" customHeight="1">
       <c r="A354" t="s" s="6">
@@ -12083,7 +12571,7 @@
       <c r="G354" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H354" s="8"/>
+      <c r="H354" s="11"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
@@ -12129,7 +12617,10 @@
       <c r="G356" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="H356" s="8"/>
+      <c r="H356" s="9">
+        <f>(D356+LARGE(E356:G356,1)+LARGE(E356:G356,2))/3</f>
+        <v>0.7386414754835809</v>
+      </c>
     </row>
     <row r="357" ht="20.05" customHeight="1">
       <c r="A357" t="s" s="6">
@@ -12153,7 +12644,10 @@
       <c r="G357" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H357" s="8"/>
+      <c r="H357" s="5">
+        <f>(D357+LARGE(E357:G357,1)+LARGE(E357:G357,2))/3</f>
+        <v>0.559154295996401</v>
+      </c>
     </row>
     <row r="358" ht="20.05" customHeight="1">
       <c r="A358" t="s" s="6">
@@ -12175,7 +12669,7 @@
       <c r="G358" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H358" s="8"/>
+      <c r="H358" s="11"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
       <c r="A359" t="s" s="6">
@@ -12197,7 +12691,7 @@
       <c r="G359" s="7">
         <v>0</v>
       </c>
-      <c r="H359" s="8"/>
+      <c r="H359" s="11"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
       <c r="A360" t="s" s="6">
@@ -12243,7 +12737,10 @@
       <c r="G361" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H361" s="8"/>
+      <c r="H361" s="9">
+        <f>(D361+LARGE(E361:G361,1)+LARGE(E361:G361,2))/3</f>
+        <v>0.700494826810616</v>
+      </c>
     </row>
     <row r="362" ht="20.05" customHeight="1">
       <c r="A362" t="s" s="6">
@@ -12267,7 +12764,10 @@
       <c r="G362" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H362" s="8"/>
+      <c r="H362" s="5">
+        <f>(D362+LARGE(E362:G362,1)+LARGE(E362:G362,2))/3</f>
+        <v>0.682276203328835</v>
+      </c>
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="6">
@@ -12289,7 +12789,7 @@
       <c r="G363" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H363" s="8"/>
+      <c r="H363" s="11"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
       <c r="A364" t="s" s="6">
@@ -12311,7 +12811,7 @@
       <c r="G364" s="7">
         <v>0.6</v>
       </c>
-      <c r="H364" s="8"/>
+      <c r="H364" s="11"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="6">
@@ -12333,7 +12833,7 @@
       <c r="G365" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H365" s="8"/>
+      <c r="H365" s="11"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
       <c r="A366" t="s" s="6">
@@ -12355,7 +12855,7 @@
       <c r="G366" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H366" s="8"/>
+      <c r="H366" s="11"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
       <c r="A367" t="s" s="6">
@@ -12401,7 +12901,10 @@
       <c r="G368" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H368" s="8"/>
+      <c r="H368" s="5">
+        <f>(D368+LARGE(E368:G368,1)+LARGE(E368:G368,2))/3</f>
+        <v>0.748020692757535</v>
+      </c>
     </row>
     <row r="369" ht="20.05" customHeight="1">
       <c r="A369" t="s" s="6">
@@ -12447,7 +12950,10 @@
       <c r="G370" s="7">
         <v>0</v>
       </c>
-      <c r="H370" s="8"/>
+      <c r="H370" s="9">
+        <f>(D370+LARGE(E370:G370,1)+LARGE(E370:G370,2))/3</f>
+        <v>0.577642825011246</v>
+      </c>
     </row>
     <row r="371" ht="20.05" customHeight="1">
       <c r="A371" t="s" s="6">
@@ -12471,7 +12977,10 @@
       <c r="G371" s="7">
         <v>0</v>
       </c>
-      <c r="H371" s="8"/>
+      <c r="H371" s="5">
+        <f>(D371+LARGE(E371:G371,1)+LARGE(E371:G371,2))/3</f>
+        <v>0.450832208726945</v>
+      </c>
     </row>
     <row r="372" ht="20.05" customHeight="1">
       <c r="A372" t="s" s="6">
@@ -12517,7 +13026,10 @@
       <c r="G373" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H373" s="8"/>
+      <c r="H373" s="5">
+        <f>(D373+LARGE(E373:G373,1)+LARGE(E373:G373,2))/3</f>
+        <v>0.7446018893387309</v>
+      </c>
     </row>
     <row r="374" ht="20.05" customHeight="1">
       <c r="A374" t="s" s="6">
@@ -12539,7 +13051,7 @@
       <c r="G374" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H374" s="8"/>
+      <c r="H374" s="11"/>
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="6">
@@ -12561,7 +13073,7 @@
       <c r="G375" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H375" s="8"/>
+      <c r="H375" s="11"/>
     </row>
     <row r="376" ht="20.05" customHeight="1">
       <c r="A376" t="s" s="6">
@@ -12583,7 +13095,7 @@
       <c r="G376" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H376" s="8"/>
+      <c r="H376" s="11"/>
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
@@ -12605,7 +13117,7 @@
       <c r="G377" s="7">
         <v>0</v>
       </c>
-      <c r="H377" s="8"/>
+      <c r="H377" s="11"/>
     </row>
     <row r="378" ht="20.05" customHeight="1">
       <c r="A378" t="s" s="6">
@@ -12627,7 +13139,7 @@
       <c r="G378" s="7">
         <v>0</v>
       </c>
-      <c r="H378" s="8"/>
+      <c r="H378" s="11"/>
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
@@ -12649,7 +13161,7 @@
       <c r="G379" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H379" s="8"/>
+      <c r="H379" s="11"/>
     </row>
     <row r="380" ht="20.05" customHeight="1">
       <c r="A380" t="s" s="6">
@@ -12671,7 +13183,7 @@
       <c r="G380" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H380" s="8"/>
+      <c r="H380" s="11"/>
     </row>
     <row r="381" ht="20.05" customHeight="1">
       <c r="A381" t="s" s="6">
@@ -12717,7 +13229,10 @@
       <c r="G382" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H382" s="8"/>
+      <c r="H382" s="9">
+        <f>(D382+LARGE(E382:G382,1)+LARGE(E382:G382,2))/3</f>
+        <v>0.672649572649573</v>
+      </c>
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="6">
@@ -12741,7 +13256,10 @@
       <c r="G383" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H383" s="8"/>
+      <c r="H383" s="9">
+        <f>(D383+LARGE(E383:G383,1)+LARGE(E383:G383,2))/3</f>
+        <v>0.720940170940171</v>
+      </c>
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="6">
@@ -12765,7 +13283,10 @@
       <c r="G384" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H384" s="8"/>
+      <c r="H384" s="5">
+        <f>(D384+LARGE(E384:G384,1)+LARGE(E384:G384,2))/3</f>
+        <v>0.759671614934773</v>
+      </c>
     </row>
     <row r="385" ht="20.05" customHeight="1">
       <c r="A385" t="s" s="6">
@@ -12787,7 +13308,7 @@
       <c r="G385" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H385" s="8"/>
+      <c r="H385" s="11"/>
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
@@ -12809,7 +13330,7 @@
       <c r="G386" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H386" s="8"/>
+      <c r="H386" s="11"/>
     </row>
     <row r="387" ht="20.05" customHeight="1">
       <c r="A387" t="s" s="6">
@@ -12855,7 +13376,10 @@
       <c r="G388" s="7">
         <v>0.6</v>
       </c>
-      <c r="H388" s="8"/>
+      <c r="H388" s="5">
+        <f>(D388+LARGE(E388:G388,1)+LARGE(E388:G388,2))/3</f>
+        <v>0.630049482681062</v>
+      </c>
     </row>
     <row r="389" ht="20.05" customHeight="1">
       <c r="A389" t="s" s="6">
@@ -12877,7 +13401,7 @@
       <c r="G389" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H389" s="8"/>
+      <c r="H389" s="11"/>
     </row>
     <row r="390" ht="20.05" customHeight="1">
       <c r="A390" t="s" s="6">
@@ -12899,7 +13423,7 @@
       <c r="G390" s="7">
         <v>0.338461538461538</v>
       </c>
-      <c r="H390" s="8"/>
+      <c r="H390" s="11"/>
     </row>
     <row r="391" ht="20.05" customHeight="1">
       <c r="A391" t="s" s="6">
@@ -12945,7 +13469,10 @@
       <c r="G392" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H392" s="8"/>
+      <c r="H392" s="5">
+        <f>(D392+LARGE(E392:G392,1)+LARGE(E392:G392,2))/3</f>
+        <v>0.7403733693207381</v>
+      </c>
     </row>
     <row r="393" ht="20.05" customHeight="1">
       <c r="A393" t="s" s="6">
@@ -12967,7 +13494,7 @@
       <c r="G393" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H393" s="8"/>
+      <c r="H393" s="11"/>
     </row>
     <row r="394" ht="20.05" customHeight="1">
       <c r="A394" t="s" s="6">
@@ -12999,19 +13526,24 @@
         <v>792</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D395" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D395" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E395" s="7">
-        <v>0.696428571428571</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F395" s="7">
-        <v>0.839285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="G395" s="7">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="H395" s="8"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="H395" s="5">
+        <f>(D395+LARGE(E395:G395,1)+LARGE(E395:G395,2))/3</f>
+        <v>0.741655420602789</v>
+      </c>
     </row>
     <row r="396" ht="20.05" customHeight="1">
       <c r="A396" t="s" s="6">
@@ -13021,21 +13553,19 @@
         <v>793</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D396" s="7">
-        <v>0.717948717948718</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D396" s="7"/>
       <c r="E396" s="7">
-        <v>0.807017543859649</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F396" s="7">
-        <v>0.7</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G396" s="7">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="H396" s="8"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="H396" s="11"/>
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
@@ -13081,7 +13611,10 @@
       <c r="G398" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H398" s="8"/>
+      <c r="H398" s="5">
+        <f>(D398+LARGE(E398:G398,1)+LARGE(E398:G398,2))/3</f>
+        <v>0.678812415654521</v>
+      </c>
     </row>
     <row r="399" ht="20.05" customHeight="1">
       <c r="A399" t="s" s="6">
@@ -13127,7 +13660,10 @@
       <c r="G400" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H400" s="8"/>
+      <c r="H400" s="5">
+        <f>(D400+LARGE(E400:G400,1)+LARGE(E400:G400,2))/3</f>
+        <v>0.546558704453441</v>
+      </c>
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
@@ -13149,7 +13685,7 @@
       <c r="G401" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H401" s="8"/>
+      <c r="H401" s="11"/>
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
@@ -13171,7 +13707,7 @@
       <c r="G402" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H402" s="8"/>
+      <c r="H402" s="11"/>
     </row>
     <row r="403" ht="20.05" customHeight="1">
       <c r="A403" t="s" s="6">
@@ -13217,7 +13753,10 @@
       <c r="G404" s="7">
         <v>0</v>
       </c>
-      <c r="H404" s="8"/>
+      <c r="H404" s="5">
+        <f>(D404+LARGE(E404:G404,1)+LARGE(E404:G404,2))/3</f>
+        <v>0.549595141700405</v>
+      </c>
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
@@ -13241,7 +13780,10 @@
       <c r="G405" s="7">
         <v>0</v>
       </c>
-      <c r="H405" s="8"/>
+      <c r="H405" s="12">
+        <f>(D405+LARGE(E405:G405,1)+LARGE(E405:G405,2))/3</f>
+        <v>0.654161043634728</v>
+      </c>
     </row>
     <row r="406" ht="20.05" customHeight="1">
       <c r="A406" t="s" s="6">
@@ -13263,7 +13805,7 @@
       <c r="G406" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H406" s="8"/>
+      <c r="H406" s="11"/>
     </row>
     <row r="407" ht="20.05" customHeight="1">
       <c r="A407" t="s" s="6">
@@ -13285,7 +13827,7 @@
       <c r="G407" s="7">
         <v>0</v>
       </c>
-      <c r="H407" s="8"/>
+      <c r="H407" s="11"/>
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
@@ -13331,7 +13873,10 @@
       <c r="G409" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H409" s="8"/>
+      <c r="H409" s="5">
+        <f>(D409+LARGE(E409:G409,1)+LARGE(E409:G409,2))/3</f>
+        <v>0.624921277552857</v>
+      </c>
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="6">
@@ -13353,7 +13898,7 @@
       <c r="G410" s="7">
         <v>0</v>
       </c>
-      <c r="H410" s="8"/>
+      <c r="H410" s="11"/>
     </row>
     <row r="411" ht="20.05" customHeight="1">
       <c r="A411" t="s" s="6">
@@ -13399,7 +13944,10 @@
       <c r="G412" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="H412" s="8"/>
+      <c r="H412" s="9">
+        <f>(D412+LARGE(E412:G412,1)+LARGE(E412:G412,2))/3</f>
+        <v>0.751911830859199</v>
+      </c>
     </row>
     <row r="413" ht="20.05" customHeight="1">
       <c r="A413" t="s" s="6">
@@ -13423,7 +13971,10 @@
       <c r="G413" s="7">
         <v>0</v>
       </c>
-      <c r="H413" s="8"/>
+      <c r="H413" s="5">
+        <f>(D413+LARGE(E413:G413,1)+LARGE(E413:G413,2))/3</f>
+        <v>0.755465587044534</v>
+      </c>
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="6">
@@ -13445,7 +13996,7 @@
       <c r="G414" s="7">
         <v>0.6</v>
       </c>
-      <c r="H414" s="8"/>
+      <c r="H414" s="11"/>
     </row>
     <row r="415" ht="20.05" customHeight="1">
       <c r="A415" t="s" s="6">
@@ -13491,7 +14042,10 @@
       <c r="G416" s="7">
         <v>0</v>
       </c>
-      <c r="H416" s="8"/>
+      <c r="H416" s="5">
+        <f>(D416+LARGE(E416:G416,1)+LARGE(E416:G416,2))/3</f>
+        <v>0.69604138551507</v>
+      </c>
     </row>
     <row r="417" ht="20.05" customHeight="1">
       <c r="A417" t="s" s="6">
@@ -13537,7 +14091,10 @@
       <c r="G418" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H418" s="8"/>
+      <c r="H418" s="5">
+        <f>(D418+LARGE(E418:G418,1)+LARGE(E418:G418,2))/3</f>
+        <v>0.836077372919478</v>
+      </c>
     </row>
     <row r="419" ht="20.05" customHeight="1">
       <c r="A419" t="s" s="6">
@@ -13561,7 +14118,10 @@
       <c r="G419" s="7">
         <v>0</v>
       </c>
-      <c r="H419" s="8"/>
+      <c r="H419" s="10">
+        <f>(D419+LARGE(E419:G419,1)+LARGE(E419:G419,2))/3</f>
+        <v>0.076923076923077</v>
+      </c>
     </row>
     <row r="420" ht="20.05" customHeight="1">
       <c r="A420" t="s" s="6">
@@ -13585,7 +14145,10 @@
       <c r="G420" s="7">
         <v>0</v>
       </c>
-      <c r="H420" s="8"/>
+      <c r="H420" s="9">
+        <f>(D420+LARGE(E420:G420,1)+LARGE(E420:G420,2))/3</f>
+        <v>0.63625730994152</v>
+      </c>
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="6">
@@ -13609,7 +14172,10 @@
       <c r="G421" s="7">
         <v>0</v>
       </c>
-      <c r="H421" s="8"/>
+      <c r="H421" s="5">
+        <f>(D421+LARGE(E421:G421,1)+LARGE(E421:G421,2))/3</f>
+        <v>0.778789923526765</v>
+      </c>
     </row>
     <row r="422" ht="20.05" customHeight="1">
       <c r="A422" t="s" s="6">
@@ -13631,7 +14197,7 @@
       <c r="G422" s="7">
         <v>0</v>
       </c>
-      <c r="H422" s="8"/>
+      <c r="H422" s="11"/>
     </row>
     <row r="423" ht="20.05" customHeight="1">
       <c r="A423" t="s" s="6">
@@ -13677,7 +14243,10 @@
       <c r="G424" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H424" s="8"/>
+      <c r="H424" s="5">
+        <f>(D424+LARGE(E424:G424,1)+LARGE(E424:G424,2))/3</f>
+        <v>0.6467611336032389</v>
+      </c>
     </row>
     <row r="425" ht="20.05" customHeight="1">
       <c r="A425" t="s" s="6">
@@ -13699,7 +14268,7 @@
       <c r="G425" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H425" s="8"/>
+      <c r="H425" s="11"/>
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="6">
@@ -13721,7 +14290,7 @@
       <c r="G426" s="7">
         <v>0</v>
       </c>
-      <c r="H426" s="8"/>
+      <c r="H426" s="11"/>
     </row>
     <row r="427" ht="20.05" customHeight="1">
       <c r="A427" t="s" s="6">
@@ -13743,7 +14312,7 @@
       <c r="G427" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H427" s="8"/>
+      <c r="H427" s="11"/>
     </row>
     <row r="428" ht="20.05" customHeight="1">
       <c r="A428" t="s" s="6">
@@ -13789,7 +14358,10 @@
       <c r="G429" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H429" s="8"/>
+      <c r="H429" s="5">
+        <f>(D429+LARGE(E429:G429,1)+LARGE(E429:G429,2))/3</f>
+        <v>0.645726495726496</v>
+      </c>
     </row>
     <row r="430" ht="20.05" customHeight="1">
       <c r="A430" t="s" s="6">
@@ -13823,7 +14395,9 @@
       <c r="C431" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D431" s="7"/>
+      <c r="D431" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E431" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -13833,7 +14407,10 @@
       <c r="G431" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H431" s="8"/>
+      <c r="H431" s="5">
+        <f>(D431+LARGE(E431:G431,1)+LARGE(E431:G431,2))/3</f>
+        <v>0.79331983805668</v>
+      </c>
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="6">
@@ -13857,7 +14434,10 @@
       <c r="G432" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H432" s="8"/>
+      <c r="H432" s="12">
+        <f>(D432+LARGE(E432:G432,1)+LARGE(E432:G432,2))/3</f>
+        <v>0.547570850202429</v>
+      </c>
     </row>
     <row r="433" ht="20.05" customHeight="1">
       <c r="A433" t="s" s="6">
@@ -13879,7 +14459,7 @@
       <c r="G433" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H433" s="8"/>
+      <c r="H433" s="11"/>
     </row>
     <row r="434" ht="20.05" customHeight="1">
       <c r="A434" t="s" s="6">
@@ -13901,7 +14481,7 @@
       <c r="G434" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H434" s="8"/>
+      <c r="H434" s="11"/>
     </row>
     <row r="435" ht="20.05" customHeight="1">
       <c r="A435" t="s" s="6">
@@ -13923,7 +14503,7 @@
       <c r="G435" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H435" s="8"/>
+      <c r="H435" s="11"/>
     </row>
     <row r="436" ht="20.05" customHeight="1">
       <c r="A436" t="s" s="6">
@@ -13969,7 +14549,10 @@
       <c r="G437" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H437" s="8"/>
+      <c r="H437" s="5">
+        <f>(D437+LARGE(E437:G437,1)+LARGE(E437:G437,2))/3</f>
+        <v>0.625213675213675</v>
+      </c>
     </row>
     <row r="438" ht="20.05" customHeight="1">
       <c r="A438" t="s" s="6">
@@ -13991,7 +14574,7 @@
       <c r="G438" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H438" s="8"/>
+      <c r="H438" s="11"/>
     </row>
     <row r="439" ht="20.05" customHeight="1">
       <c r="A439" t="s" s="6">
@@ -14013,7 +14596,7 @@
       <c r="G439" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H439" s="8"/>
+      <c r="H439" s="11"/>
     </row>
     <row r="440" ht="20.05" customHeight="1">
       <c r="A440" t="s" s="6">
@@ -14059,7 +14642,10 @@
       <c r="G441" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H441" s="8"/>
+      <c r="H441" s="5">
+        <f>(D441+LARGE(E441:G441,1)+LARGE(E441:G441,2))/3</f>
+        <v>0.810278902384165</v>
+      </c>
     </row>
     <row r="442" ht="20.05" customHeight="1">
       <c r="A442" t="s" s="6">
@@ -14083,7 +14669,10 @@
       <c r="G442" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H442" s="8"/>
+      <c r="H442" s="10">
+        <f>(D442+LARGE(E442:G442,1)+LARGE(E442:G442,2))/3</f>
+        <v>0.635380116959064</v>
+      </c>
     </row>
     <row r="443" ht="20.05" customHeight="1">
       <c r="A443" t="s" s="6">
@@ -14095,7 +14684,9 @@
       <c r="C443" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D443" s="7"/>
+      <c r="D443" s="7">
+        <v>0.58974358974359</v>
+      </c>
       <c r="E443" s="7">
         <v>0</v>
       </c>
@@ -14105,7 +14696,10 @@
       <c r="G443" s="7">
         <v>0</v>
       </c>
-      <c r="H443" s="8"/>
+      <c r="H443" s="5">
+        <f>(D443+LARGE(E443:G443,1)+LARGE(E443:G443,2))/3</f>
+        <v>0.196581196581197</v>
+      </c>
     </row>
     <row r="444" ht="20.05" customHeight="1">
       <c r="A444" t="s" s="6">
@@ -14151,7 +14745,10 @@
       <c r="G445" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H445" s="8"/>
+      <c r="H445" s="5">
+        <f>(D445+LARGE(E445:G445,1)+LARGE(E445:G445,2))/3</f>
+        <v>0.647863247863248</v>
+      </c>
     </row>
     <row r="446" ht="20.05" customHeight="1">
       <c r="A446" t="s" s="6">
@@ -14163,7 +14760,9 @@
       <c r="C446" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D446" s="7"/>
+      <c r="D446" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E446" s="7">
         <v>0.8947368421052631</v>
       </c>
@@ -14173,7 +14772,10 @@
       <c r="G446" s="7">
         <v>0.6</v>
       </c>
-      <c r="H446" s="8"/>
+      <c r="H446" s="12">
+        <f>(D446+LARGE(E446:G446,1)+LARGE(E446:G446,2))/3</f>
+        <v>0.685425101214575</v>
+      </c>
     </row>
     <row r="447" ht="20.05" customHeight="1">
       <c r="A447" t="s" s="6">
@@ -14207,7 +14809,9 @@
       <c r="C448" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D448" s="7"/>
+      <c r="D448" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E448" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -14217,7 +14821,10 @@
       <c r="G448" s="7">
         <v>0</v>
       </c>
-      <c r="H448" s="8"/>
+      <c r="H448" s="9">
+        <f>(D448+LARGE(E448:G448,1)+LARGE(E448:G448,2))/3</f>
+        <v>0.683940620782726</v>
+      </c>
     </row>
     <row r="449" ht="20.05" customHeight="1">
       <c r="A449" t="s" s="6">
@@ -14241,7 +14848,10 @@
       <c r="G449" s="7">
         <v>0</v>
       </c>
-      <c r="H449" s="8"/>
+      <c r="H449" s="9">
+        <f>(D449+LARGE(E449:G449,1)+LARGE(E449:G449,2))/3</f>
+        <v>0.35042735042735</v>
+      </c>
     </row>
     <row r="450" ht="20.05" customHeight="1">
       <c r="A450" t="s" s="6">
@@ -14265,7 +14875,10 @@
       <c r="G450" s="7">
         <v>0</v>
       </c>
-      <c r="H450" s="8"/>
+      <c r="H450" s="5">
+        <f>(D450+LARGE(E450:G450,1)+LARGE(E450:G450,2))/3</f>
+        <v>0.8038686459739089</v>
+      </c>
     </row>
     <row r="451" ht="20.05" customHeight="1">
       <c r="A451" t="s" s="6">
@@ -14287,7 +14900,7 @@
       <c r="G451" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H451" s="8"/>
+      <c r="H451" s="11"/>
     </row>
     <row r="452" ht="20.05" customHeight="1">
       <c r="A452" t="s" s="6">
@@ -14309,7 +14922,7 @@
       <c r="G452" s="7">
         <v>0</v>
       </c>
-      <c r="H452" s="8"/>
+      <c r="H452" s="11"/>
     </row>
     <row r="453" ht="20.05" customHeight="1">
       <c r="A453" t="s" s="6">
@@ -14331,7 +14944,7 @@
       <c r="G453" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H453" s="8"/>
+      <c r="H453" s="11"/>
     </row>
     <row r="454" ht="20.05" customHeight="1">
       <c r="A454" t="s" s="6">
@@ -14377,7 +14990,10 @@
       <c r="G455" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H455" s="8"/>
+      <c r="H455" s="5">
+        <f>(D455+LARGE(E455:G455,1)+LARGE(E455:G455,2))/3</f>
+        <v>0.623121907332433</v>
+      </c>
     </row>
     <row r="456" ht="20.05" customHeight="1">
       <c r="A456" t="s" s="6">
@@ -14399,7 +15015,7 @@
       <c r="G456" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H456" s="8"/>
+      <c r="H456" s="11"/>
     </row>
     <row r="457" ht="20.05" customHeight="1">
       <c r="A457" t="s" s="6">
@@ -14421,7 +15037,7 @@
       <c r="G457" s="7">
         <v>0</v>
       </c>
-      <c r="H457" s="8"/>
+      <c r="H457" s="11"/>
     </row>
     <row r="458" ht="20.05" customHeight="1">
       <c r="A458" t="s" s="6">
@@ -14443,7 +15059,7 @@
       <c r="G458" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H458" s="8"/>
+      <c r="H458" s="11"/>
     </row>
     <row r="459" ht="20.05" customHeight="1">
       <c r="A459" t="s" s="6">
@@ -14465,10 +15081,10 @@
       <c r="G459" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H459" s="8"/>
+      <c r="H459" s="11"/>
     </row>
     <row r="460" ht="20.05" customHeight="1">
-      <c r="A460" s="8"/>
+      <c r="A460" s="11"/>
       <c r="B460" t="s" s="6">
         <v>915</v>
       </c>
@@ -14485,7 +15101,7 @@
       <c r="G460" s="7">
         <v>0</v>
       </c>
-      <c r="H460" s="8"/>
+      <c r="H460" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="914">
   <si>
     <t>Surname</t>
   </si>
@@ -43,7 +43,7 @@
     <t>H200715C</t>
   </si>
   <si>
-    <t>MT</t>
+    <t>EMT</t>
   </si>
   <si>
     <t>BANDERA</t>
@@ -70,16 +70,13 @@
     <t>H190692A</t>
   </si>
   <si>
-    <t>EMT</t>
-  </si>
-  <si>
     <t>BOMANI</t>
   </si>
   <si>
     <t>H200549R</t>
   </si>
   <si>
-    <t>PT</t>
+    <t>EPT</t>
   </si>
   <si>
     <t>BORERWE</t>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>H190663F</t>
-  </si>
-  <si>
-    <t>EPT</t>
   </si>
   <si>
     <t>CHARIMEYI</t>
@@ -4146,7 +4140,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
         <v>0.615384615384615</v>
@@ -4167,13 +4161,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="C6" t="s" s="6">
         <v>21</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>22</v>
       </c>
       <c r="D6" s="7">
         <v>0.58974358974359</v>
@@ -4194,13 +4188,13 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="C7" t="s" s="6">
         <v>24</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>25</v>
       </c>
       <c r="D7" s="7">
         <v>0.282051282051282</v>
@@ -4221,10 +4215,10 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="6">
         <v>26</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="C8" t="s" s="6">
         <v>10</v>
@@ -4248,10 +4242,10 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="6">
         <v>28</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>29</v>
       </c>
       <c r="C9" t="s" s="6">
         <v>16</v>
@@ -4270,13 +4264,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="C10" t="s" s="6">
         <v>31</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>32</v>
       </c>
       <c r="D10" s="7">
         <v>0.615384615384615</v>
@@ -4297,10 +4291,10 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="6">
         <v>33</v>
-      </c>
-      <c r="B11" t="s" s="6">
-        <v>34</v>
       </c>
       <c r="C11" t="s" s="6">
         <v>10</v>
@@ -4319,13 +4313,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B12" t="s" s="6">
-        <v>36</v>
-      </c>
       <c r="C12" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -4341,10 +4335,10 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="6">
         <v>37</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>38</v>
       </c>
       <c r="C13" t="s" s="6">
         <v>10</v>
@@ -4359,19 +4353,21 @@
       <c r="G13" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="B14" t="s" s="6">
-        <v>40</v>
-      </c>
       <c r="C14" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E14" s="7">
         <v>0.859649122807018</v>
       </c>
@@ -4381,14 +4377,17 @@
       <c r="G14" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="5">
+        <f>(D14+LARGE(E14:G14,1)+LARGE(E14:G14,2))/3</f>
+        <v>0.728857399910031</v>
+      </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="6">
         <v>41</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>42</v>
       </c>
       <c r="C15" t="s" s="6">
         <v>16</v>
@@ -4405,20 +4404,20 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="12">
         <f>(D15+LARGE(E15:G15,1)+LARGE(E15:G15,2))/3</f>
         <v>0.396761133603239</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="C16" t="s" s="6">
         <v>44</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>45</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7">
@@ -4434,13 +4433,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="B17" t="s" s="6">
-        <v>47</v>
-      </c>
       <c r="C17" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
         <v>0.128205128205128</v>
@@ -4461,13 +4460,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="B18" t="s" s="6">
-        <v>49</v>
-      </c>
       <c r="C18" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="7">
@@ -4483,13 +4482,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="B19" t="s" s="6">
-        <v>51</v>
-      </c>
       <c r="C19" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -4505,13 +4504,13 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s" s="6">
         <v>52</v>
       </c>
-      <c r="B20" t="s" s="6">
-        <v>53</v>
-      </c>
       <c r="C20" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="7">
@@ -4527,10 +4526,10 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>13</v>
@@ -4549,13 +4548,13 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s" s="6">
         <v>57</v>
-      </c>
-      <c r="B22" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s" s="6">
-        <v>59</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7">
@@ -4571,13 +4570,13 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="7">
@@ -4593,10 +4592,10 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s" s="6">
         <v>10</v>
@@ -4620,13 +4619,13 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
@@ -4642,13 +4641,13 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7">
         <v>0.794871794871795</v>
@@ -4669,10 +4668,10 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>13</v>
@@ -4691,13 +4690,13 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="7">
         <v>0.58974358974359</v>
@@ -4718,13 +4717,13 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s" s="6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7">
@@ -4740,10 +4739,10 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s" s="6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>16</v>
@@ -4767,13 +4766,13 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="7">
         <v>0.487179487179487</v>
@@ -4794,13 +4793,13 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7">
         <v>0.923076923076923</v>
@@ -4821,13 +4820,13 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s" s="6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="7">
         <v>0.7692307692307691</v>
@@ -4848,10 +4847,10 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>16</v>
@@ -4870,10 +4869,10 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>16</v>
@@ -4890,22 +4889,24 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="9">
         <f>(D35+LARGE(E35:G35,1)+LARGE(E35:G35,2))/3</f>
         <v>0.716869095816464</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E36" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -4915,17 +4916,20 @@
       <c r="G36" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="5">
+        <f>(D36+LARGE(E36:G36,1)+LARGE(E36:G36,2))/3</f>
+        <v>0.9046333783175891</v>
+      </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s" s="6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7">
@@ -4941,10 +4945,10 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s" s="6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>10</v>
@@ -4968,13 +4972,13 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7">
@@ -4990,10 +4994,10 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="6">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s" s="6">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>16</v>
@@ -5012,13 +5016,13 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s" s="6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7">
@@ -5034,10 +5038,10 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s" s="6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>10</v>
@@ -5061,10 +5065,10 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s" s="6">
         <v>13</v>
@@ -5083,13 +5087,13 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s" s="6">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="7">
         <v>0.7435897435897439</v>
@@ -5110,13 +5114,13 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s" s="6">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7">
@@ -5128,19 +5132,21 @@
       <c r="G45" s="7">
         <v>0.4</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s" s="6">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E46" s="7">
         <v>0.684210526315789</v>
       </c>
@@ -5150,17 +5156,20 @@
       <c r="G46" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="5">
+        <f>(D46+LARGE(E46:G46,1)+LARGE(E46:G46,2))/3</f>
+        <v>0.702856500224921</v>
+      </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7">
@@ -5176,13 +5185,13 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s" s="6">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7">
@@ -5198,10 +5207,10 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s" s="6">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>16</v>
@@ -5220,13 +5229,13 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s" s="6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7">
@@ -5242,13 +5251,13 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7">
@@ -5264,13 +5273,13 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7">
@@ -5286,10 +5295,10 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>16</v>
@@ -5313,13 +5322,13 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7">
@@ -5335,13 +5344,13 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="7">
         <v>0.7435897435897439</v>
@@ -5362,13 +5371,13 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7">
@@ -5384,13 +5393,13 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s" s="6">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7">
@@ -5406,13 +5415,13 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s" s="6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
@@ -5428,13 +5437,13 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7">
@@ -5450,13 +5459,13 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s" s="6">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7">
@@ -5472,10 +5481,10 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s" s="6">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>10</v>
@@ -5499,13 +5508,13 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7">
@@ -5521,13 +5530,13 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="7">
         <v>0.666666666666667</v>
@@ -5548,13 +5557,13 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s" s="6">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="7">
         <v>0.615384615384615</v>
@@ -5575,10 +5584,10 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>16</v>
@@ -5602,10 +5611,10 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>13</v>
@@ -5624,13 +5633,13 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s" s="6">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7">
@@ -5646,13 +5655,13 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s" s="6">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7">
@@ -5668,10 +5677,10 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>13</v>
@@ -5690,13 +5699,13 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s" s="6">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7">
@@ -5712,13 +5721,13 @@
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" t="s" s="6">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71" s="7">
         <v>0.615384615384615</v>
@@ -5739,13 +5748,13 @@
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s" s="6">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="7">
         <v>0.641025641025641</v>
@@ -5766,13 +5775,13 @@
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s" s="6">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7">
@@ -5788,13 +5797,13 @@
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s" s="6">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74" s="7">
         <v>0.717948717948718</v>
@@ -5815,13 +5824,13 @@
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s" s="6">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7">
@@ -5837,13 +5846,13 @@
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s" s="6">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7">
@@ -5859,13 +5868,13 @@
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s" s="6">
         <v>166</v>
       </c>
-      <c r="B77" t="s" s="6">
-        <v>168</v>
-      </c>
       <c r="C77" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7">
@@ -5881,13 +5890,13 @@
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s" s="6">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
@@ -5903,10 +5912,10 @@
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="6">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s" s="6">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>13</v>
@@ -5925,13 +5934,13 @@
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s" s="6">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7">
@@ -5947,10 +5956,10 @@
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="6">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s" s="6">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>13</v>
@@ -5969,10 +5978,10 @@
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="6">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s" s="6">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>16</v>
@@ -5991,13 +6000,13 @@
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="6">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s" s="6">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83" s="7">
         <v>0.641025641025641</v>
@@ -6018,13 +6027,13 @@
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="6">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s" s="6">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D84" s="7">
         <v>0.615384615384615</v>
@@ -6045,10 +6054,10 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="6">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s" s="6">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>16</v>
@@ -6072,10 +6081,10 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="6">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s" s="6">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>16</v>
@@ -6094,13 +6103,13 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="6">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s" s="6">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
@@ -6116,10 +6125,10 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="6">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s" s="6">
         <v>187</v>
-      </c>
-      <c r="B88" t="s" s="6">
-        <v>189</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>16</v>
@@ -6138,13 +6147,13 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="6">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s" s="6">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="7">
         <v>0.7435897435897439</v>
@@ -6165,10 +6174,10 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="6">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s" s="6">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>13</v>
@@ -6187,13 +6196,13 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="6">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s" s="6">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7">
@@ -6209,13 +6218,13 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="6">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s" s="6">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="7">
         <v>0.7692307692307691</v>
@@ -6236,13 +6245,13 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="6">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B93" t="s" s="6">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93" s="7">
         <v>0.435897435897436</v>
@@ -6263,13 +6272,13 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="6">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s" s="6">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" s="7">
         <v>0.692307692307692</v>
@@ -6290,13 +6299,13 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B95" t="s" s="6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" s="7">
         <v>0.666666666666667</v>
@@ -6317,13 +6326,13 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="6">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s" s="6">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" s="7">
         <v>0.666666666666667</v>
@@ -6344,10 +6353,10 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s" s="6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>13</v>
@@ -6366,13 +6375,13 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="6">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s" s="6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7">
@@ -6388,13 +6397,13 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B99" t="s" s="6">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C99" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7">
@@ -6410,13 +6419,13 @@
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="6">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s" s="6">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D100" s="7">
         <v>0.846153846153846</v>
@@ -6437,13 +6446,13 @@
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="6">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s" s="6">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D101" s="7">
         <v>0.41025641025641</v>
@@ -6457,22 +6466,24 @@
       <c r="G101" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="10">
         <f>(D101+LARGE(E101:G101,1)+LARGE(E101:G101,2))/3</f>
         <v>0.5830859199280251</v>
       </c>
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="6">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s" s="6">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D102" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E102" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -6482,14 +6493,17 @@
       <c r="G102" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="5">
+        <f>(D102+LARGE(E102:G102,1)+LARGE(E102:G102,2))/3</f>
+        <v>0.658996851102114</v>
+      </c>
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="6">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s" s="6">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s" s="6">
         <v>16</v>
@@ -6508,13 +6522,13 @@
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="6">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104" t="s" s="6">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="7">
         <v>0.820512820512821</v>
@@ -6535,13 +6549,13 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="6">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B105" t="s" s="6">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105" s="7">
         <v>0.666666666666667</v>
@@ -6562,13 +6576,13 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="6">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B106" t="s" s="6">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7">
@@ -6584,13 +6598,13 @@
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="6">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s" s="6">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7">
@@ -6606,13 +6620,13 @@
     </row>
     <row r="108" ht="20.05" customHeight="1">
       <c r="A108" t="s" s="6">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s" s="6">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108" s="7">
         <v>0.58974358974359</v>
@@ -6633,13 +6647,13 @@
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="6">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B109" t="s" s="6">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C109" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D109" s="7">
         <v>0.846153846153846</v>
@@ -6660,13 +6674,13 @@
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" t="s" s="6">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B110" t="s" s="6">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="7">
         <v>0.794871794871795</v>
@@ -6687,10 +6701,10 @@
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="6">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B111" t="s" s="6">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>10</v>
@@ -6714,13 +6728,13 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="6">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s" s="6">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112" s="7">
         <v>0.871794871794872</v>
@@ -6741,13 +6755,13 @@
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="6">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s" s="6">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7">
@@ -6763,10 +6777,10 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="6">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s" s="6">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>10</v>
@@ -6790,13 +6804,13 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="6">
+        <v>238</v>
+      </c>
+      <c r="B115" t="s" s="6">
         <v>240</v>
       </c>
-      <c r="B115" t="s" s="6">
-        <v>242</v>
-      </c>
       <c r="C115" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7">
@@ -6812,13 +6826,13 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="6">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s" s="6">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7">
@@ -6834,13 +6848,13 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="6">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s" s="6">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7">
@@ -6856,10 +6870,10 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="6">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B118" t="s" s="6">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C118" t="s" s="6">
         <v>13</v>
@@ -6878,10 +6892,10 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="6">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B119" t="s" s="6">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s" s="6">
         <v>10</v>
@@ -6905,13 +6919,13 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="6">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B120" t="s" s="6">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C120" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120" s="7">
         <v>0.58974358974359</v>
@@ -6932,13 +6946,13 @@
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" t="s" s="6">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B121" t="s" s="6">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D121" s="7">
         <v>0.692307692307692</v>
@@ -6959,13 +6973,13 @@
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="6">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" t="s" s="6">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C122" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7">
@@ -6981,10 +6995,10 @@
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" t="s" s="6">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B123" t="s" s="6">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C123" t="s" s="6">
         <v>10</v>
@@ -7008,13 +7022,13 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="6">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s" s="6">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7">
@@ -7030,13 +7044,13 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="6">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125" t="s" s="6">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C125" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7">
@@ -7052,13 +7066,13 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="6">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B126" t="s" s="6">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="7">
         <v>0.487179487179487</v>
@@ -7079,10 +7093,10 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="6">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B127" t="s" s="6">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s" s="6">
         <v>13</v>
@@ -7101,10 +7115,10 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="6">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s" s="6">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s" s="6">
         <v>13</v>
@@ -7123,10 +7137,10 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="6">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B129" t="s" s="6">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C129" t="s" s="6">
         <v>16</v>
@@ -7150,13 +7164,13 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="6">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B130" t="s" s="6">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C130" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7">
@@ -7172,10 +7186,10 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="6">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s" s="6">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>16</v>
@@ -7194,13 +7208,13 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="6">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B132" t="s" s="6">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7">
@@ -7216,13 +7230,13 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="6">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B133" t="s" s="6">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7">
@@ -7238,13 +7252,13 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="6">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B134" t="s" s="6">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" s="7">
         <v>0.7435897435897439</v>
@@ -7265,10 +7279,10 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="6">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B135" t="s" s="6">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C135" t="s" s="6">
         <v>10</v>
@@ -7292,10 +7306,10 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="6">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B136" t="s" s="6">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s" s="6">
         <v>16</v>
@@ -7314,13 +7328,13 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="6">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B137" t="s" s="6">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" s="7">
         <v>0.512820512820513</v>
@@ -7341,13 +7355,13 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="6">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B138" t="s" s="6">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7">
@@ -7363,10 +7377,10 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="6">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B139" t="s" s="6">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s" s="6">
         <v>16</v>
@@ -7390,10 +7404,10 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="6">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B140" t="s" s="6">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s" s="6">
         <v>13</v>
@@ -7412,13 +7426,13 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="6">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B141" t="s" s="6">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D141" s="7">
         <v>0.58974358974359</v>
@@ -7439,10 +7453,10 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="6">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B142" t="s" s="6">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C142" t="s" s="6">
         <v>16</v>
@@ -7466,13 +7480,13 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="6">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s" s="6">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C143" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="7">
@@ -7488,13 +7502,13 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="6">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B144" t="s" s="6">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7">
@@ -7510,10 +7524,10 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="6">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B145" t="s" s="6">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s" s="6">
         <v>16</v>
@@ -7537,13 +7551,13 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="6">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B146" t="s" s="6">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="7">
@@ -7559,10 +7573,10 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="6">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B147" t="s" s="6">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s" s="6">
         <v>16</v>
@@ -7586,10 +7600,10 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="6">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B148" t="s" s="6">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s" s="6">
         <v>10</v>
@@ -7613,13 +7627,13 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="6">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B149" t="s" s="6">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" s="7">
         <v>0.435897435897436</v>
@@ -7640,10 +7654,10 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="6">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s" s="6">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C150" t="s" s="6">
         <v>16</v>
@@ -7667,13 +7681,13 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="6">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B151" t="s" s="6">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7">
@@ -7689,13 +7703,13 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="6">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B152" t="s" s="6">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C152" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7">
@@ -7711,10 +7725,10 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="6">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s" s="6">
         <v>10</v>
@@ -7738,13 +7752,13 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="6">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B154" t="s" s="6">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D154" s="7">
         <v>0.794871794871795</v>
@@ -7765,10 +7779,10 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="6">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B155" t="s" s="6">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C155" t="s" s="6">
         <v>16</v>
@@ -7792,10 +7806,10 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="6">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B156" t="s" s="6">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C156" t="s" s="6">
         <v>13</v>
@@ -7814,13 +7828,13 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="6">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B157" t="s" s="6">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C157" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7">
@@ -7836,10 +7850,10 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="6">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B158" t="s" s="6">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C158" t="s" s="6">
         <v>13</v>
@@ -7858,13 +7872,13 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="6">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B159" t="s" s="6">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C159" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7">
@@ -7880,13 +7894,13 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="6">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B160" t="s" s="6">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C160" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D160" s="7">
         <v>0.487179487179487</v>
@@ -7907,13 +7921,13 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="6">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B161" t="s" s="6">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C161" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D161" s="7">
         <v>0.461538461538462</v>
@@ -7934,13 +7948,13 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="6">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B162" t="s" s="6">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C162" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7">
@@ -7956,13 +7970,13 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="6">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B163" t="s" s="6">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C163" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D163" s="7">
         <v>0.641025641025641</v>
@@ -7983,13 +7997,13 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="6">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B164" t="s" s="6">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C164" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D164" s="7">
         <v>0.487179487179487</v>
@@ -8003,22 +8017,24 @@
       <c r="G164" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="9">
         <f>(D164+LARGE(E164:G164,1)+LARGE(E164:G164,2))/3</f>
         <v>0.764732343679712</v>
       </c>
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="6">
+        <v>337</v>
+      </c>
+      <c r="B165" t="s" s="6">
         <v>339</v>
       </c>
-      <c r="B165" t="s" s="6">
-        <v>341</v>
-      </c>
       <c r="C165" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D165" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D165" s="7">
+        <v>0.512820512820513</v>
+      </c>
       <c r="E165" s="7">
         <v>0.491228070175439</v>
       </c>
@@ -8028,14 +8044,17 @@
       <c r="G165" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H165" s="8"/>
+      <c r="H165" s="5">
+        <f>(D165+LARGE(E165:G165,1)+LARGE(E165:G165,2))/3</f>
+        <v>0.671367521367521</v>
+      </c>
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="6">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B166" t="s" s="6">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C166" t="s" s="6">
         <v>10</v>
@@ -8052,20 +8071,20 @@
       <c r="G166" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="12">
         <f>(D166+LARGE(E166:G166,1)+LARGE(E166:G166,2))/3</f>
         <v>0.648717948717949</v>
       </c>
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="6">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B167" t="s" s="6">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C167" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7">
@@ -8081,10 +8100,10 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="6">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s" s="6">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C168" t="s" s="6">
         <v>16</v>
@@ -8103,10 +8122,10 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="6">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s" s="6">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C169" t="s" s="6">
         <v>13</v>
@@ -8125,13 +8144,13 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="6">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B170" t="s" s="6">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C170" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7">
@@ -8147,13 +8166,13 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="6">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B171" t="s" s="6">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C171" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7">
@@ -8169,13 +8188,13 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="6">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B172" t="s" s="6">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C172" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7">
@@ -8191,10 +8210,10 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="6">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B173" t="s" s="6">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C173" t="s" s="6">
         <v>13</v>
@@ -8213,13 +8232,13 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="6">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s" s="6">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C174" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D174" s="7">
         <v>0.641025641025641</v>
@@ -8240,13 +8259,13 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="6">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B175" t="s" s="6">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C175" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" s="7">
         <v>0.7435897435897439</v>
@@ -8267,13 +8286,13 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="6">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B176" t="s" s="6">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7">
@@ -8289,10 +8308,10 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="6">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B177" t="s" s="6">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C177" t="s" s="6">
         <v>16</v>
@@ -8316,10 +8335,10 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="6">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B178" t="s" s="6">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C178" t="s" s="6">
         <v>10</v>
@@ -8343,10 +8362,10 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="6">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B179" t="s" s="6">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C179" t="s" s="6">
         <v>10</v>
@@ -8365,10 +8384,10 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="6">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B180" t="s" s="6">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s" s="6">
         <v>10</v>
@@ -8387,10 +8406,10 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="6">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B181" t="s" s="6">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C181" t="s" s="6">
         <v>13</v>
@@ -8409,13 +8428,13 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="6">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B182" t="s" s="6">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C182" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="7">
@@ -8431,10 +8450,10 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="6">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B183" t="s" s="6">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C183" t="s" s="6">
         <v>16</v>
@@ -8458,13 +8477,13 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="6">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B184" t="s" s="6">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C184" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7">
@@ -8480,10 +8499,10 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="6">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B185" t="s" s="6">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s" s="6">
         <v>10</v>
@@ -8507,13 +8526,13 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="6">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B186" t="s" s="6">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C186" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7">
@@ -8529,10 +8548,10 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="6">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B187" t="s" s="6">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C187" t="s" s="6">
         <v>16</v>
@@ -8551,13 +8570,13 @@
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="6">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B188" t="s" s="6">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="7">
@@ -8573,13 +8592,13 @@
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="6">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B189" t="s" s="6">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C189" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7">
@@ -8591,19 +8610,21 @@
       <c r="G189" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H189" s="11"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" t="s" s="6">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B190" t="s" s="6">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C190" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D190" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D190" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E190" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -8613,17 +8634,20 @@
       <c r="G190" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H190" s="11"/>
+      <c r="H190" s="5">
+        <f>(D190+LARGE(E190:G190,1)+LARGE(E190:G190,2))/3</f>
+        <v>0.805330634278002</v>
+      </c>
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="6">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B191" t="s" s="6">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C191" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7">
@@ -8639,10 +8663,10 @@
     </row>
     <row r="192" ht="20.05" customHeight="1">
       <c r="A192" t="s" s="6">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B192" t="s" s="6">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C192" t="s" s="6">
         <v>10</v>
@@ -8666,10 +8690,10 @@
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="6">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B193" t="s" s="6">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C193" t="s" s="6">
         <v>16</v>
@@ -8688,13 +8712,13 @@
     </row>
     <row r="194" ht="20.05" customHeight="1">
       <c r="A194" t="s" s="6">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B194" t="s" s="6">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C194" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D194" s="7">
         <v>0.794871794871795</v>
@@ -8715,10 +8739,10 @@
     </row>
     <row r="195" ht="20.05" customHeight="1">
       <c r="A195" t="s" s="6">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B195" t="s" s="6">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s" s="6">
         <v>16</v>
@@ -8737,10 +8761,10 @@
     </row>
     <row r="196" ht="20.05" customHeight="1">
       <c r="A196" t="s" s="6">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B196" t="s" s="6">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C196" t="s" s="6">
         <v>13</v>
@@ -8759,13 +8783,13 @@
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" t="s" s="6">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B197" t="s" s="6">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C197" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="7">
@@ -8781,13 +8805,13 @@
     </row>
     <row r="198" ht="20.05" customHeight="1">
       <c r="A198" t="s" s="6">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B198" t="s" s="6">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C198" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7">
@@ -8803,13 +8827,13 @@
     </row>
     <row r="199" ht="20.05" customHeight="1">
       <c r="A199" t="s" s="6">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B199" t="s" s="6">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C199" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D199" s="7">
         <v>0.487179487179487</v>
@@ -8830,13 +8854,13 @@
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" t="s" s="6">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B200" t="s" s="6">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C200" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="7">
@@ -8852,13 +8876,13 @@
     </row>
     <row r="201" ht="20.05" customHeight="1">
       <c r="A201" t="s" s="6">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B201" t="s" s="6">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C201" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7">
@@ -8874,13 +8898,13 @@
     </row>
     <row r="202" ht="20.05" customHeight="1">
       <c r="A202" t="s" s="6">
+        <v>410</v>
+      </c>
+      <c r="B202" t="s" s="6">
         <v>412</v>
       </c>
-      <c r="B202" t="s" s="6">
-        <v>414</v>
-      </c>
       <c r="C202" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7">
@@ -8896,13 +8920,13 @@
     </row>
     <row r="203" ht="20.05" customHeight="1">
       <c r="A203" t="s" s="6">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B203" t="s" s="6">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C203" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" s="7">
         <v>0.41025641025641</v>
@@ -8923,10 +8947,10 @@
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="6">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B204" t="s" s="6">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C204" t="s" s="6">
         <v>13</v>
@@ -8945,13 +8969,13 @@
     </row>
     <row r="205" ht="20.05" customHeight="1">
       <c r="A205" t="s" s="6">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B205" t="s" s="6">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C205" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D205" s="7">
         <v>0.307692307692308</v>
@@ -8972,10 +8996,10 @@
     </row>
     <row r="206" ht="20.05" customHeight="1">
       <c r="A206" t="s" s="6">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B206" t="s" s="6">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C206" t="s" s="6">
         <v>16</v>
@@ -8999,13 +9023,13 @@
     </row>
     <row r="207" ht="20.05" customHeight="1">
       <c r="A207" t="s" s="6">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B207" t="s" s="6">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C207" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7">
@@ -9021,13 +9045,13 @@
     </row>
     <row r="208" ht="20.05" customHeight="1">
       <c r="A208" t="s" s="6">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B208" t="s" s="6">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C208" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7">
@@ -9043,13 +9067,13 @@
     </row>
     <row r="209" ht="20.05" customHeight="1">
       <c r="A209" t="s" s="6">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B209" t="s" s="6">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C209" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7">
@@ -9065,13 +9089,13 @@
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="6">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B210" t="s" s="6">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C210" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="7">
@@ -9083,19 +9107,21 @@
       <c r="G210" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H210" s="11"/>
+      <c r="H210" s="8"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
       <c r="A211" t="s" s="6">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B211" t="s" s="6">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C211" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E211" s="7">
         <v>0.56140350877193</v>
       </c>
@@ -9105,17 +9131,20 @@
       <c r="G211" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H211" s="11"/>
+      <c r="H211" s="5">
+        <f>(D211+LARGE(E211:G211,1)+LARGE(E211:G211,2))/3</f>
+        <v>0.5598290598290599</v>
+      </c>
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" t="s" s="6">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B212" t="s" s="6">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7">
@@ -9131,13 +9160,13 @@
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" t="s" s="6">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B213" t="s" s="6">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C213" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7">
@@ -9153,10 +9182,10 @@
     </row>
     <row r="214" ht="20.05" customHeight="1">
       <c r="A214" t="s" s="6">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B214" t="s" s="6">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C214" t="s" s="6">
         <v>16</v>
@@ -9180,13 +9209,13 @@
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="6">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B215" t="s" s="6">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D215" s="7">
         <v>0.7692307692307691</v>
@@ -9207,10 +9236,10 @@
     </row>
     <row r="216" ht="20.05" customHeight="1">
       <c r="A216" t="s" s="6">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B216" t="s" s="6">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C216" t="s" s="6">
         <v>10</v>
@@ -9229,10 +9258,10 @@
     </row>
     <row r="217" ht="20.05" customHeight="1">
       <c r="A217" t="s" s="6">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B217" t="s" s="6">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C217" t="s" s="6">
         <v>16</v>
@@ -9247,19 +9276,21 @@
       <c r="G217" s="7">
         <v>0</v>
       </c>
-      <c r="H217" s="11"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
       <c r="A218" t="s" s="6">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B218" t="s" s="6">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C218" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D218" s="7"/>
+      <c r="D218" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E218" s="7">
         <v>0.578947368421053</v>
       </c>
@@ -9269,17 +9300,20 @@
       <c r="G218" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H218" s="11"/>
+      <c r="H218" s="5">
+        <f>(D218+LARGE(E218:G218,1)+LARGE(E218:G218,2))/3</f>
+        <v>0.7589743589743591</v>
+      </c>
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="6">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B219" t="s" s="6">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C219" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="7">
@@ -9295,13 +9329,13 @@
     </row>
     <row r="220" ht="20.05" customHeight="1">
       <c r="A220" t="s" s="6">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B220" t="s" s="6">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C220" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7">
@@ -9317,10 +9351,10 @@
     </row>
     <row r="221" ht="20.05" customHeight="1">
       <c r="A221" t="s" s="6">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B221" t="s" s="6">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C221" t="s" s="6">
         <v>16</v>
@@ -9344,13 +9378,13 @@
     </row>
     <row r="222" ht="20.05" customHeight="1">
       <c r="A222" t="s" s="6">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B222" t="s" s="6">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C222" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="7">
@@ -9366,13 +9400,13 @@
     </row>
     <row r="223" ht="20.05" customHeight="1">
       <c r="A223" t="s" s="6">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B223" t="s" s="6">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C223" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="7">
@@ -9388,13 +9422,13 @@
     </row>
     <row r="224" ht="20.05" customHeight="1">
       <c r="A224" t="s" s="6">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B224" t="s" s="6">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C224" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D224" s="7">
         <v>0.333333333333333</v>
@@ -9415,13 +9449,13 @@
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="6">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B225" t="s" s="6">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C225" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D225" s="7">
         <v>0.435897435897436</v>
@@ -9442,13 +9476,13 @@
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" t="s" s="6">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B226" t="s" s="6">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C226" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D226" s="7">
         <v>0.666666666666667</v>
@@ -9469,13 +9503,13 @@
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="6">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B227" t="s" s="6">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D227" s="7"/>
       <c r="E227" s="7">
@@ -9491,13 +9525,13 @@
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" t="s" s="6">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B228" t="s" s="6">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="7">
@@ -9513,13 +9547,13 @@
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" t="s" s="6">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B229" t="s" s="6">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C229" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D229" s="7">
         <v>0.666666666666667</v>
@@ -9540,13 +9574,13 @@
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="6">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B230" t="s" s="6">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C230" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="7">
@@ -9562,13 +9596,13 @@
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="6">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B231" t="s" s="6">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C231" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" s="7"/>
       <c r="E231" s="7">
@@ -9584,10 +9618,10 @@
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="6">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B232" t="s" s="6">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C232" t="s" s="6">
         <v>16</v>
@@ -9606,13 +9640,13 @@
     </row>
     <row r="233" ht="20.05" customHeight="1">
       <c r="A233" t="s" s="6">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B233" t="s" s="6">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C233" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D233" s="7">
         <v>0.58974358974359</v>
@@ -9633,13 +9667,13 @@
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" t="s" s="6">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B234" t="s" s="6">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C234" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D234" s="7">
         <v>0.615384615384615</v>
@@ -9660,13 +9694,13 @@
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" t="s" s="6">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B235" t="s" s="6">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C235" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D235" s="7">
         <v>0.641025641025641</v>
@@ -9687,13 +9721,13 @@
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="6">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B236" t="s" s="6">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C236" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" s="7">
         <v>0.615384615384615</v>
@@ -9714,13 +9748,13 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="6">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B237" t="s" s="6">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C237" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="7">
@@ -9736,13 +9770,13 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="6">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B238" t="s" s="6">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C238" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D238" s="7">
         <v>0.794871794871795</v>
@@ -9763,10 +9797,10 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="6">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B239" t="s" s="6">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C239" t="s" s="6">
         <v>10</v>
@@ -9790,10 +9824,10 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="6">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B240" t="s" s="6">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C240" t="s" s="6">
         <v>10</v>
@@ -9817,13 +9851,13 @@
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="6">
+        <v>487</v>
+      </c>
+      <c r="B241" t="s" s="6">
         <v>489</v>
       </c>
-      <c r="B241" t="s" s="6">
-        <v>491</v>
-      </c>
       <c r="C241" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D241" s="7">
         <v>0.7692307692307691</v>
@@ -9844,10 +9878,10 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B242" t="s" s="6">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C242" t="s" s="6">
         <v>16</v>
@@ -9871,13 +9905,13 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B243" t="s" s="6">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C243" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="7">
@@ -9893,13 +9927,13 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B244" t="s" s="6">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C244" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D244" s="7"/>
       <c r="E244" s="7">
@@ -9915,13 +9949,13 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="6">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B245" t="s" s="6">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C245" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D245" s="7">
         <v>0.717948717948718</v>
@@ -9942,13 +9976,13 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="6">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s" s="6">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C246" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D246" s="7">
         <v>0.7692307692307691</v>
@@ -9969,13 +10003,13 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B247" t="s" s="6">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C247" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D247" s="7">
         <v>0.307692307692308</v>
@@ -9996,13 +10030,13 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="6">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B248" t="s" s="6">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C248" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D248" s="11"/>
       <c r="E248" s="7">
@@ -10018,13 +10052,13 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="6">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B249" t="s" s="6">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C249" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="7">
@@ -10040,10 +10074,10 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="6">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B250" t="s" s="6">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C250" t="s" s="6">
         <v>10</v>
@@ -10062,13 +10096,13 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="6">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B251" t="s" s="6">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C251" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D251" s="7">
         <v>0.7435897435897439</v>
@@ -10089,13 +10123,13 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B252" t="s" s="6">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C252" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D252" s="7">
         <v>0.307692307692308</v>
@@ -10116,13 +10150,13 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B253" t="s" s="6">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C253" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D253" s="7"/>
       <c r="E253" s="7">
@@ -10138,13 +10172,13 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" t="s" s="6">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B254" t="s" s="6">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C254" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D254" s="7">
         <v>0.538461538461538</v>
@@ -10165,10 +10199,10 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B255" t="s" s="6">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C255" t="s" s="6">
         <v>16</v>
@@ -10187,13 +10221,13 @@
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B256" t="s" s="6">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C256" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D256" s="7"/>
       <c r="E256" s="7">
@@ -10209,10 +10243,10 @@
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" t="s" s="6">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B257" t="s" s="6">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C257" t="s" s="6">
         <v>10</v>
@@ -10231,10 +10265,10 @@
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="6">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B258" t="s" s="6">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C258" t="s" s="6">
         <v>13</v>
@@ -10253,13 +10287,13 @@
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="6">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B259" t="s" s="6">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C259" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D259" s="7"/>
       <c r="E259" s="7">
@@ -10275,13 +10309,13 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="6">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B260" t="s" s="6">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C260" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D260" s="7">
         <v>0.820512820512821</v>
@@ -10302,10 +10336,10 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="6">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B261" t="s" s="6">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C261" t="s" s="6">
         <v>13</v>
@@ -10324,10 +10358,10 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="6">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B262" t="s" s="6">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C262" t="s" s="6">
         <v>16</v>
@@ -10346,10 +10380,10 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="6">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B263" t="s" s="6">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C263" t="s" s="6">
         <v>16</v>
@@ -10373,13 +10407,13 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" t="s" s="6">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B264" t="s" s="6">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C264" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D264" s="7"/>
       <c r="E264" s="7">
@@ -10395,13 +10429,13 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="6">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B265" t="s" s="6">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D265" s="7">
         <v>0.41025641025641</v>
@@ -10422,13 +10456,13 @@
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="6">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B266" t="s" s="6">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D266" s="7"/>
       <c r="E266" s="7">
@@ -10444,10 +10478,10 @@
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="6">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B267" t="s" s="6">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C267" t="s" s="6">
         <v>16</v>
@@ -10471,13 +10505,13 @@
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="6">
+        <v>540</v>
+      </c>
+      <c r="B268" t="s" s="6">
         <v>542</v>
       </c>
-      <c r="B268" t="s" s="6">
-        <v>544</v>
-      </c>
       <c r="C268" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D268" s="7"/>
       <c r="E268" s="7">
@@ -10493,13 +10527,13 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="6">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B269" t="s" s="6">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D269" s="7">
         <v>0.641025641025641</v>
@@ -10520,13 +10554,13 @@
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="6">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B270" t="s" s="6">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C270" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D270" s="7"/>
       <c r="E270" s="7">
@@ -10542,13 +10576,13 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="6">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B271" t="s" s="6">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C271" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="7">
@@ -10564,13 +10598,13 @@
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="6">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B272" t="s" s="6">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C272" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D272" s="7">
         <v>0.205128205128205</v>
@@ -10591,13 +10625,13 @@
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="6">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B273" t="s" s="6">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C273" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D273" s="7">
         <v>0.615384615384615</v>
@@ -10618,13 +10652,13 @@
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="6">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B274" t="s" s="6">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C274" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D274" s="7"/>
       <c r="E274" s="7">
@@ -10640,13 +10674,13 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="6">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B275" t="s" s="6">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C275" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D275" s="7">
         <v>0.487179487179487</v>
@@ -10667,10 +10701,10 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="6">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B276" t="s" s="6">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C276" t="s" s="6">
         <v>13</v>
@@ -10689,10 +10723,10 @@
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" t="s" s="6">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B277" t="s" s="6">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C277" t="s" s="6">
         <v>16</v>
@@ -10711,10 +10745,10 @@
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="6">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B278" t="s" s="6">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C278" t="s" s="6">
         <v>13</v>
@@ -10733,13 +10767,13 @@
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="6">
+        <v>561</v>
+      </c>
+      <c r="B279" t="s" s="6">
         <v>563</v>
       </c>
-      <c r="B279" t="s" s="6">
-        <v>565</v>
-      </c>
       <c r="C279" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D279" s="7"/>
       <c r="E279" s="7">
@@ -10755,13 +10789,13 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="6">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B280" t="s" s="6">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D280" s="7">
         <v>0.358974358974359</v>
@@ -10782,10 +10816,10 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="6">
+        <v>564</v>
+      </c>
+      <c r="B281" t="s" s="6">
         <v>566</v>
-      </c>
-      <c r="B281" t="s" s="6">
-        <v>568</v>
       </c>
       <c r="C281" t="s" s="6">
         <v>16</v>
@@ -10809,10 +10843,10 @@
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="6">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B282" t="s" s="6">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C282" t="s" s="6">
         <v>16</v>
@@ -10836,13 +10870,13 @@
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="6">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B283" t="s" s="6">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C283" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D283" s="7">
         <v>0.564102564102564</v>
@@ -10863,13 +10897,13 @@
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="6">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B284" t="s" s="6">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C284" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D284" s="7"/>
       <c r="E284" s="7">
@@ -10885,10 +10919,10 @@
     </row>
     <row r="285" ht="20.05" customHeight="1">
       <c r="A285" t="s" s="6">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B285" t="s" s="6">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C285" t="s" s="6">
         <v>16</v>
@@ -10912,10 +10946,10 @@
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="6">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B286" t="s" s="6">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C286" t="s" s="6">
         <v>16</v>
@@ -10939,10 +10973,10 @@
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B287" t="s" s="6">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C287" t="s" s="6">
         <v>10</v>
@@ -10966,10 +11000,10 @@
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="6">
+        <v>577</v>
+      </c>
+      <c r="B288" t="s" s="6">
         <v>579</v>
-      </c>
-      <c r="B288" t="s" s="6">
-        <v>581</v>
       </c>
       <c r="C288" t="s" s="6">
         <v>16</v>
@@ -10986,22 +11020,24 @@
       <c r="G288" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H288" s="5">
+      <c r="H288" s="9">
         <f>(D288+LARGE(E288:G288,1)+LARGE(E288:G288,2))/3</f>
         <v>0.800202429149798</v>
       </c>
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="6">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B289" t="s" s="6">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C289" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D289" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D289" s="7">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E289" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -11011,17 +11047,20 @@
       <c r="G289" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H289" s="8"/>
+      <c r="H289" s="5">
+        <f>(D289+LARGE(E289:G289,1)+LARGE(E289:G289,2))/3</f>
+        <v>0.581376518218624</v>
+      </c>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="6">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B290" t="s" s="6">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C290" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D290" s="7">
         <v>0.538461538461538</v>
@@ -11035,17 +11074,17 @@
       <c r="G290" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H290" s="9">
+      <c r="H290" s="10">
         <f>(D290+LARGE(E290:G290,1)+LARGE(E290:G290,2))/3</f>
         <v>0.6228520017993699</v>
       </c>
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" t="s" s="6">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B291" t="s" s="6">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C291" t="s" s="6">
         <v>16</v>
@@ -11069,10 +11108,10 @@
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" t="s" s="6">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B292" t="s" s="6">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C292" t="s" s="6">
         <v>10</v>
@@ -11091,13 +11130,13 @@
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="6">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B293" t="s" s="6">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C293" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D293" s="7">
         <v>0.205128205128205</v>
@@ -11118,13 +11157,13 @@
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="6">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B294" t="s" s="6">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D294" s="7"/>
       <c r="E294" s="7">
@@ -11140,13 +11179,13 @@
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" t="s" s="6">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B295" t="s" s="6">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D295" s="7">
         <v>0.666666666666667</v>
@@ -11167,13 +11206,13 @@
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="6">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B296" t="s" s="6">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C296" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D296" s="7"/>
       <c r="E296" s="7">
@@ -11189,13 +11228,13 @@
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="6">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B297" t="s" s="6">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C297" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D297" s="7"/>
       <c r="E297" s="7">
@@ -11211,10 +11250,10 @@
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="6">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B298" t="s" s="6">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C298" t="s" s="6">
         <v>13</v>
@@ -11233,13 +11272,13 @@
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" t="s" s="6">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B299" t="s" s="6">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C299" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D299" s="7">
         <v>0.641025641025641</v>
@@ -11260,13 +11299,13 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="6">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B300" t="s" s="6">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C300" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="7">
@@ -11282,13 +11321,13 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="6">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B301" t="s" s="6">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C301" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7">
@@ -11304,13 +11343,13 @@
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="6">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B302" t="s" s="6">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C302" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="7">
@@ -11322,19 +11361,21 @@
       <c r="G302" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H302" s="11"/>
+      <c r="H302" s="8"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B303" t="s" s="6">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C303" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D303" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D303" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E303" s="7">
         <v>0.649122807017544</v>
       </c>
@@ -11344,14 +11385,17 @@
       <c r="G303" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H303" s="11"/>
+      <c r="H303" s="5">
+        <f>(D303+LARGE(E303:G303,1)+LARGE(E303:G303,2))/3</f>
+        <v>0.679622132253711</v>
+      </c>
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" t="s" s="6">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B304" t="s" s="6">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C304" t="s" s="6">
         <v>13</v>
@@ -11370,13 +11414,13 @@
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" t="s" s="6">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B305" t="s" s="6">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C305" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D305" s="7"/>
       <c r="E305" s="7">
@@ -11392,13 +11436,13 @@
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B306" t="s" s="6">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D306" s="7"/>
       <c r="E306" s="7">
@@ -11414,13 +11458,13 @@
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="6">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B307" t="s" s="6">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C307" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D307" s="7"/>
       <c r="E307" s="7">
@@ -11436,10 +11480,10 @@
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="6">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B308" t="s" s="6">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C308" t="s" s="6">
         <v>10</v>
@@ -11463,10 +11507,10 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="6">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B309" t="s" s="6">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C309" t="s" s="6">
         <v>16</v>
@@ -11490,13 +11534,13 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="6">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B310" t="s" s="6">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C310" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D310" s="7"/>
       <c r="E310" s="7">
@@ -11512,13 +11556,13 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="6">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B311" t="s" s="6">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C311" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D311" s="7">
         <v>0.820512820512821</v>
@@ -11539,10 +11583,10 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B312" t="s" s="6">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C312" t="s" s="6">
         <v>16</v>
@@ -11566,10 +11610,10 @@
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B313" t="s" s="6">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C313" t="s" s="6">
         <v>16</v>
@@ -11588,13 +11632,13 @@
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" t="s" s="6">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B314" t="s" s="6">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C314" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D314" s="7"/>
       <c r="E314" s="7">
@@ -11610,13 +11654,13 @@
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
+        <v>630</v>
+      </c>
+      <c r="B315" t="s" s="6">
         <v>632</v>
       </c>
-      <c r="B315" t="s" s="6">
-        <v>634</v>
-      </c>
       <c r="C315" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D315" s="7"/>
       <c r="E315" s="7">
@@ -11632,10 +11676,10 @@
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" t="s" s="6">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B316" t="s" s="6">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C316" t="s" s="6">
         <v>16</v>
@@ -11654,13 +11698,13 @@
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" t="s" s="6">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B317" t="s" s="6">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C317" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D317" s="7"/>
       <c r="E317" s="7">
@@ -11676,10 +11720,10 @@
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" t="s" s="6">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B318" t="s" s="6">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C318" t="s" s="6">
         <v>13</v>
@@ -11698,13 +11742,13 @@
     </row>
     <row r="319" ht="20.05" customHeight="1">
       <c r="A319" t="s" s="6">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B319" t="s" s="6">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C319" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D319" s="7">
         <v>0.717948717948718</v>
@@ -11725,13 +11769,13 @@
     </row>
     <row r="320" ht="20.05" customHeight="1">
       <c r="A320" t="s" s="6">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B320" t="s" s="6">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C320" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D320" s="7"/>
       <c r="E320" s="7">
@@ -11747,13 +11791,13 @@
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="6">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B321" t="s" s="6">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C321" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D321" s="7"/>
       <c r="E321" s="7">
@@ -11769,10 +11813,10 @@
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="6">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B322" t="s" s="6">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C322" t="s" s="6">
         <v>13</v>
@@ -11791,13 +11835,13 @@
     </row>
     <row r="323" ht="20.05" customHeight="1">
       <c r="A323" t="s" s="6">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B323" t="s" s="6">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="7">
@@ -11813,13 +11857,13 @@
     </row>
     <row r="324" ht="20.05" customHeight="1">
       <c r="A324" t="s" s="6">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B324" t="s" s="6">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D324" s="7"/>
       <c r="E324" s="7">
@@ -11835,13 +11879,13 @@
     </row>
     <row r="325" ht="20.05" customHeight="1">
       <c r="A325" t="s" s="6">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B325" t="s" s="6">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D325" s="7"/>
       <c r="E325" s="7">
@@ -11857,13 +11901,13 @@
     </row>
     <row r="326" ht="20.05" customHeight="1">
       <c r="A326" t="s" s="6">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B326" t="s" s="6">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D326" s="7">
         <v>0.717948717948718</v>
@@ -11884,13 +11928,13 @@
     </row>
     <row r="327" ht="20.05" customHeight="1">
       <c r="A327" t="s" s="6">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B327" t="s" s="6">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C327" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="7">
@@ -11906,10 +11950,10 @@
     </row>
     <row r="328" ht="20.05" customHeight="1">
       <c r="A328" t="s" s="6">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B328" t="s" s="6">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C328" t="s" s="6">
         <v>13</v>
@@ -11928,10 +11972,10 @@
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="6">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B329" t="s" s="6">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C329" t="s" s="6">
         <v>10</v>
@@ -11955,10 +11999,10 @@
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="6">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B330" t="s" s="6">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C330" t="s" s="6">
         <v>16</v>
@@ -11982,10 +12026,10 @@
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="6">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B331" t="s" s="6">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C331" t="s" s="6">
         <v>10</v>
@@ -12009,13 +12053,13 @@
     </row>
     <row r="332" ht="20.05" customHeight="1">
       <c r="A332" t="s" s="6">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B332" t="s" s="6">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="7">
@@ -12031,10 +12075,10 @@
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B333" t="s" s="6">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C333" t="s" s="6">
         <v>13</v>
@@ -12053,13 +12097,13 @@
     </row>
     <row r="334" ht="20.05" customHeight="1">
       <c r="A334" t="s" s="6">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B334" t="s" s="6">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C334" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D334" s="7"/>
       <c r="E334" s="7">
@@ -12075,13 +12119,13 @@
     </row>
     <row r="335" ht="20.05" customHeight="1">
       <c r="A335" t="s" s="6">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B335" t="s" s="6">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C335" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D335" s="7">
         <v>0.7692307692307691</v>
@@ -12102,13 +12146,13 @@
     </row>
     <row r="336" ht="20.05" customHeight="1">
       <c r="A336" t="s" s="6">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B336" t="s" s="6">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C336" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D336" s="7"/>
       <c r="E336" s="7">
@@ -12124,13 +12168,13 @@
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" t="s" s="6">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B337" t="s" s="6">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C337" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D337" s="7">
         <v>0.641025641025641</v>
@@ -12151,13 +12195,13 @@
     </row>
     <row r="338" ht="20.05" customHeight="1">
       <c r="A338" t="s" s="6">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B338" t="s" s="6">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C338" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D338" s="7">
         <v>0.820512820512821</v>
@@ -12178,13 +12222,13 @@
     </row>
     <row r="339" ht="20.05" customHeight="1">
       <c r="A339" t="s" s="6">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B339" t="s" s="6">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C339" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D339" s="7">
         <v>0.615384615384615</v>
@@ -12205,13 +12249,13 @@
     </row>
     <row r="340" ht="20.05" customHeight="1">
       <c r="A340" t="s" s="6">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B340" t="s" s="6">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C340" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D340" s="7"/>
       <c r="E340" s="7">
@@ -12227,13 +12271,13 @@
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" t="s" s="6">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B341" t="s" s="6">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C341" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D341" s="7">
         <v>0.487179487179487</v>
@@ -12254,10 +12298,10 @@
     </row>
     <row r="342" ht="20.05" customHeight="1">
       <c r="A342" t="s" s="6">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B342" t="s" s="6">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C342" t="s" s="6">
         <v>16</v>
@@ -12276,13 +12320,13 @@
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B343" t="s" s="6">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C343" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D343" s="7"/>
       <c r="E343" s="7">
@@ -12298,13 +12342,13 @@
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B344" t="s" s="6">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C344" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D344" s="7">
         <v>0.692307692307692</v>
@@ -12325,10 +12369,10 @@
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
+        <v>689</v>
+      </c>
+      <c r="B345" t="s" s="6">
         <v>691</v>
-      </c>
-      <c r="B345" t="s" s="6">
-        <v>693</v>
       </c>
       <c r="C345" t="s" s="6">
         <v>16</v>
@@ -12352,13 +12396,13 @@
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" t="s" s="6">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B346" t="s" s="6">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C346" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D346" s="7">
         <v>0.58974358974359</v>
@@ -12379,13 +12423,13 @@
     </row>
     <row r="347" ht="20.05" customHeight="1">
       <c r="A347" t="s" s="6">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B347" t="s" s="6">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C347" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D347" s="7">
         <v>0.564102564102564</v>
@@ -12406,10 +12450,10 @@
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" t="s" s="6">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B348" t="s" s="6">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C348" t="s" s="6">
         <v>10</v>
@@ -12433,13 +12477,13 @@
     </row>
     <row r="349" ht="20.05" customHeight="1">
       <c r="A349" t="s" s="6">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B349" t="s" s="6">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C349" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D349" s="7">
         <v>0.846153846153846</v>
@@ -12460,13 +12504,13 @@
     </row>
     <row r="350" ht="20.05" customHeight="1">
       <c r="A350" t="s" s="6">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B350" t="s" s="6">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C350" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D350" s="7"/>
       <c r="E350" s="7">
@@ -12482,13 +12526,13 @@
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="6">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B351" t="s" s="6">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C351" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="7">
@@ -12504,13 +12548,13 @@
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="6">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B352" t="s" s="6">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C352" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D352" s="7"/>
       <c r="E352" s="7">
@@ -12526,10 +12570,10 @@
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="6">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B353" t="s" s="6">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C353" t="s" s="6">
         <v>16</v>
@@ -12553,13 +12597,13 @@
     </row>
     <row r="354" ht="20.05" customHeight="1">
       <c r="A354" t="s" s="6">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B354" t="s" s="6">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D354" s="7"/>
       <c r="E354" s="7">
@@ -12575,13 +12619,13 @@
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B355" t="s" s="6">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D355" s="7"/>
       <c r="E355" s="7">
@@ -12597,13 +12641,13 @@
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B356" t="s" s="6">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D356" s="7">
         <v>0.7692307692307691</v>
@@ -12624,13 +12668,13 @@
     </row>
     <row r="357" ht="20.05" customHeight="1">
       <c r="A357" t="s" s="6">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B357" t="s" s="6">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D357" s="7">
         <v>0.538461538461538</v>
@@ -12651,10 +12695,10 @@
     </row>
     <row r="358" ht="20.05" customHeight="1">
       <c r="A358" t="s" s="6">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B358" t="s" s="6">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C358" t="s" s="6">
         <v>13</v>
@@ -12673,13 +12717,13 @@
     </row>
     <row r="359" ht="20.05" customHeight="1">
       <c r="A359" t="s" s="6">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B359" t="s" s="6">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D359" s="7"/>
       <c r="E359" s="7">
@@ -12695,10 +12739,10 @@
     </row>
     <row r="360" ht="20.05" customHeight="1">
       <c r="A360" t="s" s="6">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B360" t="s" s="6">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C360" t="s" s="6">
         <v>16</v>
@@ -12717,13 +12761,13 @@
     </row>
     <row r="361" ht="20.05" customHeight="1">
       <c r="A361" t="s" s="6">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B361" t="s" s="6">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D361" s="7">
         <v>0.692307692307692</v>
@@ -12744,13 +12788,13 @@
     </row>
     <row r="362" ht="20.05" customHeight="1">
       <c r="A362" t="s" s="6">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B362" t="s" s="6">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D362" s="7">
         <v>0.487179487179487</v>
@@ -12771,13 +12815,13 @@
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="6">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B363" t="s" s="6">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D363" s="7"/>
       <c r="E363" s="7">
@@ -12793,13 +12837,13 @@
     </row>
     <row r="364" ht="20.05" customHeight="1">
       <c r="A364" t="s" s="6">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B364" t="s" s="6">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D364" s="7"/>
       <c r="E364" s="7">
@@ -12815,13 +12859,13 @@
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="6">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B365" t="s" s="6">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D365" s="7"/>
       <c r="E365" s="7">
@@ -12837,13 +12881,13 @@
     </row>
     <row r="366" ht="20.05" customHeight="1">
       <c r="A366" t="s" s="6">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B366" t="s" s="6">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D366" s="7"/>
       <c r="E366" s="7">
@@ -12859,13 +12903,13 @@
     </row>
     <row r="367" ht="20.05" customHeight="1">
       <c r="A367" t="s" s="6">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B367" t="s" s="6">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D367" s="7"/>
       <c r="E367" s="7">
@@ -12881,13 +12925,13 @@
     </row>
     <row r="368" ht="20.05" customHeight="1">
       <c r="A368" t="s" s="6">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B368" t="s" s="6">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D368" s="7">
         <v>0.692307692307692</v>
@@ -12908,13 +12952,13 @@
     </row>
     <row r="369" ht="20.05" customHeight="1">
       <c r="A369" t="s" s="6">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B369" t="s" s="6">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D369" s="7"/>
       <c r="E369" s="7">
@@ -12930,10 +12974,10 @@
     </row>
     <row r="370" ht="20.05" customHeight="1">
       <c r="A370" t="s" s="6">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B370" t="s" s="6">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C370" t="s" s="6">
         <v>10</v>
@@ -12957,13 +13001,13 @@
     </row>
     <row r="371" ht="20.05" customHeight="1">
       <c r="A371" t="s" s="6">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B371" t="s" s="6">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D371" s="7">
         <v>0.538461538461538</v>
@@ -12984,10 +13028,10 @@
     </row>
     <row r="372" ht="20.05" customHeight="1">
       <c r="A372" t="s" s="6">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B372" t="s" s="6">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C372" t="s" s="6">
         <v>16</v>
@@ -13006,13 +13050,13 @@
     </row>
     <row r="373" ht="20.05" customHeight="1">
       <c r="A373" t="s" s="6">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B373" t="s" s="6">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D373" s="7">
         <v>0.615384615384615</v>
@@ -13033,13 +13077,13 @@
     </row>
     <row r="374" ht="20.05" customHeight="1">
       <c r="A374" t="s" s="6">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B374" t="s" s="6">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C374" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D374" s="7"/>
       <c r="E374" s="7">
@@ -13055,13 +13099,13 @@
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="6">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B375" t="s" s="6">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D375" s="7"/>
       <c r="E375" s="7">
@@ -13077,13 +13121,13 @@
     </row>
     <row r="376" ht="20.05" customHeight="1">
       <c r="A376" t="s" s="6">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B376" t="s" s="6">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D376" s="7"/>
       <c r="E376" s="7">
@@ -13099,10 +13143,10 @@
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B377" t="s" s="6">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C377" t="s" s="6">
         <v>16</v>
@@ -13121,13 +13165,13 @@
     </row>
     <row r="378" ht="20.05" customHeight="1">
       <c r="A378" t="s" s="6">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B378" t="s" s="6">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D378" s="7"/>
       <c r="E378" s="7">
@@ -13143,13 +13187,13 @@
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B379" t="s" s="6">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D379" s="7"/>
       <c r="E379" s="7">
@@ -13165,10 +13209,10 @@
     </row>
     <row r="380" ht="20.05" customHeight="1">
       <c r="A380" t="s" s="6">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B380" t="s" s="6">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C380" t="s" s="6">
         <v>13</v>
@@ -13187,13 +13231,13 @@
     </row>
     <row r="381" ht="20.05" customHeight="1">
       <c r="A381" t="s" s="6">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B381" t="s" s="6">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D381" s="7"/>
       <c r="E381" s="7">
@@ -13209,13 +13253,13 @@
     </row>
     <row r="382" ht="20.05" customHeight="1">
       <c r="A382" t="s" s="6">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B382" t="s" s="6">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D382" s="7">
         <v>0.717948717948718</v>
@@ -13236,10 +13280,10 @@
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="6">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B383" t="s" s="6">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C383" t="s" s="6">
         <v>10</v>
@@ -13263,13 +13307,13 @@
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="6">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B384" t="s" s="6">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C384" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D384" s="7">
         <v>0.897435897435897</v>
@@ -13290,13 +13334,13 @@
     </row>
     <row r="385" ht="20.05" customHeight="1">
       <c r="A385" t="s" s="6">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B385" t="s" s="6">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D385" s="7"/>
       <c r="E385" s="7">
@@ -13312,10 +13356,10 @@
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B386" t="s" s="6">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C386" t="s" s="6">
         <v>13</v>
@@ -13334,13 +13378,13 @@
     </row>
     <row r="387" ht="20.05" customHeight="1">
       <c r="A387" t="s" s="6">
+        <v>772</v>
+      </c>
+      <c r="B387" t="s" s="6">
         <v>774</v>
       </c>
-      <c r="B387" t="s" s="6">
-        <v>776</v>
-      </c>
       <c r="C387" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="7">
@@ -13356,13 +13400,13 @@
     </row>
     <row r="388" ht="20.05" customHeight="1">
       <c r="A388" t="s" s="6">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B388" t="s" s="6">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D388" s="7">
         <v>0.641025641025641</v>
@@ -13383,13 +13427,13 @@
     </row>
     <row r="389" ht="20.05" customHeight="1">
       <c r="A389" t="s" s="6">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B389" t="s" s="6">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D389" s="7"/>
       <c r="E389" s="7">
@@ -13405,13 +13449,13 @@
     </row>
     <row r="390" ht="20.05" customHeight="1">
       <c r="A390" t="s" s="6">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B390" t="s" s="6">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C390" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D390" s="7"/>
       <c r="E390" s="7">
@@ -13427,10 +13471,10 @@
     </row>
     <row r="391" ht="20.05" customHeight="1">
       <c r="A391" t="s" s="6">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B391" t="s" s="6">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C391" t="s" s="6">
         <v>16</v>
@@ -13449,10 +13493,10 @@
     </row>
     <row r="392" ht="20.05" customHeight="1">
       <c r="A392" t="s" s="6">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B392" t="s" s="6">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C392" t="s" s="6">
         <v>10</v>
@@ -13476,13 +13520,13 @@
     </row>
     <row r="393" ht="20.05" customHeight="1">
       <c r="A393" t="s" s="6">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B393" t="s" s="6">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D393" s="7"/>
       <c r="E393" s="7">
@@ -13498,13 +13542,13 @@
     </row>
     <row r="394" ht="20.05" customHeight="1">
       <c r="A394" t="s" s="6">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B394" t="s" s="6">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C394" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D394" s="7"/>
       <c r="E394" s="7">
@@ -13520,13 +13564,13 @@
     </row>
     <row r="395" ht="20.05" customHeight="1">
       <c r="A395" t="s" s="6">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B395" t="s" s="6">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D395" s="7">
         <v>0.717948717948718</v>
@@ -13547,10 +13591,10 @@
     </row>
     <row r="396" ht="20.05" customHeight="1">
       <c r="A396" t="s" s="6">
+        <v>789</v>
+      </c>
+      <c r="B396" t="s" s="6">
         <v>791</v>
-      </c>
-      <c r="B396" t="s" s="6">
-        <v>793</v>
       </c>
       <c r="C396" t="s" s="6">
         <v>13</v>
@@ -13569,13 +13613,13 @@
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B397" t="s" s="6">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="7">
@@ -13591,13 +13635,13 @@
     </row>
     <row r="398" ht="20.05" customHeight="1">
       <c r="A398" t="s" s="6">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B398" t="s" s="6">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C398" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D398" s="7">
         <v>0.666666666666667</v>
@@ -13618,13 +13662,13 @@
     </row>
     <row r="399" ht="20.05" customHeight="1">
       <c r="A399" t="s" s="6">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B399" t="s" s="6">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D399" s="7"/>
       <c r="E399" s="7">
@@ -13640,13 +13684,13 @@
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B400" t="s" s="6">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D400" s="7">
         <v>0.358974358974359</v>
@@ -13667,10 +13711,10 @@
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B401" t="s" s="6">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C401" t="s" s="6">
         <v>16</v>
@@ -13689,13 +13733,13 @@
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B402" t="s" s="6">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D402" s="7"/>
       <c r="E402" s="7">
@@ -13711,13 +13755,13 @@
     </row>
     <row r="403" ht="20.05" customHeight="1">
       <c r="A403" t="s" s="6">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B403" t="s" s="6">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D403" s="7"/>
       <c r="E403" s="7">
@@ -13733,13 +13777,13 @@
     </row>
     <row r="404" ht="20.05" customHeight="1">
       <c r="A404" t="s" s="6">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B404" t="s" s="6">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D404" s="7">
         <v>0.512820512820513</v>
@@ -13760,13 +13804,13 @@
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B405" t="s" s="6">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C405" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D405" s="7">
         <v>0.358974358974359</v>
@@ -13787,13 +13831,13 @@
     </row>
     <row r="406" ht="20.05" customHeight="1">
       <c r="A406" t="s" s="6">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B406" t="s" s="6">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C406" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D406" s="7"/>
       <c r="E406" s="7">
@@ -13809,13 +13853,13 @@
     </row>
     <row r="407" ht="20.05" customHeight="1">
       <c r="A407" t="s" s="6">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B407" t="s" s="6">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C407" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D407" s="7"/>
       <c r="E407" s="7">
@@ -13831,10 +13875,10 @@
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B408" t="s" s="6">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C408" t="s" s="6">
         <v>13</v>
@@ -13853,13 +13897,13 @@
     </row>
     <row r="409" ht="20.05" customHeight="1">
       <c r="A409" t="s" s="6">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B409" t="s" s="6">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D409" s="7">
         <v>0.641025641025641</v>
@@ -13880,13 +13924,13 @@
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="6">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B410" t="s" s="6">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C410" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D410" s="7"/>
       <c r="E410" s="7">
@@ -13902,10 +13946,10 @@
     </row>
     <row r="411" ht="20.05" customHeight="1">
       <c r="A411" t="s" s="6">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B411" t="s" s="6">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C411" t="s" s="6">
         <v>13</v>
@@ -13924,13 +13968,13 @@
     </row>
     <row r="412" ht="20.05" customHeight="1">
       <c r="A412" t="s" s="6">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B412" t="s" s="6">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C412" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D412" s="7">
         <v>0.615384615384615</v>
@@ -13951,13 +13995,13 @@
     </row>
     <row r="413" ht="20.05" customHeight="1">
       <c r="A413" t="s" s="6">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B413" t="s" s="6">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C413" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D413" s="7">
         <v>0.7435897435897439</v>
@@ -13978,10 +14022,10 @@
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="6">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B414" t="s" s="6">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C414" t="s" s="6">
         <v>10</v>
@@ -14000,10 +14044,10 @@
     </row>
     <row r="415" ht="20.05" customHeight="1">
       <c r="A415" t="s" s="6">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B415" t="s" s="6">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C415" t="s" s="6">
         <v>16</v>
@@ -14022,13 +14066,13 @@
     </row>
     <row r="416" ht="20.05" customHeight="1">
       <c r="A416" t="s" s="6">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B416" t="s" s="6">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C416" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D416" s="7">
         <v>0.717948717948718</v>
@@ -14049,10 +14093,10 @@
     </row>
     <row r="417" ht="20.05" customHeight="1">
       <c r="A417" t="s" s="6">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B417" t="s" s="6">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C417" t="s" s="6">
         <v>10</v>
@@ -14071,10 +14115,10 @@
     </row>
     <row r="418" ht="20.05" customHeight="1">
       <c r="A418" t="s" s="6">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B418" t="s" s="6">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C418" t="s" s="6">
         <v>16</v>
@@ -14098,10 +14142,10 @@
     </row>
     <row r="419" ht="20.05" customHeight="1">
       <c r="A419" t="s" s="6">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B419" t="s" s="6">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C419" t="s" s="6">
         <v>10</v>
@@ -14125,13 +14169,13 @@
     </row>
     <row r="420" ht="20.05" customHeight="1">
       <c r="A420" t="s" s="6">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B420" t="s" s="6">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D420" s="7">
         <v>0.333333333333333</v>
@@ -14152,13 +14196,13 @@
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="6">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B421" t="s" s="6">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C421" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D421" s="7">
         <v>0.717948717948718</v>
@@ -14179,13 +14223,13 @@
     </row>
     <row r="422" ht="20.05" customHeight="1">
       <c r="A422" t="s" s="6">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B422" t="s" s="6">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C422" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D422" s="7"/>
       <c r="E422" s="7">
@@ -14201,10 +14245,10 @@
     </row>
     <row r="423" ht="20.05" customHeight="1">
       <c r="A423" t="s" s="6">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B423" t="s" s="6">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C423" t="s" s="6">
         <v>16</v>
@@ -14223,10 +14267,10 @@
     </row>
     <row r="424" ht="20.05" customHeight="1">
       <c r="A424" t="s" s="6">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B424" t="s" s="6">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C424" t="s" s="6">
         <v>10</v>
@@ -14250,13 +14294,13 @@
     </row>
     <row r="425" ht="20.05" customHeight="1">
       <c r="A425" t="s" s="6">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B425" t="s" s="6">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C425" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D425" s="7"/>
       <c r="E425" s="7">
@@ -14272,10 +14316,10 @@
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="6">
+        <v>847</v>
+      </c>
+      <c r="B426" t="s" s="6">
         <v>849</v>
-      </c>
-      <c r="B426" t="s" s="6">
-        <v>851</v>
       </c>
       <c r="C426" t="s" s="6">
         <v>13</v>
@@ -14294,10 +14338,10 @@
     </row>
     <row r="427" ht="20.05" customHeight="1">
       <c r="A427" t="s" s="6">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B427" t="s" s="6">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C427" t="s" s="6">
         <v>13</v>
@@ -14316,13 +14360,13 @@
     </row>
     <row r="428" ht="20.05" customHeight="1">
       <c r="A428" t="s" s="6">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B428" t="s" s="6">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C428" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D428" s="7"/>
       <c r="E428" s="7">
@@ -14338,10 +14382,10 @@
     </row>
     <row r="429" ht="20.05" customHeight="1">
       <c r="A429" t="s" s="6">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B429" t="s" s="6">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C429" t="s" s="6">
         <v>10</v>
@@ -14365,13 +14409,13 @@
     </row>
     <row r="430" ht="20.05" customHeight="1">
       <c r="A430" t="s" s="6">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B430" t="s" s="6">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C430" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D430" s="7"/>
       <c r="E430" s="7">
@@ -14387,13 +14431,13 @@
     </row>
     <row r="431" ht="20.05" customHeight="1">
       <c r="A431" t="s" s="6">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B431" t="s" s="6">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C431" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D431" s="7">
         <v>0.794871794871795</v>
@@ -14414,13 +14458,13 @@
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="6">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B432" t="s" s="6">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C432" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D432" s="7">
         <v>0.41025641025641</v>
@@ -14441,13 +14485,13 @@
     </row>
     <row r="433" ht="20.05" customHeight="1">
       <c r="A433" t="s" s="6">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B433" t="s" s="6">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C433" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D433" s="7"/>
       <c r="E433" s="7">
@@ -14463,13 +14507,13 @@
     </row>
     <row r="434" ht="20.05" customHeight="1">
       <c r="A434" t="s" s="6">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B434" t="s" s="6">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C434" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D434" s="7"/>
       <c r="E434" s="7">
@@ -14485,10 +14529,10 @@
     </row>
     <row r="435" ht="20.05" customHeight="1">
       <c r="A435" t="s" s="6">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B435" t="s" s="6">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C435" t="s" s="6">
         <v>16</v>
@@ -14507,13 +14551,13 @@
     </row>
     <row r="436" ht="20.05" customHeight="1">
       <c r="A436" t="s" s="6">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B436" t="s" s="6">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C436" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D436" s="7"/>
       <c r="E436" s="7">
@@ -14529,13 +14573,13 @@
     </row>
     <row r="437" ht="20.05" customHeight="1">
       <c r="A437" t="s" s="6">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B437" t="s" s="6">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C437" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D437" s="7">
         <v>0.538461538461538</v>
@@ -14556,13 +14600,13 @@
     </row>
     <row r="438" ht="20.05" customHeight="1">
       <c r="A438" t="s" s="6">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B438" t="s" s="6">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C438" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D438" s="7"/>
       <c r="E438" s="7">
@@ -14578,13 +14622,13 @@
     </row>
     <row r="439" ht="20.05" customHeight="1">
       <c r="A439" t="s" s="6">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B439" t="s" s="6">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C439" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D439" s="7"/>
       <c r="E439" s="7">
@@ -14600,13 +14644,13 @@
     </row>
     <row r="440" ht="20.05" customHeight="1">
       <c r="A440" t="s" s="6">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B440" t="s" s="6">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C440" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D440" s="7"/>
       <c r="E440" s="7">
@@ -14622,13 +14666,13 @@
     </row>
     <row r="441" ht="20.05" customHeight="1">
       <c r="A441" t="s" s="6">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B441" t="s" s="6">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C441" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D441" s="7">
         <v>0.794871794871795</v>
@@ -14649,13 +14693,13 @@
     </row>
     <row r="442" ht="20.05" customHeight="1">
       <c r="A442" t="s" s="6">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B442" t="s" s="6">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C442" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D442" s="7">
         <v>0.333333333333333</v>
@@ -14676,13 +14720,13 @@
     </row>
     <row r="443" ht="20.05" customHeight="1">
       <c r="A443" t="s" s="6">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B443" t="s" s="6">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C443" t="s" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D443" s="7">
         <v>0.58974358974359</v>
@@ -14703,10 +14747,10 @@
     </row>
     <row r="444" ht="20.05" customHeight="1">
       <c r="A444" t="s" s="6">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B444" t="s" s="6">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C444" t="s" s="6">
         <v>13</v>
@@ -14725,13 +14769,13 @@
     </row>
     <row r="445" ht="20.05" customHeight="1">
       <c r="A445" t="s" s="6">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B445" t="s" s="6">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C445" t="s" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D445" s="7">
         <v>0.615384615384615</v>
@@ -14752,13 +14796,13 @@
     </row>
     <row r="446" ht="20.05" customHeight="1">
       <c r="A446" t="s" s="6">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B446" t="s" s="6">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C446" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D446" s="7">
         <v>0.461538461538462</v>
@@ -14779,10 +14823,10 @@
     </row>
     <row r="447" ht="20.05" customHeight="1">
       <c r="A447" t="s" s="6">
+        <v>888</v>
+      </c>
+      <c r="B447" t="s" s="6">
         <v>890</v>
-      </c>
-      <c r="B447" t="s" s="6">
-        <v>892</v>
       </c>
       <c r="C447" t="s" s="6">
         <v>16</v>
@@ -14801,13 +14845,13 @@
     </row>
     <row r="448" ht="20.05" customHeight="1">
       <c r="A448" t="s" s="6">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B448" t="s" s="6">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C448" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D448" s="7">
         <v>0.564102564102564</v>
@@ -14828,10 +14872,10 @@
     </row>
     <row r="449" ht="20.05" customHeight="1">
       <c r="A449" t="s" s="6">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B449" t="s" s="6">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C449" t="s" s="6">
         <v>16</v>
@@ -14855,10 +14899,10 @@
     </row>
     <row r="450" ht="20.05" customHeight="1">
       <c r="A450" t="s" s="6">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B450" t="s" s="6">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C450" t="s" s="6">
         <v>16</v>
@@ -14882,10 +14926,10 @@
     </row>
     <row r="451" ht="20.05" customHeight="1">
       <c r="A451" t="s" s="6">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B451" t="s" s="6">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C451" t="s" s="6">
         <v>13</v>
@@ -14904,13 +14948,13 @@
     </row>
     <row r="452" ht="20.05" customHeight="1">
       <c r="A452" t="s" s="6">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B452" t="s" s="6">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C452" t="s" s="6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D452" s="7"/>
       <c r="E452" s="7">
@@ -14926,13 +14970,13 @@
     </row>
     <row r="453" ht="20.05" customHeight="1">
       <c r="A453" t="s" s="6">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B453" t="s" s="6">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C453" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D453" s="7"/>
       <c r="E453" s="7">
@@ -14948,10 +14992,10 @@
     </row>
     <row r="454" ht="20.05" customHeight="1">
       <c r="A454" t="s" s="6">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B454" t="s" s="6">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C454" t="s" s="6">
         <v>16</v>
@@ -14970,13 +15014,13 @@
     </row>
     <row r="455" ht="20.05" customHeight="1">
       <c r="A455" t="s" s="6">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B455" t="s" s="6">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C455" t="s" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D455" s="7">
         <v>0.897435897435897</v>
@@ -14997,13 +15041,13 @@
     </row>
     <row r="456" ht="20.05" customHeight="1">
       <c r="A456" t="s" s="6">
+        <v>905</v>
+      </c>
+      <c r="B456" t="s" s="6">
         <v>907</v>
       </c>
-      <c r="B456" t="s" s="6">
-        <v>909</v>
-      </c>
       <c r="C456" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D456" s="7"/>
       <c r="E456" s="7">
@@ -15019,13 +15063,13 @@
     </row>
     <row r="457" ht="20.05" customHeight="1">
       <c r="A457" t="s" s="6">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B457" t="s" s="6">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C457" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D457" s="7"/>
       <c r="E457" s="7">
@@ -15041,13 +15085,13 @@
     </row>
     <row r="458" ht="20.05" customHeight="1">
       <c r="A458" t="s" s="6">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B458" t="s" s="6">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C458" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D458" s="7"/>
       <c r="E458" s="7">
@@ -15063,13 +15107,13 @@
     </row>
     <row r="459" ht="20.05" customHeight="1">
       <c r="A459" t="s" s="6">
+        <v>910</v>
+      </c>
+      <c r="B459" t="s" s="6">
         <v>912</v>
       </c>
-      <c r="B459" t="s" s="6">
-        <v>914</v>
-      </c>
       <c r="C459" t="s" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D459" s="7"/>
       <c r="E459" s="7">
@@ -15086,10 +15130,10 @@
     <row r="460" ht="20.05" customHeight="1">
       <c r="A460" s="11"/>
       <c r="B460" t="s" s="6">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C460" t="s" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D460" s="7"/>
       <c r="E460" s="7">

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -4331,7 +4331,7 @@
       <c r="G12" s="7">
         <v>0.8</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="6">
@@ -4343,7 +4343,9 @@
       <c r="C13" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0.358974358974359</v>
+      </c>
       <c r="E13" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -4353,7 +4355,10 @@
       <c r="G13" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="5">
+        <f>(D13+LARGE(E13:G13,1)+LARGE(E13:G13,2))/3</f>
+        <v>0.536752136752137</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="6">
@@ -4377,7 +4382,7 @@
       <c r="G14" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="12">
         <f>(D14+LARGE(E14:G14,1)+LARGE(E14:G14,2))/3</f>
         <v>0.728857399910031</v>
       </c>
@@ -4453,7 +4458,7 @@
       <c r="G17" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="9">
         <f>(D17+LARGE(E17:G17,1)+LARGE(E17:G17,2))/3</f>
         <v>0.541452991452991</v>
       </c>
@@ -4468,7 +4473,9 @@
       <c r="C18" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E18" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -4478,7 +4485,10 @@
       <c r="G18" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="4">
+        <f>(D18+LARGE(E18:G18,1)+LARGE(E18:G18,2))/3</f>
+        <v>0.603598740440846</v>
+      </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
@@ -6074,7 +6084,7 @@
       <c r="G85" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="9">
         <f>(D85+LARGE(E85:G85,1)+LARGE(E85:G85,2))/3</f>
         <v>0.781556455240666</v>
       </c>
@@ -6089,7 +6099,9 @@
       <c r="C86" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E86" s="7">
         <v>0.859649122807018</v>
       </c>
@@ -6099,7 +6111,10 @@
       <c r="G86" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H86" s="11"/>
+      <c r="H86" s="5">
+        <f>(D86+LARGE(E86:G86,1)+LARGE(E86:G86,2))/3</f>
+        <v>0.817746288798921</v>
+      </c>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="6">
@@ -7015,7 +7030,7 @@
       <c r="G123" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="9">
         <f>(D123+LARGE(E123:G123,1)+LARGE(E123:G123,2))/3</f>
         <v>0.7601664417453891</v>
       </c>
@@ -7030,7 +7045,9 @@
       <c r="C124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="7">
+        <v>0.564102564102564</v>
+      </c>
       <c r="E124" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -7040,7 +7057,10 @@
       <c r="G124" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H124" s="11"/>
+      <c r="H124" s="5">
+        <f>(D124+LARGE(E124:G124,1)+LARGE(E124:G124,2))/3</f>
+        <v>0.722829509671615</v>
+      </c>
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="6">
@@ -7157,7 +7177,7 @@
       <c r="G129" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="9">
         <f>(D129+LARGE(E129:G129,1)+LARGE(E129:G129,2))/3</f>
         <v>0.854183535762483</v>
       </c>
@@ -7172,7 +7192,9 @@
       <c r="C130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E130" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -7182,7 +7204,10 @@
       <c r="G130" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H130" s="11"/>
+      <c r="H130" s="5">
+        <f>(D130+LARGE(E130:G130,1)+LARGE(E130:G130,2))/3</f>
+        <v>0.7437696806117861</v>
+      </c>
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="6">
@@ -8424,7 +8449,7 @@
       <c r="G181" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H181" s="11"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="6">
@@ -8436,7 +8461,9 @@
       <c r="C182" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D182" s="11"/>
+      <c r="D182" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E182" s="7">
         <v>0.771929824561404</v>
       </c>
@@ -8446,7 +8473,10 @@
       <c r="G182" s="7">
         <v>0</v>
       </c>
-      <c r="H182" s="8"/>
+      <c r="H182" s="5">
+        <f>(D182+LARGE(E182:G182,1)+LARGE(E182:G182,2))/3</f>
+        <v>0.580814215024741</v>
+      </c>
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="6">
@@ -8470,7 +8500,7 @@
       <c r="G183" s="7">
         <v>0.6</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="12">
         <f>(D183+LARGE(E183:G183,1)+LARGE(E183:G183,2))/3</f>
         <v>0.733895636527215</v>
       </c>
@@ -13021,7 +13051,7 @@
       <c r="G371" s="7">
         <v>0</v>
       </c>
-      <c r="H371" s="5">
+      <c r="H371" s="9">
         <f>(D371+LARGE(E371:G371,1)+LARGE(E371:G371,2))/3</f>
         <v>0.450832208726945</v>
       </c>
@@ -13036,7 +13066,9 @@
       <c r="C372" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D372" s="7"/>
+      <c r="D372" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E372" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -13046,7 +13078,10 @@
       <c r="G372" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H372" s="8"/>
+      <c r="H372" s="5">
+        <f>(D372+LARGE(E372:G372,1)+LARGE(E372:G372,2))/3</f>
+        <v>0.6834907782276201</v>
+      </c>
     </row>
     <row r="373" ht="20.05" customHeight="1">
       <c r="A373" t="s" s="6">
@@ -13070,7 +13105,7 @@
       <c r="G373" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H373" s="5">
+      <c r="H373" s="12">
         <f>(D373+LARGE(E373:G373,1)+LARGE(E373:G373,2))/3</f>
         <v>0.7446018893387309</v>
       </c>
@@ -14086,7 +14121,7 @@
       <c r="G416" s="7">
         <v>0</v>
       </c>
-      <c r="H416" s="5">
+      <c r="H416" s="9">
         <f>(D416+LARGE(E416:G416,1)+LARGE(E416:G416,2))/3</f>
         <v>0.69604138551507</v>
       </c>
@@ -14101,7 +14136,9 @@
       <c r="C417" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D417" s="7"/>
+      <c r="D417" s="7">
+        <v>0.282051282051282</v>
+      </c>
       <c r="E417" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -14111,7 +14148,10 @@
       <c r="G417" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H417" s="8"/>
+      <c r="H417" s="5">
+        <f>(D417+LARGE(E417:G417,1)+LARGE(E417:G417,2))/3</f>
+        <v>0.634952766531714</v>
+      </c>
     </row>
     <row r="418" ht="20.05" customHeight="1">
       <c r="A418" t="s" s="6">
@@ -14135,7 +14175,7 @@
       <c r="G418" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H418" s="5">
+      <c r="H418" s="12">
         <f>(D418+LARGE(E418:G418,1)+LARGE(E418:G418,2))/3</f>
         <v>0.836077372919478</v>
       </c>
@@ -14241,7 +14281,7 @@
       <c r="G422" s="7">
         <v>0</v>
       </c>
-      <c r="H422" s="11"/>
+      <c r="H422" s="8"/>
     </row>
     <row r="423" ht="20.05" customHeight="1">
       <c r="A423" t="s" s="6">
@@ -14253,7 +14293,9 @@
       <c r="C423" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D423" s="7"/>
+      <c r="D423" s="7">
+        <v>0.7435897435897439</v>
+      </c>
       <c r="E423" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -14263,7 +14305,10 @@
       <c r="G423" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H423" s="8"/>
+      <c r="H423" s="5">
+        <f>(D423+LARGE(E423:G423,1)+LARGE(E423:G423,2))/3</f>
+        <v>0.682658569500675</v>
+      </c>
     </row>
     <row r="424" ht="20.05" customHeight="1">
       <c r="A424" t="s" s="6">
@@ -14287,7 +14332,7 @@
       <c r="G424" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H424" s="5">
+      <c r="H424" s="12">
         <f>(D424+LARGE(E424:G424,1)+LARGE(E424:G424,2))/3</f>
         <v>0.6467611336032389</v>
       </c>
@@ -14640,7 +14685,7 @@
       <c r="G439" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H439" s="11"/>
+      <c r="H439" s="8"/>
     </row>
     <row r="440" ht="20.05" customHeight="1">
       <c r="A440" t="s" s="6">
@@ -14652,7 +14697,9 @@
       <c r="C440" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D440" s="7"/>
+      <c r="D440" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E440" s="7">
         <v>0.859649122807018</v>
       </c>
@@ -14662,7 +14709,10 @@
       <c r="G440" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H440" s="8"/>
+      <c r="H440" s="5">
+        <f>(D440+LARGE(E440:G440,1)+LARGE(E440:G440,2))/3</f>
+        <v>0.85706252811516</v>
+      </c>
     </row>
     <row r="441" ht="20.05" customHeight="1">
       <c r="A441" t="s" s="6">
@@ -14686,7 +14736,7 @@
       <c r="G441" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H441" s="5">
+      <c r="H441" s="12">
         <f>(D441+LARGE(E441:G441,1)+LARGE(E441:G441,2))/3</f>
         <v>0.810278902384165</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -5374,7 +5374,7 @@
       <c r="G55" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="9">
         <f>(D55+LARGE(E55:G55,1)+LARGE(E55:G55,2))/3</f>
         <v>0.698605488079172</v>
       </c>
@@ -5389,7 +5389,9 @@
       <c r="C56" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E56" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -5399,7 +5401,10 @@
       <c r="G56" s="7">
         <v>0.8</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="5">
+        <f>(D56+LARGE(E56:G56,1)+LARGE(E56:G56,2))/3</f>
+        <v>0.7232568600989649</v>
+      </c>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="6">
@@ -8902,7 +8907,7 @@
       <c r="G200" s="7">
         <v>0</v>
       </c>
-      <c r="H200" s="11"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
       <c r="A201" t="s" s="6">
@@ -8914,7 +8919,9 @@
       <c r="C201" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D201" s="7"/>
+      <c r="D201" s="7">
+        <v>0.41025641025641</v>
+      </c>
       <c r="E201" s="7">
         <v>0</v>
       </c>
@@ -8924,7 +8931,10 @@
       <c r="G201" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H201" s="11"/>
+      <c r="H201" s="5">
+        <f>(D201+LARGE(E201:G201,1)+LARGE(E201:G201,2))/3</f>
+        <v>0.613247863247863</v>
+      </c>
     </row>
     <row r="202" ht="20.05" customHeight="1">
       <c r="A202" t="s" s="6">
@@ -11322,7 +11332,7 @@
       <c r="G299" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H299" s="5">
+      <c r="H299" s="9">
         <f>(D299+LARGE(E299:G299,1)+LARGE(E299:G299,2))/3</f>
         <v>0.788236617183985</v>
       </c>
@@ -11337,7 +11347,9 @@
       <c r="C300" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D300" s="7"/>
+      <c r="D300" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E300" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -11347,7 +11359,10 @@
       <c r="G300" s="7">
         <v>0</v>
       </c>
-      <c r="H300" s="11"/>
+      <c r="H300" s="5">
+        <f>(D300+LARGE(E300:G300,1)+LARGE(E300:G300,2))/3</f>
+        <v>0.581623931623932</v>
+      </c>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="6">
@@ -14075,7 +14090,7 @@
       <c r="G414" s="7">
         <v>0.6</v>
       </c>
-      <c r="H414" s="11"/>
+      <c r="H414" s="8"/>
     </row>
     <row r="415" ht="20.05" customHeight="1">
       <c r="A415" t="s" s="6">
@@ -14087,7 +14102,9 @@
       <c r="C415" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D415" s="7"/>
+      <c r="D415" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E415" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -14097,7 +14114,10 @@
       <c r="G415" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H415" s="8"/>
+      <c r="H415" s="5">
+        <f>(D415+LARGE(E415:G415,1)+LARGE(E415:G415,2))/3</f>
+        <v>0.740350877192983</v>
+      </c>
     </row>
     <row r="416" ht="20.05" customHeight="1">
       <c r="A416" t="s" s="6">
@@ -14121,7 +14141,7 @@
       <c r="G416" s="7">
         <v>0</v>
       </c>
-      <c r="H416" s="9">
+      <c r="H416" s="10">
         <f>(D416+LARGE(E416:G416,1)+LARGE(E416:G416,2))/3</f>
         <v>0.69604138551507</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="861">
   <si>
     <t>Surname</t>
   </si>
@@ -2591,6 +2591,9 @@
   </si>
   <si>
     <t>H180721J</t>
+  </si>
+  <si>
+    <t>H180218G</t>
   </si>
 </sst>
 </file>
@@ -3861,7 +3864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H434"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4076,7 +4079,7 @@
       <c r="G8" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="9">
         <f>(D8+LARGE(E8:G8,1)+LARGE(E8:G8,2))/3</f>
         <v>0.708996851102114</v>
       </c>
@@ -4091,7 +4094,9 @@
       <c r="C9" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E9" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -4101,7 +4106,10 @@
       <c r="G9" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="5">
+        <f>(D9+LARGE(E9:G9,1)+LARGE(E9:G9,2))/3</f>
+        <v>0.769410706252812</v>
+      </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
@@ -4125,7 +4133,7 @@
       <c r="G10" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="10">
         <f>(D10+LARGE(E10:G10,1)+LARGE(E10:G10,2))/3</f>
         <v>0.729397210976158</v>
       </c>
@@ -4140,7 +4148,9 @@
       <c r="C11" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0.0256410256410256</v>
+      </c>
       <c r="E11" s="7">
         <v>0.684210526315789</v>
       </c>
@@ -4150,7 +4160,10 @@
       <c r="G11" s="7">
         <v>0.8</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="5">
+        <f>(D11+LARGE(E11:G11,1)+LARGE(E11:G11,2))/3</f>
+        <v>0.503283850652272</v>
+      </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="6">
@@ -4174,7 +4187,7 @@
       <c r="G12" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="11">
         <f>(D12+LARGE(E12:G12,1)+LARGE(E12:G12,2))/3</f>
         <v>0.536752136752137</v>
       </c>
@@ -4958,7 +4971,7 @@
       <c r="G43" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="9">
         <f>(D43+LARGE(E43:G43,1)+LARGE(E43:G43,2))/3</f>
         <v>0.739316239316239</v>
       </c>
@@ -4973,7 +4986,9 @@
       <c r="C44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>0.384615384615385</v>
+      </c>
       <c r="E44" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -4983,7 +4998,10 @@
       <c r="G44" s="7">
         <v>0.4</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="5">
+        <f>(D44+LARGE(E44:G44,1)+LARGE(E44:G44,2))/3</f>
+        <v>0.601012145748988</v>
+      </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -5007,7 +5025,7 @@
       <c r="G45" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="11">
         <f>(D45+LARGE(E45:G45,1)+LARGE(E45:G45,2))/3</f>
         <v>0.702856500224921</v>
       </c>
@@ -5070,7 +5088,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>0.76</v>
       </c>
     </row>
@@ -5084,7 +5102,9 @@
       <c r="C49" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E49" s="7">
         <v>0.859649122807018</v>
       </c>
@@ -5094,7 +5114,10 @@
       <c r="G49" s="7">
         <v>0.6</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="5">
+        <f>(D49+LARGE(E49:G49,1)+LARGE(E49:G49,2))/3</f>
+        <v>0.775865946918579</v>
+      </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="6">
@@ -5947,7 +5970,7 @@
       <c r="G84" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="9">
         <f>(D84+LARGE(E84:G84,1)+LARGE(E84:G84,2))/3</f>
         <v>0.817746288798921</v>
       </c>
@@ -5962,7 +5985,9 @@
       <c r="C85" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7">
+        <v>0.871794871794872</v>
+      </c>
       <c r="E85" s="7">
         <v>0.736842105263158</v>
       </c>
@@ -5972,7 +5997,10 @@
       <c r="G85" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="5">
+        <f>(D85+LARGE(E85:G85,1)+LARGE(E85:G85,2))/3</f>
+        <v>0.841767881241565</v>
+      </c>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="6">
@@ -5996,7 +6024,7 @@
       <c r="G86" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="11">
         <f>(D86+LARGE(E86:G86,1)+LARGE(E86:G86,2))/3</f>
         <v>0.765564552406658</v>
       </c>
@@ -7306,7 +7334,7 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="11">
+      <c r="H139" s="10">
         <v>0.5</v>
       </c>
     </row>
@@ -7320,7 +7348,9 @@
       <c r="C140" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="7">
+        <v>0.0512820512820513</v>
+      </c>
       <c r="E140" s="7">
         <v>0.543859649122807</v>
       </c>
@@ -7330,7 +7360,10 @@
       <c r="G140" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H140" s="8"/>
+      <c r="H140" s="5">
+        <f>(D140+LARGE(E140:G140,1)+LARGE(E140:G140,2))/3</f>
+        <v>0.443162393162393</v>
+      </c>
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="6">
@@ -7354,7 +7387,7 @@
       <c r="G141" s="7">
         <v>0.8</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="11">
         <f>(D141+LARGE(E141:G141,1)+LARGE(E141:G141,2))/3</f>
         <v>0.862820512820513</v>
       </c>
@@ -7894,7 +7927,7 @@
       <c r="G162" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H162" s="13"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="6">
@@ -7906,7 +7939,9 @@
       <c r="C163" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D163" s="7"/>
+      <c r="D163" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E163" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -7916,7 +7951,10 @@
       <c r="G163" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H163" s="13"/>
+      <c r="H163" s="5">
+        <f>(D163+LARGE(E163:G163,1)+LARGE(E163:G163,2))/3</f>
+        <v>0.808479532163743</v>
+      </c>
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="6">
@@ -9282,7 +9320,7 @@
       <c r="G217" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H217" s="5">
+      <c r="H217" s="9">
         <f>(D217+LARGE(E217:G217,1)+LARGE(E217:G217,2))/3</f>
         <v>0.757264957264957</v>
       </c>
@@ -9297,7 +9335,9 @@
       <c r="C218" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D218" s="7"/>
+      <c r="D218" s="7">
+        <v>0.641025641025641</v>
+      </c>
       <c r="E218" s="7">
         <v>0</v>
       </c>
@@ -9307,7 +9347,10 @@
       <c r="G218" s="7">
         <v>0</v>
       </c>
-      <c r="H218" s="8"/>
+      <c r="H218" s="5">
+        <f>(D218+LARGE(E218:G218,1)+LARGE(E218:G218,2))/3</f>
+        <v>0.33034188034188</v>
+      </c>
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="6">
@@ -9331,7 +9374,7 @@
       <c r="G219" s="7">
         <v>0</v>
       </c>
-      <c r="H219" s="9">
+      <c r="H219" s="10">
         <f>(D219+LARGE(E219:G219,1)+LARGE(E219:G219,2))/3</f>
         <v>0.764709851551957</v>
       </c>
@@ -9999,7 +10042,7 @@
       <c r="G246" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H246" s="13"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
@@ -10011,7 +10054,9 @@
       <c r="C247" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D247" s="7"/>
+      <c r="D247" s="7">
+        <v>0.538461538461538</v>
+      </c>
       <c r="E247" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -10021,7 +10066,10 @@
       <c r="G247" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H247" s="8"/>
+      <c r="H247" s="5">
+        <f>(D247+LARGE(E247:G247,1)+LARGE(E247:G247,2))/3</f>
+        <v>0.692645074224021</v>
+      </c>
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="6">
@@ -10045,7 +10093,7 @@
       <c r="G248" s="7">
         <v>0</v>
       </c>
-      <c r="H248" s="5">
+      <c r="H248" s="11">
         <f>(D248+LARGE(E248:G248,1)+LARGE(E248:G248,2))/3</f>
         <v>0.734233018443545</v>
       </c>
@@ -10714,7 +10762,7 @@
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
-      <c r="H274" s="11">
+      <c r="H274" s="10">
         <v>0.65</v>
       </c>
     </row>
@@ -10728,7 +10776,9 @@
       <c r="C275" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D275" s="7"/>
+      <c r="D275" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E275" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -10738,7 +10788,10 @@
       <c r="G275" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H275" s="8"/>
+      <c r="H275" s="5">
+        <f>(D275+LARGE(E275:G275,1)+LARGE(E275:G275,2))/3</f>
+        <v>0.818983355825461</v>
+      </c>
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="6">
@@ -10762,7 +10815,7 @@
       <c r="G276" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H276" s="5">
+      <c r="H276" s="11">
         <f>(D276+LARGE(E276:G276,1)+LARGE(E276:G276,2))/3</f>
         <v>0.718421052631579</v>
       </c>
@@ -11154,7 +11207,7 @@
       <c r="G292" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H292" s="5">
+      <c r="H292" s="9">
         <f>(D292+LARGE(E292:G292,1)+LARGE(E292:G292,2))/3</f>
         <v>0.7164642375168691</v>
       </c>
@@ -11169,7 +11222,9 @@
       <c r="C293" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D293" s="7"/>
+      <c r="D293" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E293" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -11179,7 +11234,10 @@
       <c r="G293" s="7">
         <v>0.6</v>
       </c>
-      <c r="H293" s="8"/>
+      <c r="H293" s="5">
+        <f>(D293+LARGE(E293:G293,1)+LARGE(E293:G293,2))/3</f>
+        <v>0.706995051731894</v>
+      </c>
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="6">
@@ -11203,7 +11261,7 @@
       <c r="G294" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H294" s="5">
+      <c r="H294" s="10">
         <f>(D294+LARGE(E294:G294,1)+LARGE(E294:G294,2))/3</f>
         <v>0.78582995951417</v>
       </c>
@@ -11218,7 +11276,9 @@
       <c r="C295" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D295" s="7"/>
+      <c r="D295" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E295" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -11228,7 +11288,10 @@
       <c r="G295" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H295" s="13"/>
+      <c r="H295" s="5">
+        <f>(D295+LARGE(E295:G295,1)+LARGE(E295:G295,2))/3</f>
+        <v>0.856770130454341</v>
+      </c>
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="6">
@@ -11296,7 +11359,7 @@
       <c r="G298" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H298" s="5">
+      <c r="H298" s="9">
         <f>(D298+LARGE(E298:G298,1)+LARGE(E298:G298,2))/3</f>
         <v>0.689023841655421</v>
       </c>
@@ -11311,7 +11374,9 @@
       <c r="C299" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D299" s="7"/>
+      <c r="D299" s="7">
+        <v>0.717948717948718</v>
+      </c>
       <c r="E299" s="7">
         <v>0.8947368421052631</v>
       </c>
@@ -11321,7 +11386,10 @@
       <c r="G299" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H299" s="13"/>
+      <c r="H299" s="5">
+        <f>(D299+LARGE(E299:G299,1)+LARGE(E299:G299,2))/3</f>
+        <v>0.843117408906882</v>
+      </c>
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="6">
@@ -11387,7 +11455,7 @@
       <c r="G302" s="7">
         <v>0</v>
       </c>
-      <c r="H302" s="13"/>
+      <c r="H302" s="8"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
@@ -11399,7 +11467,9 @@
       <c r="C303" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D303" s="7"/>
+      <c r="D303" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E303" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -11409,7 +11479,10 @@
       <c r="G303" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H303" s="8"/>
+      <c r="H303" s="5">
+        <f>(D303+LARGE(E303:G303,1)+LARGE(E303:G303,2))/3</f>
+        <v>0.660278902384165</v>
+      </c>
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" t="s" s="6">
@@ -11433,7 +11506,7 @@
       <c r="G304" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H304" s="5">
+      <c r="H304" s="11">
         <f>(D304+LARGE(E304:G304,1)+LARGE(E304:G304,2))/3</f>
         <v>0.734930274403959</v>
       </c>
@@ -12132,7 +12205,7 @@
       <c r="G332" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H332" s="13"/>
+      <c r="H332" s="8"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
@@ -12144,7 +12217,9 @@
       <c r="C333" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D333" s="7"/>
+      <c r="D333" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E333" s="7">
         <v>0.842105263157895</v>
       </c>
@@ -12154,7 +12229,10 @@
       <c r="G333" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H333" s="8"/>
+      <c r="H333" s="5">
+        <f>(D333+LARGE(E333:G333,1)+LARGE(E333:G333,2))/3</f>
+        <v>0.709334233018444</v>
+      </c>
     </row>
     <row r="334" ht="20.05" customHeight="1">
       <c r="A334" t="s" s="6">
@@ -12178,7 +12256,7 @@
       <c r="G334" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="H334" s="9">
+      <c r="H334" s="10">
         <f>(D334+LARGE(E334:G334,1)+LARGE(E334:G334,2))/3</f>
         <v>0.7386414754835809</v>
       </c>
@@ -14017,7 +14095,7 @@
       <c r="G408" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H408" s="5">
+      <c r="H408" s="9">
         <f>(D408+LARGE(E408:G408,1)+LARGE(E408:G408,2))/3</f>
         <v>0.794871794871795</v>
       </c>
@@ -14032,7 +14110,9 @@
       <c r="C409" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D409" s="7"/>
+      <c r="D409" s="7">
+        <v>0.794871794871795</v>
+      </c>
       <c r="E409" s="7">
         <v>0.649122807017544</v>
       </c>
@@ -14042,7 +14122,10 @@
       <c r="G409" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H409" s="8"/>
+      <c r="H409" s="5">
+        <f>(D409+LARGE(E409:G409,1)+LARGE(E409:G409,2))/3</f>
+        <v>0.789316239316239</v>
+      </c>
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="6">
@@ -14066,7 +14149,7 @@
       <c r="G410" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H410" s="5">
+      <c r="H410" s="11">
         <f>(D410+LARGE(E410:G410,1)+LARGE(E410:G410,2))/3</f>
         <v>0.6206477732793521</v>
       </c>
@@ -14665,7 +14748,30 @@
       <c r="G434" s="7">
         <v>0</v>
       </c>
-      <c r="H434" s="13"/>
+      <c r="H434" s="8"/>
+    </row>
+    <row r="435" ht="20.05" customHeight="1">
+      <c r="A435" s="13"/>
+      <c r="B435" t="s" s="6">
+        <v>860</v>
+      </c>
+      <c r="C435" s="6"/>
+      <c r="D435" s="7">
+        <v>0.487179487179487</v>
+      </c>
+      <c r="E435" s="7">
+        <v>0</v>
+      </c>
+      <c r="F435" s="7">
+        <v>0</v>
+      </c>
+      <c r="G435" s="7">
+        <v>0</v>
+      </c>
+      <c r="H435" s="5">
+        <f>(D435+LARGE(E435:G435,1)+LARGE(E435:G435,2))/3</f>
+        <v>0.162393162393162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -4792,7 +4792,7 @@
       <c r="G36" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="9">
         <f>(D36+LARGE(E36:G36,1)+LARGE(E36:G36,2))/3</f>
         <v>0.9046333783175891</v>
       </c>
@@ -4807,7 +4807,9 @@
       <c r="C37" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>0.65625</v>
+      </c>
       <c r="E37" s="7">
         <v>0.714285714285714</v>
       </c>
@@ -4817,7 +4819,10 @@
       <c r="G37" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="5">
+        <f>(D37+LARGE(E37:G37,1)+LARGE(E37:G37,2))/3</f>
+        <v>0.706845238095238</v>
+      </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -4841,7 +4846,7 @@
       <c r="G38" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="10">
         <f>(D38+LARGE(E38:G38,1)+LARGE(E38:G38,2))/3</f>
         <v>0.706162843004948</v>
       </c>
@@ -4922,7 +4927,7 @@
       <c r="G41" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <f>(D41+LARGE(E41:G41,1)+LARGE(E41:G41,2))/3</f>
         <v>0.57165991902834</v>
       </c>
@@ -4937,7 +4942,9 @@
       <c r="C42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>0.8125</v>
+      </c>
       <c r="E42" s="7">
         <v>0.660714285714286</v>
       </c>
@@ -4947,7 +4954,10 @@
       <c r="G42" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="5">
+        <f>(D42+LARGE(E42:G42,1)+LARGE(E42:G42,2))/3</f>
+        <v>0.824404761904762</v>
+      </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="6">
@@ -4971,7 +4981,7 @@
       <c r="G43" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="10">
         <f>(D43+LARGE(E43:G43,1)+LARGE(E43:G43,2))/3</f>
         <v>0.739316239316239</v>
       </c>
@@ -5185,7 +5195,7 @@
       <c r="G52" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="9">
         <f>(D52+LARGE(E52:G52,1)+LARGE(E52:G52,2))/3</f>
         <v>0.700314889788574</v>
       </c>
@@ -5200,7 +5210,9 @@
       <c r="C53" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7">
+        <v>0.28125</v>
+      </c>
       <c r="E53" s="7">
         <v>0.75</v>
       </c>
@@ -5210,7 +5222,10 @@
       <c r="G53" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="5">
+        <f>(D53+LARGE(E53:G53,1)+LARGE(E53:G53,2))/3</f>
+        <v>0.559134615384615</v>
+      </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="6">
@@ -5234,7 +5249,7 @@
       <c r="G54" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="10">
         <f>(D54+LARGE(E54:G54,1)+LARGE(E54:G54,2))/3</f>
         <v>0.698605488079172</v>
       </c>
@@ -5261,7 +5276,7 @@
       <c r="G55" s="7">
         <v>0.8</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="9">
         <f>(D55+LARGE(E55:G55,1)+LARGE(E55:G55,2))/3</f>
         <v>0.7232568600989649</v>
       </c>
@@ -5276,7 +5291,9 @@
       <c r="C56" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E56" s="7">
         <v>0.714285714285714</v>
       </c>
@@ -5286,7 +5303,10 @@
       <c r="G56" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="5">
+        <f>(D56+LARGE(E56:G56,1)+LARGE(E56:G56,2))/3</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="6">
@@ -5310,7 +5330,7 @@
       <c r="G57" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="11">
         <f>(D57+LARGE(E57:G57,1)+LARGE(E57:G57,2))/3</f>
         <v>0.7997525865946919</v>
       </c>
@@ -6076,7 +6096,7 @@
       <c r="G88" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H88" s="13"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="6">
@@ -6088,7 +6108,9 @@
       <c r="C89" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E89" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -6098,7 +6120,10 @@
       <c r="G89" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="5">
+        <f>(D89+LARGE(E89:G89,1)+LARGE(E89:G89,2))/3</f>
+        <v>0.671130952380952</v>
+      </c>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="6">
@@ -6122,7 +6147,7 @@
       <c r="G90" s="7">
         <v>0</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="11">
         <f>(D90+LARGE(E90:G90,1)+LARGE(E90:G90,2))/3</f>
         <v>0.77834008097166</v>
       </c>
@@ -6702,7 +6727,7 @@
       <c r="G113" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H113" s="13"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="6">
@@ -6714,7 +6739,9 @@
       <c r="C114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E114" s="7">
         <v>0.543859649122807</v>
       </c>
@@ -6724,7 +6751,10 @@
       <c r="G114" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H114" s="8"/>
+      <c r="H114" s="5">
+        <f>(D114+LARGE(E114:G114,1)+LARGE(E114:G114,2))/3</f>
+        <v>0.749130036630036</v>
+      </c>
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="6">
@@ -6748,7 +6778,7 @@
       <c r="G115" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H115" s="9">
+      <c r="H115" s="10">
         <f>(D115+LARGE(E115:G115,1)+LARGE(E115:G115,2))/3</f>
         <v>0.662438146648673</v>
       </c>
@@ -6927,7 +6957,7 @@
       <c r="G122" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="9">
         <f>(D122+LARGE(E122:G122,1)+LARGE(E122:G122,2))/3</f>
         <v>0.691880341880342</v>
       </c>
@@ -6942,7 +6972,9 @@
       <c r="C123" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E123" s="7">
         <v>0.714285714285714</v>
       </c>
@@ -6952,7 +6984,10 @@
       <c r="G123" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H123" s="13"/>
+      <c r="H123" s="5">
+        <f>(D123+LARGE(E123:G123,1)+LARGE(E123:G123,2))/3</f>
+        <v>0.635691391941392</v>
+      </c>
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="6">
@@ -11411,7 +11446,7 @@
       <c r="G300" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H300" s="13"/>
+      <c r="H300" s="8"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="6">
@@ -11423,7 +11458,9 @@
       <c r="C301" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D301" s="7"/>
+      <c r="D301" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="E301" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -11433,7 +11470,10 @@
       <c r="G301" s="7">
         <v>0</v>
       </c>
-      <c r="H301" s="13"/>
+      <c r="H301" s="5">
+        <f>(D301+LARGE(E301:G301,1)+LARGE(E301:G301,2))/3</f>
+        <v>0.705357142857143</v>
+      </c>
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="6">
@@ -12721,7 +12761,7 @@
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
-      <c r="H353" s="11">
+      <c r="H353" s="10">
         <v>0.54</v>
       </c>
     </row>
@@ -12735,7 +12775,9 @@
       <c r="C354" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D354" s="7"/>
+      <c r="D354" s="7">
+        <v>0.71875</v>
+      </c>
       <c r="E354" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -12745,7 +12787,10 @@
       <c r="G354" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H354" s="13"/>
+      <c r="H354" s="5">
+        <f>(D354+LARGE(E354:G354,1)+LARGE(E354:G354,2))/3</f>
+        <v>0.739583333333333</v>
+      </c>
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="6">
@@ -12767,7 +12812,7 @@
       <c r="G355" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H355" s="13"/>
+      <c r="H355" s="8"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
@@ -12779,7 +12824,9 @@
       <c r="C356" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D356" s="7"/>
+      <c r="D356" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E356" s="7">
         <v>0.571428571428571</v>
       </c>
@@ -12789,7 +12836,10 @@
       <c r="G356" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H356" s="8"/>
+      <c r="H356" s="5">
+        <f>(D356+LARGE(E356:G356,1)+LARGE(E356:G356,2))/3</f>
+        <v>0.727289377289377</v>
+      </c>
     </row>
     <row r="357" ht="20.05" customHeight="1">
       <c r="A357" t="s" s="6">
@@ -12813,7 +12863,7 @@
       <c r="G357" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H357" s="9">
+      <c r="H357" s="10">
         <f>(D357+LARGE(E357:G357,1)+LARGE(E357:G357,2))/3</f>
         <v>0.672649572649573</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -2692,10 +2692,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2707,10 +2707,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2751,31 +2751,31 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3937,7 +3937,9 @@
       <c r="C3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E3" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -3947,7 +3949,10 @@
       <c r="G3" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8">
+        <f>(D3+LARGE(E3:G3,1)+LARGE(E3:G3,2))/3</f>
+        <v>0.770444139194139</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -3998,7 +4003,7 @@
       <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <f>(D5+LARGE(E5:G5,1)+LARGE(E5:G5,2))/3</f>
         <v>0.566531713900135</v>
       </c>
@@ -4025,7 +4030,7 @@
       <c r="G6" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <f>(D6+LARGE(E6:G6,1)+LARGE(E6:G6,2))/3</f>
         <v>0.7591542959964011</v>
       </c>
@@ -4052,7 +4057,7 @@
       <c r="G7" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f>(D7+LARGE(E7:G7,1)+LARGE(E7:G7,2))/3</f>
         <v>0.448942869995501</v>
       </c>
@@ -4079,7 +4084,7 @@
       <c r="G8" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <f>(D8+LARGE(E8:G8,1)+LARGE(E8:G8,2))/3</f>
         <v>0.708996851102114</v>
       </c>
@@ -4106,7 +4111,7 @@
       <c r="G9" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
         <f>(D9+LARGE(E9:G9,1)+LARGE(E9:G9,2))/3</f>
         <v>0.769410706252812</v>
       </c>
@@ -4133,7 +4138,7 @@
       <c r="G10" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f>(D10+LARGE(E10:G10,1)+LARGE(E10:G10,2))/3</f>
         <v>0.729397210976158</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="G11" s="7">
         <v>0.8</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
         <f>(D11+LARGE(E11:G11,1)+LARGE(E11:G11,2))/3</f>
         <v>0.503283850652272</v>
       </c>
@@ -4187,7 +4192,7 @@
       <c r="G12" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f>(D12+LARGE(E12:G12,1)+LARGE(E12:G12,2))/3</f>
         <v>0.536752136752137</v>
       </c>
@@ -4214,7 +4219,7 @@
       <c r="G13" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f>(D13+LARGE(E13:G13,1)+LARGE(E13:G13,2))/3</f>
         <v>0.728857399910031</v>
       </c>
@@ -4241,7 +4246,7 @@
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <f>(D14+LARGE(E14:G14,1)+LARGE(E14:G14,2))/3</f>
         <v>0.396761133603239</v>
       </c>
@@ -4268,7 +4273,7 @@
       <c r="G15" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f>(D15+LARGE(E15:G15,1)+LARGE(E15:G15,2))/3</f>
         <v>0.541452991452991</v>
       </c>
@@ -4295,7 +4300,7 @@
       <c r="G16" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <f>(D16+LARGE(E16:G16,1)+LARGE(E16:G16,2))/3</f>
         <v>0.603598740440846</v>
       </c>
@@ -4322,7 +4327,7 @@
       <c r="G17" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="8">
         <f>(D17+LARGE(E17:G17,1)+LARGE(E17:G17,2))/3</f>
         <v>0.596491228070175</v>
       </c>
@@ -4337,7 +4342,7 @@
       <c r="C18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="7">
         <v>0.56140350877193</v>
       </c>
@@ -4359,7 +4364,9 @@
       <c r="C19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>0.4375</v>
+      </c>
       <c r="E19" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -4369,7 +4376,10 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="8">
+        <f>(D19+LARGE(E19:G19,1)+LARGE(E19:G19,2))/3</f>
+        <v>0.604166666666666</v>
+      </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="6">
@@ -4391,7 +4401,7 @@
       <c r="G20" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -4415,7 +4425,7 @@
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="8">
         <f>(D21+LARGE(E21:G21,1)+LARGE(E21:G21,2))/3</f>
         <v>0.443274853801169</v>
       </c>
@@ -4442,7 +4452,7 @@
       <c r="G22" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <f>(D22+LARGE(E22:G22,1)+LARGE(E22:G22,2))/3</f>
         <v>0.656522717049033</v>
       </c>
@@ -4457,7 +4467,9 @@
       <c r="C23" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>0.8125</v>
+      </c>
       <c r="E23" s="7">
         <v>0.607142857142857</v>
       </c>
@@ -4467,7 +4479,10 @@
       <c r="G23" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="8">
+        <f>(D23+LARGE(E23:G23,1)+LARGE(E23:G23,2))/3</f>
+        <v>0.717261904761905</v>
+      </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="6">
@@ -4483,7 +4498,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>0.61</v>
       </c>
     </row>
@@ -4509,7 +4524,7 @@
       <c r="G25" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="8">
         <f>(D25+LARGE(E25:G25,1)+LARGE(E25:G25,2))/3</f>
         <v>0.851214574898785</v>
       </c>
@@ -4534,7 +4549,7 @@
       <c r="G26" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="6">
@@ -4550,7 +4565,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>0.53</v>
       </c>
     </row>
@@ -4576,7 +4591,7 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="8">
         <f>(D28+LARGE(E28:G28,1)+LARGE(E28:G28,2))/3</f>
         <v>0.170940170940171</v>
       </c>
@@ -4603,7 +4618,7 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>(D29+LARGE(E29:G29,1)+LARGE(E29:G29,2))/3</f>
         <v>0.502136752136752</v>
       </c>
@@ -4630,7 +4645,7 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="5">
         <f>(D30+LARGE(E30:G30,1)+LARGE(E30:G30,2))/3</f>
         <v>0.686504723346828</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="G31" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="5">
         <f>(D31+LARGE(E31:G31,1)+LARGE(E31:G31,2))/3</f>
         <v>0.64017094017094</v>
       </c>
@@ -4684,7 +4699,7 @@
       <c r="G32" s="7">
         <v>0.6</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="5">
         <f>(D32+LARGE(E32:G32,1)+LARGE(E32:G32,2))/3</f>
         <v>0.788394062078273</v>
       </c>
@@ -4711,7 +4726,7 @@
       <c r="G33" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="5">
         <f>(D33+LARGE(E33:G33,1)+LARGE(E33:G33,2))/3</f>
         <v>0.768983355825461</v>
       </c>
@@ -4738,7 +4753,7 @@
       <c r="G34" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="8">
         <f>(D34+LARGE(E34:G34,1)+LARGE(E34:G34,2))/3</f>
         <v>0.636257309941521</v>
       </c>
@@ -4765,7 +4780,7 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f>(D35+LARGE(E35:G35,1)+LARGE(E35:G35,2))/3</f>
         <v>0.716869095816464</v>
       </c>
@@ -4792,7 +4807,7 @@
       <c r="G36" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="5">
         <f>(D36+LARGE(E36:G36,1)+LARGE(E36:G36,2))/3</f>
         <v>0.9046333783175891</v>
       </c>
@@ -4819,7 +4834,7 @@
       <c r="G37" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="8">
         <f>(D37+LARGE(E37:G37,1)+LARGE(E37:G37,2))/3</f>
         <v>0.706845238095238</v>
       </c>
@@ -4846,7 +4861,7 @@
       <c r="G38" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f>(D38+LARGE(E38:G38,1)+LARGE(E38:G38,2))/3</f>
         <v>0.706162843004948</v>
       </c>
@@ -4873,7 +4888,7 @@
       <c r="G39" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="8">
         <f>(D39+LARGE(E39:G39,1)+LARGE(E39:G39,2))/3</f>
         <v>0.666351776878092</v>
       </c>
@@ -4900,7 +4915,7 @@
       <c r="G40" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <f>(D40+LARGE(E40:G40,1)+LARGE(E40:G40,2))/3</f>
         <v>0.564912280701754</v>
       </c>
@@ -4927,7 +4942,7 @@
       <c r="G41" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f>(D41+LARGE(E41:G41,1)+LARGE(E41:G41,2))/3</f>
         <v>0.57165991902834</v>
       </c>
@@ -4954,7 +4969,7 @@
       <c r="G42" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="8">
         <f>(D42+LARGE(E42:G42,1)+LARGE(E42:G42,2))/3</f>
         <v>0.824404761904762</v>
       </c>
@@ -4981,7 +4996,7 @@
       <c r="G43" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <f>(D43+LARGE(E43:G43,1)+LARGE(E43:G43,2))/3</f>
         <v>0.739316239316239</v>
       </c>
@@ -5008,7 +5023,7 @@
       <c r="G44" s="7">
         <v>0.4</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="8">
         <f>(D44+LARGE(E44:G44,1)+LARGE(E44:G44,2))/3</f>
         <v>0.601012145748988</v>
       </c>
@@ -5035,7 +5050,7 @@
       <c r="G45" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <f>(D45+LARGE(E45:G45,1)+LARGE(E45:G45,2))/3</f>
         <v>0.702856500224921</v>
       </c>
@@ -5060,7 +5075,7 @@
       <c r="G46" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -5082,7 +5097,7 @@
       <c r="G47" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -5098,7 +5113,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>0.76</v>
       </c>
     </row>
@@ -5124,7 +5139,7 @@
       <c r="G49" s="7">
         <v>0.6</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="8">
         <f>(D49+LARGE(E49:G49,1)+LARGE(E49:G49,2))/3</f>
         <v>0.775865946918579</v>
       </c>
@@ -5149,7 +5164,7 @@
       <c r="G50" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -5171,7 +5186,7 @@
       <c r="G51" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="6">
@@ -5195,7 +5210,7 @@
       <c r="G52" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="5">
         <f>(D52+LARGE(E52:G52,1)+LARGE(E52:G52,2))/3</f>
         <v>0.700314889788574</v>
       </c>
@@ -5222,7 +5237,7 @@
       <c r="G53" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="8">
         <f>(D53+LARGE(E53:G53,1)+LARGE(E53:G53,2))/3</f>
         <v>0.559134615384615</v>
       </c>
@@ -5249,7 +5264,7 @@
       <c r="G54" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <f>(D54+LARGE(E54:G54,1)+LARGE(E54:G54,2))/3</f>
         <v>0.698605488079172</v>
       </c>
@@ -5276,7 +5291,7 @@
       <c r="G55" s="7">
         <v>0.8</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="5">
         <f>(D55+LARGE(E55:G55,1)+LARGE(E55:G55,2))/3</f>
         <v>0.7232568600989649</v>
       </c>
@@ -5303,7 +5318,7 @@
       <c r="G56" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="8">
         <f>(D56+LARGE(E56:G56,1)+LARGE(E56:G56,2))/3</f>
         <v>0.75</v>
       </c>
@@ -5330,7 +5345,7 @@
       <c r="G57" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="9">
         <f>(D57+LARGE(E57:G57,1)+LARGE(E57:G57,2))/3</f>
         <v>0.7997525865946919</v>
       </c>
@@ -5345,7 +5360,9 @@
       <c r="C58" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="E58" s="7">
         <v>0.5</v>
       </c>
@@ -5355,7 +5372,10 @@
       <c r="G58" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="8">
+        <f>(D58+LARGE(E58:G58,1)+LARGE(E58:G58,2))/3</f>
+        <v>0.688598901098901</v>
+      </c>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="6">
@@ -5406,7 +5426,7 @@
       <c r="G60" s="7">
         <v>0</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="5">
         <f>(D60+LARGE(E60:G60,1)+LARGE(E60:G60,2))/3</f>
         <v>0.693859649122807</v>
       </c>
@@ -5433,7 +5453,7 @@
       <c r="G61" s="7">
         <v>0</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="5">
         <f>(D61+LARGE(E61:G61,1)+LARGE(E61:G61,2))/3</f>
         <v>0.751911830859199</v>
       </c>
@@ -5460,7 +5480,7 @@
       <c r="G62" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="8">
         <f>(D62+LARGE(E62:G62,1)+LARGE(E62:G62,2))/3</f>
         <v>0.523504273504274</v>
       </c>
@@ -5485,7 +5505,7 @@
       <c r="G63" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -5507,7 +5527,7 @@
       <c r="G64" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="6">
@@ -5523,7 +5543,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="11">
+      <c r="H65" s="10">
         <v>0.7</v>
       </c>
     </row>
@@ -5559,7 +5579,9 @@
       <c r="C67" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E67" s="7">
         <v>0.857142857142857</v>
       </c>
@@ -5569,7 +5591,10 @@
       <c r="G67" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="8">
+        <f>(D67+LARGE(E67:G67,1)+LARGE(E67:G67,2))/3</f>
+        <v>0.797619047619047</v>
+      </c>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -5593,7 +5618,7 @@
       <c r="G68" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="10">
         <f>(D68+LARGE(E68:G68,1)+LARGE(E68:G68,2))/3</f>
         <v>0.712393162393162</v>
       </c>
@@ -5620,7 +5645,7 @@
       <c r="G69" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <f>(D69+LARGE(E69:G69,1)+LARGE(E69:G69,2))/3</f>
         <v>0.762145748987854</v>
       </c>
@@ -5647,7 +5672,7 @@
       <c r="G70" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="8">
         <f>(D70+LARGE(E70:G70,1)+LARGE(E70:G70,2))/3</f>
         <v>0.5882141250562301</v>
       </c>
@@ -5672,7 +5697,7 @@
       <c r="G71" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="6">
@@ -5696,7 +5721,7 @@
       <c r="G72" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="8">
         <f>(D72+LARGE(E72:G72,1)+LARGE(E72:G72,2))/3</f>
         <v>0.803351327035538</v>
       </c>
@@ -5721,7 +5746,7 @@
       <c r="G73" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H73" s="8"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="6">
@@ -5745,7 +5770,7 @@
       <c r="G74" s="7">
         <v>0</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="8">
         <f>(D74+LARGE(E74:G74,1)+LARGE(E74:G74,2))/3</f>
         <v>0.77834008097166</v>
       </c>
@@ -5770,7 +5795,7 @@
       <c r="G75" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="6">
@@ -5792,7 +5817,7 @@
       <c r="G76" s="7">
         <v>0</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="6">
@@ -5814,7 +5839,7 @@
       <c r="G77" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="6">
@@ -5838,7 +5863,7 @@
       <c r="G78" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="8">
         <f>(D78+LARGE(E78:G78,1)+LARGE(E78:G78,2))/3</f>
         <v>0.8245614035087721</v>
       </c>
@@ -5863,7 +5888,7 @@
       <c r="G79" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
@@ -5875,7 +5900,7 @@
       <c r="C80" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D80" s="13"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -5885,7 +5910,7 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="6">
@@ -5909,7 +5934,7 @@
       <c r="G81" s="7">
         <v>0</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="5">
         <f>(D81+LARGE(E81:G81,1)+LARGE(E81:G81,2))/3</f>
         <v>0.726248313090418</v>
       </c>
@@ -5936,7 +5961,7 @@
       <c r="G82" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="5">
         <f>(D82+LARGE(E82:G82,1)+LARGE(E82:G82,2))/3</f>
         <v>0.622379667116509</v>
       </c>
@@ -5963,7 +5988,7 @@
       <c r="G83" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="5">
         <f>(D83+LARGE(E83:G83,1)+LARGE(E83:G83,2))/3</f>
         <v>0.781556455240666</v>
       </c>
@@ -5990,7 +6015,7 @@
       <c r="G84" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="5">
         <f>(D84+LARGE(E84:G84,1)+LARGE(E84:G84,2))/3</f>
         <v>0.817746288798921</v>
       </c>
@@ -6017,7 +6042,7 @@
       <c r="G85" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="8">
         <f>(D85+LARGE(E85:G85,1)+LARGE(E85:G85,2))/3</f>
         <v>0.841767881241565</v>
       </c>
@@ -6044,7 +6069,7 @@
       <c r="G86" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="10">
         <f>(D86+LARGE(E86:G86,1)+LARGE(E86:G86,2))/3</f>
         <v>0.765564552406658</v>
       </c>
@@ -6071,7 +6096,7 @@
       <c r="G87" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="10">
         <f>(D87+LARGE(E87:G87,1)+LARGE(E87:G87,2))/3</f>
         <v>0.777980206927575</v>
       </c>
@@ -6096,7 +6121,7 @@
       <c r="G88" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="6">
@@ -6120,7 +6145,7 @@
       <c r="G89" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="8">
         <f>(D89+LARGE(E89:G89,1)+LARGE(E89:G89,2))/3</f>
         <v>0.671130952380952</v>
       </c>
@@ -6147,7 +6172,7 @@
       <c r="G90" s="7">
         <v>0</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="10">
         <f>(D90+LARGE(E90:G90,1)+LARGE(E90:G90,2))/3</f>
         <v>0.77834008097166</v>
       </c>
@@ -6174,7 +6199,7 @@
       <c r="G91" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="9">
         <f>(D91+LARGE(E91:G91,1)+LARGE(E91:G91,2))/3</f>
         <v>0.594871794871795</v>
       </c>
@@ -6201,7 +6226,7 @@
       <c r="G92" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="5">
         <f>(D92+LARGE(E92:G92,1)+LARGE(E92:G92,2))/3</f>
         <v>0.7702429149797571</v>
       </c>
@@ -6228,7 +6253,7 @@
       <c r="G93" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="5">
         <f>(D93+LARGE(E93:G93,1)+LARGE(E93:G93,2))/3</f>
         <v>0.758479532163743</v>
       </c>
@@ -6255,7 +6280,7 @@
       <c r="G94" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="8">
         <f>(D94+LARGE(E94:G94,1)+LARGE(E94:G94,2))/3</f>
         <v>0.826023391812865</v>
       </c>
@@ -6280,7 +6305,7 @@
       <c r="G95" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H95" s="13"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="6">
@@ -6302,7 +6327,7 @@
       <c r="G96" s="7">
         <v>0</v>
       </c>
-      <c r="H96" s="8"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="6">
@@ -6326,7 +6351,7 @@
       <c r="G97" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="8">
         <f>(D97+LARGE(E97:G97,1)+LARGE(E97:G97,2))/3</f>
         <v>0.828542510121457</v>
       </c>
@@ -6353,7 +6378,7 @@
       <c r="G98" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="9">
         <f>(D98+LARGE(E98:G98,1)+LARGE(E98:G98,2))/3</f>
         <v>0.5830859199280251</v>
       </c>
@@ -6380,7 +6405,7 @@
       <c r="G99" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="8">
         <f>(D99+LARGE(E99:G99,1)+LARGE(E99:G99,2))/3</f>
         <v>0.658996851102114</v>
       </c>
@@ -6407,7 +6432,7 @@
       <c r="G100" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="9">
         <f>(D100+LARGE(E100:G100,1)+LARGE(E100:G100,2))/3</f>
         <v>0.791025641025641</v>
       </c>
@@ -6434,7 +6459,7 @@
       <c r="G101" s="7">
         <v>0</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="8">
         <f>(D101+LARGE(E101:G101,1)+LARGE(E101:G101,2))/3</f>
         <v>0.712573099415205</v>
       </c>
@@ -6459,7 +6484,7 @@
       <c r="G102" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H102" s="13"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="6">
@@ -6481,7 +6506,7 @@
       <c r="G103" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H103" s="8"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="6">
@@ -6505,7 +6530,7 @@
       <c r="G104" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H104" s="5">
         <f>(D104+LARGE(E104:G104,1)+LARGE(E104:G104,2))/3</f>
         <v>0.713832658569501</v>
       </c>
@@ -6532,7 +6557,7 @@
       <c r="G105" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H105" s="9">
+      <c r="H105" s="5">
         <f>(D105+LARGE(E105:G105,1)+LARGE(E105:G105,2))/3</f>
         <v>0.8493027440395861</v>
       </c>
@@ -6559,7 +6584,7 @@
       <c r="G106" s="7">
         <v>0.138461538461538</v>
       </c>
-      <c r="H106" s="9">
+      <c r="H106" s="5">
         <f>(D106+LARGE(E106:G106,1)+LARGE(E106:G106,2))/3</f>
         <v>0.644489428699955</v>
       </c>
@@ -6586,7 +6611,7 @@
       <c r="G107" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H107" s="9">
+      <c r="H107" s="5">
         <f>(D107+LARGE(E107:G107,1)+LARGE(E107:G107,2))/3</f>
         <v>0.705735492577598</v>
       </c>
@@ -6613,7 +6638,7 @@
       <c r="G108" s="7">
         <v>0.6</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="8">
         <f>(D108+LARGE(E108:G108,1)+LARGE(E108:G108,2))/3</f>
         <v>0.887089518668466</v>
       </c>
@@ -6632,7 +6657,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="11">
+      <c r="H109" s="10">
         <v>0.67</v>
       </c>
     </row>
@@ -6656,7 +6681,7 @@
       <c r="G110" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H110" s="13"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="6">
@@ -6678,7 +6703,7 @@
       <c r="G111" s="7">
         <v>0.6</v>
       </c>
-      <c r="H111" s="8"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="6">
@@ -6702,7 +6727,7 @@
       <c r="G112" s="7">
         <v>0</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="8">
         <f>(D112+LARGE(E112:G112,1)+LARGE(E112:G112,2))/3</f>
         <v>0.38506522717049</v>
       </c>
@@ -6727,7 +6752,7 @@
       <c r="G113" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="6">
@@ -6751,7 +6776,7 @@
       <c r="G114" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="8">
         <f>(D114+LARGE(E114:G114,1)+LARGE(E114:G114,2))/3</f>
         <v>0.749130036630036</v>
       </c>
@@ -6778,7 +6803,7 @@
       <c r="G115" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="9">
         <f>(D115+LARGE(E115:G115,1)+LARGE(E115:G115,2))/3</f>
         <v>0.662438146648673</v>
       </c>
@@ -6805,7 +6830,7 @@
       <c r="G116" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H116" s="5">
         <f>(D116+LARGE(E116:G116,1)+LARGE(E116:G116,2))/3</f>
         <v>0.593252361673414</v>
       </c>
@@ -6847,7 +6872,9 @@
       <c r="C118" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="7">
+        <v>0.375</v>
+      </c>
       <c r="E118" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -6857,7 +6884,10 @@
       <c r="G118" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H118" s="8"/>
+      <c r="H118" s="8">
+        <f>(D118+LARGE(E118:G118,1)+LARGE(E118:G118,2))/3</f>
+        <v>0.660714285714286</v>
+      </c>
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="6">
@@ -6908,7 +6938,7 @@
       <c r="G120" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="8">
         <f>(D120+LARGE(E120:G120,1)+LARGE(E120:G120,2))/3</f>
         <v>0.722829509671615</v>
       </c>
@@ -6933,7 +6963,7 @@
       <c r="G121" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H121" s="8"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="6">
@@ -6957,7 +6987,7 @@
       <c r="G122" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H122" s="9">
+      <c r="H122" s="5">
         <f>(D122+LARGE(E122:G122,1)+LARGE(E122:G122,2))/3</f>
         <v>0.691880341880342</v>
       </c>
@@ -6984,7 +7014,7 @@
       <c r="G123" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="8">
         <f>(D123+LARGE(E123:G123,1)+LARGE(E123:G123,2))/3</f>
         <v>0.635691391941392</v>
       </c>
@@ -7009,7 +7039,7 @@
       <c r="G124" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H124" s="8"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="6">
@@ -7033,7 +7063,7 @@
       <c r="G125" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H125" s="9">
+      <c r="H125" s="5">
         <f>(D125+LARGE(E125:G125,1)+LARGE(E125:G125,2))/3</f>
         <v>0.854183535762483</v>
       </c>
@@ -7075,7 +7105,9 @@
       <c r="C127" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E127" s="7">
         <v>0.553571428571429</v>
       </c>
@@ -7085,7 +7117,10 @@
       <c r="G127" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H127" s="13"/>
+      <c r="H127" s="8">
+        <f>(D127+LARGE(E127:G127,1)+LARGE(E127:G127,2))/3</f>
+        <v>0.59532967032967</v>
+      </c>
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="6">
@@ -7097,7 +7132,9 @@
       <c r="C128" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="7">
+        <v>0.9375</v>
+      </c>
       <c r="E128" s="7">
         <v>0.714285714285714</v>
       </c>
@@ -7107,7 +7144,10 @@
       <c r="G128" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="10">
+        <f>(D128+LARGE(E128:G128,1)+LARGE(E128:G128,2))/3</f>
+        <v>0.7886904761904761</v>
+      </c>
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="6">
@@ -7131,7 +7171,7 @@
       <c r="G129" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="10">
         <f>(D129+LARGE(E129:G129,1)+LARGE(E129:G129,2))/3</f>
         <v>0.7437696806117861</v>
       </c>
@@ -7150,7 +7190,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="10">
+      <c r="H130" s="9">
         <v>0.67</v>
       </c>
     </row>
@@ -7176,7 +7216,7 @@
       <c r="G131" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H131" s="5">
         <f>(D131+LARGE(E131:G131,1)+LARGE(E131:G131,2))/3</f>
         <v>0.743072424651372</v>
       </c>
@@ -7203,7 +7243,7 @@
       <c r="G132" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="8">
         <f>(D132+LARGE(E132:G132,1)+LARGE(E132:G132,2))/3</f>
         <v>0.644331983805668</v>
       </c>
@@ -7228,7 +7268,7 @@
       <c r="G133" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H133" s="8"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="6">
@@ -7252,7 +7292,7 @@
       <c r="G134" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="8">
         <f>(D134+LARGE(E134:G134,1)+LARGE(E134:G134,2))/3</f>
         <v>0.778857399910032</v>
       </c>
@@ -7277,7 +7317,7 @@
       <c r="G135" s="7">
         <v>0.6</v>
       </c>
-      <c r="H135" s="8"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="6">
@@ -7301,7 +7341,7 @@
       <c r="G136" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="8">
         <f>(D136+LARGE(E136:G136,1)+LARGE(E136:G136,2))/3</f>
         <v>0.696288798920378</v>
       </c>
@@ -7328,7 +7368,7 @@
       <c r="G137" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137" s="10">
         <f>(D137+LARGE(E137:G137,1)+LARGE(E137:G137,2))/3</f>
         <v>0.474358974358974</v>
       </c>
@@ -7343,7 +7383,7 @@
       <c r="C138" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D138" s="13"/>
+      <c r="D138" s="12"/>
       <c r="E138" s="7">
         <v>0.526315789473684</v>
       </c>
@@ -7353,7 +7393,7 @@
       <c r="G138" s="7">
         <v>0</v>
       </c>
-      <c r="H138" s="13"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="6">
@@ -7369,7 +7409,7 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="10">
+      <c r="H139" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -7395,7 +7435,7 @@
       <c r="G140" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="8">
         <f>(D140+LARGE(E140:G140,1)+LARGE(E140:G140,2))/3</f>
         <v>0.443162393162393</v>
       </c>
@@ -7422,7 +7462,7 @@
       <c r="G141" s="7">
         <v>0.8</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141" s="10">
         <f>(D141+LARGE(E141:G141,1)+LARGE(E141:G141,2))/3</f>
         <v>0.862820512820513</v>
       </c>
@@ -7437,7 +7477,7 @@
       <c r="C142" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D142" s="13"/>
+      <c r="D142" s="12"/>
       <c r="E142" s="7">
         <v>0.649122807017544</v>
       </c>
@@ -7447,7 +7487,7 @@
       <c r="G142" s="7">
         <v>0</v>
       </c>
-      <c r="H142" s="8"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="6">
@@ -7471,7 +7511,7 @@
       <c r="G143" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="8">
         <f>(D143+LARGE(E143:G143,1)+LARGE(E143:G143,2))/3</f>
         <v>0.647435897435897</v>
       </c>
@@ -7498,7 +7538,7 @@
       <c r="G144" s="7">
         <v>0</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="9">
         <f>(D144+LARGE(E144:G144,1)+LARGE(E144:G144,2))/3</f>
         <v>0.6247638326585691</v>
       </c>
@@ -7525,7 +7565,7 @@
       <c r="G145" s="7">
         <v>0</v>
       </c>
-      <c r="H145" s="9">
+      <c r="H145" s="5">
         <f>(D145+LARGE(E145:G145,1)+LARGE(E145:G145,2))/3</f>
         <v>0.399100314889789</v>
       </c>
@@ -7552,7 +7592,7 @@
       <c r="G146" s="7">
         <v>0</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="8">
         <f>(D146+LARGE(E146:G146,1)+LARGE(E146:G146,2))/3</f>
         <v>0.603013945119208</v>
       </c>
@@ -7579,7 +7619,7 @@
       <c r="G147" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="9">
         <f>(D147+LARGE(E147:G147,1)+LARGE(E147:G147,2))/3</f>
         <v>0.603778677462888</v>
       </c>
@@ -7606,7 +7646,7 @@
       <c r="G148" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H148" s="9">
+      <c r="H148" s="5">
         <f>(D148+LARGE(E148:G148,1)+LARGE(E148:G148,2))/3</f>
         <v>0.787764282501124</v>
       </c>
@@ -7633,7 +7673,7 @@
       <c r="G149" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="8">
         <f>(D149+LARGE(E149:G149,1)+LARGE(E149:G149,2))/3</f>
         <v>0.784795321637427</v>
       </c>
@@ -7658,7 +7698,7 @@
       <c r="G150" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H150" s="13"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="6">
@@ -7680,7 +7720,7 @@
       <c r="G151" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H151" s="13"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="6">
@@ -7702,7 +7742,7 @@
       <c r="G152" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H152" s="8"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="6">
@@ -7726,7 +7766,7 @@
       <c r="G153" s="7">
         <v>0</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="8">
         <f>(D153+LARGE(E153:G153,1)+LARGE(E153:G153,2))/3</f>
         <v>0.634030589293747</v>
       </c>
@@ -7753,7 +7793,7 @@
       <c r="G154" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="9">
         <f>(D154+LARGE(E154:G154,1)+LARGE(E154:G154,2))/3</f>
         <v>0.666419253261359</v>
       </c>
@@ -7780,7 +7820,7 @@
       <c r="G155" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="8">
         <f>(D155+LARGE(E155:G155,1)+LARGE(E155:G155,2))/3</f>
         <v>0.671974808816914</v>
       </c>
@@ -7807,7 +7847,7 @@
       <c r="G156" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="9">
         <f>(D156+LARGE(E156:G156,1)+LARGE(E156:G156,2))/3</f>
         <v>0.75314889788574</v>
       </c>
@@ -7834,7 +7874,7 @@
       <c r="G157" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="8">
         <f>(D157+LARGE(E157:G157,1)+LARGE(E157:G157,2))/3</f>
         <v>0.671367521367521</v>
       </c>
@@ -7861,7 +7901,7 @@
       <c r="G158" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="9">
         <f>(D158+LARGE(E158:G158,1)+LARGE(E158:G158,2))/3</f>
         <v>0.764732343679712</v>
       </c>
@@ -7888,7 +7928,7 @@
       <c r="G159" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H159" s="9">
+      <c r="H159" s="5">
         <f>(D159+LARGE(E159:G159,1)+LARGE(E159:G159,2))/3</f>
         <v>0.648717948717949</v>
       </c>
@@ -7915,7 +7955,7 @@
       <c r="G160" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="8">
         <f>(D160+LARGE(E160:G160,1)+LARGE(E160:G160,2))/3</f>
         <v>0.716576698155645</v>
       </c>
@@ -7940,7 +7980,7 @@
       <c r="G161" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H161" s="13"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="6">
@@ -7962,7 +8002,7 @@
       <c r="G162" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H162" s="8"/>
+      <c r="H162" s="13"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="6">
@@ -7986,7 +8026,7 @@
       <c r="G163" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="8">
         <f>(D163+LARGE(E163:G163,1)+LARGE(E163:G163,2))/3</f>
         <v>0.808479532163743</v>
       </c>
@@ -8011,7 +8051,7 @@
       <c r="G164" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H164" s="13"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="6">
@@ -8033,7 +8073,7 @@
       <c r="G165" s="7">
         <v>0.6</v>
       </c>
-      <c r="H165" s="8"/>
+      <c r="H165" s="13"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="6">
@@ -8057,7 +8097,7 @@
       <c r="G166" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H166" s="9">
+      <c r="H166" s="5">
         <f>(D166+LARGE(E166:G166,1)+LARGE(E166:G166,2))/3</f>
         <v>0.727350427350427</v>
       </c>
@@ -8084,7 +8124,7 @@
       <c r="G167" s="7">
         <v>0.184615384615385</v>
       </c>
-      <c r="H167" s="9">
+      <c r="H167" s="5">
         <f>(D167+LARGE(E167:G167,1)+LARGE(E167:G167,2))/3</f>
         <v>0.602249212775528</v>
       </c>
@@ -8111,7 +8151,7 @@
       <c r="G168" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="8">
         <f>(D168+LARGE(E168:G168,1)+LARGE(E168:G168,2))/3</f>
         <v>0.6939271255060731</v>
       </c>
@@ -8138,7 +8178,7 @@
       <c r="G169" s="7">
         <v>0</v>
       </c>
-      <c r="H169" s="11">
+      <c r="H169" s="10">
         <f>(D169+LARGE(E169:G169,1)+LARGE(E169:G169,2))/3</f>
         <v>0.718735942420153</v>
       </c>
@@ -8165,7 +8205,7 @@
       <c r="G170" s="7">
         <v>0</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="9">
         <f>(D170+LARGE(E170:G170,1)+LARGE(E170:G170,2))/3</f>
         <v>0.51144849302744</v>
       </c>
@@ -8192,7 +8232,7 @@
       <c r="G171" s="7">
         <v>0.6</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="8">
         <f>(D171+LARGE(E171:G171,1)+LARGE(E171:G171,2))/3</f>
         <v>0.592787524366472</v>
       </c>
@@ -8217,7 +8257,7 @@
       <c r="G172" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H172" s="8"/>
+      <c r="H172" s="13"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="6">
@@ -8241,7 +8281,7 @@
       <c r="G173" s="7">
         <v>0</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="8">
         <f>(D173+LARGE(E173:G173,1)+LARGE(E173:G173,2))/3</f>
         <v>0.580814215024741</v>
       </c>
@@ -8268,7 +8308,7 @@
       <c r="G174" s="7">
         <v>0.6</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="9">
         <f>(D174+LARGE(E174:G174,1)+LARGE(E174:G174,2))/3</f>
         <v>0.733895636527215</v>
       </c>
@@ -8295,7 +8335,7 @@
       <c r="G175" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="8">
         <f>(D175+LARGE(E175:G175,1)+LARGE(E175:G175,2))/3</f>
         <v>0.726855600539811</v>
       </c>
@@ -8322,7 +8362,7 @@
       <c r="G176" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H176" s="11">
+      <c r="H176" s="10">
         <f>(D176+LARGE(E176:G176,1)+LARGE(E176:G176,2))/3</f>
         <v>0.62519118308592</v>
       </c>
@@ -8347,7 +8387,7 @@
       <c r="G177" s="7">
         <v>0</v>
       </c>
-      <c r="H177" s="8"/>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="6">
@@ -8371,7 +8411,7 @@
       <c r="G178" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="8">
         <f>(D178+LARGE(E178:G178,1)+LARGE(E178:G178,2))/3</f>
         <v>0.745883940620782</v>
       </c>
@@ -8386,7 +8426,7 @@
       <c r="C179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D179" s="13"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="7">
         <v>0.315789473684211</v>
       </c>
@@ -8420,7 +8460,7 @@
       <c r="G180" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H180" s="5">
+      <c r="H180" s="8">
         <f>(D180+LARGE(E180:G180,1)+LARGE(E180:G180,2))/3</f>
         <v>0.772132253711201</v>
       </c>
@@ -8447,7 +8487,7 @@
       <c r="G181" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H181" s="11">
+      <c r="H181" s="10">
         <f>(D181+LARGE(E181:G181,1)+LARGE(E181:G181,2))/3</f>
         <v>0.805330634278002</v>
       </c>
@@ -8472,7 +8512,7 @@
       <c r="G182" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H182" s="8"/>
+      <c r="H182" s="13"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="6">
@@ -8496,7 +8536,7 @@
       <c r="G183" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H183" s="9">
+      <c r="H183" s="5">
         <f>(D183+LARGE(E183:G183,1)+LARGE(E183:G183,2))/3</f>
         <v>0.642914979757085</v>
       </c>
@@ -8523,7 +8563,7 @@
       <c r="G184" s="7">
         <v>0</v>
       </c>
-      <c r="H184" s="5">
+      <c r="H184" s="8">
         <f>(D184+LARGE(E184:G184,1)+LARGE(E184:G184,2))/3</f>
         <v>0.663202878992353</v>
       </c>
@@ -8538,7 +8578,7 @@
       <c r="C185" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D185" s="13"/>
+      <c r="D185" s="12"/>
       <c r="E185" s="7">
         <v>0.771929824561404</v>
       </c>
@@ -8548,7 +8588,7 @@
       <c r="G185" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H185" s="13"/>
+      <c r="H185" s="12"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="6">
@@ -8570,7 +8610,7 @@
       <c r="G186" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H186" s="13"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="6">
@@ -8582,7 +8622,7 @@
       <c r="C187" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D187" s="13"/>
+      <c r="D187" s="12"/>
       <c r="E187" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -8592,7 +8632,7 @@
       <c r="G187" s="7">
         <v>0</v>
       </c>
-      <c r="H187" s="13"/>
+      <c r="H187" s="12"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="6">
@@ -8614,7 +8654,7 @@
       <c r="G188" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H188" s="8"/>
+      <c r="H188" s="13"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="6">
@@ -8638,7 +8678,7 @@
       <c r="G189" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="8">
         <f>(D189+LARGE(E189:G189,1)+LARGE(E189:G189,2))/3</f>
         <v>0.5895861448493031</v>
       </c>
@@ -8653,7 +8693,7 @@
       <c r="C190" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D190" s="13"/>
+      <c r="D190" s="12"/>
       <c r="E190" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -8663,7 +8703,7 @@
       <c r="G190" s="7">
         <v>0</v>
       </c>
-      <c r="H190" s="8"/>
+      <c r="H190" s="13"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="6">
@@ -8687,7 +8727,7 @@
       <c r="G191" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191" s="8">
         <f>(D191+LARGE(E191:G191,1)+LARGE(E191:G191,2))/3</f>
         <v>0.613247863247863</v>
       </c>
@@ -8712,7 +8752,7 @@
       <c r="G192" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H192" s="8"/>
+      <c r="H192" s="13"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="6">
@@ -8736,7 +8776,7 @@
       <c r="G193" s="7">
         <v>0.6</v>
       </c>
-      <c r="H193" s="5">
+      <c r="H193" s="8">
         <f>(D193+LARGE(E193:G193,1)+LARGE(E193:G193,2))/3</f>
         <v>0.593769680611786</v>
       </c>
@@ -8755,7 +8795,7 @@
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="10">
+      <c r="H194" s="9">
         <v>0.72</v>
       </c>
     </row>
@@ -8781,7 +8821,7 @@
       <c r="G195" s="7">
         <v>0</v>
       </c>
-      <c r="H195" s="9">
+      <c r="H195" s="5">
         <f>(D195+LARGE(E195:G195,1)+LARGE(E195:G195,2))/3</f>
         <v>0.365721997300945</v>
       </c>
@@ -8808,7 +8848,7 @@
       <c r="G196" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H196" s="9">
+      <c r="H196" s="5">
         <f>(D196+LARGE(E196:G196,1)+LARGE(E196:G196,2))/3</f>
         <v>0.759266756635178</v>
       </c>
@@ -8835,7 +8875,7 @@
       <c r="G197" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="8">
         <f>(D197+LARGE(E197:G197,1)+LARGE(E197:G197,2))/3</f>
         <v>0.500854700854701</v>
       </c>
@@ -8862,7 +8902,7 @@
       <c r="G198" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H198" s="11">
+      <c r="H198" s="10">
         <f>(D198+LARGE(E198:G198,1)+LARGE(E198:G198,2))/3</f>
         <v>0.5931623931623931</v>
       </c>
@@ -8887,7 +8927,7 @@
       <c r="G199" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H199" s="8"/>
+      <c r="H199" s="13"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" t="s" s="6">
@@ -8911,7 +8951,7 @@
       <c r="G200" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H200" s="5">
+      <c r="H200" s="8">
         <f>(D200+LARGE(E200:G200,1)+LARGE(E200:G200,2))/3</f>
         <v>0.696581196581197</v>
       </c>
@@ -8938,7 +8978,7 @@
       <c r="G201" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H201" s="10">
+      <c r="H201" s="9">
         <f>(D201+LARGE(E201:G201,1)+LARGE(E201:G201,2))/3</f>
         <v>0.5598290598290599</v>
       </c>
@@ -8965,7 +9005,7 @@
       <c r="G202" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H202" s="5">
+      <c r="H202" s="8">
         <f>(D202+LARGE(E202:G202,1)+LARGE(E202:G202,2))/3</f>
         <v>0.835807467386415</v>
       </c>
@@ -8990,7 +9030,7 @@
       <c r="G203" s="7">
         <v>0</v>
       </c>
-      <c r="H203" s="8"/>
+      <c r="H203" s="13"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="6">
@@ -9014,7 +9054,7 @@
       <c r="G204" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H204" s="9">
+      <c r="H204" s="5">
         <f>(D204+LARGE(E204:G204,1)+LARGE(E204:G204,2))/3</f>
         <v>0.606747638326585</v>
       </c>
@@ -9041,7 +9081,7 @@
       <c r="G205" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H205" s="9">
+      <c r="H205" s="5">
         <f>(D205+LARGE(E205:G205,1)+LARGE(E205:G205,2))/3</f>
         <v>0.836527215474584</v>
       </c>
@@ -9068,7 +9108,7 @@
       <c r="G206" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H206" s="5">
+      <c r="H206" s="8">
         <f>(D206+LARGE(E206:G206,1)+LARGE(E206:G206,2))/3</f>
         <v>0.647435897435898</v>
       </c>
@@ -9095,7 +9135,7 @@
       <c r="G207" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H207" s="10">
+      <c r="H207" s="9">
         <f>(D207+LARGE(E207:G207,1)+LARGE(E207:G207,2))/3</f>
         <v>0.7589743589743591</v>
       </c>
@@ -9122,7 +9162,7 @@
       <c r="G208" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H208" s="5">
+      <c r="H208" s="8">
         <f>(D208+LARGE(E208:G208,1)+LARGE(E208:G208,2))/3</f>
         <v>0.775641025641026</v>
       </c>
@@ -9147,7 +9187,7 @@
       <c r="G209" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H209" s="8"/>
+      <c r="H209" s="13"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="6">
@@ -9171,7 +9211,7 @@
       <c r="G210" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H210" s="5">
+      <c r="H210" s="8">
         <f>(D210+LARGE(E210:G210,1)+LARGE(E210:G210,2))/3</f>
         <v>0.784188034188034</v>
       </c>
@@ -9198,7 +9238,7 @@
       <c r="G211" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H211" s="10">
+      <c r="H211" s="9">
         <f>(D211+LARGE(E211:G211,1)+LARGE(E211:G211,2))/3</f>
         <v>0.645906432748538</v>
       </c>
@@ -9225,7 +9265,7 @@
       <c r="G212" s="7">
         <v>0</v>
       </c>
-      <c r="H212" s="9">
+      <c r="H212" s="5">
         <f>(D212+LARGE(E212:G212,1)+LARGE(E212:G212,2))/3</f>
         <v>0.46225820962663</v>
       </c>
@@ -9252,7 +9292,7 @@
       <c r="G213" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H213" s="5">
+      <c r="H213" s="8">
         <f>(D213+LARGE(E213:G213,1)+LARGE(E213:G213,2))/3</f>
         <v>0.757017543859649</v>
       </c>
@@ -9277,7 +9317,7 @@
       <c r="G214" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H214" s="8"/>
+      <c r="H214" s="13"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="6">
@@ -9301,7 +9341,7 @@
       <c r="G215" s="7">
         <v>0</v>
       </c>
-      <c r="H215" s="5">
+      <c r="H215" s="8">
         <f>(D215+LARGE(E215:G215,1)+LARGE(E215:G215,2))/3</f>
         <v>0.64804318488529</v>
       </c>
@@ -9328,7 +9368,7 @@
       <c r="G216" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H216" s="10">
+      <c r="H216" s="9">
         <f>(D216+LARGE(E216:G216,1)+LARGE(E216:G216,2))/3</f>
         <v>0.757017543859649</v>
       </c>
@@ -9355,7 +9395,7 @@
       <c r="G217" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H217" s="9">
+      <c r="H217" s="5">
         <f>(D217+LARGE(E217:G217,1)+LARGE(E217:G217,2))/3</f>
         <v>0.757264957264957</v>
       </c>
@@ -9382,7 +9422,7 @@
       <c r="G218" s="7">
         <v>0</v>
       </c>
-      <c r="H218" s="5">
+      <c r="H218" s="8">
         <f>(D218+LARGE(E218:G218,1)+LARGE(E218:G218,2))/3</f>
         <v>0.33034188034188</v>
       </c>
@@ -9409,7 +9449,7 @@
       <c r="G219" s="7">
         <v>0</v>
       </c>
-      <c r="H219" s="10">
+      <c r="H219" s="9">
         <f>(D219+LARGE(E219:G219,1)+LARGE(E219:G219,2))/3</f>
         <v>0.764709851551957</v>
       </c>
@@ -9436,7 +9476,7 @@
       <c r="G220" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H220" s="5">
+      <c r="H220" s="8">
         <f>(D220+LARGE(E220:G220,1)+LARGE(E220:G220,2))/3</f>
         <v>0.565092217723797</v>
       </c>
@@ -9455,7 +9495,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
-      <c r="H221" s="10">
+      <c r="H221" s="9">
         <v>0.59</v>
       </c>
     </row>
@@ -9481,7 +9521,7 @@
       <c r="G222" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H222" s="9">
+      <c r="H222" s="5">
         <f>(D222+LARGE(E222:G222,1)+LARGE(E222:G222,2))/3</f>
         <v>0.693792172739541</v>
       </c>
@@ -9508,7 +9548,7 @@
       <c r="G223" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H223" s="5">
+      <c r="H223" s="8">
         <f>(D223+LARGE(E223:G223,1)+LARGE(E223:G223,2))/3</f>
         <v>0.706590193432299</v>
       </c>
@@ -9533,7 +9573,7 @@
       <c r="G224" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H224" s="8"/>
+      <c r="H224" s="13"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="6">
@@ -9557,7 +9597,7 @@
       <c r="G225" s="7">
         <v>0</v>
       </c>
-      <c r="H225" s="9">
+      <c r="H225" s="5">
         <f>(D225+LARGE(E225:G225,1)+LARGE(E225:G225,2))/3</f>
         <v>0.608232118758434</v>
       </c>
@@ -9584,7 +9624,7 @@
       <c r="G226" s="7">
         <v>0.6</v>
       </c>
-      <c r="H226" s="9">
+      <c r="H226" s="5">
         <f>(D226+LARGE(E226:G226,1)+LARGE(E226:G226,2))/3</f>
         <v>0.705173189383716</v>
       </c>
@@ -9611,7 +9651,7 @@
       <c r="G227" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H227" s="9">
+      <c r="H227" s="5">
         <f>(D227+LARGE(E227:G227,1)+LARGE(E227:G227,2))/3</f>
         <v>0.700607287449393</v>
       </c>
@@ -9638,7 +9678,7 @@
       <c r="G228" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H228" s="9">
+      <c r="H228" s="5">
         <f>(D228+LARGE(E228:G228,1)+LARGE(E228:G228,2))/3</f>
         <v>0.848515519568151</v>
       </c>
@@ -9665,7 +9705,7 @@
       <c r="G229" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H229" s="5">
+      <c r="H229" s="8">
         <f>(D229+LARGE(E229:G229,1)+LARGE(E229:G229,2))/3</f>
         <v>0.786077372919478</v>
       </c>
@@ -9690,7 +9730,7 @@
       <c r="G230" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H230" s="13"/>
+      <c r="H230" s="12"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="6">
@@ -9712,7 +9752,7 @@
       <c r="G231" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H231" s="8"/>
+      <c r="H231" s="13"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="6">
@@ -9736,7 +9776,7 @@
       <c r="G232" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H232" s="9">
+      <c r="H232" s="5">
         <f>(D232+LARGE(E232:G232,1)+LARGE(E232:G232,2))/3</f>
         <v>0.778789923526765</v>
       </c>
@@ -9763,7 +9803,7 @@
       <c r="G233" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H233" s="5">
+      <c r="H233" s="8">
         <f>(D233+LARGE(E233:G233,1)+LARGE(E233:G233,2))/3</f>
         <v>0.825123706702654</v>
       </c>
@@ -9790,7 +9830,7 @@
       <c r="G234" s="7">
         <v>0.323076923076923</v>
       </c>
-      <c r="H234" s="11">
+      <c r="H234" s="10">
         <f>(D234+LARGE(E234:G234,1)+LARGE(E234:G234,2))/3</f>
         <v>0.354700854700855</v>
       </c>
@@ -9805,7 +9845,7 @@
       <c r="C235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D235" s="13"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -9815,7 +9855,7 @@
       <c r="G235" s="7">
         <v>0</v>
       </c>
-      <c r="H235" s="13"/>
+      <c r="H235" s="12"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="6">
@@ -9837,7 +9877,7 @@
       <c r="G236" s="7">
         <v>0</v>
       </c>
-      <c r="H236" s="8"/>
+      <c r="H236" s="13"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="6">
@@ -9861,7 +9901,7 @@
       <c r="G237" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H237" s="5">
+      <c r="H237" s="8">
         <f>(D237+LARGE(E237:G237,1)+LARGE(E237:G237,2))/3</f>
         <v>0.827980206927575</v>
       </c>
@@ -9888,7 +9928,7 @@
       <c r="G238" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H238" s="11">
+      <c r="H238" s="10">
         <f>(D238+LARGE(E238:G238,1)+LARGE(E238:G238,2))/3</f>
         <v>0.557264957264957</v>
       </c>
@@ -9913,7 +9953,7 @@
       <c r="G239" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H239" s="8"/>
+      <c r="H239" s="13"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="6">
@@ -9937,7 +9977,7 @@
       <c r="G240" s="7">
         <v>0</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240" s="8">
         <f>(D240+LARGE(E240:G240,1)+LARGE(E240:G240,2))/3</f>
         <v>0.781826360773729</v>
       </c>
@@ -9952,7 +9992,7 @@
       <c r="C241" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D241" s="13"/>
+      <c r="D241" s="12"/>
       <c r="E241" s="7">
         <v>0.245614035087719</v>
       </c>
@@ -9962,7 +10002,7 @@
       <c r="G241" s="7">
         <v>0</v>
       </c>
-      <c r="H241" s="13"/>
+      <c r="H241" s="12"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
@@ -9984,7 +10024,7 @@
       <c r="G242" s="7">
         <v>0.6</v>
       </c>
-      <c r="H242" s="13"/>
+      <c r="H242" s="12"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
@@ -10006,7 +10046,7 @@
       <c r="G243" s="7">
         <v>0</v>
       </c>
-      <c r="H243" s="13"/>
+      <c r="H243" s="12"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
@@ -10028,7 +10068,7 @@
       <c r="G244" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H244" s="8"/>
+      <c r="H244" s="13"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="6">
@@ -10052,7 +10092,7 @@
       <c r="G245" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H245" s="5">
+      <c r="H245" s="8">
         <f>(D245+LARGE(E245:G245,1)+LARGE(E245:G245,2))/3</f>
         <v>0.716149347728295</v>
       </c>
@@ -10077,7 +10117,7 @@
       <c r="G246" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H246" s="8"/>
+      <c r="H246" s="13"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
@@ -10101,7 +10141,7 @@
       <c r="G247" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H247" s="5">
+      <c r="H247" s="8">
         <f>(D247+LARGE(E247:G247,1)+LARGE(E247:G247,2))/3</f>
         <v>0.692645074224021</v>
       </c>
@@ -10128,7 +10168,7 @@
       <c r="G248" s="7">
         <v>0</v>
       </c>
-      <c r="H248" s="11">
+      <c r="H248" s="10">
         <f>(D248+LARGE(E248:G248,1)+LARGE(E248:G248,2))/3</f>
         <v>0.734233018443545</v>
       </c>
@@ -10155,7 +10195,7 @@
       <c r="G249" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H249" s="10">
+      <c r="H249" s="9">
         <f>(D249+LARGE(E249:G249,1)+LARGE(E249:G249,2))/3</f>
         <v>0.590845704003599</v>
       </c>
@@ -10182,7 +10222,7 @@
       <c r="G250" s="7">
         <v>0.292307692307692</v>
       </c>
-      <c r="H250" s="5">
+      <c r="H250" s="8">
         <f>(D250+LARGE(E250:G250,1)+LARGE(E250:G250,2))/3</f>
         <v>0.54966261808367</v>
       </c>
@@ -10207,7 +10247,7 @@
       <c r="G251" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H251" s="8"/>
+      <c r="H251" s="13"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
@@ -10231,7 +10271,7 @@
       <c r="G252" s="7">
         <v>0</v>
       </c>
-      <c r="H252" s="9">
+      <c r="H252" s="5">
         <f>(D252+LARGE(E252:G252,1)+LARGE(E252:G252,2))/3</f>
         <v>0.555847953216374</v>
       </c>
@@ -10258,7 +10298,7 @@
       <c r="G253" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253" s="8">
         <f>(D253+LARGE(E253:G253,1)+LARGE(E253:G253,2))/3</f>
         <v>0.6944669365722</v>
       </c>
@@ -10283,7 +10323,7 @@
       <c r="G254" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H254" s="13"/>
+      <c r="H254" s="12"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
@@ -10305,7 +10345,7 @@
       <c r="G255" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H255" s="8"/>
+      <c r="H255" s="13"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
@@ -10329,7 +10369,7 @@
       <c r="G256" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H256" s="9">
+      <c r="H256" s="5">
         <f>(D256+LARGE(E256:G256,1)+LARGE(E256:G256,2))/3</f>
         <v>0.607849752586594</v>
       </c>
@@ -10356,7 +10396,7 @@
       <c r="G257" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H257" s="9">
+      <c r="H257" s="5">
         <f>(D257+LARGE(E257:G257,1)+LARGE(E257:G257,2))/3</f>
         <v>0.67676563202879</v>
       </c>
@@ -10398,7 +10438,9 @@
       <c r="C259" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D259" s="7"/>
+      <c r="D259" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E259" s="7">
         <v>0.75</v>
       </c>
@@ -10408,7 +10450,10 @@
       <c r="G259" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H259" s="8"/>
+      <c r="H259" s="8">
+        <f>(D259+LARGE(E259:G259,1)+LARGE(E259:G259,2))/3</f>
+        <v>0.738095238095238</v>
+      </c>
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="6">
@@ -10432,7 +10477,7 @@
       <c r="G260" s="7">
         <v>0.8</v>
       </c>
-      <c r="H260" s="5">
+      <c r="H260" s="10">
         <f>(D260+LARGE(E260:G260,1)+LARGE(E260:G260,2))/3</f>
         <v>0.69761583445794</v>
       </c>
@@ -10459,7 +10504,7 @@
       <c r="G261" s="7">
         <v>0.6</v>
       </c>
-      <c r="H261" s="10">
+      <c r="H261" s="9">
         <f>(D261+LARGE(E261:G261,1)+LARGE(E261:G261,2))/3</f>
         <v>0.603868645973909</v>
       </c>
@@ -10486,7 +10531,7 @@
       <c r="G262" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H262" s="9">
+      <c r="H262" s="5">
         <f>(D262+LARGE(E262:G262,1)+LARGE(E262:G262,2))/3</f>
         <v>0.555015744489429</v>
       </c>
@@ -10513,7 +10558,7 @@
       <c r="G263" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H263" s="9">
+      <c r="H263" s="5">
         <f>(D263+LARGE(E263:G263,1)+LARGE(E263:G263,2))/3</f>
         <v>0.792622582096266</v>
       </c>
@@ -10555,7 +10600,9 @@
       <c r="C265" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D265" s="7"/>
+      <c r="D265" s="7">
+        <v>0.90625</v>
+      </c>
       <c r="E265" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -10565,7 +10612,10 @@
       <c r="G265" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H265" s="8"/>
+      <c r="H265" s="8">
+        <f>(D265+LARGE(E265:G265,1)+LARGE(E265:G265,2))/3</f>
+        <v>0.785325091575092</v>
+      </c>
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="6">
@@ -10616,7 +10666,7 @@
       <c r="G267" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H267" s="5">
+      <c r="H267" s="8">
         <f>(D267+LARGE(E267:G267,1)+LARGE(E267:G267,2))/3</f>
         <v>0.709131803868646</v>
       </c>
@@ -10643,7 +10693,7 @@
       <c r="G268" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H268" s="10">
+      <c r="H268" s="9">
         <f>(D268+LARGE(E268:G268,1)+LARGE(E268:G268,2))/3</f>
         <v>0.554835807467387</v>
       </c>
@@ -10670,7 +10720,7 @@
       <c r="G269" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H269" s="9">
+      <c r="H269" s="5">
         <f>(D269+LARGE(E269:G269,1)+LARGE(E269:G269,2))/3</f>
         <v>0.800202429149798</v>
       </c>
@@ -10697,7 +10747,7 @@
       <c r="G270" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H270" s="5">
+      <c r="H270" s="8">
         <f>(D270+LARGE(E270:G270,1)+LARGE(E270:G270,2))/3</f>
         <v>0.581376518218624</v>
       </c>
@@ -10724,7 +10774,7 @@
       <c r="G271" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H271" s="10">
+      <c r="H271" s="9">
         <f>(D271+LARGE(E271:G271,1)+LARGE(E271:G271,2))/3</f>
         <v>0.6228520017993699</v>
       </c>
@@ -10751,7 +10801,7 @@
       <c r="G272" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H272" s="5">
+      <c r="H272" s="8">
         <f>(D272+LARGE(E272:G272,1)+LARGE(E272:G272,2))/3</f>
         <v>0.71025641025641</v>
       </c>
@@ -10778,7 +10828,7 @@
       <c r="G273" s="7">
         <v>0</v>
       </c>
-      <c r="H273" s="11">
+      <c r="H273" s="10">
         <f>(D273+LARGE(E273:G273,1)+LARGE(E273:G273,2))/3</f>
         <v>0.323931623931624</v>
       </c>
@@ -10797,7 +10847,7 @@
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
-      <c r="H274" s="10">
+      <c r="H274" s="9">
         <v>0.65</v>
       </c>
     </row>
@@ -10823,7 +10873,7 @@
       <c r="G275" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H275" s="5">
+      <c r="H275" s="8">
         <f>(D275+LARGE(E275:G275,1)+LARGE(E275:G275,2))/3</f>
         <v>0.818983355825461</v>
       </c>
@@ -10850,7 +10900,7 @@
       <c r="G276" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H276" s="11">
+      <c r="H276" s="10">
         <f>(D276+LARGE(E276:G276,1)+LARGE(E276:G276,2))/3</f>
         <v>0.718421052631579</v>
       </c>
@@ -10875,7 +10925,7 @@
       <c r="G277" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H277" s="13"/>
+      <c r="H277" s="12"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="6">
@@ -10897,7 +10947,7 @@
       <c r="G278" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H278" s="13"/>
+      <c r="H278" s="12"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="6">
@@ -10919,7 +10969,7 @@
       <c r="G279" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H279" s="8"/>
+      <c r="H279" s="13"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="6">
@@ -10943,7 +10993,7 @@
       <c r="G280" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H280" s="9">
+      <c r="H280" s="5">
         <f>(D280+LARGE(E280:G280,1)+LARGE(E280:G280,2))/3</f>
         <v>0.788236617183985</v>
       </c>
@@ -10970,7 +11020,7 @@
       <c r="G281" s="7">
         <v>0</v>
       </c>
-      <c r="H281" s="5">
+      <c r="H281" s="8">
         <f>(D281+LARGE(E281:G281,1)+LARGE(E281:G281,2))/3</f>
         <v>0.581623931623932</v>
       </c>
@@ -10995,7 +11045,7 @@
       <c r="G282" s="7">
         <v>0</v>
       </c>
-      <c r="H282" s="13"/>
+      <c r="H282" s="12"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="6">
@@ -11017,7 +11067,7 @@
       <c r="G283" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H283" s="8"/>
+      <c r="H283" s="13"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="6">
@@ -11041,7 +11091,7 @@
       <c r="G284" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H284" s="5">
+      <c r="H284" s="8">
         <f>(D284+LARGE(E284:G284,1)+LARGE(E284:G284,2))/3</f>
         <v>0.679622132253711</v>
       </c>
@@ -11066,7 +11116,7 @@
       <c r="G285" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H285" s="13"/>
+      <c r="H285" s="12"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="6">
@@ -11088,7 +11138,7 @@
       <c r="G286" s="7">
         <v>0</v>
       </c>
-      <c r="H286" s="8"/>
+      <c r="H286" s="13"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
@@ -11112,7 +11162,7 @@
       <c r="G287" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H287" s="9">
+      <c r="H287" s="5">
         <f>(D287+LARGE(E287:G287,1)+LARGE(E287:G287,2))/3</f>
         <v>0.658479532163743</v>
       </c>
@@ -11139,7 +11189,7 @@
       <c r="G288" s="7">
         <v>0.338461538461538</v>
       </c>
-      <c r="H288" s="5">
+      <c r="H288" s="8">
         <f>(D288+LARGE(E288:G288,1)+LARGE(E288:G288,2))/3</f>
         <v>0.779419703103914</v>
       </c>
@@ -11164,7 +11214,7 @@
       <c r="G289" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H289" s="8"/>
+      <c r="H289" s="13"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="6">
@@ -11188,7 +11238,7 @@
       <c r="G290" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H290" s="9">
+      <c r="H290" s="5">
         <f>(D290+LARGE(E290:G290,1)+LARGE(E290:G290,2))/3</f>
         <v>0.848065677013045</v>
       </c>
@@ -11215,7 +11265,7 @@
       <c r="G291" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H291" s="9">
+      <c r="H291" s="5">
         <f>(D291+LARGE(E291:G291,1)+LARGE(E291:G291,2))/3</f>
         <v>0.669005847953216</v>
       </c>
@@ -11242,7 +11292,7 @@
       <c r="G292" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H292" s="9">
+      <c r="H292" s="5">
         <f>(D292+LARGE(E292:G292,1)+LARGE(E292:G292,2))/3</f>
         <v>0.7164642375168691</v>
       </c>
@@ -11269,7 +11319,7 @@
       <c r="G293" s="7">
         <v>0.6</v>
       </c>
-      <c r="H293" s="5">
+      <c r="H293" s="8">
         <f>(D293+LARGE(E293:G293,1)+LARGE(E293:G293,2))/3</f>
         <v>0.706995051731894</v>
       </c>
@@ -11296,7 +11346,7 @@
       <c r="G294" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H294" s="10">
+      <c r="H294" s="9">
         <f>(D294+LARGE(E294:G294,1)+LARGE(E294:G294,2))/3</f>
         <v>0.78582995951417</v>
       </c>
@@ -11323,7 +11373,7 @@
       <c r="G295" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H295" s="5">
+      <c r="H295" s="8">
         <f>(D295+LARGE(E295:G295,1)+LARGE(E295:G295,2))/3</f>
         <v>0.856770130454341</v>
       </c>
@@ -11348,7 +11398,7 @@
       <c r="G296" s="7">
         <v>0</v>
       </c>
-      <c r="H296" s="13"/>
+      <c r="H296" s="12"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="6">
@@ -11370,7 +11420,7 @@
       <c r="G297" s="7">
         <v>0</v>
       </c>
-      <c r="H297" s="8"/>
+      <c r="H297" s="13"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="6">
@@ -11394,7 +11444,7 @@
       <c r="G298" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H298" s="9">
+      <c r="H298" s="5">
         <f>(D298+LARGE(E298:G298,1)+LARGE(E298:G298,2))/3</f>
         <v>0.689023841655421</v>
       </c>
@@ -11436,7 +11486,9 @@
       <c r="C300" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D300" s="7"/>
+      <c r="D300" s="7">
+        <v>0.25</v>
+      </c>
       <c r="E300" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -11446,7 +11498,10 @@
       <c r="G300" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H300" s="8"/>
+      <c r="H300" s="8">
+        <f>(D300+LARGE(E300:G300,1)+LARGE(E300:G300,2))/3</f>
+        <v>0.571428571428571</v>
+      </c>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="6">
@@ -11470,7 +11525,7 @@
       <c r="G301" s="7">
         <v>0</v>
       </c>
-      <c r="H301" s="5">
+      <c r="H301" s="10">
         <f>(D301+LARGE(E301:G301,1)+LARGE(E301:G301,2))/3</f>
         <v>0.705357142857143</v>
       </c>
@@ -11495,7 +11550,7 @@
       <c r="G302" s="7">
         <v>0</v>
       </c>
-      <c r="H302" s="8"/>
+      <c r="H302" s="13"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
@@ -11519,7 +11574,7 @@
       <c r="G303" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H303" s="5">
+      <c r="H303" s="8">
         <f>(D303+LARGE(E303:G303,1)+LARGE(E303:G303,2))/3</f>
         <v>0.660278902384165</v>
       </c>
@@ -11546,7 +11601,7 @@
       <c r="G304" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H304" s="11">
+      <c r="H304" s="10">
         <f>(D304+LARGE(E304:G304,1)+LARGE(E304:G304,2))/3</f>
         <v>0.734930274403959</v>
       </c>
@@ -11571,7 +11626,7 @@
       <c r="G305" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H305" s="13"/>
+      <c r="H305" s="12"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
@@ -11593,7 +11648,7 @@
       <c r="G306" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H306" s="8"/>
+      <c r="H306" s="13"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="6">
@@ -11617,7 +11672,7 @@
       <c r="G307" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H307" s="9">
+      <c r="H307" s="5">
         <f>(D307+LARGE(E307:G307,1)+LARGE(E307:G307,2))/3</f>
         <v>0.6467611336032389</v>
       </c>
@@ -11644,7 +11699,7 @@
       <c r="G308" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H308" s="9">
+      <c r="H308" s="5">
         <f>(D308+LARGE(E308:G308,1)+LARGE(E308:G308,2))/3</f>
         <v>0.76102114260009</v>
       </c>
@@ -11671,7 +11726,7 @@
       <c r="G309" s="7">
         <v>0.6</v>
       </c>
-      <c r="H309" s="5">
+      <c r="H309" s="8">
         <f>(D309+LARGE(E309:G309,1)+LARGE(E309:G309,2))/3</f>
         <v>0.696063877642825</v>
       </c>
@@ -11696,7 +11751,7 @@
       <c r="G310" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H310" s="13"/>
+      <c r="H310" s="12"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="6">
@@ -11718,7 +11773,7 @@
       <c r="G311" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H311" s="13"/>
+      <c r="H311" s="12"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
@@ -11740,7 +11795,7 @@
       <c r="G312" s="7">
         <v>0.276923076923077</v>
       </c>
-      <c r="H312" s="8"/>
+      <c r="H312" s="13"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
@@ -11764,7 +11819,7 @@
       <c r="G313" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H313" s="5">
+      <c r="H313" s="8">
         <f>(D313+LARGE(E313:G313,1)+LARGE(E313:G313,2))/3</f>
         <v>0.755465587044534</v>
       </c>
@@ -11789,7 +11844,7 @@
       <c r="G314" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H314" s="8"/>
+      <c r="H314" s="13"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
@@ -11813,7 +11868,7 @@
       <c r="G315" s="7">
         <v>0.6</v>
       </c>
-      <c r="H315" s="9">
+      <c r="H315" s="5">
         <f>(D315+LARGE(E315:G315,1)+LARGE(E315:G315,2))/3</f>
         <v>0.692914979757085</v>
       </c>
@@ -11840,7 +11895,7 @@
       <c r="G316" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H316" s="9">
+      <c r="H316" s="5">
         <f>(D316+LARGE(E316:G316,1)+LARGE(E316:G316,2))/3</f>
         <v>0.7784075573549259</v>
       </c>
@@ -11867,7 +11922,7 @@
       <c r="G317" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H317" s="9">
+      <c r="H317" s="5">
         <f>(D317+LARGE(E317:G317,1)+LARGE(E317:G317,2))/3</f>
         <v>0.706005398110661</v>
       </c>
@@ -11894,7 +11949,7 @@
       <c r="G318" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H318" s="5">
+      <c r="H318" s="8">
         <f>(D318+LARGE(E318:G318,1)+LARGE(E318:G318,2))/3</f>
         <v>0.730026990553306</v>
       </c>
@@ -11921,7 +11976,7 @@
       <c r="G319" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H319" s="11">
+      <c r="H319" s="10">
         <f>(D319+LARGE(E319:G319,1)+LARGE(E319:G319,2))/3</f>
         <v>0.703328834907782</v>
       </c>
@@ -11946,7 +12001,7 @@
       <c r="G320" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H320" s="13"/>
+      <c r="H320" s="12"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="6">
@@ -11968,7 +12023,7 @@
       <c r="G321" s="7">
         <v>0.6</v>
       </c>
-      <c r="H321" s="8"/>
+      <c r="H321" s="13"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="6">
@@ -11992,7 +12047,7 @@
       <c r="G322" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H322" s="9">
+      <c r="H322" s="5">
         <f>(D322+LARGE(E322:G322,1)+LARGE(E322:G322,2))/3</f>
         <v>0.71650922177238</v>
       </c>
@@ -12019,7 +12074,7 @@
       <c r="G323" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H323" s="9">
+      <c r="H323" s="5">
         <f>(D323+LARGE(E323:G323,1)+LARGE(E323:G323,2))/3</f>
         <v>0.767026540710751</v>
       </c>
@@ -12046,7 +12101,7 @@
       <c r="G324" s="7">
         <v>0</v>
       </c>
-      <c r="H324" s="9">
+      <c r="H324" s="5">
         <f>(D324+LARGE(E324:G324,1)+LARGE(E324:G324,2))/3</f>
         <v>0.583715699505173</v>
       </c>
@@ -12073,7 +12128,7 @@
       <c r="G325" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H325" s="5">
+      <c r="H325" s="8">
         <f>(D325+LARGE(E325:G325,1)+LARGE(E325:G325,2))/3</f>
         <v>0.711133603238866</v>
       </c>
@@ -12100,7 +12155,7 @@
       <c r="G326" s="7">
         <v>0</v>
       </c>
-      <c r="H326" s="10">
+      <c r="H326" s="9">
         <f>(D326+LARGE(E326:G326,1)+LARGE(E326:G326,2))/3</f>
         <v>0.353418803418803</v>
       </c>
@@ -12127,7 +12182,7 @@
       <c r="G327" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H327" s="5">
+      <c r="H327" s="8">
         <f>(D327+LARGE(E327:G327,1)+LARGE(E327:G327,2))/3</f>
         <v>0.844916779127305</v>
       </c>
@@ -12152,7 +12207,7 @@
       <c r="G328" s="7">
         <v>0</v>
       </c>
-      <c r="H328" s="13"/>
+      <c r="H328" s="12"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="6">
@@ -12174,7 +12229,7 @@
       <c r="G329" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H329" s="13"/>
+      <c r="H329" s="12"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="6">
@@ -12196,7 +12251,7 @@
       <c r="G330" s="7">
         <v>0.6</v>
       </c>
-      <c r="H330" s="8"/>
+      <c r="H330" s="13"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="6">
@@ -12220,7 +12275,7 @@
       <c r="G331" s="7">
         <v>0</v>
       </c>
-      <c r="H331" s="5">
+      <c r="H331" s="8">
         <f>(D331+LARGE(E331:G331,1)+LARGE(E331:G331,2))/3</f>
         <v>0.766621682411156</v>
       </c>
@@ -12245,7 +12300,7 @@
       <c r="G332" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H332" s="8"/>
+      <c r="H332" s="13"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
@@ -12269,7 +12324,7 @@
       <c r="G333" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H333" s="5">
+      <c r="H333" s="8">
         <f>(D333+LARGE(E333:G333,1)+LARGE(E333:G333,2))/3</f>
         <v>0.709334233018444</v>
       </c>
@@ -12296,7 +12351,7 @@
       <c r="G334" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="H334" s="10">
+      <c r="H334" s="9">
         <f>(D334+LARGE(E334:G334,1)+LARGE(E334:G334,2))/3</f>
         <v>0.7386414754835809</v>
       </c>
@@ -12323,7 +12378,7 @@
       <c r="G335" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H335" s="5">
+      <c r="H335" s="8">
         <f>(D335+LARGE(E335:G335,1)+LARGE(E335:G335,2))/3</f>
         <v>0.559154295996401</v>
       </c>
@@ -12348,7 +12403,7 @@
       <c r="G336" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H336" s="8"/>
+      <c r="H336" s="13"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" t="s" s="6">
@@ -12372,7 +12427,7 @@
       <c r="G337" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H337" s="5">
+      <c r="H337" s="8">
         <f>(D337+LARGE(E337:G337,1)+LARGE(E337:G337,2))/3</f>
         <v>0.804430949167791</v>
       </c>
@@ -12399,7 +12454,7 @@
       <c r="G338" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H338" s="10">
+      <c r="H338" s="9">
         <f>(D338+LARGE(E338:G338,1)+LARGE(E338:G338,2))/3</f>
         <v>0.700494826810616</v>
       </c>
@@ -12426,7 +12481,7 @@
       <c r="G339" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H339" s="5">
+      <c r="H339" s="8">
         <f>(D339+LARGE(E339:G339,1)+LARGE(E339:G339,2))/3</f>
         <v>0.682276203328835</v>
       </c>
@@ -12451,7 +12506,7 @@
       <c r="G340" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H340" s="8"/>
+      <c r="H340" s="13"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" t="s" s="6">
@@ -12475,7 +12530,7 @@
       <c r="G341" s="7">
         <v>0.6</v>
       </c>
-      <c r="H341" s="5">
+      <c r="H341" s="8">
         <f>(D341+LARGE(E341:G341,1)+LARGE(E341:G341,2))/3</f>
         <v>0.5121907332433649</v>
       </c>
@@ -12500,7 +12555,7 @@
       <c r="G342" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H342" s="13"/>
+      <c r="H342" s="12"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
@@ -12522,7 +12577,7 @@
       <c r="G343" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H343" s="13"/>
+      <c r="H343" s="12"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
@@ -12544,7 +12599,7 @@
       <c r="G344" s="7">
         <v>0</v>
       </c>
-      <c r="H344" s="8"/>
+      <c r="H344" s="13"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
@@ -12568,7 +12623,7 @@
       <c r="G345" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H345" s="9">
+      <c r="H345" s="5">
         <f>(D345+LARGE(E345:G345,1)+LARGE(E345:G345,2))/3</f>
         <v>0.748020692757535</v>
       </c>
@@ -12595,7 +12650,7 @@
       <c r="G346" s="7">
         <v>0</v>
       </c>
-      <c r="H346" s="9">
+      <c r="H346" s="5">
         <f>(D346+LARGE(E346:G346,1)+LARGE(E346:G346,2))/3</f>
         <v>0.577642825011246</v>
       </c>
@@ -12622,7 +12677,7 @@
       <c r="G347" s="7">
         <v>0</v>
       </c>
-      <c r="H347" s="9">
+      <c r="H347" s="5">
         <f>(D347+LARGE(E347:G347,1)+LARGE(E347:G347,2))/3</f>
         <v>0.450832208726945</v>
       </c>
@@ -12649,7 +12704,7 @@
       <c r="G348" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H348" s="5">
+      <c r="H348" s="8">
         <f>(D348+LARGE(E348:G348,1)+LARGE(E348:G348,2))/3</f>
         <v>0.6834907782276201</v>
       </c>
@@ -12676,7 +12731,7 @@
       <c r="G349" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H349" s="11">
+      <c r="H349" s="10">
         <f>(D349+LARGE(E349:G349,1)+LARGE(E349:G349,2))/3</f>
         <v>0.7446018893387309</v>
       </c>
@@ -12701,7 +12756,7 @@
       <c r="G350" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H350" s="13"/>
+      <c r="H350" s="12"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="6">
@@ -12723,7 +12778,7 @@
       <c r="G351" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H351" s="13"/>
+      <c r="H351" s="12"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="6">
@@ -12745,7 +12800,7 @@
       <c r="G352" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H352" s="13"/>
+      <c r="H352" s="12"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="6">
@@ -12761,7 +12816,7 @@
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
-      <c r="H353" s="10">
+      <c r="H353" s="9">
         <v>0.54</v>
       </c>
     </row>
@@ -12787,7 +12842,7 @@
       <c r="G354" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H354" s="5">
+      <c r="H354" s="8">
         <f>(D354+LARGE(E354:G354,1)+LARGE(E354:G354,2))/3</f>
         <v>0.739583333333333</v>
       </c>
@@ -12812,7 +12867,7 @@
       <c r="G355" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H355" s="8"/>
+      <c r="H355" s="13"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
@@ -12836,7 +12891,7 @@
       <c r="G356" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H356" s="5">
+      <c r="H356" s="8">
         <f>(D356+LARGE(E356:G356,1)+LARGE(E356:G356,2))/3</f>
         <v>0.727289377289377</v>
       </c>
@@ -12863,7 +12918,7 @@
       <c r="G357" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H357" s="10">
+      <c r="H357" s="9">
         <f>(D357+LARGE(E357:G357,1)+LARGE(E357:G357,2))/3</f>
         <v>0.672649572649573</v>
       </c>
@@ -12890,7 +12945,7 @@
       <c r="G358" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H358" s="9">
+      <c r="H358" s="5">
         <f>(D358+LARGE(E358:G358,1)+LARGE(E358:G358,2))/3</f>
         <v>0.720940170940171</v>
       </c>
@@ -12917,7 +12972,7 @@
       <c r="G359" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H359" s="9">
+      <c r="H359" s="5">
         <f>(D359+LARGE(E359:G359,1)+LARGE(E359:G359,2))/3</f>
         <v>0.759671614934773</v>
       </c>
@@ -12944,7 +12999,7 @@
       <c r="G360" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H360" s="5">
+      <c r="H360" s="8">
         <f>(D360+LARGE(E360:G360,1)+LARGE(E360:G360,2))/3</f>
         <v>0.640305892937472</v>
       </c>
@@ -12981,7 +13036,9 @@
       <c r="C362" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D362" s="7"/>
+      <c r="D362" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E362" s="7">
         <v>0.732142857142857</v>
       </c>
@@ -12991,7 +13048,10 @@
       <c r="G362" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H362" s="8"/>
+      <c r="H362" s="8">
+        <f>(D362+LARGE(E362:G362,1)+LARGE(E362:G362,2))/3</f>
+        <v>0.69047619047619</v>
+      </c>
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="6">
@@ -13015,7 +13075,7 @@
       <c r="G363" s="7">
         <v>0.6</v>
       </c>
-      <c r="H363" s="5">
+      <c r="H363" s="10">
         <f>(D363+LARGE(E363:G363,1)+LARGE(E363:G363,2))/3</f>
         <v>0.630049482681062</v>
       </c>
@@ -13040,7 +13100,7 @@
       <c r="G364" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H364" s="8"/>
+      <c r="H364" s="13"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="6">
@@ -13064,7 +13124,7 @@
       <c r="G365" s="7">
         <v>0.338461538461538</v>
       </c>
-      <c r="H365" s="5">
+      <c r="H365" s="8">
         <f>(D365+LARGE(E365:G365,1)+LARGE(E365:G365,2))/3</f>
         <v>0.724269005847953</v>
       </c>
@@ -13091,7 +13151,7 @@
       <c r="G366" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H366" s="11">
+      <c r="H366" s="10">
         <f>(D366+LARGE(E366:G366,1)+LARGE(E366:G366,2))/3</f>
         <v>0.8807242465137201</v>
       </c>
@@ -13118,7 +13178,7 @@
       <c r="G367" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H367" s="11">
+      <c r="H367" s="10">
         <f>(D367+LARGE(E367:G367,1)+LARGE(E367:G367,2))/3</f>
         <v>0.7403733693207381</v>
       </c>
@@ -13143,7 +13203,7 @@
       <c r="G368" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H368" s="13"/>
+      <c r="H368" s="12"/>
     </row>
     <row r="369" ht="20.05" customHeight="1">
       <c r="A369" t="s" s="6">
@@ -13177,7 +13237,9 @@
       <c r="C370" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D370" s="7"/>
+      <c r="D370" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E370" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -13187,7 +13249,10 @@
       <c r="G370" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H370" s="8"/>
+      <c r="H370" s="8">
+        <f>(D370+LARGE(E370:G370,1)+LARGE(E370:G370,2))/3</f>
+        <v>0.678571428571428</v>
+      </c>
     </row>
     <row r="371" ht="20.05" customHeight="1">
       <c r="A371" t="s" s="6">
@@ -13211,7 +13276,7 @@
       <c r="G371" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H371" s="5">
+      <c r="H371" s="10">
         <f>(D371+LARGE(E371:G371,1)+LARGE(E371:G371,2))/3</f>
         <v>0.840755735492578</v>
       </c>
@@ -13238,7 +13303,7 @@
       <c r="G372" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H372" s="10">
+      <c r="H372" s="9">
         <f>(D372+LARGE(E372:G372,1)+LARGE(E372:G372,2))/3</f>
         <v>0.741655420602789</v>
       </c>
@@ -13265,7 +13330,7 @@
       <c r="G373" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H373" s="5">
+      <c r="H373" s="8">
         <f>(D373+LARGE(E373:G373,1)+LARGE(E373:G373,2))/3</f>
         <v>0.678812415654521</v>
       </c>
@@ -13290,7 +13355,7 @@
       <c r="G374" s="7">
         <v>0</v>
       </c>
-      <c r="H374" s="8"/>
+      <c r="H374" s="13"/>
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="6">
@@ -13314,7 +13379,7 @@
       <c r="G375" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H375" s="5">
+      <c r="H375" s="8">
         <f>(D375+LARGE(E375:G375,1)+LARGE(E375:G375,2))/3</f>
         <v>0.546558704453441</v>
       </c>
@@ -13339,7 +13404,7 @@
       <c r="G376" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H376" s="8"/>
+      <c r="H376" s="13"/>
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
@@ -13363,7 +13428,7 @@
       <c r="G377" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H377" s="5">
+      <c r="H377" s="8">
         <f>(D377+LARGE(E377:G377,1)+LARGE(E377:G377,2))/3</f>
         <v>0.6611336032388661</v>
       </c>
@@ -13388,7 +13453,7 @@
       <c r="G378" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H378" s="8"/>
+      <c r="H378" s="13"/>
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
@@ -13412,7 +13477,7 @@
       <c r="G379" s="7">
         <v>0</v>
       </c>
-      <c r="H379" s="5">
+      <c r="H379" s="8">
         <f>(D379+LARGE(E379:G379,1)+LARGE(E379:G379,2))/3</f>
         <v>0.549595141700405</v>
       </c>
@@ -13439,7 +13504,7 @@
       <c r="G380" s="7">
         <v>0</v>
       </c>
-      <c r="H380" s="11">
+      <c r="H380" s="10">
         <f>(D380+LARGE(E380:G380,1)+LARGE(E380:G380,2))/3</f>
         <v>0.654161043634728</v>
       </c>
@@ -13464,7 +13529,7 @@
       <c r="G381" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H381" s="13"/>
+      <c r="H381" s="12"/>
     </row>
     <row r="382" ht="20.05" customHeight="1">
       <c r="A382" t="s" s="6">
@@ -13498,7 +13563,9 @@
       <c r="C383" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D383" s="7"/>
+      <c r="D383" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E383" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -13508,7 +13575,10 @@
       <c r="G383" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H383" s="8"/>
+      <c r="H383" s="8">
+        <f>(D383+LARGE(E383:G383,1)+LARGE(E383:G383,2))/3</f>
+        <v>0.71092032967033</v>
+      </c>
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="6">
@@ -13532,7 +13602,7 @@
       <c r="G384" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H384" s="5">
+      <c r="H384" s="10">
         <f>(D384+LARGE(E384:G384,1)+LARGE(E384:G384,2))/3</f>
         <v>0.624921277552857</v>
       </c>
@@ -13557,7 +13627,7 @@
       <c r="G385" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H385" s="8"/>
+      <c r="H385" s="13"/>
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
@@ -13581,7 +13651,7 @@
       <c r="G386" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="H386" s="9">
+      <c r="H386" s="5">
         <f>(D386+LARGE(E386:G386,1)+LARGE(E386:G386,2))/3</f>
         <v>0.751911830859199</v>
       </c>
@@ -13608,7 +13678,7 @@
       <c r="G387" s="7">
         <v>0</v>
       </c>
-      <c r="H387" s="9">
+      <c r="H387" s="5">
         <f>(D387+LARGE(E387:G387,1)+LARGE(E387:G387,2))/3</f>
         <v>0.755465587044534</v>
       </c>
@@ -13635,7 +13705,7 @@
       <c r="G388" s="7">
         <v>0.6</v>
       </c>
-      <c r="H388" s="5">
+      <c r="H388" s="8">
         <f>(D388+LARGE(E388:G388,1)+LARGE(E388:G388,2))/3</f>
         <v>0.578182636077373</v>
       </c>
@@ -13662,7 +13732,7 @@
       <c r="G389" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H389" s="11">
+      <c r="H389" s="10">
         <f>(D389+LARGE(E389:G389,1)+LARGE(E389:G389,2))/3</f>
         <v>0.740350877192983</v>
       </c>
@@ -13689,7 +13759,7 @@
       <c r="G390" s="7">
         <v>0</v>
       </c>
-      <c r="H390" s="10">
+      <c r="H390" s="9">
         <f>(D390+LARGE(E390:G390,1)+LARGE(E390:G390,2))/3</f>
         <v>0.69604138551507</v>
       </c>
@@ -13716,7 +13786,7 @@
       <c r="G391" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H391" s="5">
+      <c r="H391" s="8">
         <f>(D391+LARGE(E391:G391,1)+LARGE(E391:G391,2))/3</f>
         <v>0.634952766531714</v>
       </c>
@@ -13743,7 +13813,7 @@
       <c r="G392" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H392" s="11">
+      <c r="H392" s="10">
         <f>(D392+LARGE(E392:G392,1)+LARGE(E392:G392,2))/3</f>
         <v>0.836077372919478</v>
       </c>
@@ -13770,7 +13840,7 @@
       <c r="G393" s="7">
         <v>0</v>
       </c>
-      <c r="H393" s="10">
+      <c r="H393" s="9">
         <f>(D393+LARGE(E393:G393,1)+LARGE(E393:G393,2))/3</f>
         <v>0.076923076923077</v>
       </c>
@@ -13797,7 +13867,7 @@
       <c r="G394" s="7">
         <v>0</v>
       </c>
-      <c r="H394" s="9">
+      <c r="H394" s="5">
         <f>(D394+LARGE(E394:G394,1)+LARGE(E394:G394,2))/3</f>
         <v>0.63625730994152</v>
       </c>
@@ -13824,7 +13894,7 @@
       <c r="G395" s="7">
         <v>0</v>
       </c>
-      <c r="H395" s="5">
+      <c r="H395" s="8">
         <f>(D395+LARGE(E395:G395,1)+LARGE(E395:G395,2))/3</f>
         <v>0.778789923526765</v>
       </c>
@@ -13849,7 +13919,7 @@
       <c r="G396" s="7">
         <v>0</v>
       </c>
-      <c r="H396" s="8"/>
+      <c r="H396" s="13"/>
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
@@ -13873,7 +13943,7 @@
       <c r="G397" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H397" s="5">
+      <c r="H397" s="8">
         <f>(D397+LARGE(E397:G397,1)+LARGE(E397:G397,2))/3</f>
         <v>0.682658569500675</v>
       </c>
@@ -13900,7 +13970,7 @@
       <c r="G398" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H398" s="11">
+      <c r="H398" s="10">
         <f>(D398+LARGE(E398:G398,1)+LARGE(E398:G398,2))/3</f>
         <v>0.6467611336032389</v>
       </c>
@@ -13925,7 +13995,7 @@
       <c r="G399" s="7">
         <v>0</v>
       </c>
-      <c r="H399" s="13"/>
+      <c r="H399" s="12"/>
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
@@ -13947,7 +14017,7 @@
       <c r="G400" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H400" s="13"/>
+      <c r="H400" s="12"/>
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
@@ -13969,7 +14039,7 @@
       <c r="G401" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H401" s="8"/>
+      <c r="H401" s="13"/>
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
@@ -13993,7 +14063,7 @@
       <c r="G402" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H402" s="5">
+      <c r="H402" s="8">
         <f>(D402+LARGE(E402:G402,1)+LARGE(E402:G402,2))/3</f>
         <v>0.347008547008547</v>
       </c>
@@ -14020,7 +14090,7 @@
       <c r="G403" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H403" s="11">
+      <c r="H403" s="10">
         <f>(D403+LARGE(E403:G403,1)+LARGE(E403:G403,2))/3</f>
         <v>0.645726495726496</v>
       </c>
@@ -14045,7 +14115,7 @@
       <c r="G404" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H404" s="8"/>
+      <c r="H404" s="13"/>
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
@@ -14069,7 +14139,7 @@
       <c r="G405" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H405" s="5">
+      <c r="H405" s="8">
         <f>(D405+LARGE(E405:G405,1)+LARGE(E405:G405,2))/3</f>
         <v>0.79331983805668</v>
       </c>
@@ -14096,7 +14166,7 @@
       <c r="G406" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H406" s="11">
+      <c r="H406" s="10">
         <f>(D406+LARGE(E406:G406,1)+LARGE(E406:G406,2))/3</f>
         <v>0.547570850202429</v>
       </c>
@@ -14121,7 +14191,7 @@
       <c r="G407" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H407" s="8"/>
+      <c r="H407" s="13"/>
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
@@ -14145,7 +14215,7 @@
       <c r="G408" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H408" s="9">
+      <c r="H408" s="5">
         <f>(D408+LARGE(E408:G408,1)+LARGE(E408:G408,2))/3</f>
         <v>0.794871794871795</v>
       </c>
@@ -14172,7 +14242,7 @@
       <c r="G409" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H409" s="5">
+      <c r="H409" s="8">
         <f>(D409+LARGE(E409:G409,1)+LARGE(E409:G409,2))/3</f>
         <v>0.789316239316239</v>
       </c>
@@ -14199,7 +14269,7 @@
       <c r="G410" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H410" s="11">
+      <c r="H410" s="10">
         <f>(D410+LARGE(E410:G410,1)+LARGE(E410:G410,2))/3</f>
         <v>0.6206477732793521</v>
       </c>
@@ -14226,7 +14296,7 @@
       <c r="G411" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H411" s="10">
+      <c r="H411" s="9">
         <f>(D411+LARGE(E411:G411,1)+LARGE(E411:G411,2))/3</f>
         <v>0.625213675213675</v>
       </c>
@@ -14253,7 +14323,7 @@
       <c r="G412" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H412" s="5">
+      <c r="H412" s="8">
         <f>(D412+LARGE(E412:G412,1)+LARGE(E412:G412,2))/3</f>
         <v>0.670692757534863</v>
       </c>
@@ -14278,7 +14348,7 @@
       <c r="G413" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H413" s="8"/>
+      <c r="H413" s="13"/>
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="6">
@@ -14302,7 +14372,7 @@
       <c r="G414" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H414" s="5">
+      <c r="H414" s="8">
         <f>(D414+LARGE(E414:G414,1)+LARGE(E414:G414,2))/3</f>
         <v>0.85706252811516</v>
       </c>
@@ -14329,7 +14399,7 @@
       <c r="G415" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H415" s="11">
+      <c r="H415" s="10">
         <f>(D415+LARGE(E415:G415,1)+LARGE(E415:G415,2))/3</f>
         <v>0.810278902384165</v>
       </c>
@@ -14356,7 +14426,7 @@
       <c r="G416" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H416" s="10">
+      <c r="H416" s="9">
         <f>(D416+LARGE(E416:G416,1)+LARGE(E416:G416,2))/3</f>
         <v>0.635380116959064</v>
       </c>
@@ -14398,7 +14468,9 @@
       <c r="C418" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D418" s="7"/>
+      <c r="D418" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E418" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -14408,7 +14480,10 @@
       <c r="G418" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H418" s="8"/>
+      <c r="H418" s="8">
+        <f>(D418+LARGE(E418:G418,1)+LARGE(E418:G418,2))/3</f>
+        <v>0.738095238095238</v>
+      </c>
     </row>
     <row r="419" ht="20.05" customHeight="1">
       <c r="A419" t="s" s="6">
@@ -14432,7 +14507,7 @@
       <c r="G419" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H419" s="5">
+      <c r="H419" s="10">
         <f>(D419+LARGE(E419:G419,1)+LARGE(E419:G419,2))/3</f>
         <v>0.647863247863248</v>
       </c>
@@ -14457,7 +14532,7 @@
       <c r="G420" s="7">
         <v>0</v>
       </c>
-      <c r="H420" s="8"/>
+      <c r="H420" s="13"/>
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="6">
@@ -14481,7 +14556,7 @@
       <c r="G421" s="7">
         <v>0.6</v>
       </c>
-      <c r="H421" s="9">
+      <c r="H421" s="5">
         <f>(D421+LARGE(E421:G421,1)+LARGE(E421:G421,2))/3</f>
         <v>0.685425101214575</v>
       </c>
@@ -14508,7 +14583,7 @@
       <c r="G422" s="7">
         <v>0</v>
       </c>
-      <c r="H422" s="9">
+      <c r="H422" s="5">
         <f>(D422+LARGE(E422:G422,1)+LARGE(E422:G422,2))/3</f>
         <v>0.683940620782726</v>
       </c>
@@ -14535,7 +14610,7 @@
       <c r="G423" s="7">
         <v>0</v>
       </c>
-      <c r="H423" s="9">
+      <c r="H423" s="5">
         <f>(D423+LARGE(E423:G423,1)+LARGE(E423:G423,2))/3</f>
         <v>0.35042735042735</v>
       </c>
@@ -14562,7 +14637,7 @@
       <c r="G424" s="7">
         <v>0</v>
       </c>
-      <c r="H424" s="5">
+      <c r="H424" s="8">
         <f>(D424+LARGE(E424:G424,1)+LARGE(E424:G424,2))/3</f>
         <v>0.8038686459739089</v>
       </c>
@@ -14587,7 +14662,7 @@
       <c r="G425" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H425" s="13"/>
+      <c r="H425" s="12"/>
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="6">
@@ -14609,7 +14684,7 @@
       <c r="G426" s="7">
         <v>0</v>
       </c>
-      <c r="H426" s="8"/>
+      <c r="H426" s="13"/>
     </row>
     <row r="427" ht="20.05" customHeight="1">
       <c r="A427" t="s" s="6">
@@ -14633,7 +14708,7 @@
       <c r="G427" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H427" s="5">
+      <c r="H427" s="8">
         <f>(D427+LARGE(E427:G427,1)+LARGE(E427:G427,2))/3</f>
         <v>0.772132253711201</v>
       </c>
@@ -14660,7 +14735,7 @@
       <c r="G428" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H428" s="11">
+      <c r="H428" s="10">
         <f>(D428+LARGE(E428:G428,1)+LARGE(E428:G428,2))/3</f>
         <v>0.72795771479982</v>
       </c>
@@ -14687,7 +14762,7 @@
       <c r="G429" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H429" s="11">
+      <c r="H429" s="10">
         <f>(D429+LARGE(E429:G429,1)+LARGE(E429:G429,2))/3</f>
         <v>0.623121907332433</v>
       </c>
@@ -14712,7 +14787,7 @@
       <c r="G430" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H430" s="13"/>
+      <c r="H430" s="12"/>
     </row>
     <row r="431" ht="20.05" customHeight="1">
       <c r="A431" t="s" s="6">
@@ -14734,7 +14809,7 @@
       <c r="G431" s="7">
         <v>0</v>
       </c>
-      <c r="H431" s="13"/>
+      <c r="H431" s="12"/>
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="6">
@@ -14756,7 +14831,7 @@
       <c r="G432" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H432" s="13"/>
+      <c r="H432" s="12"/>
     </row>
     <row r="433" ht="20.05" customHeight="1">
       <c r="A433" t="s" s="6">
@@ -14778,10 +14853,10 @@
       <c r="G433" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H433" s="13"/>
+      <c r="H433" s="12"/>
     </row>
     <row r="434" ht="20.05" customHeight="1">
-      <c r="A434" s="13"/>
+      <c r="A434" s="12"/>
       <c r="B434" t="s" s="6">
         <v>859</v>
       </c>
@@ -14798,10 +14873,10 @@
       <c r="G434" s="7">
         <v>0</v>
       </c>
-      <c r="H434" s="8"/>
+      <c r="H434" s="13"/>
     </row>
     <row r="435" ht="20.05" customHeight="1">
-      <c r="A435" s="13"/>
+      <c r="A435" s="12"/>
       <c r="B435" t="s" s="6">
         <v>860</v>
       </c>
@@ -14818,7 +14893,7 @@
       <c r="G435" s="7">
         <v>0</v>
       </c>
-      <c r="H435" s="5">
+      <c r="H435" s="8">
         <f>(D435+LARGE(E435:G435,1)+LARGE(E435:G435,2))/3</f>
         <v>0.162393162393162</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -2772,10 +2772,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4327,7 +4327,7 @@
       <c r="G17" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
         <f>(D17+LARGE(E17:G17,1)+LARGE(E17:G17,2))/3</f>
         <v>0.596491228070175</v>
       </c>
@@ -4342,7 +4342,9 @@
       <c r="C18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
       <c r="E18" s="7">
         <v>0.56140350877193</v>
       </c>
@@ -4352,7 +4354,10 @@
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="8">
+        <f>(D18+LARGE(E18:G18,1)+LARGE(E18:G18,2))/3</f>
+        <v>0.431578947368421</v>
+      </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
@@ -4376,7 +4381,7 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="10">
         <f>(D19+LARGE(E19:G19,1)+LARGE(E19:G19,2))/3</f>
         <v>0.604166666666666</v>
       </c>
@@ -4401,7 +4406,7 @@
       <c r="G20" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -4549,7 +4554,7 @@
       <c r="G26" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="6">
@@ -5075,7 +5080,7 @@
       <c r="G46" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -5097,7 +5102,7 @@
       <c r="G47" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -5139,7 +5144,7 @@
       <c r="G49" s="7">
         <v>0.6</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="5">
         <f>(D49+LARGE(E49:G49,1)+LARGE(E49:G49,2))/3</f>
         <v>0.775865946918579</v>
       </c>
@@ -5154,7 +5159,9 @@
       <c r="C50" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="7">
+        <v>0.65625</v>
+      </c>
       <c r="E50" s="7">
         <v>0.75</v>
       </c>
@@ -5164,7 +5171,10 @@
       <c r="G50" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="8">
+        <f>(D50+LARGE(E50:G50,1)+LARGE(E50:G50,2))/3</f>
+        <v>0.724702380952381</v>
+      </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -5186,7 +5196,7 @@
       <c r="G51" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="6">
@@ -5517,7 +5527,9 @@
       <c r="C64" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <v>0.71875</v>
+      </c>
       <c r="E64" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -5527,7 +5539,10 @@
       <c r="G64" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="8">
+        <f>(D64+LARGE(E64:G64,1)+LARGE(E64:G64,2))/3</f>
+        <v>0.775297619047619</v>
+      </c>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="6">
@@ -5567,7 +5582,7 @@
       <c r="G66" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="6">
@@ -5697,7 +5712,7 @@
       <c r="G71" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H71" s="13"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="6">
@@ -5721,7 +5736,7 @@
       <c r="G72" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="5">
         <f>(D72+LARGE(E72:G72,1)+LARGE(E72:G72,2))/3</f>
         <v>0.803351327035538</v>
       </c>
@@ -5736,7 +5751,9 @@
       <c r="C73" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E73" s="7">
         <v>0.589285714285714</v>
       </c>
@@ -5746,7 +5763,10 @@
       <c r="G73" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H73" s="13"/>
+      <c r="H73" s="8">
+        <f>(D73+LARGE(E73:G73,1)+LARGE(E73:G73,2))/3</f>
+        <v>0.614583333333333</v>
+      </c>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="6">
@@ -5770,7 +5790,7 @@
       <c r="G74" s="7">
         <v>0</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="10">
         <f>(D74+LARGE(E74:G74,1)+LARGE(E74:G74,2))/3</f>
         <v>0.77834008097166</v>
       </c>
@@ -5795,7 +5815,7 @@
       <c r="G75" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="6">
@@ -5829,7 +5849,9 @@
       <c r="C77" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D77" s="7"/>
+      <c r="D77" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E77" s="7">
         <v>0.767857142857143</v>
       </c>
@@ -5839,7 +5861,10 @@
       <c r="G77" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H77" s="13"/>
+      <c r="H77" s="8">
+        <f>(D77+LARGE(E77:G77,1)+LARGE(E77:G77,2))/3</f>
+        <v>0.612843406593407</v>
+      </c>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="6">
@@ -5863,7 +5888,7 @@
       <c r="G78" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="10">
         <f>(D78+LARGE(E78:G78,1)+LARGE(E78:G78,2))/3</f>
         <v>0.8245614035087721</v>
       </c>
@@ -5888,7 +5913,7 @@
       <c r="G79" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
@@ -5900,7 +5925,7 @@
       <c r="C80" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -5910,7 +5935,7 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="6">
@@ -6121,7 +6146,7 @@
       <c r="G88" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H88" s="13"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="6">
@@ -6305,7 +6330,7 @@
       <c r="G95" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="6">
@@ -6327,7 +6352,7 @@
       <c r="G96" s="7">
         <v>0</v>
       </c>
-      <c r="H96" s="13"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="6">
@@ -6484,7 +6509,7 @@
       <c r="G102" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H102" s="12"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="6">
@@ -6506,7 +6531,7 @@
       <c r="G103" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H103" s="13"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="6">
@@ -6681,7 +6706,7 @@
       <c r="G110" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H110" s="12"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="6">
@@ -6703,7 +6728,7 @@
       <c r="G111" s="7">
         <v>0.6</v>
       </c>
-      <c r="H111" s="13"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="6">
@@ -6752,7 +6777,7 @@
       <c r="G113" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H113" s="13"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="6">
@@ -6963,7 +6988,7 @@
       <c r="G121" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H121" s="13"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="6">
@@ -7039,7 +7064,7 @@
       <c r="G124" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H124" s="13"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="6">
@@ -7268,7 +7293,7 @@
       <c r="G133" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H133" s="13"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="6">
@@ -7292,7 +7317,7 @@
       <c r="G134" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H134" s="5">
         <f>(D134+LARGE(E134:G134,1)+LARGE(E134:G134,2))/3</f>
         <v>0.778857399910032</v>
       </c>
@@ -7307,7 +7332,9 @@
       <c r="C135" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E135" s="7">
         <v>0.732142857142857</v>
       </c>
@@ -7317,7 +7344,10 @@
       <c r="G135" s="7">
         <v>0.6</v>
       </c>
-      <c r="H135" s="13"/>
+      <c r="H135" s="8">
+        <f>(D135+LARGE(E135:G135,1)+LARGE(E135:G135,2))/3</f>
+        <v>0.72172619047619</v>
+      </c>
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="6">
@@ -7341,7 +7371,7 @@
       <c r="G136" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H136" s="8">
+      <c r="H136" s="10">
         <f>(D136+LARGE(E136:G136,1)+LARGE(E136:G136,2))/3</f>
         <v>0.696288798920378</v>
       </c>
@@ -7383,7 +7413,7 @@
       <c r="C138" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D138" s="12"/>
+      <c r="D138" s="13"/>
       <c r="E138" s="7">
         <v>0.526315789473684</v>
       </c>
@@ -7393,7 +7423,7 @@
       <c r="G138" s="7">
         <v>0</v>
       </c>
-      <c r="H138" s="12"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="6">
@@ -7477,7 +7507,7 @@
       <c r="C142" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D142" s="12"/>
+      <c r="D142" s="13"/>
       <c r="E142" s="7">
         <v>0.649122807017544</v>
       </c>
@@ -7487,7 +7517,7 @@
       <c r="G142" s="7">
         <v>0</v>
       </c>
-      <c r="H142" s="13"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="6">
@@ -7698,7 +7728,7 @@
       <c r="G150" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H150" s="12"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="6">
@@ -7720,7 +7750,7 @@
       <c r="G151" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H151" s="12"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="6">
@@ -7742,7 +7772,7 @@
       <c r="G152" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H152" s="13"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="6">
@@ -7980,7 +8010,7 @@
       <c r="G161" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H161" s="12"/>
+      <c r="H161" s="13"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="6">
@@ -8002,7 +8032,7 @@
       <c r="G162" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H162" s="13"/>
+      <c r="H162" s="12"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="6">
@@ -8051,7 +8081,7 @@
       <c r="G164" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H164" s="12"/>
+      <c r="H164" s="13"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="6">
@@ -8073,7 +8103,7 @@
       <c r="G165" s="7">
         <v>0.6</v>
       </c>
-      <c r="H165" s="13"/>
+      <c r="H165" s="12"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="6">
@@ -8257,7 +8287,7 @@
       <c r="G172" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H172" s="13"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="6">
@@ -8387,7 +8417,7 @@
       <c r="G177" s="7">
         <v>0</v>
       </c>
-      <c r="H177" s="13"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="6">
@@ -8426,7 +8456,7 @@
       <c r="C179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D179" s="12"/>
+      <c r="D179" s="13"/>
       <c r="E179" s="7">
         <v>0.315789473684211</v>
       </c>
@@ -8487,7 +8517,7 @@
       <c r="G181" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H181" s="10">
+      <c r="H181" s="9">
         <f>(D181+LARGE(E181:G181,1)+LARGE(E181:G181,2))/3</f>
         <v>0.805330634278002</v>
       </c>
@@ -8502,7 +8532,9 @@
       <c r="C182" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D182" s="7"/>
+      <c r="D182" s="7">
+        <v>0.375</v>
+      </c>
       <c r="E182" s="7">
         <v>0.660714285714286</v>
       </c>
@@ -8512,7 +8544,10 @@
       <c r="G182" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H182" s="13"/>
+      <c r="H182" s="8">
+        <f>(D182+LARGE(E182:G182,1)+LARGE(E182:G182,2))/3</f>
+        <v>0.541666666666667</v>
+      </c>
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="6">
@@ -8536,7 +8571,7 @@
       <c r="G183" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="9">
         <f>(D183+LARGE(E183:G183,1)+LARGE(E183:G183,2))/3</f>
         <v>0.642914979757085</v>
       </c>
@@ -8578,7 +8613,7 @@
       <c r="C185" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="D185" s="13"/>
       <c r="E185" s="7">
         <v>0.771929824561404</v>
       </c>
@@ -8588,7 +8623,7 @@
       <c r="G185" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H185" s="12"/>
+      <c r="H185" s="13"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="6">
@@ -8610,7 +8645,7 @@
       <c r="G186" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H186" s="12"/>
+      <c r="H186" s="13"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="6">
@@ -8622,7 +8657,7 @@
       <c r="C187" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D187" s="12"/>
+      <c r="D187" s="13"/>
       <c r="E187" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -8632,7 +8667,7 @@
       <c r="G187" s="7">
         <v>0</v>
       </c>
-      <c r="H187" s="12"/>
+      <c r="H187" s="13"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="6">
@@ -8654,7 +8689,7 @@
       <c r="G188" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H188" s="13"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="6">
@@ -8693,7 +8728,7 @@
       <c r="C190" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D190" s="12"/>
+      <c r="D190" s="13"/>
       <c r="E190" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -8703,7 +8738,7 @@
       <c r="G190" s="7">
         <v>0</v>
       </c>
-      <c r="H190" s="13"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="6">
@@ -8752,7 +8787,7 @@
       <c r="G192" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H192" s="13"/>
+      <c r="H192" s="12"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="6">
@@ -8927,7 +8962,7 @@
       <c r="G199" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H199" s="13"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" t="s" s="6">
@@ -9030,7 +9065,7 @@
       <c r="G203" s="7">
         <v>0</v>
       </c>
-      <c r="H203" s="13"/>
+      <c r="H203" s="12"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="6">
@@ -9187,7 +9222,7 @@
       <c r="G209" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H209" s="13"/>
+      <c r="H209" s="12"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="6">
@@ -9317,7 +9352,7 @@
       <c r="G214" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H214" s="13"/>
+      <c r="H214" s="12"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="6">
@@ -9573,7 +9608,7 @@
       <c r="G224" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H224" s="13"/>
+      <c r="H224" s="12"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="6">
@@ -9742,7 +9777,9 @@
       <c r="C231" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D231" s="7"/>
+      <c r="D231" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E231" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -9752,7 +9789,10 @@
       <c r="G231" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H231" s="13"/>
+      <c r="H231" s="8">
+        <f>(D231+LARGE(E231:G231,1)+LARGE(E231:G231,2))/3</f>
+        <v>0.748511904761905</v>
+      </c>
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="6">
@@ -9776,7 +9816,7 @@
       <c r="G232" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H232" s="5">
+      <c r="H232" s="9">
         <f>(D232+LARGE(E232:G232,1)+LARGE(E232:G232,2))/3</f>
         <v>0.778789923526765</v>
       </c>
@@ -9845,7 +9885,7 @@
       <c r="C235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D235" s="12"/>
+      <c r="D235" s="13"/>
       <c r="E235" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -9855,7 +9895,7 @@
       <c r="G235" s="7">
         <v>0</v>
       </c>
-      <c r="H235" s="12"/>
+      <c r="H235" s="13"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="6">
@@ -9877,7 +9917,7 @@
       <c r="G236" s="7">
         <v>0</v>
       </c>
-      <c r="H236" s="13"/>
+      <c r="H236" s="12"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="6">
@@ -9953,7 +9993,7 @@
       <c r="G239" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H239" s="13"/>
+      <c r="H239" s="12"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="6">
@@ -9992,7 +10032,7 @@
       <c r="C241" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D241" s="12"/>
+      <c r="D241" s="13"/>
       <c r="E241" s="7">
         <v>0.245614035087719</v>
       </c>
@@ -10002,7 +10042,7 @@
       <c r="G241" s="7">
         <v>0</v>
       </c>
-      <c r="H241" s="12"/>
+      <c r="H241" s="13"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
@@ -10024,7 +10064,7 @@
       <c r="G242" s="7">
         <v>0.6</v>
       </c>
-      <c r="H242" s="12"/>
+      <c r="H242" s="13"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
@@ -10046,7 +10086,7 @@
       <c r="G243" s="7">
         <v>0</v>
       </c>
-      <c r="H243" s="12"/>
+      <c r="H243" s="13"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
@@ -10068,7 +10108,7 @@
       <c r="G244" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H244" s="13"/>
+      <c r="H244" s="12"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="6">
@@ -10117,7 +10157,7 @@
       <c r="G246" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H246" s="13"/>
+      <c r="H246" s="12"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
@@ -10247,7 +10287,7 @@
       <c r="G251" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H251" s="13"/>
+      <c r="H251" s="12"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
@@ -10323,7 +10363,7 @@
       <c r="G254" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H254" s="12"/>
+      <c r="H254" s="13"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
@@ -10345,7 +10385,7 @@
       <c r="G255" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H255" s="13"/>
+      <c r="H255" s="12"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
@@ -10900,7 +10940,7 @@
       <c r="G276" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H276" s="10">
+      <c r="H276" s="9">
         <f>(D276+LARGE(E276:G276,1)+LARGE(E276:G276,2))/3</f>
         <v>0.718421052631579</v>
       </c>
@@ -10915,7 +10955,9 @@
       <c r="C277" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D277" s="7"/>
+      <c r="D277" s="7">
+        <v>0.78125</v>
+      </c>
       <c r="E277" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -10925,7 +10967,10 @@
       <c r="G277" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H277" s="12"/>
+      <c r="H277" s="8">
+        <f>(D277+LARGE(E277:G277,1)+LARGE(E277:G277,2))/3</f>
+        <v>0.799885531135531</v>
+      </c>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="6">
@@ -10947,7 +10992,7 @@
       <c r="G278" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H278" s="12"/>
+      <c r="H278" s="13"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="6">
@@ -10969,7 +11014,7 @@
       <c r="G279" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H279" s="13"/>
+      <c r="H279" s="12"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="6">
@@ -11045,7 +11090,7 @@
       <c r="G282" s="7">
         <v>0</v>
       </c>
-      <c r="H282" s="12"/>
+      <c r="H282" s="13"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="6">
@@ -11067,7 +11112,7 @@
       <c r="G283" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H283" s="13"/>
+      <c r="H283" s="12"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="6">
@@ -11116,7 +11161,7 @@
       <c r="G285" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H285" s="12"/>
+      <c r="H285" s="13"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="6">
@@ -11138,7 +11183,7 @@
       <c r="G286" s="7">
         <v>0</v>
       </c>
-      <c r="H286" s="13"/>
+      <c r="H286" s="12"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
@@ -11214,7 +11259,7 @@
       <c r="G289" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H289" s="13"/>
+      <c r="H289" s="12"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="6">
@@ -11398,7 +11443,7 @@
       <c r="G296" s="7">
         <v>0</v>
       </c>
-      <c r="H296" s="12"/>
+      <c r="H296" s="13"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="6">
@@ -11420,7 +11465,7 @@
       <c r="G297" s="7">
         <v>0</v>
       </c>
-      <c r="H297" s="13"/>
+      <c r="H297" s="12"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="6">
@@ -11550,7 +11595,7 @@
       <c r="G302" s="7">
         <v>0</v>
       </c>
-      <c r="H302" s="13"/>
+      <c r="H302" s="12"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
@@ -11626,7 +11671,7 @@
       <c r="G305" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H305" s="12"/>
+      <c r="H305" s="13"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
@@ -11648,7 +11693,7 @@
       <c r="G306" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H306" s="13"/>
+      <c r="H306" s="12"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="6">
@@ -11726,7 +11771,7 @@
       <c r="G309" s="7">
         <v>0.6</v>
       </c>
-      <c r="H309" s="8">
+      <c r="H309" s="5">
         <f>(D309+LARGE(E309:G309,1)+LARGE(E309:G309,2))/3</f>
         <v>0.696063877642825</v>
       </c>
@@ -11741,7 +11786,9 @@
       <c r="C310" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D310" s="7"/>
+      <c r="D310" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E310" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -11751,7 +11798,10 @@
       <c r="G310" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H310" s="12"/>
+      <c r="H310" s="5">
+        <f>(D310+LARGE(E310:G310,1)+LARGE(E310:G310,2))/3</f>
+        <v>0.737385531135531</v>
+      </c>
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="6">
@@ -11763,7 +11813,9 @@
       <c r="C311" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D311" s="7"/>
+      <c r="D311" s="7">
+        <v>0.40625</v>
+      </c>
       <c r="E311" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -11773,7 +11825,10 @@
       <c r="G311" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H311" s="12"/>
+      <c r="H311" s="8">
+        <f>(D311+LARGE(E311:G311,1)+LARGE(E311:G311,2))/3</f>
+        <v>0.587797619047619</v>
+      </c>
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="6">
@@ -11795,7 +11850,7 @@
       <c r="G312" s="7">
         <v>0.276923076923077</v>
       </c>
-      <c r="H312" s="13"/>
+      <c r="H312" s="12"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
@@ -11844,7 +11899,7 @@
       <c r="G314" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H314" s="13"/>
+      <c r="H314" s="12"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
@@ -12001,7 +12056,7 @@
       <c r="G320" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H320" s="12"/>
+      <c r="H320" s="13"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="6">
@@ -12023,7 +12078,7 @@
       <c r="G321" s="7">
         <v>0.6</v>
       </c>
-      <c r="H321" s="13"/>
+      <c r="H321" s="12"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="6">
@@ -12207,7 +12262,7 @@
       <c r="G328" s="7">
         <v>0</v>
       </c>
-      <c r="H328" s="12"/>
+      <c r="H328" s="13"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="6">
@@ -12229,7 +12284,7 @@
       <c r="G329" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H329" s="12"/>
+      <c r="H329" s="13"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="6">
@@ -12251,7 +12306,7 @@
       <c r="G330" s="7">
         <v>0.6</v>
       </c>
-      <c r="H330" s="13"/>
+      <c r="H330" s="12"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="6">
@@ -12300,7 +12355,7 @@
       <c r="G332" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H332" s="13"/>
+      <c r="H332" s="12"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
@@ -12403,7 +12458,7 @@
       <c r="G336" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H336" s="13"/>
+      <c r="H336" s="12"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" t="s" s="6">
@@ -12506,7 +12561,7 @@
       <c r="G340" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H340" s="13"/>
+      <c r="H340" s="12"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" t="s" s="6">
@@ -12555,7 +12610,7 @@
       <c r="G342" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H342" s="12"/>
+      <c r="H342" s="13"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
@@ -12577,7 +12632,7 @@
       <c r="G343" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H343" s="12"/>
+      <c r="H343" s="13"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
@@ -12599,7 +12654,7 @@
       <c r="G344" s="7">
         <v>0</v>
       </c>
-      <c r="H344" s="13"/>
+      <c r="H344" s="12"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
@@ -12768,7 +12823,9 @@
       <c r="C351" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D351" s="7"/>
+      <c r="D351" s="7">
+        <v>0.875</v>
+      </c>
       <c r="E351" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -12778,7 +12835,10 @@
       <c r="G351" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H351" s="12"/>
+      <c r="H351" s="8">
+        <f>(D351+LARGE(E351:G351,1)+LARGE(E351:G351,2))/3</f>
+        <v>0.863095238095238</v>
+      </c>
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="6">
@@ -12800,7 +12860,7 @@
       <c r="G352" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H352" s="12"/>
+      <c r="H352" s="13"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="6">
@@ -12867,7 +12927,7 @@
       <c r="G355" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H355" s="13"/>
+      <c r="H355" s="12"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
@@ -13024,7 +13084,7 @@
       <c r="G361" s="7">
         <v>0</v>
       </c>
-      <c r="H361" s="13"/>
+      <c r="H361" s="12"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
       <c r="A362" t="s" s="6">
@@ -13100,7 +13160,7 @@
       <c r="G364" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H364" s="13"/>
+      <c r="H364" s="12"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="6">
@@ -13215,7 +13275,9 @@
       <c r="C369" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D369" s="7"/>
+      <c r="D369" s="7">
+        <v>0.65625</v>
+      </c>
       <c r="E369" s="7">
         <v>0.607142857142857</v>
       </c>
@@ -13225,7 +13287,10 @@
       <c r="G369" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H369" s="13"/>
+      <c r="H369" s="8">
+        <f>(D369+LARGE(E369:G369,1)+LARGE(E369:G369,2))/3</f>
+        <v>0.65922619047619</v>
+      </c>
     </row>
     <row r="370" ht="20.05" customHeight="1">
       <c r="A370" t="s" s="6">
@@ -13249,7 +13314,7 @@
       <c r="G370" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H370" s="8">
+      <c r="H370" s="10">
         <f>(D370+LARGE(E370:G370,1)+LARGE(E370:G370,2))/3</f>
         <v>0.678571428571428</v>
       </c>
@@ -13355,7 +13420,7 @@
       <c r="G374" s="7">
         <v>0</v>
       </c>
-      <c r="H374" s="13"/>
+      <c r="H374" s="12"/>
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="6">
@@ -13404,7 +13469,7 @@
       <c r="G376" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H376" s="13"/>
+      <c r="H376" s="12"/>
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
@@ -13453,7 +13518,7 @@
       <c r="G378" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H378" s="13"/>
+      <c r="H378" s="12"/>
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
@@ -13541,7 +13606,9 @@
       <c r="C382" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D382" s="7"/>
+      <c r="D382" s="7">
+        <v>0</v>
+      </c>
       <c r="E382" s="7">
         <v>0.368421052631579</v>
       </c>
@@ -13551,7 +13618,10 @@
       <c r="G382" s="7">
         <v>0</v>
       </c>
-      <c r="H382" s="13"/>
+      <c r="H382" s="8">
+        <f>(D382+LARGE(E382:G382,1)+LARGE(E382:G382,2))/3</f>
+        <v>0.12280701754386</v>
+      </c>
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="6">
@@ -13575,7 +13645,7 @@
       <c r="G383" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H383" s="8">
+      <c r="H383" s="10">
         <f>(D383+LARGE(E383:G383,1)+LARGE(E383:G383,2))/3</f>
         <v>0.71092032967033</v>
       </c>
@@ -13627,7 +13697,7 @@
       <c r="G385" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H385" s="13"/>
+      <c r="H385" s="12"/>
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
@@ -13919,7 +13989,7 @@
       <c r="G396" s="7">
         <v>0</v>
       </c>
-      <c r="H396" s="13"/>
+      <c r="H396" s="12"/>
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
@@ -13995,7 +14065,7 @@
       <c r="G399" s="7">
         <v>0</v>
       </c>
-      <c r="H399" s="12"/>
+      <c r="H399" s="13"/>
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
@@ -14017,7 +14087,7 @@
       <c r="G400" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H400" s="12"/>
+      <c r="H400" s="13"/>
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
@@ -14039,7 +14109,7 @@
       <c r="G401" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H401" s="13"/>
+      <c r="H401" s="12"/>
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
@@ -14115,7 +14185,7 @@
       <c r="G404" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H404" s="13"/>
+      <c r="H404" s="12"/>
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
@@ -14191,7 +14261,7 @@
       <c r="G407" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H407" s="13"/>
+      <c r="H407" s="12"/>
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
@@ -14323,7 +14393,7 @@
       <c r="G412" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H412" s="8">
+      <c r="H412" s="5">
         <f>(D412+LARGE(E412:G412,1)+LARGE(E412:G412,2))/3</f>
         <v>0.670692757534863</v>
       </c>
@@ -14338,7 +14408,9 @@
       <c r="C413" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D413" s="7"/>
+      <c r="D413" s="7">
+        <v>0.65625</v>
+      </c>
       <c r="E413" s="7">
         <v>0.678571428571429</v>
       </c>
@@ -14348,7 +14420,10 @@
       <c r="G413" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H413" s="13"/>
+      <c r="H413" s="8">
+        <f>(D413+LARGE(E413:G413,1)+LARGE(E413:G413,2))/3</f>
+        <v>0.730654761904762</v>
+      </c>
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="6">
@@ -14372,7 +14447,7 @@
       <c r="G414" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H414" s="8">
+      <c r="H414" s="10">
         <f>(D414+LARGE(E414:G414,1)+LARGE(E414:G414,2))/3</f>
         <v>0.85706252811516</v>
       </c>
@@ -14532,7 +14607,7 @@
       <c r="G420" s="7">
         <v>0</v>
       </c>
-      <c r="H420" s="13"/>
+      <c r="H420" s="12"/>
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="6">
@@ -14674,7 +14749,9 @@
       <c r="C426" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D426" s="7"/>
+      <c r="D426" s="7">
+        <v>0</v>
+      </c>
       <c r="E426" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -14684,7 +14761,10 @@
       <c r="G426" s="7">
         <v>0</v>
       </c>
-      <c r="H426" s="13"/>
+      <c r="H426" s="8">
+        <f>(D426+LARGE(E426:G426,1)+LARGE(E426:G426,2))/3</f>
+        <v>0.479824561403509</v>
+      </c>
     </row>
     <row r="427" ht="20.05" customHeight="1">
       <c r="A427" t="s" s="6">
@@ -14708,7 +14788,7 @@
       <c r="G427" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H427" s="8">
+      <c r="H427" s="10">
         <f>(D427+LARGE(E427:G427,1)+LARGE(E427:G427,2))/3</f>
         <v>0.772132253711201</v>
       </c>
@@ -14787,7 +14867,7 @@
       <c r="G430" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H430" s="12"/>
+      <c r="H430" s="13"/>
     </row>
     <row r="431" ht="20.05" customHeight="1">
       <c r="A431" t="s" s="6">
@@ -14809,7 +14889,7 @@
       <c r="G431" s="7">
         <v>0</v>
       </c>
-      <c r="H431" s="12"/>
+      <c r="H431" s="13"/>
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="6">
@@ -14831,7 +14911,7 @@
       <c r="G432" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H432" s="12"/>
+      <c r="H432" s="13"/>
     </row>
     <row r="433" ht="20.05" customHeight="1">
       <c r="A433" t="s" s="6">
@@ -14853,10 +14933,10 @@
       <c r="G433" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H433" s="12"/>
+      <c r="H433" s="13"/>
     </row>
     <row r="434" ht="20.05" customHeight="1">
-      <c r="A434" s="12"/>
+      <c r="A434" s="13"/>
       <c r="B434" t="s" s="6">
         <v>859</v>
       </c>
@@ -14873,10 +14953,10 @@
       <c r="G434" s="7">
         <v>0</v>
       </c>
-      <c r="H434" s="13"/>
+      <c r="H434" s="12"/>
     </row>
     <row r="435" ht="20.05" customHeight="1">
-      <c r="A435" s="12"/>
+      <c r="A435" s="13"/>
       <c r="B435" t="s" s="6">
         <v>860</v>
       </c>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -709,12 +709,12 @@
     <t>GARIKAI</t>
   </si>
   <si>
+    <t>H200619N</t>
+  </si>
+  <si>
     <t>H200628T</t>
   </si>
   <si>
-    <t>H200619N</t>
-  </si>
-  <si>
     <t>GARIRAI</t>
   </si>
   <si>
@@ -1396,12 +1396,12 @@
     <t>MATEKO</t>
   </si>
   <si>
+    <t>H200846J</t>
+  </si>
+  <si>
     <t>H200765E</t>
   </si>
   <si>
-    <t>H200846J</t>
-  </si>
-  <si>
     <t>MATICHA</t>
   </si>
   <si>
@@ -1537,12 +1537,12 @@
     <t>MOYO</t>
   </si>
   <si>
+    <t>H190116F</t>
+  </si>
+  <si>
     <t>H200632C</t>
   </si>
   <si>
-    <t>H190116F</t>
-  </si>
-  <si>
     <t>MPAKAME</t>
   </si>
   <si>
@@ -1591,12 +1591,12 @@
     <t>MUCHENJE</t>
   </si>
   <si>
+    <t>H200271Y</t>
+  </si>
+  <si>
     <t>H200423X</t>
   </si>
   <si>
-    <t>H200271Y</t>
-  </si>
-  <si>
     <t>MUCHINERIPI</t>
   </si>
   <si>
@@ -1630,12 +1630,12 @@
     <t>MUDIWA</t>
   </si>
   <si>
+    <t>H200836V</t>
+  </si>
+  <si>
     <t>H200623M</t>
   </si>
   <si>
-    <t>H200836V</t>
-  </si>
-  <si>
     <t>MUDUMANI</t>
   </si>
   <si>
@@ -1777,12 +1777,12 @@
     <t>MUNYORO</t>
   </si>
   <si>
+    <t>H200460A</t>
+  </si>
+  <si>
     <t>H190091Z</t>
   </si>
   <si>
-    <t>H200460A</t>
-  </si>
-  <si>
     <t>MUPONDA</t>
   </si>
   <si>
@@ -2176,12 +2176,12 @@
     <t>NYAMUKAPA</t>
   </si>
   <si>
+    <t>H200138P</t>
+  </si>
+  <si>
     <t>H200780N</t>
   </si>
   <si>
-    <t>H200138P</t>
-  </si>
-  <si>
     <t>NYAMUWOMBA</t>
   </si>
   <si>
@@ -2227,15 +2227,15 @@
     <t>NYONI</t>
   </si>
   <si>
+    <t>H200464R</t>
+  </si>
+  <si>
+    <t>H200655J</t>
+  </si>
+  <si>
     <t>H200329M</t>
   </si>
   <si>
-    <t>H200464R</t>
-  </si>
-  <si>
-    <t>H200655J</t>
-  </si>
-  <si>
     <t>NZIRA</t>
   </si>
   <si>
@@ -2518,12 +2518,12 @@
     <t>ZENDA</t>
   </si>
   <si>
+    <t>H200309F</t>
+  </si>
+  <si>
     <t>H190185X</t>
   </si>
   <si>
-    <t>H200309F</t>
-  </si>
-  <si>
     <t>ZHANDA</t>
   </si>
   <si>
@@ -2590,10 +2590,10 @@
     <t>H200606H</t>
   </si>
   <si>
+    <t>H180218G</t>
+  </si>
+  <si>
     <t>H180721J</t>
-  </si>
-  <si>
-    <t>H180218G</t>
   </si>
 </sst>
 </file>
@@ -2646,7 +2646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2714,28 +2714,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2778,9 +2763,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2802,7 +2784,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -5790,7 +5771,7 @@
       <c r="G74" s="7">
         <v>0</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <f>(D74+LARGE(E74:G74,1)+LARGE(E74:G74,2))/3</f>
         <v>0.77834008097166</v>
       </c>
@@ -5805,7 +5786,9 @@
       <c r="C75" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
       <c r="E75" s="7">
         <v>0.736842105263158</v>
       </c>
@@ -5815,7 +5798,10 @@
       <c r="G75" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="5">
+        <f>(D75+LARGE(E75:G75,1)+LARGE(E75:G75,2))/3</f>
+        <v>0.368690958164642</v>
+      </c>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="6">
@@ -5827,7 +5813,9 @@
       <c r="C76" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
       <c r="E76" s="7">
         <v>0.456140350877193</v>
       </c>
@@ -5837,7 +5825,10 @@
       <c r="G76" s="7">
         <v>0</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="8">
+        <f>(D76+LARGE(E76:G76,1)+LARGE(E76:G76,2))/3</f>
+        <v>0.152046783625731</v>
+      </c>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="6">
@@ -5861,7 +5852,7 @@
       <c r="G77" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="10">
         <f>(D77+LARGE(E77:G77,1)+LARGE(E77:G77,2))/3</f>
         <v>0.612843406593407</v>
       </c>
@@ -5913,7 +5904,7 @@
       <c r="G79" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
@@ -5925,7 +5916,9 @@
       <c r="C80" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D80" s="13"/>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
       <c r="E80" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -5935,7 +5928,10 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="12"/>
+      <c r="H80" s="8">
+        <f>(D80+LARGE(E80:G80,1)+LARGE(E80:G80,2))/3</f>
+        <v>0.233918128654971</v>
+      </c>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="6">
@@ -5959,7 +5955,7 @@
       <c r="G81" s="7">
         <v>0</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="9">
         <f>(D81+LARGE(E81:G81,1)+LARGE(E81:G81,2))/3</f>
         <v>0.726248313090418</v>
       </c>
@@ -6706,7 +6702,7 @@
       <c r="G110" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H110" s="13"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="6">
@@ -6716,19 +6712,24 @@
         <v>232</v>
       </c>
       <c r="C111" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="D111" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.435897435897436</v>
+      </c>
       <c r="E111" s="7">
-        <v>0.642857142857143</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F111" s="7">
-        <v>0.910714285714285</v>
+        <v>0</v>
       </c>
       <c r="G111" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H111" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
+        <f>(D111+LARGE(E111:G111,1)+LARGE(E111:G111,2))/3</f>
+        <v>0.38506522717049</v>
+      </c>
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="6">
@@ -6738,24 +6739,19 @@
         <v>233</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D112" s="7">
-        <v>0.435897435897436</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D112" s="7"/>
       <c r="E112" s="7">
-        <v>0.719298245614035</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F112" s="7">
-        <v>0</v>
+        <v>0.910714285714285</v>
       </c>
       <c r="G112" s="7">
-        <v>0</v>
-      </c>
-      <c r="H112" s="8">
-        <f>(D112+LARGE(E112:G112,1)+LARGE(E112:G112,2))/3</f>
-        <v>0.38506522717049</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="6">
@@ -7398,7 +7394,7 @@
       <c r="G137" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H137" s="10">
+      <c r="H137" s="9">
         <f>(D137+LARGE(E137:G137,1)+LARGE(E137:G137,2))/3</f>
         <v>0.474358974358974</v>
       </c>
@@ -7413,7 +7409,9 @@
       <c r="C138" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D138" s="13"/>
+      <c r="D138" s="10">
+        <v>0</v>
+      </c>
       <c r="E138" s="7">
         <v>0.526315789473684</v>
       </c>
@@ -7423,7 +7421,10 @@
       <c r="G138" s="7">
         <v>0</v>
       </c>
-      <c r="H138" s="13"/>
+      <c r="H138" s="8">
+        <f>(D138+LARGE(E138:G138,1)+LARGE(E138:G138,2))/3</f>
+        <v>0.175438596491228</v>
+      </c>
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="6">
@@ -7492,7 +7493,7 @@
       <c r="G141" s="7">
         <v>0.8</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="9">
         <f>(D141+LARGE(E141:G141,1)+LARGE(E141:G141,2))/3</f>
         <v>0.862820512820513</v>
       </c>
@@ -7507,7 +7508,9 @@
       <c r="C142" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D142" s="13"/>
+      <c r="D142" s="10">
+        <v>0</v>
+      </c>
       <c r="E142" s="7">
         <v>0.649122807017544</v>
       </c>
@@ -7517,7 +7520,10 @@
       <c r="G142" s="7">
         <v>0</v>
       </c>
-      <c r="H142" s="12"/>
+      <c r="H142" s="8">
+        <f>(D142+LARGE(E142:G142,1)+LARGE(E142:G142,2))/3</f>
+        <v>0.349707602339181</v>
+      </c>
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="6">
@@ -7541,7 +7547,7 @@
       <c r="G143" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H143" s="8">
+      <c r="H143" s="10">
         <f>(D143+LARGE(E143:G143,1)+LARGE(E143:G143,2))/3</f>
         <v>0.647435897435897</v>
       </c>
@@ -8392,7 +8398,7 @@
       <c r="G176" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H176" s="10">
+      <c r="H176" s="9">
         <f>(D176+LARGE(E176:G176,1)+LARGE(E176:G176,2))/3</f>
         <v>0.62519118308592</v>
       </c>
@@ -8407,7 +8413,9 @@
       <c r="C177" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D177" s="7"/>
+      <c r="D177" s="7">
+        <v>0</v>
+      </c>
       <c r="E177" s="7">
         <v>0.543859649122807</v>
       </c>
@@ -8417,7 +8425,10 @@
       <c r="G177" s="7">
         <v>0</v>
       </c>
-      <c r="H177" s="12"/>
+      <c r="H177" s="8">
+        <f>(D177+LARGE(E177:G177,1)+LARGE(E177:G177,2))/3</f>
+        <v>0.181286549707602</v>
+      </c>
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="6">
@@ -8441,7 +8452,7 @@
       <c r="G178" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H178" s="8">
+      <c r="H178" s="9">
         <f>(D178+LARGE(E178:G178,1)+LARGE(E178:G178,2))/3</f>
         <v>0.745883940620782</v>
       </c>
@@ -8456,7 +8467,9 @@
       <c r="C179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D179" s="13"/>
+      <c r="D179" s="10">
+        <v>0</v>
+      </c>
       <c r="E179" s="7">
         <v>0.315789473684211</v>
       </c>
@@ -8466,7 +8479,10 @@
       <c r="G179" s="7">
         <v>0</v>
       </c>
-      <c r="H179" s="14"/>
+      <c r="H179" s="8">
+        <f>(D179+LARGE(E179:G179,1)+LARGE(E179:G179,2))/3</f>
+        <v>0.105263157894737</v>
+      </c>
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="6">
@@ -8490,7 +8506,7 @@
       <c r="G180" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H180" s="8">
+      <c r="H180" s="10">
         <f>(D180+LARGE(E180:G180,1)+LARGE(E180:G180,2))/3</f>
         <v>0.772132253711201</v>
       </c>
@@ -8598,7 +8614,7 @@
       <c r="G184" s="7">
         <v>0</v>
       </c>
-      <c r="H184" s="8">
+      <c r="H184" s="5">
         <f>(D184+LARGE(E184:G184,1)+LARGE(E184:G184,2))/3</f>
         <v>0.663202878992353</v>
       </c>
@@ -8613,7 +8629,9 @@
       <c r="C185" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D185" s="13"/>
+      <c r="D185" s="10">
+        <v>0</v>
+      </c>
       <c r="E185" s="7">
         <v>0.771929824561404</v>
       </c>
@@ -8623,7 +8641,10 @@
       <c r="G185" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H185" s="13"/>
+      <c r="H185" s="8">
+        <f>(D185+LARGE(E185:G185,1)+LARGE(E185:G185,2))/3</f>
+        <v>0.482950967161494</v>
+      </c>
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="6">
@@ -8645,7 +8666,7 @@
       <c r="G186" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H186" s="13"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="6">
@@ -8657,7 +8678,9 @@
       <c r="C187" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D187" s="13"/>
+      <c r="D187" s="10">
+        <v>0</v>
+      </c>
       <c r="E187" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -8667,7 +8690,10 @@
       <c r="G187" s="7">
         <v>0</v>
       </c>
-      <c r="H187" s="13"/>
+      <c r="H187" s="8">
+        <f>(D187+LARGE(E187:G187,1)+LARGE(E187:G187,2))/3</f>
+        <v>0.530116959064327</v>
+      </c>
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="6">
@@ -8713,7 +8739,7 @@
       <c r="G189" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H189" s="8">
+      <c r="H189" s="5">
         <f>(D189+LARGE(E189:G189,1)+LARGE(E189:G189,2))/3</f>
         <v>0.5895861448493031</v>
       </c>
@@ -8728,7 +8754,9 @@
       <c r="C190" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D190" s="13"/>
+      <c r="D190" s="10">
+        <v>0</v>
+      </c>
       <c r="E190" s="7">
         <v>0.666666666666667</v>
       </c>
@@ -8738,7 +8766,10 @@
       <c r="G190" s="7">
         <v>0</v>
       </c>
-      <c r="H190" s="12"/>
+      <c r="H190" s="8">
+        <f>(D190+LARGE(E190:G190,1)+LARGE(E190:G190,2))/3</f>
+        <v>0.438888888888889</v>
+      </c>
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="6">
@@ -8762,7 +8793,7 @@
       <c r="G191" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H191" s="8">
+      <c r="H191" s="10">
         <f>(D191+LARGE(E191:G191,1)+LARGE(E191:G191,2))/3</f>
         <v>0.613247863247863</v>
       </c>
@@ -9040,7 +9071,7 @@
       <c r="G202" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H202" s="8">
+      <c r="H202" s="5">
         <f>(D202+LARGE(E202:G202,1)+LARGE(E202:G202,2))/3</f>
         <v>0.835807467386415</v>
       </c>
@@ -9055,7 +9086,9 @@
       <c r="C203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D203" s="7"/>
+      <c r="D203" s="7">
+        <v>0</v>
+      </c>
       <c r="E203" s="7">
         <v>0</v>
       </c>
@@ -9065,7 +9098,10 @@
       <c r="G203" s="7">
         <v>0</v>
       </c>
-      <c r="H203" s="12"/>
+      <c r="H203" s="8">
+        <f>(D203+LARGE(E203:G203,1)+LARGE(E203:G203,2))/3</f>
+        <v>0.233333333333333</v>
+      </c>
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="6">
@@ -9089,7 +9125,7 @@
       <c r="G204" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H204" s="5">
+      <c r="H204" s="9">
         <f>(D204+LARGE(E204:G204,1)+LARGE(E204:G204,2))/3</f>
         <v>0.606747638326585</v>
       </c>
@@ -9672,23 +9708,23 @@
         <v>461</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D227" s="7">
-        <v>0.564102564102564</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E227" s="7">
-        <v>0.754385964912281</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="F227" s="7">
-        <v>0.783333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G227" s="7">
         <v>0.584615384615385</v>
       </c>
       <c r="H227" s="5">
         <f>(D227+LARGE(E227:G227,1)+LARGE(E227:G227,2))/3</f>
-        <v>0.700607287449393</v>
+        <v>0.848515519568151</v>
       </c>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -9699,23 +9735,23 @@
         <v>462</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D228" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E228" s="7">
-        <v>0.859649122807018</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F228" s="7">
-        <v>0.916666666666666</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G228" s="7">
         <v>0.584615384615385</v>
       </c>
       <c r="H228" s="5">
         <f>(D228+LARGE(E228:G228,1)+LARGE(E228:G228,2))/3</f>
-        <v>0.848515519568151</v>
+        <v>0.700607287449393</v>
       </c>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -9870,7 +9906,7 @@
       <c r="G234" s="7">
         <v>0.323076923076923</v>
       </c>
-      <c r="H234" s="10">
+      <c r="H234" s="9">
         <f>(D234+LARGE(E234:G234,1)+LARGE(E234:G234,2))/3</f>
         <v>0.354700854700855</v>
       </c>
@@ -9885,7 +9921,9 @@
       <c r="C235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D235" s="13"/>
+      <c r="D235" s="10">
+        <v>0</v>
+      </c>
       <c r="E235" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -9895,7 +9933,10 @@
       <c r="G235" s="7">
         <v>0</v>
       </c>
-      <c r="H235" s="13"/>
+      <c r="H235" s="8">
+        <f>(D235+LARGE(E235:G235,1)+LARGE(E235:G235,2))/3</f>
+        <v>0.251461988304094</v>
+      </c>
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="6">
@@ -10017,7 +10058,7 @@
       <c r="G240" s="7">
         <v>0</v>
       </c>
-      <c r="H240" s="8">
+      <c r="H240" s="5">
         <f>(D240+LARGE(E240:G240,1)+LARGE(E240:G240,2))/3</f>
         <v>0.781826360773729</v>
       </c>
@@ -10032,7 +10073,9 @@
       <c r="C241" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D241" s="13"/>
+      <c r="D241" s="10">
+        <v>0</v>
+      </c>
       <c r="E241" s="7">
         <v>0.245614035087719</v>
       </c>
@@ -10042,7 +10085,10 @@
       <c r="G241" s="7">
         <v>0</v>
       </c>
-      <c r="H241" s="13"/>
+      <c r="H241" s="8">
+        <f>(D241+LARGE(E241:G241,1)+LARGE(E241:G241,2))/3</f>
+        <v>0.08187134502923971</v>
+      </c>
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="6">
@@ -10064,7 +10110,7 @@
       <c r="G242" s="7">
         <v>0.6</v>
       </c>
-      <c r="H242" s="13"/>
+      <c r="H242" s="12"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
@@ -10076,7 +10122,9 @@
       <c r="C243" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D243" s="7"/>
+      <c r="D243" s="7">
+        <v>0</v>
+      </c>
       <c r="E243" s="7">
         <v>0.614035087719298</v>
       </c>
@@ -10086,7 +10134,10 @@
       <c r="G243" s="7">
         <v>0</v>
       </c>
-      <c r="H243" s="13"/>
+      <c r="H243" s="8">
+        <f>(D243+LARGE(E243:G243,1)+LARGE(E243:G243,2))/3</f>
+        <v>0.204678362573099</v>
+      </c>
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="6">
@@ -10098,7 +10149,9 @@
       <c r="C244" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D244" s="7"/>
+      <c r="D244" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E244" s="7">
         <v>0.75</v>
       </c>
@@ -10108,7 +10161,10 @@
       <c r="G244" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H244" s="12"/>
+      <c r="H244" s="10">
+        <f>(D244+LARGE(E244:G244,1)+LARGE(E244:G244,2))/3</f>
+        <v>0.730654761904762</v>
+      </c>
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="6">
@@ -10132,7 +10188,7 @@
       <c r="G245" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H245" s="8">
+      <c r="H245" s="9">
         <f>(D245+LARGE(E245:G245,1)+LARGE(E245:G245,2))/3</f>
         <v>0.716149347728295</v>
       </c>
@@ -10147,7 +10203,9 @@
       <c r="C246" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D246" s="7"/>
+      <c r="D246" s="7">
+        <v>0</v>
+      </c>
       <c r="E246" s="7">
         <v>0</v>
       </c>
@@ -10157,7 +10215,10 @@
       <c r="G246" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H246" s="12"/>
+      <c r="H246" s="8">
+        <f>(D246+LARGE(E246:G246,1)+LARGE(E246:G246,2))/3</f>
+        <v>0.123076923076923</v>
+      </c>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="6">
@@ -10181,7 +10242,7 @@
       <c r="G247" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H247" s="8">
+      <c r="H247" s="10">
         <f>(D247+LARGE(E247:G247,1)+LARGE(E247:G247,2))/3</f>
         <v>0.692645074224021</v>
       </c>
@@ -10275,19 +10336,24 @@
         <v>508</v>
       </c>
       <c r="C251" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="D251" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D251" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E251" s="7">
-        <v>0.553571428571429</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="F251" s="7">
-        <v>0.75</v>
+        <v>0.316666666666666</v>
       </c>
       <c r="G251" s="7">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="H251" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="H251" s="10">
+        <f>(D251+LARGE(E251:G251,1)+LARGE(E251:G251,2))/3</f>
+        <v>0.555847953216374</v>
+      </c>
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="6">
@@ -10297,24 +10363,19 @@
         <v>509</v>
       </c>
       <c r="C252" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D252" s="7">
-        <v>0.666666666666667</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D252" s="7"/>
       <c r="E252" s="7">
-        <v>0.684210526315789</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="F252" s="7">
-        <v>0.316666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G252" s="7">
-        <v>0</v>
-      </c>
-      <c r="H252" s="5">
-        <f>(D252+LARGE(E252:G252,1)+LARGE(E252:G252,2))/3</f>
-        <v>0.555847953216374</v>
-      </c>
+        <v>0.461538461538462</v>
+      </c>
+      <c r="H252" s="12"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
@@ -10530,23 +10591,23 @@
         <v>526</v>
       </c>
       <c r="C261" t="s" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D261" s="7">
-        <v>0.358974358974359</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E261" s="7">
-        <v>0.719298245614035</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F261" s="7">
-        <v>0.7333333333333329</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G261" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H261" s="9">
+        <v>0.415384615384615</v>
+      </c>
+      <c r="H261" s="10">
         <f>(D261+LARGE(E261:G261,1)+LARGE(E261:G261,2))/3</f>
-        <v>0.603868645973909</v>
+        <v>0.555015744489429</v>
       </c>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -10557,23 +10618,23 @@
         <v>527</v>
       </c>
       <c r="C262" t="s" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D262" s="7">
-        <v>0.512820512820513</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E262" s="7">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F262" s="7">
-        <v>0.333333333333333</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G262" s="7">
-        <v>0.415384615384615</v>
-      </c>
-      <c r="H262" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H262" s="9">
         <f>(D262+LARGE(E262:G262,1)+LARGE(E262:G262,2))/3</f>
-        <v>0.555015744489429</v>
+        <v>0.603868645973909</v>
       </c>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -10706,7 +10767,7 @@
       <c r="G267" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H267" s="8">
+      <c r="H267" s="5">
         <f>(D267+LARGE(E267:G267,1)+LARGE(E267:G267,2))/3</f>
         <v>0.709131803868646</v>
       </c>
@@ -10719,23 +10780,23 @@
         <v>539</v>
       </c>
       <c r="C268" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D268" s="7">
-        <v>0.307692307692308</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E268" s="7">
-        <v>0.649122807017544</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F268" s="7">
-        <v>0.266666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="G268" s="7">
-        <v>0.707692307692308</v>
-      </c>
-      <c r="H268" s="9">
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H268" s="8">
         <f>(D268+LARGE(E268:G268,1)+LARGE(E268:G268,2))/3</f>
-        <v>0.554835807467387</v>
+        <v>0.800202429149798</v>
       </c>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -10746,23 +10807,23 @@
         <v>540</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D269" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E269" s="7">
-        <v>0.807017543859649</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F269" s="7">
-        <v>0.85</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G269" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H269" s="5">
+        <v>0.707692307692308</v>
+      </c>
+      <c r="H269" s="9">
         <f>(D269+LARGE(E269:G269,1)+LARGE(E269:G269,2))/3</f>
-        <v>0.800202429149798</v>
+        <v>0.554835807467387</v>
       </c>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -11065,7 +11126,7 @@
       <c r="G281" s="7">
         <v>0</v>
       </c>
-      <c r="H281" s="8">
+      <c r="H281" s="5">
         <f>(D281+LARGE(E281:G281,1)+LARGE(E281:G281,2))/3</f>
         <v>0.581623931623932</v>
       </c>
@@ -11080,7 +11141,9 @@
       <c r="C282" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D282" s="7"/>
+      <c r="D282" s="7">
+        <v>0</v>
+      </c>
       <c r="E282" s="7">
         <v>0.385964912280702</v>
       </c>
@@ -11090,7 +11153,10 @@
       <c r="G282" s="7">
         <v>0</v>
       </c>
-      <c r="H282" s="13"/>
+      <c r="H282" s="8">
+        <f>(D282+LARGE(E282:G282,1)+LARGE(E282:G282,2))/3</f>
+        <v>0.217543859649123</v>
+      </c>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="6">
@@ -11161,7 +11227,7 @@
       <c r="G285" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H285" s="13"/>
+      <c r="H285" s="12"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="6">
@@ -11173,7 +11239,9 @@
       <c r="C286" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D286" s="7"/>
+      <c r="D286" s="7">
+        <v>0</v>
+      </c>
       <c r="E286" s="7">
         <v>0.614035087719298</v>
       </c>
@@ -11183,7 +11251,10 @@
       <c r="G286" s="7">
         <v>0</v>
       </c>
-      <c r="H286" s="12"/>
+      <c r="H286" s="8">
+        <f>(D286+LARGE(E286:G286,1)+LARGE(E286:G286,2))/3</f>
+        <v>0.204678362573099</v>
+      </c>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="6">
@@ -11207,7 +11278,7 @@
       <c r="G287" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H287" s="5">
+      <c r="H287" s="9">
         <f>(D287+LARGE(E287:G287,1)+LARGE(E287:G287,2))/3</f>
         <v>0.658479532163743</v>
       </c>
@@ -11353,20 +11424,20 @@
         <v>44</v>
       </c>
       <c r="D293" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E293" s="7">
-        <v>0.701754385964912</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F293" s="7">
-        <v>0.65</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G293" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H293" s="8">
+        <v>0.507692307692308</v>
+      </c>
+      <c r="H293" s="5">
         <f>(D293+LARGE(E293:G293,1)+LARGE(E293:G293,2))/3</f>
-        <v>0.706995051731894</v>
+        <v>0.78582995951417</v>
       </c>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -11380,20 +11451,20 @@
         <v>44</v>
       </c>
       <c r="D294" s="7">
-        <v>0.948717948717949</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E294" s="7">
-        <v>0.842105263157895</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F294" s="7">
-        <v>0.566666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="G294" s="7">
-        <v>0.507692307692308</v>
-      </c>
-      <c r="H294" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H294" s="5">
         <f>(D294+LARGE(E294:G294,1)+LARGE(E294:G294,2))/3</f>
-        <v>0.78582995951417</v>
+        <v>0.706995051731894</v>
       </c>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -11418,7 +11489,7 @@
       <c r="G295" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H295" s="8">
+      <c r="H295" s="5">
         <f>(D295+LARGE(E295:G295,1)+LARGE(E295:G295,2))/3</f>
         <v>0.856770130454341</v>
       </c>
@@ -11433,7 +11504,9 @@
       <c r="C296" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D296" s="7"/>
+      <c r="D296" s="7">
+        <v>0</v>
+      </c>
       <c r="E296" s="7">
         <v>0.210526315789474</v>
       </c>
@@ -11443,7 +11516,10 @@
       <c r="G296" s="7">
         <v>0</v>
       </c>
-      <c r="H296" s="13"/>
+      <c r="H296" s="8">
+        <f>(D296+LARGE(E296:G296,1)+LARGE(E296:G296,2))/3</f>
+        <v>0.07017543859649129</v>
+      </c>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="6">
@@ -11570,7 +11646,7 @@
       <c r="G301" s="7">
         <v>0</v>
       </c>
-      <c r="H301" s="10">
+      <c r="H301" s="9">
         <f>(D301+LARGE(E301:G301,1)+LARGE(E301:G301,2))/3</f>
         <v>0.705357142857143</v>
       </c>
@@ -11585,7 +11661,9 @@
       <c r="C302" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D302" s="7"/>
+      <c r="D302" s="7">
+        <v>0</v>
+      </c>
       <c r="E302" s="7">
         <v>0.614035087719298</v>
       </c>
@@ -11595,7 +11673,10 @@
       <c r="G302" s="7">
         <v>0</v>
       </c>
-      <c r="H302" s="12"/>
+      <c r="H302" s="8">
+        <f>(D302+LARGE(E302:G302,1)+LARGE(E302:G302,2))/3</f>
+        <v>0.31578947368421</v>
+      </c>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="6">
@@ -11619,7 +11700,7 @@
       <c r="G303" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H303" s="8">
+      <c r="H303" s="10">
         <f>(D303+LARGE(E303:G303,1)+LARGE(E303:G303,2))/3</f>
         <v>0.660278902384165</v>
       </c>
@@ -11671,7 +11752,7 @@
       <c r="G305" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H305" s="13"/>
+      <c r="H305" s="12"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
@@ -11683,7 +11764,9 @@
       <c r="C306" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D306" s="7"/>
+      <c r="D306" s="7">
+        <v>0.8125</v>
+      </c>
       <c r="E306" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -11693,7 +11776,10 @@
       <c r="G306" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H306" s="12"/>
+      <c r="H306" s="8">
+        <f>(D306+LARGE(E306:G306,1)+LARGE(E306:G306,2))/3</f>
+        <v>0.690247252747253</v>
+      </c>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="6">
@@ -11717,7 +11803,7 @@
       <c r="G307" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H307" s="5">
+      <c r="H307" s="9">
         <f>(D307+LARGE(E307:G307,1)+LARGE(E307:G307,2))/3</f>
         <v>0.6467611336032389</v>
       </c>
@@ -11825,7 +11911,7 @@
       <c r="G311" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H311" s="8">
+      <c r="H311" s="5">
         <f>(D311+LARGE(E311:G311,1)+LARGE(E311:G311,2))/3</f>
         <v>0.587797619047619</v>
       </c>
@@ -11840,7 +11926,9 @@
       <c r="C312" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D312" s="7"/>
+      <c r="D312" s="7">
+        <v>0</v>
+      </c>
       <c r="E312" s="7">
         <v>0.754385964912281</v>
       </c>
@@ -11850,7 +11938,10 @@
       <c r="G312" s="7">
         <v>0.276923076923077</v>
       </c>
-      <c r="H312" s="12"/>
+      <c r="H312" s="8">
+        <f>(D312+LARGE(E312:G312,1)+LARGE(E312:G312,2))/3</f>
+        <v>0.557017543859649</v>
+      </c>
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="6">
@@ -11874,7 +11965,7 @@
       <c r="G313" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H313" s="8">
+      <c r="H313" s="10">
         <f>(D313+LARGE(E313:G313,1)+LARGE(E313:G313,2))/3</f>
         <v>0.755465587044534</v>
       </c>
@@ -12031,7 +12122,7 @@
       <c r="G319" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H319" s="10">
+      <c r="H319" s="9">
         <f>(D319+LARGE(E319:G319,1)+LARGE(E319:G319,2))/3</f>
         <v>0.703328834907782</v>
       </c>
@@ -12046,7 +12137,9 @@
       <c r="C320" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D320" s="7"/>
+      <c r="D320" s="7">
+        <v>0</v>
+      </c>
       <c r="E320" s="7">
         <v>0.719298245614035</v>
       </c>
@@ -12056,7 +12149,10 @@
       <c r="G320" s="7">
         <v>0.307692307692308</v>
       </c>
-      <c r="H320" s="13"/>
+      <c r="H320" s="5">
+        <f>(D320+LARGE(E320:G320,1)+LARGE(E320:G320,2))/3</f>
+        <v>0.506432748538012</v>
+      </c>
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="6">
@@ -12068,7 +12164,9 @@
       <c r="C321" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D321" s="7"/>
+      <c r="D321" s="7">
+        <v>0</v>
+      </c>
       <c r="E321" s="7">
         <v>0.8245614035087721</v>
       </c>
@@ -12078,7 +12176,10 @@
       <c r="G321" s="7">
         <v>0.6</v>
       </c>
-      <c r="H321" s="12"/>
+      <c r="H321" s="8">
+        <f>(D321+LARGE(E321:G321,1)+LARGE(E321:G321,2))/3</f>
+        <v>0.474853801169591</v>
+      </c>
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="6">
@@ -12102,7 +12203,7 @@
       <c r="G322" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H322" s="5">
+      <c r="H322" s="9">
         <f>(D322+LARGE(E322:G322,1)+LARGE(E322:G322,2))/3</f>
         <v>0.71650922177238</v>
       </c>
@@ -12262,7 +12363,7 @@
       <c r="G328" s="7">
         <v>0</v>
       </c>
-      <c r="H328" s="13"/>
+      <c r="H328" s="12"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="6">
@@ -12274,7 +12375,9 @@
       <c r="C329" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D329" s="7"/>
+      <c r="D329" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E329" s="7">
         <v>0.625</v>
       </c>
@@ -12284,7 +12387,10 @@
       <c r="G329" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H329" s="13"/>
+      <c r="H329" s="8">
+        <f>(D329+LARGE(E329:G329,1)+LARGE(E329:G329,2))/3</f>
+        <v>0.768956043956044</v>
+      </c>
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="6">
@@ -12585,7 +12691,7 @@
       <c r="G341" s="7">
         <v>0.6</v>
       </c>
-      <c r="H341" s="8">
+      <c r="H341" s="5">
         <f>(D341+LARGE(E341:G341,1)+LARGE(E341:G341,2))/3</f>
         <v>0.5121907332433649</v>
       </c>
@@ -12600,7 +12706,9 @@
       <c r="C342" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D342" s="7"/>
+      <c r="D342" s="7">
+        <v>0</v>
+      </c>
       <c r="E342" s="7">
         <v>0.807017543859649</v>
       </c>
@@ -12610,7 +12718,9 @@
       <c r="G342" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H342" s="13"/>
+      <c r="H342" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="6">
@@ -12835,7 +12945,7 @@
       <c r="G351" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H351" s="8">
+      <c r="H351" s="5">
         <f>(D351+LARGE(E351:G351,1)+LARGE(E351:G351,2))/3</f>
         <v>0.863095238095238</v>
       </c>
@@ -12850,7 +12960,9 @@
       <c r="C352" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D352" s="7"/>
+      <c r="D352" s="7">
+        <v>0</v>
+      </c>
       <c r="E352" s="7">
         <v>0</v>
       </c>
@@ -12860,7 +12972,10 @@
       <c r="G352" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H352" s="13"/>
+      <c r="H352" s="8">
+        <f>(D352+LARGE(E352:G352,1)+LARGE(E352:G352,2))/3</f>
+        <v>0.215384615384615</v>
+      </c>
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="6">
@@ -13059,7 +13174,7 @@
       <c r="G360" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H360" s="8">
+      <c r="H360" s="5">
         <f>(D360+LARGE(E360:G360,1)+LARGE(E360:G360,2))/3</f>
         <v>0.640305892937472</v>
       </c>
@@ -13072,19 +13187,24 @@
         <v>721</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="D361" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D361" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E361" s="7">
-        <v>0</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="F361" s="7">
-        <v>0.285714285714285</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G361" s="7">
-        <v>0</v>
-      </c>
-      <c r="H361" s="12"/>
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H361" s="8">
+        <f>(D361+LARGE(E361:G361,1)+LARGE(E361:G361,2))/3</f>
+        <v>0.69047619047619</v>
+      </c>
     </row>
     <row r="362" ht="20.05" customHeight="1">
       <c r="A362" t="s" s="6">
@@ -13094,24 +13214,19 @@
         <v>722</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D362" s="7">
-        <v>0.5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D362" s="7"/>
       <c r="E362" s="7">
-        <v>0.732142857142857</v>
+        <v>0</v>
       </c>
       <c r="F362" s="7">
-        <v>0.839285714285714</v>
+        <v>0.285714285714285</v>
       </c>
       <c r="G362" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H362" s="8">
-        <f>(D362+LARGE(E362:G362,1)+LARGE(E362:G362,2))/3</f>
-        <v>0.69047619047619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H362" s="12"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="6">
@@ -13135,7 +13250,7 @@
       <c r="G363" s="7">
         <v>0.6</v>
       </c>
-      <c r="H363" s="10">
+      <c r="H363" s="8">
         <f>(D363+LARGE(E363:G363,1)+LARGE(E363:G363,2))/3</f>
         <v>0.630049482681062</v>
       </c>
@@ -13238,7 +13353,7 @@
       <c r="G367" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H367" s="10">
+      <c r="H367" s="9">
         <f>(D367+LARGE(E367:G367,1)+LARGE(E367:G367,2))/3</f>
         <v>0.7403733693207381</v>
       </c>
@@ -13253,7 +13368,9 @@
       <c r="C368" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D368" s="7"/>
+      <c r="D368" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E368" s="7">
         <v>0.75</v>
       </c>
@@ -13263,7 +13380,10 @@
       <c r="G368" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H368" s="12"/>
+      <c r="H368" s="8">
+        <f>(D368+LARGE(E368:G368,1)+LARGE(E368:G368,2))/3</f>
+        <v>0.834821428571428</v>
+      </c>
     </row>
     <row r="369" ht="20.05" customHeight="1">
       <c r="A369" t="s" s="6">
@@ -13287,7 +13407,7 @@
       <c r="G369" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H369" s="8">
+      <c r="H369" s="10">
         <f>(D369+LARGE(E369:G369,1)+LARGE(E369:G369,2))/3</f>
         <v>0.65922619047619</v>
       </c>
@@ -13300,23 +13420,23 @@
         <v>738</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D370" s="7">
-        <v>0.5</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E370" s="7">
-        <v>0.696428571428571</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F370" s="7">
-        <v>0.839285714285714</v>
+        <v>1</v>
       </c>
       <c r="G370" s="7">
-        <v>0.538461538461538</v>
+        <v>0.646153846153846</v>
       </c>
       <c r="H370" s="10">
         <f>(D370+LARGE(E370:G370,1)+LARGE(E370:G370,2))/3</f>
-        <v>0.678571428571428</v>
+        <v>0.840755735492578</v>
       </c>
     </row>
     <row r="371" ht="20.05" customHeight="1">
@@ -13327,23 +13447,23 @@
         <v>739</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D371" s="7">
-        <v>0.820512820512821</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E371" s="7">
-        <v>0.701754385964912</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F371" s="7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G371" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H371" s="10">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="H371" s="9">
         <f>(D371+LARGE(E371:G371,1)+LARGE(E371:G371,2))/3</f>
-        <v>0.840755735492578</v>
+        <v>0.741655420602789</v>
       </c>
     </row>
     <row r="372" ht="20.05" customHeight="1">
@@ -13354,23 +13474,23 @@
         <v>740</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D372" s="7">
-        <v>0.717948717948718</v>
+        <v>0.5</v>
       </c>
       <c r="E372" s="7">
-        <v>0.807017543859649</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F372" s="7">
-        <v>0.7</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G372" s="7">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="H372" s="9">
+        <v>0.538461538461538</v>
+      </c>
+      <c r="H372" s="8">
         <f>(D372+LARGE(E372:G372,1)+LARGE(E372:G372,2))/3</f>
-        <v>0.741655420602789</v>
+        <v>0.678571428571428</v>
       </c>
     </row>
     <row r="373" ht="20.05" customHeight="1">
@@ -13395,7 +13515,7 @@
       <c r="G373" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H373" s="8">
+      <c r="H373" s="9">
         <f>(D373+LARGE(E373:G373,1)+LARGE(E373:G373,2))/3</f>
         <v>0.678812415654521</v>
       </c>
@@ -13410,7 +13530,9 @@
       <c r="C374" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="D374" s="7"/>
+      <c r="D374" s="7">
+        <v>0</v>
+      </c>
       <c r="E374" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -13420,7 +13542,10 @@
       <c r="G374" s="7">
         <v>0</v>
       </c>
-      <c r="H374" s="12"/>
+      <c r="H374" s="8">
+        <f>(D374+LARGE(E374:G374,1)+LARGE(E374:G374,2))/3</f>
+        <v>0.511695906432748</v>
+      </c>
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="6">
@@ -13444,7 +13569,7 @@
       <c r="G375" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H375" s="8">
+      <c r="H375" s="9">
         <f>(D375+LARGE(E375:G375,1)+LARGE(E375:G375,2))/3</f>
         <v>0.546558704453441</v>
       </c>
@@ -13459,7 +13584,9 @@
       <c r="C376" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D376" s="7"/>
+      <c r="D376" s="7">
+        <v>0</v>
+      </c>
       <c r="E376" s="7">
         <v>0.701754385964912</v>
       </c>
@@ -13469,7 +13596,10 @@
       <c r="G376" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H376" s="12"/>
+      <c r="H376" s="8">
+        <f>(D376+LARGE(E376:G376,1)+LARGE(E376:G376,2))/3</f>
+        <v>0.449302744039586</v>
+      </c>
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="6">
@@ -13493,7 +13623,7 @@
       <c r="G377" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H377" s="8">
+      <c r="H377" s="10">
         <f>(D377+LARGE(E377:G377,1)+LARGE(E377:G377,2))/3</f>
         <v>0.6611336032388661</v>
       </c>
@@ -13964,7 +14094,7 @@
       <c r="G395" s="7">
         <v>0</v>
       </c>
-      <c r="H395" s="8">
+      <c r="H395" s="5">
         <f>(D395+LARGE(E395:G395,1)+LARGE(E395:G395,2))/3</f>
         <v>0.778789923526765</v>
       </c>
@@ -13979,7 +14109,9 @@
       <c r="C396" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="D396" s="7"/>
+      <c r="D396" s="7">
+        <v>0</v>
+      </c>
       <c r="E396" s="7">
         <v>0</v>
       </c>
@@ -13989,7 +14121,10 @@
       <c r="G396" s="7">
         <v>0</v>
       </c>
-      <c r="H396" s="12"/>
+      <c r="H396" s="8">
+        <f>(D396+LARGE(E396:G396,1)+LARGE(E396:G396,2))/3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="6">
@@ -14013,7 +14148,7 @@
       <c r="G397" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H397" s="8">
+      <c r="H397" s="10">
         <f>(D397+LARGE(E397:G397,1)+LARGE(E397:G397,2))/3</f>
         <v>0.682658569500675</v>
       </c>
@@ -14160,7 +14295,7 @@
       <c r="G403" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H403" s="10">
+      <c r="H403" s="9">
         <f>(D403+LARGE(E403:G403,1)+LARGE(E403:G403,2))/3</f>
         <v>0.645726495726496</v>
       </c>
@@ -14175,7 +14310,9 @@
       <c r="C404" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="D404" s="7"/>
+      <c r="D404" s="7">
+        <v>0</v>
+      </c>
       <c r="E404" s="7">
         <v>0.789473684210526</v>
       </c>
@@ -14185,7 +14322,10 @@
       <c r="G404" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H404" s="12"/>
+      <c r="H404" s="8">
+        <f>(D404+LARGE(E404:G404,1)+LARGE(E404:G404,2))/3</f>
+        <v>0.546491228070175</v>
+      </c>
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="6">
@@ -14209,7 +14349,7 @@
       <c r="G405" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H405" s="8">
+      <c r="H405" s="10">
         <f>(D405+LARGE(E405:G405,1)+LARGE(E405:G405,2))/3</f>
         <v>0.79331983805668</v>
       </c>
@@ -14595,19 +14735,24 @@
         <v>835</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D420" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D420" s="7">
+        <v>0.461538461538462</v>
+      </c>
       <c r="E420" s="7">
-        <v>0</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F420" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G420" s="7">
-        <v>0</v>
-      </c>
-      <c r="H420" s="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="H420" s="9">
+        <f>(D420+LARGE(E420:G420,1)+LARGE(E420:G420,2))/3</f>
+        <v>0.685425101214575</v>
+      </c>
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="6">
@@ -14617,23 +14762,23 @@
         <v>836</v>
       </c>
       <c r="C421" t="s" s="6">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D421" s="7">
-        <v>0.461538461538462</v>
+        <v>0</v>
       </c>
       <c r="E421" s="7">
-        <v>0.8947368421052631</v>
+        <v>0</v>
       </c>
       <c r="F421" s="7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G421" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H421" s="5">
+        <v>0</v>
+      </c>
+      <c r="H421" s="8">
         <f>(D421+LARGE(E421:G421,1)+LARGE(E421:G421,2))/3</f>
-        <v>0.685425101214575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" ht="20.05" customHeight="1">
@@ -14658,7 +14803,7 @@
       <c r="G422" s="7">
         <v>0</v>
       </c>
-      <c r="H422" s="5">
+      <c r="H422" s="9">
         <f>(D422+LARGE(E422:G422,1)+LARGE(E422:G422,2))/3</f>
         <v>0.683940620782726</v>
       </c>
@@ -14933,49 +15078,54 @@
       <c r="G433" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H433" s="13"/>
+      <c r="H433" s="12"/>
     </row>
     <row r="434" ht="20.05" customHeight="1">
       <c r="A434" s="13"/>
       <c r="B434" t="s" s="6">
         <v>859</v>
       </c>
-      <c r="C434" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D434" s="7"/>
+      <c r="C434" s="6"/>
+      <c r="D434" s="7">
+        <v>0.487179487179487</v>
+      </c>
       <c r="E434" s="7">
         <v>0</v>
       </c>
       <c r="F434" s="7">
-        <v>0.716666666666666</v>
+        <v>0</v>
       </c>
       <c r="G434" s="7">
         <v>0</v>
       </c>
-      <c r="H434" s="12"/>
+      <c r="H434" s="5">
+        <f>(D434+LARGE(E434:G434,1)+LARGE(E434:G434,2))/3</f>
+        <v>0.162393162393162</v>
+      </c>
     </row>
     <row r="435" ht="20.05" customHeight="1">
       <c r="A435" s="13"/>
       <c r="B435" t="s" s="6">
         <v>860</v>
       </c>
-      <c r="C435" s="6"/>
+      <c r="C435" t="s" s="6">
+        <v>10</v>
+      </c>
       <c r="D435" s="7">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E435" s="7">
         <v>0</v>
       </c>
       <c r="F435" s="7">
-        <v>0</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G435" s="7">
         <v>0</v>
       </c>
       <c r="H435" s="8">
         <f>(D435+LARGE(E435:G435,1)+LARGE(E435:G435,2))/3</f>
-        <v>0.162393162393162</v>
+        <v>0.238888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -493,12 +493,12 @@
     <t>CHISANGO</t>
   </si>
   <si>
+    <t>H200311P</t>
+  </si>
+  <si>
     <t>H200552E</t>
   </si>
   <si>
-    <t>H200311P</t>
-  </si>
-  <si>
     <t>CHISVO</t>
   </si>
   <si>
@@ -556,12 +556,12 @@
     <t>CHIWARE</t>
   </si>
   <si>
+    <t>H200518E</t>
+  </si>
+  <si>
     <t>H200526G</t>
   </si>
   <si>
-    <t>H200518E</t>
-  </si>
-  <si>
     <t>CHIWAYA</t>
   </si>
   <si>
@@ -982,12 +982,12 @@
     <t>KUIPA</t>
   </si>
   <si>
+    <t>H200592Y</t>
+  </si>
+  <si>
     <t>H200049M</t>
   </si>
   <si>
-    <t>H200592Y</t>
-  </si>
-  <si>
     <t>KUNZWI</t>
   </si>
   <si>
@@ -1396,12 +1396,12 @@
     <t>MATEKO</t>
   </si>
   <si>
+    <t>H200765E</t>
+  </si>
+  <si>
     <t>H200846J</t>
   </si>
   <si>
-    <t>H200765E</t>
-  </si>
-  <si>
     <t>MATICHA</t>
   </si>
   <si>
@@ -1582,21 +1582,21 @@
     <t>MUCHENA</t>
   </si>
   <si>
+    <t>H200986C</t>
+  </si>
+  <si>
     <t>H200059B</t>
   </si>
   <si>
-    <t>H200986C</t>
-  </si>
-  <si>
     <t>MUCHENJE</t>
   </si>
   <si>
+    <t>H200423X</t>
+  </si>
+  <si>
     <t>H200271Y</t>
   </si>
   <si>
-    <t>H200423X</t>
-  </si>
-  <si>
     <t>MUCHINERIPI</t>
   </si>
   <si>
@@ -1630,12 +1630,12 @@
     <t>MUDIWA</t>
   </si>
   <si>
+    <t>H200623M</t>
+  </si>
+  <si>
     <t>H200836V</t>
   </si>
   <si>
-    <t>H200623M</t>
-  </si>
-  <si>
     <t>MUDUMANI</t>
   </si>
   <si>
@@ -1777,12 +1777,12 @@
     <t>MUNYORO</t>
   </si>
   <si>
+    <t>H190091Z</t>
+  </si>
+  <si>
     <t>H200460A</t>
   </si>
   <si>
-    <t>H190091Z</t>
-  </si>
-  <si>
     <t>MUPONDA</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>MUTEMA</t>
   </si>
   <si>
+    <t>H200601M</t>
+  </si>
+  <si>
     <t>H200056W</t>
   </si>
   <si>
-    <t>H200601M</t>
-  </si>
-  <si>
     <t>MUTENGA</t>
   </si>
   <si>
@@ -2227,15 +2227,15 @@
     <t>NYONI</t>
   </si>
   <si>
+    <t>H200329M</t>
+  </si>
+  <si>
+    <t>H200655J</t>
+  </si>
+  <si>
     <t>H200464R</t>
   </si>
   <si>
-    <t>H200655J</t>
-  </si>
-  <si>
-    <t>H200329M</t>
-  </si>
-  <si>
     <t>NZIRA</t>
   </si>
   <si>
@@ -2395,12 +2395,12 @@
     <t>SITHOLE</t>
   </si>
   <si>
+    <t>H200404E</t>
+  </si>
+  <si>
     <t>H200432H</t>
   </si>
   <si>
-    <t>H200404E</t>
-  </si>
-  <si>
     <t>SITOTOMBE</t>
   </si>
   <si>
@@ -2518,12 +2518,12 @@
     <t>ZENDA</t>
   </si>
   <si>
+    <t>H190185X</t>
+  </si>
+  <si>
     <t>H200309F</t>
   </si>
   <si>
-    <t>H190185X</t>
-  </si>
-  <si>
     <t>ZHANDA</t>
   </si>
   <si>
@@ -2584,16 +2584,16 @@
     <t>ZUZE</t>
   </si>
   <si>
+    <t>H200606H</t>
+  </si>
+  <si>
     <t>H200154C</t>
   </si>
   <si>
-    <t>H200606H</t>
+    <t>H180721J</t>
   </si>
   <si>
     <t>H180218G</t>
-  </si>
-  <si>
-    <t>H180721J</t>
   </si>
 </sst>
 </file>
@@ -4362,7 +4362,7 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f>(D19+LARGE(E19:G19,1)+LARGE(E19:G19,2))/3</f>
         <v>0.604166666666666</v>
       </c>
@@ -4377,7 +4377,9 @@
       <c r="C20" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>0.375</v>
+      </c>
       <c r="E20" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -4387,7 +4389,10 @@
       <c r="G20" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="8">
+        <f>(D20+LARGE(E20:G20,1)+LARGE(E20:G20,2))/3</f>
+        <v>0.577380952380952</v>
+      </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -4411,7 +4416,7 @@
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="10">
         <f>(D21+LARGE(E21:G21,1)+LARGE(E21:G21,2))/3</f>
         <v>0.443274853801169</v>
       </c>
@@ -4510,7 +4515,7 @@
       <c r="G25" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="5">
         <f>(D25+LARGE(E25:G25,1)+LARGE(E25:G25,2))/3</f>
         <v>0.851214574898785</v>
       </c>
@@ -4525,7 +4530,9 @@
       <c r="C26" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E26" s="7">
         <v>0.464285714285714</v>
       </c>
@@ -4535,7 +4542,10 @@
       <c r="G26" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="8">
+        <f>(D26+LARGE(E26:G26,1)+LARGE(E26:G26,2))/3</f>
+        <v>0.495947802197802</v>
+      </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="6">
@@ -5036,7 +5046,7 @@
       <c r="G45" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <f>(D45+LARGE(E45:G45,1)+LARGE(E45:G45,2))/3</f>
         <v>0.702856500224921</v>
       </c>
@@ -5051,7 +5061,9 @@
       <c r="C46" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E46" s="7">
         <v>0.660714285714286</v>
       </c>
@@ -5061,7 +5073,10 @@
       <c r="G46" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="5">
+        <f>(D46+LARGE(E46:G46,1)+LARGE(E46:G46,2))/3</f>
+        <v>0.589285714285714</v>
+      </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -5073,7 +5088,9 @@
       <c r="C47" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7">
+        <v>0.40625</v>
+      </c>
       <c r="E47" s="7">
         <v>0.821428571428571</v>
       </c>
@@ -5083,7 +5100,10 @@
       <c r="G47" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="8">
+        <f>(D47+LARGE(E47:G47,1)+LARGE(E47:G47,2))/3</f>
+        <v>0.6949404761904761</v>
+      </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -5152,7 +5172,7 @@
       <c r="G50" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="5">
         <f>(D50+LARGE(E50:G50,1)+LARGE(E50:G50,2))/3</f>
         <v>0.724702380952381</v>
       </c>
@@ -5167,7 +5187,9 @@
       <c r="C51" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E51" s="7">
         <v>0.464285714285714</v>
       </c>
@@ -5177,7 +5199,10 @@
       <c r="G51" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="8">
+        <f>(D51+LARGE(E51:G51,1)+LARGE(E51:G51,2))/3</f>
+        <v>0.599313186813187</v>
+      </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="6">
@@ -5201,7 +5226,7 @@
       <c r="G52" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="9">
         <f>(D52+LARGE(E52:G52,1)+LARGE(E52:G52,2))/3</f>
         <v>0.700314889788574</v>
       </c>
@@ -5471,7 +5496,7 @@
       <c r="G62" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="5">
         <f>(D62+LARGE(E62:G62,1)+LARGE(E62:G62,2))/3</f>
         <v>0.523504273504274</v>
       </c>
@@ -5486,7 +5511,9 @@
       <c r="C63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E63" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -5496,7 +5523,10 @@
       <c r="G63" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="8">
+        <f>(D63+LARGE(E63:G63,1)+LARGE(E63:G63,2))/3</f>
+        <v>0.6713827838827841</v>
+      </c>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -5520,7 +5550,7 @@
       <c r="G64" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="10">
         <f>(D64+LARGE(E64:G64,1)+LARGE(E64:G64,2))/3</f>
         <v>0.775297619047619</v>
       </c>
@@ -5539,7 +5569,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>0.7</v>
       </c>
     </row>
@@ -5553,7 +5583,9 @@
       <c r="C66" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E66" s="7">
         <v>0.660714285714286</v>
       </c>
@@ -5563,7 +5595,10 @@
       <c r="G66" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H66" s="12"/>
+      <c r="H66" s="8">
+        <f>(D66+LARGE(E66:G66,1)+LARGE(E66:G66,2))/3</f>
+        <v>0.662202380952381</v>
+      </c>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="6">
@@ -5587,7 +5622,7 @@
       <c r="G67" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="10">
         <f>(D67+LARGE(E67:G67,1)+LARGE(E67:G67,2))/3</f>
         <v>0.797619047619047</v>
       </c>
@@ -5668,7 +5703,7 @@
       <c r="G70" s="7">
         <v>0.369230769230769</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="5">
         <f>(D70+LARGE(E70:G70,1)+LARGE(E70:G70,2))/3</f>
         <v>0.5882141250562301</v>
       </c>
@@ -5683,7 +5718,9 @@
       <c r="C71" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="7">
+        <v>0.8125</v>
+      </c>
       <c r="E71" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -5693,7 +5730,10 @@
       <c r="G71" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H71" s="12"/>
+      <c r="H71" s="8">
+        <f>(D71+LARGE(E71:G71,1)+LARGE(E71:G71,2))/3</f>
+        <v>0.764880952380952</v>
+      </c>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="6">
@@ -5717,7 +5757,7 @@
       <c r="G72" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="9">
         <f>(D72+LARGE(E72:G72,1)+LARGE(E72:G72,2))/3</f>
         <v>0.803351327035538</v>
       </c>
@@ -5744,7 +5784,7 @@
       <c r="G73" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="5">
         <f>(D73+LARGE(E73:G73,1)+LARGE(E73:G73,2))/3</f>
         <v>0.614583333333333</v>
       </c>
@@ -5757,23 +5797,23 @@
         <v>160</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D74" s="7">
-        <v>0.7692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E74" s="7">
-        <v>0.649122807017544</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F74" s="7">
-        <v>0.916666666666666</v>
+        <v>0</v>
       </c>
       <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
+        <v>0.369230769230769</v>
+      </c>
+      <c r="H74" s="8">
         <f>(D74+LARGE(E74:G74,1)+LARGE(E74:G74,2))/3</f>
-        <v>0.77834008097166</v>
+        <v>0.368690958164642</v>
       </c>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -5784,23 +5824,23 @@
         <v>161</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D75" s="7">
-        <v>0</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E75" s="7">
-        <v>0.736842105263158</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F75" s="7">
-        <v>0</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G75" s="7">
-        <v>0.369230769230769</v>
-      </c>
-      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
         <f>(D75+LARGE(E75:G75,1)+LARGE(E75:G75,2))/3</f>
-        <v>0.368690958164642</v>
+        <v>0.77834008097166</v>
       </c>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -5879,7 +5919,7 @@
       <c r="G78" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <f>(D78+LARGE(E78:G78,1)+LARGE(E78:G78,2))/3</f>
         <v>0.8245614035087721</v>
       </c>
@@ -5894,7 +5934,9 @@
       <c r="C79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E79" s="7">
         <v>0.732142857142857</v>
       </c>
@@ -5904,7 +5946,10 @@
       <c r="G79" s="7">
         <v>0.492307692307692</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="8">
+        <f>(D79+LARGE(E79:G79,1)+LARGE(E79:G79,2))/3</f>
+        <v>0.806547619047619</v>
+      </c>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="6">
@@ -5928,7 +5973,7 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="10">
         <f>(D80+LARGE(E80:G80,1)+LARGE(E80:G80,2))/3</f>
         <v>0.233918128654971</v>
       </c>
@@ -6049,23 +6094,23 @@
         <v>181</v>
       </c>
       <c r="C85" t="s" s="6">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D85" s="7">
-        <v>0.871794871794872</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E85" s="7">
-        <v>0.736842105263158</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F85" s="7">
-        <v>0.916666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="G85" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H85" s="8">
+        <v>0.723076923076923</v>
+      </c>
+      <c r="H85" s="5">
         <f>(D85+LARGE(E85:G85,1)+LARGE(E85:G85,2))/3</f>
-        <v>0.841767881241565</v>
+        <v>0.765564552406658</v>
       </c>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -6076,23 +6121,23 @@
         <v>182</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D86" s="7">
-        <v>0.692307692307692</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E86" s="7">
-        <v>0.754385964912281</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F86" s="7">
-        <v>0.85</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G86" s="7">
-        <v>0.723076923076923</v>
-      </c>
-      <c r="H86" s="10">
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H86" s="8">
         <f>(D86+LARGE(E86:G86,1)+LARGE(E86:G86,2))/3</f>
-        <v>0.765564552406658</v>
+        <v>0.841767881241565</v>
       </c>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -6117,7 +6162,7 @@
       <c r="G87" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <f>(D87+LARGE(E87:G87,1)+LARGE(E87:G87,2))/3</f>
         <v>0.777980206927575</v>
       </c>
@@ -6132,7 +6177,9 @@
       <c r="C88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E88" s="7">
         <v>0.732142857142857</v>
       </c>
@@ -6142,7 +6189,10 @@
       <c r="G88" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H88" s="12"/>
+      <c r="H88" s="8">
+        <f>(D88+LARGE(E88:G88,1)+LARGE(E88:G88,2))/3</f>
+        <v>0.6728937728937729</v>
+      </c>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="6">
@@ -6166,7 +6216,7 @@
       <c r="G89" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="10">
         <f>(D89+LARGE(E89:G89,1)+LARGE(E89:G89,2))/3</f>
         <v>0.671130952380952</v>
       </c>
@@ -6301,7 +6351,7 @@
       <c r="G94" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="5">
         <f>(D94+LARGE(E94:G94,1)+LARGE(E94:G94,2))/3</f>
         <v>0.826023391812865</v>
       </c>
@@ -6316,7 +6366,9 @@
       <c r="C95" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E95" s="7">
         <v>0.678571428571429</v>
       </c>
@@ -6326,7 +6378,10 @@
       <c r="G95" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H95" s="13"/>
+      <c r="H95" s="5">
+        <f>(D95+LARGE(E95:G95,1)+LARGE(E95:G95,2))/3</f>
+        <v>0.793154761904762</v>
+      </c>
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="6">
@@ -6338,7 +6393,9 @@
       <c r="C96" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E96" s="7">
         <v>0.714285714285714</v>
       </c>
@@ -6348,7 +6405,10 @@
       <c r="G96" s="7">
         <v>0</v>
       </c>
-      <c r="H96" s="12"/>
+      <c r="H96" s="8">
+        <f>(D96+LARGE(E96:G96,1)+LARGE(E96:G96,2))/3</f>
+        <v>0.619047619047619</v>
+      </c>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="6">
@@ -6372,7 +6432,7 @@
       <c r="G97" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="10">
         <f>(D97+LARGE(E97:G97,1)+LARGE(E97:G97,2))/3</f>
         <v>0.828542510121457</v>
       </c>
@@ -6480,7 +6540,7 @@
       <c r="G101" s="7">
         <v>0</v>
       </c>
-      <c r="H101" s="8">
+      <c r="H101" s="5">
         <f>(D101+LARGE(E101:G101,1)+LARGE(E101:G101,2))/3</f>
         <v>0.712573099415205</v>
       </c>
@@ -6495,7 +6555,9 @@
       <c r="C102" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E102" s="7">
         <v>0.732142857142857</v>
       </c>
@@ -6505,7 +6567,10 @@
       <c r="G102" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H102" s="13"/>
+      <c r="H102" s="5">
+        <f>(D102+LARGE(E102:G102,1)+LARGE(E102:G102,2))/3</f>
+        <v>0.80485347985348</v>
+      </c>
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="6">
@@ -6517,7 +6582,9 @@
       <c r="C103" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7">
+        <v>0.71875</v>
+      </c>
       <c r="E103" s="7">
         <v>0.607142857142857</v>
       </c>
@@ -6527,7 +6594,10 @@
       <c r="G103" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H103" s="12"/>
+      <c r="H103" s="8">
+        <f>(D103+LARGE(E103:G103,1)+LARGE(E103:G103,2))/3</f>
+        <v>0.727678571428571</v>
+      </c>
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="6">
@@ -6551,7 +6621,7 @@
       <c r="G104" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="9">
         <f>(D104+LARGE(E104:G104,1)+LARGE(E104:G104,2))/3</f>
         <v>0.713832658569501</v>
       </c>
@@ -6678,7 +6748,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="10">
+      <c r="H109" s="9">
         <v>0.67</v>
       </c>
     </row>
@@ -6692,7 +6762,9 @@
       <c r="C110" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E110" s="7">
         <v>0.678571428571429</v>
       </c>
@@ -6702,7 +6774,10 @@
       <c r="G110" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H110" s="12"/>
+      <c r="H110" s="8">
+        <f>(D110+LARGE(E110:G110,1)+LARGE(E110:G110,2))/3</f>
+        <v>0.618658424908425</v>
+      </c>
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="6">
@@ -6726,7 +6801,7 @@
       <c r="G111" s="7">
         <v>0</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H111" s="9">
         <f>(D111+LARGE(E111:G111,1)+LARGE(E111:G111,2))/3</f>
         <v>0.38506522717049</v>
       </c>
@@ -6741,7 +6816,9 @@
       <c r="C112" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E112" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -6751,7 +6828,10 @@
       <c r="G112" s="7">
         <v>0.6</v>
       </c>
-      <c r="H112" s="13"/>
+      <c r="H112" s="8">
+        <f>(D112+LARGE(E112:G112,1)+LARGE(E112:G112,2))/3</f>
+        <v>0.767857142857143</v>
+      </c>
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="6">
@@ -6763,7 +6843,9 @@
       <c r="C113" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E113" s="7">
         <v>0.821428571428571</v>
       </c>
@@ -6773,7 +6855,10 @@
       <c r="G113" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H113" s="12"/>
+      <c r="H113" s="10">
+        <f>(D113+LARGE(E113:G113,1)+LARGE(E113:G113,2))/3</f>
+        <v>0.78125</v>
+      </c>
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="6">
@@ -6797,7 +6882,7 @@
       <c r="G114" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H114" s="10">
         <f>(D114+LARGE(E114:G114,1)+LARGE(E114:G114,2))/3</f>
         <v>0.749130036630036</v>
       </c>
@@ -6959,7 +7044,7 @@
       <c r="G120" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H120" s="8">
+      <c r="H120" s="5">
         <f>(D120+LARGE(E120:G120,1)+LARGE(E120:G120,2))/3</f>
         <v>0.722829509671615</v>
       </c>
@@ -6974,7 +7059,9 @@
       <c r="C121" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D121" s="7"/>
+      <c r="D121" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E121" s="7">
         <v>0.75</v>
       </c>
@@ -6984,7 +7071,10 @@
       <c r="G121" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="8">
+        <f>(D121+LARGE(E121:G121,1)+LARGE(E121:G121,2))/3</f>
+        <v>0.632051282051282</v>
+      </c>
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="6">
@@ -7008,7 +7098,7 @@
       <c r="G122" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="9">
         <f>(D122+LARGE(E122:G122,1)+LARGE(E122:G122,2))/3</f>
         <v>0.691880341880342</v>
       </c>
@@ -7035,7 +7125,7 @@
       <c r="G123" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H123" s="5">
         <f>(D123+LARGE(E123:G123,1)+LARGE(E123:G123,2))/3</f>
         <v>0.635691391941392</v>
       </c>
@@ -7050,7 +7140,9 @@
       <c r="C124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="E124" s="7">
         <v>0.553571428571429</v>
       </c>
@@ -7060,7 +7152,10 @@
       <c r="G124" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="8">
+        <f>(D124+LARGE(E124:G124,1)+LARGE(E124:G124,2))/3</f>
+        <v>0.616071428571429</v>
+      </c>
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="6">
@@ -7084,7 +7179,7 @@
       <c r="G125" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="9">
         <f>(D125+LARGE(E125:G125,1)+LARGE(E125:G125,2))/3</f>
         <v>0.854183535762483</v>
       </c>
@@ -7264,7 +7359,7 @@
       <c r="G132" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H132" s="5">
         <f>(D132+LARGE(E132:G132,1)+LARGE(E132:G132,2))/3</f>
         <v>0.644331983805668</v>
       </c>
@@ -7279,7 +7374,9 @@
       <c r="C133" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D133" s="7"/>
+      <c r="D133" s="7">
+        <v>0.28125</v>
+      </c>
       <c r="E133" s="7">
         <v>0.589285714285714</v>
       </c>
@@ -7289,7 +7386,10 @@
       <c r="G133" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H133" s="12"/>
+      <c r="H133" s="8">
+        <f>(D133+LARGE(E133:G133,1)+LARGE(E133:G133,2))/3</f>
+        <v>0.571039377289377</v>
+      </c>
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="6">
@@ -7313,7 +7413,7 @@
       <c r="G134" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="9">
         <f>(D134+LARGE(E134:G134,1)+LARGE(E134:G134,2))/3</f>
         <v>0.778857399910032</v>
       </c>
@@ -7709,7 +7809,7 @@
       <c r="G149" s="7">
         <v>0.7538461538461541</v>
       </c>
-      <c r="H149" s="8">
+      <c r="H149" s="5">
         <f>(D149+LARGE(E149:G149,1)+LARGE(E149:G149,2))/3</f>
         <v>0.784795321637427</v>
       </c>
@@ -7724,7 +7824,9 @@
       <c r="C150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D150" s="7"/>
+      <c r="D150" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E150" s="7">
         <v>0.589285714285714</v>
       </c>
@@ -7734,7 +7836,10 @@
       <c r="G150" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H150" s="13"/>
+      <c r="H150" s="5">
+        <f>(D150+LARGE(E150:G150,1)+LARGE(E150:G150,2))/3</f>
+        <v>0.604166666666666</v>
+      </c>
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="6">
@@ -7746,7 +7851,9 @@
       <c r="C151" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E151" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -7756,7 +7863,10 @@
       <c r="G151" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H151" s="13"/>
+      <c r="H151" s="8">
+        <f>(D151+LARGE(E151:G151,1)+LARGE(E151:G151,2))/3</f>
+        <v>0.671130952380952</v>
+      </c>
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="6">
@@ -7768,7 +7878,9 @@
       <c r="C152" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E152" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -7778,7 +7890,10 @@
       <c r="G152" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H152" s="12"/>
+      <c r="H152" s="10">
+        <f>(D152+LARGE(E152:G152,1)+LARGE(E152:G152,2))/3</f>
+        <v>0.7113095238095239</v>
+      </c>
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="6">
@@ -7802,7 +7917,7 @@
       <c r="G153" s="7">
         <v>0</v>
       </c>
-      <c r="H153" s="8">
+      <c r="H153" s="10">
         <f>(D153+LARGE(E153:G153,1)+LARGE(E153:G153,2))/3</f>
         <v>0.634030589293747</v>
       </c>
@@ -7899,20 +8014,20 @@
         <v>21</v>
       </c>
       <c r="D157" s="7">
-        <v>0.512820512820513</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E157" s="7">
-        <v>0.491228070175439</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F157" s="7">
-        <v>0.916666666666666</v>
+        <v>1</v>
       </c>
       <c r="G157" s="7">
-        <v>0.584615384615385</v>
-      </c>
-      <c r="H157" s="8">
+        <v>0.630769230769231</v>
+      </c>
+      <c r="H157" s="5">
         <f>(D157+LARGE(E157:G157,1)+LARGE(E157:G157,2))/3</f>
-        <v>0.671367521367521</v>
+        <v>0.764732343679712</v>
       </c>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -7926,20 +8041,20 @@
         <v>21</v>
       </c>
       <c r="D158" s="7">
-        <v>0.487179487179487</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E158" s="7">
-        <v>0.807017543859649</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="F158" s="7">
-        <v>1</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G158" s="7">
-        <v>0.630769230769231</v>
-      </c>
-      <c r="H158" s="9">
+        <v>0.584615384615385</v>
+      </c>
+      <c r="H158" s="8">
         <f>(D158+LARGE(E158:G158,1)+LARGE(E158:G158,2))/3</f>
-        <v>0.764732343679712</v>
+        <v>0.671367521367521</v>
       </c>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -7964,7 +8079,7 @@
       <c r="G159" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="9">
         <f>(D159+LARGE(E159:G159,1)+LARGE(E159:G159,2))/3</f>
         <v>0.648717948717949</v>
       </c>
@@ -7991,7 +8106,7 @@
       <c r="G160" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H160" s="8">
+      <c r="H160" s="5">
         <f>(D160+LARGE(E160:G160,1)+LARGE(E160:G160,2))/3</f>
         <v>0.716576698155645</v>
       </c>
@@ -8006,7 +8121,9 @@
       <c r="C161" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="7">
+        <v>0.96875</v>
+      </c>
       <c r="E161" s="7">
         <v>0.714285714285714</v>
       </c>
@@ -8016,7 +8133,10 @@
       <c r="G161" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H161" s="13"/>
+      <c r="H161" s="5">
+        <f>(D161+LARGE(E161:G161,1)+LARGE(E161:G161,2))/3</f>
+        <v>0.811011904761905</v>
+      </c>
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="6">
@@ -8028,7 +8148,9 @@
       <c r="C162" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D162" s="7"/>
+      <c r="D162" s="7">
+        <v>0.46875</v>
+      </c>
       <c r="E162" s="7">
         <v>0.678571428571429</v>
       </c>
@@ -8038,7 +8160,10 @@
       <c r="G162" s="7">
         <v>0.415384615384615</v>
       </c>
-      <c r="H162" s="12"/>
+      <c r="H162" s="8">
+        <f>(D162+LARGE(E162:G162,1)+LARGE(E162:G162,2))/3</f>
+        <v>0.638392857142857</v>
+      </c>
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="6">
@@ -8062,7 +8187,7 @@
       <c r="G163" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H163" s="8">
+      <c r="H163" s="9">
         <f>(D163+LARGE(E163:G163,1)+LARGE(E163:G163,2))/3</f>
         <v>0.808479532163743</v>
       </c>
@@ -8077,7 +8202,9 @@
       <c r="C164" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D164" s="7"/>
+      <c r="D164" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E164" s="7">
         <v>0.660714285714286</v>
       </c>
@@ -8087,7 +8214,10 @@
       <c r="G164" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H164" s="13"/>
+      <c r="H164" s="8">
+        <f>(D164+LARGE(E164:G164,1)+LARGE(E164:G164,2))/3</f>
+        <v>0.7738095238095239</v>
+      </c>
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="6">
@@ -8268,7 +8398,7 @@
       <c r="G171" s="7">
         <v>0.6</v>
       </c>
-      <c r="H171" s="8">
+      <c r="H171" s="5">
         <f>(D171+LARGE(E171:G171,1)+LARGE(E171:G171,2))/3</f>
         <v>0.592787524366472</v>
       </c>
@@ -8283,7 +8413,9 @@
       <c r="C172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E172" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -8293,7 +8425,10 @@
       <c r="G172" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H172" s="12"/>
+      <c r="H172" s="8">
+        <f>(D172+LARGE(E172:G172,1)+LARGE(E172:G172,2))/3</f>
+        <v>0.672619047619048</v>
+      </c>
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="6">
@@ -8317,7 +8452,7 @@
       <c r="G173" s="7">
         <v>0</v>
       </c>
-      <c r="H173" s="8">
+      <c r="H173" s="10">
         <f>(D173+LARGE(E173:G173,1)+LARGE(E173:G173,2))/3</f>
         <v>0.580814215024741</v>
       </c>
@@ -8641,7 +8776,7 @@
       <c r="G185" s="7">
         <v>0.676923076923077</v>
       </c>
-      <c r="H185" s="8">
+      <c r="H185" s="5">
         <f>(D185+LARGE(E185:G185,1)+LARGE(E185:G185,2))/3</f>
         <v>0.482950967161494</v>
       </c>
@@ -8656,7 +8791,9 @@
       <c r="C186" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="7">
+        <v>0.4375</v>
+      </c>
       <c r="E186" s="7">
         <v>0.607142857142857</v>
       </c>
@@ -8666,7 +8803,10 @@
       <c r="G186" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H186" s="12"/>
+      <c r="H186" s="8">
+        <f>(D186+LARGE(E186:G186,1)+LARGE(E186:G186,2))/3</f>
+        <v>0.640979853479853</v>
+      </c>
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="6">
@@ -8690,7 +8830,7 @@
       <c r="G187" s="7">
         <v>0</v>
       </c>
-      <c r="H187" s="8">
+      <c r="H187" s="9">
         <f>(D187+LARGE(E187:G187,1)+LARGE(E187:G187,2))/3</f>
         <v>0.530116959064327</v>
       </c>
@@ -8705,7 +8845,9 @@
       <c r="C188" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D188" s="7"/>
+      <c r="D188" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E188" s="7">
         <v>0.571428571428571</v>
       </c>
@@ -8715,7 +8857,10 @@
       <c r="G188" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H188" s="12"/>
+      <c r="H188" s="8">
+        <f>(D188+LARGE(E188:G188,1)+LARGE(E188:G188,2))/3</f>
+        <v>0.694230769230769</v>
+      </c>
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="6">
@@ -8739,7 +8884,7 @@
       <c r="G189" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="9">
         <f>(D189+LARGE(E189:G189,1)+LARGE(E189:G189,2))/3</f>
         <v>0.5895861448493031</v>
       </c>
@@ -8793,7 +8938,7 @@
       <c r="G191" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H191" s="10">
+      <c r="H191" s="9">
         <f>(D191+LARGE(E191:G191,1)+LARGE(E191:G191,2))/3</f>
         <v>0.613247863247863</v>
       </c>
@@ -8808,7 +8953,9 @@
       <c r="C192" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D192" s="7"/>
+      <c r="D192" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E192" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -8818,7 +8965,10 @@
       <c r="G192" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H192" s="12"/>
+      <c r="H192" s="8">
+        <f>(D192+LARGE(E192:G192,1)+LARGE(E192:G192,2))/3</f>
+        <v>0.709432234432234</v>
+      </c>
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="6">
@@ -8842,7 +8992,7 @@
       <c r="G193" s="7">
         <v>0.6</v>
       </c>
-      <c r="H193" s="8">
+      <c r="H193" s="10">
         <f>(D193+LARGE(E193:G193,1)+LARGE(E193:G193,2))/3</f>
         <v>0.593769680611786</v>
       </c>
@@ -8968,7 +9118,7 @@
       <c r="G198" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="9">
         <f>(D198+LARGE(E198:G198,1)+LARGE(E198:G198,2))/3</f>
         <v>0.5931623931623931</v>
       </c>
@@ -8983,7 +9133,9 @@
       <c r="C199" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D199" s="7"/>
+      <c r="D199" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E199" s="7">
         <v>0.571428571428571</v>
       </c>
@@ -8993,7 +9145,10 @@
       <c r="G199" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H199" s="12"/>
+      <c r="H199" s="8">
+        <f>(D199+LARGE(E199:G199,1)+LARGE(E199:G199,2))/3</f>
+        <v>0.682967032967033</v>
+      </c>
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" t="s" s="6">
@@ -9017,7 +9172,7 @@
       <c r="G200" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H200" s="8">
+      <c r="H200" s="10">
         <f>(D200+LARGE(E200:G200,1)+LARGE(E200:G200,2))/3</f>
         <v>0.696581196581197</v>
       </c>
@@ -9233,7 +9388,7 @@
       <c r="G208" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H208" s="8">
+      <c r="H208" s="5">
         <f>(D208+LARGE(E208:G208,1)+LARGE(E208:G208,2))/3</f>
         <v>0.775641025641026</v>
       </c>
@@ -9248,7 +9403,9 @@
       <c r="C209" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D209" s="7"/>
+      <c r="D209" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="E209" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -9258,7 +9415,10 @@
       <c r="G209" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H209" s="12"/>
+      <c r="H209" s="8">
+        <f>(D209+LARGE(E209:G209,1)+LARGE(E209:G209,2))/3</f>
+        <v>0.758928571428571</v>
+      </c>
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="6">
@@ -9282,7 +9442,7 @@
       <c r="G210" s="7">
         <v>0.784615384615385</v>
       </c>
-      <c r="H210" s="8">
+      <c r="H210" s="10">
         <f>(D210+LARGE(E210:G210,1)+LARGE(E210:G210,2))/3</f>
         <v>0.784188034188034</v>
       </c>
@@ -9363,7 +9523,7 @@
       <c r="G213" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H213" s="8">
+      <c r="H213" s="5">
         <f>(D213+LARGE(E213:G213,1)+LARGE(E213:G213,2))/3</f>
         <v>0.757017543859649</v>
       </c>
@@ -9378,7 +9538,9 @@
       <c r="C214" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D214" s="7"/>
+      <c r="D214" s="7">
+        <v>0.96875</v>
+      </c>
       <c r="E214" s="7">
         <v>0.785714285714286</v>
       </c>
@@ -9388,7 +9550,10 @@
       <c r="G214" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H214" s="12"/>
+      <c r="H214" s="8">
+        <f>(D214+LARGE(E214:G214,1)+LARGE(E214:G214,2))/3</f>
+        <v>0.84672619047619</v>
+      </c>
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="6">
@@ -9412,7 +9577,7 @@
       <c r="G215" s="7">
         <v>0</v>
       </c>
-      <c r="H215" s="8">
+      <c r="H215" s="10">
         <f>(D215+LARGE(E215:G215,1)+LARGE(E215:G215,2))/3</f>
         <v>0.64804318488529</v>
       </c>
@@ -9619,7 +9784,7 @@
       <c r="G223" s="7">
         <v>0.353846153846154</v>
       </c>
-      <c r="H223" s="8">
+      <c r="H223" s="5">
         <f>(D223+LARGE(E223:G223,1)+LARGE(E223:G223,2))/3</f>
         <v>0.706590193432299</v>
       </c>
@@ -9634,7 +9799,9 @@
       <c r="C224" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D224" s="7"/>
+      <c r="D224" s="7">
+        <v>0.71875</v>
+      </c>
       <c r="E224" s="7">
         <v>0.553571428571429</v>
       </c>
@@ -9644,7 +9811,10 @@
       <c r="G224" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H224" s="12"/>
+      <c r="H224" s="8">
+        <f>(D224+LARGE(E224:G224,1)+LARGE(E224:G224,2))/3</f>
+        <v>0.665132783882784</v>
+      </c>
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="6">
@@ -9668,7 +9838,7 @@
       <c r="G225" s="7">
         <v>0</v>
       </c>
-      <c r="H225" s="5">
+      <c r="H225" s="9">
         <f>(D225+LARGE(E225:G225,1)+LARGE(E225:G225,2))/3</f>
         <v>0.608232118758434</v>
       </c>
@@ -9708,23 +9878,23 @@
         <v>461</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D227" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="E227" s="7">
-        <v>0.859649122807018</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F227" s="7">
-        <v>0.916666666666666</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="G227" s="7">
         <v>0.584615384615385</v>
       </c>
       <c r="H227" s="5">
         <f>(D227+LARGE(E227:G227,1)+LARGE(E227:G227,2))/3</f>
-        <v>0.848515519568151</v>
+        <v>0.700607287449393</v>
       </c>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -9735,23 +9905,23 @@
         <v>462</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D228" s="7">
-        <v>0.564102564102564</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E228" s="7">
-        <v>0.754385964912281</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="F228" s="7">
-        <v>0.783333333333333</v>
+        <v>0.916666666666666</v>
       </c>
       <c r="G228" s="7">
         <v>0.584615384615385</v>
       </c>
       <c r="H228" s="5">
         <f>(D228+LARGE(E228:G228,1)+LARGE(E228:G228,2))/3</f>
-        <v>0.700607287449393</v>
+        <v>0.848515519568151</v>
       </c>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -9776,7 +9946,7 @@
       <c r="G229" s="7">
         <v>0.476923076923077</v>
       </c>
-      <c r="H229" s="8">
+      <c r="H229" s="5">
         <f>(D229+LARGE(E229:G229,1)+LARGE(E229:G229,2))/3</f>
         <v>0.786077372919478</v>
       </c>
@@ -9791,7 +9961,9 @@
       <c r="C230" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D230" s="7"/>
+      <c r="D230" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="E230" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -9801,7 +9973,10 @@
       <c r="G230" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H230" s="12"/>
+      <c r="H230" s="8">
+        <f>(D230+LARGE(E230:G230,1)+LARGE(E230:G230,2))/3</f>
+        <v>0.706456043956044</v>
+      </c>
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="6">
@@ -9825,7 +10000,7 @@
       <c r="G231" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H231" s="8">
+      <c r="H231" s="10">
         <f>(D231+LARGE(E231:G231,1)+LARGE(E231:G231,2))/3</f>
         <v>0.748511904761905</v>
       </c>
@@ -9933,7 +10108,7 @@
       <c r="G235" s="7">
         <v>0</v>
       </c>
-      <c r="H235" s="8">
+      <c r="H235" s="5">
         <f>(D235+LARGE(E235:G235,1)+LARGE(E235:G235,2))/3</f>
         <v>0.251461988304094</v>
       </c>
@@ -9948,7 +10123,9 @@
       <c r="C236" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="D236" s="7"/>
+      <c r="D236" s="7">
+        <v>0</v>
+      </c>
       <c r="E236" s="7">
         <v>0.596491228070175</v>
       </c>
@@ -9958,7 +10135,10 @@
       <c r="G236" s="7">
         <v>0</v>
       </c>
-      <c r="H236" s="12"/>
+      <c r="H236" s="8">
+        <f>(D236+LARGE(E236:G236,1)+LARGE(E236:G236,2))/3</f>
+        <v>0.35438596491228</v>
+      </c>
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="6">
@@ -9982,7 +10162,7 @@
       <c r="G237" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H237" s="8">
+      <c r="H237" s="10">
         <f>(D237+LARGE(E237:G237,1)+LARGE(E237:G237,2))/3</f>
         <v>0.827980206927575</v>
       </c>
@@ -10009,7 +10189,7 @@
       <c r="G238" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H238" s="10">
+      <c r="H238" s="9">
         <f>(D238+LARGE(E238:G238,1)+LARGE(E238:G238,2))/3</f>
         <v>0.557264957264957</v>
       </c>
@@ -10024,7 +10204,9 @@
       <c r="C239" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D239" s="7"/>
+      <c r="D239" s="7">
+        <v>0</v>
+      </c>
       <c r="E239" s="7">
         <v>0</v>
       </c>
@@ -10034,7 +10216,10 @@
       <c r="G239" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H239" s="12"/>
+      <c r="H239" s="8">
+        <f>(D239+LARGE(E239:G239,1)+LARGE(E239:G239,2))/3</f>
+        <v>0.235897435897436</v>
+      </c>
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="6">
@@ -10058,7 +10243,7 @@
       <c r="G240" s="7">
         <v>0</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240" s="9">
         <f>(D240+LARGE(E240:G240,1)+LARGE(E240:G240,2))/3</f>
         <v>0.781826360773729</v>
       </c>
@@ -10085,7 +10270,7 @@
       <c r="G241" s="7">
         <v>0</v>
       </c>
-      <c r="H241" s="8">
+      <c r="H241" s="5">
         <f>(D241+LARGE(E241:G241,1)+LARGE(E241:G241,2))/3</f>
         <v>0.08187134502923971</v>
       </c>
@@ -10100,7 +10285,9 @@
       <c r="C242" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D242" s="7"/>
+      <c r="D242" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E242" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -10110,7 +10297,10 @@
       <c r="G242" s="7">
         <v>0.6</v>
       </c>
-      <c r="H242" s="12"/>
+      <c r="H242" s="8">
+        <f>(D242+LARGE(E242:G242,1)+LARGE(E242:G242,2))/3</f>
+        <v>0.852678571428571</v>
+      </c>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="6">
@@ -10134,7 +10324,7 @@
       <c r="G243" s="7">
         <v>0</v>
       </c>
-      <c r="H243" s="8">
+      <c r="H243" s="10">
         <f>(D243+LARGE(E243:G243,1)+LARGE(E243:G243,2))/3</f>
         <v>0.204678362573099</v>
       </c>
@@ -10350,7 +10540,7 @@
       <c r="G251" s="7">
         <v>0</v>
       </c>
-      <c r="H251" s="10">
+      <c r="H251" s="9">
         <f>(D251+LARGE(E251:G251,1)+LARGE(E251:G251,2))/3</f>
         <v>0.555847953216374</v>
       </c>
@@ -10365,7 +10555,9 @@
       <c r="C252" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D252" s="7"/>
+      <c r="D252" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E252" s="7">
         <v>0.553571428571429</v>
       </c>
@@ -10375,7 +10567,10 @@
       <c r="G252" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H252" s="12"/>
+      <c r="H252" s="8">
+        <f>(D252+LARGE(E252:G252,1)+LARGE(E252:G252,2))/3</f>
+        <v>0.6324404761904761</v>
+      </c>
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="6">
@@ -10399,7 +10594,7 @@
       <c r="G253" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H253" s="8">
+      <c r="H253" s="9">
         <f>(D253+LARGE(E253:G253,1)+LARGE(E253:G253,2))/3</f>
         <v>0.6944669365722</v>
       </c>
@@ -10414,7 +10609,9 @@
       <c r="C254" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D254" s="7"/>
+      <c r="D254" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E254" s="7">
         <v>0.625</v>
       </c>
@@ -10424,7 +10621,10 @@
       <c r="G254" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H254" s="13"/>
+      <c r="H254" s="8">
+        <f>(D254+LARGE(E254:G254,1)+LARGE(E254:G254,2))/3</f>
+        <v>0.572916666666667</v>
+      </c>
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="6">
@@ -10436,7 +10636,9 @@
       <c r="C255" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D255" s="7"/>
+      <c r="D255" s="7">
+        <v>0.40625</v>
+      </c>
       <c r="E255" s="7">
         <v>0.75</v>
       </c>
@@ -10446,7 +10648,10 @@
       <c r="G255" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H255" s="12"/>
+      <c r="H255" s="10">
+        <f>(D255+LARGE(E255:G255,1)+LARGE(E255:G255,2))/3</f>
+        <v>0.600801282051282</v>
+      </c>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" t="s" s="6">
@@ -10470,7 +10675,7 @@
       <c r="G256" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H256" s="5">
+      <c r="H256" s="9">
         <f>(D256+LARGE(E256:G256,1)+LARGE(E256:G256,2))/3</f>
         <v>0.607849752586594</v>
       </c>
@@ -10537,23 +10742,23 @@
         <v>523</v>
       </c>
       <c r="C259" t="s" s="6">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D259" s="7">
-        <v>0.625</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E259" s="7">
-        <v>0.75</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="F259" s="7">
-        <v>0.839285714285714</v>
+        <v>0.616666666666666</v>
       </c>
       <c r="G259" s="7">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="H259" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H259" s="5">
         <f>(D259+LARGE(E259:G259,1)+LARGE(E259:G259,2))/3</f>
-        <v>0.738095238095238</v>
+        <v>0.69761583445794</v>
       </c>
     </row>
     <row r="260" ht="20.05" customHeight="1">
@@ -10564,23 +10769,23 @@
         <v>524</v>
       </c>
       <c r="C260" t="s" s="6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D260" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="E260" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F260" s="7">
+        <v>0.839285714285714</v>
+      </c>
+      <c r="G260" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="E260" s="7">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="F260" s="7">
-        <v>0.616666666666666</v>
-      </c>
-      <c r="G260" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H260" s="10">
+      <c r="H260" s="8">
         <f>(D260+LARGE(E260:G260,1)+LARGE(E260:G260,2))/3</f>
-        <v>0.69761583445794</v>
+        <v>0.738095238095238</v>
       </c>
     </row>
     <row r="261" ht="20.05" customHeight="1">
@@ -10591,23 +10796,23 @@
         <v>526</v>
       </c>
       <c r="C261" t="s" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D261" s="7">
-        <v>0.512820512820513</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E261" s="7">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="F261" s="7">
-        <v>0.333333333333333</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="G261" s="7">
-        <v>0.415384615384615</v>
-      </c>
-      <c r="H261" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="H261" s="9">
         <f>(D261+LARGE(E261:G261,1)+LARGE(E261:G261,2))/3</f>
-        <v>0.555015744489429</v>
+        <v>0.603868645973909</v>
       </c>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -10618,23 +10823,23 @@
         <v>527</v>
       </c>
       <c r="C262" t="s" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D262" s="7">
-        <v>0.358974358974359</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="E262" s="7">
-        <v>0.719298245614035</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="F262" s="7">
-        <v>0.7333333333333329</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G262" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H262" s="9">
+        <v>0.415384615384615</v>
+      </c>
+      <c r="H262" s="5">
         <f>(D262+LARGE(E262:G262,1)+LARGE(E262:G262,2))/3</f>
-        <v>0.603868645973909</v>
+        <v>0.555015744489429</v>
       </c>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -10767,7 +10972,7 @@
       <c r="G267" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H267" s="5">
+      <c r="H267" s="8">
         <f>(D267+LARGE(E267:G267,1)+LARGE(E267:G267,2))/3</f>
         <v>0.709131803868646</v>
       </c>
@@ -10780,23 +10985,23 @@
         <v>539</v>
       </c>
       <c r="C268" t="s" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D268" s="7">
-        <v>0.7435897435897439</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="E268" s="7">
-        <v>0.807017543859649</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="F268" s="7">
-        <v>0.85</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G268" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H268" s="8">
+        <v>0.707692307692308</v>
+      </c>
+      <c r="H268" s="9">
         <f>(D268+LARGE(E268:G268,1)+LARGE(E268:G268,2))/3</f>
-        <v>0.800202429149798</v>
+        <v>0.554835807467387</v>
       </c>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -10807,23 +11012,23 @@
         <v>540</v>
       </c>
       <c r="C269" t="s" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D269" s="7">
-        <v>0.307692307692308</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="E269" s="7">
-        <v>0.649122807017544</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="F269" s="7">
-        <v>0.266666666666666</v>
+        <v>0.85</v>
       </c>
       <c r="G269" s="7">
-        <v>0.707692307692308</v>
-      </c>
-      <c r="H269" s="9">
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H269" s="5">
         <f>(D269+LARGE(E269:G269,1)+LARGE(E269:G269,2))/3</f>
-        <v>0.554835807467387</v>
+        <v>0.800202429149798</v>
       </c>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -11028,7 +11233,7 @@
       <c r="G277" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H277" s="8">
+      <c r="H277" s="5">
         <f>(D277+LARGE(E277:G277,1)+LARGE(E277:G277,2))/3</f>
         <v>0.799885531135531</v>
       </c>
@@ -11043,7 +11248,9 @@
       <c r="C278" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D278" s="7"/>
+      <c r="D278" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E278" s="7">
         <v>0.75</v>
       </c>
@@ -11053,7 +11260,10 @@
       <c r="G278" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H278" s="13"/>
+      <c r="H278" s="8">
+        <f>(D278+LARGE(E278:G278,1)+LARGE(E278:G278,2))/3</f>
+        <v>0.755952380952381</v>
+      </c>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="6">
@@ -11065,7 +11275,9 @@
       <c r="C279" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D279" s="7"/>
+      <c r="D279" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E279" s="7">
         <v>0.839285714285714</v>
       </c>
@@ -11075,7 +11287,10 @@
       <c r="G279" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H279" s="12"/>
+      <c r="H279" s="10">
+        <f>(D279+LARGE(E279:G279,1)+LARGE(E279:G279,2))/3</f>
+        <v>0.729166666666666</v>
+      </c>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="6">
@@ -11099,7 +11314,7 @@
       <c r="G280" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H280" s="5">
+      <c r="H280" s="9">
         <f>(D280+LARGE(E280:G280,1)+LARGE(E280:G280,2))/3</f>
         <v>0.788236617183985</v>
       </c>
@@ -11153,7 +11368,7 @@
       <c r="G282" s="7">
         <v>0</v>
       </c>
-      <c r="H282" s="8">
+      <c r="H282" s="5">
         <f>(D282+LARGE(E282:G282,1)+LARGE(E282:G282,2))/3</f>
         <v>0.217543859649123</v>
       </c>
@@ -11168,7 +11383,9 @@
       <c r="C283" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D283" s="7"/>
+      <c r="D283" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E283" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -11178,7 +11395,10 @@
       <c r="G283" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H283" s="12"/>
+      <c r="H283" s="8">
+        <f>(D283+LARGE(E283:G283,1)+LARGE(E283:G283,2))/3</f>
+        <v>0.800595238095238</v>
+      </c>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="6">
@@ -11202,7 +11422,7 @@
       <c r="G284" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H284" s="8">
+      <c r="H284" s="9">
         <f>(D284+LARGE(E284:G284,1)+LARGE(E284:G284,2))/3</f>
         <v>0.679622132253711</v>
       </c>
@@ -11217,7 +11437,9 @@
       <c r="C285" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D285" s="7"/>
+      <c r="D285" s="7">
+        <v>0.375</v>
+      </c>
       <c r="E285" s="7">
         <v>0.571428571428571</v>
       </c>
@@ -11227,7 +11449,10 @@
       <c r="G285" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H285" s="12"/>
+      <c r="H285" s="8">
+        <f>(D285+LARGE(E285:G285,1)+LARGE(E285:G285,2))/3</f>
+        <v>0.6488095238095239</v>
+      </c>
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="6">
@@ -11251,7 +11476,7 @@
       <c r="G286" s="7">
         <v>0</v>
       </c>
-      <c r="H286" s="8">
+      <c r="H286" s="10">
         <f>(D286+LARGE(E286:G286,1)+LARGE(E286:G286,2))/3</f>
         <v>0.204678362573099</v>
       </c>
@@ -11305,7 +11530,7 @@
       <c r="G288" s="7">
         <v>0.338461538461538</v>
       </c>
-      <c r="H288" s="8">
+      <c r="H288" s="5">
         <f>(D288+LARGE(E288:G288,1)+LARGE(E288:G288,2))/3</f>
         <v>0.779419703103914</v>
       </c>
@@ -11320,7 +11545,9 @@
       <c r="C289" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D289" s="7"/>
+      <c r="D289" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E289" s="7">
         <v>0.5</v>
       </c>
@@ -11330,7 +11557,10 @@
       <c r="G289" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H289" s="12"/>
+      <c r="H289" s="8">
+        <f>(D289+LARGE(E289:G289,1)+LARGE(E289:G289,2))/3</f>
+        <v>0.758699633699633</v>
+      </c>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="6">
@@ -11354,7 +11584,7 @@
       <c r="G290" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H290" s="5">
+      <c r="H290" s="9">
         <f>(D290+LARGE(E290:G290,1)+LARGE(E290:G290,2))/3</f>
         <v>0.848065677013045</v>
       </c>
@@ -11424,20 +11654,20 @@
         <v>44</v>
       </c>
       <c r="D293" s="7">
-        <v>0.948717948717949</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E293" s="7">
-        <v>0.842105263157895</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F293" s="7">
-        <v>0.566666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="G293" s="7">
-        <v>0.507692307692308</v>
-      </c>
-      <c r="H293" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H293" s="8">
         <f>(D293+LARGE(E293:G293,1)+LARGE(E293:G293,2))/3</f>
-        <v>0.78582995951417</v>
+        <v>0.706995051731894</v>
       </c>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -11451,20 +11681,20 @@
         <v>44</v>
       </c>
       <c r="D294" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="E294" s="7">
-        <v>0.701754385964912</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F294" s="7">
-        <v>0.65</v>
+        <v>0.566666666666666</v>
       </c>
       <c r="G294" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H294" s="5">
+        <v>0.507692307692308</v>
+      </c>
+      <c r="H294" s="9">
         <f>(D294+LARGE(E294:G294,1)+LARGE(E294:G294,2))/3</f>
-        <v>0.706995051731894</v>
+        <v>0.78582995951417</v>
       </c>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -11516,7 +11746,7 @@
       <c r="G296" s="7">
         <v>0</v>
       </c>
-      <c r="H296" s="8">
+      <c r="H296" s="5">
         <f>(D296+LARGE(E296:G296,1)+LARGE(E296:G296,2))/3</f>
         <v>0.07017543859649129</v>
       </c>
@@ -11531,7 +11761,9 @@
       <c r="C297" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D297" s="7"/>
+      <c r="D297" s="7">
+        <v>0</v>
+      </c>
       <c r="E297" s="7">
         <v>0.214285714285714</v>
       </c>
@@ -11541,7 +11773,10 @@
       <c r="G297" s="7">
         <v>0</v>
       </c>
-      <c r="H297" s="12"/>
+      <c r="H297" s="8">
+        <f>(D297+LARGE(E297:G297,1)+LARGE(E297:G297,2))/3</f>
+        <v>0.0714285714285713</v>
+      </c>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="6">
@@ -11565,7 +11800,7 @@
       <c r="G298" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H298" s="5">
+      <c r="H298" s="9">
         <f>(D298+LARGE(E298:G298,1)+LARGE(E298:G298,2))/3</f>
         <v>0.689023841655421</v>
       </c>
@@ -11727,7 +11962,7 @@
       <c r="G304" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H304" s="10">
+      <c r="H304" s="9">
         <f>(D304+LARGE(E304:G304,1)+LARGE(E304:G304,2))/3</f>
         <v>0.734930274403959</v>
       </c>
@@ -11742,7 +11977,9 @@
       <c r="C305" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D305" s="7"/>
+      <c r="D305" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E305" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -11752,7 +11989,10 @@
       <c r="G305" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H305" s="12"/>
+      <c r="H305" s="8">
+        <f>(D305+LARGE(E305:G305,1)+LARGE(E305:G305,2))/3</f>
+        <v>0.738095238095238</v>
+      </c>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="6">
@@ -11776,7 +12016,7 @@
       <c r="G306" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H306" s="8">
+      <c r="H306" s="10">
         <f>(D306+LARGE(E306:G306,1)+LARGE(E306:G306,2))/3</f>
         <v>0.690247252747253</v>
       </c>
@@ -11965,7 +12205,7 @@
       <c r="G313" s="7">
         <v>0.707692307692308</v>
       </c>
-      <c r="H313" s="10">
+      <c r="H313" s="9">
         <f>(D313+LARGE(E313:G313,1)+LARGE(E313:G313,2))/3</f>
         <v>0.755465587044534</v>
       </c>
@@ -11980,7 +12220,9 @@
       <c r="C314" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D314" s="7"/>
+      <c r="D314" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E314" s="7">
         <v>0.607142857142857</v>
       </c>
@@ -11990,7 +12232,10 @@
       <c r="G314" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H314" s="12"/>
+      <c r="H314" s="8">
+        <f>(D314+LARGE(E314:G314,1)+LARGE(E314:G314,2))/3</f>
+        <v>0.697527472527472</v>
+      </c>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="6">
@@ -12014,7 +12259,7 @@
       <c r="G315" s="7">
         <v>0.6</v>
       </c>
-      <c r="H315" s="5">
+      <c r="H315" s="9">
         <f>(D315+LARGE(E315:G315,1)+LARGE(E315:G315,2))/3</f>
         <v>0.692914979757085</v>
       </c>
@@ -12189,23 +12434,23 @@
         <v>645</v>
       </c>
       <c r="C322" t="s" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D322" s="7">
-        <v>0.871794871794872</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="E322" s="7">
-        <v>0.631578947368421</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="F322" s="7">
-        <v>0.533333333333333</v>
+        <v>0.7666666666666661</v>
       </c>
       <c r="G322" s="7">
-        <v>0.646153846153846</v>
+        <v>0.723076923076923</v>
       </c>
       <c r="H322" s="9">
         <f>(D322+LARGE(E322:G322,1)+LARGE(E322:G322,2))/3</f>
-        <v>0.71650922177238</v>
+        <v>0.767026540710751</v>
       </c>
     </row>
     <row r="323" ht="20.05" customHeight="1">
@@ -12216,23 +12461,23 @@
         <v>646</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D323" s="7">
-        <v>0.692307692307692</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="E323" s="7">
-        <v>0.842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F323" s="7">
-        <v>0.7666666666666661</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G323" s="7">
-        <v>0.723076923076923</v>
+        <v>0.646153846153846</v>
       </c>
       <c r="H323" s="5">
         <f>(D323+LARGE(E323:G323,1)+LARGE(E323:G323,2))/3</f>
-        <v>0.767026540710751</v>
+        <v>0.71650922177238</v>
       </c>
     </row>
     <row r="324" ht="20.05" customHeight="1">
@@ -12338,7 +12583,7 @@
       <c r="G327" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H327" s="8">
+      <c r="H327" s="5">
         <f>(D327+LARGE(E327:G327,1)+LARGE(E327:G327,2))/3</f>
         <v>0.844916779127305</v>
       </c>
@@ -12353,7 +12598,9 @@
       <c r="C328" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D328" s="7"/>
+      <c r="D328" s="7">
+        <v>0</v>
+      </c>
       <c r="E328" s="7">
         <v>0.410714285714286</v>
       </c>
@@ -12363,7 +12610,10 @@
       <c r="G328" s="7">
         <v>0</v>
       </c>
-      <c r="H328" s="12"/>
+      <c r="H328" s="8">
+        <f>(D328+LARGE(E328:G328,1)+LARGE(E328:G328,2))/3</f>
+        <v>0.136904761904762</v>
+      </c>
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="6">
@@ -12387,7 +12637,7 @@
       <c r="G329" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H329" s="8">
+      <c r="H329" s="9">
         <f>(D329+LARGE(E329:G329,1)+LARGE(E329:G329,2))/3</f>
         <v>0.768956043956044</v>
       </c>
@@ -12402,7 +12652,9 @@
       <c r="C330" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D330" s="7"/>
+      <c r="D330" s="7">
+        <v>0.78125</v>
+      </c>
       <c r="E330" s="7">
         <v>0</v>
       </c>
@@ -12412,7 +12664,10 @@
       <c r="G330" s="7">
         <v>0.6</v>
       </c>
-      <c r="H330" s="12"/>
+      <c r="H330" s="8">
+        <f>(D330+LARGE(E330:G330,1)+LARGE(E330:G330,2))/3</f>
+        <v>0.763988095238095</v>
+      </c>
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="6">
@@ -12436,7 +12691,7 @@
       <c r="G331" s="7">
         <v>0</v>
       </c>
-      <c r="H331" s="8">
+      <c r="H331" s="9">
         <f>(D331+LARGE(E331:G331,1)+LARGE(E331:G331,2))/3</f>
         <v>0.766621682411156</v>
       </c>
@@ -12451,7 +12706,9 @@
       <c r="C332" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D332" s="7"/>
+      <c r="D332" s="7">
+        <v>0.71875</v>
+      </c>
       <c r="E332" s="7">
         <v>0.589285714285714</v>
       </c>
@@ -12461,7 +12718,10 @@
       <c r="G332" s="7">
         <v>0.723076923076923</v>
       </c>
-      <c r="H332" s="12"/>
+      <c r="H332" s="8">
+        <f>(D332+LARGE(E332:G332,1)+LARGE(E332:G332,2))/3</f>
+        <v>0.760370879120879</v>
+      </c>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="6">
@@ -12485,7 +12745,7 @@
       <c r="G333" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H333" s="8">
+      <c r="H333" s="10">
         <f>(D333+LARGE(E333:G333,1)+LARGE(E333:G333,2))/3</f>
         <v>0.709334233018444</v>
       </c>
@@ -12539,7 +12799,7 @@
       <c r="G335" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H335" s="8">
+      <c r="H335" s="5">
         <f>(D335+LARGE(E335:G335,1)+LARGE(E335:G335,2))/3</f>
         <v>0.559154295996401</v>
       </c>
@@ -12554,7 +12814,9 @@
       <c r="C336" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D336" s="7"/>
+      <c r="D336" s="7">
+        <v>0.65625</v>
+      </c>
       <c r="E336" s="7">
         <v>0.571428571428571</v>
       </c>
@@ -12564,7 +12826,10 @@
       <c r="G336" s="7">
         <v>0.630769230769231</v>
       </c>
-      <c r="H336" s="12"/>
+      <c r="H336" s="8">
+        <f>(D336+LARGE(E336:G336,1)+LARGE(E336:G336,2))/3</f>
+        <v>0.667101648351648</v>
+      </c>
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" t="s" s="6">
@@ -12588,7 +12853,7 @@
       <c r="G337" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H337" s="8">
+      <c r="H337" s="10">
         <f>(D337+LARGE(E337:G337,1)+LARGE(E337:G337,2))/3</f>
         <v>0.804430949167791</v>
       </c>
@@ -12642,7 +12907,7 @@
       <c r="G339" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H339" s="8">
+      <c r="H339" s="5">
         <f>(D339+LARGE(E339:G339,1)+LARGE(E339:G339,2))/3</f>
         <v>0.682276203328835</v>
       </c>
@@ -12657,7 +12922,9 @@
       <c r="C340" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D340" s="7"/>
+      <c r="D340" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E340" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -12667,7 +12934,10 @@
       <c r="G340" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H340" s="12"/>
+      <c r="H340" s="8">
+        <f>(D340+LARGE(E340:G340,1)+LARGE(E340:G340,2))/3</f>
+        <v>0.649908424908425</v>
+      </c>
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" t="s" s="6">
@@ -12691,7 +12961,7 @@
       <c r="G341" s="7">
         <v>0.6</v>
       </c>
-      <c r="H341" s="5">
+      <c r="H341" s="9">
         <f>(D341+LARGE(E341:G341,1)+LARGE(E341:G341,2))/3</f>
         <v>0.5121907332433649</v>
       </c>
@@ -12718,7 +12988,7 @@
       <c r="G342" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H342" s="8">
+      <c r="H342" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -12732,7 +13002,9 @@
       <c r="C343" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D343" s="7"/>
+      <c r="D343" s="7">
+        <v>0.9375</v>
+      </c>
       <c r="E343" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -12742,7 +13014,10 @@
       <c r="G343" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H343" s="13"/>
+      <c r="H343" s="8">
+        <f>(D343+LARGE(E343:G343,1)+LARGE(E343:G343,2))/3</f>
+        <v>0.800595238095238</v>
+      </c>
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="6">
@@ -12754,7 +13029,9 @@
       <c r="C344" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D344" s="7"/>
+      <c r="D344" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="E344" s="7">
         <v>0.446428571428571</v>
       </c>
@@ -12764,7 +13041,10 @@
       <c r="G344" s="7">
         <v>0</v>
       </c>
-      <c r="H344" s="12"/>
+      <c r="H344" s="10">
+        <f>(D344+LARGE(E344:G344,1)+LARGE(E344:G344,2))/3</f>
+        <v>0.34672619047619</v>
+      </c>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="6">
@@ -12788,7 +13068,7 @@
       <c r="G345" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H345" s="5">
+      <c r="H345" s="9">
         <f>(D345+LARGE(E345:G345,1)+LARGE(E345:G345,2))/3</f>
         <v>0.748020692757535</v>
       </c>
@@ -12896,7 +13176,7 @@
       <c r="G349" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H349" s="10">
+      <c r="H349" s="9">
         <f>(D349+LARGE(E349:G349,1)+LARGE(E349:G349,2))/3</f>
         <v>0.7446018893387309</v>
       </c>
@@ -12911,7 +13191,9 @@
       <c r="C350" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D350" s="7"/>
+      <c r="D350" s="7">
+        <v>0.34375</v>
+      </c>
       <c r="E350" s="7">
         <v>0</v>
       </c>
@@ -12921,7 +13203,10 @@
       <c r="G350" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H350" s="12"/>
+      <c r="H350" s="8">
+        <f>(D350+LARGE(E350:G350,1)+LARGE(E350:G350,2))/3</f>
+        <v>0.463026556776557</v>
+      </c>
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="6">
@@ -12945,7 +13230,7 @@
       <c r="G351" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H351" s="5">
+      <c r="H351" s="9">
         <f>(D351+LARGE(E351:G351,1)+LARGE(E351:G351,2))/3</f>
         <v>0.863095238095238</v>
       </c>
@@ -13017,7 +13302,7 @@
       <c r="G354" s="7">
         <v>0.507692307692308</v>
       </c>
-      <c r="H354" s="8">
+      <c r="H354" s="5">
         <f>(D354+LARGE(E354:G354,1)+LARGE(E354:G354,2))/3</f>
         <v>0.739583333333333</v>
       </c>
@@ -13032,7 +13317,9 @@
       <c r="C355" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D355" s="7"/>
+      <c r="D355" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E355" s="7">
         <v>0.803571428571429</v>
       </c>
@@ -13042,7 +13329,10 @@
       <c r="G355" s="7">
         <v>0.7384615384615379</v>
       </c>
-      <c r="H355" s="12"/>
+      <c r="H355" s="8">
+        <f>(D355+LARGE(E355:G355,1)+LARGE(E355:G355,2))/3</f>
+        <v>0.691094322344322</v>
+      </c>
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="6">
@@ -13066,7 +13356,7 @@
       <c r="G356" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H356" s="8">
+      <c r="H356" s="10">
         <f>(D356+LARGE(E356:G356,1)+LARGE(E356:G356,2))/3</f>
         <v>0.727289377289377</v>
       </c>
@@ -13201,7 +13491,7 @@
       <c r="G361" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H361" s="8">
+      <c r="H361" s="5">
         <f>(D361+LARGE(E361:G361,1)+LARGE(E361:G361,2))/3</f>
         <v>0.69047619047619</v>
       </c>
@@ -13216,7 +13506,9 @@
       <c r="C362" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D362" s="7"/>
+      <c r="D362" s="7">
+        <v>0</v>
+      </c>
       <c r="E362" s="7">
         <v>0</v>
       </c>
@@ -13226,7 +13518,10 @@
       <c r="G362" s="7">
         <v>0</v>
       </c>
-      <c r="H362" s="12"/>
+      <c r="H362" s="8">
+        <f>(D362+LARGE(E362:G362,1)+LARGE(E362:G362,2))/3</f>
+        <v>0.095238095238095</v>
+      </c>
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="6">
@@ -13250,7 +13545,7 @@
       <c r="G363" s="7">
         <v>0.6</v>
       </c>
-      <c r="H363" s="8">
+      <c r="H363" s="9">
         <f>(D363+LARGE(E363:G363,1)+LARGE(E363:G363,2))/3</f>
         <v>0.630049482681062</v>
       </c>
@@ -13265,7 +13560,9 @@
       <c r="C364" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D364" s="7"/>
+      <c r="D364" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E364" s="7">
         <v>0.696428571428571</v>
       </c>
@@ -13275,7 +13572,10 @@
       <c r="G364" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H364" s="12"/>
+      <c r="H364" s="8">
+        <f>(D364+LARGE(E364:G364,1)+LARGE(E364:G364,2))/3</f>
+        <v>0.712797619047619</v>
+      </c>
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="6">
@@ -13299,7 +13599,7 @@
       <c r="G365" s="7">
         <v>0.338461538461538</v>
       </c>
-      <c r="H365" s="8">
+      <c r="H365" s="10">
         <f>(D365+LARGE(E365:G365,1)+LARGE(E365:G365,2))/3</f>
         <v>0.724269005847953</v>
       </c>
@@ -13420,23 +13720,23 @@
         <v>738</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D370" s="7">
-        <v>0.820512820512821</v>
+        <v>0.5</v>
       </c>
       <c r="E370" s="7">
-        <v>0.701754385964912</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="F370" s="7">
-        <v>1</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="G370" s="7">
-        <v>0.646153846153846</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H370" s="10">
         <f>(D370+LARGE(E370:G370,1)+LARGE(E370:G370,2))/3</f>
-        <v>0.840755735492578</v>
+        <v>0.678571428571428</v>
       </c>
     </row>
     <row r="371" ht="20.05" customHeight="1">
@@ -13474,23 +13774,23 @@
         <v>740</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D372" s="7">
-        <v>0.5</v>
+        <v>0.820512820512821</v>
       </c>
       <c r="E372" s="7">
-        <v>0.696428571428571</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="F372" s="7">
-        <v>0.839285714285714</v>
+        <v>1</v>
       </c>
       <c r="G372" s="7">
-        <v>0.538461538461538</v>
+        <v>0.646153846153846</v>
       </c>
       <c r="H372" s="8">
         <f>(D372+LARGE(E372:G372,1)+LARGE(E372:G372,2))/3</f>
-        <v>0.678571428571428</v>
+        <v>0.840755735492578</v>
       </c>
     </row>
     <row r="373" ht="20.05" customHeight="1">
@@ -13623,7 +13923,7 @@
       <c r="G377" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H377" s="10">
+      <c r="H377" s="9">
         <f>(D377+LARGE(E377:G377,1)+LARGE(E377:G377,2))/3</f>
         <v>0.6611336032388661</v>
       </c>
@@ -13638,7 +13938,9 @@
       <c r="C378" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D378" s="7"/>
+      <c r="D378" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E378" s="7">
         <v>0.553571428571429</v>
       </c>
@@ -13648,7 +13950,10 @@
       <c r="G378" s="7">
         <v>0.446153846153846</v>
       </c>
-      <c r="H378" s="12"/>
+      <c r="H378" s="8">
+        <f>(D378+LARGE(E378:G378,1)+LARGE(E378:G378,2))/3</f>
+        <v>0.607142857142857</v>
+      </c>
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="6">
@@ -13672,7 +13977,7 @@
       <c r="G379" s="7">
         <v>0</v>
       </c>
-      <c r="H379" s="8">
+      <c r="H379" s="10">
         <f>(D379+LARGE(E379:G379,1)+LARGE(E379:G379,2))/3</f>
         <v>0.549595141700405</v>
       </c>
@@ -13699,7 +14004,7 @@
       <c r="G380" s="7">
         <v>0</v>
       </c>
-      <c r="H380" s="10">
+      <c r="H380" s="9">
         <f>(D380+LARGE(E380:G380,1)+LARGE(E380:G380,2))/3</f>
         <v>0.654161043634728</v>
       </c>
@@ -13714,7 +14019,9 @@
       <c r="C381" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D381" s="7"/>
+      <c r="D381" s="7">
+        <v>0.3125</v>
+      </c>
       <c r="E381" s="7">
         <v>0.75</v>
       </c>
@@ -13724,7 +14031,10 @@
       <c r="G381" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H381" s="12"/>
+      <c r="H381" s="8">
+        <f>(D381+LARGE(E381:G381,1)+LARGE(E381:G381,2))/3</f>
+        <v>0.657738095238095</v>
+      </c>
     </row>
     <row r="382" ht="20.05" customHeight="1">
       <c r="A382" t="s" s="6">
@@ -13748,7 +14058,7 @@
       <c r="G382" s="7">
         <v>0</v>
       </c>
-      <c r="H382" s="8">
+      <c r="H382" s="10">
         <f>(D382+LARGE(E382:G382,1)+LARGE(E382:G382,2))/3</f>
         <v>0.12280701754386</v>
       </c>
@@ -13802,7 +14112,7 @@
       <c r="G384" s="7">
         <v>0.584615384615385</v>
       </c>
-      <c r="H384" s="10">
+      <c r="H384" s="9">
         <f>(D384+LARGE(E384:G384,1)+LARGE(E384:G384,2))/3</f>
         <v>0.624921277552857</v>
       </c>
@@ -13817,7 +14127,9 @@
       <c r="C385" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D385" s="7"/>
+      <c r="D385" s="7">
+        <v>0.90625</v>
+      </c>
       <c r="E385" s="7">
         <v>0.642857142857143</v>
       </c>
@@ -13827,7 +14139,10 @@
       <c r="G385" s="7">
         <v>0.523076923076923</v>
       </c>
-      <c r="H385" s="12"/>
+      <c r="H385" s="8">
+        <f>(D385+LARGE(E385:G385,1)+LARGE(E385:G385,2))/3</f>
+        <v>0.690728021978022</v>
+      </c>
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="6">
@@ -13851,7 +14166,7 @@
       <c r="G386" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="H386" s="5">
+      <c r="H386" s="9">
         <f>(D386+LARGE(E386:G386,1)+LARGE(E386:G386,2))/3</f>
         <v>0.751911830859199</v>
       </c>
@@ -14175,7 +14490,7 @@
       <c r="G398" s="7">
         <v>0.646153846153846</v>
       </c>
-      <c r="H398" s="10">
+      <c r="H398" s="9">
         <f>(D398+LARGE(E398:G398,1)+LARGE(E398:G398,2))/3</f>
         <v>0.6467611336032389</v>
       </c>
@@ -14188,19 +14503,24 @@
         <v>794</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D399" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D399" s="7">
+        <v>0.84375</v>
+      </c>
       <c r="E399" s="7">
-        <v>0</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F399" s="7">
-        <v>0</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G399" s="7">
-        <v>0</v>
-      </c>
-      <c r="H399" s="13"/>
+        <v>0.538461538461538</v>
+      </c>
+      <c r="H399" s="8">
+        <f>(D399+LARGE(E399:G399,1)+LARGE(E399:G399,2))/3</f>
+        <v>0.746451465201465</v>
+      </c>
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="6">
@@ -14210,19 +14530,23 @@
         <v>795</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="D400" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D400" s="7">
+        <v>0</v>
+      </c>
       <c r="E400" s="7">
-        <v>0.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="F400" s="7">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="G400" s="7">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="H400" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="H400" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="6">
@@ -14234,7 +14558,9 @@
       <c r="C401" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D401" s="7"/>
+      <c r="D401" s="7">
+        <v>0.625</v>
+      </c>
       <c r="E401" s="7">
         <v>0.553571428571429</v>
       </c>
@@ -14244,7 +14570,10 @@
       <c r="G401" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H401" s="12"/>
+      <c r="H401" s="8">
+        <f>(D401+LARGE(E401:G401,1)+LARGE(E401:G401,2))/3</f>
+        <v>0.7261904761904761</v>
+      </c>
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="6">
@@ -14268,7 +14597,7 @@
       <c r="G402" s="7">
         <v>0.569230769230769</v>
       </c>
-      <c r="H402" s="8">
+      <c r="H402" s="10">
         <f>(D402+LARGE(E402:G402,1)+LARGE(E402:G402,2))/3</f>
         <v>0.347008547008547</v>
       </c>
@@ -14376,7 +14705,7 @@
       <c r="G406" s="7">
         <v>0.384615384615385</v>
       </c>
-      <c r="H406" s="10">
+      <c r="H406" s="9">
         <f>(D406+LARGE(E406:G406,1)+LARGE(E406:G406,2))/3</f>
         <v>0.547570850202429</v>
       </c>
@@ -14391,7 +14720,9 @@
       <c r="C407" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D407" s="7"/>
+      <c r="D407" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E407" s="7">
         <v>0.428571428571429</v>
       </c>
@@ -14401,7 +14732,10 @@
       <c r="G407" s="7">
         <v>0.461538461538462</v>
       </c>
-      <c r="H407" s="12"/>
+      <c r="H407" s="8">
+        <f>(D407+LARGE(E407:G407,1)+LARGE(E407:G407,2))/3</f>
+        <v>0.6345009157509161</v>
+      </c>
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="6">
@@ -14425,7 +14759,7 @@
       <c r="G408" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="H408" s="5">
+      <c r="H408" s="9">
         <f>(D408+LARGE(E408:G408,1)+LARGE(E408:G408,2))/3</f>
         <v>0.794871794871795</v>
       </c>
@@ -14722,7 +15056,7 @@
       <c r="G419" s="7">
         <v>0.661538461538462</v>
       </c>
-      <c r="H419" s="10">
+      <c r="H419" s="9">
         <f>(D419+LARGE(E419:G419,1)+LARGE(E419:G419,2))/3</f>
         <v>0.647863247863248</v>
       </c>
@@ -14735,23 +15069,23 @@
         <v>835</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D420" s="7">
-        <v>0.461538461538462</v>
+        <v>0</v>
       </c>
       <c r="E420" s="7">
-        <v>0.8947368421052631</v>
+        <v>0</v>
       </c>
       <c r="F420" s="7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G420" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H420" s="9">
+        <v>0</v>
+      </c>
+      <c r="H420" s="8">
         <f>(D420+LARGE(E420:G420,1)+LARGE(E420:G420,2))/3</f>
-        <v>0.685425101214575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" ht="20.05" customHeight="1">
@@ -14762,23 +15096,23 @@
         <v>836</v>
       </c>
       <c r="C421" t="s" s="6">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D421" s="7">
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="E421" s="7">
-        <v>0</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="F421" s="7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G421" s="7">
-        <v>0</v>
-      </c>
-      <c r="H421" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H421" s="9">
         <f>(D421+LARGE(E421:G421,1)+LARGE(E421:G421,2))/3</f>
-        <v>0</v>
+        <v>0.685425101214575</v>
       </c>
     </row>
     <row r="422" ht="20.05" customHeight="1">
@@ -14803,7 +15137,7 @@
       <c r="G422" s="7">
         <v>0</v>
       </c>
-      <c r="H422" s="9">
+      <c r="H422" s="5">
         <f>(D422+LARGE(E422:G422,1)+LARGE(E422:G422,2))/3</f>
         <v>0.683940620782726</v>
       </c>
@@ -14857,7 +15191,7 @@
       <c r="G424" s="7">
         <v>0</v>
       </c>
-      <c r="H424" s="8">
+      <c r="H424" s="5">
         <f>(D424+LARGE(E424:G424,1)+LARGE(E424:G424,2))/3</f>
         <v>0.8038686459739089</v>
       </c>
@@ -14872,7 +15206,9 @@
       <c r="C425" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D425" s="7"/>
+      <c r="D425" s="7">
+        <v>0.6875</v>
+      </c>
       <c r="E425" s="7">
         <v>0.607142857142857</v>
       </c>
@@ -14882,7 +15218,10 @@
       <c r="G425" s="7">
         <v>0.553846153846154</v>
       </c>
-      <c r="H425" s="12"/>
+      <c r="H425" s="8">
+        <f>(D425+LARGE(E425:G425,1)+LARGE(E425:G425,2))/3</f>
+        <v>0.651785714285714</v>
+      </c>
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="6">
@@ -14906,7 +15245,7 @@
       <c r="G426" s="7">
         <v>0</v>
       </c>
-      <c r="H426" s="8">
+      <c r="H426" s="10">
         <f>(D426+LARGE(E426:G426,1)+LARGE(E426:G426,2))/3</f>
         <v>0.479824561403509</v>
       </c>
@@ -14987,7 +15326,7 @@
       <c r="G429" s="7">
         <v>0.430769230769231</v>
       </c>
-      <c r="H429" s="10">
+      <c r="H429" s="9">
         <f>(D429+LARGE(E429:G429,1)+LARGE(E429:G429,2))/3</f>
         <v>0.623121907332433</v>
       </c>
@@ -15002,7 +15341,9 @@
       <c r="C430" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D430" s="7"/>
+      <c r="D430" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="E430" s="7">
         <v>0.446428571428571</v>
       </c>
@@ -15012,7 +15353,10 @@
       <c r="G430" s="7">
         <v>0.538461538461538</v>
       </c>
-      <c r="H430" s="13"/>
+      <c r="H430" s="5">
+        <f>(D430+LARGE(E430:G430,1)+LARGE(E430:G430,2))/3</f>
+        <v>0.564903846153846</v>
+      </c>
     </row>
     <row r="431" ht="20.05" customHeight="1">
       <c r="A431" t="s" s="6">
@@ -15024,7 +15368,9 @@
       <c r="C431" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D431" s="7"/>
+      <c r="D431" s="7">
+        <v>0</v>
+      </c>
       <c r="E431" s="7">
         <v>0</v>
       </c>
@@ -15034,7 +15380,10 @@
       <c r="G431" s="7">
         <v>0</v>
       </c>
-      <c r="H431" s="13"/>
+      <c r="H431" s="8">
+        <f>(D431+LARGE(E431:G431,1)+LARGE(E431:G431,2))/3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="6">
@@ -15046,17 +15395,22 @@
       <c r="C432" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D432" s="7"/>
+      <c r="D432" s="7">
+        <v>0.875</v>
+      </c>
       <c r="E432" s="7">
-        <v>0.607142857142857</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="F432" s="7">
         <v>0.910714285714285</v>
       </c>
       <c r="G432" s="7">
-        <v>0.584615384615385</v>
-      </c>
-      <c r="H432" s="13"/>
+        <v>0.646153846153846</v>
+      </c>
+      <c r="H432" s="9">
+        <f>(D432+LARGE(E432:G432,1)+LARGE(E432:G432,2))/3</f>
+        <v>0.863095238095238</v>
+      </c>
     </row>
     <row r="433" ht="20.05" customHeight="1">
       <c r="A433" t="s" s="6">
@@ -15068,39 +15422,46 @@
       <c r="C433" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D433" s="7"/>
+      <c r="D433" s="7">
+        <v>0.9375</v>
+      </c>
       <c r="E433" s="7">
-        <v>0.803571428571429</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F433" s="7">
         <v>0.910714285714285</v>
       </c>
       <c r="G433" s="7">
-        <v>0.646153846153846</v>
-      </c>
-      <c r="H433" s="12"/>
+        <v>0.584615384615385</v>
+      </c>
+      <c r="H433" s="8">
+        <f>(D433+LARGE(E433:G433,1)+LARGE(E433:G433,2))/3</f>
+        <v>0.818452380952381</v>
+      </c>
     </row>
     <row r="434" ht="20.05" customHeight="1">
       <c r="A434" s="13"/>
       <c r="B434" t="s" s="6">
         <v>859</v>
       </c>
-      <c r="C434" s="6"/>
+      <c r="C434" t="s" s="6">
+        <v>10</v>
+      </c>
       <c r="D434" s="7">
-        <v>0.487179487179487</v>
+        <v>0</v>
       </c>
       <c r="E434" s="7">
         <v>0</v>
       </c>
       <c r="F434" s="7">
-        <v>0</v>
+        <v>0.716666666666666</v>
       </c>
       <c r="G434" s="7">
         <v>0</v>
       </c>
-      <c r="H434" s="5">
+      <c r="H434" s="10">
         <f>(D434+LARGE(E434:G434,1)+LARGE(E434:G434,2))/3</f>
-        <v>0.162393162393162</v>
+        <v>0.238888888888889</v>
       </c>
     </row>
     <row r="435" ht="20.05" customHeight="1">
@@ -15108,24 +15469,22 @@
       <c r="B435" t="s" s="6">
         <v>860</v>
       </c>
-      <c r="C435" t="s" s="6">
-        <v>10</v>
-      </c>
+      <c r="C435" s="6"/>
       <c r="D435" s="7">
-        <v>0</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="E435" s="7">
         <v>0</v>
       </c>
       <c r="F435" s="7">
-        <v>0.716666666666666</v>
+        <v>0</v>
       </c>
       <c r="G435" s="7">
         <v>0</v>
       </c>
-      <c r="H435" s="8">
+      <c r="H435" s="10">
         <f>(D435+LARGE(E435:G435,1)+LARGE(E435:G435,2))/3</f>
-        <v>0.238888888888889</v>
+        <v>0.162393162393162</v>
       </c>
     </row>
   </sheetData>

--- a/cw2021.xlsx
+++ b/cw2021.xlsx
@@ -13885,7 +13885,7 @@
         <v>16</v>
       </c>
       <c r="D376" s="7">
-        <v>0</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="E376" s="7">
         <v>0.701754385964912</v>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="H376" s="8">
         <f>(D376+LARGE(E376:G376,1)+LARGE(E376:G376,2))/3</f>
-        <v>0.449302744039586</v>
+        <v>0.6629779577147999</v>
       </c>
     </row>
     <row r="377" ht="20.05" customHeight="1">
